--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R560"/>
+  <dimension ref="A1:R561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -39593,33 +39593,33 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J545" t="n">
-        <v>3300</v>
+        <v>4160</v>
       </c>
       <c r="K545" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="L545" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="M545" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O545" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P545" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="Q545" t="n">
         <v>1</v>
@@ -39669,16 +39669,16 @@
         </is>
       </c>
       <c r="J546" t="n">
-        <v>2800</v>
+        <v>3300</v>
       </c>
       <c r="K546" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L546" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M546" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39687,11 +39687,11 @@
       </c>
       <c r="O546" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P546" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="Q546" t="n">
         <v>1</v>
@@ -39737,20 +39737,20 @@
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J547" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="K547" t="n">
-        <v>3800</v>
+        <v>1500</v>
       </c>
       <c r="L547" t="n">
-        <v>3800</v>
+        <v>1500</v>
       </c>
       <c r="M547" t="n">
-        <v>3800</v>
+        <v>1500</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39759,11 +39759,11 @@
       </c>
       <c r="O547" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P547" t="n">
-        <v>3800</v>
+        <v>1500</v>
       </c>
       <c r="Q547" t="n">
         <v>1</v>
@@ -39813,16 +39813,16 @@
         </is>
       </c>
       <c r="J548" t="n">
-        <v>2400</v>
+        <v>3500</v>
       </c>
       <c r="K548" t="n">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="L548" t="n">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="M548" t="n">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39831,11 +39831,11 @@
       </c>
       <c r="O548" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P548" t="n">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="Q548" t="n">
         <v>1</v>
@@ -39881,20 +39881,20 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>4200</v>
+        <v>2400</v>
       </c>
       <c r="K549" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L549" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M549" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39903,11 +39903,11 @@
       </c>
       <c r="O549" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P549" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="Q549" t="n">
         <v>1</v>
@@ -39957,7 +39957,7 @@
         </is>
       </c>
       <c r="J550" t="n">
-        <v>2000</v>
+        <v>4200</v>
       </c>
       <c r="K550" t="n">
         <v>3000</v>
@@ -39975,7 +39975,7 @@
       </c>
       <c r="O550" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P550" t="n">
@@ -40025,20 +40025,20 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="K551" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L551" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M551" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40047,11 +40047,11 @@
       </c>
       <c r="O551" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P551" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q551" t="n">
         <v>1</v>
@@ -40101,16 +40101,16 @@
         </is>
       </c>
       <c r="J552" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="K552" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L552" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M552" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40119,11 +40119,11 @@
       </c>
       <c r="O552" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P552" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q552" t="n">
         <v>1</v>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -40169,20 +40169,20 @@
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="K553" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L553" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="M553" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40191,11 +40191,11 @@
       </c>
       <c r="O553" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P553" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="Q553" t="n">
         <v>1</v>
@@ -40245,16 +40245,16 @@
         </is>
       </c>
       <c r="J554" t="n">
-        <v>5700</v>
+        <v>2800</v>
       </c>
       <c r="K554" t="n">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="L554" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="M554" t="n">
-        <v>2346</v>
+        <v>2200</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40263,11 +40263,11 @@
       </c>
       <c r="O554" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P554" t="n">
-        <v>2346</v>
+        <v>2200</v>
       </c>
       <c r="Q554" t="n">
         <v>1</v>
@@ -40313,20 +40313,20 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J555" t="n">
-        <v>3700</v>
+        <v>5700</v>
       </c>
       <c r="K555" t="n">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="L555" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="M555" t="n">
-        <v>1800</v>
+        <v>2346</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40335,11 +40335,11 @@
       </c>
       <c r="O555" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P555" t="n">
-        <v>1800</v>
+        <v>2346</v>
       </c>
       <c r="Q555" t="n">
         <v>1</v>
@@ -40389,16 +40389,16 @@
         </is>
       </c>
       <c r="J556" t="n">
-        <v>7800</v>
+        <v>3700</v>
       </c>
       <c r="K556" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="L556" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="M556" t="n">
-        <v>1850</v>
+        <v>1800</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40407,11 +40407,11 @@
       </c>
       <c r="O556" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P556" t="n">
-        <v>1850</v>
+        <v>1800</v>
       </c>
       <c r="Q556" t="n">
         <v>1</v>
@@ -40457,20 +40457,20 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J557" t="n">
-        <v>3900</v>
+        <v>7800</v>
       </c>
       <c r="K557" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="L557" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M557" t="n">
-        <v>1446</v>
+        <v>1850</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>1446</v>
+        <v>1850</v>
       </c>
       <c r="Q557" t="n">
         <v>1</v>
@@ -40529,20 +40529,20 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J558" t="n">
-        <v>3300</v>
+        <v>3900</v>
       </c>
       <c r="K558" t="n">
-        <v>2700</v>
+        <v>1300</v>
       </c>
       <c r="L558" t="n">
-        <v>2700</v>
+        <v>1600</v>
       </c>
       <c r="M558" t="n">
-        <v>2700</v>
+        <v>1446</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40551,11 +40551,11 @@
       </c>
       <c r="O558" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P558" t="n">
-        <v>2700</v>
+        <v>1446</v>
       </c>
       <c r="Q558" t="n">
         <v>1</v>
@@ -40605,16 +40605,16 @@
         </is>
       </c>
       <c r="J559" t="n">
-        <v>5900</v>
+        <v>3300</v>
       </c>
       <c r="K559" t="n">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="L559" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="M559" t="n">
-        <v>2688</v>
+        <v>2700</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40623,11 +40623,11 @@
       </c>
       <c r="O559" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P559" t="n">
-        <v>2688</v>
+        <v>2700</v>
       </c>
       <c r="Q559" t="n">
         <v>1</v>
@@ -40673,38 +40673,110 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
+          <t>Super</t>
+        </is>
+      </c>
+      <c r="J560" t="n">
+        <v>5900</v>
+      </c>
+      <c r="K560" t="n">
+        <v>2600</v>
+      </c>
+      <c r="L560" t="n">
+        <v>2800</v>
+      </c>
+      <c r="M560" t="n">
+        <v>2688</v>
+      </c>
+      <c r="N560" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O560" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P560" t="n">
+        <v>2688</v>
+      </c>
+      <c r="Q560" t="n">
+        <v>1</v>
+      </c>
+      <c r="R560" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>6</v>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D561" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E561" t="n">
+        <v>13</v>
+      </c>
+      <c r="F561" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G561" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H561" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I561" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J560" t="n">
+      <c r="J561" t="n">
         <v>3900</v>
       </c>
-      <c r="K560" t="n">
+      <c r="K561" t="n">
         <v>1000</v>
       </c>
-      <c r="L560" t="n">
+      <c r="L561" t="n">
         <v>1200</v>
       </c>
-      <c r="M560" t="n">
+      <c r="M561" t="n">
         <v>1113</v>
       </c>
-      <c r="N560" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O560" t="inlineStr">
+      <c r="N561" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O561" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P560" t="n">
+      <c r="P561" t="n">
         <v>1113</v>
       </c>
-      <c r="Q560" t="n">
-        <v>1</v>
-      </c>
-      <c r="R560" t="inlineStr">
+      <c r="Q561" t="n">
+        <v>1</v>
+      </c>
+      <c r="R561" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R561"/>
+  <dimension ref="A1:R562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44218</v>
+        <v>44452</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -30089,33 +30089,33 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J413" t="n">
-        <v>2200</v>
+        <v>4500</v>
       </c>
       <c r="K413" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="L413" t="n">
-        <v>800</v>
+        <v>1150</v>
       </c>
       <c r="M413" t="n">
-        <v>764</v>
+        <v>1121</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P413" t="n">
-        <v>764</v>
+        <v>1121</v>
       </c>
       <c r="Q413" t="n">
         <v>1</v>
@@ -30161,20 +30161,20 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J414" t="n">
-        <v>4300</v>
+        <v>2200</v>
       </c>
       <c r="K414" t="n">
-        <v>2400</v>
+        <v>700</v>
       </c>
       <c r="L414" t="n">
-        <v>2600</v>
+        <v>800</v>
       </c>
       <c r="M414" t="n">
-        <v>2516</v>
+        <v>764</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>2516</v>
+        <v>764</v>
       </c>
       <c r="Q414" t="n">
         <v>1</v>
@@ -30233,20 +30233,20 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>6400</v>
+        <v>4300</v>
       </c>
       <c r="K415" t="n">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="L415" t="n">
-        <v>2100</v>
+        <v>2600</v>
       </c>
       <c r="M415" t="n">
-        <v>2009</v>
+        <v>2516</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>2009</v>
+        <v>2516</v>
       </c>
       <c r="Q415" t="n">
         <v>1</v>
@@ -30305,20 +30305,20 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J416" t="n">
-        <v>4100</v>
+        <v>6400</v>
       </c>
       <c r="K416" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="L416" t="n">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="M416" t="n">
-        <v>1607</v>
+        <v>2009</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>1607</v>
+        <v>2009</v>
       </c>
       <c r="Q416" t="n">
         <v>1</v>
@@ -30377,20 +30377,20 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>6500</v>
+        <v>4100</v>
       </c>
       <c r="K417" t="n">
-        <v>2700</v>
+        <v>1500</v>
       </c>
       <c r="L417" t="n">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="M417" t="n">
-        <v>2880</v>
+        <v>1607</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>2880</v>
+        <v>1607</v>
       </c>
       <c r="Q417" t="n">
         <v>1</v>
@@ -30449,20 +30449,20 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J418" t="n">
+        <v>6500</v>
+      </c>
+      <c r="K418" t="n">
+        <v>2700</v>
+      </c>
+      <c r="L418" t="n">
         <v>3000</v>
       </c>
-      <c r="K418" t="n">
-        <v>1100</v>
-      </c>
-      <c r="L418" t="n">
-        <v>1300</v>
-      </c>
       <c r="M418" t="n">
-        <v>1213</v>
+        <v>2880</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>1213</v>
+        <v>2880</v>
       </c>
       <c r="Q418" t="n">
         <v>1</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44274</v>
+        <v>44218</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -30521,20 +30521,20 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="K419" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="L419" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="M419" t="n">
-        <v>700</v>
+        <v>1213</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30543,11 +30543,11 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P419" t="n">
-        <v>700</v>
+        <v>1213</v>
       </c>
       <c r="Q419" t="n">
         <v>1</v>
@@ -30593,20 +30593,20 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="K420" t="n">
-        <v>2300</v>
+        <v>700</v>
       </c>
       <c r="L420" t="n">
-        <v>2300</v>
+        <v>700</v>
       </c>
       <c r="M420" t="n">
-        <v>2300</v>
+        <v>700</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>2300</v>
+        <v>700</v>
       </c>
       <c r="Q420" t="n">
         <v>1</v>
@@ -30665,20 +30665,20 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J421" t="n">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="K421" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="L421" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="M421" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="Q421" t="n">
         <v>1</v>
@@ -30737,20 +30737,20 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J422" t="n">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="K422" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L422" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M422" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="Q422" t="n">
         <v>1</v>
@@ -30809,20 +30809,20 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J423" t="n">
+        <v>1900</v>
+      </c>
+      <c r="K423" t="n">
         <v>1500</v>
       </c>
-      <c r="K423" t="n">
-        <v>1200</v>
-      </c>
       <c r="L423" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="M423" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="Q423" t="n">
         <v>1</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44215</v>
+        <v>44274</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -30881,20 +30881,20 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J424" t="n">
         <v>1500</v>
       </c>
       <c r="K424" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="L424" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="M424" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30903,11 +30903,11 @@
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P424" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="Q424" t="n">
         <v>1</v>
@@ -30953,20 +30953,20 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J425" t="n">
-        <v>4400</v>
+        <v>1500</v>
       </c>
       <c r="K425" t="n">
-        <v>2300</v>
+        <v>800</v>
       </c>
       <c r="L425" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M425" t="n">
-        <v>2414</v>
+        <v>800</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>2414</v>
+        <v>800</v>
       </c>
       <c r="Q425" t="n">
         <v>1</v>
@@ -31029,16 +31029,16 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>2200</v>
+        <v>4400</v>
       </c>
       <c r="K426" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="L426" t="n">
         <v>2500</v>
       </c>
       <c r="M426" t="n">
-        <v>2500</v>
+        <v>2414</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31047,11 +31047,11 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P426" t="n">
-        <v>2500</v>
+        <v>2414</v>
       </c>
       <c r="Q426" t="n">
         <v>1</v>
@@ -31097,20 +31097,20 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J427" t="n">
-        <v>6600</v>
+        <v>2200</v>
       </c>
       <c r="K427" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L427" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M427" t="n">
-        <v>1906</v>
+        <v>2500</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31119,11 +31119,11 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P427" t="n">
-        <v>1906</v>
+        <v>2500</v>
       </c>
       <c r="Q427" t="n">
         <v>1</v>
@@ -31173,16 +31173,16 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>3000</v>
+        <v>6600</v>
       </c>
       <c r="K428" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L428" t="n">
         <v>2000</v>
       </c>
       <c r="M428" t="n">
-        <v>2000</v>
+        <v>1906</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31191,11 +31191,11 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P428" t="n">
-        <v>2000</v>
+        <v>1906</v>
       </c>
       <c r="Q428" t="n">
         <v>1</v>
@@ -31241,20 +31241,20 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J429" t="n">
-        <v>4100</v>
+        <v>3000</v>
       </c>
       <c r="K429" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="L429" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M429" t="n">
-        <v>1507</v>
+        <v>2000</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31263,11 +31263,11 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P429" t="n">
-        <v>1507</v>
+        <v>2000</v>
       </c>
       <c r="Q429" t="n">
         <v>1</v>
@@ -31313,20 +31313,20 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J430" t="n">
-        <v>5600</v>
+        <v>4100</v>
       </c>
       <c r="K430" t="n">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="L430" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="M430" t="n">
-        <v>2914</v>
+        <v>1507</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>2914</v>
+        <v>1507</v>
       </c>
       <c r="Q430" t="n">
         <v>1</v>
@@ -31389,16 +31389,16 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>2500</v>
+        <v>5600</v>
       </c>
       <c r="K431" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L431" t="n">
         <v>3000</v>
       </c>
       <c r="M431" t="n">
-        <v>3000</v>
+        <v>2914</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31407,11 +31407,11 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P431" t="n">
-        <v>3000</v>
+        <v>2914</v>
       </c>
       <c r="Q431" t="n">
         <v>1</v>
@@ -31457,20 +31457,20 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J432" t="n">
-        <v>3800</v>
+        <v>2500</v>
       </c>
       <c r="K432" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="L432" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="M432" t="n">
-        <v>1132</v>
+        <v>3000</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31479,11 +31479,11 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P432" t="n">
-        <v>1132</v>
+        <v>3000</v>
       </c>
       <c r="Q432" t="n">
         <v>1</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -31529,20 +31529,20 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J433" t="n">
-        <v>2500</v>
+        <v>3800</v>
       </c>
       <c r="K433" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L433" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="M433" t="n">
-        <v>800</v>
+        <v>1132</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>800</v>
+        <v>1132</v>
       </c>
       <c r="Q433" t="n">
         <v>1</v>
@@ -31601,20 +31601,20 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J434" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K434" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="L434" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M434" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31623,11 +31623,11 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P434" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="Q434" t="n">
         <v>1</v>
@@ -31677,16 +31677,16 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>4900</v>
+        <v>2400</v>
       </c>
       <c r="K435" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L435" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M435" t="n">
-        <v>2641</v>
+        <v>3000</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31695,11 +31695,11 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P435" t="n">
-        <v>2641</v>
+        <v>3000</v>
       </c>
       <c r="Q435" t="n">
         <v>1</v>
@@ -31745,20 +31745,20 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J436" t="n">
-        <v>3300</v>
+        <v>4900</v>
       </c>
       <c r="K436" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="L436" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="M436" t="n">
-        <v>2400</v>
+        <v>2641</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31767,11 +31767,11 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P436" t="n">
-        <v>2400</v>
+        <v>2641</v>
       </c>
       <c r="Q436" t="n">
         <v>1</v>
@@ -31821,16 +31821,16 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>8700</v>
+        <v>3300</v>
       </c>
       <c r="K437" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L437" t="n">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="M437" t="n">
-        <v>2134</v>
+        <v>2400</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31839,11 +31839,11 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P437" t="n">
-        <v>2134</v>
+        <v>2400</v>
       </c>
       <c r="Q437" t="n">
         <v>1</v>
@@ -31889,20 +31889,20 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J438" t="n">
-        <v>5000</v>
+        <v>8700</v>
       </c>
       <c r="K438" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L438" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="M438" t="n">
-        <v>1800</v>
+        <v>2134</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>1800</v>
+        <v>2134</v>
       </c>
       <c r="Q438" t="n">
         <v>1</v>
@@ -31961,20 +31961,20 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J439" t="n">
-        <v>3600</v>
+        <v>5000</v>
       </c>
       <c r="K439" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="L439" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="M439" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31983,11 +31983,11 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P439" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="Q439" t="n">
         <v>1</v>
@@ -32037,16 +32037,16 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>8000</v>
+        <v>3600</v>
       </c>
       <c r="K440" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L440" t="n">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="M440" t="n">
-        <v>3131</v>
+        <v>3500</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32055,11 +32055,11 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P440" t="n">
-        <v>3131</v>
+        <v>3500</v>
       </c>
       <c r="Q440" t="n">
         <v>1</v>
@@ -32105,20 +32105,20 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J441" t="n">
-        <v>3800</v>
+        <v>8000</v>
       </c>
       <c r="K441" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="L441" t="n">
-        <v>1300</v>
+        <v>3300</v>
       </c>
       <c r="M441" t="n">
-        <v>1174</v>
+        <v>3131</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>1174</v>
+        <v>3131</v>
       </c>
       <c r="Q441" t="n">
         <v>1</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -32177,20 +32177,20 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J442" t="n">
-        <v>1600</v>
+        <v>3800</v>
       </c>
       <c r="K442" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L442" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="M442" t="n">
-        <v>600</v>
+        <v>1174</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>600</v>
+        <v>1174</v>
       </c>
       <c r="Q442" t="n">
         <v>1</v>
@@ -32249,20 +32249,20 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J443" t="n">
-        <v>6200</v>
+        <v>1600</v>
       </c>
       <c r="K443" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="L443" t="n">
-        <v>2300</v>
+        <v>600</v>
       </c>
       <c r="M443" t="n">
-        <v>2160</v>
+        <v>600</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>2160</v>
+        <v>600</v>
       </c>
       <c r="Q443" t="n">
         <v>1</v>
@@ -32321,20 +32321,20 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J444" t="n">
-        <v>8400</v>
+        <v>6200</v>
       </c>
       <c r="K444" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L444" t="n">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="M444" t="n">
-        <v>1695</v>
+        <v>2160</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>1695</v>
+        <v>2160</v>
       </c>
       <c r="Q444" t="n">
         <v>1</v>
@@ -32393,20 +32393,20 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>4600</v>
+        <v>8400</v>
       </c>
       <c r="K445" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="L445" t="n">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="M445" t="n">
-        <v>1317</v>
+        <v>1695</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>1317</v>
+        <v>1695</v>
       </c>
       <c r="Q445" t="n">
         <v>1</v>
@@ -32465,20 +32465,20 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J446" t="n">
-        <v>6200</v>
+        <v>4600</v>
       </c>
       <c r="K446" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="L446" t="n">
-        <v>2700</v>
+        <v>1400</v>
       </c>
       <c r="M446" t="n">
-        <v>2521</v>
+        <v>1317</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>2521</v>
+        <v>1317</v>
       </c>
       <c r="Q446" t="n">
         <v>1</v>
@@ -32537,20 +32537,20 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>3900</v>
+        <v>6200</v>
       </c>
       <c r="K447" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="L447" t="n">
-        <v>1000</v>
+        <v>2700</v>
       </c>
       <c r="M447" t="n">
-        <v>913</v>
+        <v>2521</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>913</v>
+        <v>2521</v>
       </c>
       <c r="Q447" t="n">
         <v>1</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44264</v>
+        <v>44222</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -32609,20 +32609,20 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J448" t="n">
-        <v>2200</v>
+        <v>3900</v>
       </c>
       <c r="K448" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L448" t="n">
         <v>1000</v>
       </c>
       <c r="M448" t="n">
-        <v>1000</v>
+        <v>913</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32631,11 +32631,11 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P448" t="n">
-        <v>1000</v>
+        <v>913</v>
       </c>
       <c r="Q448" t="n">
         <v>1</v>
@@ -32681,20 +32681,20 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J449" t="n">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="K449" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="L449" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="M449" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="Q449" t="n">
         <v>1</v>
@@ -32753,20 +32753,20 @@
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J450" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K450" t="n">
         <v>2400</v>
       </c>
-      <c r="K450" t="n">
-        <v>2000</v>
-      </c>
       <c r="L450" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M450" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q450" t="n">
         <v>1</v>
@@ -32825,20 +32825,20 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J451" t="n">
         <v>2400</v>
       </c>
       <c r="K451" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L451" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M451" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="Q451" t="n">
         <v>1</v>
@@ -32897,20 +32897,20 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J452" t="n">
-        <v>1100</v>
+        <v>2400</v>
       </c>
       <c r="K452" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="L452" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="M452" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="Q452" t="n">
         <v>1</v>
@@ -32969,20 +32969,20 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J453" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K453" t="n">
         <v>2700</v>
       </c>
-      <c r="K453" t="n">
-        <v>1500</v>
-      </c>
       <c r="L453" t="n">
-        <v>1500</v>
+        <v>2700</v>
       </c>
       <c r="M453" t="n">
-        <v>1500</v>
+        <v>2700</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>1500</v>
+        <v>2700</v>
       </c>
       <c r="Q453" t="n">
         <v>1</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -33041,20 +33041,20 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J454" t="n">
-        <v>1400</v>
+        <v>2700</v>
       </c>
       <c r="K454" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="L454" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="M454" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="Q454" t="n">
         <v>1</v>
@@ -33113,20 +33113,20 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J455" t="n">
-        <v>2100</v>
+        <v>1400</v>
       </c>
       <c r="K455" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L455" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M455" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q455" t="n">
         <v>1</v>
@@ -33185,20 +33185,20 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J456" t="n">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="K456" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L456" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M456" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="Q456" t="n">
         <v>1</v>
@@ -33257,20 +33257,20 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J457" t="n">
-        <v>1100</v>
+        <v>2300</v>
       </c>
       <c r="K457" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="L457" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="M457" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="Q457" t="n">
         <v>1</v>
@@ -33329,20 +33329,20 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="K458" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="L458" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="M458" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="Q458" t="n">
         <v>1</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44210</v>
+        <v>44263</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -33401,20 +33401,20 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>1040</v>
+        <v>1500</v>
       </c>
       <c r="K459" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="L459" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="M459" t="n">
-        <v>646</v>
+        <v>1200</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>646</v>
+        <v>1200</v>
       </c>
       <c r="Q459" t="n">
         <v>1</v>
@@ -33477,16 +33477,16 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="K460" t="n">
+        <v>600</v>
+      </c>
+      <c r="L460" t="n">
         <v>700</v>
       </c>
-      <c r="L460" t="n">
-        <v>900</v>
-      </c>
       <c r="M460" t="n">
-        <v>807</v>
+        <v>646</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33495,11 +33495,11 @@
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P460" t="n">
-        <v>807</v>
+        <v>646</v>
       </c>
       <c r="Q460" t="n">
         <v>1</v>
@@ -33545,20 +33545,20 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J461" t="n">
-        <v>2890</v>
+        <v>1050</v>
       </c>
       <c r="K461" t="n">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="L461" t="n">
-        <v>2300</v>
+        <v>900</v>
       </c>
       <c r="M461" t="n">
-        <v>2193</v>
+        <v>807</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33567,11 +33567,11 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P461" t="n">
-        <v>2193</v>
+        <v>807</v>
       </c>
       <c r="Q461" t="n">
         <v>1</v>
@@ -33621,16 +33621,16 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>3500</v>
+        <v>2890</v>
       </c>
       <c r="K462" t="n">
         <v>2000</v>
       </c>
       <c r="L462" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="M462" t="n">
-        <v>2223</v>
+        <v>2193</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33639,11 +33639,11 @@
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P462" t="n">
-        <v>2223</v>
+        <v>2193</v>
       </c>
       <c r="Q462" t="n">
         <v>1</v>
@@ -33689,20 +33689,20 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J463" t="n">
-        <v>3550</v>
+        <v>3500</v>
       </c>
       <c r="K463" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L463" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="M463" t="n">
-        <v>1641</v>
+        <v>2223</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33711,11 +33711,11 @@
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P463" t="n">
-        <v>1641</v>
+        <v>2223</v>
       </c>
       <c r="Q463" t="n">
         <v>1</v>
@@ -33765,16 +33765,16 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>4380</v>
+        <v>3550</v>
       </c>
       <c r="K464" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="L464" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="M464" t="n">
-        <v>1962</v>
+        <v>1641</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33783,11 +33783,11 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P464" t="n">
-        <v>1962</v>
+        <v>1641</v>
       </c>
       <c r="Q464" t="n">
         <v>1</v>
@@ -33833,20 +33833,20 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J465" t="n">
-        <v>1570</v>
+        <v>4380</v>
       </c>
       <c r="K465" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="L465" t="n">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="M465" t="n">
-        <v>1302</v>
+        <v>1962</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33855,11 +33855,11 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P465" t="n">
-        <v>1302</v>
+        <v>1962</v>
       </c>
       <c r="Q465" t="n">
         <v>1</v>
@@ -33909,16 +33909,16 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>2150</v>
+        <v>1570</v>
       </c>
       <c r="K466" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L466" t="n">
         <v>1400</v>
       </c>
-      <c r="L466" t="n">
-        <v>1500</v>
-      </c>
       <c r="M466" t="n">
-        <v>1444</v>
+        <v>1302</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33927,11 +33927,11 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P466" t="n">
-        <v>1444</v>
+        <v>1302</v>
       </c>
       <c r="Q466" t="n">
         <v>1</v>
@@ -33977,20 +33977,20 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J467" t="n">
-        <v>2280</v>
+        <v>2150</v>
       </c>
       <c r="K467" t="n">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="L467" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="M467" t="n">
-        <v>2629</v>
+        <v>1444</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -33999,11 +33999,11 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P467" t="n">
-        <v>2629</v>
+        <v>1444</v>
       </c>
       <c r="Q467" t="n">
         <v>1</v>
@@ -34053,16 +34053,16 @@
         </is>
       </c>
       <c r="J468" t="n">
+        <v>2280</v>
+      </c>
+      <c r="K468" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L468" t="n">
         <v>2800</v>
       </c>
-      <c r="K468" t="n">
-        <v>2700</v>
-      </c>
-      <c r="L468" t="n">
-        <v>3000</v>
-      </c>
       <c r="M468" t="n">
-        <v>2861</v>
+        <v>2629</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34071,11 +34071,11 @@
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P468" t="n">
-        <v>2861</v>
+        <v>2629</v>
       </c>
       <c r="Q468" t="n">
         <v>1</v>
@@ -34121,20 +34121,20 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J469" t="n">
-        <v>1370</v>
+        <v>2800</v>
       </c>
       <c r="K469" t="n">
-        <v>800</v>
+        <v>2700</v>
       </c>
       <c r="L469" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="M469" t="n">
-        <v>899</v>
+        <v>2861</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34143,11 +34143,11 @@
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P469" t="n">
-        <v>899</v>
+        <v>2861</v>
       </c>
       <c r="Q469" t="n">
         <v>1</v>
@@ -34197,16 +34197,16 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>1460</v>
+        <v>1370</v>
       </c>
       <c r="K470" t="n">
+        <v>800</v>
+      </c>
+      <c r="L470" t="n">
         <v>1000</v>
       </c>
-      <c r="L470" t="n">
-        <v>1200</v>
-      </c>
       <c r="M470" t="n">
-        <v>1107</v>
+        <v>899</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34215,11 +34215,11 @@
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P470" t="n">
-        <v>1107</v>
+        <v>899</v>
       </c>
       <c r="Q470" t="n">
         <v>1</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34265,20 +34265,20 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J471" t="n">
-        <v>1500</v>
+        <v>1460</v>
       </c>
       <c r="K471" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L471" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="M471" t="n">
-        <v>800</v>
+        <v>1107</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>800</v>
+        <v>1107</v>
       </c>
       <c r="Q471" t="n">
         <v>1</v>
@@ -34337,20 +34337,20 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J472" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="K472" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L472" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M472" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34359,11 +34359,11 @@
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P472" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q472" t="n">
         <v>1</v>
@@ -34413,16 +34413,16 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>3300</v>
+        <v>2500</v>
       </c>
       <c r="K473" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="L473" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="M473" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34431,11 +34431,11 @@
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P473" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="Q473" t="n">
         <v>1</v>
@@ -34481,20 +34481,20 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J474" t="n">
-        <v>3700</v>
+        <v>3300</v>
       </c>
       <c r="K474" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L474" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M474" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34503,11 +34503,11 @@
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P474" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q474" t="n">
         <v>1</v>
@@ -34557,7 +34557,7 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>4100</v>
+        <v>3700</v>
       </c>
       <c r="K475" t="n">
         <v>2000</v>
@@ -34575,7 +34575,7 @@
       </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P475" t="n">
@@ -34625,20 +34625,20 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J476" t="n">
-        <v>2700</v>
+        <v>4100</v>
       </c>
       <c r="K476" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L476" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M476" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="Q476" t="n">
         <v>1</v>
@@ -34697,20 +34697,20 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>3300</v>
+        <v>2700</v>
       </c>
       <c r="K477" t="n">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="L477" t="n">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="M477" t="n">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34719,11 +34719,11 @@
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P477" t="n">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="Q477" t="n">
         <v>1</v>
@@ -34773,16 +34773,16 @@
         </is>
       </c>
       <c r="J478" t="n">
+        <v>3300</v>
+      </c>
+      <c r="K478" t="n">
         <v>2800</v>
       </c>
-      <c r="K478" t="n">
-        <v>2600</v>
-      </c>
       <c r="L478" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="M478" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34791,11 +34791,11 @@
       </c>
       <c r="O478" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P478" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="Q478" t="n">
         <v>1</v>
@@ -34841,20 +34841,20 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J479" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="K479" t="n">
-        <v>1400</v>
+        <v>2600</v>
       </c>
       <c r="L479" t="n">
-        <v>1400</v>
+        <v>2600</v>
       </c>
       <c r="M479" t="n">
-        <v>1400</v>
+        <v>2600</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>1400</v>
+        <v>2600</v>
       </c>
       <c r="Q479" t="n">
         <v>1</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44244</v>
+        <v>44253</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -34913,20 +34913,20 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J480" t="n">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="K480" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="L480" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="M480" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="Q480" t="n">
         <v>1</v>
@@ -34985,20 +34985,20 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J481" t="n">
-        <v>5800</v>
+        <v>2200</v>
       </c>
       <c r="K481" t="n">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="L481" t="n">
-        <v>2300</v>
+        <v>700</v>
       </c>
       <c r="M481" t="n">
-        <v>2129</v>
+        <v>700</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>2129</v>
+        <v>700</v>
       </c>
       <c r="Q481" t="n">
         <v>1</v>
@@ -35057,20 +35057,20 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J482" t="n">
-        <v>7400</v>
+        <v>5800</v>
       </c>
       <c r="K482" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L482" t="n">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="M482" t="n">
-        <v>1792</v>
+        <v>2129</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>1792</v>
+        <v>2129</v>
       </c>
       <c r="Q482" t="n">
         <v>1</v>
@@ -35129,20 +35129,20 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J483" t="n">
-        <v>4600</v>
+        <v>7400</v>
       </c>
       <c r="K483" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="L483" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M483" t="n">
-        <v>1517</v>
+        <v>1792</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>1517</v>
+        <v>1792</v>
       </c>
       <c r="Q483" t="n">
         <v>1</v>
@@ -35201,20 +35201,20 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J484" t="n">
-        <v>5700</v>
+        <v>4600</v>
       </c>
       <c r="K484" t="n">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="L484" t="n">
-        <v>2700</v>
+        <v>1600</v>
       </c>
       <c r="M484" t="n">
-        <v>2602</v>
+        <v>1517</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>2602</v>
+        <v>1517</v>
       </c>
       <c r="Q484" t="n">
         <v>1</v>
@@ -35273,20 +35273,20 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>4700</v>
+        <v>5700</v>
       </c>
       <c r="K485" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="L485" t="n">
-        <v>1300</v>
+        <v>2700</v>
       </c>
       <c r="M485" t="n">
-        <v>1147</v>
+        <v>2602</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>1147</v>
+        <v>2602</v>
       </c>
       <c r="Q485" t="n">
         <v>1</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -35345,20 +35345,20 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>5900</v>
+        <v>4700</v>
       </c>
       <c r="K486" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="L486" t="n">
-        <v>3800</v>
+        <v>1300</v>
       </c>
       <c r="M486" t="n">
-        <v>3632</v>
+        <v>1147</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>3632</v>
+        <v>1147</v>
       </c>
       <c r="Q486" t="n">
         <v>1</v>
@@ -35417,20 +35417,20 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J487" t="n">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="K487" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L487" t="n">
-        <v>2700</v>
+        <v>3800</v>
       </c>
       <c r="M487" t="n">
-        <v>2583</v>
+        <v>3632</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>2583</v>
+        <v>3632</v>
       </c>
       <c r="Q487" t="n">
         <v>1</v>
@@ -35489,20 +35489,20 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J488" t="n">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="K488" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L488" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="M488" t="n">
-        <v>1898</v>
+        <v>2583</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>1898</v>
+        <v>2583</v>
       </c>
       <c r="Q488" t="n">
         <v>1</v>
@@ -35561,20 +35561,20 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J489" t="n">
-        <v>3400</v>
+        <v>5500</v>
       </c>
       <c r="K489" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="L489" t="n">
-        <v>4200</v>
+        <v>2000</v>
       </c>
       <c r="M489" t="n">
-        <v>4112</v>
+        <v>1898</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>4112</v>
+        <v>1898</v>
       </c>
       <c r="Q489" t="n">
         <v>1</v>
@@ -35633,20 +35633,20 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J490" t="n">
         <v>3400</v>
       </c>
       <c r="K490" t="n">
-        <v>1300</v>
+        <v>4000</v>
       </c>
       <c r="L490" t="n">
-        <v>1500</v>
+        <v>4200</v>
       </c>
       <c r="M490" t="n">
-        <v>1388</v>
+        <v>4112</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>1388</v>
+        <v>4112</v>
       </c>
       <c r="Q490" t="n">
         <v>1</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44237</v>
+        <v>44176</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -35705,20 +35705,20 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J491" t="n">
-        <v>4100</v>
+        <v>3400</v>
       </c>
       <c r="K491" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="L491" t="n">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="M491" t="n">
-        <v>2146</v>
+        <v>1388</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35727,11 +35727,11 @@
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P491" t="n">
-        <v>2146</v>
+        <v>1388</v>
       </c>
       <c r="Q491" t="n">
         <v>1</v>
@@ -35781,16 +35781,16 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>2600</v>
+        <v>4100</v>
       </c>
       <c r="K492" t="n">
         <v>2000</v>
       </c>
       <c r="L492" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="M492" t="n">
-        <v>2000</v>
+        <v>2146</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35799,11 +35799,11 @@
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P492" t="n">
-        <v>2000</v>
+        <v>2146</v>
       </c>
       <c r="Q492" t="n">
         <v>1</v>
@@ -35849,20 +35849,20 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J493" t="n">
-        <v>7400</v>
+        <v>2600</v>
       </c>
       <c r="K493" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L493" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="M493" t="n">
-        <v>1789</v>
+        <v>2000</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35871,11 +35871,11 @@
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P493" t="n">
-        <v>1789</v>
+        <v>2000</v>
       </c>
       <c r="Q493" t="n">
         <v>1</v>
@@ -35925,16 +35925,16 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>3800</v>
+        <v>7400</v>
       </c>
       <c r="K494" t="n">
         <v>1700</v>
       </c>
       <c r="L494" t="n">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="M494" t="n">
-        <v>1700</v>
+        <v>1789</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35943,11 +35943,11 @@
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P494" t="n">
-        <v>1700</v>
+        <v>1789</v>
       </c>
       <c r="Q494" t="n">
         <v>1</v>
@@ -35993,20 +35993,20 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J495" t="n">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="K495" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="L495" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="M495" t="n">
-        <v>1463</v>
+        <v>1700</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36015,11 +36015,11 @@
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P495" t="n">
-        <v>1463</v>
+        <v>1700</v>
       </c>
       <c r="Q495" t="n">
         <v>1</v>
@@ -36065,20 +36065,20 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J496" t="n">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="K496" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="L496" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="M496" t="n">
-        <v>2536</v>
+        <v>1463</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>2536</v>
+        <v>1463</v>
       </c>
       <c r="Q496" t="n">
         <v>1</v>
@@ -36141,16 +36141,16 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>3500</v>
+        <v>4400</v>
       </c>
       <c r="K497" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="L497" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M497" t="n">
-        <v>2500</v>
+        <v>2536</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36159,11 +36159,11 @@
       </c>
       <c r="O497" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P497" t="n">
-        <v>2500</v>
+        <v>2536</v>
       </c>
       <c r="Q497" t="n">
         <v>1</v>
@@ -36209,20 +36209,20 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J498" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="K498" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L498" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="M498" t="n">
-        <v>915</v>
+        <v>2500</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36231,11 +36231,11 @@
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P498" t="n">
-        <v>915</v>
+        <v>2500</v>
       </c>
       <c r="Q498" t="n">
         <v>1</v>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44257</v>
+        <v>44237</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -36281,20 +36281,20 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J499" t="n">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="K499" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L499" t="n">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="M499" t="n">
-        <v>2164</v>
+        <v>915</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36303,11 +36303,11 @@
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P499" t="n">
-        <v>2164</v>
+        <v>915</v>
       </c>
       <c r="Q499" t="n">
         <v>1</v>
@@ -36353,20 +36353,20 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J500" t="n">
-        <v>6600</v>
+        <v>4400</v>
       </c>
       <c r="K500" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L500" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="M500" t="n">
-        <v>1747</v>
+        <v>2164</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>1747</v>
+        <v>2164</v>
       </c>
       <c r="Q500" t="n">
         <v>1</v>
@@ -36425,20 +36425,20 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J501" t="n">
-        <v>4400</v>
+        <v>6600</v>
       </c>
       <c r="K501" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="L501" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M501" t="n">
-        <v>1523</v>
+        <v>1747</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>1523</v>
+        <v>1747</v>
       </c>
       <c r="Q501" t="n">
         <v>1</v>
@@ -36497,20 +36497,20 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J502" t="n">
-        <v>3200</v>
+        <v>4400</v>
       </c>
       <c r="K502" t="n">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="L502" t="n">
-        <v>2600</v>
+        <v>1600</v>
       </c>
       <c r="M502" t="n">
-        <v>2512</v>
+        <v>1523</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>2512</v>
+        <v>1523</v>
       </c>
       <c r="Q502" t="n">
         <v>1</v>
@@ -36569,20 +36569,20 @@
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J503" t="n">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="K503" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="L503" t="n">
-        <v>1200</v>
+        <v>2600</v>
       </c>
       <c r="M503" t="n">
-        <v>1137</v>
+        <v>2512</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>1137</v>
+        <v>2512</v>
       </c>
       <c r="Q503" t="n">
         <v>1</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -36641,20 +36641,20 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J504" t="n">
-        <v>1400</v>
+        <v>3500</v>
       </c>
       <c r="K504" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L504" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="M504" t="n">
-        <v>700</v>
+        <v>1137</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36663,11 +36663,11 @@
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P504" t="n">
-        <v>700</v>
+        <v>1137</v>
       </c>
       <c r="Q504" t="n">
         <v>1</v>
@@ -36713,20 +36713,20 @@
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J505" t="n">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="K505" t="n">
-        <v>2200</v>
+        <v>700</v>
       </c>
       <c r="L505" t="n">
-        <v>2200</v>
+        <v>700</v>
       </c>
       <c r="M505" t="n">
-        <v>2200</v>
+        <v>700</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>2200</v>
+        <v>700</v>
       </c>
       <c r="Q505" t="n">
         <v>1</v>
@@ -36785,20 +36785,20 @@
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J506" t="n">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="K506" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="L506" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="M506" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="Q506" t="n">
         <v>1</v>
@@ -36857,20 +36857,20 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J507" t="n">
-        <v>1700</v>
+        <v>3200</v>
       </c>
       <c r="K507" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="L507" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="M507" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="Q507" t="n">
         <v>1</v>
@@ -36929,20 +36929,20 @@
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J508" t="n">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="K508" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="L508" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="M508" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="Q508" t="n">
         <v>1</v>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44294</v>
+        <v>44273</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -37001,20 +37001,20 @@
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J509" t="n">
-        <v>500</v>
+        <v>1900</v>
       </c>
       <c r="K509" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="L509" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="M509" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37023,11 +37023,11 @@
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P509" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="Q509" t="n">
         <v>1</v>
@@ -37073,20 +37073,20 @@
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J510" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="K510" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L510" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M510" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q510" t="n">
         <v>1</v>
@@ -37145,20 +37145,20 @@
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J511" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K511" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L511" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M511" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q511" t="n">
         <v>1</v>
@@ -37217,20 +37217,20 @@
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J512" t="n">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="K512" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L512" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M512" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="Q512" t="n">
         <v>1</v>
@@ -37289,20 +37289,20 @@
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J513" t="n">
         <v>900</v>
       </c>
       <c r="K513" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="L513" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="M513" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="Q513" t="n">
         <v>1</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44161</v>
+        <v>44294</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -37361,33 +37361,33 @@
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J514" t="n">
-        <v>2300</v>
+        <v>900</v>
       </c>
       <c r="K514" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="L514" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="M514" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P514" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="Q514" t="n">
         <v>1</v>
@@ -37437,16 +37437,16 @@
         </is>
       </c>
       <c r="J515" t="n">
-        <v>4800</v>
+        <v>2300</v>
       </c>
       <c r="K515" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L515" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M515" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37455,11 +37455,11 @@
       </c>
       <c r="O515" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P515" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="Q515" t="n">
         <v>1</v>
@@ -37509,16 +37509,16 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>1800</v>
+        <v>4800</v>
       </c>
       <c r="K516" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="L516" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M516" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37527,11 +37527,11 @@
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P516" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="Q516" t="n">
         <v>1</v>
@@ -37577,20 +37577,20 @@
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J517" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="K517" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L517" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M517" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37599,11 +37599,11 @@
       </c>
       <c r="O517" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P517" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q517" t="n">
         <v>1</v>
@@ -37653,16 +37653,16 @@
         </is>
       </c>
       <c r="J518" t="n">
-        <v>3300</v>
+        <v>1500</v>
       </c>
       <c r="K518" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L518" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M518" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37671,11 +37671,11 @@
       </c>
       <c r="O518" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P518" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="Q518" t="n">
         <v>1</v>
@@ -37725,16 +37725,16 @@
         </is>
       </c>
       <c r="J519" t="n">
-        <v>600</v>
+        <v>3300</v>
       </c>
       <c r="K519" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L519" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="M519" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37743,11 +37743,11 @@
       </c>
       <c r="O519" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P519" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="Q519" t="n">
         <v>1</v>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44251</v>
+        <v>44161</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -37793,24 +37793,24 @@
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J520" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K520" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L520" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M520" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O520" t="inlineStr">
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q520" t="n">
         <v>1</v>
@@ -37865,20 +37865,20 @@
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J521" t="n">
-        <v>4600</v>
+        <v>1100</v>
       </c>
       <c r="K521" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L521" t="n">
-        <v>2300</v>
+        <v>800</v>
       </c>
       <c r="M521" t="n">
-        <v>2124</v>
+        <v>800</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>2124</v>
+        <v>800</v>
       </c>
       <c r="Q521" t="n">
         <v>1</v>
@@ -37937,20 +37937,20 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J522" t="n">
-        <v>6000</v>
+        <v>4600</v>
       </c>
       <c r="K522" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L522" t="n">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="M522" t="n">
-        <v>1783</v>
+        <v>2124</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>1783</v>
+        <v>2124</v>
       </c>
       <c r="Q522" t="n">
         <v>1</v>
@@ -38009,20 +38009,20 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J523" t="n">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="K523" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="L523" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M523" t="n">
-        <v>1417</v>
+        <v>1783</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>1417</v>
+        <v>1783</v>
       </c>
       <c r="Q523" t="n">
         <v>1</v>
@@ -38081,20 +38081,20 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="K524" t="n">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="L524" t="n">
-        <v>2700</v>
+        <v>1600</v>
       </c>
       <c r="M524" t="n">
-        <v>2529</v>
+        <v>1417</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>2529</v>
+        <v>1417</v>
       </c>
       <c r="Q524" t="n">
         <v>1</v>
@@ -38153,20 +38153,20 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J525" t="n">
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="K525" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="L525" t="n">
-        <v>1200</v>
+        <v>2700</v>
       </c>
       <c r="M525" t="n">
-        <v>1086</v>
+        <v>2529</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>1086</v>
+        <v>2529</v>
       </c>
       <c r="Q525" t="n">
         <v>1</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44175</v>
+        <v>44251</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -38225,20 +38225,20 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>2200</v>
+        <v>4200</v>
       </c>
       <c r="K526" t="n">
-        <v>3200</v>
+        <v>1000</v>
       </c>
       <c r="L526" t="n">
-        <v>3400</v>
+        <v>1200</v>
       </c>
       <c r="M526" t="n">
-        <v>3309</v>
+        <v>1086</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38247,11 +38247,11 @@
       </c>
       <c r="O526" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P526" t="n">
-        <v>3309</v>
+        <v>1086</v>
       </c>
       <c r="Q526" t="n">
         <v>1</v>
@@ -38301,16 +38301,16 @@
         </is>
       </c>
       <c r="J527" t="n">
-        <v>3100</v>
+        <v>2200</v>
       </c>
       <c r="K527" t="n">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="L527" t="n">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="M527" t="n">
-        <v>3390</v>
+        <v>3309</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38319,11 +38319,11 @@
       </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P527" t="n">
-        <v>3390</v>
+        <v>3309</v>
       </c>
       <c r="Q527" t="n">
         <v>1</v>
@@ -38369,20 +38369,20 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J528" t="n">
-        <v>3800</v>
+        <v>3100</v>
       </c>
       <c r="K528" t="n">
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="L528" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="M528" t="n">
-        <v>2595</v>
+        <v>3390</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38391,11 +38391,11 @@
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P528" t="n">
-        <v>2595</v>
+        <v>3390</v>
       </c>
       <c r="Q528" t="n">
         <v>1</v>
@@ -38445,16 +38445,16 @@
         </is>
       </c>
       <c r="J529" t="n">
-        <v>6000</v>
+        <v>3800</v>
       </c>
       <c r="K529" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L529" t="n">
         <v>2700</v>
       </c>
-      <c r="L529" t="n">
-        <v>2900</v>
-      </c>
       <c r="M529" t="n">
-        <v>2810</v>
+        <v>2595</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38463,11 +38463,11 @@
       </c>
       <c r="O529" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P529" t="n">
-        <v>2810</v>
+        <v>2595</v>
       </c>
       <c r="Q529" t="n">
         <v>1</v>
@@ -38513,20 +38513,20 @@
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J530" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="K530" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="L530" t="n">
-        <v>2400</v>
+        <v>2900</v>
       </c>
       <c r="M530" t="n">
-        <v>2275</v>
+        <v>2810</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>2275</v>
+        <v>2810</v>
       </c>
       <c r="Q530" t="n">
         <v>1</v>
@@ -38585,20 +38585,20 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J531" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="K531" t="n">
-        <v>3800</v>
+        <v>2200</v>
       </c>
       <c r="L531" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="M531" t="n">
-        <v>3922</v>
+        <v>2275</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38607,11 +38607,11 @@
       </c>
       <c r="O531" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P531" t="n">
-        <v>3922</v>
+        <v>2275</v>
       </c>
       <c r="Q531" t="n">
         <v>1</v>
@@ -38661,16 +38661,16 @@
         </is>
       </c>
       <c r="J532" t="n">
-        <v>2900</v>
+        <v>1800</v>
       </c>
       <c r="K532" t="n">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="L532" t="n">
         <v>4000</v>
       </c>
       <c r="M532" t="n">
-        <v>3945</v>
+        <v>3922</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38679,11 +38679,11 @@
       </c>
       <c r="O532" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P532" t="n">
-        <v>3945</v>
+        <v>3922</v>
       </c>
       <c r="Q532" t="n">
         <v>1</v>
@@ -38729,20 +38729,20 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="K533" t="n">
-        <v>1600</v>
+        <v>3900</v>
       </c>
       <c r="L533" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="M533" t="n">
-        <v>1673</v>
+        <v>3945</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>1673</v>
+        <v>3945</v>
       </c>
       <c r="Q533" t="n">
         <v>1</v>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44279</v>
+        <v>44175</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -38801,20 +38801,20 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="K534" t="n">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="L534" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="M534" t="n">
-        <v>500</v>
+        <v>1673</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38823,11 +38823,11 @@
       </c>
       <c r="O534" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P534" t="n">
-        <v>500</v>
+        <v>1673</v>
       </c>
       <c r="Q534" t="n">
         <v>1</v>
@@ -38873,20 +38873,20 @@
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K535" t="n">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="L535" t="n">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="M535" t="n">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38899,7 +38899,7 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="Q535" t="n">
         <v>1</v>
@@ -38945,20 +38945,20 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="K536" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="L536" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="M536" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="Q536" t="n">
         <v>1</v>
@@ -39017,20 +39017,20 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K537" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="L537" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="M537" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39043,7 +39043,7 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="Q537" t="n">
         <v>1</v>
@@ -39089,20 +39089,20 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="K538" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="L538" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="M538" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="Q538" t="n">
         <v>1</v>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44223</v>
+        <v>44279</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -39161,20 +39161,20 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K539" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L539" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M539" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39183,11 +39183,11 @@
       </c>
       <c r="O539" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P539" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="Q539" t="n">
         <v>1</v>
@@ -39233,20 +39233,20 @@
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J540" t="n">
-        <v>5200</v>
+        <v>1800</v>
       </c>
       <c r="K540" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="L540" t="n">
-        <v>2200</v>
+        <v>600</v>
       </c>
       <c r="M540" t="n">
-        <v>2127</v>
+        <v>600</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>2127</v>
+        <v>600</v>
       </c>
       <c r="Q540" t="n">
         <v>1</v>
@@ -39305,20 +39305,20 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J541" t="n">
-        <v>7700</v>
+        <v>5200</v>
       </c>
       <c r="K541" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L541" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="M541" t="n">
-        <v>1594</v>
+        <v>2127</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>1594</v>
+        <v>2127</v>
       </c>
       <c r="Q541" t="n">
         <v>1</v>
@@ -39377,20 +39377,20 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J542" t="n">
-        <v>3700</v>
+        <v>7700</v>
       </c>
       <c r="K542" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="L542" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="M542" t="n">
-        <v>1281</v>
+        <v>1594</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>1281</v>
+        <v>1594</v>
       </c>
       <c r="Q542" t="n">
         <v>1</v>
@@ -39449,20 +39449,20 @@
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J543" t="n">
-        <v>5500</v>
+        <v>3700</v>
       </c>
       <c r="K543" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="L543" t="n">
-        <v>2600</v>
+        <v>1400</v>
       </c>
       <c r="M543" t="n">
-        <v>2491</v>
+        <v>1281</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>2491</v>
+        <v>1281</v>
       </c>
       <c r="Q543" t="n">
         <v>1</v>
@@ -39521,20 +39521,20 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="K544" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="L544" t="n">
-        <v>1100</v>
+        <v>2600</v>
       </c>
       <c r="M544" t="n">
-        <v>1050</v>
+        <v>2491</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39547,7 +39547,7 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>1050</v>
+        <v>2491</v>
       </c>
       <c r="Q544" t="n">
         <v>1</v>
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44448</v>
+        <v>44223</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -39593,33 +39593,33 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J545" t="n">
-        <v>4160</v>
+        <v>4000</v>
       </c>
       <c r="K545" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="L545" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="M545" t="n">
-        <v>1200</v>
+        <v>1050</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O545" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P545" t="n">
-        <v>1200</v>
+        <v>1050</v>
       </c>
       <c r="Q545" t="n">
         <v>1</v>
@@ -39645,7 +39645,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -39665,33 +39665,33 @@
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J546" t="n">
-        <v>3300</v>
+        <v>4160</v>
       </c>
       <c r="K546" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="L546" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="M546" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O546" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P546" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="Q546" t="n">
         <v>1</v>
@@ -39741,16 +39741,16 @@
         </is>
       </c>
       <c r="J547" t="n">
-        <v>2800</v>
+        <v>3300</v>
       </c>
       <c r="K547" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L547" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M547" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39759,11 +39759,11 @@
       </c>
       <c r="O547" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P547" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="Q547" t="n">
         <v>1</v>
@@ -39809,20 +39809,20 @@
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J548" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="K548" t="n">
-        <v>3800</v>
+        <v>1500</v>
       </c>
       <c r="L548" t="n">
-        <v>3800</v>
+        <v>1500</v>
       </c>
       <c r="M548" t="n">
-        <v>3800</v>
+        <v>1500</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39831,11 +39831,11 @@
       </c>
       <c r="O548" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P548" t="n">
-        <v>3800</v>
+        <v>1500</v>
       </c>
       <c r="Q548" t="n">
         <v>1</v>
@@ -39885,16 +39885,16 @@
         </is>
       </c>
       <c r="J549" t="n">
-        <v>2400</v>
+        <v>3500</v>
       </c>
       <c r="K549" t="n">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="L549" t="n">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="M549" t="n">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39903,11 +39903,11 @@
       </c>
       <c r="O549" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P549" t="n">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="Q549" t="n">
         <v>1</v>
@@ -39953,20 +39953,20 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J550" t="n">
-        <v>4200</v>
+        <v>2400</v>
       </c>
       <c r="K550" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L550" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M550" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39975,11 +39975,11 @@
       </c>
       <c r="O550" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P550" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="Q550" t="n">
         <v>1</v>
@@ -40029,7 +40029,7 @@
         </is>
       </c>
       <c r="J551" t="n">
-        <v>2000</v>
+        <v>4200</v>
       </c>
       <c r="K551" t="n">
         <v>3000</v>
@@ -40047,7 +40047,7 @@
       </c>
       <c r="O551" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P551" t="n">
@@ -40097,20 +40097,20 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="K552" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L552" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M552" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40119,11 +40119,11 @@
       </c>
       <c r="O552" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P552" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q552" t="n">
         <v>1</v>
@@ -40173,16 +40173,16 @@
         </is>
       </c>
       <c r="J553" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="K553" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L553" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M553" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40191,11 +40191,11 @@
       </c>
       <c r="O553" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P553" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q553" t="n">
         <v>1</v>
@@ -40221,7 +40221,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -40241,20 +40241,20 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J554" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="K554" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L554" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="M554" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40263,11 +40263,11 @@
       </c>
       <c r="O554" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P554" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="Q554" t="n">
         <v>1</v>
@@ -40317,16 +40317,16 @@
         </is>
       </c>
       <c r="J555" t="n">
-        <v>5700</v>
+        <v>2800</v>
       </c>
       <c r="K555" t="n">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="L555" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="M555" t="n">
-        <v>2346</v>
+        <v>2200</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40335,11 +40335,11 @@
       </c>
       <c r="O555" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P555" t="n">
-        <v>2346</v>
+        <v>2200</v>
       </c>
       <c r="Q555" t="n">
         <v>1</v>
@@ -40385,20 +40385,20 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J556" t="n">
-        <v>3700</v>
+        <v>5700</v>
       </c>
       <c r="K556" t="n">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="L556" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="M556" t="n">
-        <v>1800</v>
+        <v>2346</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40407,11 +40407,11 @@
       </c>
       <c r="O556" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P556" t="n">
-        <v>1800</v>
+        <v>2346</v>
       </c>
       <c r="Q556" t="n">
         <v>1</v>
@@ -40461,16 +40461,16 @@
         </is>
       </c>
       <c r="J557" t="n">
-        <v>7800</v>
+        <v>3700</v>
       </c>
       <c r="K557" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="L557" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="M557" t="n">
-        <v>1850</v>
+        <v>1800</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40479,11 +40479,11 @@
       </c>
       <c r="O557" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P557" t="n">
-        <v>1850</v>
+        <v>1800</v>
       </c>
       <c r="Q557" t="n">
         <v>1</v>
@@ -40529,20 +40529,20 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J558" t="n">
-        <v>3900</v>
+        <v>7800</v>
       </c>
       <c r="K558" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="L558" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M558" t="n">
-        <v>1446</v>
+        <v>1850</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>1446</v>
+        <v>1850</v>
       </c>
       <c r="Q558" t="n">
         <v>1</v>
@@ -40601,20 +40601,20 @@
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J559" t="n">
-        <v>3300</v>
+        <v>3900</v>
       </c>
       <c r="K559" t="n">
-        <v>2700</v>
+        <v>1300</v>
       </c>
       <c r="L559" t="n">
-        <v>2700</v>
+        <v>1600</v>
       </c>
       <c r="M559" t="n">
-        <v>2700</v>
+        <v>1446</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40623,11 +40623,11 @@
       </c>
       <c r="O559" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P559" t="n">
-        <v>2700</v>
+        <v>1446</v>
       </c>
       <c r="Q559" t="n">
         <v>1</v>
@@ -40677,16 +40677,16 @@
         </is>
       </c>
       <c r="J560" t="n">
-        <v>5900</v>
+        <v>3300</v>
       </c>
       <c r="K560" t="n">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="L560" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="M560" t="n">
-        <v>2688</v>
+        <v>2700</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40695,11 +40695,11 @@
       </c>
       <c r="O560" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P560" t="n">
-        <v>2688</v>
+        <v>2700</v>
       </c>
       <c r="Q560" t="n">
         <v>1</v>
@@ -40745,38 +40745,110 @@
       </c>
       <c r="I561" t="inlineStr">
         <is>
+          <t>Super</t>
+        </is>
+      </c>
+      <c r="J561" t="n">
+        <v>5900</v>
+      </c>
+      <c r="K561" t="n">
+        <v>2600</v>
+      </c>
+      <c r="L561" t="n">
+        <v>2800</v>
+      </c>
+      <c r="M561" t="n">
+        <v>2688</v>
+      </c>
+      <c r="N561" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O561" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P561" t="n">
+        <v>2688</v>
+      </c>
+      <c r="Q561" t="n">
+        <v>1</v>
+      </c>
+      <c r="R561" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>6</v>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D562" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E562" t="n">
+        <v>13</v>
+      </c>
+      <c r="F562" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G562" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H562" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I562" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J561" t="n">
+      <c r="J562" t="n">
         <v>3900</v>
       </c>
-      <c r="K561" t="n">
+      <c r="K562" t="n">
         <v>1000</v>
       </c>
-      <c r="L561" t="n">
+      <c r="L562" t="n">
         <v>1200</v>
       </c>
-      <c r="M561" t="n">
+      <c r="M562" t="n">
         <v>1113</v>
       </c>
-      <c r="N561" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O561" t="inlineStr">
+      <c r="N562" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O562" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P561" t="n">
+      <c r="P562" t="n">
         <v>1113</v>
       </c>
-      <c r="Q561" t="n">
-        <v>1</v>
-      </c>
-      <c r="R561" t="inlineStr">
+      <c r="Q562" t="n">
+        <v>1</v>
+      </c>
+      <c r="R562" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R566"/>
+  <dimension ref="A1:R567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44249</v>
+        <v>44466</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -26489,33 +26489,33 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J363" t="n">
-        <v>510</v>
+        <v>6600</v>
       </c>
       <c r="K363" t="n">
-        <v>2500</v>
+        <v>850</v>
       </c>
       <c r="L363" t="n">
-        <v>2800</v>
+        <v>900</v>
       </c>
       <c r="M363" t="n">
-        <v>2641</v>
+        <v>870</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P363" t="n">
-        <v>2641</v>
+        <v>870</v>
       </c>
       <c r="Q363" t="n">
         <v>1</v>
@@ -26561,20 +26561,20 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J364" t="n">
-        <v>1000</v>
+        <v>510</v>
       </c>
       <c r="K364" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L364" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="M364" t="n">
-        <v>2195</v>
+        <v>2641</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>2195</v>
+        <v>2641</v>
       </c>
       <c r="Q364" t="n">
         <v>1</v>
@@ -26633,20 +26633,20 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J365" t="n">
-        <v>620</v>
+        <v>1000</v>
       </c>
       <c r="K365" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L365" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="M365" t="n">
-        <v>1910</v>
+        <v>2195</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>1910</v>
+        <v>2195</v>
       </c>
       <c r="Q365" t="n">
         <v>1</v>
@@ -26705,20 +26705,20 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J366" t="n">
-        <v>460</v>
+        <v>620</v>
       </c>
       <c r="K366" t="n">
-        <v>3300</v>
+        <v>1800</v>
       </c>
       <c r="L366" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M366" t="n">
-        <v>3404</v>
+        <v>1910</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>3404</v>
+        <v>1910</v>
       </c>
       <c r="Q366" t="n">
         <v>1</v>
@@ -26777,20 +26777,20 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J367" t="n">
-        <v>350</v>
+        <v>460</v>
       </c>
       <c r="K367" t="n">
-        <v>1200</v>
+        <v>3300</v>
       </c>
       <c r="L367" t="n">
-        <v>1200</v>
+        <v>3500</v>
       </c>
       <c r="M367" t="n">
-        <v>1200</v>
+        <v>3404</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>1200</v>
+        <v>3404</v>
       </c>
       <c r="Q367" t="n">
         <v>1</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -26849,20 +26849,20 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J368" t="n">
+        <v>350</v>
+      </c>
+      <c r="K368" t="n">
         <v>1200</v>
       </c>
-      <c r="K368" t="n">
-        <v>2500</v>
-      </c>
       <c r="L368" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="M368" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26871,11 +26871,11 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P368" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="Q368" t="n">
         <v>1</v>
@@ -26921,20 +26921,20 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J369" t="n">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="K369" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="L369" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="M369" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="Q369" t="n">
         <v>1</v>
@@ -26993,20 +26993,20 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J370" t="n">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="K370" t="n">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="L370" t="n">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="M370" t="n">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="Q370" t="n">
         <v>1</v>
@@ -27065,20 +27065,20 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J371" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="K371" t="n">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="L371" t="n">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="M371" t="n">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="Q371" t="n">
         <v>1</v>
@@ -27137,20 +27137,20 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J372" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="K372" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="L372" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="M372" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="Q372" t="n">
         <v>1</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44201</v>
+        <v>44265</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -27209,20 +27209,20 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J373" t="n">
-        <v>3100</v>
+        <v>1800</v>
       </c>
       <c r="K373" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="L373" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="M373" t="n">
-        <v>755</v>
+        <v>1200</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27231,11 +27231,11 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P373" t="n">
-        <v>755</v>
+        <v>1200</v>
       </c>
       <c r="Q373" t="n">
         <v>1</v>
@@ -27281,20 +27281,20 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J374" t="n">
-        <v>2200</v>
+        <v>3100</v>
       </c>
       <c r="K374" t="n">
-        <v>3000</v>
+        <v>700</v>
       </c>
       <c r="L374" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M374" t="n">
-        <v>3000</v>
+        <v>755</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27303,11 +27303,11 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P374" t="n">
-        <v>3000</v>
+        <v>755</v>
       </c>
       <c r="Q374" t="n">
         <v>1</v>
@@ -27357,16 +27357,16 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>5700</v>
+        <v>2200</v>
       </c>
       <c r="K375" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="L375" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M375" t="n">
-        <v>2684</v>
+        <v>3000</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27375,11 +27375,11 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P375" t="n">
-        <v>2684</v>
+        <v>3000</v>
       </c>
       <c r="Q375" t="n">
         <v>1</v>
@@ -27425,20 +27425,20 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J376" t="n">
-        <v>3300</v>
+        <v>5700</v>
       </c>
       <c r="K376" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="L376" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="M376" t="n">
-        <v>2400</v>
+        <v>2684</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27447,11 +27447,11 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P376" t="n">
-        <v>2400</v>
+        <v>2684</v>
       </c>
       <c r="Q376" t="n">
         <v>1</v>
@@ -27501,16 +27501,16 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>8200</v>
+        <v>3300</v>
       </c>
       <c r="K377" t="n">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="L377" t="n">
         <v>2400</v>
       </c>
       <c r="M377" t="n">
-        <v>2228</v>
+        <v>2400</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P377" t="n">
-        <v>2228</v>
+        <v>2400</v>
       </c>
       <c r="Q377" t="n">
         <v>1</v>
@@ -27569,20 +27569,20 @@
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J378" t="n">
-        <v>5100</v>
+        <v>8200</v>
       </c>
       <c r="K378" t="n">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="L378" t="n">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="M378" t="n">
-        <v>1729</v>
+        <v>2228</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>1729</v>
+        <v>2228</v>
       </c>
       <c r="Q378" t="n">
         <v>1</v>
@@ -27641,20 +27641,20 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J379" t="n">
-        <v>2900</v>
+        <v>5100</v>
       </c>
       <c r="K379" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="L379" t="n">
-        <v>3500</v>
+        <v>1900</v>
       </c>
       <c r="M379" t="n">
-        <v>3500</v>
+        <v>1729</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27663,11 +27663,11 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P379" t="n">
-        <v>3500</v>
+        <v>1729</v>
       </c>
       <c r="Q379" t="n">
         <v>1</v>
@@ -27717,16 +27717,16 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>7700</v>
+        <v>2900</v>
       </c>
       <c r="K380" t="n">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="L380" t="n">
         <v>3500</v>
       </c>
       <c r="M380" t="n">
-        <v>3329</v>
+        <v>3500</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27735,11 +27735,11 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P380" t="n">
-        <v>3329</v>
+        <v>3500</v>
       </c>
       <c r="Q380" t="n">
         <v>1</v>
@@ -27785,20 +27785,20 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J381" t="n">
-        <v>4200</v>
+        <v>7700</v>
       </c>
       <c r="K381" t="n">
-        <v>1100</v>
+        <v>3200</v>
       </c>
       <c r="L381" t="n">
-        <v>1400</v>
+        <v>3500</v>
       </c>
       <c r="M381" t="n">
-        <v>1279</v>
+        <v>3329</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>1279</v>
+        <v>3329</v>
       </c>
       <c r="Q381" t="n">
         <v>1</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -27857,20 +27857,20 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J382" t="n">
-        <v>1300</v>
+        <v>4200</v>
       </c>
       <c r="K382" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="L382" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="M382" t="n">
-        <v>1000</v>
+        <v>1279</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27879,11 +27879,11 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P382" t="n">
-        <v>1000</v>
+        <v>1279</v>
       </c>
       <c r="Q382" t="n">
         <v>1</v>
@@ -27929,20 +27929,20 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J383" t="n">
-        <v>1900</v>
+        <v>1300</v>
       </c>
       <c r="K383" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L383" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M383" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="Q383" t="n">
         <v>1</v>
@@ -28001,20 +28001,20 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J384" t="n">
-        <v>2700</v>
+        <v>1900</v>
       </c>
       <c r="K384" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L384" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M384" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q384" t="n">
         <v>1</v>
@@ -28073,20 +28073,20 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J385" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="K385" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L385" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M385" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="Q385" t="n">
         <v>1</v>
@@ -28145,20 +28145,20 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J386" t="n">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="K386" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="L386" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="M386" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="Q386" t="n">
         <v>1</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44270</v>
+        <v>44280</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -28217,20 +28217,20 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J387" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K387" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="L387" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="M387" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q387" t="n">
         <v>1</v>
@@ -28289,20 +28289,20 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J388" t="n">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="K388" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L388" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M388" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="Q388" t="n">
         <v>1</v>
@@ -28361,20 +28361,20 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J389" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="K389" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L389" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M389" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q389" t="n">
         <v>1</v>
@@ -28433,20 +28433,20 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J390" t="n">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="K390" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L390" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M390" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="Q390" t="n">
         <v>1</v>
@@ -28505,20 +28505,20 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J391" t="n">
-        <v>2700</v>
+        <v>3800</v>
       </c>
       <c r="K391" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L391" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M391" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="Q391" t="n">
         <v>1</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -28577,20 +28577,20 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J392" t="n">
-        <v>1600</v>
+        <v>2700</v>
       </c>
       <c r="K392" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="L392" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="M392" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="Q392" t="n">
         <v>1</v>
@@ -28653,16 +28653,16 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="K393" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="L393" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="M393" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28671,11 +28671,11 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P393" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="Q393" t="n">
         <v>1</v>
@@ -28721,20 +28721,20 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J394" t="n">
-        <v>2200</v>
+        <v>1400</v>
       </c>
       <c r="K394" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L394" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M394" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28743,11 +28743,11 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P394" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q394" t="n">
         <v>1</v>
@@ -28797,16 +28797,16 @@
         </is>
       </c>
       <c r="J395" t="n">
+        <v>2200</v>
+      </c>
+      <c r="K395" t="n">
         <v>2000</v>
       </c>
-      <c r="K395" t="n">
-        <v>2200</v>
-      </c>
       <c r="L395" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="M395" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28815,11 +28815,11 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P395" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="Q395" t="n">
         <v>1</v>
@@ -28865,20 +28865,20 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J396" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K396" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="L396" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="M396" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28887,11 +28887,11 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P396" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="Q396" t="n">
         <v>1</v>
@@ -28941,16 +28941,16 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>2300</v>
+        <v>1900</v>
       </c>
       <c r="K397" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="L397" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="M397" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28959,11 +28959,11 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P397" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="Q397" t="n">
         <v>1</v>
@@ -29009,20 +29009,20 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J398" t="n">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="K398" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="L398" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="M398" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29031,11 +29031,11 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P398" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="Q398" t="n">
         <v>1</v>
@@ -29085,16 +29085,16 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K399" t="n">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="L399" t="n">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="M399" t="n">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29103,11 +29103,11 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P399" t="n">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="Q399" t="n">
         <v>1</v>
@@ -29153,20 +29153,20 @@
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J400" t="n">
-        <v>2400</v>
+        <v>1100</v>
       </c>
       <c r="K400" t="n">
-        <v>1300</v>
+        <v>2900</v>
       </c>
       <c r="L400" t="n">
-        <v>1300</v>
+        <v>2900</v>
       </c>
       <c r="M400" t="n">
-        <v>1300</v>
+        <v>2900</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29175,11 +29175,11 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P400" t="n">
-        <v>1300</v>
+        <v>2900</v>
       </c>
       <c r="Q400" t="n">
         <v>1</v>
@@ -29229,16 +29229,16 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="K401" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L401" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="M401" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29247,11 +29247,11 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P401" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="Q401" t="n">
         <v>1</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -29297,20 +29297,20 @@
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J402" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="K402" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L402" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M402" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29319,11 +29319,11 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P402" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="Q402" t="n">
         <v>1</v>
@@ -29369,20 +29369,20 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J403" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="K403" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L403" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M403" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="Q403" t="n">
         <v>1</v>
@@ -29441,20 +29441,20 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J404" t="n">
-        <v>2700</v>
+        <v>1700</v>
       </c>
       <c r="K404" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L404" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M404" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q404" t="n">
         <v>1</v>
@@ -29513,20 +29513,20 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J405" t="n">
-        <v>1900</v>
+        <v>2700</v>
       </c>
       <c r="K405" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L405" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M405" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="Q405" t="n">
         <v>1</v>
@@ -29585,20 +29585,20 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J406" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="K406" t="n">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="L406" t="n">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="M406" t="n">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="Q406" t="n">
         <v>1</v>
@@ -29657,20 +29657,20 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J407" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="K407" t="n">
-        <v>1300</v>
+        <v>2800</v>
       </c>
       <c r="L407" t="n">
-        <v>1300</v>
+        <v>2800</v>
       </c>
       <c r="M407" t="n">
-        <v>1300</v>
+        <v>2800</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>1300</v>
+        <v>2800</v>
       </c>
       <c r="Q407" t="n">
         <v>1</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44187</v>
+        <v>44267</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29729,20 +29729,20 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J408" t="n">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="K408" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L408" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="M408" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29751,11 +29751,11 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P408" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="Q408" t="n">
         <v>1</v>
@@ -29805,16 +29805,16 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>5000</v>
+        <v>2600</v>
       </c>
       <c r="K409" t="n">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="L409" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="M409" t="n">
-        <v>3068</v>
+        <v>3000</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29823,11 +29823,11 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P409" t="n">
-        <v>3068</v>
+        <v>3000</v>
       </c>
       <c r="Q409" t="n">
         <v>1</v>
@@ -29873,20 +29873,20 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J410" t="n">
-        <v>4400</v>
+        <v>5000</v>
       </c>
       <c r="K410" t="n">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="L410" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="M410" t="n">
-        <v>2500</v>
+        <v>3068</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29895,11 +29895,11 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P410" t="n">
-        <v>2500</v>
+        <v>3068</v>
       </c>
       <c r="Q410" t="n">
         <v>1</v>
@@ -29949,16 +29949,16 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>8300</v>
+        <v>4400</v>
       </c>
       <c r="K411" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L411" t="n">
         <v>2500</v>
       </c>
       <c r="M411" t="n">
-        <v>2394</v>
+        <v>2500</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29967,11 +29967,11 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P411" t="n">
-        <v>2394</v>
+        <v>2500</v>
       </c>
       <c r="Q411" t="n">
         <v>1</v>
@@ -30017,20 +30017,20 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J412" t="n">
-        <v>5000</v>
+        <v>8300</v>
       </c>
       <c r="K412" t="n">
-        <v>1700</v>
+        <v>2300</v>
       </c>
       <c r="L412" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M412" t="n">
-        <v>1814</v>
+        <v>2394</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>1814</v>
+        <v>2394</v>
       </c>
       <c r="Q412" t="n">
         <v>1</v>
@@ -30089,20 +30089,20 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J413" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="K413" t="n">
-        <v>3600</v>
+        <v>1700</v>
       </c>
       <c r="L413" t="n">
-        <v>3600</v>
+        <v>2000</v>
       </c>
       <c r="M413" t="n">
-        <v>3600</v>
+        <v>1814</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30111,11 +30111,11 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P413" t="n">
-        <v>3600</v>
+        <v>1814</v>
       </c>
       <c r="Q413" t="n">
         <v>1</v>
@@ -30165,16 +30165,16 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>6300</v>
+        <v>3800</v>
       </c>
       <c r="K414" t="n">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="L414" t="n">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="M414" t="n">
-        <v>3571</v>
+        <v>3600</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30183,11 +30183,11 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P414" t="n">
-        <v>3571</v>
+        <v>3600</v>
       </c>
       <c r="Q414" t="n">
         <v>1</v>
@@ -30233,20 +30233,20 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>4900</v>
+        <v>6300</v>
       </c>
       <c r="K415" t="n">
-        <v>1000</v>
+        <v>3400</v>
       </c>
       <c r="L415" t="n">
-        <v>1300</v>
+        <v>3700</v>
       </c>
       <c r="M415" t="n">
-        <v>1153</v>
+        <v>3571</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>1153</v>
+        <v>3571</v>
       </c>
       <c r="Q415" t="n">
         <v>1</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44264</v>
+        <v>44187</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -30305,20 +30305,20 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J416" t="n">
-        <v>2200</v>
+        <v>4900</v>
       </c>
       <c r="K416" t="n">
         <v>1000</v>
       </c>
       <c r="L416" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="M416" t="n">
-        <v>1000</v>
+        <v>1153</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30327,11 +30327,11 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P416" t="n">
-        <v>1000</v>
+        <v>1153</v>
       </c>
       <c r="Q416" t="n">
         <v>1</v>
@@ -30377,20 +30377,20 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="K417" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="L417" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="M417" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="Q417" t="n">
         <v>1</v>
@@ -30449,20 +30449,20 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J418" t="n">
+        <v>1600</v>
+      </c>
+      <c r="K418" t="n">
         <v>2400</v>
       </c>
-      <c r="K418" t="n">
-        <v>2000</v>
-      </c>
       <c r="L418" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M418" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Q418" t="n">
         <v>1</v>
@@ -30521,20 +30521,20 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J419" t="n">
         <v>2400</v>
       </c>
       <c r="K419" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L419" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M419" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="Q419" t="n">
         <v>1</v>
@@ -30593,20 +30593,20 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>1100</v>
+        <v>2400</v>
       </c>
       <c r="K420" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="L420" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="M420" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="Q420" t="n">
         <v>1</v>
@@ -30665,20 +30665,20 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J421" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K421" t="n">
         <v>2700</v>
       </c>
-      <c r="K421" t="n">
-        <v>1500</v>
-      </c>
       <c r="L421" t="n">
-        <v>1500</v>
+        <v>2700</v>
       </c>
       <c r="M421" t="n">
-        <v>1500</v>
+        <v>2700</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>1500</v>
+        <v>2700</v>
       </c>
       <c r="Q421" t="n">
         <v>1</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -30737,20 +30737,20 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J422" t="n">
-        <v>5300</v>
+        <v>2700</v>
       </c>
       <c r="K422" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="L422" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="M422" t="n">
-        <v>2804</v>
+        <v>1500</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30759,11 +30759,11 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P422" t="n">
-        <v>2804</v>
+        <v>1500</v>
       </c>
       <c r="Q422" t="n">
         <v>1</v>
@@ -30809,20 +30809,20 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J423" t="n">
-        <v>7400</v>
+        <v>5300</v>
       </c>
       <c r="K423" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="L423" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="M423" t="n">
-        <v>2154</v>
+        <v>2804</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>2154</v>
+        <v>2804</v>
       </c>
       <c r="Q423" t="n">
         <v>1</v>
@@ -30881,20 +30881,20 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J424" t="n">
-        <v>4100</v>
+        <v>7400</v>
       </c>
       <c r="K424" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="L424" t="n">
-        <v>1700</v>
+        <v>2300</v>
       </c>
       <c r="M424" t="n">
-        <v>1576</v>
+        <v>2154</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>1576</v>
+        <v>2154</v>
       </c>
       <c r="Q424" t="n">
         <v>1</v>
@@ -30953,20 +30953,20 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J425" t="n">
-        <v>5800</v>
+        <v>4100</v>
       </c>
       <c r="K425" t="n">
-        <v>3200</v>
+        <v>1400</v>
       </c>
       <c r="L425" t="n">
-        <v>3500</v>
+        <v>1700</v>
       </c>
       <c r="M425" t="n">
-        <v>3381</v>
+        <v>1576</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>3381</v>
+        <v>1576</v>
       </c>
       <c r="Q425" t="n">
         <v>1</v>
@@ -31025,20 +31025,20 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J426" t="n">
-        <v>3900</v>
+        <v>5800</v>
       </c>
       <c r="K426" t="n">
-        <v>1000</v>
+        <v>3200</v>
       </c>
       <c r="L426" t="n">
-        <v>1200</v>
+        <v>3500</v>
       </c>
       <c r="M426" t="n">
-        <v>1097</v>
+        <v>3381</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>1097</v>
+        <v>3381</v>
       </c>
       <c r="Q426" t="n">
         <v>1</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -31097,20 +31097,20 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J427" t="n">
-        <v>1100</v>
+        <v>3900</v>
       </c>
       <c r="K427" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L427" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="M427" t="n">
-        <v>800</v>
+        <v>1097</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>800</v>
+        <v>1097</v>
       </c>
       <c r="Q427" t="n">
         <v>1</v>
@@ -31169,20 +31169,20 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J428" t="n">
-        <v>4600</v>
+        <v>1100</v>
       </c>
       <c r="K428" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L428" t="n">
-        <v>2300</v>
+        <v>800</v>
       </c>
       <c r="M428" t="n">
-        <v>2124</v>
+        <v>800</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>2124</v>
+        <v>800</v>
       </c>
       <c r="Q428" t="n">
         <v>1</v>
@@ -31241,20 +31241,20 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J429" t="n">
-        <v>6000</v>
+        <v>4600</v>
       </c>
       <c r="K429" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L429" t="n">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="M429" t="n">
-        <v>1783</v>
+        <v>2124</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>1783</v>
+        <v>2124</v>
       </c>
       <c r="Q429" t="n">
         <v>1</v>
@@ -31313,20 +31313,20 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J430" t="n">
-        <v>3600</v>
+        <v>6000</v>
       </c>
       <c r="K430" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="L430" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M430" t="n">
-        <v>1417</v>
+        <v>1783</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>1417</v>
+        <v>1783</v>
       </c>
       <c r="Q430" t="n">
         <v>1</v>
@@ -31385,20 +31385,20 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J431" t="n">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="K431" t="n">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="L431" t="n">
-        <v>2700</v>
+        <v>1600</v>
       </c>
       <c r="M431" t="n">
-        <v>2529</v>
+        <v>1417</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>2529</v>
+        <v>1417</v>
       </c>
       <c r="Q431" t="n">
         <v>1</v>
@@ -31457,20 +31457,20 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J432" t="n">
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="K432" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="L432" t="n">
-        <v>1200</v>
+        <v>2700</v>
       </c>
       <c r="M432" t="n">
-        <v>1086</v>
+        <v>2529</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>1086</v>
+        <v>2529</v>
       </c>
       <c r="Q432" t="n">
         <v>1</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -31529,20 +31529,20 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J433" t="n">
         <v>4200</v>
       </c>
       <c r="K433" t="n">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="L433" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="M433" t="n">
-        <v>2300</v>
+        <v>1086</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>2300</v>
+        <v>1086</v>
       </c>
       <c r="Q433" t="n">
         <v>1</v>
@@ -31601,20 +31601,20 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J434" t="n">
-        <v>5100</v>
+        <v>4200</v>
       </c>
       <c r="K434" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="L434" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M434" t="n">
-        <v>1898</v>
+        <v>2300</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>1898</v>
+        <v>2300</v>
       </c>
       <c r="Q434" t="n">
         <v>1</v>
@@ -31673,20 +31673,20 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J435" t="n">
-        <v>3800</v>
+        <v>5100</v>
       </c>
       <c r="K435" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L435" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M435" t="n">
-        <v>1626</v>
+        <v>1898</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>1626</v>
+        <v>1898</v>
       </c>
       <c r="Q435" t="n">
         <v>1</v>
@@ -31745,20 +31745,20 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J436" t="n">
-        <v>3300</v>
+        <v>3800</v>
       </c>
       <c r="K436" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="L436" t="n">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="M436" t="n">
-        <v>2709</v>
+        <v>1626</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>2709</v>
+        <v>1626</v>
       </c>
       <c r="Q436" t="n">
         <v>1</v>
@@ -31817,20 +31817,20 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J437" t="n">
-        <v>4200</v>
+        <v>3300</v>
       </c>
       <c r="K437" t="n">
-        <v>1200</v>
+        <v>2600</v>
       </c>
       <c r="L437" t="n">
-        <v>1300</v>
+        <v>2800</v>
       </c>
       <c r="M437" t="n">
-        <v>1264</v>
+        <v>2709</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>1264</v>
+        <v>2709</v>
       </c>
       <c r="Q437" t="n">
         <v>1</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -31889,20 +31889,20 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J438" t="n">
-        <v>4600</v>
+        <v>4200</v>
       </c>
       <c r="K438" t="n">
-        <v>2300</v>
+        <v>1200</v>
       </c>
       <c r="L438" t="n">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="M438" t="n">
-        <v>2417</v>
+        <v>1264</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31911,11 +31911,11 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P438" t="n">
-        <v>2417</v>
+        <v>1264</v>
       </c>
       <c r="Q438" t="n">
         <v>1</v>
@@ -31965,16 +31965,16 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>5100</v>
+        <v>4600</v>
       </c>
       <c r="K439" t="n">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="L439" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="M439" t="n">
-        <v>2288</v>
+        <v>2417</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31983,11 +31983,11 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P439" t="n">
-        <v>2288</v>
+        <v>2417</v>
       </c>
       <c r="Q439" t="n">
         <v>1</v>
@@ -32033,20 +32033,20 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J440" t="n">
-        <v>5600</v>
+        <v>5100</v>
       </c>
       <c r="K440" t="n">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="L440" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M440" t="n">
-        <v>1914</v>
+        <v>2288</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32055,11 +32055,11 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P440" t="n">
-        <v>1914</v>
+        <v>2288</v>
       </c>
       <c r="Q440" t="n">
         <v>1</v>
@@ -32109,7 +32109,7 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="K441" t="n">
         <v>1800</v>
@@ -32118,7 +32118,7 @@
         <v>2000</v>
       </c>
       <c r="M441" t="n">
-        <v>1920</v>
+        <v>1914</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32127,11 +32127,11 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P441" t="n">
-        <v>1920</v>
+        <v>1914</v>
       </c>
       <c r="Q441" t="n">
         <v>1</v>
@@ -32177,20 +32177,20 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J442" t="n">
-        <v>4300</v>
+        <v>6000</v>
       </c>
       <c r="K442" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L442" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M442" t="n">
-        <v>1584</v>
+        <v>1920</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>1584</v>
+        <v>1920</v>
       </c>
       <c r="Q442" t="n">
         <v>1</v>
@@ -32249,20 +32249,20 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J443" t="n">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="K443" t="n">
-        <v>2700</v>
+        <v>1500</v>
       </c>
       <c r="L443" t="n">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="M443" t="n">
-        <v>2880</v>
+        <v>1584</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32271,11 +32271,11 @@
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P443" t="n">
-        <v>2880</v>
+        <v>1584</v>
       </c>
       <c r="Q443" t="n">
         <v>1</v>
@@ -32325,16 +32325,16 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="K444" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="L444" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M444" t="n">
-        <v>2693</v>
+        <v>2880</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32343,11 +32343,11 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P444" t="n">
-        <v>2693</v>
+        <v>2880</v>
       </c>
       <c r="Q444" t="n">
         <v>1</v>
@@ -32393,20 +32393,20 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="K445" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="L445" t="n">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="M445" t="n">
-        <v>1214</v>
+        <v>2693</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>1214</v>
+        <v>2693</v>
       </c>
       <c r="Q445" t="n">
         <v>1</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -32465,20 +32465,20 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J446" t="n">
-        <v>900</v>
+        <v>4300</v>
       </c>
       <c r="K446" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="L446" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="M446" t="n">
-        <v>1800</v>
+        <v>1214</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>1800</v>
+        <v>1214</v>
       </c>
       <c r="Q446" t="n">
         <v>1</v>
@@ -32537,20 +32537,20 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>2200</v>
+        <v>900</v>
       </c>
       <c r="K447" t="n">
-        <v>4500</v>
+        <v>1800</v>
       </c>
       <c r="L447" t="n">
-        <v>4500</v>
+        <v>1800</v>
       </c>
       <c r="M447" t="n">
-        <v>4500</v>
+        <v>1800</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32559,11 +32559,11 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P447" t="n">
-        <v>4500</v>
+        <v>1800</v>
       </c>
       <c r="Q447" t="n">
         <v>1</v>
@@ -32609,33 +32609,33 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J448" t="n">
-        <v>4200</v>
+        <v>2200</v>
       </c>
       <c r="K448" t="n">
-        <v>500</v>
+        <v>4500</v>
       </c>
       <c r="L448" t="n">
-        <v>500</v>
+        <v>4500</v>
       </c>
       <c r="M448" t="n">
-        <v>500</v>
+        <v>4500</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P448" t="n">
-        <v>500</v>
+        <v>4500</v>
       </c>
       <c r="Q448" t="n">
         <v>1</v>
@@ -32685,16 +32685,16 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>1800</v>
+        <v>4200</v>
       </c>
       <c r="K449" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L449" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M449" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32703,11 +32703,11 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P449" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q449" t="n">
         <v>1</v>
@@ -32757,29 +32757,29 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="K450" t="n">
-        <v>3600</v>
+        <v>400</v>
       </c>
       <c r="L450" t="n">
-        <v>3600</v>
+        <v>400</v>
       </c>
       <c r="M450" t="n">
-        <v>3600</v>
+        <v>400</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P450" t="n">
-        <v>3600</v>
+        <v>400</v>
       </c>
       <c r="Q450" t="n">
         <v>1</v>
@@ -32829,16 +32829,16 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>2200</v>
+        <v>3500</v>
       </c>
       <c r="K451" t="n">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="L451" t="n">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="M451" t="n">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32847,11 +32847,11 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P451" t="n">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="Q451" t="n">
         <v>1</v>
@@ -32897,33 +32897,33 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J452" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="K452" t="n">
-        <v>400</v>
+        <v>3800</v>
       </c>
       <c r="L452" t="n">
-        <v>400</v>
+        <v>3800</v>
       </c>
       <c r="M452" t="n">
-        <v>400</v>
+        <v>3800</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P452" t="n">
-        <v>400</v>
+        <v>3800</v>
       </c>
       <c r="Q452" t="n">
         <v>1</v>
@@ -32973,16 +32973,16 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="K453" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L453" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M453" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32991,11 +32991,11 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P453" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q453" t="n">
         <v>1</v>
@@ -33045,20 +33045,20 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="K454" t="n">
-        <v>2800</v>
+        <v>300</v>
       </c>
       <c r="L454" t="n">
-        <v>2800</v>
+        <v>300</v>
       </c>
       <c r="M454" t="n">
-        <v>2800</v>
+        <v>300</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O454" t="inlineStr">
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>2800</v>
+        <v>300</v>
       </c>
       <c r="Q454" t="n">
         <v>1</v>
@@ -33113,20 +33113,20 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J455" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="K455" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="L455" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M455" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="Q455" t="n">
         <v>1</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -33185,33 +33185,33 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J456" t="n">
-        <v>3300</v>
+        <v>1000</v>
       </c>
       <c r="K456" t="n">
-        <v>450</v>
+        <v>2000</v>
       </c>
       <c r="L456" t="n">
-        <v>450</v>
+        <v>2000</v>
       </c>
       <c r="M456" t="n">
-        <v>450</v>
+        <v>2000</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P456" t="n">
-        <v>450</v>
+        <v>2000</v>
       </c>
       <c r="Q456" t="n">
         <v>1</v>
@@ -33261,29 +33261,29 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>5900</v>
+        <v>3300</v>
       </c>
       <c r="K457" t="n">
-        <v>2700</v>
+        <v>450</v>
       </c>
       <c r="L457" t="n">
-        <v>3000</v>
+        <v>450</v>
       </c>
       <c r="M457" t="n">
-        <v>2873</v>
+        <v>450</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P457" t="n">
-        <v>2873</v>
+        <v>450</v>
       </c>
       <c r="Q457" t="n">
         <v>1</v>
@@ -33329,33 +33329,33 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>4100</v>
+        <v>5900</v>
       </c>
       <c r="K458" t="n">
-        <v>400</v>
+        <v>2700</v>
       </c>
       <c r="L458" t="n">
-        <v>400</v>
+        <v>3000</v>
       </c>
       <c r="M458" t="n">
-        <v>400</v>
+        <v>2873</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P458" t="n">
-        <v>400</v>
+        <v>2873</v>
       </c>
       <c r="Q458" t="n">
         <v>1</v>
@@ -33405,29 +33405,29 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>6100</v>
+        <v>4100</v>
       </c>
       <c r="K459" t="n">
-        <v>2300</v>
+        <v>400</v>
       </c>
       <c r="L459" t="n">
-        <v>2500</v>
+        <v>400</v>
       </c>
       <c r="M459" t="n">
-        <v>2444</v>
+        <v>400</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P459" t="n">
-        <v>2444</v>
+        <v>400</v>
       </c>
       <c r="Q459" t="n">
         <v>1</v>
@@ -33473,33 +33473,33 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J460" t="n">
-        <v>3800</v>
+        <v>6100</v>
       </c>
       <c r="K460" t="n">
-        <v>300</v>
+        <v>2300</v>
       </c>
       <c r="L460" t="n">
-        <v>300</v>
+        <v>2500</v>
       </c>
       <c r="M460" t="n">
-        <v>300</v>
+        <v>2444</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P460" t="n">
-        <v>300</v>
+        <v>2444</v>
       </c>
       <c r="Q460" t="n">
         <v>1</v>
@@ -33549,29 +33549,29 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>4900</v>
+        <v>3800</v>
       </c>
       <c r="K461" t="n">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="L461" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="M461" t="n">
-        <v>1914</v>
+        <v>300</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P461" t="n">
-        <v>1914</v>
+        <v>300</v>
       </c>
       <c r="Q461" t="n">
         <v>1</v>
@@ -33617,20 +33617,20 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J462" t="n">
-        <v>5600</v>
+        <v>4900</v>
       </c>
       <c r="K462" t="n">
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="L462" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M462" t="n">
-        <v>3757</v>
+        <v>1914</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>3757</v>
+        <v>1914</v>
       </c>
       <c r="Q462" t="n">
         <v>1</v>
@@ -33689,20 +33689,20 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J463" t="n">
+        <v>5600</v>
+      </c>
+      <c r="K463" t="n">
         <v>3600</v>
       </c>
-      <c r="K463" t="n">
-        <v>1300</v>
-      </c>
       <c r="L463" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="M463" t="n">
-        <v>1422</v>
+        <v>3757</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>1422</v>
+        <v>3757</v>
       </c>
       <c r="Q463" t="n">
         <v>1</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44221</v>
+        <v>44168</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -33761,20 +33761,20 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J464" t="n">
-        <v>2700</v>
+        <v>3600</v>
       </c>
       <c r="K464" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="L464" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="M464" t="n">
-        <v>759</v>
+        <v>1422</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>759</v>
+        <v>1422</v>
       </c>
       <c r="Q464" t="n">
         <v>1</v>
@@ -33833,20 +33833,20 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J465" t="n">
-        <v>5700</v>
+        <v>2700</v>
       </c>
       <c r="K465" t="n">
-        <v>2200</v>
+        <v>700</v>
       </c>
       <c r="L465" t="n">
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="M465" t="n">
-        <v>2323</v>
+        <v>759</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>2323</v>
+        <v>759</v>
       </c>
       <c r="Q465" t="n">
         <v>1</v>
@@ -33905,20 +33905,20 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J466" t="n">
-        <v>8100</v>
+        <v>5700</v>
       </c>
       <c r="K466" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="L466" t="n">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="M466" t="n">
-        <v>1796</v>
+        <v>2323</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>1796</v>
+        <v>2323</v>
       </c>
       <c r="Q466" t="n">
         <v>1</v>
@@ -33977,20 +33977,20 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J467" t="n">
-        <v>6000</v>
+        <v>8100</v>
       </c>
       <c r="K467" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="L467" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M467" t="n">
-        <v>1445</v>
+        <v>1796</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>1445</v>
+        <v>1796</v>
       </c>
       <c r="Q467" t="n">
         <v>1</v>
@@ -34049,20 +34049,20 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J468" t="n">
-        <v>4400</v>
+        <v>6000</v>
       </c>
       <c r="K468" t="n">
-        <v>2600</v>
+        <v>1300</v>
       </c>
       <c r="L468" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="M468" t="n">
-        <v>2709</v>
+        <v>1445</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>2709</v>
+        <v>1445</v>
       </c>
       <c r="Q468" t="n">
         <v>1</v>
@@ -34121,20 +34121,20 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J469" t="n">
-        <v>5600</v>
+        <v>4400</v>
       </c>
       <c r="K469" t="n">
-        <v>1000</v>
+        <v>2600</v>
       </c>
       <c r="L469" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="M469" t="n">
-        <v>1118</v>
+        <v>2709</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>1118</v>
+        <v>2709</v>
       </c>
       <c r="Q469" t="n">
         <v>1</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44279</v>
+        <v>44221</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -34193,20 +34193,20 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J470" t="n">
+        <v>5600</v>
+      </c>
+      <c r="K470" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L470" t="n">
         <v>1200</v>
       </c>
-      <c r="K470" t="n">
-        <v>500</v>
-      </c>
-      <c r="L470" t="n">
-        <v>500</v>
-      </c>
       <c r="M470" t="n">
-        <v>500</v>
+        <v>1118</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34215,11 +34215,11 @@
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P470" t="n">
-        <v>500</v>
+        <v>1118</v>
       </c>
       <c r="Q470" t="n">
         <v>1</v>
@@ -34265,20 +34265,20 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J471" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K471" t="n">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="L471" t="n">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="M471" t="n">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="Q471" t="n">
         <v>1</v>
@@ -34337,20 +34337,20 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J472" t="n">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="K472" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="L472" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="M472" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="Q472" t="n">
         <v>1</v>
@@ -34409,20 +34409,20 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J473" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K473" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="L473" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="M473" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="Q473" t="n">
         <v>1</v>
@@ -34481,20 +34481,20 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J474" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="K474" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="L474" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="M474" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="Q474" t="n">
         <v>1</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -34553,20 +34553,20 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J475" t="n">
+        <v>1700</v>
+      </c>
+      <c r="K475" t="n">
         <v>1000</v>
       </c>
-      <c r="K475" t="n">
-        <v>800</v>
-      </c>
       <c r="L475" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="M475" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34575,11 +34575,11 @@
       </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P475" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q475" t="n">
         <v>1</v>
@@ -34625,20 +34625,20 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J476" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="K476" t="n">
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="L476" t="n">
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="M476" t="n">
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="Q476" t="n">
         <v>1</v>
@@ -34697,20 +34697,20 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J477" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K477" t="n">
         <v>2400</v>
       </c>
-      <c r="K477" t="n">
-        <v>1800</v>
-      </c>
       <c r="L477" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="M477" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="Q477" t="n">
         <v>1</v>
@@ -34769,20 +34769,20 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="K478" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L478" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M478" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="Q478" t="n">
         <v>1</v>
@@ -34841,20 +34841,20 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J479" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="K479" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L479" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M479" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="Q479" t="n">
         <v>1</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -34913,20 +34913,20 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J480" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K480" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="L480" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="M480" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34935,11 +34935,11 @@
       </c>
       <c r="O480" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="P480" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="Q480" t="n">
         <v>1</v>
@@ -34985,20 +34985,20 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J481" t="n">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="K481" t="n">
-        <v>2200</v>
+        <v>700</v>
       </c>
       <c r="L481" t="n">
-        <v>2200</v>
+        <v>700</v>
       </c>
       <c r="M481" t="n">
-        <v>2200</v>
+        <v>700</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>2200</v>
+        <v>700</v>
       </c>
       <c r="Q481" t="n">
         <v>1</v>
@@ -35057,20 +35057,20 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J482" t="n">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="K482" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="L482" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="M482" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="Q482" t="n">
         <v>1</v>
@@ -35129,20 +35129,20 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J483" t="n">
-        <v>1700</v>
+        <v>3200</v>
       </c>
       <c r="K483" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="L483" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="M483" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="Q483" t="n">
         <v>1</v>
@@ -35201,20 +35201,20 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J484" t="n">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="K484" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="L484" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="M484" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="Q484" t="n">
         <v>1</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44209</v>
+        <v>44273</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -35273,20 +35273,20 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>780</v>
+        <v>1900</v>
       </c>
       <c r="K485" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="L485" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="M485" t="n">
-        <v>546</v>
+        <v>1100</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>546</v>
+        <v>1100</v>
       </c>
       <c r="Q485" t="n">
         <v>1</v>
@@ -35349,16 +35349,16 @@
         </is>
       </c>
       <c r="J486" t="n">
-        <v>280</v>
+        <v>780</v>
       </c>
       <c r="K486" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L486" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M486" t="n">
-        <v>800</v>
+        <v>546</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35367,11 +35367,11 @@
       </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P486" t="n">
-        <v>800</v>
+        <v>546</v>
       </c>
       <c r="Q486" t="n">
         <v>1</v>
@@ -35417,20 +35417,20 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J487" t="n">
-        <v>4260</v>
+        <v>280</v>
       </c>
       <c r="K487" t="n">
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="L487" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M487" t="n">
-        <v>2494</v>
+        <v>800</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35439,11 +35439,11 @@
       </c>
       <c r="O487" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P487" t="n">
-        <v>2494</v>
+        <v>800</v>
       </c>
       <c r="Q487" t="n">
         <v>1</v>
@@ -35493,16 +35493,16 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>3750</v>
+        <v>4260</v>
       </c>
       <c r="K488" t="n">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="L488" t="n">
         <v>2500</v>
       </c>
       <c r="M488" t="n">
-        <v>2487</v>
+        <v>2494</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35511,11 +35511,11 @@
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P488" t="n">
-        <v>2487</v>
+        <v>2494</v>
       </c>
       <c r="Q488" t="n">
         <v>1</v>
@@ -35561,20 +35561,20 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J489" t="n">
-        <v>1640</v>
+        <v>3750</v>
       </c>
       <c r="K489" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="L489" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M489" t="n">
-        <v>1983</v>
+        <v>2487</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35583,11 +35583,11 @@
       </c>
       <c r="O489" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P489" t="n">
-        <v>1983</v>
+        <v>2487</v>
       </c>
       <c r="Q489" t="n">
         <v>1</v>
@@ -35637,16 +35637,16 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>1650</v>
+        <v>1640</v>
       </c>
       <c r="K490" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="L490" t="n">
         <v>2000</v>
       </c>
       <c r="M490" t="n">
-        <v>1973</v>
+        <v>1983</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35655,11 +35655,11 @@
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P490" t="n">
-        <v>1973</v>
+        <v>1983</v>
       </c>
       <c r="Q490" t="n">
         <v>1</v>
@@ -35705,20 +35705,20 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J491" t="n">
-        <v>1000</v>
+        <v>1650</v>
       </c>
       <c r="K491" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="L491" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M491" t="n">
-        <v>1370</v>
+        <v>1973</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35727,11 +35727,11 @@
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P491" t="n">
-        <v>1370</v>
+        <v>1973</v>
       </c>
       <c r="Q491" t="n">
         <v>1</v>
@@ -35781,16 +35781,16 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="K492" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L492" t="n">
         <v>1500</v>
       </c>
       <c r="M492" t="n">
-        <v>1500</v>
+        <v>1370</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35799,11 +35799,11 @@
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P492" t="n">
-        <v>1500</v>
+        <v>1370</v>
       </c>
       <c r="Q492" t="n">
         <v>1</v>
@@ -35849,20 +35849,20 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J493" t="n">
-        <v>3320</v>
+        <v>450</v>
       </c>
       <c r="K493" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="L493" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="M493" t="n">
-        <v>2981</v>
+        <v>1500</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35871,11 +35871,11 @@
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P493" t="n">
-        <v>2981</v>
+        <v>1500</v>
       </c>
       <c r="Q493" t="n">
         <v>1</v>
@@ -35925,16 +35925,16 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>4850</v>
+        <v>3320</v>
       </c>
       <c r="K494" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="L494" t="n">
         <v>3000</v>
       </c>
       <c r="M494" t="n">
-        <v>2978</v>
+        <v>2981</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35943,11 +35943,11 @@
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P494" t="n">
-        <v>2978</v>
+        <v>2981</v>
       </c>
       <c r="Q494" t="n">
         <v>1</v>
@@ -35993,20 +35993,20 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J495" t="n">
-        <v>1010</v>
+        <v>4850</v>
       </c>
       <c r="K495" t="n">
-        <v>1000</v>
+        <v>2700</v>
       </c>
       <c r="L495" t="n">
-        <v>1100</v>
+        <v>3000</v>
       </c>
       <c r="M495" t="n">
-        <v>1074</v>
+        <v>2978</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36015,11 +36015,11 @@
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P495" t="n">
-        <v>1074</v>
+        <v>2978</v>
       </c>
       <c r="Q495" t="n">
         <v>1</v>
@@ -36069,16 +36069,16 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>350</v>
+        <v>1010</v>
       </c>
       <c r="K496" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="L496" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="M496" t="n">
-        <v>1200</v>
+        <v>1074</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36087,11 +36087,11 @@
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P496" t="n">
-        <v>1200</v>
+        <v>1074</v>
       </c>
       <c r="Q496" t="n">
         <v>1</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -36137,33 +36137,33 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J497" t="n">
-        <v>4500</v>
+        <v>350</v>
       </c>
       <c r="K497" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="L497" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="M497" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O497" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P497" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="Q497" t="n">
         <v>1</v>
@@ -36213,16 +36213,16 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>2500</v>
+        <v>4500</v>
       </c>
       <c r="K498" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="L498" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M498" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36231,11 +36231,11 @@
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P498" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="Q498" t="n">
         <v>1</v>
@@ -36281,20 +36281,20 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J499" t="n">
-        <v>3600</v>
+        <v>2500</v>
       </c>
       <c r="K499" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L499" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M499" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36303,11 +36303,11 @@
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P499" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q499" t="n">
         <v>1</v>
@@ -36357,7 +36357,7 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="K500" t="n">
         <v>500</v>
@@ -36375,7 +36375,7 @@
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P500" t="n">
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44215</v>
+        <v>44160</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -36425,24 +36425,24 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J501" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="K501" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L501" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M501" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O501" t="inlineStr">
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q501" t="n">
         <v>1</v>
@@ -36497,20 +36497,20 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J502" t="n">
-        <v>4400</v>
+        <v>1500</v>
       </c>
       <c r="K502" t="n">
-        <v>2300</v>
+        <v>800</v>
       </c>
       <c r="L502" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M502" t="n">
-        <v>2414</v>
+        <v>800</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>2414</v>
+        <v>800</v>
       </c>
       <c r="Q502" t="n">
         <v>1</v>
@@ -36573,16 +36573,16 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>2200</v>
+        <v>4400</v>
       </c>
       <c r="K503" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="L503" t="n">
         <v>2500</v>
       </c>
       <c r="M503" t="n">
-        <v>2500</v>
+        <v>2414</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36591,11 +36591,11 @@
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P503" t="n">
-        <v>2500</v>
+        <v>2414</v>
       </c>
       <c r="Q503" t="n">
         <v>1</v>
@@ -36641,20 +36641,20 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J504" t="n">
-        <v>6600</v>
+        <v>2200</v>
       </c>
       <c r="K504" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L504" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M504" t="n">
-        <v>1906</v>
+        <v>2500</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36663,11 +36663,11 @@
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P504" t="n">
-        <v>1906</v>
+        <v>2500</v>
       </c>
       <c r="Q504" t="n">
         <v>1</v>
@@ -36717,16 +36717,16 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>3000</v>
+        <v>6600</v>
       </c>
       <c r="K505" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L505" t="n">
         <v>2000</v>
       </c>
       <c r="M505" t="n">
-        <v>2000</v>
+        <v>1906</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36735,11 +36735,11 @@
       </c>
       <c r="O505" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P505" t="n">
-        <v>2000</v>
+        <v>1906</v>
       </c>
       <c r="Q505" t="n">
         <v>1</v>
@@ -36785,20 +36785,20 @@
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J506" t="n">
-        <v>4100</v>
+        <v>3000</v>
       </c>
       <c r="K506" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="L506" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M506" t="n">
-        <v>1507</v>
+        <v>2000</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36807,11 +36807,11 @@
       </c>
       <c r="O506" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P506" t="n">
-        <v>1507</v>
+        <v>2000</v>
       </c>
       <c r="Q506" t="n">
         <v>1</v>
@@ -36857,20 +36857,20 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J507" t="n">
-        <v>5600</v>
+        <v>4100</v>
       </c>
       <c r="K507" t="n">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="L507" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="M507" t="n">
-        <v>2914</v>
+        <v>1507</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>2914</v>
+        <v>1507</v>
       </c>
       <c r="Q507" t="n">
         <v>1</v>
@@ -36933,16 +36933,16 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>2500</v>
+        <v>5600</v>
       </c>
       <c r="K508" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L508" t="n">
         <v>3000</v>
       </c>
       <c r="M508" t="n">
-        <v>3000</v>
+        <v>2914</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36951,11 +36951,11 @@
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P508" t="n">
-        <v>3000</v>
+        <v>2914</v>
       </c>
       <c r="Q508" t="n">
         <v>1</v>
@@ -37001,20 +37001,20 @@
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J509" t="n">
-        <v>3800</v>
+        <v>2500</v>
       </c>
       <c r="K509" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="L509" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="M509" t="n">
-        <v>1132</v>
+        <v>3000</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37023,11 +37023,11 @@
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P509" t="n">
-        <v>1132</v>
+        <v>3000</v>
       </c>
       <c r="Q509" t="n">
         <v>1</v>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -37073,20 +37073,20 @@
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J510" t="n">
-        <v>2200</v>
+        <v>3800</v>
       </c>
       <c r="K510" t="n">
-        <v>3200</v>
+        <v>1000</v>
       </c>
       <c r="L510" t="n">
-        <v>3400</v>
+        <v>1200</v>
       </c>
       <c r="M510" t="n">
-        <v>3309</v>
+        <v>1132</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37095,11 +37095,11 @@
       </c>
       <c r="O510" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P510" t="n">
-        <v>3309</v>
+        <v>1132</v>
       </c>
       <c r="Q510" t="n">
         <v>1</v>
@@ -37149,16 +37149,16 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>3100</v>
+        <v>2200</v>
       </c>
       <c r="K511" t="n">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="L511" t="n">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="M511" t="n">
-        <v>3390</v>
+        <v>3309</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37167,11 +37167,11 @@
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P511" t="n">
-        <v>3390</v>
+        <v>3309</v>
       </c>
       <c r="Q511" t="n">
         <v>1</v>
@@ -37217,20 +37217,20 @@
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J512" t="n">
-        <v>3800</v>
+        <v>3100</v>
       </c>
       <c r="K512" t="n">
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="L512" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="M512" t="n">
-        <v>2595</v>
+        <v>3390</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37239,11 +37239,11 @@
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P512" t="n">
-        <v>2595</v>
+        <v>3390</v>
       </c>
       <c r="Q512" t="n">
         <v>1</v>
@@ -37293,16 +37293,16 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>6000</v>
+        <v>3800</v>
       </c>
       <c r="K513" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L513" t="n">
         <v>2700</v>
       </c>
-      <c r="L513" t="n">
-        <v>2900</v>
-      </c>
       <c r="M513" t="n">
-        <v>2810</v>
+        <v>2595</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37311,11 +37311,11 @@
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P513" t="n">
-        <v>2810</v>
+        <v>2595</v>
       </c>
       <c r="Q513" t="n">
         <v>1</v>
@@ -37361,20 +37361,20 @@
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J514" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="K514" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="L514" t="n">
-        <v>2400</v>
+        <v>2900</v>
       </c>
       <c r="M514" t="n">
-        <v>2275</v>
+        <v>2810</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>2275</v>
+        <v>2810</v>
       </c>
       <c r="Q514" t="n">
         <v>1</v>
@@ -37433,20 +37433,20 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J515" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="K515" t="n">
-        <v>3800</v>
+        <v>2200</v>
       </c>
       <c r="L515" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="M515" t="n">
-        <v>3922</v>
+        <v>2275</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37455,11 +37455,11 @@
       </c>
       <c r="O515" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P515" t="n">
-        <v>3922</v>
+        <v>2275</v>
       </c>
       <c r="Q515" t="n">
         <v>1</v>
@@ -37509,16 +37509,16 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>2900</v>
+        <v>1800</v>
       </c>
       <c r="K516" t="n">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="L516" t="n">
         <v>4000</v>
       </c>
       <c r="M516" t="n">
-        <v>3945</v>
+        <v>3922</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37527,11 +37527,11 @@
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P516" t="n">
-        <v>3945</v>
+        <v>3922</v>
       </c>
       <c r="Q516" t="n">
         <v>1</v>
@@ -37577,20 +37577,20 @@
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J517" t="n">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="K517" t="n">
-        <v>1600</v>
+        <v>3900</v>
       </c>
       <c r="L517" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="M517" t="n">
-        <v>1673</v>
+        <v>3945</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>1673</v>
+        <v>3945</v>
       </c>
       <c r="Q517" t="n">
         <v>1</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44203</v>
+        <v>44175</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -37649,20 +37649,20 @@
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J518" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K518" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="L518" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="M518" t="n">
-        <v>855</v>
+        <v>1673</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>855</v>
+        <v>1673</v>
       </c>
       <c r="Q518" t="n">
         <v>1</v>
@@ -37721,20 +37721,20 @@
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J519" t="n">
-        <v>5600</v>
+        <v>2200</v>
       </c>
       <c r="K519" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L519" t="n">
-        <v>2700</v>
+        <v>900</v>
       </c>
       <c r="M519" t="n">
-        <v>2611</v>
+        <v>855</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>2611</v>
+        <v>855</v>
       </c>
       <c r="Q519" t="n">
         <v>1</v>
@@ -37797,16 +37797,16 @@
         </is>
       </c>
       <c r="J520" t="n">
-        <v>3100</v>
+        <v>5600</v>
       </c>
       <c r="K520" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L520" t="n">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="M520" t="n">
-        <v>2861</v>
+        <v>2611</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37815,11 +37815,11 @@
       </c>
       <c r="O520" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P520" t="n">
-        <v>2861</v>
+        <v>2611</v>
       </c>
       <c r="Q520" t="n">
         <v>1</v>
@@ -37865,20 +37865,20 @@
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J521" t="n">
-        <v>7400</v>
+        <v>3100</v>
       </c>
       <c r="K521" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="L521" t="n">
-        <v>2300</v>
+        <v>2900</v>
       </c>
       <c r="M521" t="n">
-        <v>2158</v>
+        <v>2861</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37887,11 +37887,11 @@
       </c>
       <c r="O521" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P521" t="n">
-        <v>2158</v>
+        <v>2861</v>
       </c>
       <c r="Q521" t="n">
         <v>1</v>
@@ -37941,16 +37941,16 @@
         </is>
       </c>
       <c r="J522" t="n">
-        <v>4800</v>
+        <v>7400</v>
       </c>
       <c r="K522" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L522" t="n">
         <v>2300</v>
       </c>
-      <c r="L522" t="n">
-        <v>2500</v>
-      </c>
       <c r="M522" t="n">
-        <v>2417</v>
+        <v>2158</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37959,11 +37959,11 @@
       </c>
       <c r="O522" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P522" t="n">
-        <v>2417</v>
+        <v>2158</v>
       </c>
       <c r="Q522" t="n">
         <v>1</v>
@@ -38009,20 +38009,20 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J523" t="n">
-        <v>6200</v>
+        <v>4800</v>
       </c>
       <c r="K523" t="n">
-        <v>1600</v>
+        <v>2300</v>
       </c>
       <c r="L523" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="M523" t="n">
-        <v>1694</v>
+        <v>2417</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38031,11 +38031,11 @@
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P523" t="n">
-        <v>1694</v>
+        <v>2417</v>
       </c>
       <c r="Q523" t="n">
         <v>1</v>
@@ -38081,20 +38081,20 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>7800</v>
+        <v>6200</v>
       </c>
       <c r="K524" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="L524" t="n">
-        <v>3200</v>
+        <v>1800</v>
       </c>
       <c r="M524" t="n">
-        <v>3113</v>
+        <v>1694</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>3113</v>
+        <v>1694</v>
       </c>
       <c r="Q524" t="n">
         <v>1</v>
@@ -38157,16 +38157,16 @@
         </is>
       </c>
       <c r="J525" t="n">
-        <v>4200</v>
+        <v>7800</v>
       </c>
       <c r="K525" t="n">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="L525" t="n">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="M525" t="n">
-        <v>3419</v>
+        <v>3113</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38175,11 +38175,11 @@
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P525" t="n">
-        <v>3419</v>
+        <v>3113</v>
       </c>
       <c r="Q525" t="n">
         <v>1</v>
@@ -38225,20 +38225,20 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>5100</v>
+        <v>4200</v>
       </c>
       <c r="K526" t="n">
-        <v>1200</v>
+        <v>3300</v>
       </c>
       <c r="L526" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M526" t="n">
-        <v>1341</v>
+        <v>3419</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38247,11 +38247,11 @@
       </c>
       <c r="O526" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P526" t="n">
-        <v>1341</v>
+        <v>3419</v>
       </c>
       <c r="Q526" t="n">
         <v>1</v>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -38297,33 +38297,33 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J527" t="n">
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="K527" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="L527" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="M527" t="n">
-        <v>500</v>
+        <v>1341</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P527" t="n">
-        <v>500</v>
+        <v>1341</v>
       </c>
       <c r="Q527" t="n">
         <v>1</v>
@@ -38373,16 +38373,16 @@
         </is>
       </c>
       <c r="J528" t="n">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="K528" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L528" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M528" t="n">
-        <v>418</v>
+        <v>500</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38391,11 +38391,11 @@
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P528" t="n">
-        <v>418</v>
+        <v>500</v>
       </c>
       <c r="Q528" t="n">
         <v>1</v>
@@ -38441,20 +38441,20 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J529" t="n">
-        <v>2800</v>
+        <v>5400</v>
       </c>
       <c r="K529" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L529" t="n">
         <v>450</v>
       </c>
       <c r="M529" t="n">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38463,11 +38463,11 @@
       </c>
       <c r="O529" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P529" t="n">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="Q529" t="n">
         <v>1</v>
@@ -38517,16 +38517,16 @@
         </is>
       </c>
       <c r="J530" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="K530" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L530" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="M530" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38535,11 +38535,11 @@
       </c>
       <c r="O530" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P530" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="Q530" t="n">
         <v>1</v>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44257</v>
+        <v>44162</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -38585,24 +38585,24 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J531" t="n">
-        <v>4400</v>
+        <v>2600</v>
       </c>
       <c r="K531" t="n">
-        <v>2000</v>
+        <v>350</v>
       </c>
       <c r="L531" t="n">
-        <v>2300</v>
+        <v>350</v>
       </c>
       <c r="M531" t="n">
-        <v>2164</v>
+        <v>350</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O531" t="inlineStr">
@@ -38611,7 +38611,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>2164</v>
+        <v>350</v>
       </c>
       <c r="Q531" t="n">
         <v>1</v>
@@ -38657,20 +38657,20 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>6600</v>
+        <v>4400</v>
       </c>
       <c r="K532" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L532" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="M532" t="n">
-        <v>1747</v>
+        <v>2164</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38683,7 +38683,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>1747</v>
+        <v>2164</v>
       </c>
       <c r="Q532" t="n">
         <v>1</v>
@@ -38729,20 +38729,20 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>4400</v>
+        <v>6600</v>
       </c>
       <c r="K533" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="L533" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M533" t="n">
-        <v>1523</v>
+        <v>1747</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>1523</v>
+        <v>1747</v>
       </c>
       <c r="Q533" t="n">
         <v>1</v>
@@ -38801,20 +38801,20 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>3200</v>
+        <v>4400</v>
       </c>
       <c r="K534" t="n">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="L534" t="n">
-        <v>2600</v>
+        <v>1600</v>
       </c>
       <c r="M534" t="n">
-        <v>2512</v>
+        <v>1523</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>2512</v>
+        <v>1523</v>
       </c>
       <c r="Q534" t="n">
         <v>1</v>
@@ -38873,20 +38873,20 @@
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="K535" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="L535" t="n">
-        <v>1200</v>
+        <v>2600</v>
       </c>
       <c r="M535" t="n">
-        <v>1137</v>
+        <v>2512</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38899,7 +38899,7 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>1137</v>
+        <v>2512</v>
       </c>
       <c r="Q535" t="n">
         <v>1</v>
@@ -38925,7 +38925,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -38945,20 +38945,20 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>2200</v>
+        <v>3500</v>
       </c>
       <c r="K536" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L536" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="M536" t="n">
-        <v>700</v>
+        <v>1137</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>700</v>
+        <v>1137</v>
       </c>
       <c r="Q536" t="n">
         <v>1</v>
@@ -39017,20 +39017,20 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>5800</v>
+        <v>2200</v>
       </c>
       <c r="K537" t="n">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="L537" t="n">
-        <v>2300</v>
+        <v>700</v>
       </c>
       <c r="M537" t="n">
-        <v>2129</v>
+        <v>700</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39043,7 +39043,7 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>2129</v>
+        <v>700</v>
       </c>
       <c r="Q537" t="n">
         <v>1</v>
@@ -39089,20 +39089,20 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>7400</v>
+        <v>5800</v>
       </c>
       <c r="K538" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L538" t="n">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="M538" t="n">
-        <v>1792</v>
+        <v>2129</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>1792</v>
+        <v>2129</v>
       </c>
       <c r="Q538" t="n">
         <v>1</v>
@@ -39161,20 +39161,20 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>4600</v>
+        <v>7400</v>
       </c>
       <c r="K539" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="L539" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M539" t="n">
-        <v>1517</v>
+        <v>1792</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>1517</v>
+        <v>1792</v>
       </c>
       <c r="Q539" t="n">
         <v>1</v>
@@ -39233,20 +39233,20 @@
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J540" t="n">
-        <v>5700</v>
+        <v>4600</v>
       </c>
       <c r="K540" t="n">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="L540" t="n">
-        <v>2700</v>
+        <v>1600</v>
       </c>
       <c r="M540" t="n">
-        <v>2602</v>
+        <v>1517</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>2602</v>
+        <v>1517</v>
       </c>
       <c r="Q540" t="n">
         <v>1</v>
@@ -39305,20 +39305,20 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J541" t="n">
-        <v>4700</v>
+        <v>5700</v>
       </c>
       <c r="K541" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="L541" t="n">
-        <v>1300</v>
+        <v>2700</v>
       </c>
       <c r="M541" t="n">
-        <v>1147</v>
+        <v>2602</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>1147</v>
+        <v>2602</v>
       </c>
       <c r="Q541" t="n">
         <v>1</v>
@@ -39357,7 +39357,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -39377,20 +39377,20 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J542" t="n">
-        <v>5900</v>
+        <v>4700</v>
       </c>
       <c r="K542" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="L542" t="n">
-        <v>3800</v>
+        <v>1300</v>
       </c>
       <c r="M542" t="n">
-        <v>3632</v>
+        <v>1147</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>3632</v>
+        <v>1147</v>
       </c>
       <c r="Q542" t="n">
         <v>1</v>
@@ -39449,20 +39449,20 @@
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J543" t="n">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="K543" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L543" t="n">
-        <v>2700</v>
+        <v>3800</v>
       </c>
       <c r="M543" t="n">
-        <v>2583</v>
+        <v>3632</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>2583</v>
+        <v>3632</v>
       </c>
       <c r="Q543" t="n">
         <v>1</v>
@@ -39521,20 +39521,20 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="K544" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L544" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="M544" t="n">
-        <v>1898</v>
+        <v>2583</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39547,7 +39547,7 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>1898</v>
+        <v>2583</v>
       </c>
       <c r="Q544" t="n">
         <v>1</v>
@@ -39593,20 +39593,20 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J545" t="n">
-        <v>3400</v>
+        <v>5500</v>
       </c>
       <c r="K545" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="L545" t="n">
-        <v>4200</v>
+        <v>2000</v>
       </c>
       <c r="M545" t="n">
-        <v>4112</v>
+        <v>1898</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39619,7 +39619,7 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>4112</v>
+        <v>1898</v>
       </c>
       <c r="Q545" t="n">
         <v>1</v>
@@ -39665,20 +39665,20 @@
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J546" t="n">
         <v>3400</v>
       </c>
       <c r="K546" t="n">
-        <v>1300</v>
+        <v>4000</v>
       </c>
       <c r="L546" t="n">
-        <v>1500</v>
+        <v>4200</v>
       </c>
       <c r="M546" t="n">
-        <v>1388</v>
+        <v>4112</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>1388</v>
+        <v>4112</v>
       </c>
       <c r="Q546" t="n">
         <v>1</v>
@@ -39717,7 +39717,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -39737,20 +39737,20 @@
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J547" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="K547" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="L547" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M547" t="n">
-        <v>2000</v>
+        <v>1388</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39759,11 +39759,11 @@
       </c>
       <c r="O547" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P547" t="n">
-        <v>2000</v>
+        <v>1388</v>
       </c>
       <c r="Q547" t="n">
         <v>1</v>
@@ -39813,16 +39813,16 @@
         </is>
       </c>
       <c r="J548" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K548" t="n">
         <v>2000</v>
       </c>
       <c r="L548" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="M548" t="n">
-        <v>2118</v>
+        <v>2000</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39831,11 +39831,11 @@
       </c>
       <c r="O548" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P548" t="n">
-        <v>2118</v>
+        <v>2000</v>
       </c>
       <c r="Q548" t="n">
         <v>1</v>
@@ -39881,20 +39881,20 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="K549" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L549" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="M549" t="n">
-        <v>1700</v>
+        <v>2118</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39903,11 +39903,11 @@
       </c>
       <c r="O549" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P549" t="n">
-        <v>1700</v>
+        <v>2118</v>
       </c>
       <c r="Q549" t="n">
         <v>1</v>
@@ -39957,16 +39957,16 @@
         </is>
       </c>
       <c r="J550" t="n">
-        <v>5700</v>
+        <v>3500</v>
       </c>
       <c r="K550" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L550" t="n">
         <v>1700</v>
       </c>
       <c r="M550" t="n">
-        <v>1609</v>
+        <v>1700</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39975,11 +39975,11 @@
       </c>
       <c r="O550" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P550" t="n">
-        <v>1609</v>
+        <v>1700</v>
       </c>
       <c r="Q550" t="n">
         <v>1</v>
@@ -40025,20 +40025,20 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>3900</v>
+        <v>5700</v>
       </c>
       <c r="K551" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L551" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="M551" t="n">
-        <v>1438</v>
+        <v>1609</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>1438</v>
+        <v>1609</v>
       </c>
       <c r="Q551" t="n">
         <v>1</v>
@@ -40097,20 +40097,20 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>2800</v>
+        <v>3900</v>
       </c>
       <c r="K552" t="n">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="L552" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="M552" t="n">
-        <v>2500</v>
+        <v>1438</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40119,11 +40119,11 @@
       </c>
       <c r="O552" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P552" t="n">
-        <v>2500</v>
+        <v>1438</v>
       </c>
       <c r="Q552" t="n">
         <v>1</v>
@@ -40173,16 +40173,16 @@
         </is>
       </c>
       <c r="J553" t="n">
-        <v>4100</v>
+        <v>2800</v>
       </c>
       <c r="K553" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L553" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="M553" t="n">
-        <v>2476</v>
+        <v>2500</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40191,11 +40191,11 @@
       </c>
       <c r="O553" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P553" t="n">
-        <v>2476</v>
+        <v>2500</v>
       </c>
       <c r="Q553" t="n">
         <v>1</v>
@@ -40241,20 +40241,20 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J554" t="n">
-        <v>3600</v>
+        <v>4100</v>
       </c>
       <c r="K554" t="n">
-        <v>1000</v>
+        <v>2300</v>
       </c>
       <c r="L554" t="n">
-        <v>1200</v>
+        <v>2600</v>
       </c>
       <c r="M554" t="n">
-        <v>1128</v>
+        <v>2476</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         </is>
       </c>
       <c r="P554" t="n">
-        <v>1128</v>
+        <v>2476</v>
       </c>
       <c r="Q554" t="n">
         <v>1</v>
@@ -40293,7 +40293,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44211</v>
+        <v>44239</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -40313,20 +40313,20 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J555" t="n">
-        <v>800</v>
+        <v>3600</v>
       </c>
       <c r="K555" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L555" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="M555" t="n">
-        <v>800</v>
+        <v>1128</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40335,11 +40335,11 @@
       </c>
       <c r="O555" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P555" t="n">
-        <v>800</v>
+        <v>1128</v>
       </c>
       <c r="Q555" t="n">
         <v>1</v>
@@ -40389,16 +40389,16 @@
         </is>
       </c>
       <c r="J556" t="n">
-        <v>1260</v>
+        <v>800</v>
       </c>
       <c r="K556" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L556" t="n">
         <v>800</v>
       </c>
       <c r="M556" t="n">
-        <v>744</v>
+        <v>800</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40407,11 +40407,11 @@
       </c>
       <c r="O556" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P556" t="n">
-        <v>744</v>
+        <v>800</v>
       </c>
       <c r="Q556" t="n">
         <v>1</v>
@@ -40457,20 +40457,20 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J557" t="n">
-        <v>2310</v>
+        <v>1260</v>
       </c>
       <c r="K557" t="n">
-        <v>2200</v>
+        <v>700</v>
       </c>
       <c r="L557" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M557" t="n">
-        <v>2325</v>
+        <v>744</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40479,11 +40479,11 @@
       </c>
       <c r="O557" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P557" t="n">
-        <v>2325</v>
+        <v>744</v>
       </c>
       <c r="Q557" t="n">
         <v>1</v>
@@ -40533,16 +40533,16 @@
         </is>
       </c>
       <c r="J558" t="n">
-        <v>2400</v>
+        <v>2310</v>
       </c>
       <c r="K558" t="n">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="L558" t="n">
         <v>2500</v>
       </c>
       <c r="M558" t="n">
-        <v>2408</v>
+        <v>2325</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40551,11 +40551,11 @@
       </c>
       <c r="O558" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P558" t="n">
-        <v>2408</v>
+        <v>2325</v>
       </c>
       <c r="Q558" t="n">
         <v>1</v>
@@ -40601,20 +40601,20 @@
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J559" t="n">
-        <v>3450</v>
+        <v>2400</v>
       </c>
       <c r="K559" t="n">
-        <v>1700</v>
+        <v>2300</v>
       </c>
       <c r="L559" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M559" t="n">
-        <v>1842</v>
+        <v>2408</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40623,11 +40623,11 @@
       </c>
       <c r="O559" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P559" t="n">
-        <v>1842</v>
+        <v>2408</v>
       </c>
       <c r="Q559" t="n">
         <v>1</v>
@@ -40677,16 +40677,16 @@
         </is>
       </c>
       <c r="J560" t="n">
-        <v>2750</v>
+        <v>3450</v>
       </c>
       <c r="K560" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="L560" t="n">
         <v>2000</v>
       </c>
       <c r="M560" t="n">
-        <v>1898</v>
+        <v>1842</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40695,11 +40695,11 @@
       </c>
       <c r="O560" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P560" t="n">
-        <v>1898</v>
+        <v>1842</v>
       </c>
       <c r="Q560" t="n">
         <v>1</v>
@@ -40745,20 +40745,20 @@
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J561" t="n">
-        <v>890</v>
+        <v>2750</v>
       </c>
       <c r="K561" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L561" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M561" t="n">
-        <v>1500</v>
+        <v>1898</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40767,11 +40767,11 @@
       </c>
       <c r="O561" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P561" t="n">
-        <v>1500</v>
+        <v>1898</v>
       </c>
       <c r="Q561" t="n">
         <v>1</v>
@@ -40821,16 +40821,16 @@
         </is>
       </c>
       <c r="J562" t="n">
-        <v>2380</v>
+        <v>890</v>
       </c>
       <c r="K562" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L562" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="M562" t="n">
-        <v>1482</v>
+        <v>1500</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40839,11 +40839,11 @@
       </c>
       <c r="O562" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P562" t="n">
-        <v>1482</v>
+        <v>1500</v>
       </c>
       <c r="Q562" t="n">
         <v>1</v>
@@ -40889,20 +40889,20 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J563" t="n">
-        <v>1160</v>
+        <v>2380</v>
       </c>
       <c r="K563" t="n">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="L563" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="M563" t="n">
-        <v>2919</v>
+        <v>1482</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40911,11 +40911,11 @@
       </c>
       <c r="O563" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P563" t="n">
-        <v>2919</v>
+        <v>1482</v>
       </c>
       <c r="Q563" t="n">
         <v>1</v>
@@ -40965,16 +40965,16 @@
         </is>
       </c>
       <c r="J564" t="n">
-        <v>1800</v>
+        <v>1160</v>
       </c>
       <c r="K564" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="L564" t="n">
         <v>3000</v>
       </c>
       <c r="M564" t="n">
-        <v>2867</v>
+        <v>2919</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40983,11 +40983,11 @@
       </c>
       <c r="O564" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P564" t="n">
-        <v>2867</v>
+        <v>2919</v>
       </c>
       <c r="Q564" t="n">
         <v>1</v>
@@ -41033,20 +41033,20 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J565" t="n">
-        <v>1810</v>
+        <v>1800</v>
       </c>
       <c r="K565" t="n">
-        <v>1000</v>
+        <v>2700</v>
       </c>
       <c r="L565" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="M565" t="n">
-        <v>1093</v>
+        <v>2867</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41055,11 +41055,11 @@
       </c>
       <c r="O565" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P565" t="n">
-        <v>1093</v>
+        <v>2867</v>
       </c>
       <c r="Q565" t="n">
         <v>1</v>
@@ -41109,7 +41109,7 @@
         </is>
       </c>
       <c r="J566" t="n">
-        <v>1450</v>
+        <v>1810</v>
       </c>
       <c r="K566" t="n">
         <v>1000</v>
@@ -41118,25 +41118,97 @@
         <v>1200</v>
       </c>
       <c r="M566" t="n">
+        <v>1093</v>
+      </c>
+      <c r="N566" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O566" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P566" t="n">
+        <v>1093</v>
+      </c>
+      <c r="Q566" t="n">
+        <v>1</v>
+      </c>
+      <c r="R566" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>6</v>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D567" s="2" t="n">
+        <v>44211</v>
+      </c>
+      <c r="E567" t="n">
+        <v>13</v>
+      </c>
+      <c r="F567" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H567" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I567" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J567" t="n">
+        <v>1450</v>
+      </c>
+      <c r="K567" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L567" t="n">
+        <v>1200</v>
+      </c>
+      <c r="M567" t="n">
         <v>1106</v>
       </c>
-      <c r="N566" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O566" t="inlineStr">
+      <c r="N567" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O567" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P566" t="n">
+      <c r="P567" t="n">
         <v>1106</v>
       </c>
-      <c r="Q566" t="n">
-        <v>1</v>
-      </c>
-      <c r="R566" t="inlineStr">
+      <c r="Q567" t="n">
+        <v>1</v>
+      </c>
+      <c r="R567" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R570"/>
+  <dimension ref="A1:R571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44263</v>
+        <v>44476</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -37145,33 +37145,33 @@
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J511" t="n">
-        <v>1400</v>
+        <v>7200</v>
       </c>
       <c r="K511" t="n">
-        <v>2500</v>
+        <v>750</v>
       </c>
       <c r="L511" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M511" t="n">
-        <v>2500</v>
+        <v>773</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P511" t="n">
-        <v>2500</v>
+        <v>773</v>
       </c>
       <c r="Q511" t="n">
         <v>1</v>
@@ -37217,20 +37217,20 @@
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J512" t="n">
-        <v>2100</v>
+        <v>1400</v>
       </c>
       <c r="K512" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L512" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M512" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q512" t="n">
         <v>1</v>
@@ -37289,20 +37289,20 @@
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J513" t="n">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="K513" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L513" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M513" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="Q513" t="n">
         <v>1</v>
@@ -37361,20 +37361,20 @@
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J514" t="n">
-        <v>1100</v>
+        <v>2300</v>
       </c>
       <c r="K514" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="L514" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="M514" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="Q514" t="n">
         <v>1</v>
@@ -37433,20 +37433,20 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J515" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="K515" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="L515" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="M515" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="Q515" t="n">
         <v>1</v>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44172</v>
+        <v>44263</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -37505,20 +37505,20 @@
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J516" t="n">
-        <v>4400</v>
+        <v>1500</v>
       </c>
       <c r="K516" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="L516" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="M516" t="n">
-        <v>918</v>
+        <v>1200</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37527,11 +37527,11 @@
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P516" t="n">
-        <v>918</v>
+        <v>1200</v>
       </c>
       <c r="Q516" t="n">
         <v>1</v>
@@ -37581,16 +37581,16 @@
         </is>
       </c>
       <c r="J517" t="n">
-        <v>1760</v>
+        <v>4400</v>
       </c>
       <c r="K517" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="L517" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="M517" t="n">
-        <v>1470</v>
+        <v>918</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37599,11 +37599,11 @@
       </c>
       <c r="O517" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P517" t="n">
-        <v>1470</v>
+        <v>918</v>
       </c>
       <c r="Q517" t="n">
         <v>1</v>
@@ -37649,20 +37649,20 @@
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J518" t="n">
-        <v>2200</v>
+        <v>1760</v>
       </c>
       <c r="K518" t="n">
-        <v>2800</v>
+        <v>1300</v>
       </c>
       <c r="L518" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="M518" t="n">
-        <v>2891</v>
+        <v>1470</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37671,11 +37671,11 @@
       </c>
       <c r="O518" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P518" t="n">
-        <v>2891</v>
+        <v>1470</v>
       </c>
       <c r="Q518" t="n">
         <v>1</v>
@@ -37725,16 +37725,16 @@
         </is>
       </c>
       <c r="J519" t="n">
+        <v>2200</v>
+      </c>
+      <c r="K519" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L519" t="n">
         <v>3000</v>
       </c>
-      <c r="K519" t="n">
-        <v>3700</v>
-      </c>
-      <c r="L519" t="n">
-        <v>4000</v>
-      </c>
       <c r="M519" t="n">
-        <v>3820</v>
+        <v>2891</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37743,11 +37743,11 @@
       </c>
       <c r="O519" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P519" t="n">
-        <v>3820</v>
+        <v>2891</v>
       </c>
       <c r="Q519" t="n">
         <v>1</v>
@@ -37793,20 +37793,20 @@
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J520" t="n">
-        <v>4200</v>
+        <v>3000</v>
       </c>
       <c r="K520" t="n">
-        <v>2300</v>
+        <v>3700</v>
       </c>
       <c r="L520" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M520" t="n">
-        <v>2410</v>
+        <v>3820</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37815,11 +37815,11 @@
       </c>
       <c r="O520" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P520" t="n">
-        <v>2410</v>
+        <v>3820</v>
       </c>
       <c r="Q520" t="n">
         <v>1</v>
@@ -37869,16 +37869,16 @@
         </is>
       </c>
       <c r="J521" t="n">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="K521" t="n">
-        <v>3300</v>
+        <v>2300</v>
       </c>
       <c r="L521" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M521" t="n">
-        <v>3388</v>
+        <v>2410</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37887,11 +37887,11 @@
       </c>
       <c r="O521" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P521" t="n">
-        <v>3388</v>
+        <v>2410</v>
       </c>
       <c r="Q521" t="n">
         <v>1</v>
@@ -37937,20 +37937,20 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J522" t="n">
-        <v>2700</v>
+        <v>4100</v>
       </c>
       <c r="K522" t="n">
-        <v>1700</v>
+        <v>3300</v>
       </c>
       <c r="L522" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M522" t="n">
-        <v>1867</v>
+        <v>3388</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37959,11 +37959,11 @@
       </c>
       <c r="O522" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P522" t="n">
-        <v>1867</v>
+        <v>3388</v>
       </c>
       <c r="Q522" t="n">
         <v>1</v>
@@ -38013,16 +38013,16 @@
         </is>
       </c>
       <c r="J523" t="n">
-        <v>5900</v>
+        <v>2700</v>
       </c>
       <c r="K523" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="L523" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M523" t="n">
-        <v>2695</v>
+        <v>1867</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38031,11 +38031,11 @@
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P523" t="n">
-        <v>2695</v>
+        <v>1867</v>
       </c>
       <c r="Q523" t="n">
         <v>1</v>
@@ -38081,20 +38081,20 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J524" t="n">
+        <v>5900</v>
+      </c>
+      <c r="K524" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L524" t="n">
         <v>3000</v>
       </c>
-      <c r="K524" t="n">
-        <v>3500</v>
-      </c>
-      <c r="L524" t="n">
-        <v>4000</v>
-      </c>
       <c r="M524" t="n">
-        <v>3700</v>
+        <v>2695</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38103,11 +38103,11 @@
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P524" t="n">
-        <v>3700</v>
+        <v>2695</v>
       </c>
       <c r="Q524" t="n">
         <v>1</v>
@@ -38157,16 +38157,16 @@
         </is>
       </c>
       <c r="J525" t="n">
+        <v>3000</v>
+      </c>
+      <c r="K525" t="n">
         <v>3500</v>
-      </c>
-      <c r="K525" t="n">
-        <v>3800</v>
       </c>
       <c r="L525" t="n">
         <v>4000</v>
       </c>
       <c r="M525" t="n">
-        <v>3914</v>
+        <v>3700</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38175,11 +38175,11 @@
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P525" t="n">
-        <v>3914</v>
+        <v>3700</v>
       </c>
       <c r="Q525" t="n">
         <v>1</v>
@@ -38225,20 +38225,20 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="K526" t="n">
-        <v>1300</v>
+        <v>3800</v>
       </c>
       <c r="L526" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="M526" t="n">
-        <v>1400</v>
+        <v>3914</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38247,11 +38247,11 @@
       </c>
       <c r="O526" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P526" t="n">
-        <v>1400</v>
+        <v>3914</v>
       </c>
       <c r="Q526" t="n">
         <v>1</v>
@@ -38301,16 +38301,16 @@
         </is>
       </c>
       <c r="J527" t="n">
-        <v>3350</v>
+        <v>2000</v>
       </c>
       <c r="K527" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="L527" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M527" t="n">
-        <v>1979</v>
+        <v>1400</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38319,11 +38319,11 @@
       </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P527" t="n">
-        <v>1979</v>
+        <v>1400</v>
       </c>
       <c r="Q527" t="n">
         <v>1</v>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44223</v>
+        <v>44172</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -38369,20 +38369,20 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J528" t="n">
+        <v>3350</v>
+      </c>
+      <c r="K528" t="n">
         <v>1800</v>
       </c>
-      <c r="K528" t="n">
-        <v>600</v>
-      </c>
       <c r="L528" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="M528" t="n">
-        <v>600</v>
+        <v>1979</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>600</v>
+        <v>1979</v>
       </c>
       <c r="Q528" t="n">
         <v>1</v>
@@ -38441,20 +38441,20 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J529" t="n">
-        <v>5200</v>
+        <v>1800</v>
       </c>
       <c r="K529" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="L529" t="n">
-        <v>2200</v>
+        <v>600</v>
       </c>
       <c r="M529" t="n">
-        <v>2127</v>
+        <v>600</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>2127</v>
+        <v>600</v>
       </c>
       <c r="Q529" t="n">
         <v>1</v>
@@ -38513,20 +38513,20 @@
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J530" t="n">
-        <v>7700</v>
+        <v>5200</v>
       </c>
       <c r="K530" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L530" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="M530" t="n">
-        <v>1594</v>
+        <v>2127</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>1594</v>
+        <v>2127</v>
       </c>
       <c r="Q530" t="n">
         <v>1</v>
@@ -38585,20 +38585,20 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J531" t="n">
-        <v>3700</v>
+        <v>7700</v>
       </c>
       <c r="K531" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="L531" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="M531" t="n">
-        <v>1281</v>
+        <v>1594</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>1281</v>
+        <v>1594</v>
       </c>
       <c r="Q531" t="n">
         <v>1</v>
@@ -38657,20 +38657,20 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>5500</v>
+        <v>3700</v>
       </c>
       <c r="K532" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="L532" t="n">
-        <v>2600</v>
+        <v>1400</v>
       </c>
       <c r="M532" t="n">
-        <v>2491</v>
+        <v>1281</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38683,7 +38683,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>2491</v>
+        <v>1281</v>
       </c>
       <c r="Q532" t="n">
         <v>1</v>
@@ -38729,20 +38729,20 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="K533" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="L533" t="n">
-        <v>1100</v>
+        <v>2600</v>
       </c>
       <c r="M533" t="n">
-        <v>1050</v>
+        <v>2491</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>1050</v>
+        <v>2491</v>
       </c>
       <c r="Q533" t="n">
         <v>1</v>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44187</v>
+        <v>44223</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -38801,20 +38801,20 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="K534" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="L534" t="n">
-        <v>3000</v>
+        <v>1100</v>
       </c>
       <c r="M534" t="n">
-        <v>3000</v>
+        <v>1050</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38823,11 +38823,11 @@
       </c>
       <c r="O534" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P534" t="n">
-        <v>3000</v>
+        <v>1050</v>
       </c>
       <c r="Q534" t="n">
         <v>1</v>
@@ -38877,16 +38877,16 @@
         </is>
       </c>
       <c r="J535" t="n">
-        <v>5000</v>
+        <v>2600</v>
       </c>
       <c r="K535" t="n">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="L535" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="M535" t="n">
-        <v>3068</v>
+        <v>3000</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38895,11 +38895,11 @@
       </c>
       <c r="O535" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P535" t="n">
-        <v>3068</v>
+        <v>3000</v>
       </c>
       <c r="Q535" t="n">
         <v>1</v>
@@ -38945,20 +38945,20 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>4400</v>
+        <v>5000</v>
       </c>
       <c r="K536" t="n">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="L536" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="M536" t="n">
-        <v>2500</v>
+        <v>3068</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38967,11 +38967,11 @@
       </c>
       <c r="O536" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P536" t="n">
-        <v>2500</v>
+        <v>3068</v>
       </c>
       <c r="Q536" t="n">
         <v>1</v>
@@ -39021,16 +39021,16 @@
         </is>
       </c>
       <c r="J537" t="n">
-        <v>8300</v>
+        <v>4400</v>
       </c>
       <c r="K537" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L537" t="n">
         <v>2500</v>
       </c>
       <c r="M537" t="n">
-        <v>2394</v>
+        <v>2500</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39039,11 +39039,11 @@
       </c>
       <c r="O537" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P537" t="n">
-        <v>2394</v>
+        <v>2500</v>
       </c>
       <c r="Q537" t="n">
         <v>1</v>
@@ -39089,20 +39089,20 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>5000</v>
+        <v>8300</v>
       </c>
       <c r="K538" t="n">
-        <v>1700</v>
+        <v>2300</v>
       </c>
       <c r="L538" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M538" t="n">
-        <v>1814</v>
+        <v>2394</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>1814</v>
+        <v>2394</v>
       </c>
       <c r="Q538" t="n">
         <v>1</v>
@@ -39161,20 +39161,20 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="K539" t="n">
-        <v>3600</v>
+        <v>1700</v>
       </c>
       <c r="L539" t="n">
-        <v>3600</v>
+        <v>2000</v>
       </c>
       <c r="M539" t="n">
-        <v>3600</v>
+        <v>1814</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39183,11 +39183,11 @@
       </c>
       <c r="O539" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P539" t="n">
-        <v>3600</v>
+        <v>1814</v>
       </c>
       <c r="Q539" t="n">
         <v>1</v>
@@ -39237,16 +39237,16 @@
         </is>
       </c>
       <c r="J540" t="n">
-        <v>6300</v>
+        <v>3800</v>
       </c>
       <c r="K540" t="n">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="L540" t="n">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="M540" t="n">
-        <v>3571</v>
+        <v>3600</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39255,11 +39255,11 @@
       </c>
       <c r="O540" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P540" t="n">
-        <v>3571</v>
+        <v>3600</v>
       </c>
       <c r="Q540" t="n">
         <v>1</v>
@@ -39305,20 +39305,20 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J541" t="n">
-        <v>4900</v>
+        <v>6300</v>
       </c>
       <c r="K541" t="n">
-        <v>1000</v>
+        <v>3400</v>
       </c>
       <c r="L541" t="n">
-        <v>1300</v>
+        <v>3700</v>
       </c>
       <c r="M541" t="n">
-        <v>1153</v>
+        <v>3571</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>1153</v>
+        <v>3571</v>
       </c>
       <c r="Q541" t="n">
         <v>1</v>
@@ -39357,7 +39357,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -39377,33 +39377,33 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J542" t="n">
-        <v>6600</v>
+        <v>4900</v>
       </c>
       <c r="K542" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="L542" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="M542" t="n">
-        <v>870</v>
+        <v>1153</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O542" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P542" t="n">
-        <v>870</v>
+        <v>1153</v>
       </c>
       <c r="Q542" t="n">
         <v>1</v>
@@ -39429,7 +39429,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -39449,33 +39449,33 @@
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J543" t="n">
-        <v>1800</v>
+        <v>6600</v>
       </c>
       <c r="K543" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="L543" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M543" t="n">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O543" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P543" t="n">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="Q543" t="n">
         <v>1</v>
@@ -39521,20 +39521,20 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="K544" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L544" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M544" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39547,7 +39547,7 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="Q544" t="n">
         <v>1</v>
@@ -39593,20 +39593,20 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J545" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="K545" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L545" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M545" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39619,7 +39619,7 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q545" t="n">
         <v>1</v>
@@ -39665,20 +39665,20 @@
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J546" t="n">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="K546" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L546" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M546" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="Q546" t="n">
         <v>1</v>
@@ -39737,20 +39737,20 @@
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J547" t="n">
-        <v>2700</v>
+        <v>3800</v>
       </c>
       <c r="K547" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L547" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M547" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39763,7 +39763,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="Q547" t="n">
         <v>1</v>
@@ -39789,7 +39789,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -39809,20 +39809,20 @@
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J548" t="n">
-        <v>4700</v>
+        <v>2700</v>
       </c>
       <c r="K548" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L548" t="n">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="M548" t="n">
-        <v>2085</v>
+        <v>1500</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39831,11 +39831,11 @@
       </c>
       <c r="O548" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P548" t="n">
-        <v>2085</v>
+        <v>1500</v>
       </c>
       <c r="Q548" t="n">
         <v>1</v>
@@ -39881,20 +39881,20 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>6700</v>
+        <v>4700</v>
       </c>
       <c r="K549" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L549" t="n">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="M549" t="n">
-        <v>1743</v>
+        <v>2085</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39907,7 +39907,7 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>1743</v>
+        <v>2085</v>
       </c>
       <c r="Q549" t="n">
         <v>1</v>
@@ -39953,20 +39953,20 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J550" t="n">
-        <v>4200</v>
+        <v>6700</v>
       </c>
       <c r="K550" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="L550" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="M550" t="n">
-        <v>1419</v>
+        <v>1743</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39979,7 +39979,7 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>1419</v>
+        <v>1743</v>
       </c>
       <c r="Q550" t="n">
         <v>1</v>
@@ -40025,20 +40025,20 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="K551" t="n">
-        <v>2300</v>
+        <v>1300</v>
       </c>
       <c r="L551" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="M551" t="n">
-        <v>2412</v>
+        <v>1419</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>2412</v>
+        <v>1419</v>
       </c>
       <c r="Q551" t="n">
         <v>1</v>
@@ -40097,20 +40097,20 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>3400</v>
+        <v>4300</v>
       </c>
       <c r="K552" t="n">
-        <v>1000</v>
+        <v>2300</v>
       </c>
       <c r="L552" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="M552" t="n">
-        <v>1129</v>
+        <v>2412</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40123,7 +40123,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>1129</v>
+        <v>2412</v>
       </c>
       <c r="Q552" t="n">
         <v>1</v>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -40169,20 +40169,20 @@
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="K553" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L553" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="M553" t="n">
-        <v>755</v>
+        <v>1129</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>755</v>
+        <v>1129</v>
       </c>
       <c r="Q553" t="n">
         <v>1</v>
@@ -40241,20 +40241,20 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J554" t="n">
-        <v>2200</v>
+        <v>3100</v>
       </c>
       <c r="K554" t="n">
-        <v>3000</v>
+        <v>700</v>
       </c>
       <c r="L554" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M554" t="n">
-        <v>3000</v>
+        <v>755</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40263,11 +40263,11 @@
       </c>
       <c r="O554" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P554" t="n">
-        <v>3000</v>
+        <v>755</v>
       </c>
       <c r="Q554" t="n">
         <v>1</v>
@@ -40317,16 +40317,16 @@
         </is>
       </c>
       <c r="J555" t="n">
-        <v>5700</v>
+        <v>2200</v>
       </c>
       <c r="K555" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="L555" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M555" t="n">
-        <v>2684</v>
+        <v>3000</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40335,11 +40335,11 @@
       </c>
       <c r="O555" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P555" t="n">
-        <v>2684</v>
+        <v>3000</v>
       </c>
       <c r="Q555" t="n">
         <v>1</v>
@@ -40385,20 +40385,20 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J556" t="n">
-        <v>3300</v>
+        <v>5700</v>
       </c>
       <c r="K556" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="L556" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="M556" t="n">
-        <v>2400</v>
+        <v>2684</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40407,11 +40407,11 @@
       </c>
       <c r="O556" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P556" t="n">
-        <v>2400</v>
+        <v>2684</v>
       </c>
       <c r="Q556" t="n">
         <v>1</v>
@@ -40461,16 +40461,16 @@
         </is>
       </c>
       <c r="J557" t="n">
-        <v>8200</v>
+        <v>3300</v>
       </c>
       <c r="K557" t="n">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="L557" t="n">
         <v>2400</v>
       </c>
       <c r="M557" t="n">
-        <v>2228</v>
+        <v>2400</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40479,11 +40479,11 @@
       </c>
       <c r="O557" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P557" t="n">
-        <v>2228</v>
+        <v>2400</v>
       </c>
       <c r="Q557" t="n">
         <v>1</v>
@@ -40529,20 +40529,20 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J558" t="n">
-        <v>5100</v>
+        <v>8200</v>
       </c>
       <c r="K558" t="n">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="L558" t="n">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="M558" t="n">
-        <v>1729</v>
+        <v>2228</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>1729</v>
+        <v>2228</v>
       </c>
       <c r="Q558" t="n">
         <v>1</v>
@@ -40601,20 +40601,20 @@
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J559" t="n">
-        <v>2900</v>
+        <v>5100</v>
       </c>
       <c r="K559" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="L559" t="n">
-        <v>3500</v>
+        <v>1900</v>
       </c>
       <c r="M559" t="n">
-        <v>3500</v>
+        <v>1729</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40623,11 +40623,11 @@
       </c>
       <c r="O559" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P559" t="n">
-        <v>3500</v>
+        <v>1729</v>
       </c>
       <c r="Q559" t="n">
         <v>1</v>
@@ -40677,16 +40677,16 @@
         </is>
       </c>
       <c r="J560" t="n">
-        <v>7700</v>
+        <v>2900</v>
       </c>
       <c r="K560" t="n">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="L560" t="n">
         <v>3500</v>
       </c>
       <c r="M560" t="n">
-        <v>3329</v>
+        <v>3500</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40695,11 +40695,11 @@
       </c>
       <c r="O560" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P560" t="n">
-        <v>3329</v>
+        <v>3500</v>
       </c>
       <c r="Q560" t="n">
         <v>1</v>
@@ -40745,20 +40745,20 @@
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J561" t="n">
-        <v>4200</v>
+        <v>7700</v>
       </c>
       <c r="K561" t="n">
-        <v>1100</v>
+        <v>3200</v>
       </c>
       <c r="L561" t="n">
-        <v>1400</v>
+        <v>3500</v>
       </c>
       <c r="M561" t="n">
-        <v>1279</v>
+        <v>3329</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>1279</v>
+        <v>3329</v>
       </c>
       <c r="Q561" t="n">
         <v>1</v>
@@ -40797,7 +40797,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -40817,20 +40817,20 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J562" t="n">
-        <v>3600</v>
+        <v>4200</v>
       </c>
       <c r="K562" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="L562" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="M562" t="n">
-        <v>700</v>
+        <v>1279</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40843,7 +40843,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>700</v>
+        <v>1279</v>
       </c>
       <c r="Q562" t="n">
         <v>1</v>
@@ -40889,20 +40889,20 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J563" t="n">
-        <v>3300</v>
+        <v>3600</v>
       </c>
       <c r="K563" t="n">
-        <v>2800</v>
+        <v>700</v>
       </c>
       <c r="L563" t="n">
-        <v>2800</v>
+        <v>700</v>
       </c>
       <c r="M563" t="n">
-        <v>2800</v>
+        <v>700</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40911,11 +40911,11 @@
       </c>
       <c r="O563" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P563" t="n">
-        <v>2800</v>
+        <v>700</v>
       </c>
       <c r="Q563" t="n">
         <v>1</v>
@@ -40965,16 +40965,16 @@
         </is>
       </c>
       <c r="J564" t="n">
-        <v>6500</v>
+        <v>3300</v>
       </c>
       <c r="K564" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="L564" t="n">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="M564" t="n">
-        <v>2786</v>
+        <v>2800</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40983,11 +40983,11 @@
       </c>
       <c r="O564" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P564" t="n">
-        <v>2786</v>
+        <v>2800</v>
       </c>
       <c r="Q564" t="n">
         <v>1</v>
@@ -41033,20 +41033,20 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J565" t="n">
-        <v>3800</v>
+        <v>6500</v>
       </c>
       <c r="K565" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="L565" t="n">
-        <v>2300</v>
+        <v>2900</v>
       </c>
       <c r="M565" t="n">
-        <v>2300</v>
+        <v>2786</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41055,11 +41055,11 @@
       </c>
       <c r="O565" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P565" t="n">
-        <v>2300</v>
+        <v>2786</v>
       </c>
       <c r="Q565" t="n">
         <v>1</v>
@@ -41109,16 +41109,16 @@
         </is>
       </c>
       <c r="J566" t="n">
-        <v>9300</v>
+        <v>3800</v>
       </c>
       <c r="K566" t="n">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="L566" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="M566" t="n">
-        <v>2242</v>
+        <v>2300</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41127,11 +41127,11 @@
       </c>
       <c r="O566" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P566" t="n">
-        <v>2242</v>
+        <v>2300</v>
       </c>
       <c r="Q566" t="n">
         <v>1</v>
@@ -41177,20 +41177,20 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J567" t="n">
-        <v>5100</v>
+        <v>9300</v>
       </c>
       <c r="K567" t="n">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="L567" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="M567" t="n">
-        <v>1659</v>
+        <v>2242</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>1659</v>
+        <v>2242</v>
       </c>
       <c r="Q567" t="n">
         <v>1</v>
@@ -41249,20 +41249,20 @@
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J568" t="n">
-        <v>2900</v>
+        <v>5100</v>
       </c>
       <c r="K568" t="n">
-        <v>3300</v>
+        <v>1500</v>
       </c>
       <c r="L568" t="n">
-        <v>3300</v>
+        <v>1800</v>
       </c>
       <c r="M568" t="n">
-        <v>3300</v>
+        <v>1659</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41271,11 +41271,11 @@
       </c>
       <c r="O568" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P568" t="n">
-        <v>3300</v>
+        <v>1659</v>
       </c>
       <c r="Q568" t="n">
         <v>1</v>
@@ -41325,16 +41325,16 @@
         </is>
       </c>
       <c r="J569" t="n">
-        <v>6800</v>
+        <v>2900</v>
       </c>
       <c r="K569" t="n">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="L569" t="n">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="M569" t="n">
-        <v>3329</v>
+        <v>3300</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41343,11 +41343,11 @@
       </c>
       <c r="O569" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P569" t="n">
-        <v>3329</v>
+        <v>3300</v>
       </c>
       <c r="Q569" t="n">
         <v>1</v>
@@ -41393,38 +41393,110 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
+          <t>Super</t>
+        </is>
+      </c>
+      <c r="J570" t="n">
+        <v>6800</v>
+      </c>
+      <c r="K570" t="n">
+        <v>3100</v>
+      </c>
+      <c r="L570" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M570" t="n">
+        <v>3329</v>
+      </c>
+      <c r="N570" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O570" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P570" t="n">
+        <v>3329</v>
+      </c>
+      <c r="Q570" t="n">
+        <v>1</v>
+      </c>
+      <c r="R570" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>6</v>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D571" s="2" t="n">
+        <v>44193</v>
+      </c>
+      <c r="E571" t="n">
+        <v>13</v>
+      </c>
+      <c r="F571" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G571" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H571" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I571" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J570" t="n">
+      <c r="J571" t="n">
         <v>6100</v>
       </c>
-      <c r="K570" t="n">
+      <c r="K571" t="n">
         <v>1100</v>
       </c>
-      <c r="L570" t="n">
+      <c r="L571" t="n">
         <v>1400</v>
       </c>
-      <c r="M570" t="n">
+      <c r="M571" t="n">
         <v>1257</v>
       </c>
-      <c r="N570" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O570" t="inlineStr">
+      <c r="N571" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O571" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P570" t="n">
+      <c r="P571" t="n">
         <v>1257</v>
       </c>
-      <c r="Q570" t="n">
-        <v>1</v>
-      </c>
-      <c r="R570" t="inlineStr">
+      <c r="Q571" t="n">
+        <v>1</v>
+      </c>
+      <c r="R571" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R576"/>
+  <dimension ref="A1:R577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -28937,20 +28937,20 @@
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J397" t="n">
-        <v>3300</v>
+        <v>6900</v>
       </c>
       <c r="K397" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L397" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="M397" t="n">
-        <v>450</v>
+        <v>616</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>450</v>
+        <v>616</v>
       </c>
       <c r="Q397" t="n">
         <v>1</v>
@@ -29013,29 +29013,29 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>5900</v>
+        <v>3300</v>
       </c>
       <c r="K398" t="n">
-        <v>2700</v>
+        <v>450</v>
       </c>
       <c r="L398" t="n">
-        <v>3000</v>
+        <v>450</v>
       </c>
       <c r="M398" t="n">
-        <v>2873</v>
+        <v>450</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P398" t="n">
-        <v>2873</v>
+        <v>450</v>
       </c>
       <c r="Q398" t="n">
         <v>1</v>
@@ -29081,33 +29081,33 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J399" t="n">
-        <v>4100</v>
+        <v>5900</v>
       </c>
       <c r="K399" t="n">
-        <v>400</v>
+        <v>2700</v>
       </c>
       <c r="L399" t="n">
-        <v>400</v>
+        <v>3000</v>
       </c>
       <c r="M399" t="n">
-        <v>400</v>
+        <v>2873</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P399" t="n">
-        <v>400</v>
+        <v>2873</v>
       </c>
       <c r="Q399" t="n">
         <v>1</v>
@@ -29157,29 +29157,29 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>6100</v>
+        <v>4100</v>
       </c>
       <c r="K400" t="n">
-        <v>2300</v>
+        <v>400</v>
       </c>
       <c r="L400" t="n">
-        <v>2500</v>
+        <v>400</v>
       </c>
       <c r="M400" t="n">
-        <v>2444</v>
+        <v>400</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P400" t="n">
-        <v>2444</v>
+        <v>400</v>
       </c>
       <c r="Q400" t="n">
         <v>1</v>
@@ -29225,33 +29225,33 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J401" t="n">
-        <v>3800</v>
+        <v>6100</v>
       </c>
       <c r="K401" t="n">
-        <v>300</v>
+        <v>2300</v>
       </c>
       <c r="L401" t="n">
-        <v>300</v>
+        <v>2500</v>
       </c>
       <c r="M401" t="n">
-        <v>300</v>
+        <v>2444</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P401" t="n">
-        <v>300</v>
+        <v>2444</v>
       </c>
       <c r="Q401" t="n">
         <v>1</v>
@@ -29301,29 +29301,29 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>4900</v>
+        <v>3800</v>
       </c>
       <c r="K402" t="n">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="L402" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="M402" t="n">
-        <v>1914</v>
+        <v>300</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P402" t="n">
-        <v>1914</v>
+        <v>300</v>
       </c>
       <c r="Q402" t="n">
         <v>1</v>
@@ -29369,20 +29369,20 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J403" t="n">
-        <v>5600</v>
+        <v>4900</v>
       </c>
       <c r="K403" t="n">
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="L403" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M403" t="n">
-        <v>3757</v>
+        <v>1914</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>3757</v>
+        <v>1914</v>
       </c>
       <c r="Q403" t="n">
         <v>1</v>
@@ -29441,20 +29441,20 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J404" t="n">
+        <v>5600</v>
+      </c>
+      <c r="K404" t="n">
         <v>3600</v>
       </c>
-      <c r="K404" t="n">
-        <v>1300</v>
-      </c>
       <c r="L404" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="M404" t="n">
-        <v>1422</v>
+        <v>3757</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>1422</v>
+        <v>3757</v>
       </c>
       <c r="Q404" t="n">
         <v>1</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="E405" t="n">
         <v>13</v>
@@ -29513,33 +29513,33 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J405" t="n">
-        <v>2300</v>
+        <v>3600</v>
       </c>
       <c r="K405" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="L405" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="M405" t="n">
-        <v>600</v>
+        <v>1422</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P405" t="n">
-        <v>600</v>
+        <v>1422</v>
       </c>
       <c r="Q405" t="n">
         <v>1</v>
@@ -29589,16 +29589,16 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>4800</v>
+        <v>2300</v>
       </c>
       <c r="K406" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L406" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M406" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29607,11 +29607,11 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P406" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="Q406" t="n">
         <v>1</v>
@@ -29661,16 +29661,16 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>1800</v>
+        <v>4800</v>
       </c>
       <c r="K407" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="L407" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M407" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29679,11 +29679,11 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P407" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="Q407" t="n">
         <v>1</v>
@@ -29729,20 +29729,20 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J408" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="K408" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L408" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M408" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29751,11 +29751,11 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P408" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q408" t="n">
         <v>1</v>
@@ -29805,16 +29805,16 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>3300</v>
+        <v>1500</v>
       </c>
       <c r="K409" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L409" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M409" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29823,11 +29823,11 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P409" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="Q409" t="n">
         <v>1</v>
@@ -29877,16 +29877,16 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>600</v>
+        <v>3300</v>
       </c>
       <c r="K410" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L410" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="M410" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29895,11 +29895,11 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P410" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="Q410" t="n">
         <v>1</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44214</v>
+        <v>44161</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29945,33 +29945,33 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J411" t="n">
         <v>600</v>
       </c>
       <c r="K411" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L411" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M411" t="n">
-        <v>758</v>
+        <v>500</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P411" t="n">
-        <v>758</v>
+        <v>500</v>
       </c>
       <c r="Q411" t="n">
         <v>1</v>
@@ -30021,16 +30021,16 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>780</v>
+        <v>600</v>
       </c>
       <c r="K412" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L412" t="n">
         <v>800</v>
       </c>
       <c r="M412" t="n">
-        <v>697</v>
+        <v>758</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30039,11 +30039,11 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P412" t="n">
-        <v>697</v>
+        <v>758</v>
       </c>
       <c r="Q412" t="n">
         <v>1</v>
@@ -30089,20 +30089,20 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J413" t="n">
-        <v>2100</v>
+        <v>780</v>
       </c>
       <c r="K413" t="n">
-        <v>2300</v>
+        <v>600</v>
       </c>
       <c r="L413" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M413" t="n">
-        <v>2348</v>
+        <v>697</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30111,11 +30111,11 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P413" t="n">
-        <v>2348</v>
+        <v>697</v>
       </c>
       <c r="Q413" t="n">
         <v>1</v>
@@ -30165,7 +30165,7 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>1750</v>
+        <v>2100</v>
       </c>
       <c r="K414" t="n">
         <v>2300</v>
@@ -30174,7 +30174,7 @@
         <v>2500</v>
       </c>
       <c r="M414" t="n">
-        <v>2437</v>
+        <v>2348</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30183,11 +30183,11 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P414" t="n">
-        <v>2437</v>
+        <v>2348</v>
       </c>
       <c r="Q414" t="n">
         <v>1</v>
@@ -30233,20 +30233,20 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>950</v>
+        <v>1750</v>
       </c>
       <c r="K415" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="L415" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M415" t="n">
-        <v>1863</v>
+        <v>2437</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30255,11 +30255,11 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P415" t="n">
-        <v>1863</v>
+        <v>2437</v>
       </c>
       <c r="Q415" t="n">
         <v>1</v>
@@ -30309,7 +30309,7 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="K416" t="n">
         <v>1800</v>
@@ -30318,7 +30318,7 @@
         <v>2000</v>
       </c>
       <c r="M416" t="n">
-        <v>1952</v>
+        <v>1863</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30327,11 +30327,11 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P416" t="n">
-        <v>1952</v>
+        <v>1863</v>
       </c>
       <c r="Q416" t="n">
         <v>1</v>
@@ -30377,20 +30377,20 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>1600</v>
+        <v>1050</v>
       </c>
       <c r="K417" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="L417" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M417" t="n">
-        <v>1381</v>
+        <v>1952</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30399,11 +30399,11 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P417" t="n">
-        <v>1381</v>
+        <v>1952</v>
       </c>
       <c r="Q417" t="n">
         <v>1</v>
@@ -30453,7 +30453,7 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>1450</v>
+        <v>1600</v>
       </c>
       <c r="K418" t="n">
         <v>1300</v>
@@ -30462,7 +30462,7 @@
         <v>1500</v>
       </c>
       <c r="M418" t="n">
-        <v>1390</v>
+        <v>1381</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30471,11 +30471,11 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P418" t="n">
-        <v>1390</v>
+        <v>1381</v>
       </c>
       <c r="Q418" t="n">
         <v>1</v>
@@ -30521,20 +30521,20 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>1650</v>
+        <v>1450</v>
       </c>
       <c r="K419" t="n">
-        <v>2700</v>
+        <v>1300</v>
       </c>
       <c r="L419" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="M419" t="n">
-        <v>2827</v>
+        <v>1390</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30543,11 +30543,11 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P419" t="n">
-        <v>2827</v>
+        <v>1390</v>
       </c>
       <c r="Q419" t="n">
         <v>1</v>
@@ -30597,7 +30597,7 @@
         </is>
       </c>
       <c r="J420" t="n">
-        <v>1550</v>
+        <v>1650</v>
       </c>
       <c r="K420" t="n">
         <v>2700</v>
@@ -30606,7 +30606,7 @@
         <v>3000</v>
       </c>
       <c r="M420" t="n">
-        <v>2874</v>
+        <v>2827</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30615,11 +30615,11 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P420" t="n">
-        <v>2874</v>
+        <v>2827</v>
       </c>
       <c r="Q420" t="n">
         <v>1</v>
@@ -30665,20 +30665,20 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J421" t="n">
-        <v>1200</v>
+        <v>1550</v>
       </c>
       <c r="K421" t="n">
-        <v>900</v>
+        <v>2700</v>
       </c>
       <c r="L421" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="M421" t="n">
-        <v>938</v>
+        <v>2874</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30687,11 +30687,11 @@
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P421" t="n">
-        <v>938</v>
+        <v>2874</v>
       </c>
       <c r="Q421" t="n">
         <v>1</v>
@@ -30741,7 +30741,7 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>1050</v>
+        <v>1200</v>
       </c>
       <c r="K422" t="n">
         <v>900</v>
@@ -30750,7 +30750,7 @@
         <v>1000</v>
       </c>
       <c r="M422" t="n">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30759,11 +30759,11 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P422" t="n">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="Q422" t="n">
         <v>1</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -30809,20 +30809,20 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J423" t="n">
-        <v>1300</v>
+        <v>1050</v>
       </c>
       <c r="K423" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L423" t="n">
         <v>1000</v>
       </c>
       <c r="M423" t="n">
-        <v>1000</v>
+        <v>943</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30831,11 +30831,11 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P423" t="n">
-        <v>1000</v>
+        <v>943</v>
       </c>
       <c r="Q423" t="n">
         <v>1</v>
@@ -30881,20 +30881,20 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J424" t="n">
-        <v>1900</v>
+        <v>1300</v>
       </c>
       <c r="K424" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L424" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M424" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="Q424" t="n">
         <v>1</v>
@@ -30953,20 +30953,20 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J425" t="n">
-        <v>2700</v>
+        <v>1900</v>
       </c>
       <c r="K425" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L425" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M425" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q425" t="n">
         <v>1</v>
@@ -31025,20 +31025,20 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J426" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="K426" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L426" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M426" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="Q426" t="n">
         <v>1</v>
@@ -31097,20 +31097,20 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J427" t="n">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="K427" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="L427" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="M427" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="Q427" t="n">
         <v>1</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E428" t="n">
         <v>13</v>
@@ -31169,20 +31169,20 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J428" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="K428" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="L428" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="M428" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="Q428" t="n">
         <v>1</v>
@@ -31241,20 +31241,20 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J429" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="K429" t="n">
-        <v>2300</v>
+        <v>700</v>
       </c>
       <c r="L429" t="n">
-        <v>2300</v>
+        <v>700</v>
       </c>
       <c r="M429" t="n">
-        <v>2300</v>
+        <v>700</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>2300</v>
+        <v>700</v>
       </c>
       <c r="Q429" t="n">
         <v>1</v>
@@ -31313,20 +31313,20 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J430" t="n">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="K430" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="L430" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="M430" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="Q430" t="n">
         <v>1</v>
@@ -31385,20 +31385,20 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J431" t="n">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="K431" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L431" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M431" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="Q431" t="n">
         <v>1</v>
@@ -31457,20 +31457,20 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J432" t="n">
+        <v>1900</v>
+      </c>
+      <c r="K432" t="n">
         <v>1500</v>
       </c>
-      <c r="K432" t="n">
-        <v>1200</v>
-      </c>
       <c r="L432" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="M432" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="Q432" t="n">
         <v>1</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44229</v>
+        <v>44274</v>
       </c>
       <c r="E433" t="n">
         <v>13</v>
@@ -31529,20 +31529,20 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J433" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="K433" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="L433" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="M433" t="n">
-        <v>765</v>
+        <v>1200</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31551,11 +31551,11 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P433" t="n">
-        <v>765</v>
+        <v>1200</v>
       </c>
       <c r="Q433" t="n">
         <v>1</v>
@@ -31601,20 +31601,20 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J434" t="n">
-        <v>5100</v>
+        <v>2000</v>
       </c>
       <c r="K434" t="n">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="L434" t="n">
-        <v>2200</v>
+        <v>800</v>
       </c>
       <c r="M434" t="n">
-        <v>2110</v>
+        <v>765</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>2110</v>
+        <v>765</v>
       </c>
       <c r="Q434" t="n">
         <v>1</v>
@@ -31673,20 +31673,20 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J435" t="n">
-        <v>6600</v>
+        <v>5100</v>
       </c>
       <c r="K435" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L435" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="M435" t="n">
-        <v>1715</v>
+        <v>2110</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>1715</v>
+        <v>2110</v>
       </c>
       <c r="Q435" t="n">
         <v>1</v>
@@ -31745,20 +31745,20 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J436" t="n">
-        <v>4700</v>
+        <v>6600</v>
       </c>
       <c r="K436" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="L436" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M436" t="n">
-        <v>1423</v>
+        <v>1715</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>1423</v>
+        <v>1715</v>
       </c>
       <c r="Q436" t="n">
         <v>1</v>
@@ -31817,20 +31817,20 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J437" t="n">
-        <v>6200</v>
+        <v>4700</v>
       </c>
       <c r="K437" t="n">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="L437" t="n">
-        <v>2700</v>
+        <v>1500</v>
       </c>
       <c r="M437" t="n">
-        <v>2569</v>
+        <v>1423</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>2569</v>
+        <v>1423</v>
       </c>
       <c r="Q437" t="n">
         <v>1</v>
@@ -31889,20 +31889,20 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J438" t="n">
-        <v>3700</v>
+        <v>6200</v>
       </c>
       <c r="K438" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="L438" t="n">
-        <v>1200</v>
+        <v>2700</v>
       </c>
       <c r="M438" t="n">
-        <v>1130</v>
+        <v>2569</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>1130</v>
+        <v>2569</v>
       </c>
       <c r="Q438" t="n">
         <v>1</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44165</v>
+        <v>44229</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -31961,33 +31961,33 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J439" t="n">
-        <v>4200</v>
+        <v>3700</v>
       </c>
       <c r="K439" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="L439" t="n">
-        <v>450</v>
+        <v>1200</v>
       </c>
       <c r="M439" t="n">
-        <v>450</v>
+        <v>1130</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P439" t="n">
-        <v>450</v>
+        <v>1130</v>
       </c>
       <c r="Q439" t="n">
         <v>1</v>
@@ -32037,29 +32037,29 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="K440" t="n">
-        <v>3500</v>
+        <v>450</v>
       </c>
       <c r="L440" t="n">
-        <v>3500</v>
+        <v>450</v>
       </c>
       <c r="M440" t="n">
-        <v>3500</v>
+        <v>450</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P440" t="n">
-        <v>3500</v>
+        <v>450</v>
       </c>
       <c r="Q440" t="n">
         <v>1</v>
@@ -32109,7 +32109,7 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>1900</v>
+        <v>4400</v>
       </c>
       <c r="K441" t="n">
         <v>3500</v>
@@ -32127,7 +32127,7 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P441" t="n">
@@ -32177,33 +32177,33 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J442" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="K442" t="n">
-        <v>400</v>
+        <v>3500</v>
       </c>
       <c r="L442" t="n">
-        <v>400</v>
+        <v>3500</v>
       </c>
       <c r="M442" t="n">
-        <v>400</v>
+        <v>3500</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P442" t="n">
-        <v>400</v>
+        <v>3500</v>
       </c>
       <c r="Q442" t="n">
         <v>1</v>
@@ -32253,29 +32253,29 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="K443" t="n">
-        <v>3000</v>
+        <v>400</v>
       </c>
       <c r="L443" t="n">
-        <v>3000</v>
+        <v>400</v>
       </c>
       <c r="M443" t="n">
-        <v>3000</v>
+        <v>400</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P443" t="n">
-        <v>3000</v>
+        <v>400</v>
       </c>
       <c r="Q443" t="n">
         <v>1</v>
@@ -32325,7 +32325,7 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="K444" t="n">
         <v>3000</v>
@@ -32343,7 +32343,7 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P444" t="n">
@@ -32393,20 +32393,20 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J445" t="n">
         <v>2000</v>
       </c>
       <c r="K445" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L445" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M445" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32415,11 +32415,11 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P445" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q445" t="n">
         <v>1</v>
@@ -32469,7 +32469,7 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K446" t="n">
         <v>2000</v>
@@ -32487,7 +32487,7 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P446" t="n">
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -32537,11 +32537,11 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="K447" t="n">
         <v>2000</v>
@@ -32559,7 +32559,7 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P447" t="n">
@@ -32613,16 +32613,16 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>5000</v>
+        <v>2200</v>
       </c>
       <c r="K448" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="L448" t="n">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="M448" t="n">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32631,11 +32631,11 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P448" t="n">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="Q448" t="n">
         <v>1</v>
@@ -32681,20 +32681,20 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J449" t="n">
-        <v>3100</v>
+        <v>5000</v>
       </c>
       <c r="K449" t="n">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="L449" t="n">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="M449" t="n">
-        <v>1700</v>
+        <v>2012</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32703,11 +32703,11 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P449" t="n">
-        <v>1700</v>
+        <v>2012</v>
       </c>
       <c r="Q449" t="n">
         <v>1</v>
@@ -32757,16 +32757,16 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>6600</v>
+        <v>3100</v>
       </c>
       <c r="K450" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="L450" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="M450" t="n">
-        <v>1709</v>
+        <v>1700</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32775,11 +32775,11 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P450" t="n">
-        <v>1709</v>
+        <v>1700</v>
       </c>
       <c r="Q450" t="n">
         <v>1</v>
@@ -32825,20 +32825,20 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J451" t="n">
-        <v>4100</v>
+        <v>6600</v>
       </c>
       <c r="K451" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="L451" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M451" t="n">
-        <v>1412</v>
+        <v>1709</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>1412</v>
+        <v>1709</v>
       </c>
       <c r="Q451" t="n">
         <v>1</v>
@@ -32897,20 +32897,20 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J452" t="n">
-        <v>2700</v>
+        <v>4100</v>
       </c>
       <c r="K452" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="L452" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="M452" t="n">
-        <v>2500</v>
+        <v>1412</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32919,11 +32919,11 @@
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P452" t="n">
-        <v>2500</v>
+        <v>1412</v>
       </c>
       <c r="Q452" t="n">
         <v>1</v>
@@ -32973,16 +32973,16 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>6200</v>
+        <v>2700</v>
       </c>
       <c r="K453" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L453" t="n">
         <v>2500</v>
       </c>
       <c r="M453" t="n">
-        <v>2369</v>
+        <v>2500</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32991,11 +32991,11 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P453" t="n">
-        <v>2369</v>
+        <v>2500</v>
       </c>
       <c r="Q453" t="n">
         <v>1</v>
@@ -33041,20 +33041,20 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J454" t="n">
-        <v>3300</v>
+        <v>6200</v>
       </c>
       <c r="K454" t="n">
-        <v>900</v>
+        <v>2200</v>
       </c>
       <c r="L454" t="n">
-        <v>1100</v>
+        <v>2500</v>
       </c>
       <c r="M454" t="n">
-        <v>1045</v>
+        <v>2369</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>1045</v>
+        <v>2369</v>
       </c>
       <c r="Q454" t="n">
         <v>1</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44258</v>
+        <v>44231</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -33113,20 +33113,20 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J455" t="n">
-        <v>2200</v>
+        <v>3300</v>
       </c>
       <c r="K455" t="n">
-        <v>2200</v>
+        <v>900</v>
       </c>
       <c r="L455" t="n">
-        <v>2200</v>
+        <v>1100</v>
       </c>
       <c r="M455" t="n">
-        <v>2200</v>
+        <v>1045</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33135,11 +33135,11 @@
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P455" t="n">
-        <v>2200</v>
+        <v>1045</v>
       </c>
       <c r="Q455" t="n">
         <v>1</v>
@@ -33189,16 +33189,16 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K456" t="n">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="L456" t="n">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="M456" t="n">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33207,11 +33207,11 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P456" t="n">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="Q456" t="n">
         <v>1</v>
@@ -33257,20 +33257,20 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J457" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="K457" t="n">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="L457" t="n">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="M457" t="n">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33279,11 +33279,11 @@
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P457" t="n">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="Q457" t="n">
         <v>1</v>
@@ -33333,7 +33333,7 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="K458" t="n">
         <v>1800</v>
@@ -33351,7 +33351,7 @@
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P458" t="n">
@@ -33401,20 +33401,20 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>1700</v>
+        <v>3400</v>
       </c>
       <c r="K459" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L459" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M459" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33423,11 +33423,11 @@
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P459" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="Q459" t="n">
         <v>1</v>
@@ -33477,7 +33477,7 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>2100</v>
+        <v>1700</v>
       </c>
       <c r="K460" t="n">
         <v>1500</v>
@@ -33495,7 +33495,7 @@
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P460" t="n">
@@ -33545,20 +33545,20 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J461" t="n">
+        <v>2100</v>
+      </c>
+      <c r="K461" t="n">
         <v>1500</v>
       </c>
-      <c r="K461" t="n">
-        <v>2600</v>
-      </c>
       <c r="L461" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="M461" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33567,11 +33567,11 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P461" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="Q461" t="n">
         <v>1</v>
@@ -33624,13 +33624,13 @@
         <v>1500</v>
       </c>
       <c r="K462" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="L462" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="M462" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33639,11 +33639,11 @@
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P462" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="Q462" t="n">
         <v>1</v>
@@ -33689,20 +33689,20 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J463" t="n">
-        <v>2100</v>
+        <v>1500</v>
       </c>
       <c r="K463" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="L463" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="M463" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33711,11 +33711,11 @@
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P463" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="Q463" t="n">
         <v>1</v>
@@ -33765,7 +33765,7 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="K464" t="n">
         <v>1000</v>
@@ -33783,7 +33783,7 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P464" t="n">
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44252</v>
+        <v>44258</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -33833,20 +33833,20 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J465" t="n">
-        <v>4600</v>
+        <v>2600</v>
       </c>
       <c r="K465" t="n">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="L465" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M465" t="n">
-        <v>2417</v>
+        <v>1000</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33855,11 +33855,11 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P465" t="n">
-        <v>2417</v>
+        <v>1000</v>
       </c>
       <c r="Q465" t="n">
         <v>1</v>
@@ -33909,16 +33909,16 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>5100</v>
+        <v>4600</v>
       </c>
       <c r="K466" t="n">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="L466" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="M466" t="n">
-        <v>2288</v>
+        <v>2417</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33927,11 +33927,11 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P466" t="n">
-        <v>2288</v>
+        <v>2417</v>
       </c>
       <c r="Q466" t="n">
         <v>1</v>
@@ -33977,20 +33977,20 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J467" t="n">
-        <v>5600</v>
+        <v>5100</v>
       </c>
       <c r="K467" t="n">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="L467" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M467" t="n">
-        <v>1914</v>
+        <v>2288</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -33999,11 +33999,11 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P467" t="n">
-        <v>1914</v>
+        <v>2288</v>
       </c>
       <c r="Q467" t="n">
         <v>1</v>
@@ -34053,7 +34053,7 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="K468" t="n">
         <v>1800</v>
@@ -34062,7 +34062,7 @@
         <v>2000</v>
       </c>
       <c r="M468" t="n">
-        <v>1920</v>
+        <v>1914</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34071,11 +34071,11 @@
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P468" t="n">
-        <v>1920</v>
+        <v>1914</v>
       </c>
       <c r="Q468" t="n">
         <v>1</v>
@@ -34121,20 +34121,20 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J469" t="n">
-        <v>4300</v>
+        <v>6000</v>
       </c>
       <c r="K469" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L469" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M469" t="n">
-        <v>1584</v>
+        <v>1920</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>1584</v>
+        <v>1920</v>
       </c>
       <c r="Q469" t="n">
         <v>1</v>
@@ -34193,20 +34193,20 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J470" t="n">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="K470" t="n">
-        <v>2700</v>
+        <v>1500</v>
       </c>
       <c r="L470" t="n">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="M470" t="n">
-        <v>2880</v>
+        <v>1584</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34215,11 +34215,11 @@
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P470" t="n">
-        <v>2880</v>
+        <v>1584</v>
       </c>
       <c r="Q470" t="n">
         <v>1</v>
@@ -34269,16 +34269,16 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="K471" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="L471" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M471" t="n">
-        <v>2693</v>
+        <v>2880</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34287,11 +34287,11 @@
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P471" t="n">
-        <v>2693</v>
+        <v>2880</v>
       </c>
       <c r="Q471" t="n">
         <v>1</v>
@@ -34337,20 +34337,20 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J472" t="n">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="K472" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="L472" t="n">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="M472" t="n">
-        <v>1214</v>
+        <v>2693</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>1214</v>
+        <v>2693</v>
       </c>
       <c r="Q472" t="n">
         <v>1</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -34409,20 +34409,20 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J473" t="n">
+        <v>4300</v>
+      </c>
+      <c r="K473" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L473" t="n">
         <v>1400</v>
       </c>
-      <c r="K473" t="n">
-        <v>800</v>
-      </c>
-      <c r="L473" t="n">
-        <v>800</v>
-      </c>
       <c r="M473" t="n">
-        <v>800</v>
+        <v>1214</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>800</v>
+        <v>1214</v>
       </c>
       <c r="Q473" t="n">
         <v>1</v>
@@ -34481,20 +34481,20 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J474" t="n">
-        <v>4700</v>
+        <v>1400</v>
       </c>
       <c r="K474" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L474" t="n">
-        <v>2700</v>
+        <v>800</v>
       </c>
       <c r="M474" t="n">
-        <v>2615</v>
+        <v>800</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>2615</v>
+        <v>800</v>
       </c>
       <c r="Q474" t="n">
         <v>1</v>
@@ -34553,20 +34553,20 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J475" t="n">
-        <v>7100</v>
+        <v>4700</v>
       </c>
       <c r="K475" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L475" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="M475" t="n">
-        <v>2087</v>
+        <v>2615</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>2087</v>
+        <v>2615</v>
       </c>
       <c r="Q475" t="n">
         <v>1</v>
@@ -34625,20 +34625,20 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J476" t="n">
-        <v>5400</v>
+        <v>7100</v>
       </c>
       <c r="K476" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L476" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="M476" t="n">
-        <v>1661</v>
+        <v>2087</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>1661</v>
+        <v>2087</v>
       </c>
       <c r="Q476" t="n">
         <v>1</v>
@@ -34697,20 +34697,20 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>7600</v>
+        <v>5400</v>
       </c>
       <c r="K477" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L477" t="n">
-        <v>3200</v>
+        <v>1800</v>
       </c>
       <c r="M477" t="n">
-        <v>3092</v>
+        <v>1661</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>3092</v>
+        <v>1661</v>
       </c>
       <c r="Q477" t="n">
         <v>1</v>
@@ -34769,20 +34769,20 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>4200</v>
+        <v>7600</v>
       </c>
       <c r="K478" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="L478" t="n">
-        <v>1300</v>
+        <v>3200</v>
       </c>
       <c r="M478" t="n">
-        <v>1157</v>
+        <v>3092</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>1157</v>
+        <v>3092</v>
       </c>
       <c r="Q478" t="n">
         <v>1</v>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44186</v>
+        <v>44204</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -34841,20 +34841,20 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J479" t="n">
-        <v>5300</v>
+        <v>4200</v>
       </c>
       <c r="K479" t="n">
-        <v>2900</v>
+        <v>1000</v>
       </c>
       <c r="L479" t="n">
-        <v>3200</v>
+        <v>1300</v>
       </c>
       <c r="M479" t="n">
-        <v>3042</v>
+        <v>1157</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>3042</v>
+        <v>1157</v>
       </c>
       <c r="Q479" t="n">
         <v>1</v>
@@ -34913,20 +34913,20 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J480" t="n">
-        <v>7200</v>
+        <v>5300</v>
       </c>
       <c r="K480" t="n">
-        <v>2300</v>
+        <v>2900</v>
       </c>
       <c r="L480" t="n">
-        <v>2600</v>
+        <v>3200</v>
       </c>
       <c r="M480" t="n">
-        <v>2438</v>
+        <v>3042</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>2438</v>
+        <v>3042</v>
       </c>
       <c r="Q480" t="n">
         <v>1</v>
@@ -34985,20 +34985,20 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J481" t="n">
-        <v>5900</v>
+        <v>7200</v>
       </c>
       <c r="K481" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="L481" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="M481" t="n">
-        <v>1632</v>
+        <v>2438</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>1632</v>
+        <v>2438</v>
       </c>
       <c r="Q481" t="n">
         <v>1</v>
@@ -35057,20 +35057,20 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J482" t="n">
-        <v>4300</v>
+        <v>5900</v>
       </c>
       <c r="K482" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="L482" t="n">
-        <v>3700</v>
+        <v>1800</v>
       </c>
       <c r="M482" t="n">
-        <v>3588</v>
+        <v>1632</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>3588</v>
+        <v>1632</v>
       </c>
       <c r="Q482" t="n">
         <v>1</v>
@@ -35129,20 +35129,20 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J483" t="n">
-        <v>5800</v>
+        <v>4300</v>
       </c>
       <c r="K483" t="n">
-        <v>900</v>
+        <v>3500</v>
       </c>
       <c r="L483" t="n">
-        <v>1200</v>
+        <v>3700</v>
       </c>
       <c r="M483" t="n">
-        <v>1060</v>
+        <v>3588</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>1060</v>
+        <v>3588</v>
       </c>
       <c r="Q483" t="n">
         <v>1</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44448</v>
+        <v>44186</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -35201,33 +35201,33 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J484" t="n">
-        <v>4160</v>
+        <v>5800</v>
       </c>
       <c r="K484" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="L484" t="n">
         <v>1200</v>
       </c>
       <c r="M484" t="n">
-        <v>1200</v>
+        <v>1060</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O484" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P484" t="n">
-        <v>1200</v>
+        <v>1060</v>
       </c>
       <c r="Q484" t="n">
         <v>1</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -35273,33 +35273,33 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>4200</v>
+        <v>4160</v>
       </c>
       <c r="K485" t="n">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="L485" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="M485" t="n">
-        <v>2300</v>
+        <v>1200</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O485" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P485" t="n">
-        <v>2300</v>
+        <v>1200</v>
       </c>
       <c r="Q485" t="n">
         <v>1</v>
@@ -35345,20 +35345,20 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>5100</v>
+        <v>4200</v>
       </c>
       <c r="K486" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="L486" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M486" t="n">
-        <v>1898</v>
+        <v>2300</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>1898</v>
+        <v>2300</v>
       </c>
       <c r="Q486" t="n">
         <v>1</v>
@@ -35417,20 +35417,20 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J487" t="n">
-        <v>3800</v>
+        <v>5100</v>
       </c>
       <c r="K487" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L487" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M487" t="n">
-        <v>1626</v>
+        <v>1898</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>1626</v>
+        <v>1898</v>
       </c>
       <c r="Q487" t="n">
         <v>1</v>
@@ -35489,20 +35489,20 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J488" t="n">
-        <v>3300</v>
+        <v>3800</v>
       </c>
       <c r="K488" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="L488" t="n">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="M488" t="n">
-        <v>2709</v>
+        <v>1626</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>2709</v>
+        <v>1626</v>
       </c>
       <c r="Q488" t="n">
         <v>1</v>
@@ -35561,20 +35561,20 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J489" t="n">
-        <v>4200</v>
+        <v>3300</v>
       </c>
       <c r="K489" t="n">
-        <v>1200</v>
+        <v>2600</v>
       </c>
       <c r="L489" t="n">
-        <v>1300</v>
+        <v>2800</v>
       </c>
       <c r="M489" t="n">
-        <v>1264</v>
+        <v>2709</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>1264</v>
+        <v>2709</v>
       </c>
       <c r="Q489" t="n">
         <v>1</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44452</v>
+        <v>44243</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -35633,33 +35633,33 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J490" t="n">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="K490" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="L490" t="n">
-        <v>1150</v>
+        <v>1300</v>
       </c>
       <c r="M490" t="n">
-        <v>1121</v>
+        <v>1264</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P490" t="n">
-        <v>1121</v>
+        <v>1264</v>
       </c>
       <c r="Q490" t="n">
         <v>1</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -35705,33 +35705,33 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J491" t="n">
-        <v>3100</v>
+        <v>4500</v>
       </c>
       <c r="K491" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="L491" t="n">
-        <v>1000</v>
+        <v>1150</v>
       </c>
       <c r="M491" t="n">
-        <v>916</v>
+        <v>1121</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P491" t="n">
-        <v>916</v>
+        <v>1121</v>
       </c>
       <c r="Q491" t="n">
         <v>1</v>
@@ -35777,20 +35777,20 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J492" t="n">
-        <v>2500</v>
+        <v>3100</v>
       </c>
       <c r="K492" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="L492" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="M492" t="n">
-        <v>2800</v>
+        <v>916</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35799,11 +35799,11 @@
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P492" t="n">
-        <v>2800</v>
+        <v>916</v>
       </c>
       <c r="Q492" t="n">
         <v>1</v>
@@ -35853,16 +35853,16 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="K493" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="L493" t="n">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="M493" t="n">
-        <v>2720</v>
+        <v>2800</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35871,11 +35871,11 @@
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P493" t="n">
-        <v>2720</v>
+        <v>2800</v>
       </c>
       <c r="Q493" t="n">
         <v>1</v>
@@ -35921,20 +35921,20 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J494" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="K494" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="L494" t="n">
-        <v>2200</v>
+        <v>2900</v>
       </c>
       <c r="M494" t="n">
-        <v>2200</v>
+        <v>2720</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35943,11 +35943,11 @@
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P494" t="n">
-        <v>2200</v>
+        <v>2720</v>
       </c>
       <c r="Q494" t="n">
         <v>1</v>
@@ -35997,16 +35997,16 @@
         </is>
       </c>
       <c r="J495" t="n">
-        <v>9200</v>
+        <v>3000</v>
       </c>
       <c r="K495" t="n">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="L495" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="M495" t="n">
-        <v>2227</v>
+        <v>2200</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36015,11 +36015,11 @@
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P495" t="n">
-        <v>2227</v>
+        <v>2200</v>
       </c>
       <c r="Q495" t="n">
         <v>1</v>
@@ -36065,20 +36065,20 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J496" t="n">
-        <v>7900</v>
+        <v>9200</v>
       </c>
       <c r="K496" t="n">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="L496" t="n">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="M496" t="n">
-        <v>1737</v>
+        <v>2227</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>1737</v>
+        <v>2227</v>
       </c>
       <c r="Q496" t="n">
         <v>1</v>
@@ -36137,20 +36137,20 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J497" t="n">
-        <v>2800</v>
+        <v>7900</v>
       </c>
       <c r="K497" t="n">
-        <v>3300</v>
+        <v>1600</v>
       </c>
       <c r="L497" t="n">
-        <v>3300</v>
+        <v>1900</v>
       </c>
       <c r="M497" t="n">
-        <v>3300</v>
+        <v>1737</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36159,11 +36159,11 @@
       </c>
       <c r="O497" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P497" t="n">
-        <v>3300</v>
+        <v>1737</v>
       </c>
       <c r="Q497" t="n">
         <v>1</v>
@@ -36213,16 +36213,16 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>9300</v>
+        <v>2800</v>
       </c>
       <c r="K498" t="n">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="L498" t="n">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="M498" t="n">
-        <v>3342</v>
+        <v>3300</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36231,11 +36231,11 @@
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P498" t="n">
-        <v>3342</v>
+        <v>3300</v>
       </c>
       <c r="Q498" t="n">
         <v>1</v>
@@ -36281,20 +36281,20 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J499" t="n">
-        <v>5600</v>
+        <v>9300</v>
       </c>
       <c r="K499" t="n">
-        <v>1300</v>
+        <v>3200</v>
       </c>
       <c r="L499" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="M499" t="n">
-        <v>1389</v>
+        <v>3342</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>1389</v>
+        <v>3342</v>
       </c>
       <c r="Q499" t="n">
         <v>1</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -36353,33 +36353,33 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J500" t="n">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="K500" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="L500" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="M500" t="n">
-        <v>1043</v>
+        <v>1389</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P500" t="n">
-        <v>1043</v>
+        <v>1389</v>
       </c>
       <c r="Q500" t="n">
         <v>1</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44242</v>
+        <v>44453</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -36425,33 +36425,33 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J501" t="n">
-        <v>4500</v>
+        <v>5400</v>
       </c>
       <c r="K501" t="n">
-        <v>2100</v>
+        <v>1000</v>
       </c>
       <c r="L501" t="n">
-        <v>2400</v>
+        <v>1100</v>
       </c>
       <c r="M501" t="n">
-        <v>2267</v>
+        <v>1043</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P501" t="n">
-        <v>2267</v>
+        <v>1043</v>
       </c>
       <c r="Q501" t="n">
         <v>1</v>
@@ -36497,20 +36497,20 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J502" t="n">
-        <v>8100</v>
+        <v>4500</v>
       </c>
       <c r="K502" t="n">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="L502" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M502" t="n">
-        <v>1896</v>
+        <v>2267</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>1896</v>
+        <v>2267</v>
       </c>
       <c r="Q502" t="n">
         <v>1</v>
@@ -36569,20 +36569,20 @@
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J503" t="n">
-        <v>4100</v>
+        <v>8100</v>
       </c>
       <c r="K503" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="L503" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M503" t="n">
-        <v>1583</v>
+        <v>1896</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>1583</v>
+        <v>1896</v>
       </c>
       <c r="Q503" t="n">
         <v>1</v>
@@ -36641,20 +36641,20 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J504" t="n">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="K504" t="n">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="L504" t="n">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="M504" t="n">
-        <v>2629</v>
+        <v>1583</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>2629</v>
+        <v>1583</v>
       </c>
       <c r="Q504" t="n">
         <v>1</v>
@@ -36713,20 +36713,20 @@
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J505" t="n">
-        <v>5300</v>
+        <v>4200</v>
       </c>
       <c r="K505" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="L505" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="M505" t="n">
-        <v>1117</v>
+        <v>2629</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>1117</v>
+        <v>2629</v>
       </c>
       <c r="Q505" t="n">
         <v>1</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44166</v>
+        <v>44242</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -36785,20 +36785,20 @@
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J506" t="n">
-        <v>900</v>
+        <v>5300</v>
       </c>
       <c r="K506" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="L506" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="M506" t="n">
-        <v>1800</v>
+        <v>1117</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>1800</v>
+        <v>1117</v>
       </c>
       <c r="Q506" t="n">
         <v>1</v>
@@ -36857,20 +36857,20 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J507" t="n">
-        <v>2200</v>
+        <v>900</v>
       </c>
       <c r="K507" t="n">
-        <v>4500</v>
+        <v>1800</v>
       </c>
       <c r="L507" t="n">
-        <v>4500</v>
+        <v>1800</v>
       </c>
       <c r="M507" t="n">
-        <v>4500</v>
+        <v>1800</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36879,11 +36879,11 @@
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P507" t="n">
-        <v>4500</v>
+        <v>1800</v>
       </c>
       <c r="Q507" t="n">
         <v>1</v>
@@ -36929,33 +36929,33 @@
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J508" t="n">
-        <v>4200</v>
+        <v>2200</v>
       </c>
       <c r="K508" t="n">
-        <v>500</v>
+        <v>4500</v>
       </c>
       <c r="L508" t="n">
-        <v>500</v>
+        <v>4500</v>
       </c>
       <c r="M508" t="n">
-        <v>500</v>
+        <v>4500</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P508" t="n">
-        <v>500</v>
+        <v>4500</v>
       </c>
       <c r="Q508" t="n">
         <v>1</v>
@@ -37005,16 +37005,16 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>1800</v>
+        <v>4200</v>
       </c>
       <c r="K509" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L509" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M509" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37023,11 +37023,11 @@
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P509" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q509" t="n">
         <v>1</v>
@@ -37077,29 +37077,29 @@
         </is>
       </c>
       <c r="J510" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="K510" t="n">
-        <v>3600</v>
+        <v>400</v>
       </c>
       <c r="L510" t="n">
-        <v>3600</v>
+        <v>400</v>
       </c>
       <c r="M510" t="n">
-        <v>3600</v>
+        <v>400</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O510" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P510" t="n">
-        <v>3600</v>
+        <v>400</v>
       </c>
       <c r="Q510" t="n">
         <v>1</v>
@@ -37149,16 +37149,16 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>2200</v>
+        <v>3500</v>
       </c>
       <c r="K511" t="n">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="L511" t="n">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="M511" t="n">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37167,11 +37167,11 @@
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P511" t="n">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="Q511" t="n">
         <v>1</v>
@@ -37217,33 +37217,33 @@
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J512" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="K512" t="n">
-        <v>400</v>
+        <v>3800</v>
       </c>
       <c r="L512" t="n">
-        <v>400</v>
+        <v>3800</v>
       </c>
       <c r="M512" t="n">
-        <v>400</v>
+        <v>3800</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P512" t="n">
-        <v>400</v>
+        <v>3800</v>
       </c>
       <c r="Q512" t="n">
         <v>1</v>
@@ -37293,16 +37293,16 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="K513" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L513" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M513" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37311,11 +37311,11 @@
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P513" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q513" t="n">
         <v>1</v>
@@ -37365,20 +37365,20 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="K514" t="n">
-        <v>2800</v>
+        <v>300</v>
       </c>
       <c r="L514" t="n">
-        <v>2800</v>
+        <v>300</v>
       </c>
       <c r="M514" t="n">
-        <v>2800</v>
+        <v>300</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O514" t="inlineStr">
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>2800</v>
+        <v>300</v>
       </c>
       <c r="Q514" t="n">
         <v>1</v>
@@ -37433,20 +37433,20 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J515" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="K515" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="L515" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M515" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="Q515" t="n">
         <v>1</v>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44476</v>
+        <v>44166</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -37505,33 +37505,33 @@
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J516" t="n">
-        <v>7200</v>
+        <v>1000</v>
       </c>
       <c r="K516" t="n">
-        <v>750</v>
+        <v>2000</v>
       </c>
       <c r="L516" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M516" t="n">
-        <v>773</v>
+        <v>2000</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P516" t="n">
-        <v>773</v>
+        <v>2000</v>
       </c>
       <c r="Q516" t="n">
         <v>1</v>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44263</v>
+        <v>44476</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -37577,33 +37577,33 @@
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J517" t="n">
-        <v>1400</v>
+        <v>7200</v>
       </c>
       <c r="K517" t="n">
-        <v>2500</v>
+        <v>750</v>
       </c>
       <c r="L517" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M517" t="n">
-        <v>2500</v>
+        <v>773</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O517" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P517" t="n">
-        <v>2500</v>
+        <v>773</v>
       </c>
       <c r="Q517" t="n">
         <v>1</v>
@@ -37649,20 +37649,20 @@
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J518" t="n">
-        <v>2100</v>
+        <v>1400</v>
       </c>
       <c r="K518" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L518" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M518" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q518" t="n">
         <v>1</v>
@@ -37721,20 +37721,20 @@
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J519" t="n">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="K519" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L519" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M519" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="Q519" t="n">
         <v>1</v>
@@ -37793,20 +37793,20 @@
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J520" t="n">
-        <v>1100</v>
+        <v>2300</v>
       </c>
       <c r="K520" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="L520" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="M520" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="Q520" t="n">
         <v>1</v>
@@ -37865,20 +37865,20 @@
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J521" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="K521" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="L521" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="M521" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="Q521" t="n">
         <v>1</v>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44172</v>
+        <v>44263</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -37937,20 +37937,20 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J522" t="n">
-        <v>4400</v>
+        <v>1500</v>
       </c>
       <c r="K522" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="L522" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="M522" t="n">
-        <v>918</v>
+        <v>1200</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37959,11 +37959,11 @@
       </c>
       <c r="O522" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P522" t="n">
-        <v>918</v>
+        <v>1200</v>
       </c>
       <c r="Q522" t="n">
         <v>1</v>
@@ -38013,16 +38013,16 @@
         </is>
       </c>
       <c r="J523" t="n">
-        <v>1760</v>
+        <v>4400</v>
       </c>
       <c r="K523" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="L523" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="M523" t="n">
-        <v>1470</v>
+        <v>918</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38031,11 +38031,11 @@
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P523" t="n">
-        <v>1470</v>
+        <v>918</v>
       </c>
       <c r="Q523" t="n">
         <v>1</v>
@@ -38081,20 +38081,20 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>2200</v>
+        <v>1760</v>
       </c>
       <c r="K524" t="n">
-        <v>2800</v>
+        <v>1300</v>
       </c>
       <c r="L524" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="M524" t="n">
-        <v>2891</v>
+        <v>1470</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38103,11 +38103,11 @@
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P524" t="n">
-        <v>2891</v>
+        <v>1470</v>
       </c>
       <c r="Q524" t="n">
         <v>1</v>
@@ -38157,16 +38157,16 @@
         </is>
       </c>
       <c r="J525" t="n">
+        <v>2200</v>
+      </c>
+      <c r="K525" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L525" t="n">
         <v>3000</v>
       </c>
-      <c r="K525" t="n">
-        <v>3700</v>
-      </c>
-      <c r="L525" t="n">
-        <v>4000</v>
-      </c>
       <c r="M525" t="n">
-        <v>3820</v>
+        <v>2891</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38175,11 +38175,11 @@
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P525" t="n">
-        <v>3820</v>
+        <v>2891</v>
       </c>
       <c r="Q525" t="n">
         <v>1</v>
@@ -38225,20 +38225,20 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>4200</v>
+        <v>3000</v>
       </c>
       <c r="K526" t="n">
-        <v>2300</v>
+        <v>3700</v>
       </c>
       <c r="L526" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M526" t="n">
-        <v>2410</v>
+        <v>3820</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38247,11 +38247,11 @@
       </c>
       <c r="O526" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P526" t="n">
-        <v>2410</v>
+        <v>3820</v>
       </c>
       <c r="Q526" t="n">
         <v>1</v>
@@ -38301,16 +38301,16 @@
         </is>
       </c>
       <c r="J527" t="n">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="K527" t="n">
-        <v>3300</v>
+        <v>2300</v>
       </c>
       <c r="L527" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M527" t="n">
-        <v>3388</v>
+        <v>2410</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38319,11 +38319,11 @@
       </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P527" t="n">
-        <v>3388</v>
+        <v>2410</v>
       </c>
       <c r="Q527" t="n">
         <v>1</v>
@@ -38369,20 +38369,20 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J528" t="n">
-        <v>2700</v>
+        <v>4100</v>
       </c>
       <c r="K528" t="n">
-        <v>1700</v>
+        <v>3300</v>
       </c>
       <c r="L528" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M528" t="n">
-        <v>1867</v>
+        <v>3388</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38391,11 +38391,11 @@
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P528" t="n">
-        <v>1867</v>
+        <v>3388</v>
       </c>
       <c r="Q528" t="n">
         <v>1</v>
@@ -38445,16 +38445,16 @@
         </is>
       </c>
       <c r="J529" t="n">
-        <v>5900</v>
+        <v>2700</v>
       </c>
       <c r="K529" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="L529" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M529" t="n">
-        <v>2695</v>
+        <v>1867</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38463,11 +38463,11 @@
       </c>
       <c r="O529" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P529" t="n">
-        <v>2695</v>
+        <v>1867</v>
       </c>
       <c r="Q529" t="n">
         <v>1</v>
@@ -38513,20 +38513,20 @@
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J530" t="n">
+        <v>5900</v>
+      </c>
+      <c r="K530" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L530" t="n">
         <v>3000</v>
       </c>
-      <c r="K530" t="n">
-        <v>3500</v>
-      </c>
-      <c r="L530" t="n">
-        <v>4000</v>
-      </c>
       <c r="M530" t="n">
-        <v>3700</v>
+        <v>2695</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38535,11 +38535,11 @@
       </c>
       <c r="O530" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P530" t="n">
-        <v>3700</v>
+        <v>2695</v>
       </c>
       <c r="Q530" t="n">
         <v>1</v>
@@ -38589,16 +38589,16 @@
         </is>
       </c>
       <c r="J531" t="n">
+        <v>3000</v>
+      </c>
+      <c r="K531" t="n">
         <v>3500</v>
-      </c>
-      <c r="K531" t="n">
-        <v>3800</v>
       </c>
       <c r="L531" t="n">
         <v>4000</v>
       </c>
       <c r="M531" t="n">
-        <v>3914</v>
+        <v>3700</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38607,11 +38607,11 @@
       </c>
       <c r="O531" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P531" t="n">
-        <v>3914</v>
+        <v>3700</v>
       </c>
       <c r="Q531" t="n">
         <v>1</v>
@@ -38657,20 +38657,20 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="K532" t="n">
-        <v>1300</v>
+        <v>3800</v>
       </c>
       <c r="L532" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="M532" t="n">
-        <v>1400</v>
+        <v>3914</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38679,11 +38679,11 @@
       </c>
       <c r="O532" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P532" t="n">
-        <v>1400</v>
+        <v>3914</v>
       </c>
       <c r="Q532" t="n">
         <v>1</v>
@@ -38733,16 +38733,16 @@
         </is>
       </c>
       <c r="J533" t="n">
-        <v>3350</v>
+        <v>2000</v>
       </c>
       <c r="K533" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="L533" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M533" t="n">
-        <v>1979</v>
+        <v>1400</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38751,11 +38751,11 @@
       </c>
       <c r="O533" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P533" t="n">
-        <v>1979</v>
+        <v>1400</v>
       </c>
       <c r="Q533" t="n">
         <v>1</v>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44223</v>
+        <v>44172</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -38801,20 +38801,20 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J534" t="n">
+        <v>3350</v>
+      </c>
+      <c r="K534" t="n">
         <v>1800</v>
       </c>
-      <c r="K534" t="n">
-        <v>600</v>
-      </c>
       <c r="L534" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="M534" t="n">
-        <v>600</v>
+        <v>1979</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>600</v>
+        <v>1979</v>
       </c>
       <c r="Q534" t="n">
         <v>1</v>
@@ -38873,20 +38873,20 @@
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>5200</v>
+        <v>1800</v>
       </c>
       <c r="K535" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="L535" t="n">
-        <v>2200</v>
+        <v>600</v>
       </c>
       <c r="M535" t="n">
-        <v>2127</v>
+        <v>600</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38899,7 +38899,7 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>2127</v>
+        <v>600</v>
       </c>
       <c r="Q535" t="n">
         <v>1</v>
@@ -38945,20 +38945,20 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>7700</v>
+        <v>5200</v>
       </c>
       <c r="K536" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L536" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="M536" t="n">
-        <v>1594</v>
+        <v>2127</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>1594</v>
+        <v>2127</v>
       </c>
       <c r="Q536" t="n">
         <v>1</v>
@@ -39017,20 +39017,20 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>3700</v>
+        <v>7700</v>
       </c>
       <c r="K537" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="L537" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="M537" t="n">
-        <v>1281</v>
+        <v>1594</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39043,7 +39043,7 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>1281</v>
+        <v>1594</v>
       </c>
       <c r="Q537" t="n">
         <v>1</v>
@@ -39089,20 +39089,20 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>5500</v>
+        <v>3700</v>
       </c>
       <c r="K538" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="L538" t="n">
-        <v>2600</v>
+        <v>1400</v>
       </c>
       <c r="M538" t="n">
-        <v>2491</v>
+        <v>1281</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>2491</v>
+        <v>1281</v>
       </c>
       <c r="Q538" t="n">
         <v>1</v>
@@ -39161,20 +39161,20 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="K539" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="L539" t="n">
-        <v>1100</v>
+        <v>2600</v>
       </c>
       <c r="M539" t="n">
-        <v>1050</v>
+        <v>2491</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>1050</v>
+        <v>2491</v>
       </c>
       <c r="Q539" t="n">
         <v>1</v>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44187</v>
+        <v>44223</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -39233,20 +39233,20 @@
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J540" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="K540" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="L540" t="n">
-        <v>3000</v>
+        <v>1100</v>
       </c>
       <c r="M540" t="n">
-        <v>3000</v>
+        <v>1050</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39255,11 +39255,11 @@
       </c>
       <c r="O540" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P540" t="n">
-        <v>3000</v>
+        <v>1050</v>
       </c>
       <c r="Q540" t="n">
         <v>1</v>
@@ -39309,16 +39309,16 @@
         </is>
       </c>
       <c r="J541" t="n">
-        <v>5000</v>
+        <v>2600</v>
       </c>
       <c r="K541" t="n">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="L541" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="M541" t="n">
-        <v>3068</v>
+        <v>3000</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39327,11 +39327,11 @@
       </c>
       <c r="O541" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P541" t="n">
-        <v>3068</v>
+        <v>3000</v>
       </c>
       <c r="Q541" t="n">
         <v>1</v>
@@ -39377,20 +39377,20 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J542" t="n">
-        <v>4400</v>
+        <v>5000</v>
       </c>
       <c r="K542" t="n">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="L542" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="M542" t="n">
-        <v>2500</v>
+        <v>3068</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39399,11 +39399,11 @@
       </c>
       <c r="O542" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P542" t="n">
-        <v>2500</v>
+        <v>3068</v>
       </c>
       <c r="Q542" t="n">
         <v>1</v>
@@ -39453,16 +39453,16 @@
         </is>
       </c>
       <c r="J543" t="n">
-        <v>8300</v>
+        <v>4400</v>
       </c>
       <c r="K543" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L543" t="n">
         <v>2500</v>
       </c>
       <c r="M543" t="n">
-        <v>2394</v>
+        <v>2500</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39471,11 +39471,11 @@
       </c>
       <c r="O543" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P543" t="n">
-        <v>2394</v>
+        <v>2500</v>
       </c>
       <c r="Q543" t="n">
         <v>1</v>
@@ -39521,20 +39521,20 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>5000</v>
+        <v>8300</v>
       </c>
       <c r="K544" t="n">
-        <v>1700</v>
+        <v>2300</v>
       </c>
       <c r="L544" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M544" t="n">
-        <v>1814</v>
+        <v>2394</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39547,7 +39547,7 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>1814</v>
+        <v>2394</v>
       </c>
       <c r="Q544" t="n">
         <v>1</v>
@@ -39593,20 +39593,20 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J545" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="K545" t="n">
-        <v>3600</v>
+        <v>1700</v>
       </c>
       <c r="L545" t="n">
-        <v>3600</v>
+        <v>2000</v>
       </c>
       <c r="M545" t="n">
-        <v>3600</v>
+        <v>1814</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39615,11 +39615,11 @@
       </c>
       <c r="O545" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P545" t="n">
-        <v>3600</v>
+        <v>1814</v>
       </c>
       <c r="Q545" t="n">
         <v>1</v>
@@ -39669,16 +39669,16 @@
         </is>
       </c>
       <c r="J546" t="n">
-        <v>6300</v>
+        <v>3800</v>
       </c>
       <c r="K546" t="n">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="L546" t="n">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="M546" t="n">
-        <v>3571</v>
+        <v>3600</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39687,11 +39687,11 @@
       </c>
       <c r="O546" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P546" t="n">
-        <v>3571</v>
+        <v>3600</v>
       </c>
       <c r="Q546" t="n">
         <v>1</v>
@@ -39737,20 +39737,20 @@
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J547" t="n">
-        <v>4900</v>
+        <v>6300</v>
       </c>
       <c r="K547" t="n">
-        <v>1000</v>
+        <v>3400</v>
       </c>
       <c r="L547" t="n">
-        <v>1300</v>
+        <v>3700</v>
       </c>
       <c r="M547" t="n">
-        <v>1153</v>
+        <v>3571</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39763,7 +39763,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>1153</v>
+        <v>3571</v>
       </c>
       <c r="Q547" t="n">
         <v>1</v>
@@ -39789,7 +39789,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -39809,33 +39809,33 @@
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J548" t="n">
-        <v>6600</v>
+        <v>4900</v>
       </c>
       <c r="K548" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="L548" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="M548" t="n">
-        <v>870</v>
+        <v>1153</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O548" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P548" t="n">
-        <v>870</v>
+        <v>1153</v>
       </c>
       <c r="Q548" t="n">
         <v>1</v>
@@ -39861,7 +39861,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -39881,33 +39881,33 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>1800</v>
+        <v>6600</v>
       </c>
       <c r="K549" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="L549" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M549" t="n">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O549" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P549" t="n">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="Q549" t="n">
         <v>1</v>
@@ -39953,20 +39953,20 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J550" t="n">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="K550" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L550" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M550" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39979,7 +39979,7 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="Q550" t="n">
         <v>1</v>
@@ -40025,20 +40025,20 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="K551" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L551" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M551" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q551" t="n">
         <v>1</v>
@@ -40097,20 +40097,20 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="K552" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L552" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M552" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40123,7 +40123,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="Q552" t="n">
         <v>1</v>
@@ -40169,20 +40169,20 @@
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>2700</v>
+        <v>3800</v>
       </c>
       <c r="K553" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L553" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M553" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="Q553" t="n">
         <v>1</v>
@@ -40221,7 +40221,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -40241,20 +40241,20 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J554" t="n">
-        <v>4700</v>
+        <v>2700</v>
       </c>
       <c r="K554" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L554" t="n">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="M554" t="n">
-        <v>2085</v>
+        <v>1500</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40263,11 +40263,11 @@
       </c>
       <c r="O554" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P554" t="n">
-        <v>2085</v>
+        <v>1500</v>
       </c>
       <c r="Q554" t="n">
         <v>1</v>
@@ -40313,20 +40313,20 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J555" t="n">
-        <v>6700</v>
+        <v>4700</v>
       </c>
       <c r="K555" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L555" t="n">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="M555" t="n">
-        <v>1743</v>
+        <v>2085</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>1743</v>
+        <v>2085</v>
       </c>
       <c r="Q555" t="n">
         <v>1</v>
@@ -40385,20 +40385,20 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J556" t="n">
-        <v>4200</v>
+        <v>6700</v>
       </c>
       <c r="K556" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="L556" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="M556" t="n">
-        <v>1419</v>
+        <v>1743</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>1419</v>
+        <v>1743</v>
       </c>
       <c r="Q556" t="n">
         <v>1</v>
@@ -40457,20 +40457,20 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J557" t="n">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="K557" t="n">
-        <v>2300</v>
+        <v>1300</v>
       </c>
       <c r="L557" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="M557" t="n">
-        <v>2412</v>
+        <v>1419</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>2412</v>
+        <v>1419</v>
       </c>
       <c r="Q557" t="n">
         <v>1</v>
@@ -40529,20 +40529,20 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J558" t="n">
-        <v>3400</v>
+        <v>4300</v>
       </c>
       <c r="K558" t="n">
-        <v>1000</v>
+        <v>2300</v>
       </c>
       <c r="L558" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="M558" t="n">
-        <v>1129</v>
+        <v>2412</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>1129</v>
+        <v>2412</v>
       </c>
       <c r="Q558" t="n">
         <v>1</v>
@@ -40581,7 +40581,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -40601,20 +40601,20 @@
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J559" t="n">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="K559" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L559" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="M559" t="n">
-        <v>755</v>
+        <v>1129</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40627,7 +40627,7 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>755</v>
+        <v>1129</v>
       </c>
       <c r="Q559" t="n">
         <v>1</v>
@@ -40673,20 +40673,20 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J560" t="n">
-        <v>2200</v>
+        <v>3100</v>
       </c>
       <c r="K560" t="n">
-        <v>3000</v>
+        <v>700</v>
       </c>
       <c r="L560" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M560" t="n">
-        <v>3000</v>
+        <v>755</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40695,11 +40695,11 @@
       </c>
       <c r="O560" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P560" t="n">
-        <v>3000</v>
+        <v>755</v>
       </c>
       <c r="Q560" t="n">
         <v>1</v>
@@ -40749,16 +40749,16 @@
         </is>
       </c>
       <c r="J561" t="n">
-        <v>5700</v>
+        <v>2200</v>
       </c>
       <c r="K561" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="L561" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M561" t="n">
-        <v>2684</v>
+        <v>3000</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40767,11 +40767,11 @@
       </c>
       <c r="O561" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P561" t="n">
-        <v>2684</v>
+        <v>3000</v>
       </c>
       <c r="Q561" t="n">
         <v>1</v>
@@ -40817,20 +40817,20 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J562" t="n">
-        <v>3300</v>
+        <v>5700</v>
       </c>
       <c r="K562" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="L562" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="M562" t="n">
-        <v>2400</v>
+        <v>2684</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40839,11 +40839,11 @@
       </c>
       <c r="O562" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P562" t="n">
-        <v>2400</v>
+        <v>2684</v>
       </c>
       <c r="Q562" t="n">
         <v>1</v>
@@ -40893,16 +40893,16 @@
         </is>
       </c>
       <c r="J563" t="n">
-        <v>8200</v>
+        <v>3300</v>
       </c>
       <c r="K563" t="n">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="L563" t="n">
         <v>2400</v>
       </c>
       <c r="M563" t="n">
-        <v>2228</v>
+        <v>2400</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40911,11 +40911,11 @@
       </c>
       <c r="O563" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P563" t="n">
-        <v>2228</v>
+        <v>2400</v>
       </c>
       <c r="Q563" t="n">
         <v>1</v>
@@ -40961,20 +40961,20 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J564" t="n">
-        <v>5100</v>
+        <v>8200</v>
       </c>
       <c r="K564" t="n">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="L564" t="n">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="M564" t="n">
-        <v>1729</v>
+        <v>2228</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40987,7 +40987,7 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>1729</v>
+        <v>2228</v>
       </c>
       <c r="Q564" t="n">
         <v>1</v>
@@ -41033,20 +41033,20 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J565" t="n">
-        <v>2900</v>
+        <v>5100</v>
       </c>
       <c r="K565" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="L565" t="n">
-        <v>3500</v>
+        <v>1900</v>
       </c>
       <c r="M565" t="n">
-        <v>3500</v>
+        <v>1729</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41055,11 +41055,11 @@
       </c>
       <c r="O565" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P565" t="n">
-        <v>3500</v>
+        <v>1729</v>
       </c>
       <c r="Q565" t="n">
         <v>1</v>
@@ -41109,16 +41109,16 @@
         </is>
       </c>
       <c r="J566" t="n">
-        <v>7700</v>
+        <v>2900</v>
       </c>
       <c r="K566" t="n">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="L566" t="n">
         <v>3500</v>
       </c>
       <c r="M566" t="n">
-        <v>3329</v>
+        <v>3500</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41127,11 +41127,11 @@
       </c>
       <c r="O566" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P566" t="n">
-        <v>3329</v>
+        <v>3500</v>
       </c>
       <c r="Q566" t="n">
         <v>1</v>
@@ -41177,20 +41177,20 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J567" t="n">
-        <v>4200</v>
+        <v>7700</v>
       </c>
       <c r="K567" t="n">
-        <v>1100</v>
+        <v>3200</v>
       </c>
       <c r="L567" t="n">
-        <v>1400</v>
+        <v>3500</v>
       </c>
       <c r="M567" t="n">
-        <v>1279</v>
+        <v>3329</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>1279</v>
+        <v>3329</v>
       </c>
       <c r="Q567" t="n">
         <v>1</v>
@@ -41229,7 +41229,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -41249,20 +41249,20 @@
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J568" t="n">
-        <v>3600</v>
+        <v>4200</v>
       </c>
       <c r="K568" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="L568" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="M568" t="n">
-        <v>700</v>
+        <v>1279</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         </is>
       </c>
       <c r="P568" t="n">
-        <v>700</v>
+        <v>1279</v>
       </c>
       <c r="Q568" t="n">
         <v>1</v>
@@ -41321,20 +41321,20 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J569" t="n">
-        <v>3300</v>
+        <v>3600</v>
       </c>
       <c r="K569" t="n">
-        <v>2800</v>
+        <v>700</v>
       </c>
       <c r="L569" t="n">
-        <v>2800</v>
+        <v>700</v>
       </c>
       <c r="M569" t="n">
-        <v>2800</v>
+        <v>700</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41343,11 +41343,11 @@
       </c>
       <c r="O569" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P569" t="n">
-        <v>2800</v>
+        <v>700</v>
       </c>
       <c r="Q569" t="n">
         <v>1</v>
@@ -41397,16 +41397,16 @@
         </is>
       </c>
       <c r="J570" t="n">
-        <v>6500</v>
+        <v>3300</v>
       </c>
       <c r="K570" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="L570" t="n">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="M570" t="n">
-        <v>2786</v>
+        <v>2800</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41415,11 +41415,11 @@
       </c>
       <c r="O570" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P570" t="n">
-        <v>2786</v>
+        <v>2800</v>
       </c>
       <c r="Q570" t="n">
         <v>1</v>
@@ -41465,20 +41465,20 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>3800</v>
+        <v>6500</v>
       </c>
       <c r="K571" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="L571" t="n">
-        <v>2300</v>
+        <v>2900</v>
       </c>
       <c r="M571" t="n">
-        <v>2300</v>
+        <v>2786</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41487,11 +41487,11 @@
       </c>
       <c r="O571" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P571" t="n">
-        <v>2300</v>
+        <v>2786</v>
       </c>
       <c r="Q571" t="n">
         <v>1</v>
@@ -41541,16 +41541,16 @@
         </is>
       </c>
       <c r="J572" t="n">
-        <v>9300</v>
+        <v>3800</v>
       </c>
       <c r="K572" t="n">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="L572" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="M572" t="n">
-        <v>2242</v>
+        <v>2300</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41559,11 +41559,11 @@
       </c>
       <c r="O572" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P572" t="n">
-        <v>2242</v>
+        <v>2300</v>
       </c>
       <c r="Q572" t="n">
         <v>1</v>
@@ -41609,20 +41609,20 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>5100</v>
+        <v>9300</v>
       </c>
       <c r="K573" t="n">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="L573" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="M573" t="n">
-        <v>1659</v>
+        <v>2242</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41635,7 +41635,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>1659</v>
+        <v>2242</v>
       </c>
       <c r="Q573" t="n">
         <v>1</v>
@@ -41681,20 +41681,20 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>2900</v>
+        <v>5100</v>
       </c>
       <c r="K574" t="n">
-        <v>3300</v>
+        <v>1500</v>
       </c>
       <c r="L574" t="n">
-        <v>3300</v>
+        <v>1800</v>
       </c>
       <c r="M574" t="n">
-        <v>3300</v>
+        <v>1659</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41703,11 +41703,11 @@
       </c>
       <c r="O574" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P574" t="n">
-        <v>3300</v>
+        <v>1659</v>
       </c>
       <c r="Q574" t="n">
         <v>1</v>
@@ -41757,16 +41757,16 @@
         </is>
       </c>
       <c r="J575" t="n">
-        <v>6800</v>
+        <v>2900</v>
       </c>
       <c r="K575" t="n">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="L575" t="n">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="M575" t="n">
-        <v>3329</v>
+        <v>3300</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41775,11 +41775,11 @@
       </c>
       <c r="O575" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P575" t="n">
-        <v>3329</v>
+        <v>3300</v>
       </c>
       <c r="Q575" t="n">
         <v>1</v>
@@ -41825,38 +41825,110 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
+          <t>Super</t>
+        </is>
+      </c>
+      <c r="J576" t="n">
+        <v>6800</v>
+      </c>
+      <c r="K576" t="n">
+        <v>3100</v>
+      </c>
+      <c r="L576" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M576" t="n">
+        <v>3329</v>
+      </c>
+      <c r="N576" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O576" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P576" t="n">
+        <v>3329</v>
+      </c>
+      <c r="Q576" t="n">
+        <v>1</v>
+      </c>
+      <c r="R576" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>6</v>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D577" s="2" t="n">
+        <v>44193</v>
+      </c>
+      <c r="E577" t="n">
+        <v>13</v>
+      </c>
+      <c r="F577" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H577" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I577" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J576" t="n">
+      <c r="J577" t="n">
         <v>6100</v>
       </c>
-      <c r="K576" t="n">
+      <c r="K577" t="n">
         <v>1100</v>
       </c>
-      <c r="L576" t="n">
+      <c r="L577" t="n">
         <v>1400</v>
       </c>
-      <c r="M576" t="n">
+      <c r="M577" t="n">
         <v>1257</v>
       </c>
-      <c r="N576" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O576" t="inlineStr">
+      <c r="N577" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O577" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P576" t="n">
+      <c r="P577" t="n">
         <v>1257</v>
       </c>
-      <c r="Q576" t="n">
-        <v>1</v>
-      </c>
-      <c r="R576" t="inlineStr">
+      <c r="Q577" t="n">
+        <v>1</v>
+      </c>
+      <c r="R577" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R578"/>
+  <dimension ref="A1:R579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -38081,33 +38081,33 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>4400</v>
+        <v>8100</v>
       </c>
       <c r="K524" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="L524" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M524" t="n">
-        <v>918</v>
+        <v>572</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P524" t="n">
-        <v>918</v>
+        <v>572</v>
       </c>
       <c r="Q524" t="n">
         <v>1</v>
@@ -38157,16 +38157,16 @@
         </is>
       </c>
       <c r="J525" t="n">
-        <v>1760</v>
+        <v>4400</v>
       </c>
       <c r="K525" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="L525" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="M525" t="n">
-        <v>1470</v>
+        <v>918</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38175,11 +38175,11 @@
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P525" t="n">
-        <v>1470</v>
+        <v>918</v>
       </c>
       <c r="Q525" t="n">
         <v>1</v>
@@ -38225,20 +38225,20 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>2200</v>
+        <v>1760</v>
       </c>
       <c r="K526" t="n">
-        <v>2800</v>
+        <v>1300</v>
       </c>
       <c r="L526" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="M526" t="n">
-        <v>2891</v>
+        <v>1470</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38247,11 +38247,11 @@
       </c>
       <c r="O526" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P526" t="n">
-        <v>2891</v>
+        <v>1470</v>
       </c>
       <c r="Q526" t="n">
         <v>1</v>
@@ -38301,16 +38301,16 @@
         </is>
       </c>
       <c r="J527" t="n">
+        <v>2200</v>
+      </c>
+      <c r="K527" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L527" t="n">
         <v>3000</v>
       </c>
-      <c r="K527" t="n">
-        <v>3700</v>
-      </c>
-      <c r="L527" t="n">
-        <v>4000</v>
-      </c>
       <c r="M527" t="n">
-        <v>3820</v>
+        <v>2891</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38319,11 +38319,11 @@
       </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P527" t="n">
-        <v>3820</v>
+        <v>2891</v>
       </c>
       <c r="Q527" t="n">
         <v>1</v>
@@ -38369,20 +38369,20 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J528" t="n">
-        <v>4200</v>
+        <v>3000</v>
       </c>
       <c r="K528" t="n">
-        <v>2300</v>
+        <v>3700</v>
       </c>
       <c r="L528" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M528" t="n">
-        <v>2410</v>
+        <v>3820</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38391,11 +38391,11 @@
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P528" t="n">
-        <v>2410</v>
+        <v>3820</v>
       </c>
       <c r="Q528" t="n">
         <v>1</v>
@@ -38445,16 +38445,16 @@
         </is>
       </c>
       <c r="J529" t="n">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="K529" t="n">
-        <v>3300</v>
+        <v>2300</v>
       </c>
       <c r="L529" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M529" t="n">
-        <v>3388</v>
+        <v>2410</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38463,11 +38463,11 @@
       </c>
       <c r="O529" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P529" t="n">
-        <v>3388</v>
+        <v>2410</v>
       </c>
       <c r="Q529" t="n">
         <v>1</v>
@@ -38513,20 +38513,20 @@
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J530" t="n">
-        <v>2700</v>
+        <v>4100</v>
       </c>
       <c r="K530" t="n">
-        <v>1700</v>
+        <v>3300</v>
       </c>
       <c r="L530" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M530" t="n">
-        <v>1867</v>
+        <v>3388</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38535,11 +38535,11 @@
       </c>
       <c r="O530" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P530" t="n">
-        <v>1867</v>
+        <v>3388</v>
       </c>
       <c r="Q530" t="n">
         <v>1</v>
@@ -38589,16 +38589,16 @@
         </is>
       </c>
       <c r="J531" t="n">
-        <v>5900</v>
+        <v>2700</v>
       </c>
       <c r="K531" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="L531" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M531" t="n">
-        <v>2695</v>
+        <v>1867</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38607,11 +38607,11 @@
       </c>
       <c r="O531" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P531" t="n">
-        <v>2695</v>
+        <v>1867</v>
       </c>
       <c r="Q531" t="n">
         <v>1</v>
@@ -38657,20 +38657,20 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J532" t="n">
+        <v>5900</v>
+      </c>
+      <c r="K532" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L532" t="n">
         <v>3000</v>
       </c>
-      <c r="K532" t="n">
-        <v>3500</v>
-      </c>
-      <c r="L532" t="n">
-        <v>4000</v>
-      </c>
       <c r="M532" t="n">
-        <v>3700</v>
+        <v>2695</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38679,11 +38679,11 @@
       </c>
       <c r="O532" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P532" t="n">
-        <v>3700</v>
+        <v>2695</v>
       </c>
       <c r="Q532" t="n">
         <v>1</v>
@@ -38733,16 +38733,16 @@
         </is>
       </c>
       <c r="J533" t="n">
+        <v>3000</v>
+      </c>
+      <c r="K533" t="n">
         <v>3500</v>
-      </c>
-      <c r="K533" t="n">
-        <v>3800</v>
       </c>
       <c r="L533" t="n">
         <v>4000</v>
       </c>
       <c r="M533" t="n">
-        <v>3914</v>
+        <v>3700</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38751,11 +38751,11 @@
       </c>
       <c r="O533" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P533" t="n">
-        <v>3914</v>
+        <v>3700</v>
       </c>
       <c r="Q533" t="n">
         <v>1</v>
@@ -38801,20 +38801,20 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="K534" t="n">
-        <v>1300</v>
+        <v>3800</v>
       </c>
       <c r="L534" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="M534" t="n">
-        <v>1400</v>
+        <v>3914</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38823,11 +38823,11 @@
       </c>
       <c r="O534" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P534" t="n">
-        <v>1400</v>
+        <v>3914</v>
       </c>
       <c r="Q534" t="n">
         <v>1</v>
@@ -38877,16 +38877,16 @@
         </is>
       </c>
       <c r="J535" t="n">
-        <v>3350</v>
+        <v>2000</v>
       </c>
       <c r="K535" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="L535" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M535" t="n">
-        <v>1979</v>
+        <v>1400</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38895,11 +38895,11 @@
       </c>
       <c r="O535" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P535" t="n">
-        <v>1979</v>
+        <v>1400</v>
       </c>
       <c r="Q535" t="n">
         <v>1</v>
@@ -38925,7 +38925,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44223</v>
+        <v>44172</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -38945,20 +38945,20 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J536" t="n">
+        <v>3350</v>
+      </c>
+      <c r="K536" t="n">
         <v>1800</v>
       </c>
-      <c r="K536" t="n">
-        <v>600</v>
-      </c>
       <c r="L536" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="M536" t="n">
-        <v>600</v>
+        <v>1979</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>600</v>
+        <v>1979</v>
       </c>
       <c r="Q536" t="n">
         <v>1</v>
@@ -39017,20 +39017,20 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>5200</v>
+        <v>1800</v>
       </c>
       <c r="K537" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="L537" t="n">
-        <v>2200</v>
+        <v>600</v>
       </c>
       <c r="M537" t="n">
-        <v>2127</v>
+        <v>600</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39043,7 +39043,7 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>2127</v>
+        <v>600</v>
       </c>
       <c r="Q537" t="n">
         <v>1</v>
@@ -39089,20 +39089,20 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>7700</v>
+        <v>5200</v>
       </c>
       <c r="K538" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L538" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="M538" t="n">
-        <v>1594</v>
+        <v>2127</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>1594</v>
+        <v>2127</v>
       </c>
       <c r="Q538" t="n">
         <v>1</v>
@@ -39161,20 +39161,20 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>3700</v>
+        <v>7700</v>
       </c>
       <c r="K539" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="L539" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="M539" t="n">
-        <v>1281</v>
+        <v>1594</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>1281</v>
+        <v>1594</v>
       </c>
       <c r="Q539" t="n">
         <v>1</v>
@@ -39233,20 +39233,20 @@
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J540" t="n">
-        <v>5500</v>
+        <v>3700</v>
       </c>
       <c r="K540" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="L540" t="n">
-        <v>2600</v>
+        <v>1400</v>
       </c>
       <c r="M540" t="n">
-        <v>2491</v>
+        <v>1281</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>2491</v>
+        <v>1281</v>
       </c>
       <c r="Q540" t="n">
         <v>1</v>
@@ -39305,20 +39305,20 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J541" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="K541" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="L541" t="n">
-        <v>1100</v>
+        <v>2600</v>
       </c>
       <c r="M541" t="n">
-        <v>1050</v>
+        <v>2491</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>1050</v>
+        <v>2491</v>
       </c>
       <c r="Q541" t="n">
         <v>1</v>
@@ -39357,7 +39357,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44187</v>
+        <v>44223</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -39377,20 +39377,20 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J542" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="K542" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="L542" t="n">
-        <v>3000</v>
+        <v>1100</v>
       </c>
       <c r="M542" t="n">
-        <v>3000</v>
+        <v>1050</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39399,11 +39399,11 @@
       </c>
       <c r="O542" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P542" t="n">
-        <v>3000</v>
+        <v>1050</v>
       </c>
       <c r="Q542" t="n">
         <v>1</v>
@@ -39453,16 +39453,16 @@
         </is>
       </c>
       <c r="J543" t="n">
-        <v>5000</v>
+        <v>2600</v>
       </c>
       <c r="K543" t="n">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="L543" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="M543" t="n">
-        <v>3068</v>
+        <v>3000</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39471,11 +39471,11 @@
       </c>
       <c r="O543" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P543" t="n">
-        <v>3068</v>
+        <v>3000</v>
       </c>
       <c r="Q543" t="n">
         <v>1</v>
@@ -39521,20 +39521,20 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>4400</v>
+        <v>5000</v>
       </c>
       <c r="K544" t="n">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="L544" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="M544" t="n">
-        <v>2500</v>
+        <v>3068</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39543,11 +39543,11 @@
       </c>
       <c r="O544" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P544" t="n">
-        <v>2500</v>
+        <v>3068</v>
       </c>
       <c r="Q544" t="n">
         <v>1</v>
@@ -39597,16 +39597,16 @@
         </is>
       </c>
       <c r="J545" t="n">
-        <v>8300</v>
+        <v>4400</v>
       </c>
       <c r="K545" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L545" t="n">
         <v>2500</v>
       </c>
       <c r="M545" t="n">
-        <v>2394</v>
+        <v>2500</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39615,11 +39615,11 @@
       </c>
       <c r="O545" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P545" t="n">
-        <v>2394</v>
+        <v>2500</v>
       </c>
       <c r="Q545" t="n">
         <v>1</v>
@@ -39665,20 +39665,20 @@
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J546" t="n">
-        <v>5000</v>
+        <v>8300</v>
       </c>
       <c r="K546" t="n">
-        <v>1700</v>
+        <v>2300</v>
       </c>
       <c r="L546" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M546" t="n">
-        <v>1814</v>
+        <v>2394</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>1814</v>
+        <v>2394</v>
       </c>
       <c r="Q546" t="n">
         <v>1</v>
@@ -39737,20 +39737,20 @@
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J547" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="K547" t="n">
-        <v>3600</v>
+        <v>1700</v>
       </c>
       <c r="L547" t="n">
-        <v>3600</v>
+        <v>2000</v>
       </c>
       <c r="M547" t="n">
-        <v>3600</v>
+        <v>1814</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39759,11 +39759,11 @@
       </c>
       <c r="O547" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P547" t="n">
-        <v>3600</v>
+        <v>1814</v>
       </c>
       <c r="Q547" t="n">
         <v>1</v>
@@ -39813,16 +39813,16 @@
         </is>
       </c>
       <c r="J548" t="n">
-        <v>6300</v>
+        <v>3800</v>
       </c>
       <c r="K548" t="n">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="L548" t="n">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="M548" t="n">
-        <v>3571</v>
+        <v>3600</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39831,11 +39831,11 @@
       </c>
       <c r="O548" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P548" t="n">
-        <v>3571</v>
+        <v>3600</v>
       </c>
       <c r="Q548" t="n">
         <v>1</v>
@@ -39881,20 +39881,20 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>4900</v>
+        <v>6300</v>
       </c>
       <c r="K549" t="n">
-        <v>1000</v>
+        <v>3400</v>
       </c>
       <c r="L549" t="n">
-        <v>1300</v>
+        <v>3700</v>
       </c>
       <c r="M549" t="n">
-        <v>1153</v>
+        <v>3571</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39907,7 +39907,7 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>1153</v>
+        <v>3571</v>
       </c>
       <c r="Q549" t="n">
         <v>1</v>
@@ -39933,7 +39933,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -39953,33 +39953,33 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J550" t="n">
-        <v>6600</v>
+        <v>4900</v>
       </c>
       <c r="K550" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="L550" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="M550" t="n">
-        <v>870</v>
+        <v>1153</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O550" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P550" t="n">
-        <v>870</v>
+        <v>1153</v>
       </c>
       <c r="Q550" t="n">
         <v>1</v>
@@ -40005,7 +40005,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -40025,33 +40025,33 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>1800</v>
+        <v>6600</v>
       </c>
       <c r="K551" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="L551" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M551" t="n">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O551" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P551" t="n">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="Q551" t="n">
         <v>1</v>
@@ -40097,20 +40097,20 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="K552" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L552" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M552" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40123,7 +40123,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="Q552" t="n">
         <v>1</v>
@@ -40169,20 +40169,20 @@
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="K553" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L553" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M553" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q553" t="n">
         <v>1</v>
@@ -40241,20 +40241,20 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J554" t="n">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="K554" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L554" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M554" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         </is>
       </c>
       <c r="P554" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="Q554" t="n">
         <v>1</v>
@@ -40313,20 +40313,20 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J555" t="n">
-        <v>2700</v>
+        <v>3800</v>
       </c>
       <c r="K555" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L555" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M555" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="Q555" t="n">
         <v>1</v>
@@ -40365,7 +40365,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -40385,20 +40385,20 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J556" t="n">
-        <v>4700</v>
+        <v>2700</v>
       </c>
       <c r="K556" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L556" t="n">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="M556" t="n">
-        <v>2085</v>
+        <v>1500</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40407,11 +40407,11 @@
       </c>
       <c r="O556" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P556" t="n">
-        <v>2085</v>
+        <v>1500</v>
       </c>
       <c r="Q556" t="n">
         <v>1</v>
@@ -40457,20 +40457,20 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J557" t="n">
-        <v>6700</v>
+        <v>4700</v>
       </c>
       <c r="K557" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L557" t="n">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="M557" t="n">
-        <v>1743</v>
+        <v>2085</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>1743</v>
+        <v>2085</v>
       </c>
       <c r="Q557" t="n">
         <v>1</v>
@@ -40529,20 +40529,20 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J558" t="n">
-        <v>4200</v>
+        <v>6700</v>
       </c>
       <c r="K558" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="L558" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="M558" t="n">
-        <v>1419</v>
+        <v>1743</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>1419</v>
+        <v>1743</v>
       </c>
       <c r="Q558" t="n">
         <v>1</v>
@@ -40601,20 +40601,20 @@
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J559" t="n">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="K559" t="n">
-        <v>2300</v>
+        <v>1300</v>
       </c>
       <c r="L559" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="M559" t="n">
-        <v>2412</v>
+        <v>1419</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40627,7 +40627,7 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>2412</v>
+        <v>1419</v>
       </c>
       <c r="Q559" t="n">
         <v>1</v>
@@ -40673,20 +40673,20 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J560" t="n">
-        <v>3400</v>
+        <v>4300</v>
       </c>
       <c r="K560" t="n">
-        <v>1000</v>
+        <v>2300</v>
       </c>
       <c r="L560" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="M560" t="n">
-        <v>1129</v>
+        <v>2412</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40699,7 +40699,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>1129</v>
+        <v>2412</v>
       </c>
       <c r="Q560" t="n">
         <v>1</v>
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -40745,20 +40745,20 @@
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J561" t="n">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="K561" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L561" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="M561" t="n">
-        <v>755</v>
+        <v>1129</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>755</v>
+        <v>1129</v>
       </c>
       <c r="Q561" t="n">
         <v>1</v>
@@ -40817,20 +40817,20 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J562" t="n">
-        <v>2200</v>
+        <v>3100</v>
       </c>
       <c r="K562" t="n">
-        <v>3000</v>
+        <v>700</v>
       </c>
       <c r="L562" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M562" t="n">
-        <v>3000</v>
+        <v>755</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40839,11 +40839,11 @@
       </c>
       <c r="O562" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P562" t="n">
-        <v>3000</v>
+        <v>755</v>
       </c>
       <c r="Q562" t="n">
         <v>1</v>
@@ -40893,16 +40893,16 @@
         </is>
       </c>
       <c r="J563" t="n">
-        <v>5700</v>
+        <v>2200</v>
       </c>
       <c r="K563" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="L563" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M563" t="n">
-        <v>2684</v>
+        <v>3000</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40911,11 +40911,11 @@
       </c>
       <c r="O563" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P563" t="n">
-        <v>2684</v>
+        <v>3000</v>
       </c>
       <c r="Q563" t="n">
         <v>1</v>
@@ -40961,20 +40961,20 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J564" t="n">
-        <v>3300</v>
+        <v>5700</v>
       </c>
       <c r="K564" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="L564" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="M564" t="n">
-        <v>2400</v>
+        <v>2684</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40983,11 +40983,11 @@
       </c>
       <c r="O564" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P564" t="n">
-        <v>2400</v>
+        <v>2684</v>
       </c>
       <c r="Q564" t="n">
         <v>1</v>
@@ -41037,16 +41037,16 @@
         </is>
       </c>
       <c r="J565" t="n">
-        <v>8200</v>
+        <v>3300</v>
       </c>
       <c r="K565" t="n">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="L565" t="n">
         <v>2400</v>
       </c>
       <c r="M565" t="n">
-        <v>2228</v>
+        <v>2400</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41055,11 +41055,11 @@
       </c>
       <c r="O565" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P565" t="n">
-        <v>2228</v>
+        <v>2400</v>
       </c>
       <c r="Q565" t="n">
         <v>1</v>
@@ -41105,20 +41105,20 @@
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J566" t="n">
-        <v>5100</v>
+        <v>8200</v>
       </c>
       <c r="K566" t="n">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="L566" t="n">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="M566" t="n">
-        <v>1729</v>
+        <v>2228</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41131,7 +41131,7 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>1729</v>
+        <v>2228</v>
       </c>
       <c r="Q566" t="n">
         <v>1</v>
@@ -41177,20 +41177,20 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J567" t="n">
-        <v>2900</v>
+        <v>5100</v>
       </c>
       <c r="K567" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="L567" t="n">
-        <v>3500</v>
+        <v>1900</v>
       </c>
       <c r="M567" t="n">
-        <v>3500</v>
+        <v>1729</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41199,11 +41199,11 @@
       </c>
       <c r="O567" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P567" t="n">
-        <v>3500</v>
+        <v>1729</v>
       </c>
       <c r="Q567" t="n">
         <v>1</v>
@@ -41253,16 +41253,16 @@
         </is>
       </c>
       <c r="J568" t="n">
-        <v>7700</v>
+        <v>2900</v>
       </c>
       <c r="K568" t="n">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="L568" t="n">
         <v>3500</v>
       </c>
       <c r="M568" t="n">
-        <v>3329</v>
+        <v>3500</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41271,11 +41271,11 @@
       </c>
       <c r="O568" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P568" t="n">
-        <v>3329</v>
+        <v>3500</v>
       </c>
       <c r="Q568" t="n">
         <v>1</v>
@@ -41321,20 +41321,20 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J569" t="n">
-        <v>4200</v>
+        <v>7700</v>
       </c>
       <c r="K569" t="n">
-        <v>1100</v>
+        <v>3200</v>
       </c>
       <c r="L569" t="n">
-        <v>1400</v>
+        <v>3500</v>
       </c>
       <c r="M569" t="n">
-        <v>1279</v>
+        <v>3329</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
         </is>
       </c>
       <c r="P569" t="n">
-        <v>1279</v>
+        <v>3329</v>
       </c>
       <c r="Q569" t="n">
         <v>1</v>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -41393,20 +41393,20 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J570" t="n">
-        <v>3600</v>
+        <v>4200</v>
       </c>
       <c r="K570" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="L570" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="M570" t="n">
-        <v>700</v>
+        <v>1279</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>700</v>
+        <v>1279</v>
       </c>
       <c r="Q570" t="n">
         <v>1</v>
@@ -41465,20 +41465,20 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>3300</v>
+        <v>3600</v>
       </c>
       <c r="K571" t="n">
-        <v>2800</v>
+        <v>700</v>
       </c>
       <c r="L571" t="n">
-        <v>2800</v>
+        <v>700</v>
       </c>
       <c r="M571" t="n">
-        <v>2800</v>
+        <v>700</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41487,11 +41487,11 @@
       </c>
       <c r="O571" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P571" t="n">
-        <v>2800</v>
+        <v>700</v>
       </c>
       <c r="Q571" t="n">
         <v>1</v>
@@ -41541,16 +41541,16 @@
         </is>
       </c>
       <c r="J572" t="n">
-        <v>6500</v>
+        <v>3300</v>
       </c>
       <c r="K572" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="L572" t="n">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="M572" t="n">
-        <v>2786</v>
+        <v>2800</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41559,11 +41559,11 @@
       </c>
       <c r="O572" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P572" t="n">
-        <v>2786</v>
+        <v>2800</v>
       </c>
       <c r="Q572" t="n">
         <v>1</v>
@@ -41609,20 +41609,20 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>3800</v>
+        <v>6500</v>
       </c>
       <c r="K573" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="L573" t="n">
-        <v>2300</v>
+        <v>2900</v>
       </c>
       <c r="M573" t="n">
-        <v>2300</v>
+        <v>2786</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41631,11 +41631,11 @@
       </c>
       <c r="O573" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P573" t="n">
-        <v>2300</v>
+        <v>2786</v>
       </c>
       <c r="Q573" t="n">
         <v>1</v>
@@ -41685,16 +41685,16 @@
         </is>
       </c>
       <c r="J574" t="n">
-        <v>9300</v>
+        <v>3800</v>
       </c>
       <c r="K574" t="n">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="L574" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="M574" t="n">
-        <v>2242</v>
+        <v>2300</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41703,11 +41703,11 @@
       </c>
       <c r="O574" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P574" t="n">
-        <v>2242</v>
+        <v>2300</v>
       </c>
       <c r="Q574" t="n">
         <v>1</v>
@@ -41753,20 +41753,20 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>5100</v>
+        <v>9300</v>
       </c>
       <c r="K575" t="n">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="L575" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="M575" t="n">
-        <v>1659</v>
+        <v>2242</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41779,7 +41779,7 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>1659</v>
+        <v>2242</v>
       </c>
       <c r="Q575" t="n">
         <v>1</v>
@@ -41825,20 +41825,20 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>2900</v>
+        <v>5100</v>
       </c>
       <c r="K576" t="n">
-        <v>3300</v>
+        <v>1500</v>
       </c>
       <c r="L576" t="n">
-        <v>3300</v>
+        <v>1800</v>
       </c>
       <c r="M576" t="n">
-        <v>3300</v>
+        <v>1659</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41847,11 +41847,11 @@
       </c>
       <c r="O576" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P576" t="n">
-        <v>3300</v>
+        <v>1659</v>
       </c>
       <c r="Q576" t="n">
         <v>1</v>
@@ -41901,16 +41901,16 @@
         </is>
       </c>
       <c r="J577" t="n">
-        <v>6800</v>
+        <v>2900</v>
       </c>
       <c r="K577" t="n">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="L577" t="n">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="M577" t="n">
-        <v>3329</v>
+        <v>3300</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41919,11 +41919,11 @@
       </c>
       <c r="O577" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P577" t="n">
-        <v>3329</v>
+        <v>3300</v>
       </c>
       <c r="Q577" t="n">
         <v>1</v>
@@ -41969,38 +41969,110 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
+          <t>Super</t>
+        </is>
+      </c>
+      <c r="J578" t="n">
+        <v>6800</v>
+      </c>
+      <c r="K578" t="n">
+        <v>3100</v>
+      </c>
+      <c r="L578" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M578" t="n">
+        <v>3329</v>
+      </c>
+      <c r="N578" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O578" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P578" t="n">
+        <v>3329</v>
+      </c>
+      <c r="Q578" t="n">
+        <v>1</v>
+      </c>
+      <c r="R578" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>6</v>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D579" s="2" t="n">
+        <v>44193</v>
+      </c>
+      <c r="E579" t="n">
+        <v>13</v>
+      </c>
+      <c r="F579" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H579" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I579" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J578" t="n">
+      <c r="J579" t="n">
         <v>6100</v>
       </c>
-      <c r="K578" t="n">
+      <c r="K579" t="n">
         <v>1100</v>
       </c>
-      <c r="L578" t="n">
+      <c r="L579" t="n">
         <v>1400</v>
       </c>
-      <c r="M578" t="n">
+      <c r="M579" t="n">
         <v>1257</v>
       </c>
-      <c r="N578" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O578" t="inlineStr">
+      <c r="N579" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O579" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P578" t="n">
+      <c r="P579" t="n">
         <v>1257</v>
       </c>
-      <c r="Q578" t="n">
-        <v>1</v>
-      </c>
-      <c r="R578" t="inlineStr">
+      <c r="Q579" t="n">
+        <v>1</v>
+      </c>
+      <c r="R579" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R584"/>
+  <dimension ref="A1:R586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -37649,33 +37649,33 @@
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J518" t="n">
-        <v>4700</v>
+        <v>9700</v>
       </c>
       <c r="K518" t="n">
-        <v>2200</v>
+        <v>600</v>
       </c>
       <c r="L518" t="n">
-        <v>2400</v>
+        <v>650</v>
       </c>
       <c r="M518" t="n">
-        <v>2289</v>
+        <v>623</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O518" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P518" t="n">
-        <v>2289</v>
+        <v>623</v>
       </c>
       <c r="Q518" t="n">
         <v>1</v>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -37721,33 +37721,33 @@
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J519" t="n">
-        <v>6900</v>
+        <v>2900</v>
       </c>
       <c r="K519" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="L519" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="M519" t="n">
-        <v>1893</v>
+        <v>500</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O519" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P519" t="n">
-        <v>1893</v>
+        <v>500</v>
       </c>
       <c r="Q519" t="n">
         <v>1</v>
@@ -37793,20 +37793,20 @@
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J520" t="n">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="K520" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="L520" t="n">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="M520" t="n">
-        <v>1524</v>
+        <v>2289</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>1524</v>
+        <v>2289</v>
       </c>
       <c r="Q520" t="n">
         <v>1</v>
@@ -37865,20 +37865,20 @@
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J521" t="n">
-        <v>5400</v>
+        <v>6900</v>
       </c>
       <c r="K521" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L521" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M521" t="n">
-        <v>2639</v>
+        <v>1893</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>2639</v>
+        <v>1893</v>
       </c>
       <c r="Q521" t="n">
         <v>1</v>
@@ -37937,20 +37937,20 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J522" t="n">
-        <v>5700</v>
+        <v>4600</v>
       </c>
       <c r="K522" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="L522" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="M522" t="n">
-        <v>1116</v>
+        <v>1524</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>1116</v>
+        <v>1524</v>
       </c>
       <c r="Q522" t="n">
         <v>1</v>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -38009,33 +38009,33 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J523" t="n">
-        <v>11600</v>
+        <v>5400</v>
       </c>
       <c r="K523" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="L523" t="n">
-        <v>650</v>
+        <v>2800</v>
       </c>
       <c r="M523" t="n">
-        <v>624</v>
+        <v>2639</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P523" t="n">
-        <v>624</v>
+        <v>2639</v>
       </c>
       <c r="Q523" t="n">
         <v>1</v>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44168</v>
+        <v>44246</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -38081,33 +38081,33 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>3300</v>
+        <v>5700</v>
       </c>
       <c r="K524" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="L524" t="n">
-        <v>450</v>
+        <v>1300</v>
       </c>
       <c r="M524" t="n">
-        <v>450</v>
+        <v>1116</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P524" t="n">
-        <v>450</v>
+        <v>1116</v>
       </c>
       <c r="Q524" t="n">
         <v>1</v>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44168</v>
+        <v>44487</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -38153,33 +38153,33 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J525" t="n">
-        <v>5900</v>
+        <v>11600</v>
       </c>
       <c r="K525" t="n">
-        <v>2700</v>
+        <v>600</v>
       </c>
       <c r="L525" t="n">
-        <v>3000</v>
+        <v>650</v>
       </c>
       <c r="M525" t="n">
-        <v>2873</v>
+        <v>624</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P525" t="n">
-        <v>2873</v>
+        <v>624</v>
       </c>
       <c r="Q525" t="n">
         <v>1</v>
@@ -38225,20 +38225,20 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>4100</v>
+        <v>3300</v>
       </c>
       <c r="K526" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L526" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="M526" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="Q526" t="n">
         <v>1</v>
@@ -38297,20 +38297,20 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J527" t="n">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="K527" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="L527" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M527" t="n">
-        <v>2444</v>
+        <v>2873</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>2444</v>
+        <v>2873</v>
       </c>
       <c r="Q527" t="n">
         <v>1</v>
@@ -38369,20 +38369,20 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J528" t="n">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="K528" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L528" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M528" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q528" t="n">
         <v>1</v>
@@ -38441,20 +38441,20 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J529" t="n">
-        <v>4900</v>
+        <v>6100</v>
       </c>
       <c r="K529" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="L529" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M529" t="n">
-        <v>1914</v>
+        <v>2444</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>1914</v>
+        <v>2444</v>
       </c>
       <c r="Q529" t="n">
         <v>1</v>
@@ -38513,33 +38513,33 @@
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J530" t="n">
-        <v>5600</v>
+        <v>3800</v>
       </c>
       <c r="K530" t="n">
-        <v>3600</v>
+        <v>300</v>
       </c>
       <c r="L530" t="n">
-        <v>4000</v>
+        <v>300</v>
       </c>
       <c r="M530" t="n">
-        <v>3757</v>
+        <v>300</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O530" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P530" t="n">
-        <v>3757</v>
+        <v>300</v>
       </c>
       <c r="Q530" t="n">
         <v>1</v>
@@ -38585,20 +38585,20 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J531" t="n">
-        <v>3600</v>
+        <v>4900</v>
       </c>
       <c r="K531" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="L531" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M531" t="n">
-        <v>1422</v>
+        <v>1914</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>1422</v>
+        <v>1914</v>
       </c>
       <c r="Q531" t="n">
         <v>1</v>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -38657,20 +38657,20 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>2200</v>
+        <v>5600</v>
       </c>
       <c r="K532" t="n">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="L532" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="M532" t="n">
-        <v>3309</v>
+        <v>3757</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38679,11 +38679,11 @@
       </c>
       <c r="O532" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P532" t="n">
-        <v>3309</v>
+        <v>3757</v>
       </c>
       <c r="Q532" t="n">
         <v>1</v>
@@ -38709,7 +38709,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -38729,20 +38729,20 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>3100</v>
+        <v>3600</v>
       </c>
       <c r="K533" t="n">
-        <v>3300</v>
+        <v>1300</v>
       </c>
       <c r="L533" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M533" t="n">
-        <v>3390</v>
+        <v>1422</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>3390</v>
+        <v>1422</v>
       </c>
       <c r="Q533" t="n">
         <v>1</v>
@@ -38801,20 +38801,20 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>3800</v>
+        <v>2200</v>
       </c>
       <c r="K534" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="L534" t="n">
-        <v>2700</v>
+        <v>3400</v>
       </c>
       <c r="M534" t="n">
-        <v>2595</v>
+        <v>3309</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>2595</v>
+        <v>3309</v>
       </c>
       <c r="Q534" t="n">
         <v>1</v>
@@ -38873,20 +38873,20 @@
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>6000</v>
+        <v>3100</v>
       </c>
       <c r="K535" t="n">
-        <v>2700</v>
+        <v>3300</v>
       </c>
       <c r="L535" t="n">
-        <v>2900</v>
+        <v>3500</v>
       </c>
       <c r="M535" t="n">
-        <v>2810</v>
+        <v>3390</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38899,7 +38899,7 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>2810</v>
+        <v>3390</v>
       </c>
       <c r="Q535" t="n">
         <v>1</v>
@@ -38945,20 +38945,20 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="K536" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L536" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M536" t="n">
-        <v>2275</v>
+        <v>2595</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38967,11 +38967,11 @@
       </c>
       <c r="O536" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P536" t="n">
-        <v>2275</v>
+        <v>2595</v>
       </c>
       <c r="Q536" t="n">
         <v>1</v>
@@ -39017,20 +39017,20 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>1800</v>
+        <v>6000</v>
       </c>
       <c r="K537" t="n">
-        <v>3800</v>
+        <v>2700</v>
       </c>
       <c r="L537" t="n">
-        <v>4000</v>
+        <v>2900</v>
       </c>
       <c r="M537" t="n">
-        <v>3922</v>
+        <v>2810</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39039,11 +39039,11 @@
       </c>
       <c r="O537" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P537" t="n">
-        <v>3922</v>
+        <v>2810</v>
       </c>
       <c r="Q537" t="n">
         <v>1</v>
@@ -39089,20 +39089,20 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>2900</v>
+        <v>4000</v>
       </c>
       <c r="K538" t="n">
-        <v>3900</v>
+        <v>2200</v>
       </c>
       <c r="L538" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="M538" t="n">
-        <v>3945</v>
+        <v>2275</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>3945</v>
+        <v>2275</v>
       </c>
       <c r="Q538" t="n">
         <v>1</v>
@@ -39161,20 +39161,20 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="K539" t="n">
-        <v>1600</v>
+        <v>3800</v>
       </c>
       <c r="L539" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="M539" t="n">
-        <v>1673</v>
+        <v>3922</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39183,11 +39183,11 @@
       </c>
       <c r="O539" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P539" t="n">
-        <v>1673</v>
+        <v>3922</v>
       </c>
       <c r="Q539" t="n">
         <v>1</v>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44473</v>
+        <v>44175</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -39233,33 +39233,33 @@
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J540" t="n">
-        <v>7500</v>
+        <v>2900</v>
       </c>
       <c r="K540" t="n">
-        <v>700</v>
+        <v>3900</v>
       </c>
       <c r="L540" t="n">
-        <v>750</v>
+        <v>4000</v>
       </c>
       <c r="M540" t="n">
-        <v>721</v>
+        <v>3945</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O540" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P540" t="n">
-        <v>721</v>
+        <v>3945</v>
       </c>
       <c r="Q540" t="n">
         <v>1</v>
@@ -39285,7 +39285,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -39305,20 +39305,20 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J541" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K541" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="L541" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="M541" t="n">
-        <v>1000</v>
+        <v>1673</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39327,11 +39327,11 @@
       </c>
       <c r="O541" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P541" t="n">
-        <v>1000</v>
+        <v>1673</v>
       </c>
       <c r="Q541" t="n">
         <v>1</v>
@@ -39357,7 +39357,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44181</v>
+        <v>44473</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -39377,33 +39377,33 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J542" t="n">
-        <v>2800</v>
+        <v>7500</v>
       </c>
       <c r="K542" t="n">
-        <v>3000</v>
+        <v>700</v>
       </c>
       <c r="L542" t="n">
-        <v>3000</v>
+        <v>750</v>
       </c>
       <c r="M542" t="n">
-        <v>3000</v>
+        <v>721</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O542" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P542" t="n">
-        <v>3000</v>
+        <v>721</v>
       </c>
       <c r="Q542" t="n">
         <v>1</v>
@@ -39449,20 +39449,20 @@
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J543" t="n">
-        <v>6300</v>
+        <v>2200</v>
       </c>
       <c r="K543" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="L543" t="n">
-        <v>3300</v>
+        <v>1000</v>
       </c>
       <c r="M543" t="n">
-        <v>3119</v>
+        <v>1000</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>3119</v>
+        <v>1000</v>
       </c>
       <c r="Q543" t="n">
         <v>1</v>
@@ -39521,20 +39521,20 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>1900</v>
+        <v>2800</v>
       </c>
       <c r="K544" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L544" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M544" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39547,7 +39547,7 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q544" t="n">
         <v>1</v>
@@ -39593,20 +39593,20 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J545" t="n">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="K545" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L545" t="n">
-        <v>2700</v>
+        <v>3300</v>
       </c>
       <c r="M545" t="n">
-        <v>2592</v>
+        <v>3119</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39619,7 +39619,7 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>2592</v>
+        <v>3119</v>
       </c>
       <c r="Q545" t="n">
         <v>1</v>
@@ -39665,20 +39665,20 @@
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J546" t="n">
-        <v>4900</v>
+        <v>1900</v>
       </c>
       <c r="K546" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L546" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="M546" t="n">
-        <v>2208</v>
+        <v>2500</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39687,11 +39687,11 @@
       </c>
       <c r="O546" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P546" t="n">
-        <v>2208</v>
+        <v>2500</v>
       </c>
       <c r="Q546" t="n">
         <v>1</v>
@@ -39737,20 +39737,20 @@
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J547" t="n">
-        <v>2400</v>
+        <v>6500</v>
       </c>
       <c r="K547" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L547" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="M547" t="n">
-        <v>3500</v>
+        <v>2592</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39759,11 +39759,11 @@
       </c>
       <c r="O547" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P547" t="n">
-        <v>3500</v>
+        <v>2592</v>
       </c>
       <c r="Q547" t="n">
         <v>1</v>
@@ -39809,20 +39809,20 @@
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J548" t="n">
-        <v>6000</v>
+        <v>4900</v>
       </c>
       <c r="K548" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L548" t="n">
-        <v>3800</v>
+        <v>2300</v>
       </c>
       <c r="M548" t="n">
-        <v>3635</v>
+        <v>2208</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>3635</v>
+        <v>2208</v>
       </c>
       <c r="Q548" t="n">
         <v>1</v>
@@ -39881,20 +39881,20 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="K549" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="L549" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="M549" t="n">
-        <v>1672</v>
+        <v>3500</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39903,11 +39903,11 @@
       </c>
       <c r="O549" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P549" t="n">
-        <v>1672</v>
+        <v>3500</v>
       </c>
       <c r="Q549" t="n">
         <v>1</v>
@@ -39933,7 +39933,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -39953,33 +39953,33 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J550" t="n">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="K550" t="n">
-        <v>550</v>
+        <v>3500</v>
       </c>
       <c r="L550" t="n">
-        <v>600</v>
+        <v>3800</v>
       </c>
       <c r="M550" t="n">
-        <v>573</v>
+        <v>3635</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O550" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P550" t="n">
-        <v>573</v>
+        <v>3635</v>
       </c>
       <c r="Q550" t="n">
         <v>1</v>
@@ -40005,7 +40005,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44270</v>
+        <v>44181</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -40025,20 +40025,20 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J551" t="n">
+        <v>4000</v>
+      </c>
+      <c r="K551" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L551" t="n">
         <v>1800</v>
       </c>
-      <c r="K551" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L551" t="n">
-        <v>1000</v>
-      </c>
       <c r="M551" t="n">
-        <v>1000</v>
+        <v>1672</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>1000</v>
+        <v>1672</v>
       </c>
       <c r="Q551" t="n">
         <v>1</v>
@@ -40077,7 +40077,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44270</v>
+        <v>44494</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -40097,33 +40097,33 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>2300</v>
+        <v>6100</v>
       </c>
       <c r="K552" t="n">
-        <v>2500</v>
+        <v>550</v>
       </c>
       <c r="L552" t="n">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="M552" t="n">
-        <v>2500</v>
+        <v>573</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O552" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P552" t="n">
-        <v>2500</v>
+        <v>573</v>
       </c>
       <c r="Q552" t="n">
         <v>1</v>
@@ -40169,20 +40169,20 @@
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="K553" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L553" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M553" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q553" t="n">
         <v>1</v>
@@ -40241,20 +40241,20 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J554" t="n">
-        <v>3800</v>
+        <v>2300</v>
       </c>
       <c r="K554" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="L554" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="M554" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         </is>
       </c>
       <c r="P554" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="Q554" t="n">
         <v>1</v>
@@ -40313,20 +40313,20 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J555" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="K555" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L555" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M555" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="Q555" t="n">
         <v>1</v>
@@ -40365,7 +40365,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -40385,20 +40385,20 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J556" t="n">
-        <v>1500</v>
+        <v>3800</v>
       </c>
       <c r="K556" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="L556" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="M556" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40407,11 +40407,11 @@
       </c>
       <c r="O556" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P556" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="Q556" t="n">
         <v>1</v>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -40457,20 +40457,20 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J557" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="K557" t="n">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="L557" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="M557" t="n">
-        <v>2314</v>
+        <v>1500</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>2314</v>
+        <v>1500</v>
       </c>
       <c r="Q557" t="n">
         <v>1</v>
@@ -40529,20 +40529,20 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J558" t="n">
-        <v>5200</v>
+        <v>1500</v>
       </c>
       <c r="K558" t="n">
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="L558" t="n">
-        <v>2600</v>
+        <v>800</v>
       </c>
       <c r="M558" t="n">
-        <v>2496</v>
+        <v>800</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>2496</v>
+        <v>800</v>
       </c>
       <c r="Q558" t="n">
         <v>1</v>
@@ -40605,16 +40605,16 @@
         </is>
       </c>
       <c r="J559" t="n">
+        <v>3500</v>
+      </c>
+      <c r="K559" t="n">
         <v>2200</v>
       </c>
-      <c r="K559" t="n">
-        <v>2500</v>
-      </c>
       <c r="L559" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="M559" t="n">
-        <v>2500</v>
+        <v>2314</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40623,11 +40623,11 @@
       </c>
       <c r="O559" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P559" t="n">
-        <v>2500</v>
+        <v>2314</v>
       </c>
       <c r="Q559" t="n">
         <v>1</v>
@@ -40673,20 +40673,20 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J560" t="n">
-        <v>4600</v>
+        <v>5200</v>
       </c>
       <c r="K560" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="L560" t="n">
-        <v>1900</v>
+        <v>2600</v>
       </c>
       <c r="M560" t="n">
-        <v>1850</v>
+        <v>2496</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40695,11 +40695,11 @@
       </c>
       <c r="O560" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P560" t="n">
-        <v>1850</v>
+        <v>2496</v>
       </c>
       <c r="Q560" t="n">
         <v>1</v>
@@ -40745,20 +40745,20 @@
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J561" t="n">
-        <v>9000</v>
+        <v>2200</v>
       </c>
       <c r="K561" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="L561" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="M561" t="n">
-        <v>1998</v>
+        <v>2500</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40767,11 +40767,11 @@
       </c>
       <c r="O561" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P561" t="n">
-        <v>1998</v>
+        <v>2500</v>
       </c>
       <c r="Q561" t="n">
         <v>1</v>
@@ -40821,16 +40821,16 @@
         </is>
       </c>
       <c r="J562" t="n">
-        <v>2500</v>
+        <v>4600</v>
       </c>
       <c r="K562" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L562" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="M562" t="n">
-        <v>2000</v>
+        <v>1850</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40839,11 +40839,11 @@
       </c>
       <c r="O562" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P562" t="n">
-        <v>2000</v>
+        <v>1850</v>
       </c>
       <c r="Q562" t="n">
         <v>1</v>
@@ -40889,20 +40889,20 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J563" t="n">
-        <v>4700</v>
+        <v>9000</v>
       </c>
       <c r="K563" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="L563" t="n">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="M563" t="n">
-        <v>1581</v>
+        <v>1998</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>1581</v>
+        <v>1998</v>
       </c>
       <c r="Q563" t="n">
         <v>1</v>
@@ -40961,20 +40961,20 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J564" t="n">
-        <v>4400</v>
+        <v>2500</v>
       </c>
       <c r="K564" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="L564" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="M564" t="n">
-        <v>2657</v>
+        <v>2000</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40983,11 +40983,11 @@
       </c>
       <c r="O564" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P564" t="n">
-        <v>2657</v>
+        <v>2000</v>
       </c>
       <c r="Q564" t="n">
         <v>1</v>
@@ -41033,20 +41033,20 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J565" t="n">
-        <v>7800</v>
+        <v>4700</v>
       </c>
       <c r="K565" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="L565" t="n">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="M565" t="n">
-        <v>2900</v>
+        <v>1581</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         </is>
       </c>
       <c r="P565" t="n">
-        <v>2900</v>
+        <v>1581</v>
       </c>
       <c r="Q565" t="n">
         <v>1</v>
@@ -41109,16 +41109,16 @@
         </is>
       </c>
       <c r="J566" t="n">
-        <v>3500</v>
+        <v>4400</v>
       </c>
       <c r="K566" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="L566" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="M566" t="n">
-        <v>2800</v>
+        <v>2657</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41127,11 +41127,11 @@
       </c>
       <c r="O566" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P566" t="n">
-        <v>2800</v>
+        <v>2657</v>
       </c>
       <c r="Q566" t="n">
         <v>1</v>
@@ -41177,20 +41177,20 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J567" t="n">
-        <v>4700</v>
+        <v>7800</v>
       </c>
       <c r="K567" t="n">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="L567" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="M567" t="n">
-        <v>1140</v>
+        <v>2900</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>1140</v>
+        <v>2900</v>
       </c>
       <c r="Q567" t="n">
         <v>1</v>
@@ -41229,7 +41229,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -41249,20 +41249,20 @@
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J568" t="n">
-        <v>2200</v>
+        <v>3500</v>
       </c>
       <c r="K568" t="n">
-        <v>700</v>
+        <v>2800</v>
       </c>
       <c r="L568" t="n">
-        <v>700</v>
+        <v>2800</v>
       </c>
       <c r="M568" t="n">
-        <v>700</v>
+        <v>2800</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41271,11 +41271,11 @@
       </c>
       <c r="O568" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P568" t="n">
-        <v>700</v>
+        <v>2800</v>
       </c>
       <c r="Q568" t="n">
         <v>1</v>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -41321,20 +41321,20 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J569" t="n">
-        <v>5800</v>
+        <v>4700</v>
       </c>
       <c r="K569" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L569" t="n">
-        <v>2300</v>
+        <v>1300</v>
       </c>
       <c r="M569" t="n">
-        <v>2129</v>
+        <v>1140</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
         </is>
       </c>
       <c r="P569" t="n">
-        <v>2129</v>
+        <v>1140</v>
       </c>
       <c r="Q569" t="n">
         <v>1</v>
@@ -41393,20 +41393,20 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J570" t="n">
-        <v>7400</v>
+        <v>2200</v>
       </c>
       <c r="K570" t="n">
-        <v>1700</v>
+        <v>700</v>
       </c>
       <c r="L570" t="n">
-        <v>1900</v>
+        <v>700</v>
       </c>
       <c r="M570" t="n">
-        <v>1792</v>
+        <v>700</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>1792</v>
+        <v>700</v>
       </c>
       <c r="Q570" t="n">
         <v>1</v>
@@ -41465,20 +41465,20 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>4600</v>
+        <v>5800</v>
       </c>
       <c r="K571" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="L571" t="n">
-        <v>1600</v>
+        <v>2300</v>
       </c>
       <c r="M571" t="n">
-        <v>1517</v>
+        <v>2129</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41491,7 +41491,7 @@
         </is>
       </c>
       <c r="P571" t="n">
-        <v>1517</v>
+        <v>2129</v>
       </c>
       <c r="Q571" t="n">
         <v>1</v>
@@ -41537,20 +41537,20 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>5700</v>
+        <v>7400</v>
       </c>
       <c r="K572" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="L572" t="n">
-        <v>2700</v>
+        <v>1900</v>
       </c>
       <c r="M572" t="n">
-        <v>2602</v>
+        <v>1792</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41563,7 +41563,7 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>2602</v>
+        <v>1792</v>
       </c>
       <c r="Q572" t="n">
         <v>1</v>
@@ -41609,20 +41609,20 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="K573" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="L573" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="M573" t="n">
-        <v>1147</v>
+        <v>1517</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41635,7 +41635,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>1147</v>
+        <v>1517</v>
       </c>
       <c r="Q573" t="n">
         <v>1</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -41681,20 +41681,20 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>1400</v>
+        <v>5700</v>
       </c>
       <c r="K574" t="n">
-        <v>700</v>
+        <v>2500</v>
       </c>
       <c r="L574" t="n">
-        <v>700</v>
+        <v>2700</v>
       </c>
       <c r="M574" t="n">
-        <v>700</v>
+        <v>2602</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41703,11 +41703,11 @@
       </c>
       <c r="O574" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P574" t="n">
-        <v>700</v>
+        <v>2602</v>
       </c>
       <c r="Q574" t="n">
         <v>1</v>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -41753,20 +41753,20 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>2400</v>
+        <v>4700</v>
       </c>
       <c r="K575" t="n">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="L575" t="n">
-        <v>2200</v>
+        <v>1300</v>
       </c>
       <c r="M575" t="n">
-        <v>2200</v>
+        <v>1147</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41775,11 +41775,11 @@
       </c>
       <c r="O575" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P575" t="n">
-        <v>2200</v>
+        <v>1147</v>
       </c>
       <c r="Q575" t="n">
         <v>1</v>
@@ -41825,20 +41825,20 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>3200</v>
+        <v>1400</v>
       </c>
       <c r="K576" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="L576" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="M576" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="Q576" t="n">
         <v>1</v>
@@ -41897,20 +41897,20 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="K577" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="L577" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="M577" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41923,7 +41923,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="Q577" t="n">
         <v>1</v>
@@ -41969,20 +41969,20 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>1900</v>
+        <v>3200</v>
       </c>
       <c r="K578" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="L578" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="M578" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="Q578" t="n">
         <v>1</v>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -42041,20 +42041,20 @@
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>4000</v>
+        <v>1700</v>
       </c>
       <c r="K579" t="n">
-        <v>3500</v>
+        <v>1400</v>
       </c>
       <c r="L579" t="n">
-        <v>3800</v>
+        <v>1400</v>
       </c>
       <c r="M579" t="n">
-        <v>3665</v>
+        <v>1400</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42063,11 +42063,11 @@
       </c>
       <c r="O579" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P579" t="n">
-        <v>3665</v>
+        <v>1400</v>
       </c>
       <c r="Q579" t="n">
         <v>1</v>
@@ -42093,7 +42093,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -42113,20 +42113,20 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J580" t="n">
-        <v>5300</v>
+        <v>1900</v>
       </c>
       <c r="K580" t="n">
-        <v>2900</v>
+        <v>1100</v>
       </c>
       <c r="L580" t="n">
-        <v>3200</v>
+        <v>1100</v>
       </c>
       <c r="M580" t="n">
-        <v>3036</v>
+        <v>1100</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42135,11 +42135,11 @@
       </c>
       <c r="O580" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P580" t="n">
-        <v>3036</v>
+        <v>1100</v>
       </c>
       <c r="Q580" t="n">
         <v>1</v>
@@ -42185,20 +42185,20 @@
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J581" t="n">
         <v>4000</v>
       </c>
       <c r="K581" t="n">
-        <v>2200</v>
+        <v>3500</v>
       </c>
       <c r="L581" t="n">
-        <v>2400</v>
+        <v>3800</v>
       </c>
       <c r="M581" t="n">
-        <v>2315</v>
+        <v>3665</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         </is>
       </c>
       <c r="P581" t="n">
-        <v>2315</v>
+        <v>3665</v>
       </c>
       <c r="Q581" t="n">
         <v>1</v>
@@ -42257,20 +42257,20 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J582" t="n">
-        <v>2800</v>
+        <v>5300</v>
       </c>
       <c r="K582" t="n">
-        <v>4000</v>
+        <v>2900</v>
       </c>
       <c r="L582" t="n">
-        <v>4300</v>
+        <v>3200</v>
       </c>
       <c r="M582" t="n">
-        <v>4182</v>
+        <v>3036</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42283,7 +42283,7 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>4182</v>
+        <v>3036</v>
       </c>
       <c r="Q582" t="n">
         <v>1</v>
@@ -42329,20 +42329,20 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J583" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="K583" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="L583" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M583" t="n">
-        <v>1788</v>
+        <v>2315</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>1788</v>
+        <v>2315</v>
       </c>
       <c r="Q583" t="n">
         <v>1</v>
@@ -42381,58 +42381,202 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E584" t="n">
+        <v>13</v>
+      </c>
+      <c r="F584" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I584" t="inlineStr">
+        <is>
+          <t>Super</t>
+        </is>
+      </c>
+      <c r="J584" t="n">
+        <v>2800</v>
+      </c>
+      <c r="K584" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L584" t="n">
+        <v>4300</v>
+      </c>
+      <c r="M584" t="n">
+        <v>4182</v>
+      </c>
+      <c r="N584" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O584" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P584" t="n">
+        <v>4182</v>
+      </c>
+      <c r="Q584" t="n">
+        <v>1</v>
+      </c>
+      <c r="R584" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>6</v>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D585" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E585" t="n">
+        <v>13</v>
+      </c>
+      <c r="F585" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G585" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I585" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J585" t="n">
+        <v>2600</v>
+      </c>
+      <c r="K585" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L585" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M585" t="n">
+        <v>1788</v>
+      </c>
+      <c r="N585" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O585" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P585" t="n">
+        <v>1788</v>
+      </c>
+      <c r="Q585" t="n">
+        <v>1</v>
+      </c>
+      <c r="R585" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>6</v>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D586" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E584" t="n">
-        <v>13</v>
-      </c>
-      <c r="F584" t="n">
-        <v>100112028</v>
-      </c>
-      <c r="G584" t="inlineStr">
-        <is>
-          <t>Sandia</t>
-        </is>
-      </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I584" t="inlineStr">
+      <c r="E586" t="n">
+        <v>13</v>
+      </c>
+      <c r="F586" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I586" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J584" t="n">
+      <c r="J586" t="n">
         <v>8100</v>
       </c>
-      <c r="K584" t="n">
+      <c r="K586" t="n">
         <v>550</v>
       </c>
-      <c r="L584" t="n">
+      <c r="L586" t="n">
         <v>600</v>
       </c>
-      <c r="M584" t="n">
+      <c r="M586" t="n">
         <v>572</v>
       </c>
-      <c r="N584" t="inlineStr">
+      <c r="N586" t="inlineStr">
         <is>
           <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
-      <c r="O584" t="inlineStr">
+      <c r="O586" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="P584" t="n">
+      <c r="P586" t="n">
         <v>572</v>
       </c>
-      <c r="Q584" t="n">
-        <v>1</v>
-      </c>
-      <c r="R584" t="inlineStr">
+      <c r="Q586" t="n">
+        <v>1</v>
+      </c>
+      <c r="R586" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R586"/>
+  <dimension ref="A1:R587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44211</v>
+        <v>44508</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -35705,33 +35705,33 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J491" t="n">
-        <v>800</v>
+        <v>4500</v>
       </c>
       <c r="K491" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L491" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M491" t="n">
-        <v>800</v>
+        <v>671</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P491" t="n">
-        <v>800</v>
+        <v>671</v>
       </c>
       <c r="Q491" t="n">
         <v>1</v>
@@ -35781,16 +35781,16 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>1260</v>
+        <v>800</v>
       </c>
       <c r="K492" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L492" t="n">
         <v>800</v>
       </c>
       <c r="M492" t="n">
-        <v>744</v>
+        <v>800</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35799,11 +35799,11 @@
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P492" t="n">
-        <v>744</v>
+        <v>800</v>
       </c>
       <c r="Q492" t="n">
         <v>1</v>
@@ -35849,20 +35849,20 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J493" t="n">
-        <v>2310</v>
+        <v>1260</v>
       </c>
       <c r="K493" t="n">
-        <v>2200</v>
+        <v>700</v>
       </c>
       <c r="L493" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M493" t="n">
-        <v>2325</v>
+        <v>744</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35871,11 +35871,11 @@
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P493" t="n">
-        <v>2325</v>
+        <v>744</v>
       </c>
       <c r="Q493" t="n">
         <v>1</v>
@@ -35925,16 +35925,16 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>2400</v>
+        <v>2310</v>
       </c>
       <c r="K494" t="n">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="L494" t="n">
         <v>2500</v>
       </c>
       <c r="M494" t="n">
-        <v>2408</v>
+        <v>2325</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35943,11 +35943,11 @@
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P494" t="n">
-        <v>2408</v>
+        <v>2325</v>
       </c>
       <c r="Q494" t="n">
         <v>1</v>
@@ -35993,20 +35993,20 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J495" t="n">
-        <v>3450</v>
+        <v>2400</v>
       </c>
       <c r="K495" t="n">
-        <v>1700</v>
+        <v>2300</v>
       </c>
       <c r="L495" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M495" t="n">
-        <v>1842</v>
+        <v>2408</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36015,11 +36015,11 @@
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P495" t="n">
-        <v>1842</v>
+        <v>2408</v>
       </c>
       <c r="Q495" t="n">
         <v>1</v>
@@ -36069,16 +36069,16 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>2750</v>
+        <v>3450</v>
       </c>
       <c r="K496" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="L496" t="n">
         <v>2000</v>
       </c>
       <c r="M496" t="n">
-        <v>1898</v>
+        <v>1842</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36087,11 +36087,11 @@
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P496" t="n">
-        <v>1898</v>
+        <v>1842</v>
       </c>
       <c r="Q496" t="n">
         <v>1</v>
@@ -36137,20 +36137,20 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J497" t="n">
-        <v>890</v>
+        <v>2750</v>
       </c>
       <c r="K497" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L497" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M497" t="n">
-        <v>1500</v>
+        <v>1898</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36159,11 +36159,11 @@
       </c>
       <c r="O497" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P497" t="n">
-        <v>1500</v>
+        <v>1898</v>
       </c>
       <c r="Q497" t="n">
         <v>1</v>
@@ -36213,16 +36213,16 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>2380</v>
+        <v>890</v>
       </c>
       <c r="K498" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L498" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="M498" t="n">
-        <v>1482</v>
+        <v>1500</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36231,11 +36231,11 @@
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P498" t="n">
-        <v>1482</v>
+        <v>1500</v>
       </c>
       <c r="Q498" t="n">
         <v>1</v>
@@ -36281,20 +36281,20 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J499" t="n">
-        <v>1160</v>
+        <v>2380</v>
       </c>
       <c r="K499" t="n">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="L499" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="M499" t="n">
-        <v>2919</v>
+        <v>1482</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36303,11 +36303,11 @@
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P499" t="n">
-        <v>2919</v>
+        <v>1482</v>
       </c>
       <c r="Q499" t="n">
         <v>1</v>
@@ -36357,16 +36357,16 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>1800</v>
+        <v>1160</v>
       </c>
       <c r="K500" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="L500" t="n">
         <v>3000</v>
       </c>
       <c r="M500" t="n">
-        <v>2867</v>
+        <v>2919</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36375,11 +36375,11 @@
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P500" t="n">
-        <v>2867</v>
+        <v>2919</v>
       </c>
       <c r="Q500" t="n">
         <v>1</v>
@@ -36425,20 +36425,20 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J501" t="n">
-        <v>1810</v>
+        <v>1800</v>
       </c>
       <c r="K501" t="n">
-        <v>1000</v>
+        <v>2700</v>
       </c>
       <c r="L501" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="M501" t="n">
-        <v>1093</v>
+        <v>2867</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36447,11 +36447,11 @@
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P501" t="n">
-        <v>1093</v>
+        <v>2867</v>
       </c>
       <c r="Q501" t="n">
         <v>1</v>
@@ -36501,7 +36501,7 @@
         </is>
       </c>
       <c r="J502" t="n">
-        <v>1450</v>
+        <v>1810</v>
       </c>
       <c r="K502" t="n">
         <v>1000</v>
@@ -36510,7 +36510,7 @@
         <v>1200</v>
       </c>
       <c r="M502" t="n">
-        <v>1106</v>
+        <v>1093</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36519,11 +36519,11 @@
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P502" t="n">
-        <v>1106</v>
+        <v>1093</v>
       </c>
       <c r="Q502" t="n">
         <v>1</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -36569,33 +36569,33 @@
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J503" t="n">
-        <v>6300</v>
+        <v>1450</v>
       </c>
       <c r="K503" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L503" t="n">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="M503" t="n">
-        <v>731</v>
+        <v>1106</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P503" t="n">
-        <v>731</v>
+        <v>1106</v>
       </c>
       <c r="Q503" t="n">
         <v>1</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -36641,33 +36641,33 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J504" t="n">
-        <v>1500</v>
+        <v>6300</v>
       </c>
       <c r="K504" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L504" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="M504" t="n">
-        <v>800</v>
+        <v>731</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P504" t="n">
-        <v>800</v>
+        <v>731</v>
       </c>
       <c r="Q504" t="n">
         <v>1</v>
@@ -36713,20 +36713,20 @@
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J505" t="n">
-        <v>4400</v>
+        <v>1500</v>
       </c>
       <c r="K505" t="n">
-        <v>2300</v>
+        <v>800</v>
       </c>
       <c r="L505" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M505" t="n">
-        <v>2414</v>
+        <v>800</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>2414</v>
+        <v>800</v>
       </c>
       <c r="Q505" t="n">
         <v>1</v>
@@ -36789,16 +36789,16 @@
         </is>
       </c>
       <c r="J506" t="n">
-        <v>2200</v>
+        <v>4400</v>
       </c>
       <c r="K506" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="L506" t="n">
         <v>2500</v>
       </c>
       <c r="M506" t="n">
-        <v>2500</v>
+        <v>2414</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36807,11 +36807,11 @@
       </c>
       <c r="O506" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P506" t="n">
-        <v>2500</v>
+        <v>2414</v>
       </c>
       <c r="Q506" t="n">
         <v>1</v>
@@ -36857,20 +36857,20 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J507" t="n">
-        <v>6600</v>
+        <v>2200</v>
       </c>
       <c r="K507" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L507" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M507" t="n">
-        <v>1906</v>
+        <v>2500</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36879,11 +36879,11 @@
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P507" t="n">
-        <v>1906</v>
+        <v>2500</v>
       </c>
       <c r="Q507" t="n">
         <v>1</v>
@@ -36933,16 +36933,16 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>3000</v>
+        <v>6600</v>
       </c>
       <c r="K508" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L508" t="n">
         <v>2000</v>
       </c>
       <c r="M508" t="n">
-        <v>2000</v>
+        <v>1906</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36951,11 +36951,11 @@
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P508" t="n">
-        <v>2000</v>
+        <v>1906</v>
       </c>
       <c r="Q508" t="n">
         <v>1</v>
@@ -37001,20 +37001,20 @@
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J509" t="n">
-        <v>4100</v>
+        <v>3000</v>
       </c>
       <c r="K509" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="L509" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M509" t="n">
-        <v>1507</v>
+        <v>2000</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37023,11 +37023,11 @@
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P509" t="n">
-        <v>1507</v>
+        <v>2000</v>
       </c>
       <c r="Q509" t="n">
         <v>1</v>
@@ -37073,20 +37073,20 @@
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J510" t="n">
-        <v>5600</v>
+        <v>4100</v>
       </c>
       <c r="K510" t="n">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="L510" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="M510" t="n">
-        <v>2914</v>
+        <v>1507</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>2914</v>
+        <v>1507</v>
       </c>
       <c r="Q510" t="n">
         <v>1</v>
@@ -37149,16 +37149,16 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>2500</v>
+        <v>5600</v>
       </c>
       <c r="K511" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L511" t="n">
         <v>3000</v>
       </c>
       <c r="M511" t="n">
-        <v>3000</v>
+        <v>2914</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37167,11 +37167,11 @@
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P511" t="n">
-        <v>3000</v>
+        <v>2914</v>
       </c>
       <c r="Q511" t="n">
         <v>1</v>
@@ -37217,20 +37217,20 @@
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J512" t="n">
-        <v>3800</v>
+        <v>2500</v>
       </c>
       <c r="K512" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="L512" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="M512" t="n">
-        <v>1132</v>
+        <v>3000</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37239,11 +37239,11 @@
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P512" t="n">
-        <v>1132</v>
+        <v>3000</v>
       </c>
       <c r="Q512" t="n">
         <v>1</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -37289,20 +37289,20 @@
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J513" t="n">
-        <v>5300</v>
+        <v>3800</v>
       </c>
       <c r="K513" t="n">
-        <v>2900</v>
+        <v>1000</v>
       </c>
       <c r="L513" t="n">
-        <v>3200</v>
+        <v>1200</v>
       </c>
       <c r="M513" t="n">
-        <v>3042</v>
+        <v>1132</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>3042</v>
+        <v>1132</v>
       </c>
       <c r="Q513" t="n">
         <v>1</v>
@@ -37361,20 +37361,20 @@
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J514" t="n">
-        <v>7200</v>
+        <v>5300</v>
       </c>
       <c r="K514" t="n">
-        <v>2300</v>
+        <v>2900</v>
       </c>
       <c r="L514" t="n">
-        <v>2600</v>
+        <v>3200</v>
       </c>
       <c r="M514" t="n">
-        <v>2438</v>
+        <v>3042</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>2438</v>
+        <v>3042</v>
       </c>
       <c r="Q514" t="n">
         <v>1</v>
@@ -37433,20 +37433,20 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J515" t="n">
-        <v>5900</v>
+        <v>7200</v>
       </c>
       <c r="K515" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="L515" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="M515" t="n">
-        <v>1632</v>
+        <v>2438</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>1632</v>
+        <v>2438</v>
       </c>
       <c r="Q515" t="n">
         <v>1</v>
@@ -37505,20 +37505,20 @@
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J516" t="n">
-        <v>4300</v>
+        <v>5900</v>
       </c>
       <c r="K516" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="L516" t="n">
-        <v>3700</v>
+        <v>1800</v>
       </c>
       <c r="M516" t="n">
-        <v>3588</v>
+        <v>1632</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>3588</v>
+        <v>1632</v>
       </c>
       <c r="Q516" t="n">
         <v>1</v>
@@ -37577,20 +37577,20 @@
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J517" t="n">
-        <v>5800</v>
+        <v>4300</v>
       </c>
       <c r="K517" t="n">
-        <v>900</v>
+        <v>3500</v>
       </c>
       <c r="L517" t="n">
-        <v>1200</v>
+        <v>3700</v>
       </c>
       <c r="M517" t="n">
-        <v>1060</v>
+        <v>3588</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>1060</v>
+        <v>3588</v>
       </c>
       <c r="Q517" t="n">
         <v>1</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -37649,33 +37649,33 @@
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J518" t="n">
-        <v>9700</v>
+        <v>5800</v>
       </c>
       <c r="K518" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L518" t="n">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="M518" t="n">
-        <v>623</v>
+        <v>1060</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O518" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P518" t="n">
-        <v>623</v>
+        <v>1060</v>
       </c>
       <c r="Q518" t="n">
         <v>1</v>
@@ -37721,20 +37721,20 @@
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J519" t="n">
-        <v>2900</v>
+        <v>9700</v>
       </c>
       <c r="K519" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L519" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M519" t="n">
-        <v>500</v>
+        <v>623</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>500</v>
+        <v>623</v>
       </c>
       <c r="Q519" t="n">
         <v>1</v>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -37793,33 +37793,33 @@
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J520" t="n">
-        <v>4700</v>
+        <v>2900</v>
       </c>
       <c r="K520" t="n">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="L520" t="n">
-        <v>2400</v>
+        <v>500</v>
       </c>
       <c r="M520" t="n">
-        <v>2289</v>
+        <v>500</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O520" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P520" t="n">
-        <v>2289</v>
+        <v>500</v>
       </c>
       <c r="Q520" t="n">
         <v>1</v>
@@ -37865,20 +37865,20 @@
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J521" t="n">
-        <v>6900</v>
+        <v>4700</v>
       </c>
       <c r="K521" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="L521" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M521" t="n">
-        <v>1893</v>
+        <v>2289</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
@@ -37891,7 +37891,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>1893</v>
+        <v>2289</v>
       </c>
       <c r="Q521" t="n">
         <v>1</v>
@@ -37937,20 +37937,20 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J522" t="n">
-        <v>4600</v>
+        <v>6900</v>
       </c>
       <c r="K522" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="L522" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M522" t="n">
-        <v>1524</v>
+        <v>1893</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>1524</v>
+        <v>1893</v>
       </c>
       <c r="Q522" t="n">
         <v>1</v>
@@ -38009,20 +38009,20 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J523" t="n">
-        <v>5400</v>
+        <v>4600</v>
       </c>
       <c r="K523" t="n">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="L523" t="n">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="M523" t="n">
-        <v>2639</v>
+        <v>1524</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>2639</v>
+        <v>1524</v>
       </c>
       <c r="Q523" t="n">
         <v>1</v>
@@ -38081,20 +38081,20 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="K524" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="L524" t="n">
-        <v>1300</v>
+        <v>2800</v>
       </c>
       <c r="M524" t="n">
-        <v>1116</v>
+        <v>2639</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>1116</v>
+        <v>2639</v>
       </c>
       <c r="Q524" t="n">
         <v>1</v>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -38153,33 +38153,33 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J525" t="n">
-        <v>11600</v>
+        <v>5700</v>
       </c>
       <c r="K525" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L525" t="n">
-        <v>650</v>
+        <v>1300</v>
       </c>
       <c r="M525" t="n">
-        <v>624</v>
+        <v>1116</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P525" t="n">
-        <v>624</v>
+        <v>1116</v>
       </c>
       <c r="Q525" t="n">
         <v>1</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44168</v>
+        <v>44487</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -38225,20 +38225,20 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>3300</v>
+        <v>11600</v>
       </c>
       <c r="K526" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L526" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="M526" t="n">
-        <v>450</v>
+        <v>624</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>450</v>
+        <v>624</v>
       </c>
       <c r="Q526" t="n">
         <v>1</v>
@@ -38301,29 +38301,29 @@
         </is>
       </c>
       <c r="J527" t="n">
-        <v>5900</v>
+        <v>3300</v>
       </c>
       <c r="K527" t="n">
-        <v>2700</v>
+        <v>450</v>
       </c>
       <c r="L527" t="n">
-        <v>3000</v>
+        <v>450</v>
       </c>
       <c r="M527" t="n">
-        <v>2873</v>
+        <v>450</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P527" t="n">
-        <v>2873</v>
+        <v>450</v>
       </c>
       <c r="Q527" t="n">
         <v>1</v>
@@ -38369,33 +38369,33 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J528" t="n">
-        <v>4100</v>
+        <v>5900</v>
       </c>
       <c r="K528" t="n">
-        <v>400</v>
+        <v>2700</v>
       </c>
       <c r="L528" t="n">
-        <v>400</v>
+        <v>3000</v>
       </c>
       <c r="M528" t="n">
-        <v>400</v>
+        <v>2873</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P528" t="n">
-        <v>400</v>
+        <v>2873</v>
       </c>
       <c r="Q528" t="n">
         <v>1</v>
@@ -38445,29 +38445,29 @@
         </is>
       </c>
       <c r="J529" t="n">
-        <v>6100</v>
+        <v>4100</v>
       </c>
       <c r="K529" t="n">
-        <v>2300</v>
+        <v>400</v>
       </c>
       <c r="L529" t="n">
-        <v>2500</v>
+        <v>400</v>
       </c>
       <c r="M529" t="n">
-        <v>2444</v>
+        <v>400</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O529" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P529" t="n">
-        <v>2444</v>
+        <v>400</v>
       </c>
       <c r="Q529" t="n">
         <v>1</v>
@@ -38513,33 +38513,33 @@
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J530" t="n">
-        <v>3800</v>
+        <v>6100</v>
       </c>
       <c r="K530" t="n">
-        <v>300</v>
+        <v>2300</v>
       </c>
       <c r="L530" t="n">
-        <v>300</v>
+        <v>2500</v>
       </c>
       <c r="M530" t="n">
-        <v>300</v>
+        <v>2444</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O530" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P530" t="n">
-        <v>300</v>
+        <v>2444</v>
       </c>
       <c r="Q530" t="n">
         <v>1</v>
@@ -38589,29 +38589,29 @@
         </is>
       </c>
       <c r="J531" t="n">
-        <v>4900</v>
+        <v>3800</v>
       </c>
       <c r="K531" t="n">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="L531" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="M531" t="n">
-        <v>1914</v>
+        <v>300</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O531" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P531" t="n">
-        <v>1914</v>
+        <v>300</v>
       </c>
       <c r="Q531" t="n">
         <v>1</v>
@@ -38657,20 +38657,20 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>5600</v>
+        <v>4900</v>
       </c>
       <c r="K532" t="n">
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="L532" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M532" t="n">
-        <v>3757</v>
+        <v>1914</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38683,7 +38683,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>3757</v>
+        <v>1914</v>
       </c>
       <c r="Q532" t="n">
         <v>1</v>
@@ -38729,20 +38729,20 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J533" t="n">
+        <v>5600</v>
+      </c>
+      <c r="K533" t="n">
         <v>3600</v>
       </c>
-      <c r="K533" t="n">
-        <v>1300</v>
-      </c>
       <c r="L533" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="M533" t="n">
-        <v>1422</v>
+        <v>3757</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>1422</v>
+        <v>3757</v>
       </c>
       <c r="Q533" t="n">
         <v>1</v>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -38801,20 +38801,20 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>2200</v>
+        <v>3600</v>
       </c>
       <c r="K534" t="n">
-        <v>3200</v>
+        <v>1300</v>
       </c>
       <c r="L534" t="n">
-        <v>3400</v>
+        <v>1500</v>
       </c>
       <c r="M534" t="n">
-        <v>3309</v>
+        <v>1422</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38823,11 +38823,11 @@
       </c>
       <c r="O534" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P534" t="n">
-        <v>3309</v>
+        <v>1422</v>
       </c>
       <c r="Q534" t="n">
         <v>1</v>
@@ -38877,16 +38877,16 @@
         </is>
       </c>
       <c r="J535" t="n">
-        <v>3100</v>
+        <v>2200</v>
       </c>
       <c r="K535" t="n">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="L535" t="n">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="M535" t="n">
-        <v>3390</v>
+        <v>3309</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38895,11 +38895,11 @@
       </c>
       <c r="O535" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P535" t="n">
-        <v>3390</v>
+        <v>3309</v>
       </c>
       <c r="Q535" t="n">
         <v>1</v>
@@ -38945,20 +38945,20 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>3800</v>
+        <v>3100</v>
       </c>
       <c r="K536" t="n">
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="L536" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="M536" t="n">
-        <v>2595</v>
+        <v>3390</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38967,11 +38967,11 @@
       </c>
       <c r="O536" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P536" t="n">
-        <v>2595</v>
+        <v>3390</v>
       </c>
       <c r="Q536" t="n">
         <v>1</v>
@@ -39021,16 +39021,16 @@
         </is>
       </c>
       <c r="J537" t="n">
-        <v>6000</v>
+        <v>3800</v>
       </c>
       <c r="K537" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L537" t="n">
         <v>2700</v>
       </c>
-      <c r="L537" t="n">
-        <v>2900</v>
-      </c>
       <c r="M537" t="n">
-        <v>2810</v>
+        <v>2595</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39039,11 +39039,11 @@
       </c>
       <c r="O537" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P537" t="n">
-        <v>2810</v>
+        <v>2595</v>
       </c>
       <c r="Q537" t="n">
         <v>1</v>
@@ -39089,20 +39089,20 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="K538" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="L538" t="n">
-        <v>2400</v>
+        <v>2900</v>
       </c>
       <c r="M538" t="n">
-        <v>2275</v>
+        <v>2810</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>2275</v>
+        <v>2810</v>
       </c>
       <c r="Q538" t="n">
         <v>1</v>
@@ -39161,20 +39161,20 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="K539" t="n">
-        <v>3800</v>
+        <v>2200</v>
       </c>
       <c r="L539" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="M539" t="n">
-        <v>3922</v>
+        <v>2275</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39183,11 +39183,11 @@
       </c>
       <c r="O539" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P539" t="n">
-        <v>3922</v>
+        <v>2275</v>
       </c>
       <c r="Q539" t="n">
         <v>1</v>
@@ -39237,16 +39237,16 @@
         </is>
       </c>
       <c r="J540" t="n">
-        <v>2900</v>
+        <v>1800</v>
       </c>
       <c r="K540" t="n">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="L540" t="n">
         <v>4000</v>
       </c>
       <c r="M540" t="n">
-        <v>3945</v>
+        <v>3922</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39255,11 +39255,11 @@
       </c>
       <c r="O540" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P540" t="n">
-        <v>3945</v>
+        <v>3922</v>
       </c>
       <c r="Q540" t="n">
         <v>1</v>
@@ -39305,20 +39305,20 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J541" t="n">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="K541" t="n">
-        <v>1600</v>
+        <v>3900</v>
       </c>
       <c r="L541" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="M541" t="n">
-        <v>1673</v>
+        <v>3945</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>1673</v>
+        <v>3945</v>
       </c>
       <c r="Q541" t="n">
         <v>1</v>
@@ -39357,7 +39357,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44473</v>
+        <v>44175</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -39377,33 +39377,33 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J542" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="K542" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="L542" t="n">
-        <v>750</v>
+        <v>1800</v>
       </c>
       <c r="M542" t="n">
-        <v>721</v>
+        <v>1673</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O542" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P542" t="n">
-        <v>721</v>
+        <v>1673</v>
       </c>
       <c r="Q542" t="n">
         <v>1</v>
@@ -39429,7 +39429,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44181</v>
+        <v>44473</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -39449,33 +39449,33 @@
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J543" t="n">
-        <v>2200</v>
+        <v>7500</v>
       </c>
       <c r="K543" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="L543" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="M543" t="n">
-        <v>1000</v>
+        <v>721</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O543" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P543" t="n">
-        <v>1000</v>
+        <v>721</v>
       </c>
       <c r="Q543" t="n">
         <v>1</v>
@@ -39521,20 +39521,20 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="K544" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="L544" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="M544" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39543,11 +39543,11 @@
       </c>
       <c r="O544" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P544" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="Q544" t="n">
         <v>1</v>
@@ -39597,16 +39597,16 @@
         </is>
       </c>
       <c r="J545" t="n">
-        <v>6300</v>
+        <v>2800</v>
       </c>
       <c r="K545" t="n">
         <v>3000</v>
       </c>
       <c r="L545" t="n">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="M545" t="n">
-        <v>3119</v>
+        <v>3000</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39615,11 +39615,11 @@
       </c>
       <c r="O545" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P545" t="n">
-        <v>3119</v>
+        <v>3000</v>
       </c>
       <c r="Q545" t="n">
         <v>1</v>
@@ -39665,20 +39665,20 @@
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J546" t="n">
-        <v>1900</v>
+        <v>6300</v>
       </c>
       <c r="K546" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L546" t="n">
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="M546" t="n">
-        <v>2500</v>
+        <v>3119</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39687,11 +39687,11 @@
       </c>
       <c r="O546" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P546" t="n">
-        <v>2500</v>
+        <v>3119</v>
       </c>
       <c r="Q546" t="n">
         <v>1</v>
@@ -39741,16 +39741,16 @@
         </is>
       </c>
       <c r="J547" t="n">
-        <v>6500</v>
+        <v>1900</v>
       </c>
       <c r="K547" t="n">
         <v>2500</v>
       </c>
       <c r="L547" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="M547" t="n">
-        <v>2592</v>
+        <v>2500</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39759,11 +39759,11 @@
       </c>
       <c r="O547" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P547" t="n">
-        <v>2592</v>
+        <v>2500</v>
       </c>
       <c r="Q547" t="n">
         <v>1</v>
@@ -39809,20 +39809,20 @@
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J548" t="n">
-        <v>4900</v>
+        <v>6500</v>
       </c>
       <c r="K548" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L548" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="M548" t="n">
-        <v>2208</v>
+        <v>2592</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>2208</v>
+        <v>2592</v>
       </c>
       <c r="Q548" t="n">
         <v>1</v>
@@ -39881,20 +39881,20 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>2400</v>
+        <v>4900</v>
       </c>
       <c r="K549" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L549" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="M549" t="n">
-        <v>3500</v>
+        <v>2208</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39903,11 +39903,11 @@
       </c>
       <c r="O549" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P549" t="n">
-        <v>3500</v>
+        <v>2208</v>
       </c>
       <c r="Q549" t="n">
         <v>1</v>
@@ -39957,16 +39957,16 @@
         </is>
       </c>
       <c r="J550" t="n">
-        <v>6000</v>
+        <v>2400</v>
       </c>
       <c r="K550" t="n">
         <v>3500</v>
       </c>
       <c r="L550" t="n">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="M550" t="n">
-        <v>3635</v>
+        <v>3500</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39975,11 +39975,11 @@
       </c>
       <c r="O550" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P550" t="n">
-        <v>3635</v>
+        <v>3500</v>
       </c>
       <c r="Q550" t="n">
         <v>1</v>
@@ -40025,20 +40025,20 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="K551" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="L551" t="n">
-        <v>1800</v>
+        <v>3800</v>
       </c>
       <c r="M551" t="n">
-        <v>1672</v>
+        <v>3635</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>1672</v>
+        <v>3635</v>
       </c>
       <c r="Q551" t="n">
         <v>1</v>
@@ -40077,7 +40077,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -40097,33 +40097,33 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>6100</v>
+        <v>4000</v>
       </c>
       <c r="K552" t="n">
-        <v>550</v>
+        <v>1500</v>
       </c>
       <c r="L552" t="n">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="M552" t="n">
-        <v>573</v>
+        <v>1672</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O552" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P552" t="n">
-        <v>573</v>
+        <v>1672</v>
       </c>
       <c r="Q552" t="n">
         <v>1</v>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44270</v>
+        <v>44494</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -40169,33 +40169,33 @@
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>1800</v>
+        <v>6100</v>
       </c>
       <c r="K553" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="L553" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M553" t="n">
-        <v>1000</v>
+        <v>573</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O553" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P553" t="n">
-        <v>1000</v>
+        <v>573</v>
       </c>
       <c r="Q553" t="n">
         <v>1</v>
@@ -40241,20 +40241,20 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J554" t="n">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="K554" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L554" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M554" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         </is>
       </c>
       <c r="P554" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="Q554" t="n">
         <v>1</v>
@@ -40313,20 +40313,20 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J555" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="K555" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L555" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M555" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q555" t="n">
         <v>1</v>
@@ -40385,20 +40385,20 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J556" t="n">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="K556" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L556" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M556" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="Q556" t="n">
         <v>1</v>
@@ -40457,20 +40457,20 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J557" t="n">
-        <v>2700</v>
+        <v>3800</v>
       </c>
       <c r="K557" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L557" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M557" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="Q557" t="n">
         <v>1</v>
@@ -40509,7 +40509,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -40529,20 +40529,20 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J558" t="n">
+        <v>2700</v>
+      </c>
+      <c r="K558" t="n">
         <v>1500</v>
       </c>
-      <c r="K558" t="n">
-        <v>800</v>
-      </c>
       <c r="L558" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="M558" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40551,11 +40551,11 @@
       </c>
       <c r="O558" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P558" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="Q558" t="n">
         <v>1</v>
@@ -40601,20 +40601,20 @@
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J559" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="K559" t="n">
-        <v>2200</v>
+        <v>800</v>
       </c>
       <c r="L559" t="n">
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="M559" t="n">
-        <v>2314</v>
+        <v>800</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40623,11 +40623,11 @@
       </c>
       <c r="O559" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P559" t="n">
-        <v>2314</v>
+        <v>800</v>
       </c>
       <c r="Q559" t="n">
         <v>1</v>
@@ -40677,16 +40677,16 @@
         </is>
       </c>
       <c r="J560" t="n">
-        <v>5200</v>
+        <v>3500</v>
       </c>
       <c r="K560" t="n">
+        <v>2200</v>
+      </c>
+      <c r="L560" t="n">
         <v>2400</v>
       </c>
-      <c r="L560" t="n">
-        <v>2600</v>
-      </c>
       <c r="M560" t="n">
-        <v>2496</v>
+        <v>2314</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40695,11 +40695,11 @@
       </c>
       <c r="O560" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P560" t="n">
-        <v>2496</v>
+        <v>2314</v>
       </c>
       <c r="Q560" t="n">
         <v>1</v>
@@ -40749,16 +40749,16 @@
         </is>
       </c>
       <c r="J561" t="n">
-        <v>2200</v>
+        <v>5200</v>
       </c>
       <c r="K561" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="L561" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="M561" t="n">
-        <v>2500</v>
+        <v>2496</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40767,11 +40767,11 @@
       </c>
       <c r="O561" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P561" t="n">
-        <v>2500</v>
+        <v>2496</v>
       </c>
       <c r="Q561" t="n">
         <v>1</v>
@@ -40817,20 +40817,20 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J562" t="n">
-        <v>4600</v>
+        <v>2200</v>
       </c>
       <c r="K562" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L562" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="M562" t="n">
-        <v>1850</v>
+        <v>2500</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40839,11 +40839,11 @@
       </c>
       <c r="O562" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P562" t="n">
-        <v>1850</v>
+        <v>2500</v>
       </c>
       <c r="Q562" t="n">
         <v>1</v>
@@ -40893,16 +40893,16 @@
         </is>
       </c>
       <c r="J563" t="n">
-        <v>9000</v>
+        <v>4600</v>
       </c>
       <c r="K563" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L563" t="n">
         <v>1900</v>
       </c>
-      <c r="L563" t="n">
-        <v>2100</v>
-      </c>
       <c r="M563" t="n">
-        <v>1998</v>
+        <v>1850</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40911,11 +40911,11 @@
       </c>
       <c r="O563" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P563" t="n">
-        <v>1998</v>
+        <v>1850</v>
       </c>
       <c r="Q563" t="n">
         <v>1</v>
@@ -40965,16 +40965,16 @@
         </is>
       </c>
       <c r="J564" t="n">
-        <v>2500</v>
+        <v>9000</v>
       </c>
       <c r="K564" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="L564" t="n">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="M564" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40983,11 +40983,11 @@
       </c>
       <c r="O564" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P564" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="Q564" t="n">
         <v>1</v>
@@ -41033,20 +41033,20 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J565" t="n">
-        <v>4700</v>
+        <v>2500</v>
       </c>
       <c r="K565" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L565" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M565" t="n">
-        <v>1581</v>
+        <v>2000</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41055,11 +41055,11 @@
       </c>
       <c r="O565" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P565" t="n">
-        <v>1581</v>
+        <v>2000</v>
       </c>
       <c r="Q565" t="n">
         <v>1</v>
@@ -41105,20 +41105,20 @@
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J566" t="n">
-        <v>4400</v>
+        <v>4700</v>
       </c>
       <c r="K566" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="L566" t="n">
-        <v>2700</v>
+        <v>1700</v>
       </c>
       <c r="M566" t="n">
-        <v>2657</v>
+        <v>1581</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41127,11 +41127,11 @@
       </c>
       <c r="O566" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P566" t="n">
-        <v>2657</v>
+        <v>1581</v>
       </c>
       <c r="Q566" t="n">
         <v>1</v>
@@ -41181,16 +41181,16 @@
         </is>
       </c>
       <c r="J567" t="n">
-        <v>7800</v>
+        <v>4400</v>
       </c>
       <c r="K567" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="L567" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="M567" t="n">
-        <v>2900</v>
+        <v>2657</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41199,11 +41199,11 @@
       </c>
       <c r="O567" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P567" t="n">
-        <v>2900</v>
+        <v>2657</v>
       </c>
       <c r="Q567" t="n">
         <v>1</v>
@@ -41253,16 +41253,16 @@
         </is>
       </c>
       <c r="J568" t="n">
-        <v>3500</v>
+        <v>7800</v>
       </c>
       <c r="K568" t="n">
         <v>2800</v>
       </c>
       <c r="L568" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M568" t="n">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41271,11 +41271,11 @@
       </c>
       <c r="O568" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P568" t="n">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="Q568" t="n">
         <v>1</v>
@@ -41321,20 +41321,20 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J569" t="n">
-        <v>4700</v>
+        <v>3500</v>
       </c>
       <c r="K569" t="n">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="L569" t="n">
-        <v>1300</v>
+        <v>2800</v>
       </c>
       <c r="M569" t="n">
-        <v>1140</v>
+        <v>2800</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41343,11 +41343,11 @@
       </c>
       <c r="O569" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P569" t="n">
-        <v>1140</v>
+        <v>2800</v>
       </c>
       <c r="Q569" t="n">
         <v>1</v>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -41393,20 +41393,20 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J570" t="n">
-        <v>2200</v>
+        <v>4700</v>
       </c>
       <c r="K570" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L570" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="M570" t="n">
-        <v>700</v>
+        <v>1140</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>700</v>
+        <v>1140</v>
       </c>
       <c r="Q570" t="n">
         <v>1</v>
@@ -41465,20 +41465,20 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>5800</v>
+        <v>2200</v>
       </c>
       <c r="K571" t="n">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="L571" t="n">
-        <v>2300</v>
+        <v>700</v>
       </c>
       <c r="M571" t="n">
-        <v>2129</v>
+        <v>700</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41491,7 +41491,7 @@
         </is>
       </c>
       <c r="P571" t="n">
-        <v>2129</v>
+        <v>700</v>
       </c>
       <c r="Q571" t="n">
         <v>1</v>
@@ -41537,20 +41537,20 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>7400</v>
+        <v>5800</v>
       </c>
       <c r="K572" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L572" t="n">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="M572" t="n">
-        <v>1792</v>
+        <v>2129</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41563,7 +41563,7 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>1792</v>
+        <v>2129</v>
       </c>
       <c r="Q572" t="n">
         <v>1</v>
@@ -41609,20 +41609,20 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>4600</v>
+        <v>7400</v>
       </c>
       <c r="K573" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="L573" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="M573" t="n">
-        <v>1517</v>
+        <v>1792</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41635,7 +41635,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>1517</v>
+        <v>1792</v>
       </c>
       <c r="Q573" t="n">
         <v>1</v>
@@ -41681,20 +41681,20 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>5700</v>
+        <v>4600</v>
       </c>
       <c r="K574" t="n">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="L574" t="n">
-        <v>2700</v>
+        <v>1600</v>
       </c>
       <c r="M574" t="n">
-        <v>2602</v>
+        <v>1517</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41707,7 +41707,7 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>2602</v>
+        <v>1517</v>
       </c>
       <c r="Q574" t="n">
         <v>1</v>
@@ -41753,20 +41753,20 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>4700</v>
+        <v>5700</v>
       </c>
       <c r="K575" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="L575" t="n">
-        <v>1300</v>
+        <v>2700</v>
       </c>
       <c r="M575" t="n">
-        <v>1147</v>
+        <v>2602</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41779,7 +41779,7 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>1147</v>
+        <v>2602</v>
       </c>
       <c r="Q575" t="n">
         <v>1</v>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -41825,20 +41825,20 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>1400</v>
+        <v>4700</v>
       </c>
       <c r="K576" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L576" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="M576" t="n">
-        <v>700</v>
+        <v>1147</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41847,11 +41847,11 @@
       </c>
       <c r="O576" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P576" t="n">
-        <v>700</v>
+        <v>1147</v>
       </c>
       <c r="Q576" t="n">
         <v>1</v>
@@ -41897,20 +41897,20 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="K577" t="n">
-        <v>2200</v>
+        <v>700</v>
       </c>
       <c r="L577" t="n">
-        <v>2200</v>
+        <v>700</v>
       </c>
       <c r="M577" t="n">
-        <v>2200</v>
+        <v>700</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41923,7 +41923,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>2200</v>
+        <v>700</v>
       </c>
       <c r="Q577" t="n">
         <v>1</v>
@@ -41969,20 +41969,20 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="K578" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="L578" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="M578" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="Q578" t="n">
         <v>1</v>
@@ -42041,20 +42041,20 @@
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>1700</v>
+        <v>3200</v>
       </c>
       <c r="K579" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="L579" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="M579" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         </is>
       </c>
       <c r="P579" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="Q579" t="n">
         <v>1</v>
@@ -42113,20 +42113,20 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J580" t="n">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="K580" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="L580" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="M580" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42139,7 +42139,7 @@
         </is>
       </c>
       <c r="P580" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="Q580" t="n">
         <v>1</v>
@@ -42165,7 +42165,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -42185,20 +42185,20 @@
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J581" t="n">
-        <v>4000</v>
+        <v>1900</v>
       </c>
       <c r="K581" t="n">
-        <v>3500</v>
+        <v>1100</v>
       </c>
       <c r="L581" t="n">
-        <v>3800</v>
+        <v>1100</v>
       </c>
       <c r="M581" t="n">
-        <v>3665</v>
+        <v>1100</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42207,11 +42207,11 @@
       </c>
       <c r="O581" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P581" t="n">
-        <v>3665</v>
+        <v>1100</v>
       </c>
       <c r="Q581" t="n">
         <v>1</v>
@@ -42257,20 +42257,20 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J582" t="n">
-        <v>5300</v>
+        <v>4000</v>
       </c>
       <c r="K582" t="n">
-        <v>2900</v>
+        <v>3500</v>
       </c>
       <c r="L582" t="n">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="M582" t="n">
-        <v>3036</v>
+        <v>3665</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42283,7 +42283,7 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>3036</v>
+        <v>3665</v>
       </c>
       <c r="Q582" t="n">
         <v>1</v>
@@ -42329,20 +42329,20 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J583" t="n">
-        <v>4000</v>
+        <v>5300</v>
       </c>
       <c r="K583" t="n">
-        <v>2200</v>
+        <v>2900</v>
       </c>
       <c r="L583" t="n">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="M583" t="n">
-        <v>2315</v>
+        <v>3036</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>2315</v>
+        <v>3036</v>
       </c>
       <c r="Q583" t="n">
         <v>1</v>
@@ -42401,20 +42401,20 @@
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J584" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="K584" t="n">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="L584" t="n">
-        <v>4300</v>
+        <v>2400</v>
       </c>
       <c r="M584" t="n">
-        <v>4182</v>
+        <v>2315</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42427,7 +42427,7 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>4182</v>
+        <v>2315</v>
       </c>
       <c r="Q584" t="n">
         <v>1</v>
@@ -42473,20 +42473,20 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J585" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="K585" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="L585" t="n">
-        <v>2000</v>
+        <v>4300</v>
       </c>
       <c r="M585" t="n">
-        <v>1788</v>
+        <v>4182</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42499,7 +42499,7 @@
         </is>
       </c>
       <c r="P585" t="n">
-        <v>1788</v>
+        <v>4182</v>
       </c>
       <c r="Q585" t="n">
         <v>1</v>
@@ -42525,58 +42525,130 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E586" t="n">
+        <v>13</v>
+      </c>
+      <c r="F586" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I586" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J586" t="n">
+        <v>2600</v>
+      </c>
+      <c r="K586" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L586" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M586" t="n">
+        <v>1788</v>
+      </c>
+      <c r="N586" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O586" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P586" t="n">
+        <v>1788</v>
+      </c>
+      <c r="Q586" t="n">
+        <v>1</v>
+      </c>
+      <c r="R586" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>6</v>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D587" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E586" t="n">
-        <v>13</v>
-      </c>
-      <c r="F586" t="n">
-        <v>100112028</v>
-      </c>
-      <c r="G586" t="inlineStr">
-        <is>
-          <t>Sandia</t>
-        </is>
-      </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I586" t="inlineStr">
+      <c r="E587" t="n">
+        <v>13</v>
+      </c>
+      <c r="F587" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I587" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J586" t="n">
+      <c r="J587" t="n">
         <v>8100</v>
       </c>
-      <c r="K586" t="n">
+      <c r="K587" t="n">
         <v>550</v>
       </c>
-      <c r="L586" t="n">
+      <c r="L587" t="n">
         <v>600</v>
       </c>
-      <c r="M586" t="n">
+      <c r="M587" t="n">
         <v>572</v>
       </c>
-      <c r="N586" t="inlineStr">
+      <c r="N587" t="inlineStr">
         <is>
           <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
-      <c r="O586" t="inlineStr">
+      <c r="O587" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="P586" t="n">
+      <c r="P587" t="n">
         <v>572</v>
       </c>
-      <c r="Q586" t="n">
-        <v>1</v>
-      </c>
-      <c r="R586" t="inlineStr">
+      <c r="Q587" t="n">
+        <v>1</v>
+      </c>
+      <c r="R587" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R587"/>
+  <dimension ref="A1:R589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44244</v>
+        <v>44509</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -41465,33 +41465,33 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>2200</v>
+        <v>4900</v>
       </c>
       <c r="K571" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="L571" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M571" t="n">
-        <v>700</v>
+        <v>878</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O571" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P571" t="n">
-        <v>700</v>
+        <v>878</v>
       </c>
       <c r="Q571" t="n">
         <v>1</v>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44244</v>
+        <v>44509</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -41537,33 +41537,33 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>5800</v>
+        <v>1900</v>
       </c>
       <c r="K572" t="n">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="L572" t="n">
-        <v>2300</v>
+        <v>700</v>
       </c>
       <c r="M572" t="n">
-        <v>2129</v>
+        <v>700</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O572" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P572" t="n">
-        <v>2129</v>
+        <v>700</v>
       </c>
       <c r="Q572" t="n">
         <v>1</v>
@@ -41609,20 +41609,20 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>7400</v>
+        <v>2200</v>
       </c>
       <c r="K573" t="n">
-        <v>1700</v>
+        <v>700</v>
       </c>
       <c r="L573" t="n">
-        <v>1900</v>
+        <v>700</v>
       </c>
       <c r="M573" t="n">
-        <v>1792</v>
+        <v>700</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41635,7 +41635,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>1792</v>
+        <v>700</v>
       </c>
       <c r="Q573" t="n">
         <v>1</v>
@@ -41681,20 +41681,20 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>4600</v>
+        <v>5800</v>
       </c>
       <c r="K574" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="L574" t="n">
-        <v>1600</v>
+        <v>2300</v>
       </c>
       <c r="M574" t="n">
-        <v>1517</v>
+        <v>2129</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41707,7 +41707,7 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>1517</v>
+        <v>2129</v>
       </c>
       <c r="Q574" t="n">
         <v>1</v>
@@ -41753,20 +41753,20 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>5700</v>
+        <v>7400</v>
       </c>
       <c r="K575" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="L575" t="n">
-        <v>2700</v>
+        <v>1900</v>
       </c>
       <c r="M575" t="n">
-        <v>2602</v>
+        <v>1792</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41779,7 +41779,7 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>2602</v>
+        <v>1792</v>
       </c>
       <c r="Q575" t="n">
         <v>1</v>
@@ -41825,20 +41825,20 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="K576" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="L576" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="M576" t="n">
-        <v>1147</v>
+        <v>1517</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>1147</v>
+        <v>1517</v>
       </c>
       <c r="Q576" t="n">
         <v>1</v>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -41897,20 +41897,20 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>1400</v>
+        <v>5700</v>
       </c>
       <c r="K577" t="n">
-        <v>700</v>
+        <v>2500</v>
       </c>
       <c r="L577" t="n">
-        <v>700</v>
+        <v>2700</v>
       </c>
       <c r="M577" t="n">
-        <v>700</v>
+        <v>2602</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41919,11 +41919,11 @@
       </c>
       <c r="O577" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P577" t="n">
-        <v>700</v>
+        <v>2602</v>
       </c>
       <c r="Q577" t="n">
         <v>1</v>
@@ -41949,7 +41949,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -41969,20 +41969,20 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>2400</v>
+        <v>4700</v>
       </c>
       <c r="K578" t="n">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="L578" t="n">
-        <v>2200</v>
+        <v>1300</v>
       </c>
       <c r="M578" t="n">
-        <v>2200</v>
+        <v>1147</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41991,11 +41991,11 @@
       </c>
       <c r="O578" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P578" t="n">
-        <v>2200</v>
+        <v>1147</v>
       </c>
       <c r="Q578" t="n">
         <v>1</v>
@@ -42041,20 +42041,20 @@
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>3200</v>
+        <v>1400</v>
       </c>
       <c r="K579" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="L579" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="M579" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         </is>
       </c>
       <c r="P579" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="Q579" t="n">
         <v>1</v>
@@ -42113,20 +42113,20 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J580" t="n">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="K580" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="L580" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="M580" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42139,7 +42139,7 @@
         </is>
       </c>
       <c r="P580" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="Q580" t="n">
         <v>1</v>
@@ -42185,20 +42185,20 @@
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J581" t="n">
-        <v>1900</v>
+        <v>3200</v>
       </c>
       <c r="K581" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="L581" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="M581" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         </is>
       </c>
       <c r="P581" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="Q581" t="n">
         <v>1</v>
@@ -42237,7 +42237,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -42257,20 +42257,20 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J582" t="n">
-        <v>4000</v>
+        <v>1700</v>
       </c>
       <c r="K582" t="n">
-        <v>3500</v>
+        <v>1400</v>
       </c>
       <c r="L582" t="n">
-        <v>3800</v>
+        <v>1400</v>
       </c>
       <c r="M582" t="n">
-        <v>3665</v>
+        <v>1400</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42279,11 +42279,11 @@
       </c>
       <c r="O582" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P582" t="n">
-        <v>3665</v>
+        <v>1400</v>
       </c>
       <c r="Q582" t="n">
         <v>1</v>
@@ -42309,7 +42309,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -42329,20 +42329,20 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J583" t="n">
-        <v>5300</v>
+        <v>1900</v>
       </c>
       <c r="K583" t="n">
-        <v>2900</v>
+        <v>1100</v>
       </c>
       <c r="L583" t="n">
-        <v>3200</v>
+        <v>1100</v>
       </c>
       <c r="M583" t="n">
-        <v>3036</v>
+        <v>1100</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42351,11 +42351,11 @@
       </c>
       <c r="O583" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P583" t="n">
-        <v>3036</v>
+        <v>1100</v>
       </c>
       <c r="Q583" t="n">
         <v>1</v>
@@ -42401,20 +42401,20 @@
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J584" t="n">
         <v>4000</v>
       </c>
       <c r="K584" t="n">
-        <v>2200</v>
+        <v>3500</v>
       </c>
       <c r="L584" t="n">
-        <v>2400</v>
+        <v>3800</v>
       </c>
       <c r="M584" t="n">
-        <v>2315</v>
+        <v>3665</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42427,7 +42427,7 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>2315</v>
+        <v>3665</v>
       </c>
       <c r="Q584" t="n">
         <v>1</v>
@@ -42473,20 +42473,20 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J585" t="n">
-        <v>2800</v>
+        <v>5300</v>
       </c>
       <c r="K585" t="n">
-        <v>4000</v>
+        <v>2900</v>
       </c>
       <c r="L585" t="n">
-        <v>4300</v>
+        <v>3200</v>
       </c>
       <c r="M585" t="n">
-        <v>4182</v>
+        <v>3036</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42499,7 +42499,7 @@
         </is>
       </c>
       <c r="P585" t="n">
-        <v>4182</v>
+        <v>3036</v>
       </c>
       <c r="Q585" t="n">
         <v>1</v>
@@ -42545,20 +42545,20 @@
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J586" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="K586" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="L586" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M586" t="n">
-        <v>1788</v>
+        <v>2315</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         </is>
       </c>
       <c r="P586" t="n">
-        <v>1788</v>
+        <v>2315</v>
       </c>
       <c r="Q586" t="n">
         <v>1</v>
@@ -42597,58 +42597,202 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E587" t="n">
+        <v>13</v>
+      </c>
+      <c r="F587" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I587" t="inlineStr">
+        <is>
+          <t>Super</t>
+        </is>
+      </c>
+      <c r="J587" t="n">
+        <v>2800</v>
+      </c>
+      <c r="K587" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L587" t="n">
+        <v>4300</v>
+      </c>
+      <c r="M587" t="n">
+        <v>4182</v>
+      </c>
+      <c r="N587" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O587" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P587" t="n">
+        <v>4182</v>
+      </c>
+      <c r="Q587" t="n">
+        <v>1</v>
+      </c>
+      <c r="R587" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>6</v>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D588" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E588" t="n">
+        <v>13</v>
+      </c>
+      <c r="F588" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G588" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I588" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J588" t="n">
+        <v>2600</v>
+      </c>
+      <c r="K588" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L588" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M588" t="n">
+        <v>1788</v>
+      </c>
+      <c r="N588" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O588" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P588" t="n">
+        <v>1788</v>
+      </c>
+      <c r="Q588" t="n">
+        <v>1</v>
+      </c>
+      <c r="R588" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>6</v>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D589" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E587" t="n">
-        <v>13</v>
-      </c>
-      <c r="F587" t="n">
-        <v>100112028</v>
-      </c>
-      <c r="G587" t="inlineStr">
-        <is>
-          <t>Sandia</t>
-        </is>
-      </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I587" t="inlineStr">
+      <c r="E589" t="n">
+        <v>13</v>
+      </c>
+      <c r="F589" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I589" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J587" t="n">
+      <c r="J589" t="n">
         <v>8100</v>
       </c>
-      <c r="K587" t="n">
+      <c r="K589" t="n">
         <v>550</v>
       </c>
-      <c r="L587" t="n">
+      <c r="L589" t="n">
         <v>600</v>
       </c>
-      <c r="M587" t="n">
+      <c r="M589" t="n">
         <v>572</v>
       </c>
-      <c r="N587" t="inlineStr">
+      <c r="N589" t="inlineStr">
         <is>
           <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
-      <c r="O587" t="inlineStr">
+      <c r="O589" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="P587" t="n">
+      <c r="P589" t="n">
         <v>572</v>
       </c>
-      <c r="Q587" t="n">
-        <v>1</v>
-      </c>
-      <c r="R587" t="inlineStr">
+      <c r="Q589" t="n">
+        <v>1</v>
+      </c>
+      <c r="R589" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R589"/>
+  <dimension ref="A1:R591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44229</v>
+        <v>44510</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -30809,33 +30809,33 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J423" t="n">
-        <v>2000</v>
+        <v>6200</v>
       </c>
       <c r="K423" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L423" t="n">
         <v>800</v>
       </c>
       <c r="M423" t="n">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P423" t="n">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="Q423" t="n">
         <v>1</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44229</v>
+        <v>44510</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -30881,33 +30881,33 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J424" t="n">
-        <v>5100</v>
+        <v>2600</v>
       </c>
       <c r="K424" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="L424" t="n">
-        <v>2200</v>
+        <v>600</v>
       </c>
       <c r="M424" t="n">
-        <v>2110</v>
+        <v>600</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P424" t="n">
-        <v>2110</v>
+        <v>600</v>
       </c>
       <c r="Q424" t="n">
         <v>1</v>
@@ -30953,20 +30953,20 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J425" t="n">
-        <v>6600</v>
+        <v>2000</v>
       </c>
       <c r="K425" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="L425" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="M425" t="n">
-        <v>1715</v>
+        <v>765</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>1715</v>
+        <v>765</v>
       </c>
       <c r="Q425" t="n">
         <v>1</v>
@@ -31025,20 +31025,20 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J426" t="n">
-        <v>4700</v>
+        <v>5100</v>
       </c>
       <c r="K426" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="L426" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="M426" t="n">
-        <v>1423</v>
+        <v>2110</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>1423</v>
+        <v>2110</v>
       </c>
       <c r="Q426" t="n">
         <v>1</v>
@@ -31097,20 +31097,20 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J427" t="n">
-        <v>6200</v>
+        <v>6600</v>
       </c>
       <c r="K427" t="n">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="L427" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="M427" t="n">
-        <v>2569</v>
+        <v>1715</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>2569</v>
+        <v>1715</v>
       </c>
       <c r="Q427" t="n">
         <v>1</v>
@@ -31169,20 +31169,20 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J428" t="n">
-        <v>3700</v>
+        <v>4700</v>
       </c>
       <c r="K428" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="L428" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="M428" t="n">
-        <v>1130</v>
+        <v>1423</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>1130</v>
+        <v>1423</v>
       </c>
       <c r="Q428" t="n">
         <v>1</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44453</v>
+        <v>44229</v>
       </c>
       <c r="E429" t="n">
         <v>13</v>
@@ -31241,33 +31241,33 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J429" t="n">
-        <v>5400</v>
+        <v>6200</v>
       </c>
       <c r="K429" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="L429" t="n">
-        <v>1100</v>
+        <v>2700</v>
       </c>
       <c r="M429" t="n">
-        <v>1043</v>
+        <v>2569</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P429" t="n">
-        <v>1043</v>
+        <v>2569</v>
       </c>
       <c r="Q429" t="n">
         <v>1</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44466</v>
+        <v>44229</v>
       </c>
       <c r="E430" t="n">
         <v>13</v>
@@ -31313,33 +31313,33 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J430" t="n">
-        <v>6600</v>
+        <v>3700</v>
       </c>
       <c r="K430" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="L430" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="M430" t="n">
-        <v>870</v>
+        <v>1130</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P430" t="n">
-        <v>870</v>
+        <v>1130</v>
       </c>
       <c r="Q430" t="n">
         <v>1</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44242</v>
+        <v>44453</v>
       </c>
       <c r="E431" t="n">
         <v>13</v>
@@ -31385,33 +31385,33 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J431" t="n">
-        <v>4500</v>
+        <v>5400</v>
       </c>
       <c r="K431" t="n">
-        <v>2100</v>
+        <v>1000</v>
       </c>
       <c r="L431" t="n">
-        <v>2400</v>
+        <v>1100</v>
       </c>
       <c r="M431" t="n">
-        <v>2267</v>
+        <v>1043</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P431" t="n">
-        <v>2267</v>
+        <v>1043</v>
       </c>
       <c r="Q431" t="n">
         <v>1</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44242</v>
+        <v>44466</v>
       </c>
       <c r="E432" t="n">
         <v>13</v>
@@ -31461,29 +31461,29 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>8100</v>
+        <v>6600</v>
       </c>
       <c r="K432" t="n">
-        <v>1800</v>
+        <v>850</v>
       </c>
       <c r="L432" t="n">
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="M432" t="n">
-        <v>1896</v>
+        <v>870</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P432" t="n">
-        <v>1896</v>
+        <v>870</v>
       </c>
       <c r="Q432" t="n">
         <v>1</v>
@@ -31529,20 +31529,20 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J433" t="n">
-        <v>4100</v>
+        <v>4500</v>
       </c>
       <c r="K433" t="n">
-        <v>1400</v>
+        <v>2100</v>
       </c>
       <c r="L433" t="n">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="M433" t="n">
-        <v>1583</v>
+        <v>2267</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>1583</v>
+        <v>2267</v>
       </c>
       <c r="Q433" t="n">
         <v>1</v>
@@ -31601,20 +31601,20 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J434" t="n">
-        <v>4200</v>
+        <v>8100</v>
       </c>
       <c r="K434" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L434" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M434" t="n">
-        <v>2629</v>
+        <v>1896</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>2629</v>
+        <v>1896</v>
       </c>
       <c r="Q434" t="n">
         <v>1</v>
@@ -31673,20 +31673,20 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J435" t="n">
-        <v>5300</v>
+        <v>4100</v>
       </c>
       <c r="K435" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="L435" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="M435" t="n">
-        <v>1117</v>
+        <v>1583</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>1117</v>
+        <v>1583</v>
       </c>
       <c r="Q435" t="n">
         <v>1</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44279</v>
+        <v>44242</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -31745,20 +31745,20 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J436" t="n">
-        <v>1200</v>
+        <v>4200</v>
       </c>
       <c r="K436" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="L436" t="n">
-        <v>500</v>
+        <v>2800</v>
       </c>
       <c r="M436" t="n">
-        <v>500</v>
+        <v>2629</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31767,11 +31767,11 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P436" t="n">
-        <v>500</v>
+        <v>2629</v>
       </c>
       <c r="Q436" t="n">
         <v>1</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44279</v>
+        <v>44242</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -31817,20 +31817,20 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J437" t="n">
-        <v>1300</v>
+        <v>5300</v>
       </c>
       <c r="K437" t="n">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="L437" t="n">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="M437" t="n">
-        <v>2200</v>
+        <v>1117</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31839,11 +31839,11 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P437" t="n">
-        <v>2200</v>
+        <v>1117</v>
       </c>
       <c r="Q437" t="n">
         <v>1</v>
@@ -31889,20 +31889,20 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J438" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="K438" t="n">
-        <v>1700</v>
+        <v>500</v>
       </c>
       <c r="L438" t="n">
-        <v>1700</v>
+        <v>500</v>
       </c>
       <c r="M438" t="n">
-        <v>1700</v>
+        <v>500</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>1700</v>
+        <v>500</v>
       </c>
       <c r="Q438" t="n">
         <v>1</v>
@@ -31961,20 +31961,20 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J439" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="K439" t="n">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="L439" t="n">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="M439" t="n">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="Q439" t="n">
         <v>1</v>
@@ -32033,20 +32033,20 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J440" t="n">
+        <v>2400</v>
+      </c>
+      <c r="K440" t="n">
         <v>1700</v>
       </c>
-      <c r="K440" t="n">
-        <v>1000</v>
-      </c>
       <c r="L440" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="M440" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="Q440" t="n">
         <v>1</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -32105,20 +32105,20 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J441" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K441" t="n">
         <v>1300</v>
       </c>
-      <c r="K441" t="n">
-        <v>1000</v>
-      </c>
       <c r="L441" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="M441" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="Q441" t="n">
         <v>1</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44280</v>
+        <v>44279</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -32177,20 +32177,20 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J442" t="n">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="K442" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L442" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M442" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="Q442" t="n">
         <v>1</v>
@@ -32249,20 +32249,20 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J443" t="n">
-        <v>2700</v>
+        <v>1300</v>
       </c>
       <c r="K443" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L443" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M443" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q443" t="n">
         <v>1</v>
@@ -32321,20 +32321,20 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J444" t="n">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="K444" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="L444" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="M444" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="Q444" t="n">
         <v>1</v>
@@ -32393,20 +32393,20 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>1600</v>
+        <v>2700</v>
       </c>
       <c r="K445" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="L445" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="M445" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="Q445" t="n">
         <v>1</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44476</v>
+        <v>44280</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -32465,33 +32465,33 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J446" t="n">
-        <v>7200</v>
+        <v>2200</v>
       </c>
       <c r="K446" t="n">
-        <v>750</v>
+        <v>1700</v>
       </c>
       <c r="L446" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="M446" t="n">
-        <v>773</v>
+        <v>1700</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P446" t="n">
-        <v>773</v>
+        <v>1700</v>
       </c>
       <c r="Q446" t="n">
         <v>1</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44201</v>
+        <v>44280</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -32537,20 +32537,20 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>3100</v>
+        <v>1600</v>
       </c>
       <c r="K447" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="L447" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="M447" t="n">
-        <v>755</v>
+        <v>1400</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32559,11 +32559,11 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P447" t="n">
-        <v>755</v>
+        <v>1400</v>
       </c>
       <c r="Q447" t="n">
         <v>1</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44201</v>
+        <v>44476</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -32609,33 +32609,33 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J448" t="n">
-        <v>2200</v>
+        <v>7200</v>
       </c>
       <c r="K448" t="n">
-        <v>3000</v>
+        <v>750</v>
       </c>
       <c r="L448" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M448" t="n">
-        <v>3000</v>
+        <v>773</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P448" t="n">
-        <v>3000</v>
+        <v>773</v>
       </c>
       <c r="Q448" t="n">
         <v>1</v>
@@ -32681,20 +32681,20 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J449" t="n">
-        <v>5700</v>
+        <v>3100</v>
       </c>
       <c r="K449" t="n">
-        <v>2600</v>
+        <v>700</v>
       </c>
       <c r="L449" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="M449" t="n">
-        <v>2684</v>
+        <v>755</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>2684</v>
+        <v>755</v>
       </c>
       <c r="Q449" t="n">
         <v>1</v>
@@ -32753,20 +32753,20 @@
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J450" t="n">
-        <v>3300</v>
+        <v>2200</v>
       </c>
       <c r="K450" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L450" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="M450" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="Q450" t="n">
         <v>1</v>
@@ -32825,20 +32825,20 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J451" t="n">
-        <v>8200</v>
+        <v>5700</v>
       </c>
       <c r="K451" t="n">
-        <v>2100</v>
+        <v>2600</v>
       </c>
       <c r="L451" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="M451" t="n">
-        <v>2228</v>
+        <v>2684</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>2228</v>
+        <v>2684</v>
       </c>
       <c r="Q451" t="n">
         <v>1</v>
@@ -32897,20 +32897,20 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J452" t="n">
-        <v>5100</v>
+        <v>3300</v>
       </c>
       <c r="K452" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="L452" t="n">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="M452" t="n">
-        <v>1729</v>
+        <v>2400</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32919,11 +32919,11 @@
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P452" t="n">
-        <v>1729</v>
+        <v>2400</v>
       </c>
       <c r="Q452" t="n">
         <v>1</v>
@@ -32969,20 +32969,20 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J453" t="n">
-        <v>2900</v>
+        <v>8200</v>
       </c>
       <c r="K453" t="n">
-        <v>3500</v>
+        <v>2100</v>
       </c>
       <c r="L453" t="n">
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="M453" t="n">
-        <v>3500</v>
+        <v>2228</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32991,11 +32991,11 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P453" t="n">
-        <v>3500</v>
+        <v>2228</v>
       </c>
       <c r="Q453" t="n">
         <v>1</v>
@@ -33041,20 +33041,20 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J454" t="n">
-        <v>7700</v>
+        <v>5100</v>
       </c>
       <c r="K454" t="n">
-        <v>3200</v>
+        <v>1600</v>
       </c>
       <c r="L454" t="n">
-        <v>3500</v>
+        <v>1900</v>
       </c>
       <c r="M454" t="n">
-        <v>3329</v>
+        <v>1729</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>3329</v>
+        <v>1729</v>
       </c>
       <c r="Q454" t="n">
         <v>1</v>
@@ -33113,20 +33113,20 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J455" t="n">
-        <v>4200</v>
+        <v>2900</v>
       </c>
       <c r="K455" t="n">
-        <v>1100</v>
+        <v>3500</v>
       </c>
       <c r="L455" t="n">
-        <v>1400</v>
+        <v>3500</v>
       </c>
       <c r="M455" t="n">
-        <v>1279</v>
+        <v>3500</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33135,11 +33135,11 @@
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P455" t="n">
-        <v>1279</v>
+        <v>3500</v>
       </c>
       <c r="Q455" t="n">
         <v>1</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44482</v>
+        <v>44201</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -33185,33 +33185,33 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J456" t="n">
-        <v>4700</v>
+        <v>7700</v>
       </c>
       <c r="K456" t="n">
-        <v>650</v>
+        <v>3200</v>
       </c>
       <c r="L456" t="n">
-        <v>700</v>
+        <v>3500</v>
       </c>
       <c r="M456" t="n">
-        <v>672</v>
+        <v>3329</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P456" t="n">
-        <v>672</v>
+        <v>3329</v>
       </c>
       <c r="Q456" t="n">
         <v>1</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44204</v>
+        <v>44201</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -33257,20 +33257,20 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J457" t="n">
+        <v>4200</v>
+      </c>
+      <c r="K457" t="n">
+        <v>1100</v>
+      </c>
+      <c r="L457" t="n">
         <v>1400</v>
       </c>
-      <c r="K457" t="n">
-        <v>800</v>
-      </c>
-      <c r="L457" t="n">
-        <v>800</v>
-      </c>
       <c r="M457" t="n">
-        <v>800</v>
+        <v>1279</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>800</v>
+        <v>1279</v>
       </c>
       <c r="Q457" t="n">
         <v>1</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44204</v>
+        <v>44482</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -33329,33 +33329,33 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J458" t="n">
         <v>4700</v>
       </c>
       <c r="K458" t="n">
-        <v>2500</v>
+        <v>650</v>
       </c>
       <c r="L458" t="n">
-        <v>2700</v>
+        <v>700</v>
       </c>
       <c r="M458" t="n">
-        <v>2615</v>
+        <v>672</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P458" t="n">
-        <v>2615</v>
+        <v>672</v>
       </c>
       <c r="Q458" t="n">
         <v>1</v>
@@ -33401,20 +33401,20 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>7100</v>
+        <v>1400</v>
       </c>
       <c r="K459" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L459" t="n">
-        <v>2200</v>
+        <v>800</v>
       </c>
       <c r="M459" t="n">
-        <v>2087</v>
+        <v>800</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>2087</v>
+        <v>800</v>
       </c>
       <c r="Q459" t="n">
         <v>1</v>
@@ -33473,20 +33473,20 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J460" t="n">
-        <v>5400</v>
+        <v>4700</v>
       </c>
       <c r="K460" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="L460" t="n">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="M460" t="n">
-        <v>1661</v>
+        <v>2615</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>1661</v>
+        <v>2615</v>
       </c>
       <c r="Q460" t="n">
         <v>1</v>
@@ -33545,20 +33545,20 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J461" t="n">
-        <v>7600</v>
+        <v>7100</v>
       </c>
       <c r="K461" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L461" t="n">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="M461" t="n">
-        <v>3092</v>
+        <v>2087</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>3092</v>
+        <v>2087</v>
       </c>
       <c r="Q461" t="n">
         <v>1</v>
@@ -33617,20 +33617,20 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J462" t="n">
-        <v>4200</v>
+        <v>5400</v>
       </c>
       <c r="K462" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L462" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="M462" t="n">
-        <v>1157</v>
+        <v>1661</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>1157</v>
+        <v>1661</v>
       </c>
       <c r="Q462" t="n">
         <v>1</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44277</v>
+        <v>44204</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -33689,20 +33689,20 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J463" t="n">
-        <v>1000</v>
+        <v>7600</v>
       </c>
       <c r="K463" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L463" t="n">
-        <v>800</v>
+        <v>3200</v>
       </c>
       <c r="M463" t="n">
-        <v>800</v>
+        <v>3092</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33711,11 +33711,11 @@
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P463" t="n">
-        <v>800</v>
+        <v>3092</v>
       </c>
       <c r="Q463" t="n">
         <v>1</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44277</v>
+        <v>44204</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -33761,20 +33761,20 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J464" t="n">
-        <v>1500</v>
+        <v>4200</v>
       </c>
       <c r="K464" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="L464" t="n">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="M464" t="n">
-        <v>2400</v>
+        <v>1157</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33783,11 +33783,11 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P464" t="n">
-        <v>2400</v>
+        <v>1157</v>
       </c>
       <c r="Q464" t="n">
         <v>1</v>
@@ -33833,20 +33833,20 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J465" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="K465" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="L465" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="M465" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="Q465" t="n">
         <v>1</v>
@@ -33905,20 +33905,20 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J466" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="K466" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="L466" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="M466" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="Q466" t="n">
         <v>1</v>
@@ -33977,20 +33977,20 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J467" t="n">
-        <v>1300</v>
+        <v>2400</v>
       </c>
       <c r="K467" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="L467" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="M467" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="Q467" t="n">
         <v>1</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44218</v>
+        <v>44277</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -34049,20 +34049,20 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J468" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="K468" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="L468" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="M468" t="n">
-        <v>764</v>
+        <v>1500</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34071,11 +34071,11 @@
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="P468" t="n">
-        <v>764</v>
+        <v>1500</v>
       </c>
       <c r="Q468" t="n">
         <v>1</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44218</v>
+        <v>44277</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -34121,20 +34121,20 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J469" t="n">
-        <v>4300</v>
+        <v>1300</v>
       </c>
       <c r="K469" t="n">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="L469" t="n">
-        <v>2600</v>
+        <v>1300</v>
       </c>
       <c r="M469" t="n">
-        <v>2516</v>
+        <v>1300</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34143,11 +34143,11 @@
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="P469" t="n">
-        <v>2516</v>
+        <v>1300</v>
       </c>
       <c r="Q469" t="n">
         <v>1</v>
@@ -34193,20 +34193,20 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J470" t="n">
-        <v>6400</v>
+        <v>2200</v>
       </c>
       <c r="K470" t="n">
-        <v>1900</v>
+        <v>700</v>
       </c>
       <c r="L470" t="n">
-        <v>2100</v>
+        <v>800</v>
       </c>
       <c r="M470" t="n">
-        <v>2009</v>
+        <v>764</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>2009</v>
+        <v>764</v>
       </c>
       <c r="Q470" t="n">
         <v>1</v>
@@ -34265,20 +34265,20 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J471" t="n">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="K471" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="L471" t="n">
-        <v>1700</v>
+        <v>2600</v>
       </c>
       <c r="M471" t="n">
-        <v>1607</v>
+        <v>2516</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>1607</v>
+        <v>2516</v>
       </c>
       <c r="Q471" t="n">
         <v>1</v>
@@ -34337,20 +34337,20 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J472" t="n">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="K472" t="n">
-        <v>2700</v>
+        <v>1900</v>
       </c>
       <c r="L472" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="M472" t="n">
-        <v>2880</v>
+        <v>2009</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>2880</v>
+        <v>2009</v>
       </c>
       <c r="Q472" t="n">
         <v>1</v>
@@ -34409,20 +34409,20 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J473" t="n">
-        <v>3000</v>
+        <v>4100</v>
       </c>
       <c r="K473" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="L473" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="M473" t="n">
-        <v>1213</v>
+        <v>1607</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>1213</v>
+        <v>1607</v>
       </c>
       <c r="Q473" t="n">
         <v>1</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44221</v>
+        <v>44218</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -34481,20 +34481,20 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J474" t="n">
+        <v>6500</v>
+      </c>
+      <c r="K474" t="n">
         <v>2700</v>
       </c>
-      <c r="K474" t="n">
-        <v>700</v>
-      </c>
       <c r="L474" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="M474" t="n">
-        <v>759</v>
+        <v>2880</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>759</v>
+        <v>2880</v>
       </c>
       <c r="Q474" t="n">
         <v>1</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44221</v>
+        <v>44218</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -34553,20 +34553,20 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J475" t="n">
-        <v>5700</v>
+        <v>3000</v>
       </c>
       <c r="K475" t="n">
-        <v>2200</v>
+        <v>1100</v>
       </c>
       <c r="L475" t="n">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="M475" t="n">
-        <v>2323</v>
+        <v>1213</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>2323</v>
+        <v>1213</v>
       </c>
       <c r="Q475" t="n">
         <v>1</v>
@@ -34625,20 +34625,20 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J476" t="n">
-        <v>8100</v>
+        <v>2700</v>
       </c>
       <c r="K476" t="n">
-        <v>1700</v>
+        <v>700</v>
       </c>
       <c r="L476" t="n">
-        <v>1900</v>
+        <v>800</v>
       </c>
       <c r="M476" t="n">
-        <v>1796</v>
+        <v>759</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>1796</v>
+        <v>759</v>
       </c>
       <c r="Q476" t="n">
         <v>1</v>
@@ -34697,20 +34697,20 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="K477" t="n">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="L477" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="M477" t="n">
-        <v>1445</v>
+        <v>2323</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>1445</v>
+        <v>2323</v>
       </c>
       <c r="Q477" t="n">
         <v>1</v>
@@ -34769,20 +34769,20 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>4400</v>
+        <v>8100</v>
       </c>
       <c r="K478" t="n">
-        <v>2600</v>
+        <v>1700</v>
       </c>
       <c r="L478" t="n">
-        <v>2800</v>
+        <v>1900</v>
       </c>
       <c r="M478" t="n">
-        <v>2709</v>
+        <v>1796</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>2709</v>
+        <v>1796</v>
       </c>
       <c r="Q478" t="n">
         <v>1</v>
@@ -34841,20 +34841,20 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J479" t="n">
-        <v>5600</v>
+        <v>6000</v>
       </c>
       <c r="K479" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="L479" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="M479" t="n">
-        <v>1118</v>
+        <v>1445</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>1118</v>
+        <v>1445</v>
       </c>
       <c r="Q479" t="n">
         <v>1</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44166</v>
+        <v>44221</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -34913,20 +34913,20 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J480" t="n">
-        <v>900</v>
+        <v>4400</v>
       </c>
       <c r="K480" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="L480" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="M480" t="n">
-        <v>1800</v>
+        <v>2709</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>1800</v>
+        <v>2709</v>
       </c>
       <c r="Q480" t="n">
         <v>1</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44166</v>
+        <v>44221</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -34985,20 +34985,20 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J481" t="n">
-        <v>2200</v>
+        <v>5600</v>
       </c>
       <c r="K481" t="n">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="L481" t="n">
-        <v>4500</v>
+        <v>1200</v>
       </c>
       <c r="M481" t="n">
-        <v>4500</v>
+        <v>1118</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35007,11 +35007,11 @@
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P481" t="n">
-        <v>4500</v>
+        <v>1118</v>
       </c>
       <c r="Q481" t="n">
         <v>1</v>
@@ -35057,33 +35057,33 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J482" t="n">
-        <v>4200</v>
+        <v>900</v>
       </c>
       <c r="K482" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="L482" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="M482" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O482" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P482" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="Q482" t="n">
         <v>1</v>
@@ -35129,33 +35129,33 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J483" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="K483" t="n">
-        <v>400</v>
+        <v>4500</v>
       </c>
       <c r="L483" t="n">
-        <v>400</v>
+        <v>4500</v>
       </c>
       <c r="M483" t="n">
-        <v>400</v>
+        <v>4500</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O483" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P483" t="n">
-        <v>400</v>
+        <v>4500</v>
       </c>
       <c r="Q483" t="n">
         <v>1</v>
@@ -35205,29 +35205,29 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>3500</v>
+        <v>4200</v>
       </c>
       <c r="K484" t="n">
-        <v>3600</v>
+        <v>500</v>
       </c>
       <c r="L484" t="n">
-        <v>3600</v>
+        <v>500</v>
       </c>
       <c r="M484" t="n">
-        <v>3600</v>
+        <v>500</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O484" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P484" t="n">
-        <v>3600</v>
+        <v>500</v>
       </c>
       <c r="Q484" t="n">
         <v>1</v>
@@ -35277,20 +35277,20 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="K485" t="n">
-        <v>3800</v>
+        <v>400</v>
       </c>
       <c r="L485" t="n">
-        <v>3800</v>
+        <v>400</v>
       </c>
       <c r="M485" t="n">
-        <v>3800</v>
+        <v>400</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O485" t="inlineStr">
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>3800</v>
+        <v>400</v>
       </c>
       <c r="Q485" t="n">
         <v>1</v>
@@ -35345,33 +35345,33 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="K486" t="n">
-        <v>400</v>
+        <v>3600</v>
       </c>
       <c r="L486" t="n">
-        <v>400</v>
+        <v>3600</v>
       </c>
       <c r="M486" t="n">
-        <v>400</v>
+        <v>3600</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P486" t="n">
-        <v>400</v>
+        <v>3600</v>
       </c>
       <c r="Q486" t="n">
         <v>1</v>
@@ -35417,24 +35417,24 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J487" t="n">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="K487" t="n">
-        <v>300</v>
+        <v>3800</v>
       </c>
       <c r="L487" t="n">
-        <v>300</v>
+        <v>3800</v>
       </c>
       <c r="M487" t="n">
-        <v>300</v>
+        <v>3800</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O487" t="inlineStr">
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>300</v>
+        <v>3800</v>
       </c>
       <c r="Q487" t="n">
         <v>1</v>
@@ -35493,29 +35493,29 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="K488" t="n">
-        <v>2800</v>
+        <v>400</v>
       </c>
       <c r="L488" t="n">
-        <v>2800</v>
+        <v>400</v>
       </c>
       <c r="M488" t="n">
-        <v>2800</v>
+        <v>400</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P488" t="n">
-        <v>2800</v>
+        <v>400</v>
       </c>
       <c r="Q488" t="n">
         <v>1</v>
@@ -35561,24 +35561,24 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J489" t="n">
         <v>1000</v>
       </c>
       <c r="K489" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="L489" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="M489" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O489" t="inlineStr">
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="Q489" t="n">
         <v>1</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44477</v>
+        <v>44166</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -35633,33 +35633,33 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J490" t="n">
-        <v>5700</v>
+        <v>1500</v>
       </c>
       <c r="K490" t="n">
-        <v>700</v>
+        <v>2800</v>
       </c>
       <c r="L490" t="n">
-        <v>750</v>
+        <v>2800</v>
       </c>
       <c r="M490" t="n">
-        <v>731</v>
+        <v>2800</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P490" t="n">
-        <v>731</v>
+        <v>2800</v>
       </c>
       <c r="Q490" t="n">
         <v>1</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44508</v>
+        <v>44166</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -35705,33 +35705,33 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J491" t="n">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="K491" t="n">
-        <v>650</v>
+        <v>2000</v>
       </c>
       <c r="L491" t="n">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="M491" t="n">
-        <v>671</v>
+        <v>2000</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P491" t="n">
-        <v>671</v>
+        <v>2000</v>
       </c>
       <c r="Q491" t="n">
         <v>1</v>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44211</v>
+        <v>44477</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -35777,33 +35777,33 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J492" t="n">
-        <v>800</v>
+        <v>5700</v>
       </c>
       <c r="K492" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L492" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="M492" t="n">
-        <v>800</v>
+        <v>731</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P492" t="n">
-        <v>800</v>
+        <v>731</v>
       </c>
       <c r="Q492" t="n">
         <v>1</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44211</v>
+        <v>44508</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -35849,33 +35849,33 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J493" t="n">
-        <v>1260</v>
+        <v>4500</v>
       </c>
       <c r="K493" t="n">
+        <v>650</v>
+      </c>
+      <c r="L493" t="n">
         <v>700</v>
       </c>
-      <c r="L493" t="n">
-        <v>800</v>
-      </c>
       <c r="M493" t="n">
-        <v>744</v>
+        <v>671</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P493" t="n">
-        <v>744</v>
+        <v>671</v>
       </c>
       <c r="Q493" t="n">
         <v>1</v>
@@ -35921,20 +35921,20 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J494" t="n">
-        <v>2310</v>
+        <v>800</v>
       </c>
       <c r="K494" t="n">
-        <v>2200</v>
+        <v>800</v>
       </c>
       <c r="L494" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M494" t="n">
-        <v>2325</v>
+        <v>800</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>2325</v>
+        <v>800</v>
       </c>
       <c r="Q494" t="n">
         <v>1</v>
@@ -35993,20 +35993,20 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J495" t="n">
-        <v>2400</v>
+        <v>1260</v>
       </c>
       <c r="K495" t="n">
-        <v>2300</v>
+        <v>700</v>
       </c>
       <c r="L495" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M495" t="n">
-        <v>2408</v>
+        <v>744</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>2408</v>
+        <v>744</v>
       </c>
       <c r="Q495" t="n">
         <v>1</v>
@@ -36065,20 +36065,20 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J496" t="n">
-        <v>3450</v>
+        <v>2310</v>
       </c>
       <c r="K496" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="L496" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M496" t="n">
-        <v>1842</v>
+        <v>2325</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>1842</v>
+        <v>2325</v>
       </c>
       <c r="Q496" t="n">
         <v>1</v>
@@ -36137,20 +36137,20 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J497" t="n">
-        <v>2750</v>
+        <v>2400</v>
       </c>
       <c r="K497" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="L497" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M497" t="n">
-        <v>1898</v>
+        <v>2408</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>1898</v>
+        <v>2408</v>
       </c>
       <c r="Q497" t="n">
         <v>1</v>
@@ -36209,20 +36209,20 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J498" t="n">
-        <v>890</v>
+        <v>3450</v>
       </c>
       <c r="K498" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L498" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M498" t="n">
-        <v>1500</v>
+        <v>1842</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>1500</v>
+        <v>1842</v>
       </c>
       <c r="Q498" t="n">
         <v>1</v>
@@ -36281,20 +36281,20 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J499" t="n">
-        <v>2380</v>
+        <v>2750</v>
       </c>
       <c r="K499" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="L499" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M499" t="n">
-        <v>1482</v>
+        <v>1898</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>1482</v>
+        <v>1898</v>
       </c>
       <c r="Q499" t="n">
         <v>1</v>
@@ -36353,20 +36353,20 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J500" t="n">
-        <v>1160</v>
+        <v>890</v>
       </c>
       <c r="K500" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="L500" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="M500" t="n">
-        <v>2919</v>
+        <v>1500</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>2919</v>
+        <v>1500</v>
       </c>
       <c r="Q500" t="n">
         <v>1</v>
@@ -36425,20 +36425,20 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J501" t="n">
-        <v>1800</v>
+        <v>2380</v>
       </c>
       <c r="K501" t="n">
-        <v>2700</v>
+        <v>1400</v>
       </c>
       <c r="L501" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="M501" t="n">
-        <v>2867</v>
+        <v>1482</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>2867</v>
+        <v>1482</v>
       </c>
       <c r="Q501" t="n">
         <v>1</v>
@@ -36497,20 +36497,20 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J502" t="n">
-        <v>1810</v>
+        <v>1160</v>
       </c>
       <c r="K502" t="n">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="L502" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="M502" t="n">
-        <v>1093</v>
+        <v>2919</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>1093</v>
+        <v>2919</v>
       </c>
       <c r="Q502" t="n">
         <v>1</v>
@@ -36569,20 +36569,20 @@
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J503" t="n">
-        <v>1450</v>
+        <v>1800</v>
       </c>
       <c r="K503" t="n">
-        <v>1000</v>
+        <v>2700</v>
       </c>
       <c r="L503" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="M503" t="n">
-        <v>1106</v>
+        <v>2867</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>1106</v>
+        <v>2867</v>
       </c>
       <c r="Q503" t="n">
         <v>1</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -36641,33 +36641,33 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J504" t="n">
-        <v>6300</v>
+        <v>1810</v>
       </c>
       <c r="K504" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L504" t="n">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="M504" t="n">
-        <v>731</v>
+        <v>1093</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P504" t="n">
-        <v>731</v>
+        <v>1093</v>
       </c>
       <c r="Q504" t="n">
         <v>1</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -36713,20 +36713,20 @@
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J505" t="n">
-        <v>1500</v>
+        <v>1450</v>
       </c>
       <c r="K505" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L505" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="M505" t="n">
-        <v>800</v>
+        <v>1106</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>800</v>
+        <v>1106</v>
       </c>
       <c r="Q505" t="n">
         <v>1</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -36785,33 +36785,33 @@
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J506" t="n">
-        <v>4400</v>
+        <v>6300</v>
       </c>
       <c r="K506" t="n">
-        <v>2300</v>
+        <v>700</v>
       </c>
       <c r="L506" t="n">
-        <v>2500</v>
+        <v>750</v>
       </c>
       <c r="M506" t="n">
-        <v>2414</v>
+        <v>731</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O506" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P506" t="n">
-        <v>2414</v>
+        <v>731</v>
       </c>
       <c r="Q506" t="n">
         <v>1</v>
@@ -36857,20 +36857,20 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J507" t="n">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="K507" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L507" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M507" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36879,11 +36879,11 @@
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P507" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q507" t="n">
         <v>1</v>
@@ -36929,20 +36929,20 @@
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J508" t="n">
-        <v>6600</v>
+        <v>4400</v>
       </c>
       <c r="K508" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="L508" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M508" t="n">
-        <v>1906</v>
+        <v>2414</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>1906</v>
+        <v>2414</v>
       </c>
       <c r="Q508" t="n">
         <v>1</v>
@@ -37001,20 +37001,20 @@
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J509" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="K509" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L509" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M509" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q509" t="n">
         <v>1</v>
@@ -37073,20 +37073,20 @@
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J510" t="n">
-        <v>4100</v>
+        <v>6600</v>
       </c>
       <c r="K510" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="L510" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M510" t="n">
-        <v>1507</v>
+        <v>1906</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>1507</v>
+        <v>1906</v>
       </c>
       <c r="Q510" t="n">
         <v>1</v>
@@ -37145,20 +37145,20 @@
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J511" t="n">
-        <v>5600</v>
+        <v>3000</v>
       </c>
       <c r="K511" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L511" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M511" t="n">
-        <v>2914</v>
+        <v>2000</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37167,11 +37167,11 @@
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P511" t="n">
-        <v>2914</v>
+        <v>2000</v>
       </c>
       <c r="Q511" t="n">
         <v>1</v>
@@ -37217,20 +37217,20 @@
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J512" t="n">
-        <v>2500</v>
+        <v>4100</v>
       </c>
       <c r="K512" t="n">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="L512" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="M512" t="n">
-        <v>3000</v>
+        <v>1507</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37239,11 +37239,11 @@
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P512" t="n">
-        <v>3000</v>
+        <v>1507</v>
       </c>
       <c r="Q512" t="n">
         <v>1</v>
@@ -37289,20 +37289,20 @@
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J513" t="n">
-        <v>3800</v>
+        <v>5600</v>
       </c>
       <c r="K513" t="n">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="L513" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="M513" t="n">
-        <v>1132</v>
+        <v>2914</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>1132</v>
+        <v>2914</v>
       </c>
       <c r="Q513" t="n">
         <v>1</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -37361,20 +37361,20 @@
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J514" t="n">
-        <v>5300</v>
+        <v>2500</v>
       </c>
       <c r="K514" t="n">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="L514" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="M514" t="n">
-        <v>3042</v>
+        <v>3000</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37383,11 +37383,11 @@
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P514" t="n">
-        <v>3042</v>
+        <v>3000</v>
       </c>
       <c r="Q514" t="n">
         <v>1</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -37433,20 +37433,20 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J515" t="n">
-        <v>7200</v>
+        <v>3800</v>
       </c>
       <c r="K515" t="n">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="L515" t="n">
-        <v>2600</v>
+        <v>1200</v>
       </c>
       <c r="M515" t="n">
-        <v>2438</v>
+        <v>1132</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>2438</v>
+        <v>1132</v>
       </c>
       <c r="Q515" t="n">
         <v>1</v>
@@ -37505,20 +37505,20 @@
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J516" t="n">
-        <v>5900</v>
+        <v>5300</v>
       </c>
       <c r="K516" t="n">
-        <v>1500</v>
+        <v>2900</v>
       </c>
       <c r="L516" t="n">
-        <v>1800</v>
+        <v>3200</v>
       </c>
       <c r="M516" t="n">
-        <v>1632</v>
+        <v>3042</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>1632</v>
+        <v>3042</v>
       </c>
       <c r="Q516" t="n">
         <v>1</v>
@@ -37577,20 +37577,20 @@
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J517" t="n">
-        <v>4300</v>
+        <v>7200</v>
       </c>
       <c r="K517" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="L517" t="n">
-        <v>3700</v>
+        <v>2600</v>
       </c>
       <c r="M517" t="n">
-        <v>3588</v>
+        <v>2438</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>3588</v>
+        <v>2438</v>
       </c>
       <c r="Q517" t="n">
         <v>1</v>
@@ -37649,20 +37649,20 @@
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J518" t="n">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="K518" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="L518" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="M518" t="n">
-        <v>1060</v>
+        <v>1632</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>1060</v>
+        <v>1632</v>
       </c>
       <c r="Q518" t="n">
         <v>1</v>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -37721,33 +37721,33 @@
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J519" t="n">
-        <v>9700</v>
+        <v>4300</v>
       </c>
       <c r="K519" t="n">
-        <v>600</v>
+        <v>3500</v>
       </c>
       <c r="L519" t="n">
-        <v>650</v>
+        <v>3700</v>
       </c>
       <c r="M519" t="n">
-        <v>623</v>
+        <v>3588</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O519" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P519" t="n">
-        <v>623</v>
+        <v>3588</v>
       </c>
       <c r="Q519" t="n">
         <v>1</v>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -37793,33 +37793,33 @@
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J520" t="n">
-        <v>2900</v>
+        <v>5800</v>
       </c>
       <c r="K520" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L520" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="M520" t="n">
-        <v>500</v>
+        <v>1060</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O520" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P520" t="n">
-        <v>500</v>
+        <v>1060</v>
       </c>
       <c r="Q520" t="n">
         <v>1</v>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -37865,33 +37865,33 @@
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J521" t="n">
-        <v>4700</v>
+        <v>9700</v>
       </c>
       <c r="K521" t="n">
-        <v>2200</v>
+        <v>600</v>
       </c>
       <c r="L521" t="n">
-        <v>2400</v>
+        <v>650</v>
       </c>
       <c r="M521" t="n">
-        <v>2289</v>
+        <v>623</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O521" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P521" t="n">
-        <v>2289</v>
+        <v>623</v>
       </c>
       <c r="Q521" t="n">
         <v>1</v>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -37937,33 +37937,33 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J522" t="n">
-        <v>6900</v>
+        <v>2900</v>
       </c>
       <c r="K522" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="L522" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="M522" t="n">
-        <v>1893</v>
+        <v>500</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O522" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P522" t="n">
-        <v>1893</v>
+        <v>500</v>
       </c>
       <c r="Q522" t="n">
         <v>1</v>
@@ -38009,20 +38009,20 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J523" t="n">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="K523" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="L523" t="n">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="M523" t="n">
-        <v>1524</v>
+        <v>2289</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>1524</v>
+        <v>2289</v>
       </c>
       <c r="Q523" t="n">
         <v>1</v>
@@ -38081,20 +38081,20 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>5400</v>
+        <v>6900</v>
       </c>
       <c r="K524" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L524" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M524" t="n">
-        <v>2639</v>
+        <v>1893</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>2639</v>
+        <v>1893</v>
       </c>
       <c r="Q524" t="n">
         <v>1</v>
@@ -38153,20 +38153,20 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J525" t="n">
-        <v>5700</v>
+        <v>4600</v>
       </c>
       <c r="K525" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="L525" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="M525" t="n">
-        <v>1116</v>
+        <v>1524</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>1116</v>
+        <v>1524</v>
       </c>
       <c r="Q525" t="n">
         <v>1</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -38225,33 +38225,33 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>11600</v>
+        <v>5400</v>
       </c>
       <c r="K526" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="L526" t="n">
-        <v>650</v>
+        <v>2800</v>
       </c>
       <c r="M526" t="n">
-        <v>624</v>
+        <v>2639</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O526" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P526" t="n">
-        <v>624</v>
+        <v>2639</v>
       </c>
       <c r="Q526" t="n">
         <v>1</v>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44168</v>
+        <v>44246</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -38297,33 +38297,33 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J527" t="n">
-        <v>3300</v>
+        <v>5700</v>
       </c>
       <c r="K527" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="L527" t="n">
-        <v>450</v>
+        <v>1300</v>
       </c>
       <c r="M527" t="n">
-        <v>450</v>
+        <v>1116</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P527" t="n">
-        <v>450</v>
+        <v>1116</v>
       </c>
       <c r="Q527" t="n">
         <v>1</v>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44168</v>
+        <v>44487</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -38369,33 +38369,33 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J528" t="n">
-        <v>5900</v>
+        <v>11600</v>
       </c>
       <c r="K528" t="n">
-        <v>2700</v>
+        <v>600</v>
       </c>
       <c r="L528" t="n">
-        <v>3000</v>
+        <v>650</v>
       </c>
       <c r="M528" t="n">
-        <v>2873</v>
+        <v>624</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P528" t="n">
-        <v>2873</v>
+        <v>624</v>
       </c>
       <c r="Q528" t="n">
         <v>1</v>
@@ -38441,20 +38441,20 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J529" t="n">
-        <v>4100</v>
+        <v>3300</v>
       </c>
       <c r="K529" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L529" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="M529" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="Q529" t="n">
         <v>1</v>
@@ -38513,20 +38513,20 @@
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J530" t="n">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="K530" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="L530" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M530" t="n">
-        <v>2444</v>
+        <v>2873</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>2444</v>
+        <v>2873</v>
       </c>
       <c r="Q530" t="n">
         <v>1</v>
@@ -38585,20 +38585,20 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J531" t="n">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="K531" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L531" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M531" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q531" t="n">
         <v>1</v>
@@ -38657,20 +38657,20 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>4900</v>
+        <v>6100</v>
       </c>
       <c r="K532" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="L532" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M532" t="n">
-        <v>1914</v>
+        <v>2444</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38683,7 +38683,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>1914</v>
+        <v>2444</v>
       </c>
       <c r="Q532" t="n">
         <v>1</v>
@@ -38729,33 +38729,33 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>5600</v>
+        <v>3800</v>
       </c>
       <c r="K533" t="n">
-        <v>3600</v>
+        <v>300</v>
       </c>
       <c r="L533" t="n">
-        <v>4000</v>
+        <v>300</v>
       </c>
       <c r="M533" t="n">
-        <v>3757</v>
+        <v>300</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O533" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P533" t="n">
-        <v>3757</v>
+        <v>300</v>
       </c>
       <c r="Q533" t="n">
         <v>1</v>
@@ -38801,20 +38801,20 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>3600</v>
+        <v>4900</v>
       </c>
       <c r="K534" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="L534" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M534" t="n">
-        <v>1422</v>
+        <v>1914</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>1422</v>
+        <v>1914</v>
       </c>
       <c r="Q534" t="n">
         <v>1</v>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -38873,20 +38873,20 @@
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>2200</v>
+        <v>5600</v>
       </c>
       <c r="K535" t="n">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="L535" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="M535" t="n">
-        <v>3309</v>
+        <v>3757</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38895,11 +38895,11 @@
       </c>
       <c r="O535" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P535" t="n">
-        <v>3309</v>
+        <v>3757</v>
       </c>
       <c r="Q535" t="n">
         <v>1</v>
@@ -38925,7 +38925,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -38945,20 +38945,20 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>3100</v>
+        <v>3600</v>
       </c>
       <c r="K536" t="n">
-        <v>3300</v>
+        <v>1300</v>
       </c>
       <c r="L536" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M536" t="n">
-        <v>3390</v>
+        <v>1422</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>3390</v>
+        <v>1422</v>
       </c>
       <c r="Q536" t="n">
         <v>1</v>
@@ -39017,20 +39017,20 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>3800</v>
+        <v>2200</v>
       </c>
       <c r="K537" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="L537" t="n">
-        <v>2700</v>
+        <v>3400</v>
       </c>
       <c r="M537" t="n">
-        <v>2595</v>
+        <v>3309</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39043,7 +39043,7 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>2595</v>
+        <v>3309</v>
       </c>
       <c r="Q537" t="n">
         <v>1</v>
@@ -39089,20 +39089,20 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>6000</v>
+        <v>3100</v>
       </c>
       <c r="K538" t="n">
-        <v>2700</v>
+        <v>3300</v>
       </c>
       <c r="L538" t="n">
-        <v>2900</v>
+        <v>3500</v>
       </c>
       <c r="M538" t="n">
-        <v>2810</v>
+        <v>3390</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>2810</v>
+        <v>3390</v>
       </c>
       <c r="Q538" t="n">
         <v>1</v>
@@ -39161,20 +39161,20 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="K539" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L539" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M539" t="n">
-        <v>2275</v>
+        <v>2595</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39183,11 +39183,11 @@
       </c>
       <c r="O539" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P539" t="n">
-        <v>2275</v>
+        <v>2595</v>
       </c>
       <c r="Q539" t="n">
         <v>1</v>
@@ -39233,20 +39233,20 @@
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J540" t="n">
-        <v>1800</v>
+        <v>6000</v>
       </c>
       <c r="K540" t="n">
-        <v>3800</v>
+        <v>2700</v>
       </c>
       <c r="L540" t="n">
-        <v>4000</v>
+        <v>2900</v>
       </c>
       <c r="M540" t="n">
-        <v>3922</v>
+        <v>2810</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39255,11 +39255,11 @@
       </c>
       <c r="O540" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P540" t="n">
-        <v>3922</v>
+        <v>2810</v>
       </c>
       <c r="Q540" t="n">
         <v>1</v>
@@ -39305,20 +39305,20 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J541" t="n">
-        <v>2900</v>
+        <v>4000</v>
       </c>
       <c r="K541" t="n">
-        <v>3900</v>
+        <v>2200</v>
       </c>
       <c r="L541" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="M541" t="n">
-        <v>3945</v>
+        <v>2275</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>3945</v>
+        <v>2275</v>
       </c>
       <c r="Q541" t="n">
         <v>1</v>
@@ -39377,20 +39377,20 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J542" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="K542" t="n">
-        <v>1600</v>
+        <v>3800</v>
       </c>
       <c r="L542" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="M542" t="n">
-        <v>1673</v>
+        <v>3922</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39399,11 +39399,11 @@
       </c>
       <c r="O542" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P542" t="n">
-        <v>1673</v>
+        <v>3922</v>
       </c>
       <c r="Q542" t="n">
         <v>1</v>
@@ -39429,7 +39429,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44473</v>
+        <v>44175</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -39449,33 +39449,33 @@
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J543" t="n">
-        <v>7500</v>
+        <v>2900</v>
       </c>
       <c r="K543" t="n">
-        <v>700</v>
+        <v>3900</v>
       </c>
       <c r="L543" t="n">
-        <v>750</v>
+        <v>4000</v>
       </c>
       <c r="M543" t="n">
-        <v>721</v>
+        <v>3945</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O543" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P543" t="n">
-        <v>721</v>
+        <v>3945</v>
       </c>
       <c r="Q543" t="n">
         <v>1</v>
@@ -39501,7 +39501,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -39521,20 +39521,20 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K544" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="L544" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="M544" t="n">
-        <v>1000</v>
+        <v>1673</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39543,11 +39543,11 @@
       </c>
       <c r="O544" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P544" t="n">
-        <v>1000</v>
+        <v>1673</v>
       </c>
       <c r="Q544" t="n">
         <v>1</v>
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44181</v>
+        <v>44473</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -39593,33 +39593,33 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J545" t="n">
-        <v>2800</v>
+        <v>7500</v>
       </c>
       <c r="K545" t="n">
-        <v>3000</v>
+        <v>700</v>
       </c>
       <c r="L545" t="n">
-        <v>3000</v>
+        <v>750</v>
       </c>
       <c r="M545" t="n">
-        <v>3000</v>
+        <v>721</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O545" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P545" t="n">
-        <v>3000</v>
+        <v>721</v>
       </c>
       <c r="Q545" t="n">
         <v>1</v>
@@ -39665,20 +39665,20 @@
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J546" t="n">
-        <v>6300</v>
+        <v>2200</v>
       </c>
       <c r="K546" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="L546" t="n">
-        <v>3300</v>
+        <v>1000</v>
       </c>
       <c r="M546" t="n">
-        <v>3119</v>
+        <v>1000</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>3119</v>
+        <v>1000</v>
       </c>
       <c r="Q546" t="n">
         <v>1</v>
@@ -39737,20 +39737,20 @@
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J547" t="n">
-        <v>1900</v>
+        <v>2800</v>
       </c>
       <c r="K547" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L547" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M547" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39763,7 +39763,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q547" t="n">
         <v>1</v>
@@ -39809,20 +39809,20 @@
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J548" t="n">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="K548" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L548" t="n">
-        <v>2700</v>
+        <v>3300</v>
       </c>
       <c r="M548" t="n">
-        <v>2592</v>
+        <v>3119</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>2592</v>
+        <v>3119</v>
       </c>
       <c r="Q548" t="n">
         <v>1</v>
@@ -39881,20 +39881,20 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>4900</v>
+        <v>1900</v>
       </c>
       <c r="K549" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L549" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="M549" t="n">
-        <v>2208</v>
+        <v>2500</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39903,11 +39903,11 @@
       </c>
       <c r="O549" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P549" t="n">
-        <v>2208</v>
+        <v>2500</v>
       </c>
       <c r="Q549" t="n">
         <v>1</v>
@@ -39953,20 +39953,20 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J550" t="n">
-        <v>2400</v>
+        <v>6500</v>
       </c>
       <c r="K550" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L550" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="M550" t="n">
-        <v>3500</v>
+        <v>2592</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39975,11 +39975,11 @@
       </c>
       <c r="O550" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P550" t="n">
-        <v>3500</v>
+        <v>2592</v>
       </c>
       <c r="Q550" t="n">
         <v>1</v>
@@ -40025,20 +40025,20 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>6000</v>
+        <v>4900</v>
       </c>
       <c r="K551" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L551" t="n">
-        <v>3800</v>
+        <v>2300</v>
       </c>
       <c r="M551" t="n">
-        <v>3635</v>
+        <v>2208</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>3635</v>
+        <v>2208</v>
       </c>
       <c r="Q551" t="n">
         <v>1</v>
@@ -40097,20 +40097,20 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="K552" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="L552" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="M552" t="n">
-        <v>1672</v>
+        <v>3500</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40119,11 +40119,11 @@
       </c>
       <c r="O552" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P552" t="n">
-        <v>1672</v>
+        <v>3500</v>
       </c>
       <c r="Q552" t="n">
         <v>1</v>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -40169,33 +40169,33 @@
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="K553" t="n">
-        <v>550</v>
+        <v>3500</v>
       </c>
       <c r="L553" t="n">
-        <v>600</v>
+        <v>3800</v>
       </c>
       <c r="M553" t="n">
-        <v>573</v>
+        <v>3635</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O553" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P553" t="n">
-        <v>573</v>
+        <v>3635</v>
       </c>
       <c r="Q553" t="n">
         <v>1</v>
@@ -40221,7 +40221,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44270</v>
+        <v>44181</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -40241,20 +40241,20 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J554" t="n">
+        <v>4000</v>
+      </c>
+      <c r="K554" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L554" t="n">
         <v>1800</v>
       </c>
-      <c r="K554" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L554" t="n">
-        <v>1000</v>
-      </c>
       <c r="M554" t="n">
-        <v>1000</v>
+        <v>1672</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         </is>
       </c>
       <c r="P554" t="n">
-        <v>1000</v>
+        <v>1672</v>
       </c>
       <c r="Q554" t="n">
         <v>1</v>
@@ -40293,7 +40293,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44270</v>
+        <v>44494</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -40313,33 +40313,33 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J555" t="n">
-        <v>2300</v>
+        <v>6100</v>
       </c>
       <c r="K555" t="n">
-        <v>2500</v>
+        <v>550</v>
       </c>
       <c r="L555" t="n">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="M555" t="n">
-        <v>2500</v>
+        <v>573</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O555" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P555" t="n">
-        <v>2500</v>
+        <v>573</v>
       </c>
       <c r="Q555" t="n">
         <v>1</v>
@@ -40385,20 +40385,20 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J556" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="K556" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L556" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M556" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q556" t="n">
         <v>1</v>
@@ -40457,20 +40457,20 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J557" t="n">
-        <v>3800</v>
+        <v>2300</v>
       </c>
       <c r="K557" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="L557" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="M557" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="Q557" t="n">
         <v>1</v>
@@ -40529,20 +40529,20 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J558" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="K558" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L558" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M558" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="Q558" t="n">
         <v>1</v>
@@ -40581,7 +40581,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -40601,20 +40601,20 @@
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J559" t="n">
-        <v>1500</v>
+        <v>3800</v>
       </c>
       <c r="K559" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="L559" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="M559" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40623,11 +40623,11 @@
       </c>
       <c r="O559" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P559" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="Q559" t="n">
         <v>1</v>
@@ -40653,7 +40653,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -40673,20 +40673,20 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J560" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="K560" t="n">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="L560" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="M560" t="n">
-        <v>2314</v>
+        <v>1500</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40699,7 +40699,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>2314</v>
+        <v>1500</v>
       </c>
       <c r="Q560" t="n">
         <v>1</v>
@@ -40745,20 +40745,20 @@
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J561" t="n">
-        <v>5200</v>
+        <v>1500</v>
       </c>
       <c r="K561" t="n">
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="L561" t="n">
-        <v>2600</v>
+        <v>800</v>
       </c>
       <c r="M561" t="n">
-        <v>2496</v>
+        <v>800</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>2496</v>
+        <v>800</v>
       </c>
       <c r="Q561" t="n">
         <v>1</v>
@@ -40821,16 +40821,16 @@
         </is>
       </c>
       <c r="J562" t="n">
+        <v>3500</v>
+      </c>
+      <c r="K562" t="n">
         <v>2200</v>
       </c>
-      <c r="K562" t="n">
-        <v>2500</v>
-      </c>
       <c r="L562" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="M562" t="n">
-        <v>2500</v>
+        <v>2314</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40839,11 +40839,11 @@
       </c>
       <c r="O562" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P562" t="n">
-        <v>2500</v>
+        <v>2314</v>
       </c>
       <c r="Q562" t="n">
         <v>1</v>
@@ -40889,20 +40889,20 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J563" t="n">
-        <v>4600</v>
+        <v>5200</v>
       </c>
       <c r="K563" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="L563" t="n">
-        <v>1900</v>
+        <v>2600</v>
       </c>
       <c r="M563" t="n">
-        <v>1850</v>
+        <v>2496</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40911,11 +40911,11 @@
       </c>
       <c r="O563" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P563" t="n">
-        <v>1850</v>
+        <v>2496</v>
       </c>
       <c r="Q563" t="n">
         <v>1</v>
@@ -40961,20 +40961,20 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J564" t="n">
-        <v>9000</v>
+        <v>2200</v>
       </c>
       <c r="K564" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="L564" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="M564" t="n">
-        <v>1998</v>
+        <v>2500</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40983,11 +40983,11 @@
       </c>
       <c r="O564" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P564" t="n">
-        <v>1998</v>
+        <v>2500</v>
       </c>
       <c r="Q564" t="n">
         <v>1</v>
@@ -41037,16 +41037,16 @@
         </is>
       </c>
       <c r="J565" t="n">
-        <v>2500</v>
+        <v>4600</v>
       </c>
       <c r="K565" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L565" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="M565" t="n">
-        <v>2000</v>
+        <v>1850</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41055,11 +41055,11 @@
       </c>
       <c r="O565" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P565" t="n">
-        <v>2000</v>
+        <v>1850</v>
       </c>
       <c r="Q565" t="n">
         <v>1</v>
@@ -41105,20 +41105,20 @@
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J566" t="n">
-        <v>4700</v>
+        <v>9000</v>
       </c>
       <c r="K566" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="L566" t="n">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="M566" t="n">
-        <v>1581</v>
+        <v>1998</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41131,7 +41131,7 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>1581</v>
+        <v>1998</v>
       </c>
       <c r="Q566" t="n">
         <v>1</v>
@@ -41177,20 +41177,20 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J567" t="n">
-        <v>4400</v>
+        <v>2500</v>
       </c>
       <c r="K567" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="L567" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="M567" t="n">
-        <v>2657</v>
+        <v>2000</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41199,11 +41199,11 @@
       </c>
       <c r="O567" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P567" t="n">
-        <v>2657</v>
+        <v>2000</v>
       </c>
       <c r="Q567" t="n">
         <v>1</v>
@@ -41249,20 +41249,20 @@
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J568" t="n">
-        <v>7800</v>
+        <v>4700</v>
       </c>
       <c r="K568" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="L568" t="n">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="M568" t="n">
-        <v>2900</v>
+        <v>1581</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         </is>
       </c>
       <c r="P568" t="n">
-        <v>2900</v>
+        <v>1581</v>
       </c>
       <c r="Q568" t="n">
         <v>1</v>
@@ -41325,16 +41325,16 @@
         </is>
       </c>
       <c r="J569" t="n">
-        <v>3500</v>
+        <v>4400</v>
       </c>
       <c r="K569" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="L569" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="M569" t="n">
-        <v>2800</v>
+        <v>2657</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41343,11 +41343,11 @@
       </c>
       <c r="O569" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P569" t="n">
-        <v>2800</v>
+        <v>2657</v>
       </c>
       <c r="Q569" t="n">
         <v>1</v>
@@ -41393,20 +41393,20 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J570" t="n">
-        <v>4700</v>
+        <v>7800</v>
       </c>
       <c r="K570" t="n">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="L570" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="M570" t="n">
-        <v>1140</v>
+        <v>2900</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>1140</v>
+        <v>2900</v>
       </c>
       <c r="Q570" t="n">
         <v>1</v>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -41465,33 +41465,33 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>4900</v>
+        <v>3500</v>
       </c>
       <c r="K571" t="n">
-        <v>850</v>
+        <v>2800</v>
       </c>
       <c r="L571" t="n">
-        <v>900</v>
+        <v>2800</v>
       </c>
       <c r="M571" t="n">
-        <v>878</v>
+        <v>2800</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O571" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P571" t="n">
-        <v>878</v>
+        <v>2800</v>
       </c>
       <c r="Q571" t="n">
         <v>1</v>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -41537,33 +41537,33 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>1900</v>
+        <v>4700</v>
       </c>
       <c r="K572" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L572" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="M572" t="n">
-        <v>700</v>
+        <v>1140</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O572" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P572" t="n">
-        <v>700</v>
+        <v>1140</v>
       </c>
       <c r="Q572" t="n">
         <v>1</v>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44244</v>
+        <v>44509</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -41609,33 +41609,33 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>2200</v>
+        <v>4900</v>
       </c>
       <c r="K573" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="L573" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M573" t="n">
-        <v>700</v>
+        <v>878</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O573" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P573" t="n">
-        <v>700</v>
+        <v>878</v>
       </c>
       <c r="Q573" t="n">
         <v>1</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44244</v>
+        <v>44509</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -41681,33 +41681,33 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>5800</v>
+        <v>1900</v>
       </c>
       <c r="K574" t="n">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="L574" t="n">
-        <v>2300</v>
+        <v>700</v>
       </c>
       <c r="M574" t="n">
-        <v>2129</v>
+        <v>700</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O574" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P574" t="n">
-        <v>2129</v>
+        <v>700</v>
       </c>
       <c r="Q574" t="n">
         <v>1</v>
@@ -41753,20 +41753,20 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>7400</v>
+        <v>2200</v>
       </c>
       <c r="K575" t="n">
-        <v>1700</v>
+        <v>700</v>
       </c>
       <c r="L575" t="n">
-        <v>1900</v>
+        <v>700</v>
       </c>
       <c r="M575" t="n">
-        <v>1792</v>
+        <v>700</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41779,7 +41779,7 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>1792</v>
+        <v>700</v>
       </c>
       <c r="Q575" t="n">
         <v>1</v>
@@ -41825,20 +41825,20 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>4600</v>
+        <v>5800</v>
       </c>
       <c r="K576" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="L576" t="n">
-        <v>1600</v>
+        <v>2300</v>
       </c>
       <c r="M576" t="n">
-        <v>1517</v>
+        <v>2129</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>1517</v>
+        <v>2129</v>
       </c>
       <c r="Q576" t="n">
         <v>1</v>
@@ -41897,20 +41897,20 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>5700</v>
+        <v>7400</v>
       </c>
       <c r="K577" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="L577" t="n">
-        <v>2700</v>
+        <v>1900</v>
       </c>
       <c r="M577" t="n">
-        <v>2602</v>
+        <v>1792</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41923,7 +41923,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>2602</v>
+        <v>1792</v>
       </c>
       <c r="Q577" t="n">
         <v>1</v>
@@ -41969,20 +41969,20 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="K578" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="L578" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="M578" t="n">
-        <v>1147</v>
+        <v>1517</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>1147</v>
+        <v>1517</v>
       </c>
       <c r="Q578" t="n">
         <v>1</v>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -42041,20 +42041,20 @@
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>1400</v>
+        <v>5700</v>
       </c>
       <c r="K579" t="n">
-        <v>700</v>
+        <v>2500</v>
       </c>
       <c r="L579" t="n">
-        <v>700</v>
+        <v>2700</v>
       </c>
       <c r="M579" t="n">
-        <v>700</v>
+        <v>2602</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42063,11 +42063,11 @@
       </c>
       <c r="O579" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P579" t="n">
-        <v>700</v>
+        <v>2602</v>
       </c>
       <c r="Q579" t="n">
         <v>1</v>
@@ -42093,7 +42093,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -42113,20 +42113,20 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J580" t="n">
-        <v>2400</v>
+        <v>4700</v>
       </c>
       <c r="K580" t="n">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="L580" t="n">
-        <v>2200</v>
+        <v>1300</v>
       </c>
       <c r="M580" t="n">
-        <v>2200</v>
+        <v>1147</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42135,11 +42135,11 @@
       </c>
       <c r="O580" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P580" t="n">
-        <v>2200</v>
+        <v>1147</v>
       </c>
       <c r="Q580" t="n">
         <v>1</v>
@@ -42185,20 +42185,20 @@
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J581" t="n">
-        <v>3200</v>
+        <v>1400</v>
       </c>
       <c r="K581" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="L581" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="M581" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         </is>
       </c>
       <c r="P581" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="Q581" t="n">
         <v>1</v>
@@ -42257,20 +42257,20 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J582" t="n">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="K582" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="L582" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="M582" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42283,7 +42283,7 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="Q582" t="n">
         <v>1</v>
@@ -42329,20 +42329,20 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J583" t="n">
-        <v>1900</v>
+        <v>3200</v>
       </c>
       <c r="K583" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="L583" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="M583" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="Q583" t="n">
         <v>1</v>
@@ -42381,7 +42381,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -42401,20 +42401,20 @@
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J584" t="n">
-        <v>4000</v>
+        <v>1700</v>
       </c>
       <c r="K584" t="n">
-        <v>3500</v>
+        <v>1400</v>
       </c>
       <c r="L584" t="n">
-        <v>3800</v>
+        <v>1400</v>
       </c>
       <c r="M584" t="n">
-        <v>3665</v>
+        <v>1400</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42423,11 +42423,11 @@
       </c>
       <c r="O584" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P584" t="n">
-        <v>3665</v>
+        <v>1400</v>
       </c>
       <c r="Q584" t="n">
         <v>1</v>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -42473,20 +42473,20 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J585" t="n">
-        <v>5300</v>
+        <v>1900</v>
       </c>
       <c r="K585" t="n">
-        <v>2900</v>
+        <v>1100</v>
       </c>
       <c r="L585" t="n">
-        <v>3200</v>
+        <v>1100</v>
       </c>
       <c r="M585" t="n">
-        <v>3036</v>
+        <v>1100</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42495,11 +42495,11 @@
       </c>
       <c r="O585" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P585" t="n">
-        <v>3036</v>
+        <v>1100</v>
       </c>
       <c r="Q585" t="n">
         <v>1</v>
@@ -42545,20 +42545,20 @@
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J586" t="n">
         <v>4000</v>
       </c>
       <c r="K586" t="n">
-        <v>2200</v>
+        <v>3500</v>
       </c>
       <c r="L586" t="n">
-        <v>2400</v>
+        <v>3800</v>
       </c>
       <c r="M586" t="n">
-        <v>2315</v>
+        <v>3665</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         </is>
       </c>
       <c r="P586" t="n">
-        <v>2315</v>
+        <v>3665</v>
       </c>
       <c r="Q586" t="n">
         <v>1</v>
@@ -42617,20 +42617,20 @@
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J587" t="n">
-        <v>2800</v>
+        <v>5300</v>
       </c>
       <c r="K587" t="n">
-        <v>4000</v>
+        <v>2900</v>
       </c>
       <c r="L587" t="n">
-        <v>4300</v>
+        <v>3200</v>
       </c>
       <c r="M587" t="n">
-        <v>4182</v>
+        <v>3036</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42643,7 +42643,7 @@
         </is>
       </c>
       <c r="P587" t="n">
-        <v>4182</v>
+        <v>3036</v>
       </c>
       <c r="Q587" t="n">
         <v>1</v>
@@ -42689,20 +42689,20 @@
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J588" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="K588" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="L588" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M588" t="n">
-        <v>1788</v>
+        <v>2315</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>1788</v>
+        <v>2315</v>
       </c>
       <c r="Q588" t="n">
         <v>1</v>
@@ -42741,58 +42741,202 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E589" t="n">
+        <v>13</v>
+      </c>
+      <c r="F589" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I589" t="inlineStr">
+        <is>
+          <t>Super</t>
+        </is>
+      </c>
+      <c r="J589" t="n">
+        <v>2800</v>
+      </c>
+      <c r="K589" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L589" t="n">
+        <v>4300</v>
+      </c>
+      <c r="M589" t="n">
+        <v>4182</v>
+      </c>
+      <c r="N589" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O589" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P589" t="n">
+        <v>4182</v>
+      </c>
+      <c r="Q589" t="n">
+        <v>1</v>
+      </c>
+      <c r="R589" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>6</v>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D590" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E590" t="n">
+        <v>13</v>
+      </c>
+      <c r="F590" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I590" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J590" t="n">
+        <v>2600</v>
+      </c>
+      <c r="K590" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L590" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M590" t="n">
+        <v>1788</v>
+      </c>
+      <c r="N590" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O590" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P590" t="n">
+        <v>1788</v>
+      </c>
+      <c r="Q590" t="n">
+        <v>1</v>
+      </c>
+      <c r="R590" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>6</v>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D591" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E589" t="n">
-        <v>13</v>
-      </c>
-      <c r="F589" t="n">
-        <v>100112028</v>
-      </c>
-      <c r="G589" t="inlineStr">
-        <is>
-          <t>Sandia</t>
-        </is>
-      </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I589" t="inlineStr">
+      <c r="E591" t="n">
+        <v>13</v>
+      </c>
+      <c r="F591" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I591" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J589" t="n">
+      <c r="J591" t="n">
         <v>8100</v>
       </c>
-      <c r="K589" t="n">
+      <c r="K591" t="n">
         <v>550</v>
       </c>
-      <c r="L589" t="n">
+      <c r="L591" t="n">
         <v>600</v>
       </c>
-      <c r="M589" t="n">
+      <c r="M591" t="n">
         <v>572</v>
       </c>
-      <c r="N589" t="inlineStr">
+      <c r="N591" t="inlineStr">
         <is>
           <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
-      <c r="O589" t="inlineStr">
+      <c r="O591" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="P589" t="n">
+      <c r="P591" t="n">
         <v>572</v>
       </c>
-      <c r="Q589" t="n">
-        <v>1</v>
-      </c>
-      <c r="R589" t="inlineStr">
+      <c r="Q591" t="n">
+        <v>1</v>
+      </c>
+      <c r="R591" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R591"/>
+  <dimension ref="A1:R593"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -35921,33 +35921,33 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J494" t="n">
-        <v>800</v>
+        <v>7100</v>
       </c>
       <c r="K494" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="L494" t="n">
         <v>800</v>
       </c>
       <c r="M494" t="n">
-        <v>800</v>
+        <v>773</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P494" t="n">
-        <v>800</v>
+        <v>773</v>
       </c>
       <c r="Q494" t="n">
         <v>1</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -35993,33 +35993,33 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J495" t="n">
-        <v>1260</v>
+        <v>1900</v>
       </c>
       <c r="K495" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L495" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M495" t="n">
-        <v>744</v>
+        <v>600</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P495" t="n">
-        <v>744</v>
+        <v>600</v>
       </c>
       <c r="Q495" t="n">
         <v>1</v>
@@ -36065,20 +36065,20 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J496" t="n">
-        <v>2310</v>
+        <v>800</v>
       </c>
       <c r="K496" t="n">
-        <v>2200</v>
+        <v>800</v>
       </c>
       <c r="L496" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M496" t="n">
-        <v>2325</v>
+        <v>800</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>2325</v>
+        <v>800</v>
       </c>
       <c r="Q496" t="n">
         <v>1</v>
@@ -36137,20 +36137,20 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J497" t="n">
-        <v>2400</v>
+        <v>1260</v>
       </c>
       <c r="K497" t="n">
-        <v>2300</v>
+        <v>700</v>
       </c>
       <c r="L497" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M497" t="n">
-        <v>2408</v>
+        <v>744</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>2408</v>
+        <v>744</v>
       </c>
       <c r="Q497" t="n">
         <v>1</v>
@@ -36209,20 +36209,20 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J498" t="n">
-        <v>3450</v>
+        <v>2310</v>
       </c>
       <c r="K498" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="L498" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M498" t="n">
-        <v>1842</v>
+        <v>2325</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>1842</v>
+        <v>2325</v>
       </c>
       <c r="Q498" t="n">
         <v>1</v>
@@ -36281,20 +36281,20 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J499" t="n">
-        <v>2750</v>
+        <v>2400</v>
       </c>
       <c r="K499" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="L499" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M499" t="n">
-        <v>1898</v>
+        <v>2408</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>1898</v>
+        <v>2408</v>
       </c>
       <c r="Q499" t="n">
         <v>1</v>
@@ -36353,20 +36353,20 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J500" t="n">
-        <v>890</v>
+        <v>3450</v>
       </c>
       <c r="K500" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L500" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M500" t="n">
-        <v>1500</v>
+        <v>1842</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>1500</v>
+        <v>1842</v>
       </c>
       <c r="Q500" t="n">
         <v>1</v>
@@ -36425,20 +36425,20 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J501" t="n">
-        <v>2380</v>
+        <v>2750</v>
       </c>
       <c r="K501" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="L501" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M501" t="n">
-        <v>1482</v>
+        <v>1898</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>1482</v>
+        <v>1898</v>
       </c>
       <c r="Q501" t="n">
         <v>1</v>
@@ -36497,20 +36497,20 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J502" t="n">
-        <v>1160</v>
+        <v>890</v>
       </c>
       <c r="K502" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="L502" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="M502" t="n">
-        <v>2919</v>
+        <v>1500</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>2919</v>
+        <v>1500</v>
       </c>
       <c r="Q502" t="n">
         <v>1</v>
@@ -36569,20 +36569,20 @@
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J503" t="n">
-        <v>1800</v>
+        <v>2380</v>
       </c>
       <c r="K503" t="n">
-        <v>2700</v>
+        <v>1400</v>
       </c>
       <c r="L503" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="M503" t="n">
-        <v>2867</v>
+        <v>1482</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>2867</v>
+        <v>1482</v>
       </c>
       <c r="Q503" t="n">
         <v>1</v>
@@ -36641,20 +36641,20 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J504" t="n">
-        <v>1810</v>
+        <v>1160</v>
       </c>
       <c r="K504" t="n">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="L504" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="M504" t="n">
-        <v>1093</v>
+        <v>2919</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>1093</v>
+        <v>2919</v>
       </c>
       <c r="Q504" t="n">
         <v>1</v>
@@ -36713,20 +36713,20 @@
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J505" t="n">
-        <v>1450</v>
+        <v>1800</v>
       </c>
       <c r="K505" t="n">
-        <v>1000</v>
+        <v>2700</v>
       </c>
       <c r="L505" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="M505" t="n">
-        <v>1106</v>
+        <v>2867</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>1106</v>
+        <v>2867</v>
       </c>
       <c r="Q505" t="n">
         <v>1</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -36785,33 +36785,33 @@
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J506" t="n">
-        <v>6300</v>
+        <v>1810</v>
       </c>
       <c r="K506" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L506" t="n">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="M506" t="n">
-        <v>731</v>
+        <v>1093</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O506" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P506" t="n">
-        <v>731</v>
+        <v>1093</v>
       </c>
       <c r="Q506" t="n">
         <v>1</v>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -36857,20 +36857,20 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J507" t="n">
-        <v>1500</v>
+        <v>1450</v>
       </c>
       <c r="K507" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L507" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="M507" t="n">
-        <v>800</v>
+        <v>1106</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>800</v>
+        <v>1106</v>
       </c>
       <c r="Q507" t="n">
         <v>1</v>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -36929,33 +36929,33 @@
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J508" t="n">
-        <v>4400</v>
+        <v>6300</v>
       </c>
       <c r="K508" t="n">
-        <v>2300</v>
+        <v>700</v>
       </c>
       <c r="L508" t="n">
-        <v>2500</v>
+        <v>750</v>
       </c>
       <c r="M508" t="n">
-        <v>2414</v>
+        <v>731</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P508" t="n">
-        <v>2414</v>
+        <v>731</v>
       </c>
       <c r="Q508" t="n">
         <v>1</v>
@@ -37001,20 +37001,20 @@
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J509" t="n">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="K509" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L509" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="M509" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37023,11 +37023,11 @@
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P509" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="Q509" t="n">
         <v>1</v>
@@ -37073,20 +37073,20 @@
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J510" t="n">
-        <v>6600</v>
+        <v>4400</v>
       </c>
       <c r="K510" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="L510" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M510" t="n">
-        <v>1906</v>
+        <v>2414</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>1906</v>
+        <v>2414</v>
       </c>
       <c r="Q510" t="n">
         <v>1</v>
@@ -37145,20 +37145,20 @@
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J511" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="K511" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L511" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M511" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q511" t="n">
         <v>1</v>
@@ -37217,20 +37217,20 @@
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J512" t="n">
-        <v>4100</v>
+        <v>6600</v>
       </c>
       <c r="K512" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="L512" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M512" t="n">
-        <v>1507</v>
+        <v>1906</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>1507</v>
+        <v>1906</v>
       </c>
       <c r="Q512" t="n">
         <v>1</v>
@@ -37289,20 +37289,20 @@
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J513" t="n">
-        <v>5600</v>
+        <v>3000</v>
       </c>
       <c r="K513" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L513" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M513" t="n">
-        <v>2914</v>
+        <v>2000</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37311,11 +37311,11 @@
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P513" t="n">
-        <v>2914</v>
+        <v>2000</v>
       </c>
       <c r="Q513" t="n">
         <v>1</v>
@@ -37361,20 +37361,20 @@
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J514" t="n">
-        <v>2500</v>
+        <v>4100</v>
       </c>
       <c r="K514" t="n">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="L514" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="M514" t="n">
-        <v>3000</v>
+        <v>1507</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37383,11 +37383,11 @@
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P514" t="n">
-        <v>3000</v>
+        <v>1507</v>
       </c>
       <c r="Q514" t="n">
         <v>1</v>
@@ -37433,20 +37433,20 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J515" t="n">
-        <v>3800</v>
+        <v>5600</v>
       </c>
       <c r="K515" t="n">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="L515" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="M515" t="n">
-        <v>1132</v>
+        <v>2914</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>1132</v>
+        <v>2914</v>
       </c>
       <c r="Q515" t="n">
         <v>1</v>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -37505,20 +37505,20 @@
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J516" t="n">
-        <v>5300</v>
+        <v>2500</v>
       </c>
       <c r="K516" t="n">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="L516" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="M516" t="n">
-        <v>3042</v>
+        <v>3000</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37527,11 +37527,11 @@
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P516" t="n">
-        <v>3042</v>
+        <v>3000</v>
       </c>
       <c r="Q516" t="n">
         <v>1</v>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -37577,20 +37577,20 @@
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J517" t="n">
-        <v>7200</v>
+        <v>3800</v>
       </c>
       <c r="K517" t="n">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="L517" t="n">
-        <v>2600</v>
+        <v>1200</v>
       </c>
       <c r="M517" t="n">
-        <v>2438</v>
+        <v>1132</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>2438</v>
+        <v>1132</v>
       </c>
       <c r="Q517" t="n">
         <v>1</v>
@@ -37649,20 +37649,20 @@
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J518" t="n">
-        <v>5900</v>
+        <v>5300</v>
       </c>
       <c r="K518" t="n">
-        <v>1500</v>
+        <v>2900</v>
       </c>
       <c r="L518" t="n">
-        <v>1800</v>
+        <v>3200</v>
       </c>
       <c r="M518" t="n">
-        <v>1632</v>
+        <v>3042</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>1632</v>
+        <v>3042</v>
       </c>
       <c r="Q518" t="n">
         <v>1</v>
@@ -37721,20 +37721,20 @@
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J519" t="n">
-        <v>4300</v>
+        <v>7200</v>
       </c>
       <c r="K519" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="L519" t="n">
-        <v>3700</v>
+        <v>2600</v>
       </c>
       <c r="M519" t="n">
-        <v>3588</v>
+        <v>2438</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37747,7 +37747,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>3588</v>
+        <v>2438</v>
       </c>
       <c r="Q519" t="n">
         <v>1</v>
@@ -37793,20 +37793,20 @@
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J520" t="n">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="K520" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="L520" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="M520" t="n">
-        <v>1060</v>
+        <v>1632</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>1060</v>
+        <v>1632</v>
       </c>
       <c r="Q520" t="n">
         <v>1</v>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -37865,33 +37865,33 @@
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J521" t="n">
-        <v>9700</v>
+        <v>4300</v>
       </c>
       <c r="K521" t="n">
-        <v>600</v>
+        <v>3500</v>
       </c>
       <c r="L521" t="n">
-        <v>650</v>
+        <v>3700</v>
       </c>
       <c r="M521" t="n">
-        <v>623</v>
+        <v>3588</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O521" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P521" t="n">
-        <v>623</v>
+        <v>3588</v>
       </c>
       <c r="Q521" t="n">
         <v>1</v>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -37937,33 +37937,33 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J522" t="n">
-        <v>2900</v>
+        <v>5800</v>
       </c>
       <c r="K522" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L522" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="M522" t="n">
-        <v>500</v>
+        <v>1060</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O522" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P522" t="n">
-        <v>500</v>
+        <v>1060</v>
       </c>
       <c r="Q522" t="n">
         <v>1</v>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -38009,33 +38009,33 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J523" t="n">
-        <v>4700</v>
+        <v>9700</v>
       </c>
       <c r="K523" t="n">
-        <v>2200</v>
+        <v>600</v>
       </c>
       <c r="L523" t="n">
-        <v>2400</v>
+        <v>650</v>
       </c>
       <c r="M523" t="n">
-        <v>2289</v>
+        <v>623</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P523" t="n">
-        <v>2289</v>
+        <v>623</v>
       </c>
       <c r="Q523" t="n">
         <v>1</v>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -38081,33 +38081,33 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>6900</v>
+        <v>2900</v>
       </c>
       <c r="K524" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="L524" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="M524" t="n">
-        <v>1893</v>
+        <v>500</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P524" t="n">
-        <v>1893</v>
+        <v>500</v>
       </c>
       <c r="Q524" t="n">
         <v>1</v>
@@ -38153,20 +38153,20 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J525" t="n">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="K525" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="L525" t="n">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="M525" t="n">
-        <v>1524</v>
+        <v>2289</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>1524</v>
+        <v>2289</v>
       </c>
       <c r="Q525" t="n">
         <v>1</v>
@@ -38225,20 +38225,20 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>5400</v>
+        <v>6900</v>
       </c>
       <c r="K526" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L526" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M526" t="n">
-        <v>2639</v>
+        <v>1893</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>2639</v>
+        <v>1893</v>
       </c>
       <c r="Q526" t="n">
         <v>1</v>
@@ -38297,20 +38297,20 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J527" t="n">
-        <v>5700</v>
+        <v>4600</v>
       </c>
       <c r="K527" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="L527" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="M527" t="n">
-        <v>1116</v>
+        <v>1524</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>1116</v>
+        <v>1524</v>
       </c>
       <c r="Q527" t="n">
         <v>1</v>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -38369,33 +38369,33 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J528" t="n">
-        <v>11600</v>
+        <v>5400</v>
       </c>
       <c r="K528" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="L528" t="n">
-        <v>650</v>
+        <v>2800</v>
       </c>
       <c r="M528" t="n">
-        <v>624</v>
+        <v>2639</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P528" t="n">
-        <v>624</v>
+        <v>2639</v>
       </c>
       <c r="Q528" t="n">
         <v>1</v>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44168</v>
+        <v>44246</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -38441,33 +38441,33 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J529" t="n">
-        <v>3300</v>
+        <v>5700</v>
       </c>
       <c r="K529" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="L529" t="n">
-        <v>450</v>
+        <v>1300</v>
       </c>
       <c r="M529" t="n">
-        <v>450</v>
+        <v>1116</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O529" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P529" t="n">
-        <v>450</v>
+        <v>1116</v>
       </c>
       <c r="Q529" t="n">
         <v>1</v>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44168</v>
+        <v>44487</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -38513,33 +38513,33 @@
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J530" t="n">
-        <v>5900</v>
+        <v>11600</v>
       </c>
       <c r="K530" t="n">
-        <v>2700</v>
+        <v>600</v>
       </c>
       <c r="L530" t="n">
-        <v>3000</v>
+        <v>650</v>
       </c>
       <c r="M530" t="n">
-        <v>2873</v>
+        <v>624</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O530" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P530" t="n">
-        <v>2873</v>
+        <v>624</v>
       </c>
       <c r="Q530" t="n">
         <v>1</v>
@@ -38585,20 +38585,20 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J531" t="n">
-        <v>4100</v>
+        <v>3300</v>
       </c>
       <c r="K531" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L531" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="M531" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="Q531" t="n">
         <v>1</v>
@@ -38657,20 +38657,20 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="K532" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="L532" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M532" t="n">
-        <v>2444</v>
+        <v>2873</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38683,7 +38683,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>2444</v>
+        <v>2873</v>
       </c>
       <c r="Q532" t="n">
         <v>1</v>
@@ -38729,20 +38729,20 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="K533" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L533" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M533" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q533" t="n">
         <v>1</v>
@@ -38801,20 +38801,20 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>4900</v>
+        <v>6100</v>
       </c>
       <c r="K534" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="L534" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M534" t="n">
-        <v>1914</v>
+        <v>2444</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>1914</v>
+        <v>2444</v>
       </c>
       <c r="Q534" t="n">
         <v>1</v>
@@ -38873,33 +38873,33 @@
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>5600</v>
+        <v>3800</v>
       </c>
       <c r="K535" t="n">
-        <v>3600</v>
+        <v>300</v>
       </c>
       <c r="L535" t="n">
-        <v>4000</v>
+        <v>300</v>
       </c>
       <c r="M535" t="n">
-        <v>3757</v>
+        <v>300</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O535" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P535" t="n">
-        <v>3757</v>
+        <v>300</v>
       </c>
       <c r="Q535" t="n">
         <v>1</v>
@@ -38945,20 +38945,20 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>3600</v>
+        <v>4900</v>
       </c>
       <c r="K536" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="L536" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M536" t="n">
-        <v>1422</v>
+        <v>1914</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>1422</v>
+        <v>1914</v>
       </c>
       <c r="Q536" t="n">
         <v>1</v>
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -39017,20 +39017,20 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>2200</v>
+        <v>5600</v>
       </c>
       <c r="K537" t="n">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="L537" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="M537" t="n">
-        <v>3309</v>
+        <v>3757</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39039,11 +39039,11 @@
       </c>
       <c r="O537" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P537" t="n">
-        <v>3309</v>
+        <v>3757</v>
       </c>
       <c r="Q537" t="n">
         <v>1</v>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -39089,20 +39089,20 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>3100</v>
+        <v>3600</v>
       </c>
       <c r="K538" t="n">
-        <v>3300</v>
+        <v>1300</v>
       </c>
       <c r="L538" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="M538" t="n">
-        <v>3390</v>
+        <v>1422</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>3390</v>
+        <v>1422</v>
       </c>
       <c r="Q538" t="n">
         <v>1</v>
@@ -39161,20 +39161,20 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>3800</v>
+        <v>2200</v>
       </c>
       <c r="K539" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="L539" t="n">
-        <v>2700</v>
+        <v>3400</v>
       </c>
       <c r="M539" t="n">
-        <v>2595</v>
+        <v>3309</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>2595</v>
+        <v>3309</v>
       </c>
       <c r="Q539" t="n">
         <v>1</v>
@@ -39233,20 +39233,20 @@
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J540" t="n">
-        <v>6000</v>
+        <v>3100</v>
       </c>
       <c r="K540" t="n">
-        <v>2700</v>
+        <v>3300</v>
       </c>
       <c r="L540" t="n">
-        <v>2900</v>
+        <v>3500</v>
       </c>
       <c r="M540" t="n">
-        <v>2810</v>
+        <v>3390</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>2810</v>
+        <v>3390</v>
       </c>
       <c r="Q540" t="n">
         <v>1</v>
@@ -39305,20 +39305,20 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J541" t="n">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="K541" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L541" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M541" t="n">
-        <v>2275</v>
+        <v>2595</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39327,11 +39327,11 @@
       </c>
       <c r="O541" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P541" t="n">
-        <v>2275</v>
+        <v>2595</v>
       </c>
       <c r="Q541" t="n">
         <v>1</v>
@@ -39377,20 +39377,20 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J542" t="n">
-        <v>1800</v>
+        <v>6000</v>
       </c>
       <c r="K542" t="n">
-        <v>3800</v>
+        <v>2700</v>
       </c>
       <c r="L542" t="n">
-        <v>4000</v>
+        <v>2900</v>
       </c>
       <c r="M542" t="n">
-        <v>3922</v>
+        <v>2810</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39399,11 +39399,11 @@
       </c>
       <c r="O542" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P542" t="n">
-        <v>3922</v>
+        <v>2810</v>
       </c>
       <c r="Q542" t="n">
         <v>1</v>
@@ -39449,20 +39449,20 @@
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J543" t="n">
-        <v>2900</v>
+        <v>4000</v>
       </c>
       <c r="K543" t="n">
-        <v>3900</v>
+        <v>2200</v>
       </c>
       <c r="L543" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="M543" t="n">
-        <v>3945</v>
+        <v>2275</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>3945</v>
+        <v>2275</v>
       </c>
       <c r="Q543" t="n">
         <v>1</v>
@@ -39521,20 +39521,20 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="K544" t="n">
-        <v>1600</v>
+        <v>3800</v>
       </c>
       <c r="L544" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="M544" t="n">
-        <v>1673</v>
+        <v>3922</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39543,11 +39543,11 @@
       </c>
       <c r="O544" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P544" t="n">
-        <v>1673</v>
+        <v>3922</v>
       </c>
       <c r="Q544" t="n">
         <v>1</v>
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44473</v>
+        <v>44175</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -39593,33 +39593,33 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J545" t="n">
-        <v>7500</v>
+        <v>2900</v>
       </c>
       <c r="K545" t="n">
-        <v>700</v>
+        <v>3900</v>
       </c>
       <c r="L545" t="n">
-        <v>750</v>
+        <v>4000</v>
       </c>
       <c r="M545" t="n">
-        <v>721</v>
+        <v>3945</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O545" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P545" t="n">
-        <v>721</v>
+        <v>3945</v>
       </c>
       <c r="Q545" t="n">
         <v>1</v>
@@ -39645,7 +39645,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -39665,20 +39665,20 @@
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J546" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K546" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="L546" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="M546" t="n">
-        <v>1000</v>
+        <v>1673</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39687,11 +39687,11 @@
       </c>
       <c r="O546" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P546" t="n">
-        <v>1000</v>
+        <v>1673</v>
       </c>
       <c r="Q546" t="n">
         <v>1</v>
@@ -39717,7 +39717,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44181</v>
+        <v>44473</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -39737,33 +39737,33 @@
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J547" t="n">
-        <v>2800</v>
+        <v>7500</v>
       </c>
       <c r="K547" t="n">
-        <v>3000</v>
+        <v>700</v>
       </c>
       <c r="L547" t="n">
-        <v>3000</v>
+        <v>750</v>
       </c>
       <c r="M547" t="n">
-        <v>3000</v>
+        <v>721</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O547" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P547" t="n">
-        <v>3000</v>
+        <v>721</v>
       </c>
       <c r="Q547" t="n">
         <v>1</v>
@@ -39809,20 +39809,20 @@
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J548" t="n">
-        <v>6300</v>
+        <v>2200</v>
       </c>
       <c r="K548" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="L548" t="n">
-        <v>3300</v>
+        <v>1000</v>
       </c>
       <c r="M548" t="n">
-        <v>3119</v>
+        <v>1000</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>3119</v>
+        <v>1000</v>
       </c>
       <c r="Q548" t="n">
         <v>1</v>
@@ -39881,20 +39881,20 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>1900</v>
+        <v>2800</v>
       </c>
       <c r="K549" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L549" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M549" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39907,7 +39907,7 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q549" t="n">
         <v>1</v>
@@ -39953,20 +39953,20 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J550" t="n">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="K550" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L550" t="n">
-        <v>2700</v>
+        <v>3300</v>
       </c>
       <c r="M550" t="n">
-        <v>2592</v>
+        <v>3119</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39979,7 +39979,7 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>2592</v>
+        <v>3119</v>
       </c>
       <c r="Q550" t="n">
         <v>1</v>
@@ -40025,20 +40025,20 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>4900</v>
+        <v>1900</v>
       </c>
       <c r="K551" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L551" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="M551" t="n">
-        <v>2208</v>
+        <v>2500</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40047,11 +40047,11 @@
       </c>
       <c r="O551" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P551" t="n">
-        <v>2208</v>
+        <v>2500</v>
       </c>
       <c r="Q551" t="n">
         <v>1</v>
@@ -40097,20 +40097,20 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>2400</v>
+        <v>6500</v>
       </c>
       <c r="K552" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L552" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="M552" t="n">
-        <v>3500</v>
+        <v>2592</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40119,11 +40119,11 @@
       </c>
       <c r="O552" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P552" t="n">
-        <v>3500</v>
+        <v>2592</v>
       </c>
       <c r="Q552" t="n">
         <v>1</v>
@@ -40169,20 +40169,20 @@
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>6000</v>
+        <v>4900</v>
       </c>
       <c r="K553" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L553" t="n">
-        <v>3800</v>
+        <v>2300</v>
       </c>
       <c r="M553" t="n">
-        <v>3635</v>
+        <v>2208</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>3635</v>
+        <v>2208</v>
       </c>
       <c r="Q553" t="n">
         <v>1</v>
@@ -40241,20 +40241,20 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J554" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="K554" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="L554" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="M554" t="n">
-        <v>1672</v>
+        <v>3500</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40263,11 +40263,11 @@
       </c>
       <c r="O554" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P554" t="n">
-        <v>1672</v>
+        <v>3500</v>
       </c>
       <c r="Q554" t="n">
         <v>1</v>
@@ -40293,7 +40293,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -40313,33 +40313,33 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J555" t="n">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="K555" t="n">
-        <v>550</v>
+        <v>3500</v>
       </c>
       <c r="L555" t="n">
-        <v>600</v>
+        <v>3800</v>
       </c>
       <c r="M555" t="n">
-        <v>573</v>
+        <v>3635</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O555" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P555" t="n">
-        <v>573</v>
+        <v>3635</v>
       </c>
       <c r="Q555" t="n">
         <v>1</v>
@@ -40365,7 +40365,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44270</v>
+        <v>44181</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -40385,20 +40385,20 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J556" t="n">
+        <v>4000</v>
+      </c>
+      <c r="K556" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L556" t="n">
         <v>1800</v>
       </c>
-      <c r="K556" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L556" t="n">
-        <v>1000</v>
-      </c>
       <c r="M556" t="n">
-        <v>1000</v>
+        <v>1672</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>1000</v>
+        <v>1672</v>
       </c>
       <c r="Q556" t="n">
         <v>1</v>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44270</v>
+        <v>44494</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -40457,33 +40457,33 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J557" t="n">
-        <v>2300</v>
+        <v>6100</v>
       </c>
       <c r="K557" t="n">
-        <v>2500</v>
+        <v>550</v>
       </c>
       <c r="L557" t="n">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="M557" t="n">
-        <v>2500</v>
+        <v>573</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O557" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P557" t="n">
-        <v>2500</v>
+        <v>573</v>
       </c>
       <c r="Q557" t="n">
         <v>1</v>
@@ -40529,20 +40529,20 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J558" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="K558" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L558" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M558" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q558" t="n">
         <v>1</v>
@@ -40601,20 +40601,20 @@
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J559" t="n">
-        <v>3800</v>
+        <v>2300</v>
       </c>
       <c r="K559" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="L559" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="M559" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40627,7 +40627,7 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="Q559" t="n">
         <v>1</v>
@@ -40673,20 +40673,20 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J560" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="K560" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L560" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M560" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40699,7 +40699,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="Q560" t="n">
         <v>1</v>
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -40745,20 +40745,20 @@
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J561" t="n">
-        <v>1500</v>
+        <v>3800</v>
       </c>
       <c r="K561" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="L561" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="M561" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40767,11 +40767,11 @@
       </c>
       <c r="O561" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P561" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="Q561" t="n">
         <v>1</v>
@@ -40797,7 +40797,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -40817,20 +40817,20 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J562" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="K562" t="n">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="L562" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="M562" t="n">
-        <v>2314</v>
+        <v>1500</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40843,7 +40843,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>2314</v>
+        <v>1500</v>
       </c>
       <c r="Q562" t="n">
         <v>1</v>
@@ -40889,20 +40889,20 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J563" t="n">
-        <v>5200</v>
+        <v>1500</v>
       </c>
       <c r="K563" t="n">
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="L563" t="n">
-        <v>2600</v>
+        <v>800</v>
       </c>
       <c r="M563" t="n">
-        <v>2496</v>
+        <v>800</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>2496</v>
+        <v>800</v>
       </c>
       <c r="Q563" t="n">
         <v>1</v>
@@ -40965,16 +40965,16 @@
         </is>
       </c>
       <c r="J564" t="n">
+        <v>3500</v>
+      </c>
+      <c r="K564" t="n">
         <v>2200</v>
       </c>
-      <c r="K564" t="n">
-        <v>2500</v>
-      </c>
       <c r="L564" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="M564" t="n">
-        <v>2500</v>
+        <v>2314</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40983,11 +40983,11 @@
       </c>
       <c r="O564" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P564" t="n">
-        <v>2500</v>
+        <v>2314</v>
       </c>
       <c r="Q564" t="n">
         <v>1</v>
@@ -41033,20 +41033,20 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J565" t="n">
-        <v>4600</v>
+        <v>5200</v>
       </c>
       <c r="K565" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="L565" t="n">
-        <v>1900</v>
+        <v>2600</v>
       </c>
       <c r="M565" t="n">
-        <v>1850</v>
+        <v>2496</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41055,11 +41055,11 @@
       </c>
       <c r="O565" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P565" t="n">
-        <v>1850</v>
+        <v>2496</v>
       </c>
       <c r="Q565" t="n">
         <v>1</v>
@@ -41105,20 +41105,20 @@
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J566" t="n">
-        <v>9000</v>
+        <v>2200</v>
       </c>
       <c r="K566" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="L566" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="M566" t="n">
-        <v>1998</v>
+        <v>2500</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41127,11 +41127,11 @@
       </c>
       <c r="O566" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P566" t="n">
-        <v>1998</v>
+        <v>2500</v>
       </c>
       <c r="Q566" t="n">
         <v>1</v>
@@ -41181,16 +41181,16 @@
         </is>
       </c>
       <c r="J567" t="n">
-        <v>2500</v>
+        <v>4600</v>
       </c>
       <c r="K567" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L567" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="M567" t="n">
-        <v>2000</v>
+        <v>1850</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41199,11 +41199,11 @@
       </c>
       <c r="O567" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P567" t="n">
-        <v>2000</v>
+        <v>1850</v>
       </c>
       <c r="Q567" t="n">
         <v>1</v>
@@ -41249,20 +41249,20 @@
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J568" t="n">
-        <v>4700</v>
+        <v>9000</v>
       </c>
       <c r="K568" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="L568" t="n">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="M568" t="n">
-        <v>1581</v>
+        <v>1998</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         </is>
       </c>
       <c r="P568" t="n">
-        <v>1581</v>
+        <v>1998</v>
       </c>
       <c r="Q568" t="n">
         <v>1</v>
@@ -41321,20 +41321,20 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J569" t="n">
-        <v>4400</v>
+        <v>2500</v>
       </c>
       <c r="K569" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="L569" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="M569" t="n">
-        <v>2657</v>
+        <v>2000</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41343,11 +41343,11 @@
       </c>
       <c r="O569" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P569" t="n">
-        <v>2657</v>
+        <v>2000</v>
       </c>
       <c r="Q569" t="n">
         <v>1</v>
@@ -41393,20 +41393,20 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J570" t="n">
-        <v>7800</v>
+        <v>4700</v>
       </c>
       <c r="K570" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="L570" t="n">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="M570" t="n">
-        <v>2900</v>
+        <v>1581</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>2900</v>
+        <v>1581</v>
       </c>
       <c r="Q570" t="n">
         <v>1</v>
@@ -41469,16 +41469,16 @@
         </is>
       </c>
       <c r="J571" t="n">
-        <v>3500</v>
+        <v>4400</v>
       </c>
       <c r="K571" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="L571" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="M571" t="n">
-        <v>2800</v>
+        <v>2657</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41487,11 +41487,11 @@
       </c>
       <c r="O571" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P571" t="n">
-        <v>2800</v>
+        <v>2657</v>
       </c>
       <c r="Q571" t="n">
         <v>1</v>
@@ -41537,20 +41537,20 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>4700</v>
+        <v>7800</v>
       </c>
       <c r="K572" t="n">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="L572" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="M572" t="n">
-        <v>1140</v>
+        <v>2900</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41563,7 +41563,7 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>1140</v>
+        <v>2900</v>
       </c>
       <c r="Q572" t="n">
         <v>1</v>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -41609,33 +41609,33 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>4900</v>
+        <v>3500</v>
       </c>
       <c r="K573" t="n">
-        <v>850</v>
+        <v>2800</v>
       </c>
       <c r="L573" t="n">
-        <v>900</v>
+        <v>2800</v>
       </c>
       <c r="M573" t="n">
-        <v>878</v>
+        <v>2800</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O573" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P573" t="n">
-        <v>878</v>
+        <v>2800</v>
       </c>
       <c r="Q573" t="n">
         <v>1</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -41681,33 +41681,33 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>1900</v>
+        <v>4700</v>
       </c>
       <c r="K574" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L574" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="M574" t="n">
-        <v>700</v>
+        <v>1140</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O574" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P574" t="n">
-        <v>700</v>
+        <v>1140</v>
       </c>
       <c r="Q574" t="n">
         <v>1</v>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44244</v>
+        <v>44509</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -41753,33 +41753,33 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>2200</v>
+        <v>4900</v>
       </c>
       <c r="K575" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="L575" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M575" t="n">
-        <v>700</v>
+        <v>878</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O575" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P575" t="n">
-        <v>700</v>
+        <v>878</v>
       </c>
       <c r="Q575" t="n">
         <v>1</v>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44244</v>
+        <v>44509</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -41825,33 +41825,33 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>5800</v>
+        <v>1900</v>
       </c>
       <c r="K576" t="n">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="L576" t="n">
-        <v>2300</v>
+        <v>700</v>
       </c>
       <c r="M576" t="n">
-        <v>2129</v>
+        <v>700</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O576" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P576" t="n">
-        <v>2129</v>
+        <v>700</v>
       </c>
       <c r="Q576" t="n">
         <v>1</v>
@@ -41897,20 +41897,20 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>7400</v>
+        <v>2200</v>
       </c>
       <c r="K577" t="n">
-        <v>1700</v>
+        <v>700</v>
       </c>
       <c r="L577" t="n">
-        <v>1900</v>
+        <v>700</v>
       </c>
       <c r="M577" t="n">
-        <v>1792</v>
+        <v>700</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41923,7 +41923,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>1792</v>
+        <v>700</v>
       </c>
       <c r="Q577" t="n">
         <v>1</v>
@@ -41969,20 +41969,20 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>4600</v>
+        <v>5800</v>
       </c>
       <c r="K578" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="L578" t="n">
-        <v>1600</v>
+        <v>2300</v>
       </c>
       <c r="M578" t="n">
-        <v>1517</v>
+        <v>2129</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>1517</v>
+        <v>2129</v>
       </c>
       <c r="Q578" t="n">
         <v>1</v>
@@ -42041,20 +42041,20 @@
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>5700</v>
+        <v>7400</v>
       </c>
       <c r="K579" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="L579" t="n">
-        <v>2700</v>
+        <v>1900</v>
       </c>
       <c r="M579" t="n">
-        <v>2602</v>
+        <v>1792</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         </is>
       </c>
       <c r="P579" t="n">
-        <v>2602</v>
+        <v>1792</v>
       </c>
       <c r="Q579" t="n">
         <v>1</v>
@@ -42113,20 +42113,20 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J580" t="n">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="K580" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="L580" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="M580" t="n">
-        <v>1147</v>
+        <v>1517</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42139,7 +42139,7 @@
         </is>
       </c>
       <c r="P580" t="n">
-        <v>1147</v>
+        <v>1517</v>
       </c>
       <c r="Q580" t="n">
         <v>1</v>
@@ -42165,7 +42165,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -42185,20 +42185,20 @@
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J581" t="n">
-        <v>1400</v>
+        <v>5700</v>
       </c>
       <c r="K581" t="n">
-        <v>700</v>
+        <v>2500</v>
       </c>
       <c r="L581" t="n">
-        <v>700</v>
+        <v>2700</v>
       </c>
       <c r="M581" t="n">
-        <v>700</v>
+        <v>2602</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42207,11 +42207,11 @@
       </c>
       <c r="O581" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P581" t="n">
-        <v>700</v>
+        <v>2602</v>
       </c>
       <c r="Q581" t="n">
         <v>1</v>
@@ -42237,7 +42237,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -42257,20 +42257,20 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J582" t="n">
-        <v>2400</v>
+        <v>4700</v>
       </c>
       <c r="K582" t="n">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="L582" t="n">
-        <v>2200</v>
+        <v>1300</v>
       </c>
       <c r="M582" t="n">
-        <v>2200</v>
+        <v>1147</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42279,11 +42279,11 @@
       </c>
       <c r="O582" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P582" t="n">
-        <v>2200</v>
+        <v>1147</v>
       </c>
       <c r="Q582" t="n">
         <v>1</v>
@@ -42329,20 +42329,20 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J583" t="n">
-        <v>3200</v>
+        <v>1400</v>
       </c>
       <c r="K583" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="L583" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="M583" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="Q583" t="n">
         <v>1</v>
@@ -42401,20 +42401,20 @@
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J584" t="n">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="K584" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="L584" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="M584" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42427,7 +42427,7 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="Q584" t="n">
         <v>1</v>
@@ -42473,20 +42473,20 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J585" t="n">
-        <v>1900</v>
+        <v>3200</v>
       </c>
       <c r="K585" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="L585" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="M585" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42499,7 +42499,7 @@
         </is>
       </c>
       <c r="P585" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="Q585" t="n">
         <v>1</v>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -42545,20 +42545,20 @@
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J586" t="n">
-        <v>4000</v>
+        <v>1700</v>
       </c>
       <c r="K586" t="n">
-        <v>3500</v>
+        <v>1400</v>
       </c>
       <c r="L586" t="n">
-        <v>3800</v>
+        <v>1400</v>
       </c>
       <c r="M586" t="n">
-        <v>3665</v>
+        <v>1400</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42567,11 +42567,11 @@
       </c>
       <c r="O586" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P586" t="n">
-        <v>3665</v>
+        <v>1400</v>
       </c>
       <c r="Q586" t="n">
         <v>1</v>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -42617,20 +42617,20 @@
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J587" t="n">
-        <v>5300</v>
+        <v>1900</v>
       </c>
       <c r="K587" t="n">
-        <v>2900</v>
+        <v>1100</v>
       </c>
       <c r="L587" t="n">
-        <v>3200</v>
+        <v>1100</v>
       </c>
       <c r="M587" t="n">
-        <v>3036</v>
+        <v>1100</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42639,11 +42639,11 @@
       </c>
       <c r="O587" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P587" t="n">
-        <v>3036</v>
+        <v>1100</v>
       </c>
       <c r="Q587" t="n">
         <v>1</v>
@@ -42689,20 +42689,20 @@
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J588" t="n">
         <v>4000</v>
       </c>
       <c r="K588" t="n">
-        <v>2200</v>
+        <v>3500</v>
       </c>
       <c r="L588" t="n">
-        <v>2400</v>
+        <v>3800</v>
       </c>
       <c r="M588" t="n">
-        <v>2315</v>
+        <v>3665</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>2315</v>
+        <v>3665</v>
       </c>
       <c r="Q588" t="n">
         <v>1</v>
@@ -42761,20 +42761,20 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J589" t="n">
-        <v>2800</v>
+        <v>5300</v>
       </c>
       <c r="K589" t="n">
-        <v>4000</v>
+        <v>2900</v>
       </c>
       <c r="L589" t="n">
-        <v>4300</v>
+        <v>3200</v>
       </c>
       <c r="M589" t="n">
-        <v>4182</v>
+        <v>3036</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42787,7 +42787,7 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>4182</v>
+        <v>3036</v>
       </c>
       <c r="Q589" t="n">
         <v>1</v>
@@ -42833,20 +42833,20 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J590" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="K590" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="L590" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M590" t="n">
-        <v>1788</v>
+        <v>2315</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42859,7 +42859,7 @@
         </is>
       </c>
       <c r="P590" t="n">
-        <v>1788</v>
+        <v>2315</v>
       </c>
       <c r="Q590" t="n">
         <v>1</v>
@@ -42885,58 +42885,202 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E591" t="n">
+        <v>13</v>
+      </c>
+      <c r="F591" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I591" t="inlineStr">
+        <is>
+          <t>Super</t>
+        </is>
+      </c>
+      <c r="J591" t="n">
+        <v>2800</v>
+      </c>
+      <c r="K591" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L591" t="n">
+        <v>4300</v>
+      </c>
+      <c r="M591" t="n">
+        <v>4182</v>
+      </c>
+      <c r="N591" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O591" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P591" t="n">
+        <v>4182</v>
+      </c>
+      <c r="Q591" t="n">
+        <v>1</v>
+      </c>
+      <c r="R591" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>6</v>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D592" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E592" t="n">
+        <v>13</v>
+      </c>
+      <c r="F592" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I592" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J592" t="n">
+        <v>2600</v>
+      </c>
+      <c r="K592" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L592" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M592" t="n">
+        <v>1788</v>
+      </c>
+      <c r="N592" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O592" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P592" t="n">
+        <v>1788</v>
+      </c>
+      <c r="Q592" t="n">
+        <v>1</v>
+      </c>
+      <c r="R592" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>6</v>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D593" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E591" t="n">
-        <v>13</v>
-      </c>
-      <c r="F591" t="n">
-        <v>100112028</v>
-      </c>
-      <c r="G591" t="inlineStr">
-        <is>
-          <t>Sandia</t>
-        </is>
-      </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I591" t="inlineStr">
+      <c r="E593" t="n">
+        <v>13</v>
+      </c>
+      <c r="F593" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G593" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I593" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J591" t="n">
+      <c r="J593" t="n">
         <v>8100</v>
       </c>
-      <c r="K591" t="n">
+      <c r="K593" t="n">
         <v>550</v>
       </c>
-      <c r="L591" t="n">
+      <c r="L593" t="n">
         <v>600</v>
       </c>
-      <c r="M591" t="n">
+      <c r="M593" t="n">
         <v>572</v>
       </c>
-      <c r="N591" t="inlineStr">
+      <c r="N593" t="inlineStr">
         <is>
           <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
-      <c r="O591" t="inlineStr">
+      <c r="O593" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="P591" t="n">
+      <c r="P593" t="n">
         <v>572</v>
       </c>
-      <c r="Q591" t="n">
-        <v>1</v>
-      </c>
-      <c r="R591" t="inlineStr">
+      <c r="Q593" t="n">
+        <v>1</v>
+      </c>
+      <c r="R593" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R595"/>
+  <dimension ref="A1:R597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40653,7 +40653,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -40673,33 +40673,33 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J560" t="n">
-        <v>1800</v>
+        <v>7800</v>
       </c>
       <c r="K560" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="L560" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M560" t="n">
-        <v>1000</v>
+        <v>773</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O560" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P560" t="n">
-        <v>1000</v>
+        <v>773</v>
       </c>
       <c r="Q560" t="n">
         <v>1</v>
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -40745,33 +40745,33 @@
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J561" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="K561" t="n">
-        <v>2500</v>
+        <v>650</v>
       </c>
       <c r="L561" t="n">
-        <v>2500</v>
+        <v>650</v>
       </c>
       <c r="M561" t="n">
-        <v>2500</v>
+        <v>650</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O561" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P561" t="n">
-        <v>2500</v>
+        <v>650</v>
       </c>
       <c r="Q561" t="n">
         <v>1</v>
@@ -40817,20 +40817,20 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J562" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="K562" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L562" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M562" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40843,7 +40843,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q562" t="n">
         <v>1</v>
@@ -40889,20 +40889,20 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J563" t="n">
-        <v>3800</v>
+        <v>2300</v>
       </c>
       <c r="K563" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="L563" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="M563" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="Q563" t="n">
         <v>1</v>
@@ -40961,20 +40961,20 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J564" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="K564" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L564" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M564" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40987,7 +40987,7 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="Q564" t="n">
         <v>1</v>
@@ -41013,7 +41013,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -41033,20 +41033,20 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J565" t="n">
-        <v>1500</v>
+        <v>3800</v>
       </c>
       <c r="K565" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="L565" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="M565" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41055,11 +41055,11 @@
       </c>
       <c r="O565" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P565" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="Q565" t="n">
         <v>1</v>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -41105,20 +41105,20 @@
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J566" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="K566" t="n">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="L566" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="M566" t="n">
-        <v>2314</v>
+        <v>1500</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41131,7 +41131,7 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>2314</v>
+        <v>1500</v>
       </c>
       <c r="Q566" t="n">
         <v>1</v>
@@ -41177,20 +41177,20 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J567" t="n">
-        <v>5200</v>
+        <v>1500</v>
       </c>
       <c r="K567" t="n">
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="L567" t="n">
-        <v>2600</v>
+        <v>800</v>
       </c>
       <c r="M567" t="n">
-        <v>2496</v>
+        <v>800</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>2496</v>
+        <v>800</v>
       </c>
       <c r="Q567" t="n">
         <v>1</v>
@@ -41253,16 +41253,16 @@
         </is>
       </c>
       <c r="J568" t="n">
+        <v>3500</v>
+      </c>
+      <c r="K568" t="n">
         <v>2200</v>
       </c>
-      <c r="K568" t="n">
-        <v>2500</v>
-      </c>
       <c r="L568" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="M568" t="n">
-        <v>2500</v>
+        <v>2314</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41271,11 +41271,11 @@
       </c>
       <c r="O568" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P568" t="n">
-        <v>2500</v>
+        <v>2314</v>
       </c>
       <c r="Q568" t="n">
         <v>1</v>
@@ -41321,20 +41321,20 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J569" t="n">
-        <v>4600</v>
+        <v>5200</v>
       </c>
       <c r="K569" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="L569" t="n">
-        <v>1900</v>
+        <v>2600</v>
       </c>
       <c r="M569" t="n">
-        <v>1850</v>
+        <v>2496</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41343,11 +41343,11 @@
       </c>
       <c r="O569" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P569" t="n">
-        <v>1850</v>
+        <v>2496</v>
       </c>
       <c r="Q569" t="n">
         <v>1</v>
@@ -41393,20 +41393,20 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J570" t="n">
-        <v>9000</v>
+        <v>2200</v>
       </c>
       <c r="K570" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="L570" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="M570" t="n">
-        <v>1998</v>
+        <v>2500</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41415,11 +41415,11 @@
       </c>
       <c r="O570" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P570" t="n">
-        <v>1998</v>
+        <v>2500</v>
       </c>
       <c r="Q570" t="n">
         <v>1</v>
@@ -41469,16 +41469,16 @@
         </is>
       </c>
       <c r="J571" t="n">
-        <v>2500</v>
+        <v>4600</v>
       </c>
       <c r="K571" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L571" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="M571" t="n">
-        <v>2000</v>
+        <v>1850</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41487,11 +41487,11 @@
       </c>
       <c r="O571" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P571" t="n">
-        <v>2000</v>
+        <v>1850</v>
       </c>
       <c r="Q571" t="n">
         <v>1</v>
@@ -41537,20 +41537,20 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>4700</v>
+        <v>9000</v>
       </c>
       <c r="K572" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="L572" t="n">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="M572" t="n">
-        <v>1581</v>
+        <v>1998</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41563,7 +41563,7 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>1581</v>
+        <v>1998</v>
       </c>
       <c r="Q572" t="n">
         <v>1</v>
@@ -41609,20 +41609,20 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>4400</v>
+        <v>2500</v>
       </c>
       <c r="K573" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="L573" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="M573" t="n">
-        <v>2657</v>
+        <v>2000</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41631,11 +41631,11 @@
       </c>
       <c r="O573" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P573" t="n">
-        <v>2657</v>
+        <v>2000</v>
       </c>
       <c r="Q573" t="n">
         <v>1</v>
@@ -41681,20 +41681,20 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>7800</v>
+        <v>4700</v>
       </c>
       <c r="K574" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="L574" t="n">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="M574" t="n">
-        <v>2900</v>
+        <v>1581</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41707,7 +41707,7 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>2900</v>
+        <v>1581</v>
       </c>
       <c r="Q574" t="n">
         <v>1</v>
@@ -41757,16 +41757,16 @@
         </is>
       </c>
       <c r="J575" t="n">
-        <v>3500</v>
+        <v>4400</v>
       </c>
       <c r="K575" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="L575" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="M575" t="n">
-        <v>2800</v>
+        <v>2657</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41775,11 +41775,11 @@
       </c>
       <c r="O575" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P575" t="n">
-        <v>2800</v>
+        <v>2657</v>
       </c>
       <c r="Q575" t="n">
         <v>1</v>
@@ -41825,20 +41825,20 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>4700</v>
+        <v>7800</v>
       </c>
       <c r="K576" t="n">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="L576" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="M576" t="n">
-        <v>1140</v>
+        <v>2900</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>1140</v>
+        <v>2900</v>
       </c>
       <c r="Q576" t="n">
         <v>1</v>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -41897,33 +41897,33 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>4900</v>
+        <v>3500</v>
       </c>
       <c r="K577" t="n">
-        <v>850</v>
+        <v>2800</v>
       </c>
       <c r="L577" t="n">
-        <v>900</v>
+        <v>2800</v>
       </c>
       <c r="M577" t="n">
-        <v>878</v>
+        <v>2800</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O577" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P577" t="n">
-        <v>878</v>
+        <v>2800</v>
       </c>
       <c r="Q577" t="n">
         <v>1</v>
@@ -41949,7 +41949,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -41969,33 +41969,33 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>1900</v>
+        <v>4700</v>
       </c>
       <c r="K578" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L578" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="M578" t="n">
-        <v>700</v>
+        <v>1140</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O578" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P578" t="n">
-        <v>700</v>
+        <v>1140</v>
       </c>
       <c r="Q578" t="n">
         <v>1</v>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44244</v>
+        <v>44509</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -42041,33 +42041,33 @@
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>2200</v>
+        <v>4900</v>
       </c>
       <c r="K579" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="L579" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M579" t="n">
-        <v>700</v>
+        <v>878</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O579" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P579" t="n">
-        <v>700</v>
+        <v>878</v>
       </c>
       <c r="Q579" t="n">
         <v>1</v>
@@ -42093,7 +42093,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44244</v>
+        <v>44509</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -42113,33 +42113,33 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J580" t="n">
-        <v>5800</v>
+        <v>1900</v>
       </c>
       <c r="K580" t="n">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="L580" t="n">
-        <v>2300</v>
+        <v>700</v>
       </c>
       <c r="M580" t="n">
-        <v>2129</v>
+        <v>700</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O580" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P580" t="n">
-        <v>2129</v>
+        <v>700</v>
       </c>
       <c r="Q580" t="n">
         <v>1</v>
@@ -42185,20 +42185,20 @@
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J581" t="n">
-        <v>7400</v>
+        <v>2200</v>
       </c>
       <c r="K581" t="n">
-        <v>1700</v>
+        <v>700</v>
       </c>
       <c r="L581" t="n">
-        <v>1900</v>
+        <v>700</v>
       </c>
       <c r="M581" t="n">
-        <v>1792</v>
+        <v>700</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         </is>
       </c>
       <c r="P581" t="n">
-        <v>1792</v>
+        <v>700</v>
       </c>
       <c r="Q581" t="n">
         <v>1</v>
@@ -42257,20 +42257,20 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J582" t="n">
-        <v>4600</v>
+        <v>5800</v>
       </c>
       <c r="K582" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="L582" t="n">
-        <v>1600</v>
+        <v>2300</v>
       </c>
       <c r="M582" t="n">
-        <v>1517</v>
+        <v>2129</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42283,7 +42283,7 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>1517</v>
+        <v>2129</v>
       </c>
       <c r="Q582" t="n">
         <v>1</v>
@@ -42329,20 +42329,20 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J583" t="n">
-        <v>5700</v>
+        <v>7400</v>
       </c>
       <c r="K583" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="L583" t="n">
-        <v>2700</v>
+        <v>1900</v>
       </c>
       <c r="M583" t="n">
-        <v>2602</v>
+        <v>1792</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>2602</v>
+        <v>1792</v>
       </c>
       <c r="Q583" t="n">
         <v>1</v>
@@ -42401,20 +42401,20 @@
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J584" t="n">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="K584" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="L584" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="M584" t="n">
-        <v>1147</v>
+        <v>1517</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42427,7 +42427,7 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>1147</v>
+        <v>1517</v>
       </c>
       <c r="Q584" t="n">
         <v>1</v>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -42473,20 +42473,20 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J585" t="n">
-        <v>1400</v>
+        <v>5700</v>
       </c>
       <c r="K585" t="n">
-        <v>700</v>
+        <v>2500</v>
       </c>
       <c r="L585" t="n">
-        <v>700</v>
+        <v>2700</v>
       </c>
       <c r="M585" t="n">
-        <v>700</v>
+        <v>2602</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42495,11 +42495,11 @@
       </c>
       <c r="O585" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P585" t="n">
-        <v>700</v>
+        <v>2602</v>
       </c>
       <c r="Q585" t="n">
         <v>1</v>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -42545,20 +42545,20 @@
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J586" t="n">
-        <v>2400</v>
+        <v>4700</v>
       </c>
       <c r="K586" t="n">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="L586" t="n">
-        <v>2200</v>
+        <v>1300</v>
       </c>
       <c r="M586" t="n">
-        <v>2200</v>
+        <v>1147</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42567,11 +42567,11 @@
       </c>
       <c r="O586" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P586" t="n">
-        <v>2200</v>
+        <v>1147</v>
       </c>
       <c r="Q586" t="n">
         <v>1</v>
@@ -42617,20 +42617,20 @@
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J587" t="n">
-        <v>3200</v>
+        <v>1400</v>
       </c>
       <c r="K587" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="L587" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="M587" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42643,7 +42643,7 @@
         </is>
       </c>
       <c r="P587" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="Q587" t="n">
         <v>1</v>
@@ -42689,20 +42689,20 @@
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J588" t="n">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="K588" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="L588" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="M588" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="Q588" t="n">
         <v>1</v>
@@ -42761,20 +42761,20 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J589" t="n">
-        <v>1900</v>
+        <v>3200</v>
       </c>
       <c r="K589" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="L589" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="M589" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42787,7 +42787,7 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="Q589" t="n">
         <v>1</v>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -42833,20 +42833,20 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J590" t="n">
-        <v>4000</v>
+        <v>1700</v>
       </c>
       <c r="K590" t="n">
-        <v>3500</v>
+        <v>1400</v>
       </c>
       <c r="L590" t="n">
-        <v>3800</v>
+        <v>1400</v>
       </c>
       <c r="M590" t="n">
-        <v>3665</v>
+        <v>1400</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42855,11 +42855,11 @@
       </c>
       <c r="O590" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P590" t="n">
-        <v>3665</v>
+        <v>1400</v>
       </c>
       <c r="Q590" t="n">
         <v>1</v>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44179</v>
+        <v>44273</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -42905,20 +42905,20 @@
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>5300</v>
+        <v>1900</v>
       </c>
       <c r="K591" t="n">
-        <v>2900</v>
+        <v>1100</v>
       </c>
       <c r="L591" t="n">
-        <v>3200</v>
+        <v>1100</v>
       </c>
       <c r="M591" t="n">
-        <v>3036</v>
+        <v>1100</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42927,11 +42927,11 @@
       </c>
       <c r="O591" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P591" t="n">
-        <v>3036</v>
+        <v>1100</v>
       </c>
       <c r="Q591" t="n">
         <v>1</v>
@@ -42977,20 +42977,20 @@
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J592" t="n">
         <v>4000</v>
       </c>
       <c r="K592" t="n">
-        <v>2200</v>
+        <v>3500</v>
       </c>
       <c r="L592" t="n">
-        <v>2400</v>
+        <v>3800</v>
       </c>
       <c r="M592" t="n">
-        <v>2315</v>
+        <v>3665</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -43003,7 +43003,7 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>2315</v>
+        <v>3665</v>
       </c>
       <c r="Q592" t="n">
         <v>1</v>
@@ -43049,20 +43049,20 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J593" t="n">
-        <v>2800</v>
+        <v>5300</v>
       </c>
       <c r="K593" t="n">
-        <v>4000</v>
+        <v>2900</v>
       </c>
       <c r="L593" t="n">
-        <v>4300</v>
+        <v>3200</v>
       </c>
       <c r="M593" t="n">
-        <v>4182</v>
+        <v>3036</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>4182</v>
+        <v>3036</v>
       </c>
       <c r="Q593" t="n">
         <v>1</v>
@@ -43121,20 +43121,20 @@
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J594" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="K594" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="L594" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M594" t="n">
-        <v>1788</v>
+        <v>2315</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         </is>
       </c>
       <c r="P594" t="n">
-        <v>1788</v>
+        <v>2315</v>
       </c>
       <c r="Q594" t="n">
         <v>1</v>
@@ -43173,58 +43173,202 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E595" t="n">
+        <v>13</v>
+      </c>
+      <c r="F595" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G595" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I595" t="inlineStr">
+        <is>
+          <t>Super</t>
+        </is>
+      </c>
+      <c r="J595" t="n">
+        <v>2800</v>
+      </c>
+      <c r="K595" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L595" t="n">
+        <v>4300</v>
+      </c>
+      <c r="M595" t="n">
+        <v>4182</v>
+      </c>
+      <c r="N595" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O595" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P595" t="n">
+        <v>4182</v>
+      </c>
+      <c r="Q595" t="n">
+        <v>1</v>
+      </c>
+      <c r="R595" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>6</v>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D596" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E596" t="n">
+        <v>13</v>
+      </c>
+      <c r="F596" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G596" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I596" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J596" t="n">
+        <v>2600</v>
+      </c>
+      <c r="K596" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L596" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M596" t="n">
+        <v>1788</v>
+      </c>
+      <c r="N596" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O596" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P596" t="n">
+        <v>1788</v>
+      </c>
+      <c r="Q596" t="n">
+        <v>1</v>
+      </c>
+      <c r="R596" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>6</v>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D597" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E595" t="n">
-        <v>13</v>
-      </c>
-      <c r="F595" t="n">
-        <v>100112028</v>
-      </c>
-      <c r="G595" t="inlineStr">
-        <is>
-          <t>Sandia</t>
-        </is>
-      </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I595" t="inlineStr">
+      <c r="E597" t="n">
+        <v>13</v>
+      </c>
+      <c r="F597" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G597" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I597" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J595" t="n">
+      <c r="J597" t="n">
         <v>8100</v>
       </c>
-      <c r="K595" t="n">
+      <c r="K597" t="n">
         <v>550</v>
       </c>
-      <c r="L595" t="n">
+      <c r="L597" t="n">
         <v>600</v>
       </c>
-      <c r="M595" t="n">
+      <c r="M597" t="n">
         <v>572</v>
       </c>
-      <c r="N595" t="inlineStr">
+      <c r="N597" t="inlineStr">
         <is>
           <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
-      <c r="O595" t="inlineStr">
+      <c r="O597" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="P595" t="n">
+      <c r="P597" t="n">
         <v>572</v>
       </c>
-      <c r="Q595" t="n">
-        <v>1</v>
-      </c>
-      <c r="R595" t="inlineStr">
+      <c r="Q597" t="n">
+        <v>1</v>
+      </c>
+      <c r="R597" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R597"/>
+  <dimension ref="A1:R599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44245</v>
+        <v>44518</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -27857,33 +27857,33 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J382" t="n">
-        <v>4000</v>
+        <v>5900</v>
       </c>
       <c r="K382" t="n">
-        <v>2200</v>
+        <v>750</v>
       </c>
       <c r="L382" t="n">
-        <v>2400</v>
+        <v>780</v>
       </c>
       <c r="M382" t="n">
-        <v>2315</v>
+        <v>767</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P382" t="n">
-        <v>2315</v>
+        <v>767</v>
       </c>
       <c r="Q382" t="n">
         <v>1</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44245</v>
+        <v>44518</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -27929,33 +27929,33 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J383" t="n">
-        <v>5100</v>
+        <v>2200</v>
       </c>
       <c r="K383" t="n">
-        <v>1800</v>
+        <v>650</v>
       </c>
       <c r="L383" t="n">
-        <v>2000</v>
+        <v>650</v>
       </c>
       <c r="M383" t="n">
-        <v>1898</v>
+        <v>650</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P383" t="n">
-        <v>1898</v>
+        <v>650</v>
       </c>
       <c r="Q383" t="n">
         <v>1</v>
@@ -28001,20 +28001,20 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J384" t="n">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="K384" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="L384" t="n">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="M384" t="n">
-        <v>1539</v>
+        <v>2315</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>1539</v>
+        <v>2315</v>
       </c>
       <c r="Q384" t="n">
         <v>1</v>
@@ -28073,20 +28073,20 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J385" t="n">
         <v>5100</v>
       </c>
       <c r="K385" t="n">
-        <v>2600</v>
+        <v>1800</v>
       </c>
       <c r="L385" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M385" t="n">
-        <v>2710</v>
+        <v>1898</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>2710</v>
+        <v>1898</v>
       </c>
       <c r="Q385" t="n">
         <v>1</v>
@@ -28145,20 +28145,20 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J386" t="n">
-        <v>3400</v>
+        <v>4100</v>
       </c>
       <c r="K386" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="L386" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="M386" t="n">
-        <v>1132</v>
+        <v>1539</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>1132</v>
+        <v>1539</v>
       </c>
       <c r="Q386" t="n">
         <v>1</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44229</v>
+        <v>44245</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -28217,20 +28217,20 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J387" t="n">
-        <v>2000</v>
+        <v>5100</v>
       </c>
       <c r="K387" t="n">
-        <v>700</v>
+        <v>2600</v>
       </c>
       <c r="L387" t="n">
-        <v>800</v>
+        <v>2800</v>
       </c>
       <c r="M387" t="n">
-        <v>765</v>
+        <v>2710</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>765</v>
+        <v>2710</v>
       </c>
       <c r="Q387" t="n">
         <v>1</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44229</v>
+        <v>44245</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -28289,20 +28289,20 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J388" t="n">
-        <v>5100</v>
+        <v>3400</v>
       </c>
       <c r="K388" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L388" t="n">
-        <v>2200</v>
+        <v>1300</v>
       </c>
       <c r="M388" t="n">
-        <v>2110</v>
+        <v>1132</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>2110</v>
+        <v>1132</v>
       </c>
       <c r="Q388" t="n">
         <v>1</v>
@@ -28361,20 +28361,20 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J389" t="n">
-        <v>6600</v>
+        <v>2000</v>
       </c>
       <c r="K389" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="L389" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="M389" t="n">
-        <v>1715</v>
+        <v>765</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>1715</v>
+        <v>765</v>
       </c>
       <c r="Q389" t="n">
         <v>1</v>
@@ -28433,20 +28433,20 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J390" t="n">
-        <v>4700</v>
+        <v>5100</v>
       </c>
       <c r="K390" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="L390" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="M390" t="n">
-        <v>1423</v>
+        <v>2110</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>1423</v>
+        <v>2110</v>
       </c>
       <c r="Q390" t="n">
         <v>1</v>
@@ -28505,20 +28505,20 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J391" t="n">
-        <v>6200</v>
+        <v>6600</v>
       </c>
       <c r="K391" t="n">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="L391" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="M391" t="n">
-        <v>2569</v>
+        <v>1715</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>2569</v>
+        <v>1715</v>
       </c>
       <c r="Q391" t="n">
         <v>1</v>
@@ -28577,20 +28577,20 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J392" t="n">
-        <v>3700</v>
+        <v>4700</v>
       </c>
       <c r="K392" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="L392" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="M392" t="n">
-        <v>1130</v>
+        <v>1423</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>1130</v>
+        <v>1423</v>
       </c>
       <c r="Q392" t="n">
         <v>1</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44249</v>
+        <v>44229</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -28649,20 +28649,20 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J393" t="n">
-        <v>510</v>
+        <v>6200</v>
       </c>
       <c r="K393" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="L393" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="M393" t="n">
-        <v>2641</v>
+        <v>2569</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>2641</v>
+        <v>2569</v>
       </c>
       <c r="Q393" t="n">
         <v>1</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44249</v>
+        <v>44229</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -28721,20 +28721,20 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J394" t="n">
+        <v>3700</v>
+      </c>
+      <c r="K394" t="n">
         <v>1000</v>
       </c>
-      <c r="K394" t="n">
-        <v>2000</v>
-      </c>
       <c r="L394" t="n">
-        <v>2300</v>
+        <v>1200</v>
       </c>
       <c r="M394" t="n">
-        <v>2195</v>
+        <v>1130</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>2195</v>
+        <v>1130</v>
       </c>
       <c r="Q394" t="n">
         <v>1</v>
@@ -28793,20 +28793,20 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J395" t="n">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="K395" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L395" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M395" t="n">
-        <v>1910</v>
+        <v>2641</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>1910</v>
+        <v>2641</v>
       </c>
       <c r="Q395" t="n">
         <v>1</v>
@@ -28865,20 +28865,20 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J396" t="n">
-        <v>460</v>
+        <v>1000</v>
       </c>
       <c r="K396" t="n">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="L396" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="M396" t="n">
-        <v>3404</v>
+        <v>2195</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>3404</v>
+        <v>2195</v>
       </c>
       <c r="Q396" t="n">
         <v>1</v>
@@ -28937,20 +28937,20 @@
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J397" t="n">
-        <v>350</v>
+        <v>620</v>
       </c>
       <c r="K397" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="L397" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="M397" t="n">
-        <v>1200</v>
+        <v>1910</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>1200</v>
+        <v>1910</v>
       </c>
       <c r="Q397" t="n">
         <v>1</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44462</v>
+        <v>44249</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -29009,33 +29009,33 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J398" t="n">
-        <v>6100</v>
+        <v>460</v>
       </c>
       <c r="K398" t="n">
-        <v>900</v>
+        <v>3300</v>
       </c>
       <c r="L398" t="n">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="M398" t="n">
-        <v>938</v>
+        <v>3404</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P398" t="n">
-        <v>938</v>
+        <v>3404</v>
       </c>
       <c r="Q398" t="n">
         <v>1</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44259</v>
+        <v>44249</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -29081,20 +29081,20 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J399" t="n">
-        <v>2500</v>
+        <v>350</v>
       </c>
       <c r="K399" t="n">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="L399" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="M399" t="n">
-        <v>2312</v>
+        <v>1200</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29103,11 +29103,11 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P399" t="n">
-        <v>2312</v>
+        <v>1200</v>
       </c>
       <c r="Q399" t="n">
         <v>1</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44259</v>
+        <v>44462</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -29153,33 +29153,33 @@
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J400" t="n">
-        <v>2300</v>
+        <v>6100</v>
       </c>
       <c r="K400" t="n">
-        <v>2200</v>
+        <v>900</v>
       </c>
       <c r="L400" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="M400" t="n">
-        <v>2322</v>
+        <v>938</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P400" t="n">
-        <v>2322</v>
+        <v>938</v>
       </c>
       <c r="Q400" t="n">
         <v>1</v>
@@ -29225,20 +29225,20 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J401" t="n">
-        <v>4100</v>
+        <v>2500</v>
       </c>
       <c r="K401" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="L401" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M401" t="n">
-        <v>1922</v>
+        <v>2312</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>1922</v>
+        <v>2312</v>
       </c>
       <c r="Q401" t="n">
         <v>1</v>
@@ -29297,20 +29297,20 @@
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J402" t="n">
-        <v>3100</v>
+        <v>2300</v>
       </c>
       <c r="K402" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="L402" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M402" t="n">
-        <v>1910</v>
+        <v>2322</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>1910</v>
+        <v>2322</v>
       </c>
       <c r="Q402" t="n">
         <v>1</v>
@@ -29369,20 +29369,20 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J403" t="n">
-        <v>2200</v>
+        <v>4100</v>
       </c>
       <c r="K403" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L403" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M403" t="n">
-        <v>1618</v>
+        <v>1922</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29391,11 +29391,11 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P403" t="n">
-        <v>1618</v>
+        <v>1922</v>
       </c>
       <c r="Q403" t="n">
         <v>1</v>
@@ -29441,20 +29441,20 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J404" t="n">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="K404" t="n">
-        <v>2600</v>
+        <v>1800</v>
       </c>
       <c r="L404" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M404" t="n">
-        <v>2713</v>
+        <v>1910</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29463,11 +29463,11 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P404" t="n">
-        <v>2713</v>
+        <v>1910</v>
       </c>
       <c r="Q404" t="n">
         <v>1</v>
@@ -29513,20 +29513,20 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J405" t="n">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K405" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="L405" t="n">
-        <v>2700</v>
+        <v>1700</v>
       </c>
       <c r="M405" t="n">
-        <v>2604</v>
+        <v>1618</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>2604</v>
+        <v>1618</v>
       </c>
       <c r="Q405" t="n">
         <v>1</v>
@@ -29585,20 +29585,20 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J406" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K406" t="n">
-        <v>1100</v>
+        <v>2600</v>
       </c>
       <c r="L406" t="n">
-        <v>1300</v>
+        <v>2800</v>
       </c>
       <c r="M406" t="n">
-        <v>1236</v>
+        <v>2713</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29607,11 +29607,11 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P406" t="n">
-        <v>1236</v>
+        <v>2713</v>
       </c>
       <c r="Q406" t="n">
         <v>1</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44216</v>
+        <v>44259</v>
       </c>
       <c r="E407" t="n">
         <v>13</v>
@@ -29657,20 +29657,20 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J407" t="n">
-        <v>1400</v>
+        <v>2300</v>
       </c>
       <c r="K407" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L407" t="n">
-        <v>800</v>
+        <v>2700</v>
       </c>
       <c r="M407" t="n">
-        <v>800</v>
+        <v>2604</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>800</v>
+        <v>2604</v>
       </c>
       <c r="Q407" t="n">
         <v>1</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44216</v>
+        <v>44259</v>
       </c>
       <c r="E408" t="n">
         <v>13</v>
@@ -29729,20 +29729,20 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J408" t="n">
-        <v>6500</v>
+        <v>2200</v>
       </c>
       <c r="K408" t="n">
-        <v>2300</v>
+        <v>1100</v>
       </c>
       <c r="L408" t="n">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="M408" t="n">
-        <v>2408</v>
+        <v>1236</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>2408</v>
+        <v>1236</v>
       </c>
       <c r="Q408" t="n">
         <v>1</v>
@@ -29801,20 +29801,20 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J409" t="n">
-        <v>8300</v>
+        <v>1400</v>
       </c>
       <c r="K409" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="L409" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M409" t="n">
-        <v>1894</v>
+        <v>800</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>1894</v>
+        <v>800</v>
       </c>
       <c r="Q409" t="n">
         <v>1</v>
@@ -29873,20 +29873,20 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J410" t="n">
-        <v>4300</v>
+        <v>6500</v>
       </c>
       <c r="K410" t="n">
-        <v>1400</v>
+        <v>2300</v>
       </c>
       <c r="L410" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="M410" t="n">
-        <v>1526</v>
+        <v>2408</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>1526</v>
+        <v>2408</v>
       </c>
       <c r="Q410" t="n">
         <v>1</v>
@@ -29945,20 +29945,20 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J411" t="n">
-        <v>5900</v>
+        <v>8300</v>
       </c>
       <c r="K411" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="L411" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M411" t="n">
-        <v>2912</v>
+        <v>1894</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>2912</v>
+        <v>1894</v>
       </c>
       <c r="Q411" t="n">
         <v>1</v>
@@ -30017,20 +30017,20 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J412" t="n">
-        <v>3300</v>
+        <v>4300</v>
       </c>
       <c r="K412" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="L412" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="M412" t="n">
-        <v>1200</v>
+        <v>1526</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>1200</v>
+        <v>1526</v>
       </c>
       <c r="Q412" t="n">
         <v>1</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44270</v>
+        <v>44216</v>
       </c>
       <c r="E413" t="n">
         <v>13</v>
@@ -30089,20 +30089,20 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J413" t="n">
-        <v>1800</v>
+        <v>5900</v>
       </c>
       <c r="K413" t="n">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="L413" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="M413" t="n">
-        <v>1000</v>
+        <v>2912</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30111,11 +30111,11 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P413" t="n">
-        <v>1000</v>
+        <v>2912</v>
       </c>
       <c r="Q413" t="n">
         <v>1</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44270</v>
+        <v>44216</v>
       </c>
       <c r="E414" t="n">
         <v>13</v>
@@ -30161,20 +30161,20 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J414" t="n">
-        <v>2300</v>
+        <v>3300</v>
       </c>
       <c r="K414" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L414" t="n">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="M414" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30183,11 +30183,11 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P414" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="Q414" t="n">
         <v>1</v>
@@ -30233,20 +30233,20 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="K415" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L415" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M415" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q415" t="n">
         <v>1</v>
@@ -30305,20 +30305,20 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J416" t="n">
-        <v>3800</v>
+        <v>2300</v>
       </c>
       <c r="K416" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="L416" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="M416" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="Q416" t="n">
         <v>1</v>
@@ -30377,20 +30377,20 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="K417" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L417" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M417" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="Q417" t="n">
         <v>1</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c r="E418" t="n">
         <v>13</v>
@@ -30449,20 +30449,20 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>4400</v>
+        <v>3800</v>
       </c>
       <c r="K418" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="L418" t="n">
-        <v>2300</v>
+        <v>1700</v>
       </c>
       <c r="M418" t="n">
-        <v>2164</v>
+        <v>1700</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30471,11 +30471,11 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P418" t="n">
-        <v>2164</v>
+        <v>1700</v>
       </c>
       <c r="Q418" t="n">
         <v>1</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c r="E419" t="n">
         <v>13</v>
@@ -30521,20 +30521,20 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>6600</v>
+        <v>2700</v>
       </c>
       <c r="K419" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="L419" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="M419" t="n">
-        <v>1747</v>
+        <v>1500</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30543,11 +30543,11 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P419" t="n">
-        <v>1747</v>
+        <v>1500</v>
       </c>
       <c r="Q419" t="n">
         <v>1</v>
@@ -30593,20 +30593,20 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J420" t="n">
         <v>4400</v>
       </c>
       <c r="K420" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="L420" t="n">
-        <v>1600</v>
+        <v>2300</v>
       </c>
       <c r="M420" t="n">
-        <v>1523</v>
+        <v>2164</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>1523</v>
+        <v>2164</v>
       </c>
       <c r="Q420" t="n">
         <v>1</v>
@@ -30665,20 +30665,20 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J421" t="n">
-        <v>3200</v>
+        <v>6600</v>
       </c>
       <c r="K421" t="n">
-        <v>2400</v>
+        <v>1700</v>
       </c>
       <c r="L421" t="n">
-        <v>2600</v>
+        <v>1800</v>
       </c>
       <c r="M421" t="n">
-        <v>2512</v>
+        <v>1747</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>2512</v>
+        <v>1747</v>
       </c>
       <c r="Q421" t="n">
         <v>1</v>
@@ -30737,20 +30737,20 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J422" t="n">
-        <v>3500</v>
+        <v>4400</v>
       </c>
       <c r="K422" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="L422" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="M422" t="n">
-        <v>1137</v>
+        <v>1523</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>1137</v>
+        <v>1523</v>
       </c>
       <c r="Q422" t="n">
         <v>1</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44169</v>
+        <v>44257</v>
       </c>
       <c r="E423" t="n">
         <v>13</v>
@@ -30809,20 +30809,20 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J423" t="n">
-        <v>2300</v>
+        <v>3200</v>
       </c>
       <c r="K423" t="n">
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="L423" t="n">
-        <v>1400</v>
+        <v>2600</v>
       </c>
       <c r="M423" t="n">
-        <v>1400</v>
+        <v>2512</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>1400</v>
+        <v>2512</v>
       </c>
       <c r="Q423" t="n">
         <v>1</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44169</v>
+        <v>44257</v>
       </c>
       <c r="E424" t="n">
         <v>13</v>
@@ -30881,20 +30881,20 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J424" t="n">
+        <v>3500</v>
+      </c>
+      <c r="K424" t="n">
         <v>1000</v>
       </c>
-      <c r="K424" t="n">
-        <v>3500</v>
-      </c>
       <c r="L424" t="n">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="M424" t="n">
-        <v>3500</v>
+        <v>1137</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30903,11 +30903,11 @@
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P424" t="n">
-        <v>3500</v>
+        <v>1137</v>
       </c>
       <c r="Q424" t="n">
         <v>1</v>
@@ -30953,20 +30953,20 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J425" t="n">
-        <v>2600</v>
+        <v>2300</v>
       </c>
       <c r="K425" t="n">
-        <v>3400</v>
+        <v>1400</v>
       </c>
       <c r="L425" t="n">
-        <v>3400</v>
+        <v>1400</v>
       </c>
       <c r="M425" t="n">
-        <v>3400</v>
+        <v>1400</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>3400</v>
+        <v>1400</v>
       </c>
       <c r="Q425" t="n">
         <v>1</v>
@@ -31025,20 +31025,20 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J426" t="n">
-        <v>1900</v>
+        <v>1000</v>
       </c>
       <c r="K426" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L426" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M426" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="Q426" t="n">
         <v>1</v>
@@ -31097,20 +31097,20 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J427" t="n">
-        <v>3800</v>
+        <v>2600</v>
       </c>
       <c r="K427" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="L427" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="M427" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="Q427" t="n">
         <v>1</v>
@@ -31169,20 +31169,20 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J428" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="K428" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L428" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M428" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q428" t="n">
         <v>1</v>
@@ -31241,20 +31241,20 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J429" t="n">
-        <v>4400</v>
+        <v>3800</v>
       </c>
       <c r="K429" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L429" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M429" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="Q429" t="n">
         <v>1</v>
@@ -31313,20 +31313,20 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J430" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="K430" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L430" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="M430" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="Q430" t="n">
         <v>1</v>
@@ -31385,20 +31385,20 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J431" t="n">
-        <v>2100</v>
+        <v>4400</v>
       </c>
       <c r="K431" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L431" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="M431" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="Q431" t="n">
         <v>1</v>
@@ -31457,20 +31457,20 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J432" t="n">
         <v>1300</v>
       </c>
       <c r="K432" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L432" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M432" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="Q432" t="n">
         <v>1</v>
@@ -31529,20 +31529,20 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J433" t="n">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="K433" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L433" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M433" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="Q433" t="n">
         <v>1</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E434" t="n">
         <v>13</v>
@@ -31601,20 +31601,20 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J434" t="n">
-        <v>5000</v>
+        <v>1300</v>
       </c>
       <c r="K434" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="L434" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M434" t="n">
-        <v>2832</v>
+        <v>2000</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31623,11 +31623,11 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P434" t="n">
-        <v>2832</v>
+        <v>2000</v>
       </c>
       <c r="Q434" t="n">
         <v>1</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E435" t="n">
         <v>13</v>
@@ -31673,20 +31673,20 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J435" t="n">
-        <v>8300</v>
+        <v>2500</v>
       </c>
       <c r="K435" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="L435" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M435" t="n">
-        <v>2392</v>
+        <v>2000</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>2392</v>
+        <v>2000</v>
       </c>
       <c r="Q435" t="n">
         <v>1</v>
@@ -31745,20 +31745,20 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J436" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="K436" t="n">
-        <v>1600</v>
+        <v>2700</v>
       </c>
       <c r="L436" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M436" t="n">
-        <v>1830</v>
+        <v>2832</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>1830</v>
+        <v>2832</v>
       </c>
       <c r="Q436" t="n">
         <v>1</v>
@@ -31817,20 +31817,20 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J437" t="n">
-        <v>7700</v>
+        <v>8300</v>
       </c>
       <c r="K437" t="n">
-        <v>3300</v>
+        <v>2300</v>
       </c>
       <c r="L437" t="n">
-        <v>3700</v>
+        <v>2500</v>
       </c>
       <c r="M437" t="n">
-        <v>3487</v>
+        <v>2392</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>3487</v>
+        <v>2392</v>
       </c>
       <c r="Q437" t="n">
         <v>1</v>
@@ -31889,20 +31889,20 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J438" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="K438" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="L438" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="M438" t="n">
-        <v>1225</v>
+        <v>1830</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>1225</v>
+        <v>1830</v>
       </c>
       <c r="Q438" t="n">
         <v>1</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44172</v>
+        <v>44195</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -31961,20 +31961,20 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J439" t="n">
-        <v>4400</v>
+        <v>7700</v>
       </c>
       <c r="K439" t="n">
-        <v>800</v>
+        <v>3300</v>
       </c>
       <c r="L439" t="n">
-        <v>1000</v>
+        <v>3700</v>
       </c>
       <c r="M439" t="n">
-        <v>918</v>
+        <v>3487</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31983,11 +31983,11 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P439" t="n">
-        <v>918</v>
+        <v>3487</v>
       </c>
       <c r="Q439" t="n">
         <v>1</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44172</v>
+        <v>44195</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -32033,20 +32033,20 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J440" t="n">
-        <v>1760</v>
+        <v>3200</v>
       </c>
       <c r="K440" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="L440" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="M440" t="n">
-        <v>1470</v>
+        <v>1225</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>1470</v>
+        <v>1225</v>
       </c>
       <c r="Q440" t="n">
         <v>1</v>
@@ -32105,20 +32105,20 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J441" t="n">
-        <v>2200</v>
+        <v>4400</v>
       </c>
       <c r="K441" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="L441" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="M441" t="n">
-        <v>2891</v>
+        <v>918</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>2891</v>
+        <v>918</v>
       </c>
       <c r="Q441" t="n">
         <v>1</v>
@@ -32177,20 +32177,20 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J442" t="n">
-        <v>3000</v>
+        <v>1760</v>
       </c>
       <c r="K442" t="n">
-        <v>3700</v>
+        <v>1300</v>
       </c>
       <c r="L442" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="M442" t="n">
-        <v>3820</v>
+        <v>1470</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>3820</v>
+        <v>1470</v>
       </c>
       <c r="Q442" t="n">
         <v>1</v>
@@ -32249,20 +32249,20 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J443" t="n">
-        <v>4200</v>
+        <v>2200</v>
       </c>
       <c r="K443" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="L443" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M443" t="n">
-        <v>2410</v>
+        <v>2891</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>2410</v>
+        <v>2891</v>
       </c>
       <c r="Q443" t="n">
         <v>1</v>
@@ -32321,20 +32321,20 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J444" t="n">
-        <v>4100</v>
+        <v>3000</v>
       </c>
       <c r="K444" t="n">
-        <v>3300</v>
+        <v>3700</v>
       </c>
       <c r="L444" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M444" t="n">
-        <v>3388</v>
+        <v>3820</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>3388</v>
+        <v>3820</v>
       </c>
       <c r="Q444" t="n">
         <v>1</v>
@@ -32393,20 +32393,20 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>2700</v>
+        <v>4200</v>
       </c>
       <c r="K445" t="n">
-        <v>1700</v>
+        <v>2300</v>
       </c>
       <c r="L445" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M445" t="n">
-        <v>1867</v>
+        <v>2410</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>1867</v>
+        <v>2410</v>
       </c>
       <c r="Q445" t="n">
         <v>1</v>
@@ -32465,20 +32465,20 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J446" t="n">
-        <v>5900</v>
+        <v>4100</v>
       </c>
       <c r="K446" t="n">
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="L446" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M446" t="n">
-        <v>2695</v>
+        <v>3388</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32491,7 +32491,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>2695</v>
+        <v>3388</v>
       </c>
       <c r="Q446" t="n">
         <v>1</v>
@@ -32537,20 +32537,20 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="K447" t="n">
-        <v>3500</v>
+        <v>1700</v>
       </c>
       <c r="L447" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M447" t="n">
-        <v>3700</v>
+        <v>1867</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>3700</v>
+        <v>1867</v>
       </c>
       <c r="Q447" t="n">
         <v>1</v>
@@ -32609,20 +32609,20 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J448" t="n">
-        <v>3500</v>
+        <v>5900</v>
       </c>
       <c r="K448" t="n">
-        <v>3800</v>
+        <v>2500</v>
       </c>
       <c r="L448" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M448" t="n">
-        <v>3914</v>
+        <v>2695</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>3914</v>
+        <v>2695</v>
       </c>
       <c r="Q448" t="n">
         <v>1</v>
@@ -32681,20 +32681,20 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J449" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="K449" t="n">
-        <v>1300</v>
+        <v>3500</v>
       </c>
       <c r="L449" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="M449" t="n">
-        <v>1400</v>
+        <v>3700</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>1400</v>
+        <v>3700</v>
       </c>
       <c r="Q449" t="n">
         <v>1</v>
@@ -32753,20 +32753,20 @@
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J450" t="n">
-        <v>3350</v>
+        <v>3500</v>
       </c>
       <c r="K450" t="n">
-        <v>1800</v>
+        <v>3800</v>
       </c>
       <c r="L450" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M450" t="n">
-        <v>1979</v>
+        <v>3914</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>1979</v>
+        <v>3914</v>
       </c>
       <c r="Q450" t="n">
         <v>1</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -32825,20 +32825,20 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J451" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="K451" t="n">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="L451" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="M451" t="n">
-        <v>2267</v>
+        <v>1400</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32847,11 +32847,11 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P451" t="n">
-        <v>2267</v>
+        <v>1400</v>
       </c>
       <c r="Q451" t="n">
         <v>1</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -32897,11 +32897,11 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J452" t="n">
-        <v>8100</v>
+        <v>3350</v>
       </c>
       <c r="K452" t="n">
         <v>1800</v>
@@ -32910,7 +32910,7 @@
         <v>2000</v>
       </c>
       <c r="M452" t="n">
-        <v>1896</v>
+        <v>1979</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>1896</v>
+        <v>1979</v>
       </c>
       <c r="Q452" t="n">
         <v>1</v>
@@ -32969,20 +32969,20 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J453" t="n">
-        <v>4100</v>
+        <v>4500</v>
       </c>
       <c r="K453" t="n">
-        <v>1400</v>
+        <v>2100</v>
       </c>
       <c r="L453" t="n">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="M453" t="n">
-        <v>1583</v>
+        <v>2267</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>1583</v>
+        <v>2267</v>
       </c>
       <c r="Q453" t="n">
         <v>1</v>
@@ -33041,20 +33041,20 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J454" t="n">
-        <v>4200</v>
+        <v>8100</v>
       </c>
       <c r="K454" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L454" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M454" t="n">
-        <v>2629</v>
+        <v>1896</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>2629</v>
+        <v>1896</v>
       </c>
       <c r="Q454" t="n">
         <v>1</v>
@@ -33113,20 +33113,20 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J455" t="n">
-        <v>5300</v>
+        <v>4100</v>
       </c>
       <c r="K455" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="L455" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="M455" t="n">
-        <v>1117</v>
+        <v>1583</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>1117</v>
+        <v>1583</v>
       </c>
       <c r="Q455" t="n">
         <v>1</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -33185,20 +33185,20 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J456" t="n">
+        <v>4200</v>
+      </c>
+      <c r="K456" t="n">
         <v>2500</v>
       </c>
-      <c r="K456" t="n">
-        <v>2000</v>
-      </c>
       <c r="L456" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M456" t="n">
-        <v>2000</v>
+        <v>2629</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33207,11 +33207,11 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P456" t="n">
-        <v>2000</v>
+        <v>2629</v>
       </c>
       <c r="Q456" t="n">
         <v>1</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -33257,20 +33257,20 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J457" t="n">
-        <v>3400</v>
+        <v>5300</v>
       </c>
       <c r="K457" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L457" t="n">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="M457" t="n">
-        <v>2118</v>
+        <v>1117</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>2118</v>
+        <v>1117</v>
       </c>
       <c r="Q457" t="n">
         <v>1</v>
@@ -33329,20 +33329,20 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="K458" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L458" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M458" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="Q458" t="n">
         <v>1</v>
@@ -33401,20 +33401,20 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>5700</v>
+        <v>3400</v>
       </c>
       <c r="K459" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L459" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="M459" t="n">
-        <v>1609</v>
+        <v>2118</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>1609</v>
+        <v>2118</v>
       </c>
       <c r="Q459" t="n">
         <v>1</v>
@@ -33473,20 +33473,20 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J460" t="n">
-        <v>3900</v>
+        <v>3500</v>
       </c>
       <c r="K460" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="L460" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="M460" t="n">
-        <v>1438</v>
+        <v>1700</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33495,11 +33495,11 @@
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P460" t="n">
-        <v>1438</v>
+        <v>1700</v>
       </c>
       <c r="Q460" t="n">
         <v>1</v>
@@ -33545,20 +33545,20 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J461" t="n">
-        <v>2800</v>
+        <v>5700</v>
       </c>
       <c r="K461" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="L461" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="M461" t="n">
-        <v>2500</v>
+        <v>1609</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33567,11 +33567,11 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P461" t="n">
-        <v>2500</v>
+        <v>1609</v>
       </c>
       <c r="Q461" t="n">
         <v>1</v>
@@ -33617,20 +33617,20 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J462" t="n">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="K462" t="n">
-        <v>2300</v>
+        <v>1300</v>
       </c>
       <c r="L462" t="n">
-        <v>2600</v>
+        <v>1600</v>
       </c>
       <c r="M462" t="n">
-        <v>2476</v>
+        <v>1438</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>2476</v>
+        <v>1438</v>
       </c>
       <c r="Q462" t="n">
         <v>1</v>
@@ -33689,20 +33689,20 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J463" t="n">
-        <v>3600</v>
+        <v>2800</v>
       </c>
       <c r="K463" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="L463" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="M463" t="n">
-        <v>1128</v>
+        <v>2500</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33711,11 +33711,11 @@
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P463" t="n">
-        <v>1128</v>
+        <v>2500</v>
       </c>
       <c r="Q463" t="n">
         <v>1</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -33761,20 +33761,20 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J464" t="n">
-        <v>1600</v>
+        <v>4100</v>
       </c>
       <c r="K464" t="n">
-        <v>600</v>
+        <v>2300</v>
       </c>
       <c r="L464" t="n">
-        <v>600</v>
+        <v>2600</v>
       </c>
       <c r="M464" t="n">
-        <v>600</v>
+        <v>2476</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>600</v>
+        <v>2476</v>
       </c>
       <c r="Q464" t="n">
         <v>1</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -33833,20 +33833,20 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J465" t="n">
-        <v>6200</v>
+        <v>3600</v>
       </c>
       <c r="K465" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L465" t="n">
-        <v>2300</v>
+        <v>1200</v>
       </c>
       <c r="M465" t="n">
-        <v>2160</v>
+        <v>1128</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>2160</v>
+        <v>1128</v>
       </c>
       <c r="Q465" t="n">
         <v>1</v>
@@ -33905,20 +33905,20 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J466" t="n">
-        <v>8400</v>
+        <v>1600</v>
       </c>
       <c r="K466" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="L466" t="n">
-        <v>1900</v>
+        <v>600</v>
       </c>
       <c r="M466" t="n">
-        <v>1695</v>
+        <v>600</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>1695</v>
+        <v>600</v>
       </c>
       <c r="Q466" t="n">
         <v>1</v>
@@ -33977,20 +33977,20 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J467" t="n">
-        <v>4600</v>
+        <v>6200</v>
       </c>
       <c r="K467" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="L467" t="n">
-        <v>1400</v>
+        <v>2300</v>
       </c>
       <c r="M467" t="n">
-        <v>1317</v>
+        <v>2160</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>1317</v>
+        <v>2160</v>
       </c>
       <c r="Q467" t="n">
         <v>1</v>
@@ -34049,20 +34049,20 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J468" t="n">
-        <v>6200</v>
+        <v>8400</v>
       </c>
       <c r="K468" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="L468" t="n">
-        <v>2700</v>
+        <v>1900</v>
       </c>
       <c r="M468" t="n">
-        <v>2521</v>
+        <v>1695</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>2521</v>
+        <v>1695</v>
       </c>
       <c r="Q468" t="n">
         <v>1</v>
@@ -34121,20 +34121,20 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J469" t="n">
-        <v>3900</v>
+        <v>4600</v>
       </c>
       <c r="K469" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="L469" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="M469" t="n">
-        <v>913</v>
+        <v>1317</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>913</v>
+        <v>1317</v>
       </c>
       <c r="Q469" t="n">
         <v>1</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44448</v>
+        <v>44222</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -34193,33 +34193,33 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J470" t="n">
-        <v>4160</v>
+        <v>6200</v>
       </c>
       <c r="K470" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="L470" t="n">
-        <v>1200</v>
+        <v>2700</v>
       </c>
       <c r="M470" t="n">
-        <v>1200</v>
+        <v>2521</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P470" t="n">
-        <v>1200</v>
+        <v>2521</v>
       </c>
       <c r="Q470" t="n">
         <v>1</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34265,20 +34265,20 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J471" t="n">
-        <v>1040</v>
+        <v>3900</v>
       </c>
       <c r="K471" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L471" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="M471" t="n">
-        <v>646</v>
+        <v>913</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34287,11 +34287,11 @@
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P471" t="n">
-        <v>646</v>
+        <v>913</v>
       </c>
       <c r="Q471" t="n">
         <v>1</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44210</v>
+        <v>44448</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -34337,33 +34337,33 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J472" t="n">
-        <v>1050</v>
+        <v>4160</v>
       </c>
       <c r="K472" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="L472" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="M472" t="n">
-        <v>807</v>
+        <v>1200</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P472" t="n">
-        <v>807</v>
+        <v>1200</v>
       </c>
       <c r="Q472" t="n">
         <v>1</v>
@@ -34409,20 +34409,20 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J473" t="n">
-        <v>2890</v>
+        <v>1040</v>
       </c>
       <c r="K473" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="L473" t="n">
-        <v>2300</v>
+        <v>700</v>
       </c>
       <c r="M473" t="n">
-        <v>2193</v>
+        <v>646</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>2193</v>
+        <v>646</v>
       </c>
       <c r="Q473" t="n">
         <v>1</v>
@@ -34481,20 +34481,20 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J474" t="n">
-        <v>3500</v>
+        <v>1050</v>
       </c>
       <c r="K474" t="n">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="L474" t="n">
-        <v>2400</v>
+        <v>900</v>
       </c>
       <c r="M474" t="n">
-        <v>2223</v>
+        <v>807</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>2223</v>
+        <v>807</v>
       </c>
       <c r="Q474" t="n">
         <v>1</v>
@@ -34553,20 +34553,20 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J475" t="n">
-        <v>3550</v>
+        <v>2890</v>
       </c>
       <c r="K475" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L475" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="M475" t="n">
-        <v>1641</v>
+        <v>2193</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>1641</v>
+        <v>2193</v>
       </c>
       <c r="Q475" t="n">
         <v>1</v>
@@ -34625,20 +34625,20 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J476" t="n">
-        <v>4380</v>
+        <v>3500</v>
       </c>
       <c r="K476" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L476" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="M476" t="n">
-        <v>1962</v>
+        <v>2223</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34651,7 +34651,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>1962</v>
+        <v>2223</v>
       </c>
       <c r="Q476" t="n">
         <v>1</v>
@@ -34697,20 +34697,20 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>1570</v>
+        <v>3550</v>
       </c>
       <c r="K477" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="L477" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="M477" t="n">
-        <v>1302</v>
+        <v>1641</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>1302</v>
+        <v>1641</v>
       </c>
       <c r="Q477" t="n">
         <v>1</v>
@@ -34769,20 +34769,20 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>2150</v>
+        <v>4380</v>
       </c>
       <c r="K478" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L478" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="M478" t="n">
-        <v>1444</v>
+        <v>1962</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>1444</v>
+        <v>1962</v>
       </c>
       <c r="Q478" t="n">
         <v>1</v>
@@ -34841,20 +34841,20 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J479" t="n">
-        <v>2280</v>
+        <v>1570</v>
       </c>
       <c r="K479" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="L479" t="n">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="M479" t="n">
-        <v>2629</v>
+        <v>1302</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>2629</v>
+        <v>1302</v>
       </c>
       <c r="Q479" t="n">
         <v>1</v>
@@ -34913,20 +34913,20 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J480" t="n">
-        <v>2800</v>
+        <v>2150</v>
       </c>
       <c r="K480" t="n">
-        <v>2700</v>
+        <v>1400</v>
       </c>
       <c r="L480" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="M480" t="n">
-        <v>2861</v>
+        <v>1444</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>2861</v>
+        <v>1444</v>
       </c>
       <c r="Q480" t="n">
         <v>1</v>
@@ -34985,20 +34985,20 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J481" t="n">
-        <v>1370</v>
+        <v>2280</v>
       </c>
       <c r="K481" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="L481" t="n">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="M481" t="n">
-        <v>899</v>
+        <v>2629</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>899</v>
+        <v>2629</v>
       </c>
       <c r="Q481" t="n">
         <v>1</v>
@@ -35057,20 +35057,20 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J482" t="n">
-        <v>1460</v>
+        <v>2800</v>
       </c>
       <c r="K482" t="n">
-        <v>1000</v>
+        <v>2700</v>
       </c>
       <c r="L482" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="M482" t="n">
-        <v>1107</v>
+        <v>2861</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>1107</v>
+        <v>2861</v>
       </c>
       <c r="Q482" t="n">
         <v>1</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E483" t="n">
         <v>13</v>
@@ -35129,20 +35129,20 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J483" t="n">
-        <v>5900</v>
+        <v>1370</v>
       </c>
       <c r="K483" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="L483" t="n">
-        <v>3800</v>
+        <v>1000</v>
       </c>
       <c r="M483" t="n">
-        <v>3632</v>
+        <v>899</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35151,11 +35151,11 @@
       </c>
       <c r="O483" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P483" t="n">
-        <v>3632</v>
+        <v>899</v>
       </c>
       <c r="Q483" t="n">
         <v>1</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -35201,20 +35201,20 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J484" t="n">
-        <v>5800</v>
+        <v>1460</v>
       </c>
       <c r="K484" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L484" t="n">
-        <v>2700</v>
+        <v>1200</v>
       </c>
       <c r="M484" t="n">
-        <v>2583</v>
+        <v>1107</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>2583</v>
+        <v>1107</v>
       </c>
       <c r="Q484" t="n">
         <v>1</v>
@@ -35273,20 +35273,20 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>5500</v>
+        <v>5900</v>
       </c>
       <c r="K485" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="L485" t="n">
-        <v>2000</v>
+        <v>3800</v>
       </c>
       <c r="M485" t="n">
-        <v>1898</v>
+        <v>3632</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>1898</v>
+        <v>3632</v>
       </c>
       <c r="Q485" t="n">
         <v>1</v>
@@ -35345,20 +35345,20 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>3400</v>
+        <v>5800</v>
       </c>
       <c r="K486" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L486" t="n">
-        <v>4200</v>
+        <v>2700</v>
       </c>
       <c r="M486" t="n">
-        <v>4112</v>
+        <v>2583</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>4112</v>
+        <v>2583</v>
       </c>
       <c r="Q486" t="n">
         <v>1</v>
@@ -35417,20 +35417,20 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J487" t="n">
-        <v>3400</v>
+        <v>5500</v>
       </c>
       <c r="K487" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="L487" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M487" t="n">
-        <v>1388</v>
+        <v>1898</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>1388</v>
+        <v>1898</v>
       </c>
       <c r="Q487" t="n">
         <v>1</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44284</v>
+        <v>44176</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -35489,20 +35489,20 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J488" t="n">
-        <v>800</v>
+        <v>3400</v>
       </c>
       <c r="K488" t="n">
-        <v>900</v>
+        <v>4000</v>
       </c>
       <c r="L488" t="n">
-        <v>900</v>
+        <v>4200</v>
       </c>
       <c r="M488" t="n">
-        <v>900</v>
+        <v>4112</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35511,11 +35511,11 @@
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P488" t="n">
-        <v>900</v>
+        <v>4112</v>
       </c>
       <c r="Q488" t="n">
         <v>1</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44284</v>
+        <v>44176</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -35561,20 +35561,20 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J489" t="n">
+        <v>3400</v>
+      </c>
+      <c r="K489" t="n">
         <v>1300</v>
       </c>
-      <c r="K489" t="n">
-        <v>2600</v>
-      </c>
       <c r="L489" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="M489" t="n">
-        <v>2600</v>
+        <v>1388</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35583,11 +35583,11 @@
       </c>
       <c r="O489" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P489" t="n">
-        <v>2600</v>
+        <v>1388</v>
       </c>
       <c r="Q489" t="n">
         <v>1</v>
@@ -35633,20 +35633,20 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J490" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="K490" t="n">
-        <v>2200</v>
+        <v>900</v>
       </c>
       <c r="L490" t="n">
-        <v>2200</v>
+        <v>900</v>
       </c>
       <c r="M490" t="n">
-        <v>2200</v>
+        <v>900</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35659,7 +35659,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>2200</v>
+        <v>900</v>
       </c>
       <c r="Q490" t="n">
         <v>1</v>
@@ -35705,20 +35705,20 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J491" t="n">
-        <v>2200</v>
+        <v>1300</v>
       </c>
       <c r="K491" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="L491" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="M491" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="Q491" t="n">
         <v>1</v>
@@ -35777,20 +35777,20 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J492" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K492" t="n">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="L492" t="n">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="M492" t="n">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35803,7 +35803,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="Q492" t="n">
         <v>1</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44279</v>
+        <v>44284</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -35849,20 +35849,20 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J493" t="n">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="K493" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="L493" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="M493" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="Q493" t="n">
         <v>1</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44279</v>
+        <v>44284</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -35921,20 +35921,20 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J494" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="K494" t="n">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="L494" t="n">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="M494" t="n">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="Q494" t="n">
         <v>1</v>
@@ -35993,20 +35993,20 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J495" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="K495" t="n">
-        <v>1700</v>
+        <v>500</v>
       </c>
       <c r="L495" t="n">
-        <v>1700</v>
+        <v>500</v>
       </c>
       <c r="M495" t="n">
-        <v>1700</v>
+        <v>500</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>1700</v>
+        <v>500</v>
       </c>
       <c r="Q495" t="n">
         <v>1</v>
@@ -36065,20 +36065,20 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J496" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="K496" t="n">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="L496" t="n">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="M496" t="n">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="Q496" t="n">
         <v>1</v>
@@ -36137,20 +36137,20 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J497" t="n">
+        <v>2400</v>
+      </c>
+      <c r="K497" t="n">
         <v>1700</v>
       </c>
-      <c r="K497" t="n">
-        <v>1000</v>
-      </c>
       <c r="L497" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="M497" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="Q497" t="n">
         <v>1</v>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44504</v>
+        <v>44279</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -36209,33 +36209,33 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J498" t="n">
-        <v>9700</v>
+        <v>2000</v>
       </c>
       <c r="K498" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="L498" t="n">
-        <v>650</v>
+        <v>1300</v>
       </c>
       <c r="M498" t="n">
-        <v>623</v>
+        <v>1300</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P498" t="n">
-        <v>623</v>
+        <v>1300</v>
       </c>
       <c r="Q498" t="n">
         <v>1</v>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44504</v>
+        <v>44279</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -36281,33 +36281,33 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J499" t="n">
-        <v>2900</v>
+        <v>1700</v>
       </c>
       <c r="K499" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L499" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M499" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P499" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Q499" t="n">
         <v>1</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -36353,33 +36353,33 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J500" t="n">
-        <v>4700</v>
+        <v>9700</v>
       </c>
       <c r="K500" t="n">
-        <v>2200</v>
+        <v>600</v>
       </c>
       <c r="L500" t="n">
-        <v>2400</v>
+        <v>650</v>
       </c>
       <c r="M500" t="n">
-        <v>2289</v>
+        <v>623</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P500" t="n">
-        <v>2289</v>
+        <v>623</v>
       </c>
       <c r="Q500" t="n">
         <v>1</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -36425,33 +36425,33 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J501" t="n">
-        <v>6900</v>
+        <v>2900</v>
       </c>
       <c r="K501" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="L501" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="M501" t="n">
-        <v>1893</v>
+        <v>500</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P501" t="n">
-        <v>1893</v>
+        <v>500</v>
       </c>
       <c r="Q501" t="n">
         <v>1</v>
@@ -36497,20 +36497,20 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J502" t="n">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="K502" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="L502" t="n">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="M502" t="n">
-        <v>1524</v>
+        <v>2289</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>1524</v>
+        <v>2289</v>
       </c>
       <c r="Q502" t="n">
         <v>1</v>
@@ -36569,20 +36569,20 @@
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J503" t="n">
-        <v>5400</v>
+        <v>6900</v>
       </c>
       <c r="K503" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L503" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M503" t="n">
-        <v>2639</v>
+        <v>1893</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>2639</v>
+        <v>1893</v>
       </c>
       <c r="Q503" t="n">
         <v>1</v>
@@ -36641,20 +36641,20 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J504" t="n">
-        <v>5700</v>
+        <v>4600</v>
       </c>
       <c r="K504" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="L504" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="M504" t="n">
-        <v>1116</v>
+        <v>1524</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>1116</v>
+        <v>1524</v>
       </c>
       <c r="Q504" t="n">
         <v>1</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -36713,33 +36713,33 @@
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J505" t="n">
-        <v>8100</v>
+        <v>5400</v>
       </c>
       <c r="K505" t="n">
-        <v>550</v>
+        <v>2500</v>
       </c>
       <c r="L505" t="n">
-        <v>600</v>
+        <v>2800</v>
       </c>
       <c r="M505" t="n">
-        <v>572</v>
+        <v>2639</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O505" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P505" t="n">
-        <v>572</v>
+        <v>2639</v>
       </c>
       <c r="Q505" t="n">
         <v>1</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -36785,20 +36785,20 @@
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J506" t="n">
-        <v>2400</v>
+        <v>5700</v>
       </c>
       <c r="K506" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L506" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="M506" t="n">
-        <v>2000</v>
+        <v>1116</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36807,11 +36807,11 @@
       </c>
       <c r="O506" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P506" t="n">
-        <v>2000</v>
+        <v>1116</v>
       </c>
       <c r="Q506" t="n">
         <v>1</v>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -36861,29 +36861,29 @@
         </is>
       </c>
       <c r="J507" t="n">
-        <v>2200</v>
+        <v>8100</v>
       </c>
       <c r="K507" t="n">
-        <v>2000</v>
+        <v>550</v>
       </c>
       <c r="L507" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="M507" t="n">
-        <v>2000</v>
+        <v>572</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P507" t="n">
-        <v>2000</v>
+        <v>572</v>
       </c>
       <c r="Q507" t="n">
         <v>1</v>
@@ -36929,20 +36929,20 @@
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J508" t="n">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="K508" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L508" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M508" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="Q508" t="n">
         <v>1</v>
@@ -37001,20 +37001,20 @@
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J509" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="K509" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L509" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M509" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
@@ -37027,7 +37027,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="Q509" t="n">
         <v>1</v>
@@ -37073,20 +37073,20 @@
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J510" t="n">
+        <v>1900</v>
+      </c>
+      <c r="K510" t="n">
         <v>1500</v>
       </c>
-      <c r="K510" t="n">
-        <v>1000</v>
-      </c>
       <c r="L510" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M510" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="Q510" t="n">
         <v>1</v>
@@ -37145,20 +37145,20 @@
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J511" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="K511" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="L511" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="M511" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="Q511" t="n">
         <v>1</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -37217,20 +37217,20 @@
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J512" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="K512" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="L512" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="M512" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37239,11 +37239,11 @@
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P512" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="Q512" t="n">
         <v>1</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -37289,20 +37289,20 @@
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J513" t="n">
-        <v>2200</v>
+        <v>1300</v>
       </c>
       <c r="K513" t="n">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="L513" t="n">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="M513" t="n">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37311,11 +37311,11 @@
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P513" t="n">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="Q513" t="n">
         <v>1</v>
@@ -37361,33 +37361,33 @@
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J514" t="n">
-        <v>4200</v>
+        <v>900</v>
       </c>
       <c r="K514" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="L514" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="M514" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P514" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="Q514" t="n">
         <v>1</v>
@@ -37433,33 +37433,33 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J515" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="K515" t="n">
-        <v>400</v>
+        <v>4500</v>
       </c>
       <c r="L515" t="n">
-        <v>400</v>
+        <v>4500</v>
       </c>
       <c r="M515" t="n">
-        <v>400</v>
+        <v>4500</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O515" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P515" t="n">
-        <v>400</v>
+        <v>4500</v>
       </c>
       <c r="Q515" t="n">
         <v>1</v>
@@ -37509,29 +37509,29 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>3500</v>
+        <v>4200</v>
       </c>
       <c r="K516" t="n">
-        <v>3600</v>
+        <v>500</v>
       </c>
       <c r="L516" t="n">
-        <v>3600</v>
+        <v>500</v>
       </c>
       <c r="M516" t="n">
-        <v>3600</v>
+        <v>500</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P516" t="n">
-        <v>3600</v>
+        <v>500</v>
       </c>
       <c r="Q516" t="n">
         <v>1</v>
@@ -37581,20 +37581,20 @@
         </is>
       </c>
       <c r="J517" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="K517" t="n">
-        <v>3800</v>
+        <v>400</v>
       </c>
       <c r="L517" t="n">
-        <v>3800</v>
+        <v>400</v>
       </c>
       <c r="M517" t="n">
-        <v>3800</v>
+        <v>400</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O517" t="inlineStr">
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>3800</v>
+        <v>400</v>
       </c>
       <c r="Q517" t="n">
         <v>1</v>
@@ -37649,33 +37649,33 @@
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J518" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="K518" t="n">
-        <v>400</v>
+        <v>3600</v>
       </c>
       <c r="L518" t="n">
-        <v>400</v>
+        <v>3600</v>
       </c>
       <c r="M518" t="n">
-        <v>400</v>
+        <v>3600</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O518" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P518" t="n">
-        <v>400</v>
+        <v>3600</v>
       </c>
       <c r="Q518" t="n">
         <v>1</v>
@@ -37721,24 +37721,24 @@
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J519" t="n">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="K519" t="n">
-        <v>300</v>
+        <v>3800</v>
       </c>
       <c r="L519" t="n">
-        <v>300</v>
+        <v>3800</v>
       </c>
       <c r="M519" t="n">
-        <v>300</v>
+        <v>3800</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O519" t="inlineStr">
@@ -37747,7 +37747,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>300</v>
+        <v>3800</v>
       </c>
       <c r="Q519" t="n">
         <v>1</v>
@@ -37797,29 +37797,29 @@
         </is>
       </c>
       <c r="J520" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="K520" t="n">
-        <v>2800</v>
+        <v>400</v>
       </c>
       <c r="L520" t="n">
-        <v>2800</v>
+        <v>400</v>
       </c>
       <c r="M520" t="n">
-        <v>2800</v>
+        <v>400</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O520" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P520" t="n">
-        <v>2800</v>
+        <v>400</v>
       </c>
       <c r="Q520" t="n">
         <v>1</v>
@@ -37865,24 +37865,24 @@
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J521" t="n">
         <v>1000</v>
       </c>
       <c r="K521" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="L521" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="M521" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O521" t="inlineStr">
@@ -37891,7 +37891,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="Q521" t="n">
         <v>1</v>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -37937,20 +37937,20 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J522" t="n">
-        <v>4700</v>
+        <v>1500</v>
       </c>
       <c r="K522" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="L522" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="M522" t="n">
-        <v>2160</v>
+        <v>2800</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>2160</v>
+        <v>2800</v>
       </c>
       <c r="Q522" t="n">
         <v>1</v>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -38009,20 +38009,20 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J523" t="n">
-        <v>7500</v>
+        <v>1000</v>
       </c>
       <c r="K523" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L523" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M523" t="n">
-        <v>1712</v>
+        <v>2000</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>1712</v>
+        <v>2000</v>
       </c>
       <c r="Q523" t="n">
         <v>1</v>
@@ -38081,20 +38081,20 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="K524" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="L524" t="n">
-        <v>1400</v>
+        <v>2300</v>
       </c>
       <c r="M524" t="n">
-        <v>1326</v>
+        <v>2160</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>1326</v>
+        <v>2160</v>
       </c>
       <c r="Q524" t="n">
         <v>1</v>
@@ -38153,20 +38153,20 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J525" t="n">
-        <v>5800</v>
+        <v>7500</v>
       </c>
       <c r="K525" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="L525" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="M525" t="n">
-        <v>2671</v>
+        <v>1712</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>2671</v>
+        <v>1712</v>
       </c>
       <c r="Q525" t="n">
         <v>1</v>
@@ -38225,20 +38225,20 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>3600</v>
+        <v>4600</v>
       </c>
       <c r="K526" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="L526" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="M526" t="n">
-        <v>861</v>
+        <v>1326</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>861</v>
+        <v>1326</v>
       </c>
       <c r="Q526" t="n">
         <v>1</v>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44495</v>
+        <v>44225</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -38297,33 +38297,33 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J527" t="n">
-        <v>8100</v>
+        <v>5800</v>
       </c>
       <c r="K527" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="L527" t="n">
-        <v>550</v>
+        <v>2800</v>
       </c>
       <c r="M527" t="n">
-        <v>522</v>
+        <v>2671</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P527" t="n">
-        <v>522</v>
+        <v>2671</v>
       </c>
       <c r="Q527" t="n">
         <v>1</v>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -38369,20 +38369,20 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J528" t="n">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="K528" t="n">
-        <v>1900</v>
+        <v>800</v>
       </c>
       <c r="L528" t="n">
-        <v>2100</v>
+        <v>900</v>
       </c>
       <c r="M528" t="n">
-        <v>2025</v>
+        <v>861</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38391,11 +38391,11 @@
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P528" t="n">
-        <v>2025</v>
+        <v>861</v>
       </c>
       <c r="Q528" t="n">
         <v>1</v>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -38441,33 +38441,33 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J529" t="n">
-        <v>3700</v>
+        <v>8100</v>
       </c>
       <c r="K529" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="L529" t="n">
-        <v>2200</v>
+        <v>550</v>
       </c>
       <c r="M529" t="n">
-        <v>2092</v>
+        <v>522</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O529" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P529" t="n">
-        <v>2092</v>
+        <v>522</v>
       </c>
       <c r="Q529" t="n">
         <v>1</v>
@@ -38513,20 +38513,20 @@
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J530" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="K530" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="L530" t="n">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="M530" t="n">
-        <v>1608</v>
+        <v>2025</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>1608</v>
+        <v>2025</v>
       </c>
       <c r="Q530" t="n">
         <v>1</v>
@@ -38585,20 +38585,20 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J531" t="n">
-        <v>6400</v>
+        <v>3700</v>
       </c>
       <c r="K531" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L531" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="M531" t="n">
-        <v>1691</v>
+        <v>2092</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>1691</v>
+        <v>2092</v>
       </c>
       <c r="Q531" t="n">
         <v>1</v>
@@ -38657,20 +38657,20 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>4400</v>
+        <v>6500</v>
       </c>
       <c r="K532" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="L532" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="M532" t="n">
-        <v>1286</v>
+        <v>1608</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38679,11 +38679,11 @@
       </c>
       <c r="O532" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P532" t="n">
-        <v>1286</v>
+        <v>1608</v>
       </c>
       <c r="Q532" t="n">
         <v>1</v>
@@ -38729,20 +38729,20 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>6000</v>
+        <v>6400</v>
       </c>
       <c r="K533" t="n">
-        <v>2300</v>
+        <v>1600</v>
       </c>
       <c r="L533" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="M533" t="n">
-        <v>2410</v>
+        <v>1691</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38751,11 +38751,11 @@
       </c>
       <c r="O533" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P533" t="n">
-        <v>2410</v>
+        <v>1691</v>
       </c>
       <c r="Q533" t="n">
         <v>1</v>
@@ -38801,20 +38801,20 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>5500</v>
+        <v>4400</v>
       </c>
       <c r="K534" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="L534" t="n">
-        <v>2600</v>
+        <v>1400</v>
       </c>
       <c r="M534" t="n">
-        <v>2487</v>
+        <v>1286</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>2487</v>
+        <v>1286</v>
       </c>
       <c r="Q534" t="n">
         <v>1</v>
@@ -38873,20 +38873,20 @@
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="K535" t="n">
-        <v>900</v>
+        <v>2300</v>
       </c>
       <c r="L535" t="n">
-        <v>1100</v>
+        <v>2500</v>
       </c>
       <c r="M535" t="n">
-        <v>1010</v>
+        <v>2410</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38895,11 +38895,11 @@
       </c>
       <c r="O535" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P535" t="n">
-        <v>1010</v>
+        <v>2410</v>
       </c>
       <c r="Q535" t="n">
         <v>1</v>
@@ -38925,7 +38925,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44510</v>
+        <v>44232</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -38945,33 +38945,33 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>6200</v>
+        <v>5500</v>
       </c>
       <c r="K536" t="n">
-        <v>750</v>
+        <v>2400</v>
       </c>
       <c r="L536" t="n">
-        <v>800</v>
+        <v>2600</v>
       </c>
       <c r="M536" t="n">
-        <v>772</v>
+        <v>2487</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O536" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P536" t="n">
-        <v>772</v>
+        <v>2487</v>
       </c>
       <c r="Q536" t="n">
         <v>1</v>
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44510</v>
+        <v>44232</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -39017,33 +39017,33 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="K537" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L537" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="M537" t="n">
-        <v>600</v>
+        <v>1010</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O537" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P537" t="n">
-        <v>600</v>
+        <v>1010</v>
       </c>
       <c r="Q537" t="n">
         <v>1</v>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -39093,16 +39093,16 @@
         </is>
       </c>
       <c r="J538" t="n">
-        <v>2300</v>
+        <v>6200</v>
       </c>
       <c r="K538" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L538" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M538" t="n">
-        <v>600</v>
+        <v>772</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39111,11 +39111,11 @@
       </c>
       <c r="O538" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P538" t="n">
-        <v>600</v>
+        <v>772</v>
       </c>
       <c r="Q538" t="n">
         <v>1</v>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -39161,20 +39161,20 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>4800</v>
+        <v>2600</v>
       </c>
       <c r="K539" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L539" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M539" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="Q539" t="n">
         <v>1</v>
@@ -39237,7 +39237,7 @@
         </is>
       </c>
       <c r="J540" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="K540" t="n">
         <v>600</v>
@@ -39255,7 +39255,7 @@
       </c>
       <c r="O540" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P540" t="n">
@@ -39305,20 +39305,20 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J541" t="n">
-        <v>1500</v>
+        <v>4800</v>
       </c>
       <c r="K541" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L541" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M541" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39327,11 +39327,11 @@
       </c>
       <c r="O541" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P541" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="Q541" t="n">
         <v>1</v>
@@ -39377,20 +39377,20 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J542" t="n">
-        <v>3300</v>
+        <v>1800</v>
       </c>
       <c r="K542" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L542" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M542" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39399,11 +39399,11 @@
       </c>
       <c r="O542" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P542" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="Q542" t="n">
         <v>1</v>
@@ -39453,7 +39453,7 @@
         </is>
       </c>
       <c r="J543" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K543" t="n">
         <v>500</v>
@@ -39471,7 +39471,7 @@
       </c>
       <c r="O543" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P543" t="n">
@@ -39501,7 +39501,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -39521,33 +39521,33 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>2800</v>
+        <v>3300</v>
       </c>
       <c r="K544" t="n">
-        <v>2200</v>
+        <v>450</v>
       </c>
       <c r="L544" t="n">
-        <v>2200</v>
+        <v>450</v>
       </c>
       <c r="M544" t="n">
-        <v>2200</v>
+        <v>450</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O544" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P544" t="n">
-        <v>2200</v>
+        <v>450</v>
       </c>
       <c r="Q544" t="n">
         <v>1</v>
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -39593,24 +39593,24 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J545" t="n">
-        <v>5700</v>
+        <v>600</v>
       </c>
       <c r="K545" t="n">
-        <v>2100</v>
+        <v>500</v>
       </c>
       <c r="L545" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="M545" t="n">
-        <v>2346</v>
+        <v>500</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O545" t="inlineStr">
@@ -39619,7 +39619,7 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>2346</v>
+        <v>500</v>
       </c>
       <c r="Q545" t="n">
         <v>1</v>
@@ -39665,20 +39665,20 @@
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J546" t="n">
-        <v>3700</v>
+        <v>2800</v>
       </c>
       <c r="K546" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="L546" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="M546" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="Q546" t="n">
         <v>1</v>
@@ -39737,20 +39737,20 @@
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J547" t="n">
-        <v>7800</v>
+        <v>5700</v>
       </c>
       <c r="K547" t="n">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="L547" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M547" t="n">
-        <v>1850</v>
+        <v>2346</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39763,7 +39763,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>1850</v>
+        <v>2346</v>
       </c>
       <c r="Q547" t="n">
         <v>1</v>
@@ -39809,20 +39809,20 @@
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J548" t="n">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="K548" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="L548" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M548" t="n">
-        <v>1446</v>
+        <v>1800</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39831,11 +39831,11 @@
       </c>
       <c r="O548" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P548" t="n">
-        <v>1446</v>
+        <v>1800</v>
       </c>
       <c r="Q548" t="n">
         <v>1</v>
@@ -39881,20 +39881,20 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>3300</v>
+        <v>7800</v>
       </c>
       <c r="K549" t="n">
-        <v>2700</v>
+        <v>1700</v>
       </c>
       <c r="L549" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="M549" t="n">
-        <v>2700</v>
+        <v>1850</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39903,11 +39903,11 @@
       </c>
       <c r="O549" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P549" t="n">
-        <v>2700</v>
+        <v>1850</v>
       </c>
       <c r="Q549" t="n">
         <v>1</v>
@@ -39953,20 +39953,20 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J550" t="n">
-        <v>5900</v>
+        <v>3900</v>
       </c>
       <c r="K550" t="n">
-        <v>2600</v>
+        <v>1300</v>
       </c>
       <c r="L550" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="M550" t="n">
-        <v>2688</v>
+        <v>1446</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39979,7 +39979,7 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>2688</v>
+        <v>1446</v>
       </c>
       <c r="Q550" t="n">
         <v>1</v>
@@ -40025,20 +40025,20 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>3900</v>
+        <v>3300</v>
       </c>
       <c r="K551" t="n">
-        <v>1000</v>
+        <v>2700</v>
       </c>
       <c r="L551" t="n">
-        <v>1200</v>
+        <v>2700</v>
       </c>
       <c r="M551" t="n">
-        <v>1113</v>
+        <v>2700</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40047,11 +40047,11 @@
       </c>
       <c r="O551" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P551" t="n">
-        <v>1113</v>
+        <v>2700</v>
       </c>
       <c r="Q551" t="n">
         <v>1</v>
@@ -40077,7 +40077,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -40097,20 +40097,20 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>4800</v>
+        <v>5900</v>
       </c>
       <c r="K552" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="L552" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="M552" t="n">
-        <v>2156</v>
+        <v>2688</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40123,7 +40123,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>2156</v>
+        <v>2688</v>
       </c>
       <c r="Q552" t="n">
         <v>1</v>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -40169,20 +40169,20 @@
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>6100</v>
+        <v>3900</v>
       </c>
       <c r="K553" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="L553" t="n">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="M553" t="n">
-        <v>1795</v>
+        <v>1113</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>1795</v>
+        <v>1113</v>
       </c>
       <c r="Q553" t="n">
         <v>1</v>
@@ -40241,20 +40241,20 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J554" t="n">
-        <v>3100</v>
+        <v>4800</v>
       </c>
       <c r="K554" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="L554" t="n">
-        <v>1600</v>
+        <v>2300</v>
       </c>
       <c r="M554" t="n">
-        <v>1465</v>
+        <v>2156</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         </is>
       </c>
       <c r="P554" t="n">
-        <v>1465</v>
+        <v>2156</v>
       </c>
       <c r="Q554" t="n">
         <v>1</v>
@@ -40313,20 +40313,20 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J555" t="n">
-        <v>5100</v>
+        <v>6100</v>
       </c>
       <c r="K555" t="n">
-        <v>2400</v>
+        <v>1700</v>
       </c>
       <c r="L555" t="n">
-        <v>2600</v>
+        <v>1900</v>
       </c>
       <c r="M555" t="n">
-        <v>2529</v>
+        <v>1795</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>2529</v>
+        <v>1795</v>
       </c>
       <c r="Q555" t="n">
         <v>1</v>
@@ -40385,20 +40385,20 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J556" t="n">
-        <v>2600</v>
+        <v>3100</v>
       </c>
       <c r="K556" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="L556" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="M556" t="n">
-        <v>1115</v>
+        <v>1465</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>1115</v>
+        <v>1465</v>
       </c>
       <c r="Q556" t="n">
         <v>1</v>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -40457,20 +40457,20 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J557" t="n">
-        <v>1100</v>
+        <v>5100</v>
       </c>
       <c r="K557" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="L557" t="n">
-        <v>800</v>
+        <v>2600</v>
       </c>
       <c r="M557" t="n">
-        <v>800</v>
+        <v>2529</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>800</v>
+        <v>2529</v>
       </c>
       <c r="Q557" t="n">
         <v>1</v>
@@ -40509,7 +40509,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -40529,20 +40529,20 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J558" t="n">
-        <v>4600</v>
+        <v>2600</v>
       </c>
       <c r="K558" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L558" t="n">
-        <v>2300</v>
+        <v>1200</v>
       </c>
       <c r="M558" t="n">
-        <v>2124</v>
+        <v>1115</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>2124</v>
+        <v>1115</v>
       </c>
       <c r="Q558" t="n">
         <v>1</v>
@@ -40601,20 +40601,20 @@
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J559" t="n">
-        <v>6000</v>
+        <v>1100</v>
       </c>
       <c r="K559" t="n">
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="L559" t="n">
-        <v>1900</v>
+        <v>800</v>
       </c>
       <c r="M559" t="n">
-        <v>1783</v>
+        <v>800</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40627,7 +40627,7 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>1783</v>
+        <v>800</v>
       </c>
       <c r="Q559" t="n">
         <v>1</v>
@@ -40673,20 +40673,20 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J560" t="n">
-        <v>3600</v>
+        <v>4600</v>
       </c>
       <c r="K560" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="L560" t="n">
-        <v>1600</v>
+        <v>2300</v>
       </c>
       <c r="M560" t="n">
-        <v>1417</v>
+        <v>2124</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40699,7 +40699,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>1417</v>
+        <v>2124</v>
       </c>
       <c r="Q560" t="n">
         <v>1</v>
@@ -40745,20 +40745,20 @@
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J561" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="K561" t="n">
-        <v>2400</v>
+        <v>1700</v>
       </c>
       <c r="L561" t="n">
-        <v>2700</v>
+        <v>1900</v>
       </c>
       <c r="M561" t="n">
-        <v>2529</v>
+        <v>1783</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>2529</v>
+        <v>1783</v>
       </c>
       <c r="Q561" t="n">
         <v>1</v>
@@ -40817,20 +40817,20 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J562" t="n">
-        <v>4200</v>
+        <v>3600</v>
       </c>
       <c r="K562" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="L562" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="M562" t="n">
-        <v>1086</v>
+        <v>1417</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40843,7 +40843,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>1086</v>
+        <v>1417</v>
       </c>
       <c r="Q562" t="n">
         <v>1</v>
@@ -40869,7 +40869,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44515</v>
+        <v>44251</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -40889,33 +40889,33 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J563" t="n">
-        <v>8500</v>
+        <v>3500</v>
       </c>
       <c r="K563" t="n">
-        <v>750</v>
+        <v>2400</v>
       </c>
       <c r="L563" t="n">
-        <v>800</v>
+        <v>2700</v>
       </c>
       <c r="M563" t="n">
-        <v>773</v>
+        <v>2529</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O563" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P563" t="n">
-        <v>773</v>
+        <v>2529</v>
       </c>
       <c r="Q563" t="n">
         <v>1</v>
@@ -40941,7 +40941,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44515</v>
+        <v>44251</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -40961,33 +40961,33 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J564" t="n">
-        <v>2500</v>
+        <v>4200</v>
       </c>
       <c r="K564" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L564" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="M564" t="n">
-        <v>600</v>
+        <v>1086</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O564" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P564" t="n">
-        <v>600</v>
+        <v>1086</v>
       </c>
       <c r="Q564" t="n">
         <v>1</v>
@@ -41013,7 +41013,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44181</v>
+        <v>44515</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -41033,33 +41033,33 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J565" t="n">
-        <v>2200</v>
+        <v>8500</v>
       </c>
       <c r="K565" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="L565" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M565" t="n">
-        <v>1000</v>
+        <v>773</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O565" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P565" t="n">
-        <v>1000</v>
+        <v>773</v>
       </c>
       <c r="Q565" t="n">
         <v>1</v>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44181</v>
+        <v>44515</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -41105,33 +41105,33 @@
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J566" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="K566" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="L566" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="M566" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O566" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P566" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="Q566" t="n">
         <v>1</v>
@@ -41177,20 +41177,20 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J567" t="n">
-        <v>6300</v>
+        <v>2200</v>
       </c>
       <c r="K567" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="L567" t="n">
-        <v>3300</v>
+        <v>1000</v>
       </c>
       <c r="M567" t="n">
-        <v>3119</v>
+        <v>1000</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>3119</v>
+        <v>1000</v>
       </c>
       <c r="Q567" t="n">
         <v>1</v>
@@ -41249,20 +41249,20 @@
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J568" t="n">
-        <v>1900</v>
+        <v>2800</v>
       </c>
       <c r="K568" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L568" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M568" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         </is>
       </c>
       <c r="P568" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q568" t="n">
         <v>1</v>
@@ -41321,20 +41321,20 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J569" t="n">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="K569" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L569" t="n">
-        <v>2700</v>
+        <v>3300</v>
       </c>
       <c r="M569" t="n">
-        <v>2592</v>
+        <v>3119</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
         </is>
       </c>
       <c r="P569" t="n">
-        <v>2592</v>
+        <v>3119</v>
       </c>
       <c r="Q569" t="n">
         <v>1</v>
@@ -41393,20 +41393,20 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J570" t="n">
-        <v>4900</v>
+        <v>1900</v>
       </c>
       <c r="K570" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L570" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="M570" t="n">
-        <v>2208</v>
+        <v>2500</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41415,11 +41415,11 @@
       </c>
       <c r="O570" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P570" t="n">
-        <v>2208</v>
+        <v>2500</v>
       </c>
       <c r="Q570" t="n">
         <v>1</v>
@@ -41465,20 +41465,20 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>2400</v>
+        <v>6500</v>
       </c>
       <c r="K571" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L571" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="M571" t="n">
-        <v>3500</v>
+        <v>2592</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41487,11 +41487,11 @@
       </c>
       <c r="O571" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P571" t="n">
-        <v>3500</v>
+        <v>2592</v>
       </c>
       <c r="Q571" t="n">
         <v>1</v>
@@ -41537,20 +41537,20 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>6000</v>
+        <v>4900</v>
       </c>
       <c r="K572" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L572" t="n">
-        <v>3800</v>
+        <v>2300</v>
       </c>
       <c r="M572" t="n">
-        <v>3635</v>
+        <v>2208</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41563,7 +41563,7 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>3635</v>
+        <v>2208</v>
       </c>
       <c r="Q572" t="n">
         <v>1</v>
@@ -41609,20 +41609,20 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="K573" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="L573" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="M573" t="n">
-        <v>1672</v>
+        <v>3500</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41631,11 +41631,11 @@
       </c>
       <c r="O573" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P573" t="n">
-        <v>1672</v>
+        <v>3500</v>
       </c>
       <c r="Q573" t="n">
         <v>1</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -41681,20 +41681,20 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="K574" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="L574" t="n">
-        <v>800</v>
+        <v>3800</v>
       </c>
       <c r="M574" t="n">
-        <v>800</v>
+        <v>3635</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41703,11 +41703,11 @@
       </c>
       <c r="O574" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P574" t="n">
-        <v>800</v>
+        <v>3635</v>
       </c>
       <c r="Q574" t="n">
         <v>1</v>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -41753,20 +41753,20 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>2400</v>
+        <v>4000</v>
       </c>
       <c r="K575" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L575" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="M575" t="n">
-        <v>3000</v>
+        <v>1672</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41775,11 +41775,11 @@
       </c>
       <c r="O575" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P575" t="n">
-        <v>3000</v>
+        <v>1672</v>
       </c>
       <c r="Q575" t="n">
         <v>1</v>
@@ -41825,20 +41825,20 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>4900</v>
+        <v>2500</v>
       </c>
       <c r="K576" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L576" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="M576" t="n">
-        <v>2641</v>
+        <v>800</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>2641</v>
+        <v>800</v>
       </c>
       <c r="Q576" t="n">
         <v>1</v>
@@ -41897,20 +41897,20 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>3300</v>
+        <v>2400</v>
       </c>
       <c r="K577" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L577" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="M577" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41923,7 +41923,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="Q577" t="n">
         <v>1</v>
@@ -41969,20 +41969,20 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>8700</v>
+        <v>4900</v>
       </c>
       <c r="K578" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L578" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="M578" t="n">
-        <v>2134</v>
+        <v>2641</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>2134</v>
+        <v>2641</v>
       </c>
       <c r="Q578" t="n">
         <v>1</v>
@@ -42041,20 +42041,20 @@
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>5000</v>
+        <v>3300</v>
       </c>
       <c r="K579" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="L579" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="M579" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42063,11 +42063,11 @@
       </c>
       <c r="O579" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P579" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="Q579" t="n">
         <v>1</v>
@@ -42113,20 +42113,20 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J580" t="n">
-        <v>3600</v>
+        <v>8700</v>
       </c>
       <c r="K580" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L580" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="M580" t="n">
-        <v>3500</v>
+        <v>2134</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42135,11 +42135,11 @@
       </c>
       <c r="O580" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P580" t="n">
-        <v>3500</v>
+        <v>2134</v>
       </c>
       <c r="Q580" t="n">
         <v>1</v>
@@ -42185,20 +42185,20 @@
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J581" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="K581" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="L581" t="n">
-        <v>3300</v>
+        <v>1800</v>
       </c>
       <c r="M581" t="n">
-        <v>3131</v>
+        <v>1800</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42211,7 +42211,7 @@
         </is>
       </c>
       <c r="P581" t="n">
-        <v>3131</v>
+        <v>1800</v>
       </c>
       <c r="Q581" t="n">
         <v>1</v>
@@ -42257,20 +42257,20 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J582" t="n">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="K582" t="n">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="L582" t="n">
-        <v>1300</v>
+        <v>3500</v>
       </c>
       <c r="M582" t="n">
-        <v>1174</v>
+        <v>3500</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42279,11 +42279,11 @@
       </c>
       <c r="O582" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P582" t="n">
-        <v>1174</v>
+        <v>3500</v>
       </c>
       <c r="Q582" t="n">
         <v>1</v>
@@ -42309,7 +42309,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -42329,20 +42329,20 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J583" t="n">
-        <v>1400</v>
+        <v>8000</v>
       </c>
       <c r="K583" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L583" t="n">
-        <v>800</v>
+        <v>3300</v>
       </c>
       <c r="M583" t="n">
-        <v>800</v>
+        <v>3131</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42351,11 +42351,11 @@
       </c>
       <c r="O583" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P583" t="n">
-        <v>800</v>
+        <v>3131</v>
       </c>
       <c r="Q583" t="n">
         <v>1</v>
@@ -42381,7 +42381,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -42401,20 +42401,20 @@
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J584" t="n">
-        <v>1700</v>
+        <v>3800</v>
       </c>
       <c r="K584" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="L584" t="n">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="M584" t="n">
-        <v>2400</v>
+        <v>1174</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42423,11 +42423,11 @@
       </c>
       <c r="O584" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P584" t="n">
-        <v>2400</v>
+        <v>1174</v>
       </c>
       <c r="Q584" t="n">
         <v>1</v>
@@ -42473,20 +42473,20 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J585" t="n">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="K585" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L585" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M585" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42499,7 +42499,7 @@
         </is>
       </c>
       <c r="P585" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q585" t="n">
         <v>1</v>
@@ -42545,20 +42545,20 @@
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J586" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="K586" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="L586" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="M586" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         </is>
       </c>
       <c r="P586" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="Q586" t="n">
         <v>1</v>
@@ -42617,20 +42617,20 @@
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J587" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="K587" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="L587" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="M587" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42643,7 +42643,7 @@
         </is>
       </c>
       <c r="P587" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="Q587" t="n">
         <v>1</v>
@@ -42669,7 +42669,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44508</v>
+        <v>44271</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -42689,33 +42689,33 @@
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J588" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="K588" t="n">
-        <v>650</v>
+        <v>1600</v>
       </c>
       <c r="L588" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="M588" t="n">
-        <v>671</v>
+        <v>1600</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O588" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P588" t="n">
-        <v>671</v>
+        <v>1600</v>
       </c>
       <c r="Q588" t="n">
         <v>1</v>
@@ -42741,7 +42741,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44201</v>
+        <v>44271</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -42761,20 +42761,20 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J589" t="n">
-        <v>3100</v>
+        <v>2200</v>
       </c>
       <c r="K589" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="L589" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="M589" t="n">
-        <v>755</v>
+        <v>1300</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42783,11 +42783,11 @@
       </c>
       <c r="O589" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P589" t="n">
-        <v>755</v>
+        <v>1300</v>
       </c>
       <c r="Q589" t="n">
         <v>1</v>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -42833,33 +42833,33 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J590" t="n">
-        <v>2200</v>
+        <v>4500</v>
       </c>
       <c r="K590" t="n">
-        <v>3000</v>
+        <v>650</v>
       </c>
       <c r="L590" t="n">
-        <v>3000</v>
+        <v>700</v>
       </c>
       <c r="M590" t="n">
-        <v>3000</v>
+        <v>671</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O590" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P590" t="n">
-        <v>3000</v>
+        <v>671</v>
       </c>
       <c r="Q590" t="n">
         <v>1</v>
@@ -42905,20 +42905,20 @@
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>5700</v>
+        <v>3100</v>
       </c>
       <c r="K591" t="n">
-        <v>2600</v>
+        <v>700</v>
       </c>
       <c r="L591" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="M591" t="n">
-        <v>2684</v>
+        <v>755</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42931,7 +42931,7 @@
         </is>
       </c>
       <c r="P591" t="n">
-        <v>2684</v>
+        <v>755</v>
       </c>
       <c r="Q591" t="n">
         <v>1</v>
@@ -42977,20 +42977,20 @@
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J592" t="n">
-        <v>3300</v>
+        <v>2200</v>
       </c>
       <c r="K592" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L592" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="M592" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -43003,7 +43003,7 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="Q592" t="n">
         <v>1</v>
@@ -43049,20 +43049,20 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J593" t="n">
-        <v>8200</v>
+        <v>5700</v>
       </c>
       <c r="K593" t="n">
-        <v>2100</v>
+        <v>2600</v>
       </c>
       <c r="L593" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="M593" t="n">
-        <v>2228</v>
+        <v>2684</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>2228</v>
+        <v>2684</v>
       </c>
       <c r="Q593" t="n">
         <v>1</v>
@@ -43121,20 +43121,20 @@
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J594" t="n">
-        <v>5100</v>
+        <v>3300</v>
       </c>
       <c r="K594" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="L594" t="n">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="M594" t="n">
-        <v>1729</v>
+        <v>2400</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43143,11 +43143,11 @@
       </c>
       <c r="O594" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P594" t="n">
-        <v>1729</v>
+        <v>2400</v>
       </c>
       <c r="Q594" t="n">
         <v>1</v>
@@ -43193,20 +43193,20 @@
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>2900</v>
+        <v>8200</v>
       </c>
       <c r="K595" t="n">
-        <v>3500</v>
+        <v>2100</v>
       </c>
       <c r="L595" t="n">
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="M595" t="n">
-        <v>3500</v>
+        <v>2228</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43215,11 +43215,11 @@
       </c>
       <c r="O595" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P595" t="n">
-        <v>3500</v>
+        <v>2228</v>
       </c>
       <c r="Q595" t="n">
         <v>1</v>
@@ -43265,20 +43265,20 @@
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>7700</v>
+        <v>5100</v>
       </c>
       <c r="K596" t="n">
-        <v>3200</v>
+        <v>1600</v>
       </c>
       <c r="L596" t="n">
-        <v>3500</v>
+        <v>1900</v>
       </c>
       <c r="M596" t="n">
-        <v>3329</v>
+        <v>1729</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43291,7 +43291,7 @@
         </is>
       </c>
       <c r="P596" t="n">
-        <v>3329</v>
+        <v>1729</v>
       </c>
       <c r="Q596" t="n">
         <v>1</v>
@@ -43337,38 +43337,182 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
+          <t>Super</t>
+        </is>
+      </c>
+      <c r="J597" t="n">
+        <v>2900</v>
+      </c>
+      <c r="K597" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L597" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M597" t="n">
+        <v>3500</v>
+      </c>
+      <c r="N597" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O597" t="inlineStr">
+        <is>
+          <t>Paine</t>
+        </is>
+      </c>
+      <c r="P597" t="n">
+        <v>3500</v>
+      </c>
+      <c r="Q597" t="n">
+        <v>1</v>
+      </c>
+      <c r="R597" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>6</v>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D598" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E598" t="n">
+        <v>13</v>
+      </c>
+      <c r="F598" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G598" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I598" t="inlineStr">
+        <is>
+          <t>Super</t>
+        </is>
+      </c>
+      <c r="J598" t="n">
+        <v>7700</v>
+      </c>
+      <c r="K598" t="n">
+        <v>3200</v>
+      </c>
+      <c r="L598" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M598" t="n">
+        <v>3329</v>
+      </c>
+      <c r="N598" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O598" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P598" t="n">
+        <v>3329</v>
+      </c>
+      <c r="Q598" t="n">
+        <v>1</v>
+      </c>
+      <c r="R598" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>6</v>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D599" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E599" t="n">
+        <v>13</v>
+      </c>
+      <c r="F599" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G599" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I599" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J597" t="n">
+      <c r="J599" t="n">
         <v>4200</v>
       </c>
-      <c r="K597" t="n">
+      <c r="K599" t="n">
         <v>1100</v>
       </c>
-      <c r="L597" t="n">
+      <c r="L599" t="n">
         <v>1400</v>
       </c>
-      <c r="M597" t="n">
+      <c r="M599" t="n">
         <v>1279</v>
       </c>
-      <c r="N597" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O597" t="inlineStr">
+      <c r="N599" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O599" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P597" t="n">
+      <c r="P599" t="n">
         <v>1279</v>
       </c>
-      <c r="Q597" t="n">
-        <v>1</v>
-      </c>
-      <c r="R597" t="inlineStr">
+      <c r="Q599" t="n">
+        <v>1</v>
+      </c>
+      <c r="R599" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R599"/>
+  <dimension ref="A1:R601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -36497,33 +36497,33 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J502" t="n">
-        <v>4700</v>
+        <v>6200</v>
       </c>
       <c r="K502" t="n">
-        <v>2200</v>
+        <v>800</v>
       </c>
       <c r="L502" t="n">
-        <v>2400</v>
+        <v>850</v>
       </c>
       <c r="M502" t="n">
-        <v>2289</v>
+        <v>820</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P502" t="n">
-        <v>2289</v>
+        <v>820</v>
       </c>
       <c r="Q502" t="n">
         <v>1</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -36569,33 +36569,33 @@
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J503" t="n">
-        <v>6900</v>
+        <v>2200</v>
       </c>
       <c r="K503" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="L503" t="n">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="M503" t="n">
-        <v>1893</v>
+        <v>700</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P503" t="n">
-        <v>1893</v>
+        <v>700</v>
       </c>
       <c r="Q503" t="n">
         <v>1</v>
@@ -36641,20 +36641,20 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J504" t="n">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="K504" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="L504" t="n">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="M504" t="n">
-        <v>1524</v>
+        <v>2289</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>1524</v>
+        <v>2289</v>
       </c>
       <c r="Q504" t="n">
         <v>1</v>
@@ -36713,20 +36713,20 @@
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J505" t="n">
-        <v>5400</v>
+        <v>6900</v>
       </c>
       <c r="K505" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L505" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M505" t="n">
-        <v>2639</v>
+        <v>1893</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>2639</v>
+        <v>1893</v>
       </c>
       <c r="Q505" t="n">
         <v>1</v>
@@ -36785,20 +36785,20 @@
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J506" t="n">
-        <v>5700</v>
+        <v>4600</v>
       </c>
       <c r="K506" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="L506" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="M506" t="n">
-        <v>1116</v>
+        <v>1524</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
@@ -36811,7 +36811,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>1116</v>
+        <v>1524</v>
       </c>
       <c r="Q506" t="n">
         <v>1</v>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -36857,33 +36857,33 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J507" t="n">
-        <v>8100</v>
+        <v>5400</v>
       </c>
       <c r="K507" t="n">
-        <v>550</v>
+        <v>2500</v>
       </c>
       <c r="L507" t="n">
-        <v>600</v>
+        <v>2800</v>
       </c>
       <c r="M507" t="n">
-        <v>572</v>
+        <v>2639</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P507" t="n">
-        <v>572</v>
+        <v>2639</v>
       </c>
       <c r="Q507" t="n">
         <v>1</v>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -36929,20 +36929,20 @@
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J508" t="n">
-        <v>2400</v>
+        <v>5700</v>
       </c>
       <c r="K508" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L508" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="M508" t="n">
-        <v>2000</v>
+        <v>1116</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36951,11 +36951,11 @@
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P508" t="n">
-        <v>2000</v>
+        <v>1116</v>
       </c>
       <c r="Q508" t="n">
         <v>1</v>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -37005,29 +37005,29 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>2200</v>
+        <v>8100</v>
       </c>
       <c r="K509" t="n">
-        <v>2000</v>
+        <v>550</v>
       </c>
       <c r="L509" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="M509" t="n">
-        <v>2000</v>
+        <v>572</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P509" t="n">
-        <v>2000</v>
+        <v>572</v>
       </c>
       <c r="Q509" t="n">
         <v>1</v>
@@ -37073,20 +37073,20 @@
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J510" t="n">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="K510" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L510" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M510" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="Q510" t="n">
         <v>1</v>
@@ -37145,20 +37145,20 @@
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J511" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="K511" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L511" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M511" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="Q511" t="n">
         <v>1</v>
@@ -37217,20 +37217,20 @@
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J512" t="n">
+        <v>1900</v>
+      </c>
+      <c r="K512" t="n">
         <v>1500</v>
       </c>
-      <c r="K512" t="n">
-        <v>1000</v>
-      </c>
       <c r="L512" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M512" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="Q512" t="n">
         <v>1</v>
@@ -37289,20 +37289,20 @@
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J513" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="K513" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="L513" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="M513" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="Q513" t="n">
         <v>1</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -37361,20 +37361,20 @@
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J514" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="K514" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="L514" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="M514" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37383,11 +37383,11 @@
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P514" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="Q514" t="n">
         <v>1</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -37433,20 +37433,20 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J515" t="n">
-        <v>2200</v>
+        <v>1300</v>
       </c>
       <c r="K515" t="n">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="L515" t="n">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="M515" t="n">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37455,11 +37455,11 @@
       </c>
       <c r="O515" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P515" t="n">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="Q515" t="n">
         <v>1</v>
@@ -37505,33 +37505,33 @@
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J516" t="n">
-        <v>4200</v>
+        <v>900</v>
       </c>
       <c r="K516" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="L516" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="M516" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P516" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="Q516" t="n">
         <v>1</v>
@@ -37577,33 +37577,33 @@
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J517" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="K517" t="n">
-        <v>400</v>
+        <v>4500</v>
       </c>
       <c r="L517" t="n">
-        <v>400</v>
+        <v>4500</v>
       </c>
       <c r="M517" t="n">
-        <v>400</v>
+        <v>4500</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O517" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P517" t="n">
-        <v>400</v>
+        <v>4500</v>
       </c>
       <c r="Q517" t="n">
         <v>1</v>
@@ -37653,29 +37653,29 @@
         </is>
       </c>
       <c r="J518" t="n">
-        <v>3500</v>
+        <v>4200</v>
       </c>
       <c r="K518" t="n">
-        <v>3600</v>
+        <v>500</v>
       </c>
       <c r="L518" t="n">
-        <v>3600</v>
+        <v>500</v>
       </c>
       <c r="M518" t="n">
-        <v>3600</v>
+        <v>500</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O518" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P518" t="n">
-        <v>3600</v>
+        <v>500</v>
       </c>
       <c r="Q518" t="n">
         <v>1</v>
@@ -37725,20 +37725,20 @@
         </is>
       </c>
       <c r="J519" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="K519" t="n">
-        <v>3800</v>
+        <v>400</v>
       </c>
       <c r="L519" t="n">
-        <v>3800</v>
+        <v>400</v>
       </c>
       <c r="M519" t="n">
-        <v>3800</v>
+        <v>400</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O519" t="inlineStr">
@@ -37747,7 +37747,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>3800</v>
+        <v>400</v>
       </c>
       <c r="Q519" t="n">
         <v>1</v>
@@ -37793,33 +37793,33 @@
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J520" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="K520" t="n">
-        <v>400</v>
+        <v>3600</v>
       </c>
       <c r="L520" t="n">
-        <v>400</v>
+        <v>3600</v>
       </c>
       <c r="M520" t="n">
-        <v>400</v>
+        <v>3600</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O520" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P520" t="n">
-        <v>400</v>
+        <v>3600</v>
       </c>
       <c r="Q520" t="n">
         <v>1</v>
@@ -37865,24 +37865,24 @@
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J521" t="n">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="K521" t="n">
-        <v>300</v>
+        <v>3800</v>
       </c>
       <c r="L521" t="n">
-        <v>300</v>
+        <v>3800</v>
       </c>
       <c r="M521" t="n">
-        <v>300</v>
+        <v>3800</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O521" t="inlineStr">
@@ -37891,7 +37891,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>300</v>
+        <v>3800</v>
       </c>
       <c r="Q521" t="n">
         <v>1</v>
@@ -37941,29 +37941,29 @@
         </is>
       </c>
       <c r="J522" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="K522" t="n">
-        <v>2800</v>
+        <v>400</v>
       </c>
       <c r="L522" t="n">
-        <v>2800</v>
+        <v>400</v>
       </c>
       <c r="M522" t="n">
-        <v>2800</v>
+        <v>400</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O522" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P522" t="n">
-        <v>2800</v>
+        <v>400</v>
       </c>
       <c r="Q522" t="n">
         <v>1</v>
@@ -38009,24 +38009,24 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J523" t="n">
         <v>1000</v>
       </c>
       <c r="K523" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="L523" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="M523" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O523" t="inlineStr">
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="Q523" t="n">
         <v>1</v>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -38081,20 +38081,20 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>4700</v>
+        <v>1500</v>
       </c>
       <c r="K524" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="L524" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="M524" t="n">
-        <v>2160</v>
+        <v>2800</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>2160</v>
+        <v>2800</v>
       </c>
       <c r="Q524" t="n">
         <v>1</v>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -38153,20 +38153,20 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J525" t="n">
-        <v>7500</v>
+        <v>1000</v>
       </c>
       <c r="K525" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L525" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M525" t="n">
-        <v>1712</v>
+        <v>2000</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>1712</v>
+        <v>2000</v>
       </c>
       <c r="Q525" t="n">
         <v>1</v>
@@ -38225,20 +38225,20 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="K526" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="L526" t="n">
-        <v>1400</v>
+        <v>2300</v>
       </c>
       <c r="M526" t="n">
-        <v>1326</v>
+        <v>2160</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38251,7 +38251,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>1326</v>
+        <v>2160</v>
       </c>
       <c r="Q526" t="n">
         <v>1</v>
@@ -38297,20 +38297,20 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J527" t="n">
-        <v>5800</v>
+        <v>7500</v>
       </c>
       <c r="K527" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="L527" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="M527" t="n">
-        <v>2671</v>
+        <v>1712</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>2671</v>
+        <v>1712</v>
       </c>
       <c r="Q527" t="n">
         <v>1</v>
@@ -38369,20 +38369,20 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J528" t="n">
-        <v>3600</v>
+        <v>4600</v>
       </c>
       <c r="K528" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="L528" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="M528" t="n">
-        <v>861</v>
+        <v>1326</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>861</v>
+        <v>1326</v>
       </c>
       <c r="Q528" t="n">
         <v>1</v>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44495</v>
+        <v>44225</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -38441,33 +38441,33 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J529" t="n">
-        <v>8100</v>
+        <v>5800</v>
       </c>
       <c r="K529" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="L529" t="n">
-        <v>550</v>
+        <v>2800</v>
       </c>
       <c r="M529" t="n">
-        <v>522</v>
+        <v>2671</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O529" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P529" t="n">
-        <v>522</v>
+        <v>2671</v>
       </c>
       <c r="Q529" t="n">
         <v>1</v>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -38513,20 +38513,20 @@
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J530" t="n">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="K530" t="n">
-        <v>1900</v>
+        <v>800</v>
       </c>
       <c r="L530" t="n">
-        <v>2100</v>
+        <v>900</v>
       </c>
       <c r="M530" t="n">
-        <v>2025</v>
+        <v>861</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38535,11 +38535,11 @@
       </c>
       <c r="O530" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P530" t="n">
-        <v>2025</v>
+        <v>861</v>
       </c>
       <c r="Q530" t="n">
         <v>1</v>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -38585,33 +38585,33 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J531" t="n">
-        <v>3700</v>
+        <v>8100</v>
       </c>
       <c r="K531" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="L531" t="n">
-        <v>2200</v>
+        <v>550</v>
       </c>
       <c r="M531" t="n">
-        <v>2092</v>
+        <v>522</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O531" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P531" t="n">
-        <v>2092</v>
+        <v>522</v>
       </c>
       <c r="Q531" t="n">
         <v>1</v>
@@ -38657,20 +38657,20 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="K532" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="L532" t="n">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="M532" t="n">
-        <v>1608</v>
+        <v>2025</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38683,7 +38683,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>1608</v>
+        <v>2025</v>
       </c>
       <c r="Q532" t="n">
         <v>1</v>
@@ -38729,20 +38729,20 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>6400</v>
+        <v>3700</v>
       </c>
       <c r="K533" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L533" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="M533" t="n">
-        <v>1691</v>
+        <v>2092</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>1691</v>
+        <v>2092</v>
       </c>
       <c r="Q533" t="n">
         <v>1</v>
@@ -38801,20 +38801,20 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>4400</v>
+        <v>6500</v>
       </c>
       <c r="K534" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="L534" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="M534" t="n">
-        <v>1286</v>
+        <v>1608</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38823,11 +38823,11 @@
       </c>
       <c r="O534" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P534" t="n">
-        <v>1286</v>
+        <v>1608</v>
       </c>
       <c r="Q534" t="n">
         <v>1</v>
@@ -38873,20 +38873,20 @@
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>6000</v>
+        <v>6400</v>
       </c>
       <c r="K535" t="n">
-        <v>2300</v>
+        <v>1600</v>
       </c>
       <c r="L535" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="M535" t="n">
-        <v>2410</v>
+        <v>1691</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38895,11 +38895,11 @@
       </c>
       <c r="O535" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P535" t="n">
-        <v>2410</v>
+        <v>1691</v>
       </c>
       <c r="Q535" t="n">
         <v>1</v>
@@ -38945,20 +38945,20 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>5500</v>
+        <v>4400</v>
       </c>
       <c r="K536" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="L536" t="n">
-        <v>2600</v>
+        <v>1400</v>
       </c>
       <c r="M536" t="n">
-        <v>2487</v>
+        <v>1286</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>2487</v>
+        <v>1286</v>
       </c>
       <c r="Q536" t="n">
         <v>1</v>
@@ -39017,20 +39017,20 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="K537" t="n">
-        <v>900</v>
+        <v>2300</v>
       </c>
       <c r="L537" t="n">
-        <v>1100</v>
+        <v>2500</v>
       </c>
       <c r="M537" t="n">
-        <v>1010</v>
+        <v>2410</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39039,11 +39039,11 @@
       </c>
       <c r="O537" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P537" t="n">
-        <v>1010</v>
+        <v>2410</v>
       </c>
       <c r="Q537" t="n">
         <v>1</v>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44510</v>
+        <v>44232</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -39089,33 +39089,33 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>6200</v>
+        <v>5500</v>
       </c>
       <c r="K538" t="n">
-        <v>750</v>
+        <v>2400</v>
       </c>
       <c r="L538" t="n">
-        <v>800</v>
+        <v>2600</v>
       </c>
       <c r="M538" t="n">
-        <v>772</v>
+        <v>2487</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O538" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P538" t="n">
-        <v>772</v>
+        <v>2487</v>
       </c>
       <c r="Q538" t="n">
         <v>1</v>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44510</v>
+        <v>44232</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -39161,33 +39161,33 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="K539" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L539" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="M539" t="n">
-        <v>600</v>
+        <v>1010</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O539" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P539" t="n">
-        <v>600</v>
+        <v>1010</v>
       </c>
       <c r="Q539" t="n">
         <v>1</v>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -39237,16 +39237,16 @@
         </is>
       </c>
       <c r="J540" t="n">
-        <v>2300</v>
+        <v>6200</v>
       </c>
       <c r="K540" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L540" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M540" t="n">
-        <v>600</v>
+        <v>772</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39255,11 +39255,11 @@
       </c>
       <c r="O540" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P540" t="n">
-        <v>600</v>
+        <v>772</v>
       </c>
       <c r="Q540" t="n">
         <v>1</v>
@@ -39285,7 +39285,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -39305,20 +39305,20 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J541" t="n">
-        <v>4800</v>
+        <v>2600</v>
       </c>
       <c r="K541" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L541" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M541" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39331,7 +39331,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="Q541" t="n">
         <v>1</v>
@@ -39381,7 +39381,7 @@
         </is>
       </c>
       <c r="J542" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="K542" t="n">
         <v>600</v>
@@ -39399,7 +39399,7 @@
       </c>
       <c r="O542" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P542" t="n">
@@ -39449,20 +39449,20 @@
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J543" t="n">
-        <v>1500</v>
+        <v>4800</v>
       </c>
       <c r="K543" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L543" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M543" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39471,11 +39471,11 @@
       </c>
       <c r="O543" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P543" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="Q543" t="n">
         <v>1</v>
@@ -39521,20 +39521,20 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>3300</v>
+        <v>1800</v>
       </c>
       <c r="K544" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L544" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M544" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39543,11 +39543,11 @@
       </c>
       <c r="O544" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P544" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="Q544" t="n">
         <v>1</v>
@@ -39597,7 +39597,7 @@
         </is>
       </c>
       <c r="J545" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K545" t="n">
         <v>500</v>
@@ -39615,7 +39615,7 @@
       </c>
       <c r="O545" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P545" t="n">
@@ -39645,7 +39645,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -39665,33 +39665,33 @@
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J546" t="n">
-        <v>2800</v>
+        <v>3300</v>
       </c>
       <c r="K546" t="n">
-        <v>2200</v>
+        <v>450</v>
       </c>
       <c r="L546" t="n">
-        <v>2200</v>
+        <v>450</v>
       </c>
       <c r="M546" t="n">
-        <v>2200</v>
+        <v>450</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O546" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P546" t="n">
-        <v>2200</v>
+        <v>450</v>
       </c>
       <c r="Q546" t="n">
         <v>1</v>
@@ -39717,7 +39717,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -39737,24 +39737,24 @@
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J547" t="n">
-        <v>5700</v>
+        <v>600</v>
       </c>
       <c r="K547" t="n">
-        <v>2100</v>
+        <v>500</v>
       </c>
       <c r="L547" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="M547" t="n">
-        <v>2346</v>
+        <v>500</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O547" t="inlineStr">
@@ -39763,7 +39763,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>2346</v>
+        <v>500</v>
       </c>
       <c r="Q547" t="n">
         <v>1</v>
@@ -39809,20 +39809,20 @@
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J548" t="n">
-        <v>3700</v>
+        <v>2800</v>
       </c>
       <c r="K548" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="L548" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="M548" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="Q548" t="n">
         <v>1</v>
@@ -39881,20 +39881,20 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>7800</v>
+        <v>5700</v>
       </c>
       <c r="K549" t="n">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="L549" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M549" t="n">
-        <v>1850</v>
+        <v>2346</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39907,7 +39907,7 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>1850</v>
+        <v>2346</v>
       </c>
       <c r="Q549" t="n">
         <v>1</v>
@@ -39953,20 +39953,20 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J550" t="n">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="K550" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="L550" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M550" t="n">
-        <v>1446</v>
+        <v>1800</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39975,11 +39975,11 @@
       </c>
       <c r="O550" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P550" t="n">
-        <v>1446</v>
+        <v>1800</v>
       </c>
       <c r="Q550" t="n">
         <v>1</v>
@@ -40025,20 +40025,20 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>3300</v>
+        <v>7800</v>
       </c>
       <c r="K551" t="n">
-        <v>2700</v>
+        <v>1700</v>
       </c>
       <c r="L551" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="M551" t="n">
-        <v>2700</v>
+        <v>1850</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40047,11 +40047,11 @@
       </c>
       <c r="O551" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P551" t="n">
-        <v>2700</v>
+        <v>1850</v>
       </c>
       <c r="Q551" t="n">
         <v>1</v>
@@ -40097,20 +40097,20 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>5900</v>
+        <v>3900</v>
       </c>
       <c r="K552" t="n">
-        <v>2600</v>
+        <v>1300</v>
       </c>
       <c r="L552" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="M552" t="n">
-        <v>2688</v>
+        <v>1446</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40123,7 +40123,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>2688</v>
+        <v>1446</v>
       </c>
       <c r="Q552" t="n">
         <v>1</v>
@@ -40169,20 +40169,20 @@
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>3900</v>
+        <v>3300</v>
       </c>
       <c r="K553" t="n">
-        <v>1000</v>
+        <v>2700</v>
       </c>
       <c r="L553" t="n">
-        <v>1200</v>
+        <v>2700</v>
       </c>
       <c r="M553" t="n">
-        <v>1113</v>
+        <v>2700</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40191,11 +40191,11 @@
       </c>
       <c r="O553" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P553" t="n">
-        <v>1113</v>
+        <v>2700</v>
       </c>
       <c r="Q553" t="n">
         <v>1</v>
@@ -40221,7 +40221,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -40241,20 +40241,20 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J554" t="n">
-        <v>4800</v>
+        <v>5900</v>
       </c>
       <c r="K554" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="L554" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="M554" t="n">
-        <v>2156</v>
+        <v>2688</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         </is>
       </c>
       <c r="P554" t="n">
-        <v>2156</v>
+        <v>2688</v>
       </c>
       <c r="Q554" t="n">
         <v>1</v>
@@ -40293,7 +40293,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -40313,20 +40313,20 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J555" t="n">
-        <v>6100</v>
+        <v>3900</v>
       </c>
       <c r="K555" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="L555" t="n">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="M555" t="n">
-        <v>1795</v>
+        <v>1113</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>1795</v>
+        <v>1113</v>
       </c>
       <c r="Q555" t="n">
         <v>1</v>
@@ -40385,20 +40385,20 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J556" t="n">
-        <v>3100</v>
+        <v>4800</v>
       </c>
       <c r="K556" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="L556" t="n">
-        <v>1600</v>
+        <v>2300</v>
       </c>
       <c r="M556" t="n">
-        <v>1465</v>
+        <v>2156</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>1465</v>
+        <v>2156</v>
       </c>
       <c r="Q556" t="n">
         <v>1</v>
@@ -40457,20 +40457,20 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J557" t="n">
-        <v>5100</v>
+        <v>6100</v>
       </c>
       <c r="K557" t="n">
-        <v>2400</v>
+        <v>1700</v>
       </c>
       <c r="L557" t="n">
-        <v>2600</v>
+        <v>1900</v>
       </c>
       <c r="M557" t="n">
-        <v>2529</v>
+        <v>1795</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>2529</v>
+        <v>1795</v>
       </c>
       <c r="Q557" t="n">
         <v>1</v>
@@ -40529,20 +40529,20 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J558" t="n">
-        <v>2600</v>
+        <v>3100</v>
       </c>
       <c r="K558" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="L558" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="M558" t="n">
-        <v>1115</v>
+        <v>1465</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>1115</v>
+        <v>1465</v>
       </c>
       <c r="Q558" t="n">
         <v>1</v>
@@ -40581,7 +40581,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -40601,20 +40601,20 @@
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J559" t="n">
-        <v>1100</v>
+        <v>5100</v>
       </c>
       <c r="K559" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="L559" t="n">
-        <v>800</v>
+        <v>2600</v>
       </c>
       <c r="M559" t="n">
-        <v>800</v>
+        <v>2529</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40627,7 +40627,7 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>800</v>
+        <v>2529</v>
       </c>
       <c r="Q559" t="n">
         <v>1</v>
@@ -40653,7 +40653,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -40673,20 +40673,20 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J560" t="n">
-        <v>4600</v>
+        <v>2600</v>
       </c>
       <c r="K560" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L560" t="n">
-        <v>2300</v>
+        <v>1200</v>
       </c>
       <c r="M560" t="n">
-        <v>2124</v>
+        <v>1115</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40699,7 +40699,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>2124</v>
+        <v>1115</v>
       </c>
       <c r="Q560" t="n">
         <v>1</v>
@@ -40745,20 +40745,20 @@
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J561" t="n">
-        <v>6000</v>
+        <v>1100</v>
       </c>
       <c r="K561" t="n">
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="L561" t="n">
-        <v>1900</v>
+        <v>800</v>
       </c>
       <c r="M561" t="n">
-        <v>1783</v>
+        <v>800</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>1783</v>
+        <v>800</v>
       </c>
       <c r="Q561" t="n">
         <v>1</v>
@@ -40817,20 +40817,20 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J562" t="n">
-        <v>3600</v>
+        <v>4600</v>
       </c>
       <c r="K562" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="L562" t="n">
-        <v>1600</v>
+        <v>2300</v>
       </c>
       <c r="M562" t="n">
-        <v>1417</v>
+        <v>2124</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40843,7 +40843,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>1417</v>
+        <v>2124</v>
       </c>
       <c r="Q562" t="n">
         <v>1</v>
@@ -40889,20 +40889,20 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J563" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="K563" t="n">
-        <v>2400</v>
+        <v>1700</v>
       </c>
       <c r="L563" t="n">
-        <v>2700</v>
+        <v>1900</v>
       </c>
       <c r="M563" t="n">
-        <v>2529</v>
+        <v>1783</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>2529</v>
+        <v>1783</v>
       </c>
       <c r="Q563" t="n">
         <v>1</v>
@@ -40961,20 +40961,20 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J564" t="n">
-        <v>4200</v>
+        <v>3600</v>
       </c>
       <c r="K564" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="L564" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="M564" t="n">
-        <v>1086</v>
+        <v>1417</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40987,7 +40987,7 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>1086</v>
+        <v>1417</v>
       </c>
       <c r="Q564" t="n">
         <v>1</v>
@@ -41013,7 +41013,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44515</v>
+        <v>44251</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -41033,33 +41033,33 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J565" t="n">
-        <v>8500</v>
+        <v>3500</v>
       </c>
       <c r="K565" t="n">
-        <v>750</v>
+        <v>2400</v>
       </c>
       <c r="L565" t="n">
-        <v>800</v>
+        <v>2700</v>
       </c>
       <c r="M565" t="n">
-        <v>773</v>
+        <v>2529</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O565" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P565" t="n">
-        <v>773</v>
+        <v>2529</v>
       </c>
       <c r="Q565" t="n">
         <v>1</v>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44515</v>
+        <v>44251</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -41105,33 +41105,33 @@
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J566" t="n">
-        <v>2500</v>
+        <v>4200</v>
       </c>
       <c r="K566" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="L566" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="M566" t="n">
-        <v>600</v>
+        <v>1086</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O566" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P566" t="n">
-        <v>600</v>
+        <v>1086</v>
       </c>
       <c r="Q566" t="n">
         <v>1</v>
@@ -41157,7 +41157,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44181</v>
+        <v>44515</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -41177,33 +41177,33 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J567" t="n">
-        <v>2200</v>
+        <v>8500</v>
       </c>
       <c r="K567" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="L567" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M567" t="n">
-        <v>1000</v>
+        <v>773</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O567" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P567" t="n">
-        <v>1000</v>
+        <v>773</v>
       </c>
       <c r="Q567" t="n">
         <v>1</v>
@@ -41229,7 +41229,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44181</v>
+        <v>44515</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -41249,33 +41249,33 @@
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J568" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="K568" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="L568" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="M568" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O568" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P568" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="Q568" t="n">
         <v>1</v>
@@ -41321,20 +41321,20 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J569" t="n">
-        <v>6300</v>
+        <v>2200</v>
       </c>
       <c r="K569" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="L569" t="n">
-        <v>3300</v>
+        <v>1000</v>
       </c>
       <c r="M569" t="n">
-        <v>3119</v>
+        <v>1000</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
         </is>
       </c>
       <c r="P569" t="n">
-        <v>3119</v>
+        <v>1000</v>
       </c>
       <c r="Q569" t="n">
         <v>1</v>
@@ -41393,20 +41393,20 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J570" t="n">
-        <v>1900</v>
+        <v>2800</v>
       </c>
       <c r="K570" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L570" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M570" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41419,7 +41419,7 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q570" t="n">
         <v>1</v>
@@ -41465,20 +41465,20 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="K571" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L571" t="n">
-        <v>2700</v>
+        <v>3300</v>
       </c>
       <c r="M571" t="n">
-        <v>2592</v>
+        <v>3119</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41491,7 +41491,7 @@
         </is>
       </c>
       <c r="P571" t="n">
-        <v>2592</v>
+        <v>3119</v>
       </c>
       <c r="Q571" t="n">
         <v>1</v>
@@ -41537,20 +41537,20 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>4900</v>
+        <v>1900</v>
       </c>
       <c r="K572" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L572" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="M572" t="n">
-        <v>2208</v>
+        <v>2500</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41559,11 +41559,11 @@
       </c>
       <c r="O572" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P572" t="n">
-        <v>2208</v>
+        <v>2500</v>
       </c>
       <c r="Q572" t="n">
         <v>1</v>
@@ -41609,20 +41609,20 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>2400</v>
+        <v>6500</v>
       </c>
       <c r="K573" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L573" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="M573" t="n">
-        <v>3500</v>
+        <v>2592</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41631,11 +41631,11 @@
       </c>
       <c r="O573" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P573" t="n">
-        <v>3500</v>
+        <v>2592</v>
       </c>
       <c r="Q573" t="n">
         <v>1</v>
@@ -41681,20 +41681,20 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>6000</v>
+        <v>4900</v>
       </c>
       <c r="K574" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L574" t="n">
-        <v>3800</v>
+        <v>2300</v>
       </c>
       <c r="M574" t="n">
-        <v>3635</v>
+        <v>2208</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41707,7 +41707,7 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>3635</v>
+        <v>2208</v>
       </c>
       <c r="Q574" t="n">
         <v>1</v>
@@ -41753,20 +41753,20 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="K575" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="L575" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="M575" t="n">
-        <v>1672</v>
+        <v>3500</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41775,11 +41775,11 @@
       </c>
       <c r="O575" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P575" t="n">
-        <v>1672</v>
+        <v>3500</v>
       </c>
       <c r="Q575" t="n">
         <v>1</v>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -41825,20 +41825,20 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="K576" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="L576" t="n">
-        <v>800</v>
+        <v>3800</v>
       </c>
       <c r="M576" t="n">
-        <v>800</v>
+        <v>3635</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41847,11 +41847,11 @@
       </c>
       <c r="O576" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P576" t="n">
-        <v>800</v>
+        <v>3635</v>
       </c>
       <c r="Q576" t="n">
         <v>1</v>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -41897,20 +41897,20 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>2400</v>
+        <v>4000</v>
       </c>
       <c r="K577" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L577" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="M577" t="n">
-        <v>3000</v>
+        <v>1672</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41919,11 +41919,11 @@
       </c>
       <c r="O577" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P577" t="n">
-        <v>3000</v>
+        <v>1672</v>
       </c>
       <c r="Q577" t="n">
         <v>1</v>
@@ -41969,20 +41969,20 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>4900</v>
+        <v>2500</v>
       </c>
       <c r="K578" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L578" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="M578" t="n">
-        <v>2641</v>
+        <v>800</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>2641</v>
+        <v>800</v>
       </c>
       <c r="Q578" t="n">
         <v>1</v>
@@ -42041,20 +42041,20 @@
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>3300</v>
+        <v>2400</v>
       </c>
       <c r="K579" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L579" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="M579" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         </is>
       </c>
       <c r="P579" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="Q579" t="n">
         <v>1</v>
@@ -42113,20 +42113,20 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J580" t="n">
-        <v>8700</v>
+        <v>4900</v>
       </c>
       <c r="K580" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L580" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="M580" t="n">
-        <v>2134</v>
+        <v>2641</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42139,7 +42139,7 @@
         </is>
       </c>
       <c r="P580" t="n">
-        <v>2134</v>
+        <v>2641</v>
       </c>
       <c r="Q580" t="n">
         <v>1</v>
@@ -42185,20 +42185,20 @@
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J581" t="n">
-        <v>5000</v>
+        <v>3300</v>
       </c>
       <c r="K581" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="L581" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="M581" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42207,11 +42207,11 @@
       </c>
       <c r="O581" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P581" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="Q581" t="n">
         <v>1</v>
@@ -42257,20 +42257,20 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J582" t="n">
-        <v>3600</v>
+        <v>8700</v>
       </c>
       <c r="K582" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L582" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="M582" t="n">
-        <v>3500</v>
+        <v>2134</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42279,11 +42279,11 @@
       </c>
       <c r="O582" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P582" t="n">
-        <v>3500</v>
+        <v>2134</v>
       </c>
       <c r="Q582" t="n">
         <v>1</v>
@@ -42329,20 +42329,20 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J583" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="K583" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="L583" t="n">
-        <v>3300</v>
+        <v>1800</v>
       </c>
       <c r="M583" t="n">
-        <v>3131</v>
+        <v>1800</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>3131</v>
+        <v>1800</v>
       </c>
       <c r="Q583" t="n">
         <v>1</v>
@@ -42401,20 +42401,20 @@
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J584" t="n">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="K584" t="n">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="L584" t="n">
-        <v>1300</v>
+        <v>3500</v>
       </c>
       <c r="M584" t="n">
-        <v>1174</v>
+        <v>3500</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42423,11 +42423,11 @@
       </c>
       <c r="O584" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P584" t="n">
-        <v>1174</v>
+        <v>3500</v>
       </c>
       <c r="Q584" t="n">
         <v>1</v>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -42473,20 +42473,20 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J585" t="n">
-        <v>1400</v>
+        <v>8000</v>
       </c>
       <c r="K585" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="L585" t="n">
-        <v>800</v>
+        <v>3300</v>
       </c>
       <c r="M585" t="n">
-        <v>800</v>
+        <v>3131</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42495,11 +42495,11 @@
       </c>
       <c r="O585" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P585" t="n">
-        <v>800</v>
+        <v>3131</v>
       </c>
       <c r="Q585" t="n">
         <v>1</v>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -42545,20 +42545,20 @@
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J586" t="n">
-        <v>1700</v>
+        <v>3800</v>
       </c>
       <c r="K586" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="L586" t="n">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="M586" t="n">
-        <v>2400</v>
+        <v>1174</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42567,11 +42567,11 @@
       </c>
       <c r="O586" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P586" t="n">
-        <v>2400</v>
+        <v>1174</v>
       </c>
       <c r="Q586" t="n">
         <v>1</v>
@@ -42617,20 +42617,20 @@
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J587" t="n">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="K587" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L587" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M587" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42643,7 +42643,7 @@
         </is>
       </c>
       <c r="P587" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q587" t="n">
         <v>1</v>
@@ -42689,20 +42689,20 @@
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J588" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="K588" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="L588" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="M588" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="Q588" t="n">
         <v>1</v>
@@ -42761,20 +42761,20 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J589" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="K589" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="L589" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="M589" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42787,7 +42787,7 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="Q589" t="n">
         <v>1</v>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44508</v>
+        <v>44271</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -42833,33 +42833,33 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J590" t="n">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="K590" t="n">
-        <v>650</v>
+        <v>1600</v>
       </c>
       <c r="L590" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="M590" t="n">
-        <v>671</v>
+        <v>1600</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O590" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P590" t="n">
-        <v>671</v>
+        <v>1600</v>
       </c>
       <c r="Q590" t="n">
         <v>1</v>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44201</v>
+        <v>44271</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -42905,20 +42905,20 @@
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>3100</v>
+        <v>2200</v>
       </c>
       <c r="K591" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="L591" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="M591" t="n">
-        <v>755</v>
+        <v>1300</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42927,11 +42927,11 @@
       </c>
       <c r="O591" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P591" t="n">
-        <v>755</v>
+        <v>1300</v>
       </c>
       <c r="Q591" t="n">
         <v>1</v>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -42977,33 +42977,33 @@
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J592" t="n">
-        <v>2200</v>
+        <v>4500</v>
       </c>
       <c r="K592" t="n">
-        <v>3000</v>
+        <v>650</v>
       </c>
       <c r="L592" t="n">
-        <v>3000</v>
+        <v>700</v>
       </c>
       <c r="M592" t="n">
-        <v>3000</v>
+        <v>671</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O592" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P592" t="n">
-        <v>3000</v>
+        <v>671</v>
       </c>
       <c r="Q592" t="n">
         <v>1</v>
@@ -43049,20 +43049,20 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J593" t="n">
-        <v>5700</v>
+        <v>3100</v>
       </c>
       <c r="K593" t="n">
-        <v>2600</v>
+        <v>700</v>
       </c>
       <c r="L593" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="M593" t="n">
-        <v>2684</v>
+        <v>755</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>2684</v>
+        <v>755</v>
       </c>
       <c r="Q593" t="n">
         <v>1</v>
@@ -43121,20 +43121,20 @@
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J594" t="n">
-        <v>3300</v>
+        <v>2200</v>
       </c>
       <c r="K594" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L594" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="M594" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         </is>
       </c>
       <c r="P594" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="Q594" t="n">
         <v>1</v>
@@ -43193,20 +43193,20 @@
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>8200</v>
+        <v>5700</v>
       </c>
       <c r="K595" t="n">
-        <v>2100</v>
+        <v>2600</v>
       </c>
       <c r="L595" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="M595" t="n">
-        <v>2228</v>
+        <v>2684</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43219,7 +43219,7 @@
         </is>
       </c>
       <c r="P595" t="n">
-        <v>2228</v>
+        <v>2684</v>
       </c>
       <c r="Q595" t="n">
         <v>1</v>
@@ -43265,20 +43265,20 @@
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>5100</v>
+        <v>3300</v>
       </c>
       <c r="K596" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="L596" t="n">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="M596" t="n">
-        <v>1729</v>
+        <v>2400</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43287,11 +43287,11 @@
       </c>
       <c r="O596" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P596" t="n">
-        <v>1729</v>
+        <v>2400</v>
       </c>
       <c r="Q596" t="n">
         <v>1</v>
@@ -43337,20 +43337,20 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J597" t="n">
-        <v>2900</v>
+        <v>8200</v>
       </c>
       <c r="K597" t="n">
-        <v>3500</v>
+        <v>2100</v>
       </c>
       <c r="L597" t="n">
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="M597" t="n">
-        <v>3500</v>
+        <v>2228</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
@@ -43359,11 +43359,11 @@
       </c>
       <c r="O597" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P597" t="n">
-        <v>3500</v>
+        <v>2228</v>
       </c>
       <c r="Q597" t="n">
         <v>1</v>
@@ -43409,20 +43409,20 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J598" t="n">
-        <v>7700</v>
+        <v>5100</v>
       </c>
       <c r="K598" t="n">
-        <v>3200</v>
+        <v>1600</v>
       </c>
       <c r="L598" t="n">
-        <v>3500</v>
+        <v>1900</v>
       </c>
       <c r="M598" t="n">
-        <v>3329</v>
+        <v>1729</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43435,7 +43435,7 @@
         </is>
       </c>
       <c r="P598" t="n">
-        <v>3329</v>
+        <v>1729</v>
       </c>
       <c r="Q598" t="n">
         <v>1</v>
@@ -43481,38 +43481,182 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
+          <t>Super</t>
+        </is>
+      </c>
+      <c r="J599" t="n">
+        <v>2900</v>
+      </c>
+      <c r="K599" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L599" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M599" t="n">
+        <v>3500</v>
+      </c>
+      <c r="N599" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O599" t="inlineStr">
+        <is>
+          <t>Paine</t>
+        </is>
+      </c>
+      <c r="P599" t="n">
+        <v>3500</v>
+      </c>
+      <c r="Q599" t="n">
+        <v>1</v>
+      </c>
+      <c r="R599" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>6</v>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D600" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E600" t="n">
+        <v>13</v>
+      </c>
+      <c r="F600" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G600" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I600" t="inlineStr">
+        <is>
+          <t>Super</t>
+        </is>
+      </c>
+      <c r="J600" t="n">
+        <v>7700</v>
+      </c>
+      <c r="K600" t="n">
+        <v>3200</v>
+      </c>
+      <c r="L600" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M600" t="n">
+        <v>3329</v>
+      </c>
+      <c r="N600" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O600" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P600" t="n">
+        <v>3329</v>
+      </c>
+      <c r="Q600" t="n">
+        <v>1</v>
+      </c>
+      <c r="R600" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>6</v>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D601" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E601" t="n">
+        <v>13</v>
+      </c>
+      <c r="F601" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I601" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J599" t="n">
+      <c r="J601" t="n">
         <v>4200</v>
       </c>
-      <c r="K599" t="n">
+      <c r="K601" t="n">
         <v>1100</v>
       </c>
-      <c r="L599" t="n">
+      <c r="L601" t="n">
         <v>1400</v>
       </c>
-      <c r="M599" t="n">
+      <c r="M601" t="n">
         <v>1279</v>
       </c>
-      <c r="N599" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O599" t="inlineStr">
+      <c r="N601" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O601" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P599" t="n">
+      <c r="P601" t="n">
         <v>1279</v>
       </c>
-      <c r="Q599" t="n">
-        <v>1</v>
-      </c>
-      <c r="R599" t="inlineStr">
+      <c r="Q601" t="n">
+        <v>1</v>
+      </c>
+      <c r="R601" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R601"/>
+  <dimension ref="A1:R604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44462</v>
+        <v>44523</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -29157,16 +29157,16 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="K400" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L400" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="M400" t="n">
-        <v>938</v>
+        <v>827</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>938</v>
+        <v>827</v>
       </c>
       <c r="Q400" t="n">
         <v>1</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44259</v>
+        <v>44523</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -29225,24 +29225,24 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J401" t="n">
-        <v>2500</v>
+        <v>3800</v>
       </c>
       <c r="K401" t="n">
-        <v>2200</v>
+        <v>650</v>
       </c>
       <c r="L401" t="n">
-        <v>2400</v>
+        <v>700</v>
       </c>
       <c r="M401" t="n">
-        <v>2312</v>
+        <v>670</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
@@ -29251,7 +29251,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>2312</v>
+        <v>670</v>
       </c>
       <c r="Q401" t="n">
         <v>1</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44259</v>
+        <v>44523</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -29297,33 +29297,33 @@
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J402" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="K402" t="n">
-        <v>2200</v>
+        <v>700</v>
       </c>
       <c r="L402" t="n">
-        <v>2400</v>
+        <v>700</v>
       </c>
       <c r="M402" t="n">
-        <v>2322</v>
+        <v>700</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P402" t="n">
-        <v>2322</v>
+        <v>700</v>
       </c>
       <c r="Q402" t="n">
         <v>1</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44259</v>
+        <v>44462</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -29373,29 +29373,29 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>4100</v>
+        <v>6100</v>
       </c>
       <c r="K403" t="n">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="L403" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M403" t="n">
-        <v>1922</v>
+        <v>938</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P403" t="n">
-        <v>1922</v>
+        <v>938</v>
       </c>
       <c r="Q403" t="n">
         <v>1</v>
@@ -29441,20 +29441,20 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J404" t="n">
-        <v>3100</v>
+        <v>2500</v>
       </c>
       <c r="K404" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="L404" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M404" t="n">
-        <v>1910</v>
+        <v>2312</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29463,11 +29463,11 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P404" t="n">
-        <v>1910</v>
+        <v>2312</v>
       </c>
       <c r="Q404" t="n">
         <v>1</v>
@@ -29513,20 +29513,20 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J405" t="n">
+        <v>2300</v>
+      </c>
+      <c r="K405" t="n">
         <v>2200</v>
       </c>
-      <c r="K405" t="n">
-        <v>1500</v>
-      </c>
       <c r="L405" t="n">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="M405" t="n">
-        <v>1618</v>
+        <v>2322</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>1618</v>
+        <v>2322</v>
       </c>
       <c r="Q405" t="n">
         <v>1</v>
@@ -29585,20 +29585,20 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J406" t="n">
-        <v>3000</v>
+        <v>4100</v>
       </c>
       <c r="K406" t="n">
-        <v>2600</v>
+        <v>1800</v>
       </c>
       <c r="L406" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M406" t="n">
-        <v>2713</v>
+        <v>1922</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>2713</v>
+        <v>1922</v>
       </c>
       <c r="Q406" t="n">
         <v>1</v>
@@ -29657,20 +29657,20 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J407" t="n">
-        <v>2300</v>
+        <v>3100</v>
       </c>
       <c r="K407" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L407" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="M407" t="n">
-        <v>2604</v>
+        <v>1910</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>2604</v>
+        <v>1910</v>
       </c>
       <c r="Q407" t="n">
         <v>1</v>
@@ -29729,20 +29729,20 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J408" t="n">
         <v>2200</v>
       </c>
       <c r="K408" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="L408" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="M408" t="n">
-        <v>1236</v>
+        <v>1618</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>1236</v>
+        <v>1618</v>
       </c>
       <c r="Q408" t="n">
         <v>1</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44216</v>
+        <v>44259</v>
       </c>
       <c r="E409" t="n">
         <v>13</v>
@@ -29801,20 +29801,20 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J409" t="n">
-        <v>1400</v>
+        <v>3000</v>
       </c>
       <c r="K409" t="n">
-        <v>800</v>
+        <v>2600</v>
       </c>
       <c r="L409" t="n">
-        <v>800</v>
+        <v>2800</v>
       </c>
       <c r="M409" t="n">
-        <v>800</v>
+        <v>2713</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29823,11 +29823,11 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P409" t="n">
-        <v>800</v>
+        <v>2713</v>
       </c>
       <c r="Q409" t="n">
         <v>1</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44216</v>
+        <v>44259</v>
       </c>
       <c r="E410" t="n">
         <v>13</v>
@@ -29873,20 +29873,20 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J410" t="n">
-        <v>6500</v>
+        <v>2300</v>
       </c>
       <c r="K410" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L410" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="M410" t="n">
-        <v>2408</v>
+        <v>2604</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>2408</v>
+        <v>2604</v>
       </c>
       <c r="Q410" t="n">
         <v>1</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44216</v>
+        <v>44259</v>
       </c>
       <c r="E411" t="n">
         <v>13</v>
@@ -29945,20 +29945,20 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J411" t="n">
-        <v>8300</v>
+        <v>2200</v>
       </c>
       <c r="K411" t="n">
-        <v>1800</v>
+        <v>1100</v>
       </c>
       <c r="L411" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="M411" t="n">
-        <v>1894</v>
+        <v>1236</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>1894</v>
+        <v>1236</v>
       </c>
       <c r="Q411" t="n">
         <v>1</v>
@@ -30017,20 +30017,20 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J412" t="n">
-        <v>4300</v>
+        <v>1400</v>
       </c>
       <c r="K412" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="L412" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="M412" t="n">
-        <v>1526</v>
+        <v>800</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>1526</v>
+        <v>800</v>
       </c>
       <c r="Q412" t="n">
         <v>1</v>
@@ -30089,20 +30089,20 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J413" t="n">
-        <v>5900</v>
+        <v>6500</v>
       </c>
       <c r="K413" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="L413" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M413" t="n">
-        <v>2912</v>
+        <v>2408</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>2912</v>
+        <v>2408</v>
       </c>
       <c r="Q413" t="n">
         <v>1</v>
@@ -30161,20 +30161,20 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J414" t="n">
-        <v>3300</v>
+        <v>8300</v>
       </c>
       <c r="K414" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L414" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="M414" t="n">
-        <v>1200</v>
+        <v>1894</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>1200</v>
+        <v>1894</v>
       </c>
       <c r="Q414" t="n">
         <v>1</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44270</v>
+        <v>44216</v>
       </c>
       <c r="E415" t="n">
         <v>13</v>
@@ -30233,20 +30233,20 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>1800</v>
+        <v>4300</v>
       </c>
       <c r="K415" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="L415" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="M415" t="n">
-        <v>1000</v>
+        <v>1526</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30255,11 +30255,11 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P415" t="n">
-        <v>1000</v>
+        <v>1526</v>
       </c>
       <c r="Q415" t="n">
         <v>1</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44270</v>
+        <v>44216</v>
       </c>
       <c r="E416" t="n">
         <v>13</v>
@@ -30305,20 +30305,20 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J416" t="n">
-        <v>2300</v>
+        <v>5900</v>
       </c>
       <c r="K416" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L416" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M416" t="n">
-        <v>2500</v>
+        <v>2912</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30327,11 +30327,11 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P416" t="n">
-        <v>2500</v>
+        <v>2912</v>
       </c>
       <c r="Q416" t="n">
         <v>1</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44270</v>
+        <v>44216</v>
       </c>
       <c r="E417" t="n">
         <v>13</v>
@@ -30377,20 +30377,20 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="K417" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L417" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="M417" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30399,11 +30399,11 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P417" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="Q417" t="n">
         <v>1</v>
@@ -30449,20 +30449,20 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>3800</v>
+        <v>1800</v>
       </c>
       <c r="K418" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="L418" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="M418" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="Q418" t="n">
         <v>1</v>
@@ -30521,20 +30521,20 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="K419" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="L419" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="M419" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="Q419" t="n">
         <v>1</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c r="E420" t="n">
         <v>13</v>
@@ -30593,20 +30593,20 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>4400</v>
+        <v>3500</v>
       </c>
       <c r="K420" t="n">
         <v>2000</v>
       </c>
       <c r="L420" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="M420" t="n">
-        <v>2164</v>
+        <v>2000</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30615,11 +30615,11 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P420" t="n">
-        <v>2164</v>
+        <v>2000</v>
       </c>
       <c r="Q420" t="n">
         <v>1</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c r="E421" t="n">
         <v>13</v>
@@ -30665,20 +30665,20 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J421" t="n">
-        <v>6600</v>
+        <v>3800</v>
       </c>
       <c r="K421" t="n">
         <v>1700</v>
       </c>
       <c r="L421" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="M421" t="n">
-        <v>1747</v>
+        <v>1700</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30687,11 +30687,11 @@
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P421" t="n">
-        <v>1747</v>
+        <v>1700</v>
       </c>
       <c r="Q421" t="n">
         <v>1</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -30737,20 +30737,20 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J422" t="n">
-        <v>4400</v>
+        <v>2700</v>
       </c>
       <c r="K422" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L422" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="M422" t="n">
-        <v>1523</v>
+        <v>1500</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30759,11 +30759,11 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P422" t="n">
-        <v>1523</v>
+        <v>1500</v>
       </c>
       <c r="Q422" t="n">
         <v>1</v>
@@ -30809,20 +30809,20 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J423" t="n">
-        <v>3200</v>
+        <v>4400</v>
       </c>
       <c r="K423" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="L423" t="n">
-        <v>2600</v>
+        <v>2300</v>
       </c>
       <c r="M423" t="n">
-        <v>2512</v>
+        <v>2164</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>2512</v>
+        <v>2164</v>
       </c>
       <c r="Q423" t="n">
         <v>1</v>
@@ -30881,20 +30881,20 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J424" t="n">
-        <v>3500</v>
+        <v>6600</v>
       </c>
       <c r="K424" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="L424" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="M424" t="n">
-        <v>1137</v>
+        <v>1747</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>1137</v>
+        <v>1747</v>
       </c>
       <c r="Q424" t="n">
         <v>1</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44169</v>
+        <v>44257</v>
       </c>
       <c r="E425" t="n">
         <v>13</v>
@@ -30953,20 +30953,20 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J425" t="n">
-        <v>2300</v>
+        <v>4400</v>
       </c>
       <c r="K425" t="n">
         <v>1400</v>
       </c>
       <c r="L425" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M425" t="n">
-        <v>1400</v>
+        <v>1523</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>1400</v>
+        <v>1523</v>
       </c>
       <c r="Q425" t="n">
         <v>1</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44169</v>
+        <v>44257</v>
       </c>
       <c r="E426" t="n">
         <v>13</v>
@@ -31025,20 +31025,20 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J426" t="n">
-        <v>1000</v>
+        <v>3200</v>
       </c>
       <c r="K426" t="n">
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="L426" t="n">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="M426" t="n">
-        <v>3500</v>
+        <v>2512</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31047,11 +31047,11 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P426" t="n">
-        <v>3500</v>
+        <v>2512</v>
       </c>
       <c r="Q426" t="n">
         <v>1</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44169</v>
+        <v>44257</v>
       </c>
       <c r="E427" t="n">
         <v>13</v>
@@ -31097,20 +31097,20 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J427" t="n">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="K427" t="n">
-        <v>3400</v>
+        <v>1000</v>
       </c>
       <c r="L427" t="n">
-        <v>3400</v>
+        <v>1200</v>
       </c>
       <c r="M427" t="n">
-        <v>3400</v>
+        <v>1137</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>3400</v>
+        <v>1137</v>
       </c>
       <c r="Q427" t="n">
         <v>1</v>
@@ -31169,20 +31169,20 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J428" t="n">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="K428" t="n">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="L428" t="n">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="M428" t="n">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31191,11 +31191,11 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P428" t="n">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="Q428" t="n">
         <v>1</v>
@@ -31241,20 +31241,20 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J429" t="n">
-        <v>3800</v>
+        <v>1000</v>
       </c>
       <c r="K429" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L429" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M429" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31263,11 +31263,11 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P429" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="Q429" t="n">
         <v>1</v>
@@ -31313,20 +31313,20 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J430" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="K430" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="L430" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="M430" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31335,11 +31335,11 @@
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P430" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="Q430" t="n">
         <v>1</v>
@@ -31385,20 +31385,20 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J431" t="n">
-        <v>4400</v>
+        <v>1900</v>
       </c>
       <c r="K431" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L431" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M431" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31407,11 +31407,11 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P431" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q431" t="n">
         <v>1</v>
@@ -31457,20 +31457,20 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J432" t="n">
-        <v>1300</v>
+        <v>3800</v>
       </c>
       <c r="K432" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="L432" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="M432" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31479,11 +31479,11 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P432" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="Q432" t="n">
         <v>1</v>
@@ -31529,20 +31529,20 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J433" t="n">
-        <v>2100</v>
+        <v>1500</v>
       </c>
       <c r="K433" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L433" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="M433" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31551,11 +31551,11 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P433" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="Q433" t="n">
         <v>1</v>
@@ -31601,20 +31601,20 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J434" t="n">
-        <v>1300</v>
+        <v>4400</v>
       </c>
       <c r="K434" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L434" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M434" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31623,11 +31623,11 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P434" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q434" t="n">
         <v>1</v>
@@ -31673,20 +31673,20 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J435" t="n">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="K435" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L435" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M435" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31695,11 +31695,11 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P435" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="Q435" t="n">
         <v>1</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
@@ -31745,20 +31745,20 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J436" t="n">
-        <v>5000</v>
+        <v>2100</v>
       </c>
       <c r="K436" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="L436" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M436" t="n">
-        <v>2832</v>
+        <v>4000</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>2832</v>
+        <v>4000</v>
       </c>
       <c r="Q436" t="n">
         <v>1</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E437" t="n">
         <v>13</v>
@@ -31817,20 +31817,20 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J437" t="n">
-        <v>8300</v>
+        <v>1300</v>
       </c>
       <c r="K437" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="L437" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M437" t="n">
-        <v>2392</v>
+        <v>2000</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31839,11 +31839,11 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P437" t="n">
-        <v>2392</v>
+        <v>2000</v>
       </c>
       <c r="Q437" t="n">
         <v>1</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
@@ -31889,20 +31889,20 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J438" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="K438" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L438" t="n">
         <v>2000</v>
       </c>
       <c r="M438" t="n">
-        <v>1830</v>
+        <v>2000</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>1830</v>
+        <v>2000</v>
       </c>
       <c r="Q438" t="n">
         <v>1</v>
@@ -31961,20 +31961,20 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J439" t="n">
-        <v>7700</v>
+        <v>5000</v>
       </c>
       <c r="K439" t="n">
-        <v>3300</v>
+        <v>2700</v>
       </c>
       <c r="L439" t="n">
-        <v>3700</v>
+        <v>3000</v>
       </c>
       <c r="M439" t="n">
-        <v>3487</v>
+        <v>2832</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>3487</v>
+        <v>2832</v>
       </c>
       <c r="Q439" t="n">
         <v>1</v>
@@ -32033,20 +32033,20 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J440" t="n">
-        <v>3200</v>
+        <v>8300</v>
       </c>
       <c r="K440" t="n">
-        <v>1000</v>
+        <v>2300</v>
       </c>
       <c r="L440" t="n">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="M440" t="n">
-        <v>1225</v>
+        <v>2392</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>1225</v>
+        <v>2392</v>
       </c>
       <c r="Q440" t="n">
         <v>1</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44172</v>
+        <v>44195</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -32105,20 +32105,20 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J441" t="n">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="K441" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="L441" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M441" t="n">
-        <v>918</v>
+        <v>1830</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32127,11 +32127,11 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P441" t="n">
-        <v>918</v>
+        <v>1830</v>
       </c>
       <c r="Q441" t="n">
         <v>1</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44172</v>
+        <v>44195</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -32177,20 +32177,20 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J442" t="n">
-        <v>1760</v>
+        <v>7700</v>
       </c>
       <c r="K442" t="n">
-        <v>1300</v>
+        <v>3300</v>
       </c>
       <c r="L442" t="n">
-        <v>1500</v>
+        <v>3700</v>
       </c>
       <c r="M442" t="n">
-        <v>1470</v>
+        <v>3487</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>1470</v>
+        <v>3487</v>
       </c>
       <c r="Q442" t="n">
         <v>1</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44172</v>
+        <v>44195</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -32249,20 +32249,20 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J443" t="n">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="K443" t="n">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="L443" t="n">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="M443" t="n">
-        <v>2891</v>
+        <v>1225</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32271,11 +32271,11 @@
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P443" t="n">
-        <v>2891</v>
+        <v>1225</v>
       </c>
       <c r="Q443" t="n">
         <v>1</v>
@@ -32321,20 +32321,20 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J444" t="n">
-        <v>3000</v>
+        <v>4400</v>
       </c>
       <c r="K444" t="n">
-        <v>3700</v>
+        <v>800</v>
       </c>
       <c r="L444" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="M444" t="n">
-        <v>3820</v>
+        <v>918</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32343,11 +32343,11 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P444" t="n">
-        <v>3820</v>
+        <v>918</v>
       </c>
       <c r="Q444" t="n">
         <v>1</v>
@@ -32393,20 +32393,20 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>4200</v>
+        <v>1760</v>
       </c>
       <c r="K445" t="n">
-        <v>2300</v>
+        <v>1300</v>
       </c>
       <c r="L445" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="M445" t="n">
-        <v>2410</v>
+        <v>1470</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32415,11 +32415,11 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P445" t="n">
-        <v>2410</v>
+        <v>1470</v>
       </c>
       <c r="Q445" t="n">
         <v>1</v>
@@ -32465,20 +32465,20 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J446" t="n">
-        <v>4100</v>
+        <v>2200</v>
       </c>
       <c r="K446" t="n">
-        <v>3300</v>
+        <v>2800</v>
       </c>
       <c r="L446" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M446" t="n">
-        <v>3388</v>
+        <v>2891</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
@@ -32487,11 +32487,11 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P446" t="n">
-        <v>3388</v>
+        <v>2891</v>
       </c>
       <c r="Q446" t="n">
         <v>1</v>
@@ -32537,20 +32537,20 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="K447" t="n">
-        <v>1700</v>
+        <v>3700</v>
       </c>
       <c r="L447" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M447" t="n">
-        <v>1867</v>
+        <v>3820</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32559,11 +32559,11 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P447" t="n">
-        <v>1867</v>
+        <v>3820</v>
       </c>
       <c r="Q447" t="n">
         <v>1</v>
@@ -32609,20 +32609,20 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J448" t="n">
-        <v>5900</v>
+        <v>4200</v>
       </c>
       <c r="K448" t="n">
+        <v>2300</v>
+      </c>
+      <c r="L448" t="n">
         <v>2500</v>
       </c>
-      <c r="L448" t="n">
-        <v>3000</v>
-      </c>
       <c r="M448" t="n">
-        <v>2695</v>
+        <v>2410</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
@@ -32631,11 +32631,11 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P448" t="n">
-        <v>2695</v>
+        <v>2410</v>
       </c>
       <c r="Q448" t="n">
         <v>1</v>
@@ -32681,20 +32681,20 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J449" t="n">
-        <v>3000</v>
+        <v>4100</v>
       </c>
       <c r="K449" t="n">
+        <v>3300</v>
+      </c>
+      <c r="L449" t="n">
         <v>3500</v>
       </c>
-      <c r="L449" t="n">
-        <v>4000</v>
-      </c>
       <c r="M449" t="n">
-        <v>3700</v>
+        <v>3388</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32703,11 +32703,11 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P449" t="n">
-        <v>3700</v>
+        <v>3388</v>
       </c>
       <c r="Q449" t="n">
         <v>1</v>
@@ -32753,20 +32753,20 @@
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J450" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="K450" t="n">
-        <v>3800</v>
+        <v>1700</v>
       </c>
       <c r="L450" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M450" t="n">
-        <v>3914</v>
+        <v>1867</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32775,11 +32775,11 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P450" t="n">
-        <v>3914</v>
+        <v>1867</v>
       </c>
       <c r="Q450" t="n">
         <v>1</v>
@@ -32825,20 +32825,20 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J451" t="n">
-        <v>2000</v>
+        <v>5900</v>
       </c>
       <c r="K451" t="n">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="L451" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="M451" t="n">
-        <v>1400</v>
+        <v>2695</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32847,11 +32847,11 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P451" t="n">
-        <v>1400</v>
+        <v>2695</v>
       </c>
       <c r="Q451" t="n">
         <v>1</v>
@@ -32897,20 +32897,20 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J452" t="n">
-        <v>3350</v>
+        <v>3000</v>
       </c>
       <c r="K452" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="L452" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M452" t="n">
-        <v>1979</v>
+        <v>3700</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32919,11 +32919,11 @@
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P452" t="n">
-        <v>1979</v>
+        <v>3700</v>
       </c>
       <c r="Q452" t="n">
         <v>1</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -32969,20 +32969,20 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J453" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="K453" t="n">
-        <v>2100</v>
+        <v>3800</v>
       </c>
       <c r="L453" t="n">
-        <v>2400</v>
+        <v>4000</v>
       </c>
       <c r="M453" t="n">
-        <v>2267</v>
+        <v>3914</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>2267</v>
+        <v>3914</v>
       </c>
       <c r="Q453" t="n">
         <v>1</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -33041,20 +33041,20 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J454" t="n">
-        <v>8100</v>
+        <v>2000</v>
       </c>
       <c r="K454" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="L454" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M454" t="n">
-        <v>1896</v>
+        <v>1400</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33063,11 +33063,11 @@
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P454" t="n">
-        <v>1896</v>
+        <v>1400</v>
       </c>
       <c r="Q454" t="n">
         <v>1</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -33113,20 +33113,20 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J455" t="n">
-        <v>4100</v>
+        <v>3350</v>
       </c>
       <c r="K455" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="L455" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M455" t="n">
-        <v>1583</v>
+        <v>1979</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>1583</v>
+        <v>1979</v>
       </c>
       <c r="Q455" t="n">
         <v>1</v>
@@ -33185,20 +33185,20 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J456" t="n">
-        <v>4200</v>
+        <v>4500</v>
       </c>
       <c r="K456" t="n">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="L456" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="M456" t="n">
-        <v>2629</v>
+        <v>2267</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>2629</v>
+        <v>2267</v>
       </c>
       <c r="Q456" t="n">
         <v>1</v>
@@ -33257,20 +33257,20 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J457" t="n">
-        <v>5300</v>
+        <v>8100</v>
       </c>
       <c r="K457" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L457" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="M457" t="n">
-        <v>1117</v>
+        <v>1896</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>1117</v>
+        <v>1896</v>
       </c>
       <c r="Q457" t="n">
         <v>1</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -33329,20 +33329,20 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>2500</v>
+        <v>4100</v>
       </c>
       <c r="K458" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="L458" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M458" t="n">
-        <v>2000</v>
+        <v>1583</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33351,11 +33351,11 @@
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P458" t="n">
-        <v>2000</v>
+        <v>1583</v>
       </c>
       <c r="Q458" t="n">
         <v>1</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -33401,20 +33401,20 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>3400</v>
+        <v>4200</v>
       </c>
       <c r="K459" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L459" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="M459" t="n">
-        <v>2118</v>
+        <v>2629</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>2118</v>
+        <v>2629</v>
       </c>
       <c r="Q459" t="n">
         <v>1</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -33473,20 +33473,20 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J460" t="n">
-        <v>3500</v>
+        <v>5300</v>
       </c>
       <c r="K460" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="L460" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="M460" t="n">
-        <v>1700</v>
+        <v>1117</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33495,11 +33495,11 @@
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P460" t="n">
-        <v>1700</v>
+        <v>1117</v>
       </c>
       <c r="Q460" t="n">
         <v>1</v>
@@ -33545,20 +33545,20 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J461" t="n">
-        <v>5700</v>
+        <v>2500</v>
       </c>
       <c r="K461" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L461" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M461" t="n">
-        <v>1609</v>
+        <v>2000</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33567,11 +33567,11 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P461" t="n">
-        <v>1609</v>
+        <v>2000</v>
       </c>
       <c r="Q461" t="n">
         <v>1</v>
@@ -33617,20 +33617,20 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J462" t="n">
-        <v>3900</v>
+        <v>3400</v>
       </c>
       <c r="K462" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="L462" t="n">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="M462" t="n">
-        <v>1438</v>
+        <v>2118</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>1438</v>
+        <v>2118</v>
       </c>
       <c r="Q462" t="n">
         <v>1</v>
@@ -33689,20 +33689,20 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J463" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="K463" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="L463" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="M463" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="Q463" t="n">
         <v>1</v>
@@ -33761,20 +33761,20 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J464" t="n">
-        <v>4100</v>
+        <v>5700</v>
       </c>
       <c r="K464" t="n">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="L464" t="n">
-        <v>2600</v>
+        <v>1700</v>
       </c>
       <c r="M464" t="n">
-        <v>2476</v>
+        <v>1609</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>2476</v>
+        <v>1609</v>
       </c>
       <c r="Q464" t="n">
         <v>1</v>
@@ -33833,20 +33833,20 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J465" t="n">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="K465" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="L465" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="M465" t="n">
-        <v>1128</v>
+        <v>1438</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>1128</v>
+        <v>1438</v>
       </c>
       <c r="Q465" t="n">
         <v>1</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -33905,20 +33905,20 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J466" t="n">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="K466" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="L466" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="M466" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33927,11 +33927,11 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P466" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="Q466" t="n">
         <v>1</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -33977,20 +33977,20 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J467" t="n">
-        <v>6200</v>
+        <v>4100</v>
       </c>
       <c r="K467" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L467" t="n">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="M467" t="n">
-        <v>2160</v>
+        <v>2476</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>2160</v>
+        <v>2476</v>
       </c>
       <c r="Q467" t="n">
         <v>1</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -34049,20 +34049,20 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J468" t="n">
-        <v>8400</v>
+        <v>3600</v>
       </c>
       <c r="K468" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L468" t="n">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="M468" t="n">
-        <v>1695</v>
+        <v>1128</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>1695</v>
+        <v>1128</v>
       </c>
       <c r="Q468" t="n">
         <v>1</v>
@@ -34121,20 +34121,20 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J469" t="n">
-        <v>4600</v>
+        <v>1600</v>
       </c>
       <c r="K469" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="L469" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="M469" t="n">
-        <v>1317</v>
+        <v>600</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>1317</v>
+        <v>600</v>
       </c>
       <c r="Q469" t="n">
         <v>1</v>
@@ -34193,20 +34193,20 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J470" t="n">
         <v>6200</v>
       </c>
       <c r="K470" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="L470" t="n">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="M470" t="n">
-        <v>2521</v>
+        <v>2160</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>2521</v>
+        <v>2160</v>
       </c>
       <c r="Q470" t="n">
         <v>1</v>
@@ -34265,20 +34265,20 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J471" t="n">
-        <v>3900</v>
+        <v>8400</v>
       </c>
       <c r="K471" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="L471" t="n">
-        <v>1000</v>
+        <v>1900</v>
       </c>
       <c r="M471" t="n">
-        <v>913</v>
+        <v>1695</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>913</v>
+        <v>1695</v>
       </c>
       <c r="Q471" t="n">
         <v>1</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44448</v>
+        <v>44222</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -34337,33 +34337,33 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J472" t="n">
-        <v>4160</v>
+        <v>4600</v>
       </c>
       <c r="K472" t="n">
         <v>1200</v>
       </c>
       <c r="L472" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="M472" t="n">
-        <v>1200</v>
+        <v>1317</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P472" t="n">
-        <v>1200</v>
+        <v>1317</v>
       </c>
       <c r="Q472" t="n">
         <v>1</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -34409,20 +34409,20 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J473" t="n">
-        <v>1040</v>
+        <v>6200</v>
       </c>
       <c r="K473" t="n">
-        <v>600</v>
+        <v>2400</v>
       </c>
       <c r="L473" t="n">
-        <v>700</v>
+        <v>2700</v>
       </c>
       <c r="M473" t="n">
-        <v>646</v>
+        <v>2521</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34431,11 +34431,11 @@
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P473" t="n">
-        <v>646</v>
+        <v>2521</v>
       </c>
       <c r="Q473" t="n">
         <v>1</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -34481,20 +34481,20 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J474" t="n">
-        <v>1050</v>
+        <v>3900</v>
       </c>
       <c r="K474" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L474" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M474" t="n">
-        <v>807</v>
+        <v>913</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>807</v>
+        <v>913</v>
       </c>
       <c r="Q474" t="n">
         <v>1</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44210</v>
+        <v>44448</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -34553,33 +34553,33 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J475" t="n">
-        <v>2890</v>
+        <v>4160</v>
       </c>
       <c r="K475" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="L475" t="n">
-        <v>2300</v>
+        <v>1200</v>
       </c>
       <c r="M475" t="n">
-        <v>2193</v>
+        <v>1200</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P475" t="n">
-        <v>2193</v>
+        <v>1200</v>
       </c>
       <c r="Q475" t="n">
         <v>1</v>
@@ -34625,20 +34625,20 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J476" t="n">
-        <v>3500</v>
+        <v>1040</v>
       </c>
       <c r="K476" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="L476" t="n">
-        <v>2400</v>
+        <v>700</v>
       </c>
       <c r="M476" t="n">
-        <v>2223</v>
+        <v>646</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34647,11 +34647,11 @@
       </c>
       <c r="O476" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P476" t="n">
-        <v>2223</v>
+        <v>646</v>
       </c>
       <c r="Q476" t="n">
         <v>1</v>
@@ -34697,20 +34697,20 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>3550</v>
+        <v>1050</v>
       </c>
       <c r="K477" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="L477" t="n">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="M477" t="n">
-        <v>1641</v>
+        <v>807</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34719,11 +34719,11 @@
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P477" t="n">
-        <v>1641</v>
+        <v>807</v>
       </c>
       <c r="Q477" t="n">
         <v>1</v>
@@ -34769,20 +34769,20 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>4380</v>
+        <v>2890</v>
       </c>
       <c r="K478" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L478" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="M478" t="n">
-        <v>1962</v>
+        <v>2193</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34791,11 +34791,11 @@
       </c>
       <c r="O478" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P478" t="n">
-        <v>1962</v>
+        <v>2193</v>
       </c>
       <c r="Q478" t="n">
         <v>1</v>
@@ -34841,20 +34841,20 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J479" t="n">
-        <v>1570</v>
+        <v>3500</v>
       </c>
       <c r="K479" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="L479" t="n">
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="M479" t="n">
-        <v>1302</v>
+        <v>2223</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34863,11 +34863,11 @@
       </c>
       <c r="O479" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P479" t="n">
-        <v>1302</v>
+        <v>2223</v>
       </c>
       <c r="Q479" t="n">
         <v>1</v>
@@ -34913,20 +34913,20 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J480" t="n">
-        <v>2150</v>
+        <v>3550</v>
       </c>
       <c r="K480" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L480" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M480" t="n">
-        <v>1444</v>
+        <v>1641</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34935,11 +34935,11 @@
       </c>
       <c r="O480" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P480" t="n">
-        <v>1444</v>
+        <v>1641</v>
       </c>
       <c r="Q480" t="n">
         <v>1</v>
@@ -34985,20 +34985,20 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J481" t="n">
-        <v>2280</v>
+        <v>4380</v>
       </c>
       <c r="K481" t="n">
+        <v>1600</v>
+      </c>
+      <c r="L481" t="n">
         <v>2500</v>
       </c>
-      <c r="L481" t="n">
-        <v>2800</v>
-      </c>
       <c r="M481" t="n">
-        <v>2629</v>
+        <v>1962</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35007,11 +35007,11 @@
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P481" t="n">
-        <v>2629</v>
+        <v>1962</v>
       </c>
       <c r="Q481" t="n">
         <v>1</v>
@@ -35057,20 +35057,20 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J482" t="n">
-        <v>2800</v>
+        <v>1570</v>
       </c>
       <c r="K482" t="n">
-        <v>2700</v>
+        <v>1200</v>
       </c>
       <c r="L482" t="n">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="M482" t="n">
-        <v>2861</v>
+        <v>1302</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35079,11 +35079,11 @@
       </c>
       <c r="O482" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P482" t="n">
-        <v>2861</v>
+        <v>1302</v>
       </c>
       <c r="Q482" t="n">
         <v>1</v>
@@ -35129,20 +35129,20 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J483" t="n">
-        <v>1370</v>
+        <v>2150</v>
       </c>
       <c r="K483" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="L483" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M483" t="n">
-        <v>899</v>
+        <v>1444</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35151,11 +35151,11 @@
       </c>
       <c r="O483" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P483" t="n">
-        <v>899</v>
+        <v>1444</v>
       </c>
       <c r="Q483" t="n">
         <v>1</v>
@@ -35201,20 +35201,20 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J484" t="n">
-        <v>1460</v>
+        <v>2280</v>
       </c>
       <c r="K484" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="L484" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="M484" t="n">
-        <v>1107</v>
+        <v>2629</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35223,11 +35223,11 @@
       </c>
       <c r="O484" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P484" t="n">
-        <v>1107</v>
+        <v>2629</v>
       </c>
       <c r="Q484" t="n">
         <v>1</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -35273,20 +35273,20 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>5900</v>
+        <v>2800</v>
       </c>
       <c r="K485" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="L485" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="M485" t="n">
-        <v>3632</v>
+        <v>2861</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>3632</v>
+        <v>2861</v>
       </c>
       <c r="Q485" t="n">
         <v>1</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -35345,20 +35345,20 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>5800</v>
+        <v>1370</v>
       </c>
       <c r="K486" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="L486" t="n">
-        <v>2700</v>
+        <v>1000</v>
       </c>
       <c r="M486" t="n">
-        <v>2583</v>
+        <v>899</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35367,11 +35367,11 @@
       </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P486" t="n">
-        <v>2583</v>
+        <v>899</v>
       </c>
       <c r="Q486" t="n">
         <v>1</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -35417,20 +35417,20 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J487" t="n">
-        <v>5500</v>
+        <v>1460</v>
       </c>
       <c r="K487" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="L487" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="M487" t="n">
-        <v>1898</v>
+        <v>1107</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>1898</v>
+        <v>1107</v>
       </c>
       <c r="Q487" t="n">
         <v>1</v>
@@ -35489,20 +35489,20 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J488" t="n">
-        <v>3400</v>
+        <v>5900</v>
       </c>
       <c r="K488" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L488" t="n">
-        <v>4200</v>
+        <v>3800</v>
       </c>
       <c r="M488" t="n">
-        <v>4112</v>
+        <v>3632</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35515,7 +35515,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>4112</v>
+        <v>3632</v>
       </c>
       <c r="Q488" t="n">
         <v>1</v>
@@ -35561,20 +35561,20 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J489" t="n">
-        <v>3400</v>
+        <v>5800</v>
       </c>
       <c r="K489" t="n">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="L489" t="n">
-        <v>1500</v>
+        <v>2700</v>
       </c>
       <c r="M489" t="n">
-        <v>1388</v>
+        <v>2583</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>1388</v>
+        <v>2583</v>
       </c>
       <c r="Q489" t="n">
         <v>1</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44284</v>
+        <v>44176</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -35633,20 +35633,20 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J490" t="n">
-        <v>800</v>
+        <v>5500</v>
       </c>
       <c r="K490" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="L490" t="n">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="M490" t="n">
-        <v>900</v>
+        <v>1898</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35655,11 +35655,11 @@
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P490" t="n">
-        <v>900</v>
+        <v>1898</v>
       </c>
       <c r="Q490" t="n">
         <v>1</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44284</v>
+        <v>44176</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -35705,20 +35705,20 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J491" t="n">
-        <v>1300</v>
+        <v>3400</v>
       </c>
       <c r="K491" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="L491" t="n">
-        <v>2600</v>
+        <v>4200</v>
       </c>
       <c r="M491" t="n">
-        <v>2600</v>
+        <v>4112</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35727,11 +35727,11 @@
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P491" t="n">
-        <v>2600</v>
+        <v>4112</v>
       </c>
       <c r="Q491" t="n">
         <v>1</v>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44284</v>
+        <v>44176</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -35777,20 +35777,20 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J492" t="n">
-        <v>1800</v>
+        <v>3400</v>
       </c>
       <c r="K492" t="n">
-        <v>2200</v>
+        <v>1300</v>
       </c>
       <c r="L492" t="n">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="M492" t="n">
-        <v>2200</v>
+        <v>1388</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35799,11 +35799,11 @@
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P492" t="n">
-        <v>2200</v>
+        <v>1388</v>
       </c>
       <c r="Q492" t="n">
         <v>1</v>
@@ -35849,20 +35849,20 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J493" t="n">
-        <v>2200</v>
+        <v>800</v>
       </c>
       <c r="K493" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="L493" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="M493" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="Q493" t="n">
         <v>1</v>
@@ -35921,20 +35921,20 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J494" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="K494" t="n">
-        <v>1200</v>
+        <v>2600</v>
       </c>
       <c r="L494" t="n">
-        <v>1200</v>
+        <v>2600</v>
       </c>
       <c r="M494" t="n">
-        <v>1200</v>
+        <v>2600</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>1200</v>
+        <v>2600</v>
       </c>
       <c r="Q494" t="n">
         <v>1</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44279</v>
+        <v>44284</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -35993,20 +35993,20 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J495" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="K495" t="n">
-        <v>500</v>
+        <v>2200</v>
       </c>
       <c r="L495" t="n">
-        <v>500</v>
+        <v>2200</v>
       </c>
       <c r="M495" t="n">
-        <v>500</v>
+        <v>2200</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>500</v>
+        <v>2200</v>
       </c>
       <c r="Q495" t="n">
         <v>1</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44279</v>
+        <v>44284</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -36065,20 +36065,20 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J496" t="n">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="K496" t="n">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="L496" t="n">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="M496" t="n">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="Q496" t="n">
         <v>1</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44279</v>
+        <v>44284</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -36137,20 +36137,20 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J497" t="n">
-        <v>2400</v>
+        <v>1700</v>
       </c>
       <c r="K497" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="L497" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="M497" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="Q497" t="n">
         <v>1</v>
@@ -36209,20 +36209,20 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J498" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="K498" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="L498" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="M498" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="Q498" t="n">
         <v>1</v>
@@ -36281,20 +36281,20 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J499" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="K499" t="n">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="L499" t="n">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="M499" t="n">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="Q499" t="n">
         <v>1</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44504</v>
+        <v>44279</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -36357,29 +36357,29 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>9700</v>
+        <v>2400</v>
       </c>
       <c r="K500" t="n">
-        <v>600</v>
+        <v>1700</v>
       </c>
       <c r="L500" t="n">
-        <v>650</v>
+        <v>1700</v>
       </c>
       <c r="M500" t="n">
-        <v>623</v>
+        <v>1700</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P500" t="n">
-        <v>623</v>
+        <v>1700</v>
       </c>
       <c r="Q500" t="n">
         <v>1</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44504</v>
+        <v>44279</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -36429,29 +36429,29 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="K501" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="L501" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="M501" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P501" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="Q501" t="n">
         <v>1</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44522</v>
+        <v>44279</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -36497,33 +36497,33 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J502" t="n">
-        <v>6200</v>
+        <v>1700</v>
       </c>
       <c r="K502" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L502" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="M502" t="n">
-        <v>820</v>
+        <v>1000</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P502" t="n">
-        <v>820</v>
+        <v>1000</v>
       </c>
       <c r="Q502" t="n">
         <v>1</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44522</v>
+        <v>44504</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -36569,20 +36569,20 @@
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J503" t="n">
-        <v>2200</v>
+        <v>9700</v>
       </c>
       <c r="K503" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L503" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="M503" t="n">
-        <v>700</v>
+        <v>623</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>700</v>
+        <v>623</v>
       </c>
       <c r="Q503" t="n">
         <v>1</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -36641,33 +36641,33 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J504" t="n">
-        <v>4700</v>
+        <v>2900</v>
       </c>
       <c r="K504" t="n">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="L504" t="n">
-        <v>2400</v>
+        <v>500</v>
       </c>
       <c r="M504" t="n">
-        <v>2289</v>
+        <v>500</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P504" t="n">
-        <v>2289</v>
+        <v>500</v>
       </c>
       <c r="Q504" t="n">
         <v>1</v>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -36717,29 +36717,29 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>6900</v>
+        <v>6200</v>
       </c>
       <c r="K505" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="L505" t="n">
-        <v>2000</v>
+        <v>850</v>
       </c>
       <c r="M505" t="n">
-        <v>1893</v>
+        <v>820</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O505" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P505" t="n">
-        <v>1893</v>
+        <v>820</v>
       </c>
       <c r="Q505" t="n">
         <v>1</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -36789,29 +36789,29 @@
         </is>
       </c>
       <c r="J506" t="n">
-        <v>4600</v>
+        <v>2200</v>
       </c>
       <c r="K506" t="n">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="L506" t="n">
-        <v>1700</v>
+        <v>700</v>
       </c>
       <c r="M506" t="n">
-        <v>1524</v>
+        <v>700</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O506" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P506" t="n">
-        <v>1524</v>
+        <v>700</v>
       </c>
       <c r="Q506" t="n">
         <v>1</v>
@@ -36857,20 +36857,20 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J507" t="n">
-        <v>5400</v>
+        <v>4700</v>
       </c>
       <c r="K507" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="L507" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="M507" t="n">
-        <v>2639</v>
+        <v>2289</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>2639</v>
+        <v>2289</v>
       </c>
       <c r="Q507" t="n">
         <v>1</v>
@@ -36929,20 +36929,20 @@
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J508" t="n">
-        <v>5700</v>
+        <v>6900</v>
       </c>
       <c r="K508" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L508" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="M508" t="n">
-        <v>1116</v>
+        <v>1893</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>1116</v>
+        <v>1893</v>
       </c>
       <c r="Q508" t="n">
         <v>1</v>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -37001,33 +37001,33 @@
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J509" t="n">
-        <v>8100</v>
+        <v>4600</v>
       </c>
       <c r="K509" t="n">
-        <v>550</v>
+        <v>1400</v>
       </c>
       <c r="L509" t="n">
-        <v>600</v>
+        <v>1700</v>
       </c>
       <c r="M509" t="n">
-        <v>572</v>
+        <v>1524</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P509" t="n">
-        <v>572</v>
+        <v>1524</v>
       </c>
       <c r="Q509" t="n">
         <v>1</v>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -37073,20 +37073,20 @@
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J510" t="n">
-        <v>2400</v>
+        <v>5400</v>
       </c>
       <c r="K510" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L510" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M510" t="n">
-        <v>2000</v>
+        <v>2639</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
@@ -37095,11 +37095,11 @@
       </c>
       <c r="O510" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P510" t="n">
-        <v>2000</v>
+        <v>2639</v>
       </c>
       <c r="Q510" t="n">
         <v>1</v>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -37145,20 +37145,20 @@
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J511" t="n">
-        <v>2200</v>
+        <v>5700</v>
       </c>
       <c r="K511" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L511" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="M511" t="n">
-        <v>2000</v>
+        <v>1116</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>2000</v>
+        <v>1116</v>
       </c>
       <c r="Q511" t="n">
         <v>1</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -37217,33 +37217,33 @@
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J512" t="n">
-        <v>1900</v>
+        <v>8100</v>
       </c>
       <c r="K512" t="n">
-        <v>1500</v>
+        <v>550</v>
       </c>
       <c r="L512" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="M512" t="n">
-        <v>1500</v>
+        <v>572</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P512" t="n">
-        <v>1500</v>
+        <v>572</v>
       </c>
       <c r="Q512" t="n">
         <v>1</v>
@@ -37289,20 +37289,20 @@
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J513" t="n">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="K513" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L513" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M513" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37311,11 +37311,11 @@
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P513" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="Q513" t="n">
         <v>1</v>
@@ -37361,20 +37361,20 @@
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J514" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="K514" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L514" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M514" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37383,11 +37383,11 @@
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P514" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q514" t="n">
         <v>1</v>
@@ -37433,20 +37433,20 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J515" t="n">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="K515" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L515" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M515" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37455,11 +37455,11 @@
       </c>
       <c r="O515" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P515" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="Q515" t="n">
         <v>1</v>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -37505,20 +37505,20 @@
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J516" t="n">
-        <v>900</v>
+        <v>1700</v>
       </c>
       <c r="K516" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="L516" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="M516" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="Q516" t="n">
         <v>1</v>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -37577,20 +37577,20 @@
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J517" t="n">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="K517" t="n">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="L517" t="n">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="M517" t="n">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37603,7 +37603,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="Q517" t="n">
         <v>1</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -37649,33 +37649,33 @@
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J518" t="n">
-        <v>4200</v>
+        <v>1300</v>
       </c>
       <c r="K518" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L518" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="M518" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O518" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P518" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Q518" t="n">
         <v>1</v>
@@ -37721,24 +37721,24 @@
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J519" t="n">
+        <v>900</v>
+      </c>
+      <c r="K519" t="n">
         <v>1800</v>
       </c>
-      <c r="K519" t="n">
-        <v>400</v>
-      </c>
       <c r="L519" t="n">
-        <v>400</v>
+        <v>1800</v>
       </c>
       <c r="M519" t="n">
-        <v>400</v>
+        <v>1800</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O519" t="inlineStr">
@@ -37747,7 +37747,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>400</v>
+        <v>1800</v>
       </c>
       <c r="Q519" t="n">
         <v>1</v>
@@ -37793,20 +37793,20 @@
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J520" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="K520" t="n">
-        <v>3600</v>
+        <v>4500</v>
       </c>
       <c r="L520" t="n">
-        <v>3600</v>
+        <v>4500</v>
       </c>
       <c r="M520" t="n">
-        <v>3600</v>
+        <v>4500</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>3600</v>
+        <v>4500</v>
       </c>
       <c r="Q520" t="n">
         <v>1</v>
@@ -37869,29 +37869,29 @@
         </is>
       </c>
       <c r="J521" t="n">
-        <v>2200</v>
+        <v>4200</v>
       </c>
       <c r="K521" t="n">
-        <v>3800</v>
+        <v>500</v>
       </c>
       <c r="L521" t="n">
-        <v>3800</v>
+        <v>500</v>
       </c>
       <c r="M521" t="n">
-        <v>3800</v>
+        <v>500</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O521" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P521" t="n">
-        <v>3800</v>
+        <v>500</v>
       </c>
       <c r="Q521" t="n">
         <v>1</v>
@@ -37937,11 +37937,11 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J522" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="K522" t="n">
         <v>400</v>
@@ -37959,7 +37959,7 @@
       </c>
       <c r="O522" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P522" t="n">
@@ -38009,33 +38009,33 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J523" t="n">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="K523" t="n">
-        <v>300</v>
+        <v>3600</v>
       </c>
       <c r="L523" t="n">
-        <v>300</v>
+        <v>3600</v>
       </c>
       <c r="M523" t="n">
-        <v>300</v>
+        <v>3600</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P523" t="n">
-        <v>300</v>
+        <v>3600</v>
       </c>
       <c r="Q523" t="n">
         <v>1</v>
@@ -38081,20 +38081,20 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="K524" t="n">
-        <v>2800</v>
+        <v>3800</v>
       </c>
       <c r="L524" t="n">
-        <v>2800</v>
+        <v>3800</v>
       </c>
       <c r="M524" t="n">
-        <v>2800</v>
+        <v>3800</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>2800</v>
+        <v>3800</v>
       </c>
       <c r="Q524" t="n">
         <v>1</v>
@@ -38153,33 +38153,33 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J525" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="K525" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="L525" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="M525" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P525" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="Q525" t="n">
         <v>1</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -38225,24 +38225,24 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>4700</v>
+        <v>1000</v>
       </c>
       <c r="K526" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="L526" t="n">
-        <v>2300</v>
+        <v>300</v>
       </c>
       <c r="M526" t="n">
-        <v>2160</v>
+        <v>300</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O526" t="inlineStr">
@@ -38251,7 +38251,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>2160</v>
+        <v>300</v>
       </c>
       <c r="Q526" t="n">
         <v>1</v>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -38297,20 +38297,20 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J527" t="n">
-        <v>7500</v>
+        <v>1500</v>
       </c>
       <c r="K527" t="n">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="L527" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="M527" t="n">
-        <v>1712</v>
+        <v>2800</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38323,7 +38323,7 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>1712</v>
+        <v>2800</v>
       </c>
       <c r="Q527" t="n">
         <v>1</v>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -38369,20 +38369,20 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J528" t="n">
-        <v>4600</v>
+        <v>1000</v>
       </c>
       <c r="K528" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="L528" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="M528" t="n">
-        <v>1326</v>
+        <v>2000</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38395,7 +38395,7 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>1326</v>
+        <v>2000</v>
       </c>
       <c r="Q528" t="n">
         <v>1</v>
@@ -38441,20 +38441,20 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J529" t="n">
-        <v>5800</v>
+        <v>4700</v>
       </c>
       <c r="K529" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L529" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="M529" t="n">
-        <v>2671</v>
+        <v>2160</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>2671</v>
+        <v>2160</v>
       </c>
       <c r="Q529" t="n">
         <v>1</v>
@@ -38513,20 +38513,20 @@
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J530" t="n">
-        <v>3600</v>
+        <v>7500</v>
       </c>
       <c r="K530" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="L530" t="n">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="M530" t="n">
-        <v>861</v>
+        <v>1712</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>861</v>
+        <v>1712</v>
       </c>
       <c r="Q530" t="n">
         <v>1</v>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44495</v>
+        <v>44225</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -38585,33 +38585,33 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J531" t="n">
-        <v>8100</v>
+        <v>4600</v>
       </c>
       <c r="K531" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="L531" t="n">
-        <v>550</v>
+        <v>1400</v>
       </c>
       <c r="M531" t="n">
-        <v>522</v>
+        <v>1326</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O531" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P531" t="n">
-        <v>522</v>
+        <v>1326</v>
       </c>
       <c r="Q531" t="n">
         <v>1</v>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -38657,20 +38657,20 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>4000</v>
+        <v>5800</v>
       </c>
       <c r="K532" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="L532" t="n">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="M532" t="n">
-        <v>2025</v>
+        <v>2671</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38679,11 +38679,11 @@
       </c>
       <c r="O532" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P532" t="n">
-        <v>2025</v>
+        <v>2671</v>
       </c>
       <c r="Q532" t="n">
         <v>1</v>
@@ -38709,7 +38709,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -38729,20 +38729,20 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="K533" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L533" t="n">
-        <v>2200</v>
+        <v>900</v>
       </c>
       <c r="M533" t="n">
-        <v>2092</v>
+        <v>861</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>2092</v>
+        <v>861</v>
       </c>
       <c r="Q533" t="n">
         <v>1</v>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -38805,29 +38805,29 @@
         </is>
       </c>
       <c r="J534" t="n">
-        <v>6500</v>
+        <v>8100</v>
       </c>
       <c r="K534" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="L534" t="n">
-        <v>1700</v>
+        <v>550</v>
       </c>
       <c r="M534" t="n">
-        <v>1608</v>
+        <v>522</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O534" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P534" t="n">
-        <v>1608</v>
+        <v>522</v>
       </c>
       <c r="Q534" t="n">
         <v>1</v>
@@ -38873,20 +38873,20 @@
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>6400</v>
+        <v>4000</v>
       </c>
       <c r="K535" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="L535" t="n">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="M535" t="n">
-        <v>1691</v>
+        <v>2025</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38895,11 +38895,11 @@
       </c>
       <c r="O535" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P535" t="n">
-        <v>1691</v>
+        <v>2025</v>
       </c>
       <c r="Q535" t="n">
         <v>1</v>
@@ -38945,20 +38945,20 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>4400</v>
+        <v>3700</v>
       </c>
       <c r="K536" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="L536" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="M536" t="n">
-        <v>1286</v>
+        <v>2092</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>1286</v>
+        <v>2092</v>
       </c>
       <c r="Q536" t="n">
         <v>1</v>
@@ -39017,20 +39017,20 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="K537" t="n">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="L537" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="M537" t="n">
-        <v>2410</v>
+        <v>1608</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39043,7 +39043,7 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>2410</v>
+        <v>1608</v>
       </c>
       <c r="Q537" t="n">
         <v>1</v>
@@ -39089,20 +39089,20 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>5500</v>
+        <v>6400</v>
       </c>
       <c r="K538" t="n">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="L538" t="n">
-        <v>2600</v>
+        <v>1800</v>
       </c>
       <c r="M538" t="n">
-        <v>2487</v>
+        <v>1691</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>2487</v>
+        <v>1691</v>
       </c>
       <c r="Q538" t="n">
         <v>1</v>
@@ -39161,20 +39161,20 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="K539" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="L539" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="M539" t="n">
-        <v>1010</v>
+        <v>1286</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>1010</v>
+        <v>1286</v>
       </c>
       <c r="Q539" t="n">
         <v>1</v>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44510</v>
+        <v>44232</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -39233,33 +39233,33 @@
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J540" t="n">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="K540" t="n">
-        <v>750</v>
+        <v>2300</v>
       </c>
       <c r="L540" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M540" t="n">
-        <v>772</v>
+        <v>2410</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O540" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P540" t="n">
-        <v>772</v>
+        <v>2410</v>
       </c>
       <c r="Q540" t="n">
         <v>1</v>
@@ -39285,7 +39285,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44510</v>
+        <v>44232</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -39305,33 +39305,33 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J541" t="n">
+        <v>5500</v>
+      </c>
+      <c r="K541" t="n">
+        <v>2400</v>
+      </c>
+      <c r="L541" t="n">
         <v>2600</v>
       </c>
-      <c r="K541" t="n">
-        <v>600</v>
-      </c>
-      <c r="L541" t="n">
-        <v>600</v>
-      </c>
       <c r="M541" t="n">
-        <v>600</v>
+        <v>2487</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O541" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P541" t="n">
-        <v>600</v>
+        <v>2487</v>
       </c>
       <c r="Q541" t="n">
         <v>1</v>
@@ -39357,7 +39357,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -39377,33 +39377,33 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J542" t="n">
-        <v>2300</v>
+        <v>4000</v>
       </c>
       <c r="K542" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L542" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="M542" t="n">
-        <v>600</v>
+        <v>1010</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O542" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P542" t="n">
-        <v>600</v>
+        <v>1010</v>
       </c>
       <c r="Q542" t="n">
         <v>1</v>
@@ -39429,7 +39429,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -39453,16 +39453,16 @@
         </is>
       </c>
       <c r="J543" t="n">
-        <v>4800</v>
+        <v>6200</v>
       </c>
       <c r="K543" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L543" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M543" t="n">
-        <v>550</v>
+        <v>772</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
@@ -39475,7 +39475,7 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>550</v>
+        <v>772</v>
       </c>
       <c r="Q543" t="n">
         <v>1</v>
@@ -39501,7 +39501,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -39521,11 +39521,11 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="K544" t="n">
         <v>600</v>
@@ -39543,7 +39543,7 @@
       </c>
       <c r="O544" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P544" t="n">
@@ -39593,20 +39593,20 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J545" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="K545" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L545" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M545" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39619,7 +39619,7 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q545" t="n">
         <v>1</v>
@@ -39665,20 +39665,20 @@
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J546" t="n">
-        <v>3300</v>
+        <v>4800</v>
       </c>
       <c r="K546" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L546" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="M546" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="Q546" t="n">
         <v>1</v>
@@ -39737,20 +39737,20 @@
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J547" t="n">
+        <v>1800</v>
+      </c>
+      <c r="K547" t="n">
         <v>600</v>
       </c>
-      <c r="K547" t="n">
-        <v>500</v>
-      </c>
       <c r="L547" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M547" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
@@ -39763,7 +39763,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q547" t="n">
         <v>1</v>
@@ -39789,7 +39789,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -39809,33 +39809,33 @@
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J548" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="K548" t="n">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="L548" t="n">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="M548" t="n">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O548" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P548" t="n">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="Q548" t="n">
         <v>1</v>
@@ -39861,7 +39861,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -39881,33 +39881,33 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>5700</v>
+        <v>3300</v>
       </c>
       <c r="K549" t="n">
-        <v>2100</v>
+        <v>450</v>
       </c>
       <c r="L549" t="n">
-        <v>2500</v>
+        <v>450</v>
       </c>
       <c r="M549" t="n">
-        <v>2346</v>
+        <v>450</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O549" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P549" t="n">
-        <v>2346</v>
+        <v>450</v>
       </c>
       <c r="Q549" t="n">
         <v>1</v>
@@ -39933,7 +39933,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -39953,33 +39953,33 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J550" t="n">
-        <v>3700</v>
+        <v>600</v>
       </c>
       <c r="K550" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="L550" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="M550" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O550" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P550" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="Q550" t="n">
         <v>1</v>
@@ -40025,20 +40025,20 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>7800</v>
+        <v>2800</v>
       </c>
       <c r="K551" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="L551" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="M551" t="n">
-        <v>1850</v>
+        <v>2200</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40047,11 +40047,11 @@
       </c>
       <c r="O551" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P551" t="n">
-        <v>1850</v>
+        <v>2200</v>
       </c>
       <c r="Q551" t="n">
         <v>1</v>
@@ -40097,20 +40097,20 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>3900</v>
+        <v>5700</v>
       </c>
       <c r="K552" t="n">
-        <v>1300</v>
+        <v>2100</v>
       </c>
       <c r="L552" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="M552" t="n">
-        <v>1446</v>
+        <v>2346</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40123,7 +40123,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>1446</v>
+        <v>2346</v>
       </c>
       <c r="Q552" t="n">
         <v>1</v>
@@ -40169,20 +40169,20 @@
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>3300</v>
+        <v>3700</v>
       </c>
       <c r="K553" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="L553" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="M553" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="Q553" t="n">
         <v>1</v>
@@ -40241,20 +40241,20 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J554" t="n">
-        <v>5900</v>
+        <v>7800</v>
       </c>
       <c r="K554" t="n">
-        <v>2600</v>
+        <v>1700</v>
       </c>
       <c r="L554" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M554" t="n">
-        <v>2688</v>
+        <v>1850</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40267,7 +40267,7 @@
         </is>
       </c>
       <c r="P554" t="n">
-        <v>2688</v>
+        <v>1850</v>
       </c>
       <c r="Q554" t="n">
         <v>1</v>
@@ -40313,20 +40313,20 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J555" t="n">
         <v>3900</v>
       </c>
       <c r="K555" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="L555" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="M555" t="n">
-        <v>1113</v>
+        <v>1446</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>1113</v>
+        <v>1446</v>
       </c>
       <c r="Q555" t="n">
         <v>1</v>
@@ -40365,7 +40365,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -40385,20 +40385,20 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J556" t="n">
-        <v>4800</v>
+        <v>3300</v>
       </c>
       <c r="K556" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="L556" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="M556" t="n">
-        <v>2156</v>
+        <v>2700</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40407,11 +40407,11 @@
       </c>
       <c r="O556" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P556" t="n">
-        <v>2156</v>
+        <v>2700</v>
       </c>
       <c r="Q556" t="n">
         <v>1</v>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -40457,20 +40457,20 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J557" t="n">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="K557" t="n">
-        <v>1700</v>
+        <v>2600</v>
       </c>
       <c r="L557" t="n">
-        <v>1900</v>
+        <v>2800</v>
       </c>
       <c r="M557" t="n">
-        <v>1795</v>
+        <v>2688</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40483,7 +40483,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>1795</v>
+        <v>2688</v>
       </c>
       <c r="Q557" t="n">
         <v>1</v>
@@ -40509,7 +40509,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -40529,20 +40529,20 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J558" t="n">
-        <v>3100</v>
+        <v>3900</v>
       </c>
       <c r="K558" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="L558" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="M558" t="n">
-        <v>1465</v>
+        <v>1113</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>1465</v>
+        <v>1113</v>
       </c>
       <c r="Q558" t="n">
         <v>1</v>
@@ -40601,20 +40601,20 @@
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J559" t="n">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="K559" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="L559" t="n">
-        <v>2600</v>
+        <v>2300</v>
       </c>
       <c r="M559" t="n">
-        <v>2529</v>
+        <v>2156</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40627,7 +40627,7 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>2529</v>
+        <v>2156</v>
       </c>
       <c r="Q559" t="n">
         <v>1</v>
@@ -40673,20 +40673,20 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J560" t="n">
-        <v>2600</v>
+        <v>6100</v>
       </c>
       <c r="K560" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="L560" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="M560" t="n">
-        <v>1115</v>
+        <v>1795</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40699,7 +40699,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>1115</v>
+        <v>1795</v>
       </c>
       <c r="Q560" t="n">
         <v>1</v>
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -40745,20 +40745,20 @@
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J561" t="n">
-        <v>1100</v>
+        <v>3100</v>
       </c>
       <c r="K561" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="L561" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="M561" t="n">
-        <v>800</v>
+        <v>1465</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>800</v>
+        <v>1465</v>
       </c>
       <c r="Q561" t="n">
         <v>1</v>
@@ -40797,7 +40797,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -40817,20 +40817,20 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J562" t="n">
-        <v>4600</v>
+        <v>5100</v>
       </c>
       <c r="K562" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L562" t="n">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="M562" t="n">
-        <v>2124</v>
+        <v>2529</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40843,7 +40843,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>2124</v>
+        <v>2529</v>
       </c>
       <c r="Q562" t="n">
         <v>1</v>
@@ -40869,7 +40869,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -40889,20 +40889,20 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J563" t="n">
-        <v>6000</v>
+        <v>2600</v>
       </c>
       <c r="K563" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="L563" t="n">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="M563" t="n">
-        <v>1783</v>
+        <v>1115</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>1783</v>
+        <v>1115</v>
       </c>
       <c r="Q563" t="n">
         <v>1</v>
@@ -40961,20 +40961,20 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J564" t="n">
-        <v>3600</v>
+        <v>1100</v>
       </c>
       <c r="K564" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="L564" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="M564" t="n">
-        <v>1417</v>
+        <v>800</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40987,7 +40987,7 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>1417</v>
+        <v>800</v>
       </c>
       <c r="Q564" t="n">
         <v>1</v>
@@ -41033,20 +41033,20 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J565" t="n">
-        <v>3500</v>
+        <v>4600</v>
       </c>
       <c r="K565" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="L565" t="n">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="M565" t="n">
-        <v>2529</v>
+        <v>2124</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         </is>
       </c>
       <c r="P565" t="n">
-        <v>2529</v>
+        <v>2124</v>
       </c>
       <c r="Q565" t="n">
         <v>1</v>
@@ -41105,20 +41105,20 @@
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J566" t="n">
-        <v>4200</v>
+        <v>6000</v>
       </c>
       <c r="K566" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="L566" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="M566" t="n">
-        <v>1086</v>
+        <v>1783</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41131,7 +41131,7 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>1086</v>
+        <v>1783</v>
       </c>
       <c r="Q566" t="n">
         <v>1</v>
@@ -41157,7 +41157,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44515</v>
+        <v>44251</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -41177,33 +41177,33 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J567" t="n">
-        <v>8500</v>
+        <v>3600</v>
       </c>
       <c r="K567" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="L567" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="M567" t="n">
-        <v>773</v>
+        <v>1417</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O567" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P567" t="n">
-        <v>773</v>
+        <v>1417</v>
       </c>
       <c r="Q567" t="n">
         <v>1</v>
@@ -41229,7 +41229,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44515</v>
+        <v>44251</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -41249,33 +41249,33 @@
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J568" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="K568" t="n">
-        <v>600</v>
+        <v>2400</v>
       </c>
       <c r="L568" t="n">
-        <v>600</v>
+        <v>2700</v>
       </c>
       <c r="M568" t="n">
-        <v>600</v>
+        <v>2529</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O568" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P568" t="n">
-        <v>600</v>
+        <v>2529</v>
       </c>
       <c r="Q568" t="n">
         <v>1</v>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -41321,20 +41321,20 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J569" t="n">
-        <v>2200</v>
+        <v>4200</v>
       </c>
       <c r="K569" t="n">
         <v>1000</v>
       </c>
       <c r="L569" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="M569" t="n">
-        <v>1000</v>
+        <v>1086</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41343,11 +41343,11 @@
       </c>
       <c r="O569" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P569" t="n">
-        <v>1000</v>
+        <v>1086</v>
       </c>
       <c r="Q569" t="n">
         <v>1</v>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44181</v>
+        <v>44515</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -41393,33 +41393,33 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J570" t="n">
-        <v>2800</v>
+        <v>8500</v>
       </c>
       <c r="K570" t="n">
-        <v>3000</v>
+        <v>750</v>
       </c>
       <c r="L570" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="M570" t="n">
-        <v>3000</v>
+        <v>773</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O570" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P570" t="n">
-        <v>3000</v>
+        <v>773</v>
       </c>
       <c r="Q570" t="n">
         <v>1</v>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44181</v>
+        <v>44515</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -41465,33 +41465,33 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>6300</v>
+        <v>2500</v>
       </c>
       <c r="K571" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="L571" t="n">
-        <v>3300</v>
+        <v>600</v>
       </c>
       <c r="M571" t="n">
-        <v>3119</v>
+        <v>600</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O571" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P571" t="n">
-        <v>3119</v>
+        <v>600</v>
       </c>
       <c r="Q571" t="n">
         <v>1</v>
@@ -41537,20 +41537,20 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="K572" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L572" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M572" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41559,11 +41559,11 @@
       </c>
       <c r="O572" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P572" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="Q572" t="n">
         <v>1</v>
@@ -41609,20 +41609,20 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>6500</v>
+        <v>2800</v>
       </c>
       <c r="K573" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L573" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M573" t="n">
-        <v>2592</v>
+        <v>3000</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41631,11 +41631,11 @@
       </c>
       <c r="O573" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P573" t="n">
-        <v>2592</v>
+        <v>3000</v>
       </c>
       <c r="Q573" t="n">
         <v>1</v>
@@ -41681,20 +41681,20 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>4900</v>
+        <v>6300</v>
       </c>
       <c r="K574" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L574" t="n">
-        <v>2300</v>
+        <v>3300</v>
       </c>
       <c r="M574" t="n">
-        <v>2208</v>
+        <v>3119</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41707,7 +41707,7 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>2208</v>
+        <v>3119</v>
       </c>
       <c r="Q574" t="n">
         <v>1</v>
@@ -41753,20 +41753,20 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="K575" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L575" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M575" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41779,7 +41779,7 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="Q575" t="n">
         <v>1</v>
@@ -41825,20 +41825,20 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J576" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="K576" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="L576" t="n">
-        <v>3800</v>
+        <v>2700</v>
       </c>
       <c r="M576" t="n">
-        <v>3635</v>
+        <v>2592</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>3635</v>
+        <v>2592</v>
       </c>
       <c r="Q576" t="n">
         <v>1</v>
@@ -41897,20 +41897,20 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>4000</v>
+        <v>4900</v>
       </c>
       <c r="K577" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="L577" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="M577" t="n">
-        <v>1672</v>
+        <v>2208</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41923,7 +41923,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>1672</v>
+        <v>2208</v>
       </c>
       <c r="Q577" t="n">
         <v>1</v>
@@ -41949,7 +41949,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -41969,20 +41969,20 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K578" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="L578" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="M578" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41991,11 +41991,11 @@
       </c>
       <c r="O578" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P578" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="Q578" t="n">
         <v>1</v>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -42041,20 +42041,20 @@
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>2400</v>
+        <v>6000</v>
       </c>
       <c r="K579" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L579" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="M579" t="n">
-        <v>3000</v>
+        <v>3635</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42063,11 +42063,11 @@
       </c>
       <c r="O579" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P579" t="n">
-        <v>3000</v>
+        <v>3635</v>
       </c>
       <c r="Q579" t="n">
         <v>1</v>
@@ -42093,7 +42093,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -42113,20 +42113,20 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J580" t="n">
-        <v>4900</v>
+        <v>4000</v>
       </c>
       <c r="K580" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="L580" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="M580" t="n">
-        <v>2641</v>
+        <v>1672</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42135,11 +42135,11 @@
       </c>
       <c r="O580" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P580" t="n">
-        <v>2641</v>
+        <v>1672</v>
       </c>
       <c r="Q580" t="n">
         <v>1</v>
@@ -42185,20 +42185,20 @@
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J581" t="n">
-        <v>3300</v>
+        <v>2500</v>
       </c>
       <c r="K581" t="n">
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="L581" t="n">
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="M581" t="n">
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42207,11 +42207,11 @@
       </c>
       <c r="O581" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P581" t="n">
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="Q581" t="n">
         <v>1</v>
@@ -42257,20 +42257,20 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J582" t="n">
-        <v>8700</v>
+        <v>2400</v>
       </c>
       <c r="K582" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L582" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="M582" t="n">
-        <v>2134</v>
+        <v>3000</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42279,11 +42279,11 @@
       </c>
       <c r="O582" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P582" t="n">
-        <v>2134</v>
+        <v>3000</v>
       </c>
       <c r="Q582" t="n">
         <v>1</v>
@@ -42329,20 +42329,20 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J583" t="n">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="K583" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L583" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="M583" t="n">
-        <v>1800</v>
+        <v>2641</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>1800</v>
+        <v>2641</v>
       </c>
       <c r="Q583" t="n">
         <v>1</v>
@@ -42401,20 +42401,20 @@
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J584" t="n">
-        <v>3600</v>
+        <v>3300</v>
       </c>
       <c r="K584" t="n">
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="L584" t="n">
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="M584" t="n">
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42427,7 +42427,7 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="Q584" t="n">
         <v>1</v>
@@ -42473,20 +42473,20 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J585" t="n">
-        <v>8000</v>
+        <v>8700</v>
       </c>
       <c r="K585" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L585" t="n">
-        <v>3300</v>
+        <v>2300</v>
       </c>
       <c r="M585" t="n">
-        <v>3131</v>
+        <v>2134</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42499,7 +42499,7 @@
         </is>
       </c>
       <c r="P585" t="n">
-        <v>3131</v>
+        <v>2134</v>
       </c>
       <c r="Q585" t="n">
         <v>1</v>
@@ -42545,20 +42545,20 @@
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J586" t="n">
-        <v>3800</v>
+        <v>5000</v>
       </c>
       <c r="K586" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L586" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="M586" t="n">
-        <v>1174</v>
+        <v>1800</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42571,7 +42571,7 @@
         </is>
       </c>
       <c r="P586" t="n">
-        <v>1174</v>
+        <v>1800</v>
       </c>
       <c r="Q586" t="n">
         <v>1</v>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -42617,20 +42617,20 @@
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J587" t="n">
-        <v>1400</v>
+        <v>3600</v>
       </c>
       <c r="K587" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="L587" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="M587" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42639,11 +42639,11 @@
       </c>
       <c r="O587" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P587" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="Q587" t="n">
         <v>1</v>
@@ -42669,7 +42669,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -42689,20 +42689,20 @@
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J588" t="n">
-        <v>1700</v>
+        <v>8000</v>
       </c>
       <c r="K588" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L588" t="n">
-        <v>2400</v>
+        <v>3300</v>
       </c>
       <c r="M588" t="n">
-        <v>2400</v>
+        <v>3131</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42711,11 +42711,11 @@
       </c>
       <c r="O588" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P588" t="n">
-        <v>2400</v>
+        <v>3131</v>
       </c>
       <c r="Q588" t="n">
         <v>1</v>
@@ -42741,7 +42741,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -42761,20 +42761,20 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J589" t="n">
-        <v>2800</v>
+        <v>3800</v>
       </c>
       <c r="K589" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L589" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="M589" t="n">
-        <v>2000</v>
+        <v>1174</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42783,11 +42783,11 @@
       </c>
       <c r="O589" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P589" t="n">
-        <v>2000</v>
+        <v>1174</v>
       </c>
       <c r="Q589" t="n">
         <v>1</v>
@@ -42833,20 +42833,20 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J590" t="n">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="K590" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="L590" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="M590" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42859,7 +42859,7 @@
         </is>
       </c>
       <c r="P590" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="Q590" t="n">
         <v>1</v>
@@ -42905,20 +42905,20 @@
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="K591" t="n">
-        <v>1300</v>
+        <v>2400</v>
       </c>
       <c r="L591" t="n">
-        <v>1300</v>
+        <v>2400</v>
       </c>
       <c r="M591" t="n">
-        <v>1300</v>
+        <v>2400</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42931,7 +42931,7 @@
         </is>
       </c>
       <c r="P591" t="n">
-        <v>1300</v>
+        <v>2400</v>
       </c>
       <c r="Q591" t="n">
         <v>1</v>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44508</v>
+        <v>44271</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -42981,29 +42981,29 @@
         </is>
       </c>
       <c r="J592" t="n">
-        <v>4500</v>
+        <v>2800</v>
       </c>
       <c r="K592" t="n">
-        <v>650</v>
+        <v>2000</v>
       </c>
       <c r="L592" t="n">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="M592" t="n">
-        <v>671</v>
+        <v>2000</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O592" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P592" t="n">
-        <v>671</v>
+        <v>2000</v>
       </c>
       <c r="Q592" t="n">
         <v>1</v>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44201</v>
+        <v>44271</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -43049,20 +43049,20 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J593" t="n">
-        <v>3100</v>
+        <v>2500</v>
       </c>
       <c r="K593" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="L593" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="M593" t="n">
-        <v>755</v>
+        <v>1600</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43071,11 +43071,11 @@
       </c>
       <c r="O593" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P593" t="n">
-        <v>755</v>
+        <v>1600</v>
       </c>
       <c r="Q593" t="n">
         <v>1</v>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44201</v>
+        <v>44271</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -43121,20 +43121,20 @@
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J594" t="n">
         <v>2200</v>
       </c>
       <c r="K594" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L594" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="M594" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43143,11 +43143,11 @@
       </c>
       <c r="O594" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P594" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="Q594" t="n">
         <v>1</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -43193,33 +43193,33 @@
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>5700</v>
+        <v>4500</v>
       </c>
       <c r="K595" t="n">
-        <v>2600</v>
+        <v>650</v>
       </c>
       <c r="L595" t="n">
-        <v>2800</v>
+        <v>700</v>
       </c>
       <c r="M595" t="n">
-        <v>2684</v>
+        <v>671</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O595" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P595" t="n">
-        <v>2684</v>
+        <v>671</v>
       </c>
       <c r="Q595" t="n">
         <v>1</v>
@@ -43265,20 +43265,20 @@
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="K596" t="n">
-        <v>2400</v>
+        <v>700</v>
       </c>
       <c r="L596" t="n">
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="M596" t="n">
-        <v>2400</v>
+        <v>755</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43287,11 +43287,11 @@
       </c>
       <c r="O596" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P596" t="n">
-        <v>2400</v>
+        <v>755</v>
       </c>
       <c r="Q596" t="n">
         <v>1</v>
@@ -43337,20 +43337,20 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J597" t="n">
-        <v>8200</v>
+        <v>2200</v>
       </c>
       <c r="K597" t="n">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="L597" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="M597" t="n">
-        <v>2228</v>
+        <v>3000</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
@@ -43359,11 +43359,11 @@
       </c>
       <c r="O597" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P597" t="n">
-        <v>2228</v>
+        <v>3000</v>
       </c>
       <c r="Q597" t="n">
         <v>1</v>
@@ -43409,20 +43409,20 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J598" t="n">
-        <v>5100</v>
+        <v>5700</v>
       </c>
       <c r="K598" t="n">
-        <v>1600</v>
+        <v>2600</v>
       </c>
       <c r="L598" t="n">
-        <v>1900</v>
+        <v>2800</v>
       </c>
       <c r="M598" t="n">
-        <v>1729</v>
+        <v>2684</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43435,7 +43435,7 @@
         </is>
       </c>
       <c r="P598" t="n">
-        <v>1729</v>
+        <v>2684</v>
       </c>
       <c r="Q598" t="n">
         <v>1</v>
@@ -43481,20 +43481,20 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J599" t="n">
-        <v>2900</v>
+        <v>3300</v>
       </c>
       <c r="K599" t="n">
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="L599" t="n">
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="M599" t="n">
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43507,7 +43507,7 @@
         </is>
       </c>
       <c r="P599" t="n">
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="Q599" t="n">
         <v>1</v>
@@ -43553,20 +43553,20 @@
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J600" t="n">
-        <v>7700</v>
+        <v>8200</v>
       </c>
       <c r="K600" t="n">
-        <v>3200</v>
+        <v>2100</v>
       </c>
       <c r="L600" t="n">
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="M600" t="n">
-        <v>3329</v>
+        <v>2228</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
@@ -43579,7 +43579,7 @@
         </is>
       </c>
       <c r="P600" t="n">
-        <v>3329</v>
+        <v>2228</v>
       </c>
       <c r="Q600" t="n">
         <v>1</v>
@@ -43625,38 +43625,254 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J601" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K601" t="n">
+        <v>1600</v>
+      </c>
+      <c r="L601" t="n">
+        <v>1900</v>
+      </c>
+      <c r="M601" t="n">
+        <v>1729</v>
+      </c>
+      <c r="N601" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O601" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P601" t="n">
+        <v>1729</v>
+      </c>
+      <c r="Q601" t="n">
+        <v>1</v>
+      </c>
+      <c r="R601" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>6</v>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D602" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E602" t="n">
+        <v>13</v>
+      </c>
+      <c r="F602" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I602" t="inlineStr">
+        <is>
+          <t>Super</t>
+        </is>
+      </c>
+      <c r="J602" t="n">
+        <v>2900</v>
+      </c>
+      <c r="K602" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L602" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M602" t="n">
+        <v>3500</v>
+      </c>
+      <c r="N602" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O602" t="inlineStr">
+        <is>
+          <t>Paine</t>
+        </is>
+      </c>
+      <c r="P602" t="n">
+        <v>3500</v>
+      </c>
+      <c r="Q602" t="n">
+        <v>1</v>
+      </c>
+      <c r="R602" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>6</v>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D603" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E603" t="n">
+        <v>13</v>
+      </c>
+      <c r="F603" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I603" t="inlineStr">
+        <is>
+          <t>Super</t>
+        </is>
+      </c>
+      <c r="J603" t="n">
+        <v>7700</v>
+      </c>
+      <c r="K603" t="n">
+        <v>3200</v>
+      </c>
+      <c r="L603" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M603" t="n">
+        <v>3329</v>
+      </c>
+      <c r="N603" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O603" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P603" t="n">
+        <v>3329</v>
+      </c>
+      <c r="Q603" t="n">
+        <v>1</v>
+      </c>
+      <c r="R603" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>6</v>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D604" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E604" t="n">
+        <v>13</v>
+      </c>
+      <c r="F604" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I604" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J601" t="n">
+      <c r="J604" t="n">
         <v>4200</v>
       </c>
-      <c r="K601" t="n">
+      <c r="K604" t="n">
         <v>1100</v>
       </c>
-      <c r="L601" t="n">
+      <c r="L604" t="n">
         <v>1400</v>
       </c>
-      <c r="M601" t="n">
+      <c r="M604" t="n">
         <v>1279</v>
       </c>
-      <c r="N601" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O601" t="inlineStr">
+      <c r="N604" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O604" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P601" t="n">
+      <c r="P604" t="n">
         <v>1279</v>
       </c>
-      <c r="Q601" t="n">
-        <v>1</v>
-      </c>
-      <c r="R601" t="inlineStr">
+      <c r="Q604" t="n">
+        <v>1</v>
+      </c>
+      <c r="R604" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R604"/>
+  <dimension ref="A1:R610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -32321,24 +32321,24 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J444" t="n">
-        <v>4400</v>
+        <v>3700</v>
       </c>
       <c r="K444" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L444" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="M444" t="n">
-        <v>918</v>
+        <v>670</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O444" t="inlineStr">
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>918</v>
+        <v>670</v>
       </c>
       <c r="Q444" t="n">
         <v>1</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -32393,33 +32393,33 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>1760</v>
+        <v>6400</v>
       </c>
       <c r="K445" t="n">
-        <v>1300</v>
+        <v>450</v>
       </c>
       <c r="L445" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="M445" t="n">
-        <v>1470</v>
+        <v>470</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P445" t="n">
-        <v>1470</v>
+        <v>470</v>
       </c>
       <c r="Q445" t="n">
         <v>1</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -32465,33 +32465,33 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J446" t="n">
-        <v>2200</v>
+        <v>9000</v>
       </c>
       <c r="K446" t="n">
-        <v>2800</v>
+        <v>600</v>
       </c>
       <c r="L446" t="n">
-        <v>3000</v>
+        <v>650</v>
       </c>
       <c r="M446" t="n">
-        <v>2891</v>
+        <v>619</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P446" t="n">
-        <v>2891</v>
+        <v>619</v>
       </c>
       <c r="Q446" t="n">
         <v>1</v>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -32537,33 +32537,33 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="K447" t="n">
-        <v>3700</v>
+        <v>500</v>
       </c>
       <c r="L447" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="M447" t="n">
-        <v>3820</v>
+        <v>500</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P447" t="n">
-        <v>3820</v>
+        <v>500</v>
       </c>
       <c r="Q447" t="n">
         <v>1</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -32609,33 +32609,33 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J448" t="n">
-        <v>4200</v>
+        <v>2200</v>
       </c>
       <c r="K448" t="n">
-        <v>2300</v>
+        <v>350</v>
       </c>
       <c r="L448" t="n">
-        <v>2500</v>
+        <v>350</v>
       </c>
       <c r="M448" t="n">
-        <v>2410</v>
+        <v>350</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P448" t="n">
-        <v>2410</v>
+        <v>350</v>
       </c>
       <c r="Q448" t="n">
         <v>1</v>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -32681,24 +32681,24 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J449" t="n">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="K449" t="n">
-        <v>3300</v>
+        <v>500</v>
       </c>
       <c r="L449" t="n">
-        <v>3500</v>
+        <v>500</v>
       </c>
       <c r="M449" t="n">
-        <v>3388</v>
+        <v>500</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O449" t="inlineStr">
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>3388</v>
+        <v>500</v>
       </c>
       <c r="Q449" t="n">
         <v>1</v>
@@ -32753,20 +32753,20 @@
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J450" t="n">
-        <v>2700</v>
+        <v>4400</v>
       </c>
       <c r="K450" t="n">
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="L450" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M450" t="n">
-        <v>1867</v>
+        <v>918</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>1867</v>
+        <v>918</v>
       </c>
       <c r="Q450" t="n">
         <v>1</v>
@@ -32825,20 +32825,20 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J451" t="n">
-        <v>5900</v>
+        <v>1760</v>
       </c>
       <c r="K451" t="n">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="L451" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="M451" t="n">
-        <v>2695</v>
+        <v>1470</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>2695</v>
+        <v>1470</v>
       </c>
       <c r="Q451" t="n">
         <v>1</v>
@@ -32897,20 +32897,20 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J452" t="n">
+        <v>2200</v>
+      </c>
+      <c r="K452" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L452" t="n">
         <v>3000</v>
       </c>
-      <c r="K452" t="n">
-        <v>3500</v>
-      </c>
-      <c r="L452" t="n">
-        <v>4000</v>
-      </c>
       <c r="M452" t="n">
-        <v>3700</v>
+        <v>2891</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>3700</v>
+        <v>2891</v>
       </c>
       <c r="Q452" t="n">
         <v>1</v>
@@ -32969,20 +32969,20 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J453" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="K453" t="n">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="L453" t="n">
         <v>4000</v>
       </c>
       <c r="M453" t="n">
-        <v>3914</v>
+        <v>3820</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>3914</v>
+        <v>3820</v>
       </c>
       <c r="Q453" t="n">
         <v>1</v>
@@ -33041,20 +33041,20 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J454" t="n">
-        <v>2000</v>
+        <v>4200</v>
       </c>
       <c r="K454" t="n">
-        <v>1300</v>
+        <v>2300</v>
       </c>
       <c r="L454" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="M454" t="n">
-        <v>1400</v>
+        <v>2410</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>1400</v>
+        <v>2410</v>
       </c>
       <c r="Q454" t="n">
         <v>1</v>
@@ -33113,20 +33113,20 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J455" t="n">
-        <v>3350</v>
+        <v>4100</v>
       </c>
       <c r="K455" t="n">
-        <v>1800</v>
+        <v>3300</v>
       </c>
       <c r="L455" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M455" t="n">
-        <v>1979</v>
+        <v>3388</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>1979</v>
+        <v>3388</v>
       </c>
       <c r="Q455" t="n">
         <v>1</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E456" t="n">
         <v>13</v>
@@ -33185,20 +33185,20 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J456" t="n">
-        <v>4500</v>
+        <v>2700</v>
       </c>
       <c r="K456" t="n">
-        <v>2100</v>
+        <v>1700</v>
       </c>
       <c r="L456" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="M456" t="n">
-        <v>2267</v>
+        <v>1867</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33207,11 +33207,11 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P456" t="n">
-        <v>2267</v>
+        <v>1867</v>
       </c>
       <c r="Q456" t="n">
         <v>1</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E457" t="n">
         <v>13</v>
@@ -33257,20 +33257,20 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J457" t="n">
-        <v>8100</v>
+        <v>5900</v>
       </c>
       <c r="K457" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L457" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M457" t="n">
-        <v>1896</v>
+        <v>2695</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>1896</v>
+        <v>2695</v>
       </c>
       <c r="Q457" t="n">
         <v>1</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E458" t="n">
         <v>13</v>
@@ -33329,20 +33329,20 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>4100</v>
+        <v>3000</v>
       </c>
       <c r="K458" t="n">
-        <v>1400</v>
+        <v>3500</v>
       </c>
       <c r="L458" t="n">
-        <v>1700</v>
+        <v>4000</v>
       </c>
       <c r="M458" t="n">
-        <v>1583</v>
+        <v>3700</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33351,11 +33351,11 @@
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P458" t="n">
-        <v>1583</v>
+        <v>3700</v>
       </c>
       <c r="Q458" t="n">
         <v>1</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E459" t="n">
         <v>13</v>
@@ -33405,16 +33405,16 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="K459" t="n">
-        <v>2500</v>
+        <v>3800</v>
       </c>
       <c r="L459" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="M459" t="n">
-        <v>2629</v>
+        <v>3914</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>2629</v>
+        <v>3914</v>
       </c>
       <c r="Q459" t="n">
         <v>1</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44242</v>
+        <v>44172</v>
       </c>
       <c r="E460" t="n">
         <v>13</v>
@@ -33477,16 +33477,16 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>5300</v>
+        <v>2000</v>
       </c>
       <c r="K460" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="L460" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="M460" t="n">
-        <v>1117</v>
+        <v>1400</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33495,11 +33495,11 @@
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P460" t="n">
-        <v>1117</v>
+        <v>1400</v>
       </c>
       <c r="Q460" t="n">
         <v>1</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44239</v>
+        <v>44172</v>
       </c>
       <c r="E461" t="n">
         <v>13</v>
@@ -33545,20 +33545,20 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J461" t="n">
-        <v>2500</v>
+        <v>3350</v>
       </c>
       <c r="K461" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L461" t="n">
         <v>2000</v>
       </c>
       <c r="M461" t="n">
-        <v>2000</v>
+        <v>1979</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33567,11 +33567,11 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P461" t="n">
-        <v>2000</v>
+        <v>1979</v>
       </c>
       <c r="Q461" t="n">
         <v>1</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -33621,16 +33621,16 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>3400</v>
+        <v>4500</v>
       </c>
       <c r="K462" t="n">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="L462" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="M462" t="n">
-        <v>2118</v>
+        <v>2267</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>2118</v>
+        <v>2267</v>
       </c>
       <c r="Q462" t="n">
         <v>1</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -33693,16 +33693,16 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>3500</v>
+        <v>8100</v>
       </c>
       <c r="K463" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="L463" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M463" t="n">
-        <v>1700</v>
+        <v>1896</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33711,11 +33711,11 @@
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P463" t="n">
-        <v>1700</v>
+        <v>1896</v>
       </c>
       <c r="Q463" t="n">
         <v>1</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -33761,20 +33761,20 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J464" t="n">
-        <v>5700</v>
+        <v>4100</v>
       </c>
       <c r="K464" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="L464" t="n">
         <v>1700</v>
       </c>
       <c r="M464" t="n">
-        <v>1609</v>
+        <v>1583</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>1609</v>
+        <v>1583</v>
       </c>
       <c r="Q464" t="n">
         <v>1</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -33833,20 +33833,20 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J465" t="n">
-        <v>3900</v>
+        <v>4200</v>
       </c>
       <c r="K465" t="n">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="L465" t="n">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="M465" t="n">
-        <v>1438</v>
+        <v>2629</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>1438</v>
+        <v>2629</v>
       </c>
       <c r="Q465" t="n">
         <v>1</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -33905,20 +33905,20 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J466" t="n">
-        <v>2800</v>
+        <v>5300</v>
       </c>
       <c r="K466" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L466" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="M466" t="n">
-        <v>2500</v>
+        <v>1117</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33927,11 +33927,11 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P466" t="n">
-        <v>2500</v>
+        <v>1117</v>
       </c>
       <c r="Q466" t="n">
         <v>1</v>
@@ -33977,20 +33977,20 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J467" t="n">
-        <v>4100</v>
+        <v>2500</v>
       </c>
       <c r="K467" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="L467" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="M467" t="n">
-        <v>2476</v>
+        <v>2000</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
@@ -33999,11 +33999,11 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P467" t="n">
-        <v>2476</v>
+        <v>2000</v>
       </c>
       <c r="Q467" t="n">
         <v>1</v>
@@ -34049,20 +34049,20 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J468" t="n">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="K468" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L468" t="n">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="M468" t="n">
-        <v>1128</v>
+        <v>2118</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>1128</v>
+        <v>2118</v>
       </c>
       <c r="Q468" t="n">
         <v>1</v>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -34121,20 +34121,20 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J469" t="n">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="K469" t="n">
-        <v>600</v>
+        <v>1700</v>
       </c>
       <c r="L469" t="n">
-        <v>600</v>
+        <v>1700</v>
       </c>
       <c r="M469" t="n">
-        <v>600</v>
+        <v>1700</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
@@ -34143,11 +34143,11 @@
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P469" t="n">
-        <v>600</v>
+        <v>1700</v>
       </c>
       <c r="Q469" t="n">
         <v>1</v>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -34193,20 +34193,20 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J470" t="n">
-        <v>6200</v>
+        <v>5700</v>
       </c>
       <c r="K470" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L470" t="n">
-        <v>2300</v>
+        <v>1700</v>
       </c>
       <c r="M470" t="n">
-        <v>2160</v>
+        <v>1609</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>2160</v>
+        <v>1609</v>
       </c>
       <c r="Q470" t="n">
         <v>1</v>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -34265,20 +34265,20 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J471" t="n">
-        <v>8400</v>
+        <v>3900</v>
       </c>
       <c r="K471" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L471" t="n">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="M471" t="n">
-        <v>1695</v>
+        <v>1438</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>1695</v>
+        <v>1438</v>
       </c>
       <c r="Q471" t="n">
         <v>1</v>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -34337,20 +34337,20 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J472" t="n">
-        <v>4600</v>
+        <v>2800</v>
       </c>
       <c r="K472" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="L472" t="n">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="M472" t="n">
-        <v>1317</v>
+        <v>2500</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
@@ -34359,11 +34359,11 @@
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P472" t="n">
-        <v>1317</v>
+        <v>2500</v>
       </c>
       <c r="Q472" t="n">
         <v>1</v>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -34413,16 +34413,16 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>6200</v>
+        <v>4100</v>
       </c>
       <c r="K473" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="L473" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="M473" t="n">
-        <v>2521</v>
+        <v>2476</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
@@ -34435,7 +34435,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>2521</v>
+        <v>2476</v>
       </c>
       <c r="Q473" t="n">
         <v>1</v>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -34485,16 +34485,16 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="K474" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L474" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="M474" t="n">
-        <v>913</v>
+        <v>1128</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
@@ -34507,7 +34507,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>913</v>
+        <v>1128</v>
       </c>
       <c r="Q474" t="n">
         <v>1</v>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44448</v>
+        <v>44222</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -34553,33 +34553,33 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J475" t="n">
-        <v>4160</v>
+        <v>1600</v>
       </c>
       <c r="K475" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="L475" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="M475" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P475" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="Q475" t="n">
         <v>1</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -34625,20 +34625,20 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J476" t="n">
-        <v>1040</v>
+        <v>6200</v>
       </c>
       <c r="K476" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="L476" t="n">
-        <v>700</v>
+        <v>2300</v>
       </c>
       <c r="M476" t="n">
-        <v>646</v>
+        <v>2160</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
@@ -34647,11 +34647,11 @@
       </c>
       <c r="O476" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P476" t="n">
-        <v>646</v>
+        <v>2160</v>
       </c>
       <c r="Q476" t="n">
         <v>1</v>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -34697,20 +34697,20 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>1050</v>
+        <v>8400</v>
       </c>
       <c r="K477" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="L477" t="n">
-        <v>900</v>
+        <v>1900</v>
       </c>
       <c r="M477" t="n">
-        <v>807</v>
+        <v>1695</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>807</v>
+        <v>1695</v>
       </c>
       <c r="Q477" t="n">
         <v>1</v>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -34769,20 +34769,20 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>2890</v>
+        <v>4600</v>
       </c>
       <c r="K478" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="L478" t="n">
-        <v>2300</v>
+        <v>1400</v>
       </c>
       <c r="M478" t="n">
-        <v>2193</v>
+        <v>1317</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
@@ -34791,11 +34791,11 @@
       </c>
       <c r="O478" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P478" t="n">
-        <v>2193</v>
+        <v>1317</v>
       </c>
       <c r="Q478" t="n">
         <v>1</v>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -34841,20 +34841,20 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J479" t="n">
-        <v>3500</v>
+        <v>6200</v>
       </c>
       <c r="K479" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L479" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M479" t="n">
-        <v>2223</v>
+        <v>2521</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>2223</v>
+        <v>2521</v>
       </c>
       <c r="Q479" t="n">
         <v>1</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44210</v>
+        <v>44222</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -34913,20 +34913,20 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J480" t="n">
-        <v>3550</v>
+        <v>3900</v>
       </c>
       <c r="K480" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="L480" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="M480" t="n">
-        <v>1641</v>
+        <v>913</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34935,11 +34935,11 @@
       </c>
       <c r="O480" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P480" t="n">
-        <v>1641</v>
+        <v>913</v>
       </c>
       <c r="Q480" t="n">
         <v>1</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44210</v>
+        <v>44448</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -34989,29 +34989,29 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>4380</v>
+        <v>4160</v>
       </c>
       <c r="K481" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="L481" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="M481" t="n">
-        <v>1962</v>
+        <v>1200</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P481" t="n">
-        <v>1962</v>
+        <v>1200</v>
       </c>
       <c r="Q481" t="n">
         <v>1</v>
@@ -35057,20 +35057,20 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J482" t="n">
-        <v>1570</v>
+        <v>1040</v>
       </c>
       <c r="K482" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="L482" t="n">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="M482" t="n">
-        <v>1302</v>
+        <v>646</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>1302</v>
+        <v>646</v>
       </c>
       <c r="Q482" t="n">
         <v>1</v>
@@ -35129,20 +35129,20 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J483" t="n">
-        <v>2150</v>
+        <v>1050</v>
       </c>
       <c r="K483" t="n">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="L483" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="M483" t="n">
-        <v>1444</v>
+        <v>807</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>1444</v>
+        <v>807</v>
       </c>
       <c r="Q483" t="n">
         <v>1</v>
@@ -35201,20 +35201,20 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J484" t="n">
-        <v>2280</v>
+        <v>2890</v>
       </c>
       <c r="K484" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L484" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="M484" t="n">
-        <v>2629</v>
+        <v>2193</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>2629</v>
+        <v>2193</v>
       </c>
       <c r="Q484" t="n">
         <v>1</v>
@@ -35273,20 +35273,20 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="K485" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="L485" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M485" t="n">
-        <v>2861</v>
+        <v>2223</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>2861</v>
+        <v>2223</v>
       </c>
       <c r="Q485" t="n">
         <v>1</v>
@@ -35345,20 +35345,20 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>1370</v>
+        <v>3550</v>
       </c>
       <c r="K486" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="L486" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="M486" t="n">
-        <v>899</v>
+        <v>1641</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>899</v>
+        <v>1641</v>
       </c>
       <c r="Q486" t="n">
         <v>1</v>
@@ -35417,20 +35417,20 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J487" t="n">
-        <v>1460</v>
+        <v>4380</v>
       </c>
       <c r="K487" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="L487" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="M487" t="n">
-        <v>1107</v>
+        <v>1962</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>1107</v>
+        <v>1962</v>
       </c>
       <c r="Q487" t="n">
         <v>1</v>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -35489,20 +35489,20 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J488" t="n">
-        <v>5900</v>
+        <v>1570</v>
       </c>
       <c r="K488" t="n">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="L488" t="n">
-        <v>3800</v>
+        <v>1400</v>
       </c>
       <c r="M488" t="n">
-        <v>3632</v>
+        <v>1302</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35511,11 +35511,11 @@
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P488" t="n">
-        <v>3632</v>
+        <v>1302</v>
       </c>
       <c r="Q488" t="n">
         <v>1</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -35561,20 +35561,20 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J489" t="n">
-        <v>5800</v>
+        <v>2150</v>
       </c>
       <c r="K489" t="n">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="L489" t="n">
-        <v>2700</v>
+        <v>1500</v>
       </c>
       <c r="M489" t="n">
-        <v>2583</v>
+        <v>1444</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>2583</v>
+        <v>1444</v>
       </c>
       <c r="Q489" t="n">
         <v>1</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -35633,20 +35633,20 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J490" t="n">
-        <v>5500</v>
+        <v>2280</v>
       </c>
       <c r="K490" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L490" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M490" t="n">
-        <v>1898</v>
+        <v>2629</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
@@ -35655,11 +35655,11 @@
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P490" t="n">
-        <v>1898</v>
+        <v>2629</v>
       </c>
       <c r="Q490" t="n">
         <v>1</v>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -35709,16 +35709,16 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="K491" t="n">
-        <v>4000</v>
+        <v>2700</v>
       </c>
       <c r="L491" t="n">
-        <v>4200</v>
+        <v>3000</v>
       </c>
       <c r="M491" t="n">
-        <v>4112</v>
+        <v>2861</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>4112</v>
+        <v>2861</v>
       </c>
       <c r="Q491" t="n">
         <v>1</v>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -35781,16 +35781,16 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>3400</v>
+        <v>1370</v>
       </c>
       <c r="K492" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="L492" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="M492" t="n">
-        <v>1388</v>
+        <v>899</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35799,11 +35799,11 @@
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P492" t="n">
-        <v>1388</v>
+        <v>899</v>
       </c>
       <c r="Q492" t="n">
         <v>1</v>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44284</v>
+        <v>44210</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -35849,20 +35849,20 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J493" t="n">
-        <v>800</v>
+        <v>1460</v>
       </c>
       <c r="K493" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="L493" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="M493" t="n">
-        <v>900</v>
+        <v>1107</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
@@ -35871,11 +35871,11 @@
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P493" t="n">
-        <v>900</v>
+        <v>1107</v>
       </c>
       <c r="Q493" t="n">
         <v>1</v>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44284</v>
+        <v>44176</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -35925,16 +35925,16 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>1300</v>
+        <v>5900</v>
       </c>
       <c r="K494" t="n">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="L494" t="n">
-        <v>2600</v>
+        <v>3800</v>
       </c>
       <c r="M494" t="n">
-        <v>2600</v>
+        <v>3632</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35943,11 +35943,11 @@
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P494" t="n">
-        <v>2600</v>
+        <v>3632</v>
       </c>
       <c r="Q494" t="n">
         <v>1</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44284</v>
+        <v>44176</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -35997,16 +35997,16 @@
         </is>
       </c>
       <c r="J495" t="n">
-        <v>1800</v>
+        <v>5800</v>
       </c>
       <c r="K495" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L495" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="M495" t="n">
-        <v>2200</v>
+        <v>2583</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36015,11 +36015,11 @@
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P495" t="n">
-        <v>2200</v>
+        <v>2583</v>
       </c>
       <c r="Q495" t="n">
         <v>1</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44284</v>
+        <v>44176</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -36069,16 +36069,16 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>2200</v>
+        <v>5500</v>
       </c>
       <c r="K496" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L496" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M496" t="n">
-        <v>1500</v>
+        <v>1898</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
@@ -36087,11 +36087,11 @@
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P496" t="n">
-        <v>1500</v>
+        <v>1898</v>
       </c>
       <c r="Q496" t="n">
         <v>1</v>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44284</v>
+        <v>44176</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -36137,20 +36137,20 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J497" t="n">
-        <v>1700</v>
+        <v>3400</v>
       </c>
       <c r="K497" t="n">
-        <v>1200</v>
+        <v>4000</v>
       </c>
       <c r="L497" t="n">
-        <v>1200</v>
+        <v>4200</v>
       </c>
       <c r="M497" t="n">
-        <v>1200</v>
+        <v>4112</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
@@ -36159,11 +36159,11 @@
       </c>
       <c r="O497" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P497" t="n">
-        <v>1200</v>
+        <v>4112</v>
       </c>
       <c r="Q497" t="n">
         <v>1</v>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44279</v>
+        <v>44176</v>
       </c>
       <c r="E498" t="n">
         <v>13</v>
@@ -36209,20 +36209,20 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J498" t="n">
-        <v>1200</v>
+        <v>3400</v>
       </c>
       <c r="K498" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="L498" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="M498" t="n">
-        <v>500</v>
+        <v>1388</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36231,11 +36231,11 @@
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P498" t="n">
-        <v>500</v>
+        <v>1388</v>
       </c>
       <c r="Q498" t="n">
         <v>1</v>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44279</v>
+        <v>44284</v>
       </c>
       <c r="E499" t="n">
         <v>13</v>
@@ -36281,20 +36281,20 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J499" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="K499" t="n">
-        <v>2200</v>
+        <v>900</v>
       </c>
       <c r="L499" t="n">
-        <v>2200</v>
+        <v>900</v>
       </c>
       <c r="M499" t="n">
-        <v>2200</v>
+        <v>900</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>2200</v>
+        <v>900</v>
       </c>
       <c r="Q499" t="n">
         <v>1</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44279</v>
+        <v>44284</v>
       </c>
       <c r="E500" t="n">
         <v>13</v>
@@ -36353,20 +36353,20 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J500" t="n">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="K500" t="n">
-        <v>1700</v>
+        <v>2600</v>
       </c>
       <c r="L500" t="n">
-        <v>1700</v>
+        <v>2600</v>
       </c>
       <c r="M500" t="n">
-        <v>1700</v>
+        <v>2600</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>1700</v>
+        <v>2600</v>
       </c>
       <c r="Q500" t="n">
         <v>1</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44279</v>
+        <v>44284</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -36425,20 +36425,20 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J501" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="K501" t="n">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="L501" t="n">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="M501" t="n">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="Q501" t="n">
         <v>1</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44279</v>
+        <v>44284</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -36497,20 +36497,20 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J502" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="K502" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L502" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M502" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="Q502" t="n">
         <v>1</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44504</v>
+        <v>44284</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -36569,33 +36569,33 @@
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J503" t="n">
-        <v>9700</v>
+        <v>1700</v>
       </c>
       <c r="K503" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="L503" t="n">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="M503" t="n">
-        <v>623</v>
+        <v>1200</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P503" t="n">
-        <v>623</v>
+        <v>1200</v>
       </c>
       <c r="Q503" t="n">
         <v>1</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44504</v>
+        <v>44279</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -36641,11 +36641,11 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J504" t="n">
-        <v>2900</v>
+        <v>1200</v>
       </c>
       <c r="K504" t="n">
         <v>500</v>
@@ -36658,12 +36658,12 @@
       </c>
       <c r="N504" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P504" t="n">
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44522</v>
+        <v>44279</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -36713,33 +36713,33 @@
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J505" t="n">
-        <v>6200</v>
+        <v>1300</v>
       </c>
       <c r="K505" t="n">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="L505" t="n">
-        <v>850</v>
+        <v>2200</v>
       </c>
       <c r="M505" t="n">
-        <v>820</v>
+        <v>2200</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O505" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P505" t="n">
-        <v>820</v>
+        <v>2200</v>
       </c>
       <c r="Q505" t="n">
         <v>1</v>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44522</v>
+        <v>44279</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -36785,33 +36785,33 @@
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J506" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K506" t="n">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="L506" t="n">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="M506" t="n">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O506" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P506" t="n">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="Q506" t="n">
         <v>1</v>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44246</v>
+        <v>44279</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -36857,20 +36857,20 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J507" t="n">
-        <v>4700</v>
+        <v>2000</v>
       </c>
       <c r="K507" t="n">
-        <v>2200</v>
+        <v>1300</v>
       </c>
       <c r="L507" t="n">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="M507" t="n">
-        <v>2289</v>
+        <v>1300</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36879,11 +36879,11 @@
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P507" t="n">
-        <v>2289</v>
+        <v>1300</v>
       </c>
       <c r="Q507" t="n">
         <v>1</v>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44246</v>
+        <v>44279</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -36929,20 +36929,20 @@
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J508" t="n">
-        <v>6900</v>
+        <v>1700</v>
       </c>
       <c r="K508" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="L508" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M508" t="n">
-        <v>1893</v>
+        <v>1000</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36951,11 +36951,11 @@
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P508" t="n">
-        <v>1893</v>
+        <v>1000</v>
       </c>
       <c r="Q508" t="n">
         <v>1</v>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -37001,33 +37001,33 @@
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J509" t="n">
-        <v>4600</v>
+        <v>9700</v>
       </c>
       <c r="K509" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="L509" t="n">
-        <v>1700</v>
+        <v>650</v>
       </c>
       <c r="M509" t="n">
-        <v>1524</v>
+        <v>623</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P509" t="n">
-        <v>1524</v>
+        <v>623</v>
       </c>
       <c r="Q509" t="n">
         <v>1</v>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -37073,33 +37073,33 @@
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J510" t="n">
-        <v>5400</v>
+        <v>2900</v>
       </c>
       <c r="K510" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="L510" t="n">
-        <v>2800</v>
+        <v>500</v>
       </c>
       <c r="M510" t="n">
-        <v>2639</v>
+        <v>500</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O510" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P510" t="n">
-        <v>2639</v>
+        <v>500</v>
       </c>
       <c r="Q510" t="n">
         <v>1</v>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -37145,33 +37145,33 @@
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J511" t="n">
-        <v>5700</v>
+        <v>6200</v>
       </c>
       <c r="K511" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L511" t="n">
-        <v>1300</v>
+        <v>850</v>
       </c>
       <c r="M511" t="n">
-        <v>1116</v>
+        <v>820</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P511" t="n">
-        <v>1116</v>
+        <v>820</v>
       </c>
       <c r="Q511" t="n">
         <v>1</v>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -37217,20 +37217,20 @@
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J512" t="n">
-        <v>8100</v>
+        <v>2200</v>
       </c>
       <c r="K512" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L512" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M512" t="n">
-        <v>572</v>
+        <v>700</v>
       </c>
       <c r="N512" t="inlineStr">
         <is>
@@ -37243,7 +37243,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>572</v>
+        <v>700</v>
       </c>
       <c r="Q512" t="n">
         <v>1</v>
@@ -37269,7 +37269,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -37289,20 +37289,20 @@
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J513" t="n">
+        <v>4700</v>
+      </c>
+      <c r="K513" t="n">
+        <v>2200</v>
+      </c>
+      <c r="L513" t="n">
         <v>2400</v>
       </c>
-      <c r="K513" t="n">
-        <v>2000</v>
-      </c>
-      <c r="L513" t="n">
-        <v>2000</v>
-      </c>
       <c r="M513" t="n">
-        <v>2000</v>
+        <v>2289</v>
       </c>
       <c r="N513" t="inlineStr">
         <is>
@@ -37311,11 +37311,11 @@
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P513" t="n">
-        <v>2000</v>
+        <v>2289</v>
       </c>
       <c r="Q513" t="n">
         <v>1</v>
@@ -37341,7 +37341,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -37365,16 +37365,16 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>2200</v>
+        <v>6900</v>
       </c>
       <c r="K514" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L514" t="n">
         <v>2000</v>
       </c>
       <c r="M514" t="n">
-        <v>2000</v>
+        <v>1893</v>
       </c>
       <c r="N514" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>2000</v>
+        <v>1893</v>
       </c>
       <c r="Q514" t="n">
         <v>1</v>
@@ -37413,7 +37413,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -37437,16 +37437,16 @@
         </is>
       </c>
       <c r="J515" t="n">
-        <v>1900</v>
+        <v>4600</v>
       </c>
       <c r="K515" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="L515" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M515" t="n">
-        <v>1500</v>
+        <v>1524</v>
       </c>
       <c r="N515" t="inlineStr">
         <is>
@@ -37455,11 +37455,11 @@
       </c>
       <c r="O515" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P515" t="n">
-        <v>1500</v>
+        <v>1524</v>
       </c>
       <c r="Q515" t="n">
         <v>1</v>
@@ -37485,7 +37485,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -37505,20 +37505,20 @@
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J516" t="n">
-        <v>1700</v>
+        <v>5400</v>
       </c>
       <c r="K516" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="L516" t="n">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="M516" t="n">
-        <v>1600</v>
+        <v>2639</v>
       </c>
       <c r="N516" t="inlineStr">
         <is>
@@ -37531,7 +37531,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>1600</v>
+        <v>2639</v>
       </c>
       <c r="Q516" t="n">
         <v>1</v>
@@ -37557,7 +37557,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -37581,16 +37581,16 @@
         </is>
       </c>
       <c r="J517" t="n">
-        <v>1500</v>
+        <v>5700</v>
       </c>
       <c r="K517" t="n">
         <v>1000</v>
       </c>
       <c r="L517" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="M517" t="n">
-        <v>1000</v>
+        <v>1116</v>
       </c>
       <c r="N517" t="inlineStr">
         <is>
@@ -37599,11 +37599,11 @@
       </c>
       <c r="O517" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P517" t="n">
-        <v>1000</v>
+        <v>1116</v>
       </c>
       <c r="Q517" t="n">
         <v>1</v>
@@ -37629,7 +37629,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -37649,33 +37649,33 @@
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J518" t="n">
-        <v>1300</v>
+        <v>8100</v>
       </c>
       <c r="K518" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="L518" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M518" t="n">
-        <v>1000</v>
+        <v>572</v>
       </c>
       <c r="N518" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O518" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P518" t="n">
-        <v>1000</v>
+        <v>572</v>
       </c>
       <c r="Q518" t="n">
         <v>1</v>
@@ -37701,7 +37701,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -37721,20 +37721,20 @@
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J519" t="n">
-        <v>900</v>
+        <v>2400</v>
       </c>
       <c r="K519" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L519" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M519" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="N519" t="inlineStr">
         <is>
@@ -37743,11 +37743,11 @@
       </c>
       <c r="O519" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P519" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="Q519" t="n">
         <v>1</v>
@@ -37773,7 +37773,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -37793,20 +37793,20 @@
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J520" t="n">
         <v>2200</v>
       </c>
       <c r="K520" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="L520" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="M520" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="N520" t="inlineStr">
         <is>
@@ -37815,11 +37815,11 @@
       </c>
       <c r="O520" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P520" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="Q520" t="n">
         <v>1</v>
@@ -37845,7 +37845,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -37865,33 +37865,33 @@
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J521" t="n">
-        <v>4200</v>
+        <v>1900</v>
       </c>
       <c r="K521" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="L521" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="M521" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="N521" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O521" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P521" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="Q521" t="n">
         <v>1</v>
@@ -37917,7 +37917,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -37937,24 +37937,24 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J522" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K522" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="L522" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="M522" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="N522" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O522" t="inlineStr">
@@ -37963,7 +37963,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="Q522" t="n">
         <v>1</v>
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -38009,20 +38009,20 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J523" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="K523" t="n">
-        <v>3600</v>
+        <v>1000</v>
       </c>
       <c r="L523" t="n">
-        <v>3600</v>
+        <v>1000</v>
       </c>
       <c r="M523" t="n">
-        <v>3600</v>
+        <v>1000</v>
       </c>
       <c r="N523" t="inlineStr">
         <is>
@@ -38035,7 +38035,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>3600</v>
+        <v>1000</v>
       </c>
       <c r="Q523" t="n">
         <v>1</v>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -38081,20 +38081,20 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>2200</v>
+        <v>1300</v>
       </c>
       <c r="K524" t="n">
-        <v>3800</v>
+        <v>1000</v>
       </c>
       <c r="L524" t="n">
-        <v>3800</v>
+        <v>1000</v>
       </c>
       <c r="M524" t="n">
-        <v>3800</v>
+        <v>1000</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>3800</v>
+        <v>1000</v>
       </c>
       <c r="Q524" t="n">
         <v>1</v>
@@ -38153,33 +38153,33 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J525" t="n">
-        <v>2500</v>
+        <v>900</v>
       </c>
       <c r="K525" t="n">
-        <v>400</v>
+        <v>1800</v>
       </c>
       <c r="L525" t="n">
-        <v>400</v>
+        <v>1800</v>
       </c>
       <c r="M525" t="n">
-        <v>400</v>
+        <v>1800</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P525" t="n">
-        <v>400</v>
+        <v>1800</v>
       </c>
       <c r="Q525" t="n">
         <v>1</v>
@@ -38225,33 +38225,33 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="K526" t="n">
-        <v>300</v>
+        <v>4500</v>
       </c>
       <c r="L526" t="n">
-        <v>300</v>
+        <v>4500</v>
       </c>
       <c r="M526" t="n">
-        <v>300</v>
+        <v>4500</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O526" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P526" t="n">
-        <v>300</v>
+        <v>4500</v>
       </c>
       <c r="Q526" t="n">
         <v>1</v>
@@ -38297,33 +38297,33 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J527" t="n">
-        <v>1500</v>
+        <v>4200</v>
       </c>
       <c r="K527" t="n">
-        <v>2800</v>
+        <v>500</v>
       </c>
       <c r="L527" t="n">
-        <v>2800</v>
+        <v>500</v>
       </c>
       <c r="M527" t="n">
-        <v>2800</v>
+        <v>500</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P527" t="n">
-        <v>2800</v>
+        <v>500</v>
       </c>
       <c r="Q527" t="n">
         <v>1</v>
@@ -38369,24 +38369,24 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J528" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="K528" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="L528" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="M528" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O528" t="inlineStr">
@@ -38395,7 +38395,7 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="Q528" t="n">
         <v>1</v>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -38441,20 +38441,20 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J529" t="n">
-        <v>4700</v>
+        <v>3500</v>
       </c>
       <c r="K529" t="n">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="L529" t="n">
-        <v>2300</v>
+        <v>3600</v>
       </c>
       <c r="M529" t="n">
-        <v>2160</v>
+        <v>3600</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38463,11 +38463,11 @@
       </c>
       <c r="O529" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P529" t="n">
-        <v>2160</v>
+        <v>3600</v>
       </c>
       <c r="Q529" t="n">
         <v>1</v>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -38517,16 +38517,16 @@
         </is>
       </c>
       <c r="J530" t="n">
-        <v>7500</v>
+        <v>2200</v>
       </c>
       <c r="K530" t="n">
-        <v>1600</v>
+        <v>3800</v>
       </c>
       <c r="L530" t="n">
-        <v>1800</v>
+        <v>3800</v>
       </c>
       <c r="M530" t="n">
-        <v>1712</v>
+        <v>3800</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38539,7 +38539,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>1712</v>
+        <v>3800</v>
       </c>
       <c r="Q530" t="n">
         <v>1</v>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -38589,29 +38589,29 @@
         </is>
       </c>
       <c r="J531" t="n">
-        <v>4600</v>
+        <v>2500</v>
       </c>
       <c r="K531" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="L531" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="M531" t="n">
-        <v>1326</v>
+        <v>400</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O531" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P531" t="n">
-        <v>1326</v>
+        <v>400</v>
       </c>
       <c r="Q531" t="n">
         <v>1</v>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -38657,24 +38657,24 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>5800</v>
+        <v>1000</v>
       </c>
       <c r="K532" t="n">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="L532" t="n">
-        <v>2800</v>
+        <v>300</v>
       </c>
       <c r="M532" t="n">
-        <v>2671</v>
+        <v>300</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O532" t="inlineStr">
@@ -38683,7 +38683,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>2671</v>
+        <v>300</v>
       </c>
       <c r="Q532" t="n">
         <v>1</v>
@@ -38709,7 +38709,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -38729,20 +38729,20 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="K533" t="n">
-        <v>800</v>
+        <v>2800</v>
       </c>
       <c r="L533" t="n">
-        <v>900</v>
+        <v>2800</v>
       </c>
       <c r="M533" t="n">
-        <v>861</v>
+        <v>2800</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>861</v>
+        <v>2800</v>
       </c>
       <c r="Q533" t="n">
         <v>1</v>
@@ -38781,7 +38781,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44495</v>
+        <v>44166</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -38801,33 +38801,33 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>8100</v>
+        <v>1000</v>
       </c>
       <c r="K534" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="L534" t="n">
-        <v>550</v>
+        <v>2000</v>
       </c>
       <c r="M534" t="n">
-        <v>522</v>
+        <v>2000</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O534" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P534" t="n">
-        <v>522</v>
+        <v>2000</v>
       </c>
       <c r="Q534" t="n">
         <v>1</v>
@@ -38853,7 +38853,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -38877,16 +38877,16 @@
         </is>
       </c>
       <c r="J535" t="n">
-        <v>4000</v>
+        <v>4700</v>
       </c>
       <c r="K535" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="L535" t="n">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="M535" t="n">
-        <v>2025</v>
+        <v>2160</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38895,11 +38895,11 @@
       </c>
       <c r="O535" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P535" t="n">
-        <v>2025</v>
+        <v>2160</v>
       </c>
       <c r="Q535" t="n">
         <v>1</v>
@@ -38925,7 +38925,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -38945,20 +38945,20 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>3700</v>
+        <v>7500</v>
       </c>
       <c r="K536" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="L536" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="M536" t="n">
-        <v>2092</v>
+        <v>1712</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38971,7 +38971,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>2092</v>
+        <v>1712</v>
       </c>
       <c r="Q536" t="n">
         <v>1</v>
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -39017,20 +39017,20 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J537" t="n">
-        <v>6500</v>
+        <v>4600</v>
       </c>
       <c r="K537" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L537" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="M537" t="n">
-        <v>1608</v>
+        <v>1326</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
@@ -39039,11 +39039,11 @@
       </c>
       <c r="O537" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P537" t="n">
-        <v>1608</v>
+        <v>1326</v>
       </c>
       <c r="Q537" t="n">
         <v>1</v>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -39089,20 +39089,20 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>6400</v>
+        <v>5800</v>
       </c>
       <c r="K538" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="L538" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="M538" t="n">
-        <v>1691</v>
+        <v>2671</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>1691</v>
+        <v>2671</v>
       </c>
       <c r="Q538" t="n">
         <v>1</v>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44232</v>
+        <v>44225</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -39161,20 +39161,20 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>4400</v>
+        <v>3600</v>
       </c>
       <c r="K539" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="L539" t="n">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="M539" t="n">
-        <v>1286</v>
+        <v>861</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>1286</v>
+        <v>861</v>
       </c>
       <c r="Q539" t="n">
         <v>1</v>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -39233,33 +39233,33 @@
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J540" t="n">
-        <v>6000</v>
+        <v>8100</v>
       </c>
       <c r="K540" t="n">
-        <v>2300</v>
+        <v>500</v>
       </c>
       <c r="L540" t="n">
-        <v>2500</v>
+        <v>550</v>
       </c>
       <c r="M540" t="n">
-        <v>2410</v>
+        <v>522</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O540" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P540" t="n">
-        <v>2410</v>
+        <v>522</v>
       </c>
       <c r="Q540" t="n">
         <v>1</v>
@@ -39305,20 +39305,20 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J541" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="K541" t="n">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="L541" t="n">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="M541" t="n">
-        <v>2487</v>
+        <v>2025</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
@@ -39327,11 +39327,11 @@
       </c>
       <c r="O541" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P541" t="n">
-        <v>2487</v>
+        <v>2025</v>
       </c>
       <c r="Q541" t="n">
         <v>1</v>
@@ -39377,20 +39377,20 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J542" t="n">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="K542" t="n">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="L542" t="n">
-        <v>1100</v>
+        <v>2200</v>
       </c>
       <c r="M542" t="n">
-        <v>1010</v>
+        <v>2092</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>1010</v>
+        <v>2092</v>
       </c>
       <c r="Q542" t="n">
         <v>1</v>
@@ -39429,7 +39429,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44510</v>
+        <v>44232</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -39453,29 +39453,29 @@
         </is>
       </c>
       <c r="J543" t="n">
-        <v>6200</v>
+        <v>6500</v>
       </c>
       <c r="K543" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="L543" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="M543" t="n">
-        <v>772</v>
+        <v>1608</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O543" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P543" t="n">
-        <v>772</v>
+        <v>1608</v>
       </c>
       <c r="Q543" t="n">
         <v>1</v>
@@ -39501,7 +39501,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44510</v>
+        <v>44232</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -39521,33 +39521,33 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>2600</v>
+        <v>6400</v>
       </c>
       <c r="K544" t="n">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="L544" t="n">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="M544" t="n">
-        <v>600</v>
+        <v>1691</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O544" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P544" t="n">
-        <v>600</v>
+        <v>1691</v>
       </c>
       <c r="Q544" t="n">
         <v>1</v>
@@ -39573,7 +39573,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -39593,33 +39593,33 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J545" t="n">
-        <v>2300</v>
+        <v>4400</v>
       </c>
       <c r="K545" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="L545" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="M545" t="n">
-        <v>600</v>
+        <v>1286</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O545" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P545" t="n">
-        <v>600</v>
+        <v>1286</v>
       </c>
       <c r="Q545" t="n">
         <v>1</v>
@@ -39645,7 +39645,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -39665,33 +39665,33 @@
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J546" t="n">
-        <v>4800</v>
+        <v>6000</v>
       </c>
       <c r="K546" t="n">
-        <v>550</v>
+        <v>2300</v>
       </c>
       <c r="L546" t="n">
-        <v>550</v>
+        <v>2500</v>
       </c>
       <c r="M546" t="n">
-        <v>550</v>
+        <v>2410</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O546" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P546" t="n">
-        <v>550</v>
+        <v>2410</v>
       </c>
       <c r="Q546" t="n">
         <v>1</v>
@@ -39717,7 +39717,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -39737,24 +39737,24 @@
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J547" t="n">
-        <v>1800</v>
+        <v>5500</v>
       </c>
       <c r="K547" t="n">
-        <v>600</v>
+        <v>2400</v>
       </c>
       <c r="L547" t="n">
-        <v>600</v>
+        <v>2600</v>
       </c>
       <c r="M547" t="n">
-        <v>600</v>
+        <v>2487</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O547" t="inlineStr">
@@ -39763,7 +39763,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>600</v>
+        <v>2487</v>
       </c>
       <c r="Q547" t="n">
         <v>1</v>
@@ -39789,7 +39789,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -39809,33 +39809,33 @@
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J548" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="K548" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="L548" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="M548" t="n">
-        <v>500</v>
+        <v>1010</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O548" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P548" t="n">
-        <v>500</v>
+        <v>1010</v>
       </c>
       <c r="Q548" t="n">
         <v>1</v>
@@ -39861,7 +39861,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -39881,20 +39881,20 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>3300</v>
+        <v>6200</v>
       </c>
       <c r="K549" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L549" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="M549" t="n">
-        <v>450</v>
+        <v>772</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39907,7 +39907,7 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>450</v>
+        <v>772</v>
       </c>
       <c r="Q549" t="n">
         <v>1</v>
@@ -39933,7 +39933,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -39957,16 +39957,16 @@
         </is>
       </c>
       <c r="J550" t="n">
+        <v>2600</v>
+      </c>
+      <c r="K550" t="n">
         <v>600</v>
       </c>
-      <c r="K550" t="n">
-        <v>500</v>
-      </c>
       <c r="L550" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M550" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39975,11 +39975,11 @@
       </c>
       <c r="O550" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P550" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q550" t="n">
         <v>1</v>
@@ -40005,7 +40005,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -40025,33 +40025,33 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="K551" t="n">
-        <v>2200</v>
+        <v>600</v>
       </c>
       <c r="L551" t="n">
-        <v>2200</v>
+        <v>600</v>
       </c>
       <c r="M551" t="n">
-        <v>2200</v>
+        <v>600</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O551" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P551" t="n">
-        <v>2200</v>
+        <v>600</v>
       </c>
       <c r="Q551" t="n">
         <v>1</v>
@@ -40077,7 +40077,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -40097,33 +40097,33 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>5700</v>
+        <v>4800</v>
       </c>
       <c r="K552" t="n">
-        <v>2100</v>
+        <v>550</v>
       </c>
       <c r="L552" t="n">
-        <v>2500</v>
+        <v>550</v>
       </c>
       <c r="M552" t="n">
-        <v>2346</v>
+        <v>550</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O552" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P552" t="n">
-        <v>2346</v>
+        <v>550</v>
       </c>
       <c r="Q552" t="n">
         <v>1</v>
@@ -40149,7 +40149,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -40173,29 +40173,29 @@
         </is>
       </c>
       <c r="J553" t="n">
-        <v>3700</v>
+        <v>1800</v>
       </c>
       <c r="K553" t="n">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="L553" t="n">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="M553" t="n">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O553" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P553" t="n">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="Q553" t="n">
         <v>1</v>
@@ -40221,7 +40221,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -40241,33 +40241,33 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J554" t="n">
-        <v>7800</v>
+        <v>1500</v>
       </c>
       <c r="K554" t="n">
-        <v>1700</v>
+        <v>500</v>
       </c>
       <c r="L554" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="M554" t="n">
-        <v>1850</v>
+        <v>500</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O554" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P554" t="n">
-        <v>1850</v>
+        <v>500</v>
       </c>
       <c r="Q554" t="n">
         <v>1</v>
@@ -40293,7 +40293,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -40317,29 +40317,29 @@
         </is>
       </c>
       <c r="J555" t="n">
-        <v>3900</v>
+        <v>3300</v>
       </c>
       <c r="K555" t="n">
-        <v>1300</v>
+        <v>450</v>
       </c>
       <c r="L555" t="n">
-        <v>1600</v>
+        <v>450</v>
       </c>
       <c r="M555" t="n">
-        <v>1446</v>
+        <v>450</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O555" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P555" t="n">
-        <v>1446</v>
+        <v>450</v>
       </c>
       <c r="Q555" t="n">
         <v>1</v>
@@ -40365,7 +40365,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -40385,33 +40385,33 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J556" t="n">
-        <v>3300</v>
+        <v>600</v>
       </c>
       <c r="K556" t="n">
-        <v>2700</v>
+        <v>500</v>
       </c>
       <c r="L556" t="n">
-        <v>2700</v>
+        <v>500</v>
       </c>
       <c r="M556" t="n">
-        <v>2700</v>
+        <v>500</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O556" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P556" t="n">
-        <v>2700</v>
+        <v>500</v>
       </c>
       <c r="Q556" t="n">
         <v>1</v>
@@ -40457,20 +40457,20 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J557" t="n">
-        <v>5900</v>
+        <v>2800</v>
       </c>
       <c r="K557" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="L557" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="M557" t="n">
-        <v>2688</v>
+        <v>2200</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40479,11 +40479,11 @@
       </c>
       <c r="O557" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P557" t="n">
-        <v>2688</v>
+        <v>2200</v>
       </c>
       <c r="Q557" t="n">
         <v>1</v>
@@ -40529,20 +40529,20 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J558" t="n">
-        <v>3900</v>
+        <v>5700</v>
       </c>
       <c r="K558" t="n">
-        <v>1000</v>
+        <v>2100</v>
       </c>
       <c r="L558" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="M558" t="n">
-        <v>1113</v>
+        <v>2346</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>1113</v>
+        <v>2346</v>
       </c>
       <c r="Q558" t="n">
         <v>1</v>
@@ -40581,7 +40581,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -40601,20 +40601,20 @@
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J559" t="n">
-        <v>4800</v>
+        <v>3700</v>
       </c>
       <c r="K559" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L559" t="n">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="M559" t="n">
-        <v>2156</v>
+        <v>1800</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40623,11 +40623,11 @@
       </c>
       <c r="O559" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P559" t="n">
-        <v>2156</v>
+        <v>1800</v>
       </c>
       <c r="Q559" t="n">
         <v>1</v>
@@ -40653,7 +40653,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -40677,16 +40677,16 @@
         </is>
       </c>
       <c r="J560" t="n">
-        <v>6100</v>
+        <v>7800</v>
       </c>
       <c r="K560" t="n">
         <v>1700</v>
       </c>
       <c r="L560" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="M560" t="n">
-        <v>1795</v>
+        <v>1850</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40699,7 +40699,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>1795</v>
+        <v>1850</v>
       </c>
       <c r="Q560" t="n">
         <v>1</v>
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -40749,7 +40749,7 @@
         </is>
       </c>
       <c r="J561" t="n">
-        <v>3100</v>
+        <v>3900</v>
       </c>
       <c r="K561" t="n">
         <v>1300</v>
@@ -40758,7 +40758,7 @@
         <v>1600</v>
       </c>
       <c r="M561" t="n">
-        <v>1465</v>
+        <v>1446</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>1465</v>
+        <v>1446</v>
       </c>
       <c r="Q561" t="n">
         <v>1</v>
@@ -40797,7 +40797,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -40821,16 +40821,16 @@
         </is>
       </c>
       <c r="J562" t="n">
-        <v>5100</v>
+        <v>3300</v>
       </c>
       <c r="K562" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="L562" t="n">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="M562" t="n">
-        <v>2529</v>
+        <v>2700</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40839,11 +40839,11 @@
       </c>
       <c r="O562" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P562" t="n">
-        <v>2529</v>
+        <v>2700</v>
       </c>
       <c r="Q562" t="n">
         <v>1</v>
@@ -40869,7 +40869,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -40889,20 +40889,20 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J563" t="n">
+        <v>5900</v>
+      </c>
+      <c r="K563" t="n">
         <v>2600</v>
       </c>
-      <c r="K563" t="n">
-        <v>1000</v>
-      </c>
       <c r="L563" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="M563" t="n">
-        <v>1115</v>
+        <v>2688</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>1115</v>
+        <v>2688</v>
       </c>
       <c r="Q563" t="n">
         <v>1</v>
@@ -40941,7 +40941,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44251</v>
+        <v>44238</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -40961,20 +40961,20 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J564" t="n">
-        <v>1100</v>
+        <v>3900</v>
       </c>
       <c r="K564" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L564" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="M564" t="n">
-        <v>800</v>
+        <v>1113</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40987,7 +40987,7 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>800</v>
+        <v>1113</v>
       </c>
       <c r="Q564" t="n">
         <v>1</v>
@@ -41013,7 +41013,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -41037,7 +41037,7 @@
         </is>
       </c>
       <c r="J565" t="n">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="K565" t="n">
         <v>2000</v>
@@ -41046,7 +41046,7 @@
         <v>2300</v>
       </c>
       <c r="M565" t="n">
-        <v>2124</v>
+        <v>2156</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         </is>
       </c>
       <c r="P565" t="n">
-        <v>2124</v>
+        <v>2156</v>
       </c>
       <c r="Q565" t="n">
         <v>1</v>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -41109,7 +41109,7 @@
         </is>
       </c>
       <c r="J566" t="n">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="K566" t="n">
         <v>1700</v>
@@ -41118,7 +41118,7 @@
         <v>1900</v>
       </c>
       <c r="M566" t="n">
-        <v>1783</v>
+        <v>1795</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41131,7 +41131,7 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>1783</v>
+        <v>1795</v>
       </c>
       <c r="Q566" t="n">
         <v>1</v>
@@ -41157,7 +41157,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -41181,7 +41181,7 @@
         </is>
       </c>
       <c r="J567" t="n">
-        <v>3600</v>
+        <v>3100</v>
       </c>
       <c r="K567" t="n">
         <v>1300</v>
@@ -41190,7 +41190,7 @@
         <v>1600</v>
       </c>
       <c r="M567" t="n">
-        <v>1417</v>
+        <v>1465</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>1417</v>
+        <v>1465</v>
       </c>
       <c r="Q567" t="n">
         <v>1</v>
@@ -41229,7 +41229,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -41253,13 +41253,13 @@
         </is>
       </c>
       <c r="J568" t="n">
-        <v>3500</v>
+        <v>5100</v>
       </c>
       <c r="K568" t="n">
         <v>2400</v>
       </c>
       <c r="L568" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="M568" t="n">
         <v>2529</v>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -41325,7 +41325,7 @@
         </is>
       </c>
       <c r="J569" t="n">
-        <v>4200</v>
+        <v>2600</v>
       </c>
       <c r="K569" t="n">
         <v>1000</v>
@@ -41334,7 +41334,7 @@
         <v>1200</v>
       </c>
       <c r="M569" t="n">
-        <v>1086</v>
+        <v>1115</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
         </is>
       </c>
       <c r="P569" t="n">
-        <v>1086</v>
+        <v>1115</v>
       </c>
       <c r="Q569" t="n">
         <v>1</v>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44515</v>
+        <v>44251</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -41393,33 +41393,33 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J570" t="n">
-        <v>8500</v>
+        <v>1100</v>
       </c>
       <c r="K570" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L570" t="n">
         <v>800</v>
       </c>
       <c r="M570" t="n">
-        <v>773</v>
+        <v>800</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O570" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P570" t="n">
-        <v>773</v>
+        <v>800</v>
       </c>
       <c r="Q570" t="n">
         <v>1</v>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44515</v>
+        <v>44251</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -41465,33 +41465,33 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>2500</v>
+        <v>4600</v>
       </c>
       <c r="K571" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="L571" t="n">
-        <v>600</v>
+        <v>2300</v>
       </c>
       <c r="M571" t="n">
-        <v>600</v>
+        <v>2124</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O571" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P571" t="n">
-        <v>600</v>
+        <v>2124</v>
       </c>
       <c r="Q571" t="n">
         <v>1</v>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -41537,20 +41537,20 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>2200</v>
+        <v>6000</v>
       </c>
       <c r="K572" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="L572" t="n">
-        <v>1000</v>
+        <v>1900</v>
       </c>
       <c r="M572" t="n">
-        <v>1000</v>
+        <v>1783</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41559,11 +41559,11 @@
       </c>
       <c r="O572" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P572" t="n">
-        <v>1000</v>
+        <v>1783</v>
       </c>
       <c r="Q572" t="n">
         <v>1</v>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -41609,20 +41609,20 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>2800</v>
+        <v>3600</v>
       </c>
       <c r="K573" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L573" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="M573" t="n">
-        <v>3000</v>
+        <v>1417</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41631,11 +41631,11 @@
       </c>
       <c r="O573" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P573" t="n">
-        <v>3000</v>
+        <v>1417</v>
       </c>
       <c r="Q573" t="n">
         <v>1</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -41681,20 +41681,20 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>6300</v>
+        <v>3500</v>
       </c>
       <c r="K574" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L574" t="n">
-        <v>3300</v>
+        <v>2700</v>
       </c>
       <c r="M574" t="n">
-        <v>3119</v>
+        <v>2529</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41703,11 +41703,11 @@
       </c>
       <c r="O574" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P574" t="n">
-        <v>3119</v>
+        <v>2529</v>
       </c>
       <c r="Q574" t="n">
         <v>1</v>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44181</v>
+        <v>44251</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -41753,20 +41753,20 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>1900</v>
+        <v>4200</v>
       </c>
       <c r="K575" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="L575" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="M575" t="n">
-        <v>2500</v>
+        <v>1086</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41775,11 +41775,11 @@
       </c>
       <c r="O575" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P575" t="n">
-        <v>2500</v>
+        <v>1086</v>
       </c>
       <c r="Q575" t="n">
         <v>1</v>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44181</v>
+        <v>44515</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -41829,29 +41829,29 @@
         </is>
       </c>
       <c r="J576" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="K576" t="n">
-        <v>2500</v>
+        <v>750</v>
       </c>
       <c r="L576" t="n">
-        <v>2700</v>
+        <v>800</v>
       </c>
       <c r="M576" t="n">
-        <v>2592</v>
+        <v>773</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O576" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P576" t="n">
-        <v>2592</v>
+        <v>773</v>
       </c>
       <c r="Q576" t="n">
         <v>1</v>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44181</v>
+        <v>44515</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -41901,29 +41901,29 @@
         </is>
       </c>
       <c r="J577" t="n">
-        <v>4900</v>
+        <v>2500</v>
       </c>
       <c r="K577" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="L577" t="n">
-        <v>2300</v>
+        <v>600</v>
       </c>
       <c r="M577" t="n">
-        <v>2208</v>
+        <v>600</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O577" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P577" t="n">
-        <v>2208</v>
+        <v>600</v>
       </c>
       <c r="Q577" t="n">
         <v>1</v>
@@ -41969,20 +41969,20 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K578" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="L578" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="M578" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41991,11 +41991,11 @@
       </c>
       <c r="O578" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P578" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="Q578" t="n">
         <v>1</v>
@@ -42041,20 +42041,20 @@
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>6000</v>
+        <v>2800</v>
       </c>
       <c r="K579" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L579" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="M579" t="n">
-        <v>3635</v>
+        <v>3000</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42063,11 +42063,11 @@
       </c>
       <c r="O579" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P579" t="n">
-        <v>3635</v>
+        <v>3000</v>
       </c>
       <c r="Q579" t="n">
         <v>1</v>
@@ -42113,20 +42113,20 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J580" t="n">
-        <v>4000</v>
+        <v>6300</v>
       </c>
       <c r="K580" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="L580" t="n">
-        <v>1800</v>
+        <v>3300</v>
       </c>
       <c r="M580" t="n">
-        <v>1672</v>
+        <v>3119</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42139,7 +42139,7 @@
         </is>
       </c>
       <c r="P580" t="n">
-        <v>1672</v>
+        <v>3119</v>
       </c>
       <c r="Q580" t="n">
         <v>1</v>
@@ -42165,7 +42165,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -42185,20 +42185,20 @@
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J581" t="n">
+        <v>1900</v>
+      </c>
+      <c r="K581" t="n">
         <v>2500</v>
       </c>
-      <c r="K581" t="n">
-        <v>800</v>
-      </c>
       <c r="L581" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M581" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42207,11 +42207,11 @@
       </c>
       <c r="O581" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P581" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="Q581" t="n">
         <v>1</v>
@@ -42237,7 +42237,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -42257,20 +42257,20 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J582" t="n">
-        <v>2400</v>
+        <v>6500</v>
       </c>
       <c r="K582" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L582" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="M582" t="n">
-        <v>3000</v>
+        <v>2592</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42279,11 +42279,11 @@
       </c>
       <c r="O582" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P582" t="n">
-        <v>3000</v>
+        <v>2592</v>
       </c>
       <c r="Q582" t="n">
         <v>1</v>
@@ -42309,7 +42309,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -42329,20 +42329,20 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J583" t="n">
         <v>4900</v>
       </c>
       <c r="K583" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L583" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="M583" t="n">
-        <v>2641</v>
+        <v>2208</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42351,11 +42351,11 @@
       </c>
       <c r="O583" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P583" t="n">
-        <v>2641</v>
+        <v>2208</v>
       </c>
       <c r="Q583" t="n">
         <v>1</v>
@@ -42381,7 +42381,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -42401,20 +42401,20 @@
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J584" t="n">
-        <v>3300</v>
+        <v>2400</v>
       </c>
       <c r="K584" t="n">
-        <v>2400</v>
+        <v>3500</v>
       </c>
       <c r="L584" t="n">
-        <v>2400</v>
+        <v>3500</v>
       </c>
       <c r="M584" t="n">
-        <v>2400</v>
+        <v>3500</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42427,7 +42427,7 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>2400</v>
+        <v>3500</v>
       </c>
       <c r="Q584" t="n">
         <v>1</v>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -42473,20 +42473,20 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J585" t="n">
-        <v>8700</v>
+        <v>6000</v>
       </c>
       <c r="K585" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L585" t="n">
-        <v>2300</v>
+        <v>3800</v>
       </c>
       <c r="M585" t="n">
-        <v>2134</v>
+        <v>3635</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42495,11 +42495,11 @@
       </c>
       <c r="O585" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P585" t="n">
-        <v>2134</v>
+        <v>3635</v>
       </c>
       <c r="Q585" t="n">
         <v>1</v>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -42545,20 +42545,20 @@
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J586" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="K586" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="L586" t="n">
         <v>1800</v>
       </c>
       <c r="M586" t="n">
-        <v>1800</v>
+        <v>1672</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42567,11 +42567,11 @@
       </c>
       <c r="O586" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P586" t="n">
-        <v>1800</v>
+        <v>1672</v>
       </c>
       <c r="Q586" t="n">
         <v>1</v>
@@ -42617,20 +42617,20 @@
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J587" t="n">
-        <v>3600</v>
+        <v>2500</v>
       </c>
       <c r="K587" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="L587" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="M587" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42639,11 +42639,11 @@
       </c>
       <c r="O587" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P587" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="Q587" t="n">
         <v>1</v>
@@ -42689,20 +42689,20 @@
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J588" t="n">
-        <v>8000</v>
+        <v>2400</v>
       </c>
       <c r="K588" t="n">
         <v>3000</v>
       </c>
       <c r="L588" t="n">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="M588" t="n">
-        <v>3131</v>
+        <v>3000</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42711,11 +42711,11 @@
       </c>
       <c r="O588" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P588" t="n">
-        <v>3131</v>
+        <v>3000</v>
       </c>
       <c r="Q588" t="n">
         <v>1</v>
@@ -42761,20 +42761,20 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J589" t="n">
-        <v>3800</v>
+        <v>4900</v>
       </c>
       <c r="K589" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="L589" t="n">
-        <v>1300</v>
+        <v>2800</v>
       </c>
       <c r="M589" t="n">
-        <v>1174</v>
+        <v>2641</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42787,7 +42787,7 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>1174</v>
+        <v>2641</v>
       </c>
       <c r="Q589" t="n">
         <v>1</v>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -42833,20 +42833,20 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J590" t="n">
-        <v>1400</v>
+        <v>3300</v>
       </c>
       <c r="K590" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="L590" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="M590" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42855,11 +42855,11 @@
       </c>
       <c r="O590" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P590" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="Q590" t="n">
         <v>1</v>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -42905,20 +42905,20 @@
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>1700</v>
+        <v>8700</v>
       </c>
       <c r="K591" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="L591" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="M591" t="n">
-        <v>2400</v>
+        <v>2134</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42927,11 +42927,11 @@
       </c>
       <c r="O591" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P591" t="n">
-        <v>2400</v>
+        <v>2134</v>
       </c>
       <c r="Q591" t="n">
         <v>1</v>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -42977,20 +42977,20 @@
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J592" t="n">
-        <v>2800</v>
+        <v>5000</v>
       </c>
       <c r="K592" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L592" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="M592" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -42999,11 +42999,11 @@
       </c>
       <c r="O592" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P592" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="Q592" t="n">
         <v>1</v>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -43049,20 +43049,20 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J593" t="n">
-        <v>2500</v>
+        <v>3600</v>
       </c>
       <c r="K593" t="n">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="L593" t="n">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="M593" t="n">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43071,11 +43071,11 @@
       </c>
       <c r="O593" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P593" t="n">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="Q593" t="n">
         <v>1</v>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -43121,20 +43121,20 @@
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J594" t="n">
-        <v>2200</v>
+        <v>8000</v>
       </c>
       <c r="K594" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="L594" t="n">
-        <v>1300</v>
+        <v>3300</v>
       </c>
       <c r="M594" t="n">
-        <v>1300</v>
+        <v>3131</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43143,11 +43143,11 @@
       </c>
       <c r="O594" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P594" t="n">
-        <v>1300</v>
+        <v>3131</v>
       </c>
       <c r="Q594" t="n">
         <v>1</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44508</v>
+        <v>44194</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -43193,33 +43193,33 @@
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>4500</v>
+        <v>3800</v>
       </c>
       <c r="K595" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="L595" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="M595" t="n">
-        <v>671</v>
+        <v>1174</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O595" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P595" t="n">
-        <v>671</v>
+        <v>1174</v>
       </c>
       <c r="Q595" t="n">
         <v>1</v>
@@ -43245,7 +43245,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44201</v>
+        <v>44271</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -43269,16 +43269,16 @@
         </is>
       </c>
       <c r="J596" t="n">
-        <v>3100</v>
+        <v>1400</v>
       </c>
       <c r="K596" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L596" t="n">
         <v>800</v>
       </c>
       <c r="M596" t="n">
-        <v>755</v>
+        <v>800</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43287,11 +43287,11 @@
       </c>
       <c r="O596" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P596" t="n">
-        <v>755</v>
+        <v>800</v>
       </c>
       <c r="Q596" t="n">
         <v>1</v>
@@ -43317,7 +43317,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44201</v>
+        <v>44271</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -43341,16 +43341,16 @@
         </is>
       </c>
       <c r="J597" t="n">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="K597" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L597" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M597" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
@@ -43359,11 +43359,11 @@
       </c>
       <c r="O597" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P597" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="Q597" t="n">
         <v>1</v>
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44201</v>
+        <v>44271</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -43409,20 +43409,20 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J598" t="n">
-        <v>5700</v>
+        <v>2800</v>
       </c>
       <c r="K598" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="L598" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M598" t="n">
-        <v>2684</v>
+        <v>2000</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43431,11 +43431,11 @@
       </c>
       <c r="O598" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P598" t="n">
-        <v>2684</v>
+        <v>2000</v>
       </c>
       <c r="Q598" t="n">
         <v>1</v>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44201</v>
+        <v>44271</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -43481,20 +43481,20 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J599" t="n">
-        <v>3300</v>
+        <v>2500</v>
       </c>
       <c r="K599" t="n">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="L599" t="n">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="M599" t="n">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43503,11 +43503,11 @@
       </c>
       <c r="O599" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P599" t="n">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="Q599" t="n">
         <v>1</v>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44201</v>
+        <v>44271</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -43553,20 +43553,20 @@
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J600" t="n">
-        <v>8200</v>
+        <v>2200</v>
       </c>
       <c r="K600" t="n">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="L600" t="n">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="M600" t="n">
-        <v>2228</v>
+        <v>1300</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
@@ -43575,11 +43575,11 @@
       </c>
       <c r="O600" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P600" t="n">
-        <v>2228</v>
+        <v>1300</v>
       </c>
       <c r="Q600" t="n">
         <v>1</v>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -43625,33 +43625,33 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>5100</v>
+        <v>4500</v>
       </c>
       <c r="K601" t="n">
-        <v>1600</v>
+        <v>650</v>
       </c>
       <c r="L601" t="n">
-        <v>1900</v>
+        <v>700</v>
       </c>
       <c r="M601" t="n">
-        <v>1729</v>
+        <v>671</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O601" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P601" t="n">
-        <v>1729</v>
+        <v>671</v>
       </c>
       <c r="Q601" t="n">
         <v>1</v>
@@ -43697,20 +43697,20 @@
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J602" t="n">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="K602" t="n">
-        <v>3500</v>
+        <v>700</v>
       </c>
       <c r="L602" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="M602" t="n">
-        <v>3500</v>
+        <v>755</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43719,11 +43719,11 @@
       </c>
       <c r="O602" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P602" t="n">
-        <v>3500</v>
+        <v>755</v>
       </c>
       <c r="Q602" t="n">
         <v>1</v>
@@ -43769,20 +43769,20 @@
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J603" t="n">
-        <v>7700</v>
+        <v>2200</v>
       </c>
       <c r="K603" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="L603" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M603" t="n">
-        <v>3329</v>
+        <v>3000</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43791,11 +43791,11 @@
       </c>
       <c r="O603" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P603" t="n">
-        <v>3329</v>
+        <v>3000</v>
       </c>
       <c r="Q603" t="n">
         <v>1</v>
@@ -43841,38 +43841,470 @@
       </c>
       <c r="I604" t="inlineStr">
         <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J604" t="n">
+        <v>5700</v>
+      </c>
+      <c r="K604" t="n">
+        <v>2600</v>
+      </c>
+      <c r="L604" t="n">
+        <v>2800</v>
+      </c>
+      <c r="M604" t="n">
+        <v>2684</v>
+      </c>
+      <c r="N604" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O604" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P604" t="n">
+        <v>2684</v>
+      </c>
+      <c r="Q604" t="n">
+        <v>1</v>
+      </c>
+      <c r="R604" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>6</v>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D605" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E605" t="n">
+        <v>13</v>
+      </c>
+      <c r="F605" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I605" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J605" t="n">
+        <v>3300</v>
+      </c>
+      <c r="K605" t="n">
+        <v>2400</v>
+      </c>
+      <c r="L605" t="n">
+        <v>2400</v>
+      </c>
+      <c r="M605" t="n">
+        <v>2400</v>
+      </c>
+      <c r="N605" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O605" t="inlineStr">
+        <is>
+          <t>Paine</t>
+        </is>
+      </c>
+      <c r="P605" t="n">
+        <v>2400</v>
+      </c>
+      <c r="Q605" t="n">
+        <v>1</v>
+      </c>
+      <c r="R605" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>6</v>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D606" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E606" t="n">
+        <v>13</v>
+      </c>
+      <c r="F606" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I606" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J606" t="n">
+        <v>8200</v>
+      </c>
+      <c r="K606" t="n">
+        <v>2100</v>
+      </c>
+      <c r="L606" t="n">
+        <v>2400</v>
+      </c>
+      <c r="M606" t="n">
+        <v>2228</v>
+      </c>
+      <c r="N606" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O606" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P606" t="n">
+        <v>2228</v>
+      </c>
+      <c r="Q606" t="n">
+        <v>1</v>
+      </c>
+      <c r="R606" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n">
+        <v>6</v>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D607" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E607" t="n">
+        <v>13</v>
+      </c>
+      <c r="F607" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I607" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J607" t="n">
+        <v>5100</v>
+      </c>
+      <c r="K607" t="n">
+        <v>1600</v>
+      </c>
+      <c r="L607" t="n">
+        <v>1900</v>
+      </c>
+      <c r="M607" t="n">
+        <v>1729</v>
+      </c>
+      <c r="N607" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O607" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P607" t="n">
+        <v>1729</v>
+      </c>
+      <c r="Q607" t="n">
+        <v>1</v>
+      </c>
+      <c r="R607" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n">
+        <v>6</v>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D608" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E608" t="n">
+        <v>13</v>
+      </c>
+      <c r="F608" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I608" t="inlineStr">
+        <is>
+          <t>Super</t>
+        </is>
+      </c>
+      <c r="J608" t="n">
+        <v>2900</v>
+      </c>
+      <c r="K608" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L608" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M608" t="n">
+        <v>3500</v>
+      </c>
+      <c r="N608" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O608" t="inlineStr">
+        <is>
+          <t>Paine</t>
+        </is>
+      </c>
+      <c r="P608" t="n">
+        <v>3500</v>
+      </c>
+      <c r="Q608" t="n">
+        <v>1</v>
+      </c>
+      <c r="R608" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>6</v>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D609" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E609" t="n">
+        <v>13</v>
+      </c>
+      <c r="F609" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I609" t="inlineStr">
+        <is>
+          <t>Super</t>
+        </is>
+      </c>
+      <c r="J609" t="n">
+        <v>7700</v>
+      </c>
+      <c r="K609" t="n">
+        <v>3200</v>
+      </c>
+      <c r="L609" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M609" t="n">
+        <v>3329</v>
+      </c>
+      <c r="N609" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O609" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P609" t="n">
+        <v>3329</v>
+      </c>
+      <c r="Q609" t="n">
+        <v>1</v>
+      </c>
+      <c r="R609" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>6</v>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D610" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E610" t="n">
+        <v>13</v>
+      </c>
+      <c r="F610" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I610" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J604" t="n">
+      <c r="J610" t="n">
         <v>4200</v>
       </c>
-      <c r="K604" t="n">
+      <c r="K610" t="n">
         <v>1100</v>
       </c>
-      <c r="L604" t="n">
+      <c r="L610" t="n">
         <v>1400</v>
       </c>
-      <c r="M604" t="n">
+      <c r="M610" t="n">
         <v>1279</v>
       </c>
-      <c r="N604" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O604" t="inlineStr">
+      <c r="N610" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O610" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P604" t="n">
+      <c r="P610" t="n">
         <v>1279</v>
       </c>
-      <c r="Q604" t="n">
-        <v>1</v>
-      </c>
-      <c r="R604" t="inlineStr">
+      <c r="Q610" t="n">
+        <v>1</v>
+      </c>
+      <c r="R610" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R653"/>
+  <dimension ref="A1:R658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38061,7 +38061,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44278</v>
+        <v>44543</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -38081,20 +38081,20 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J524" t="n">
-        <v>1300</v>
+        <v>5700</v>
       </c>
       <c r="K524" t="n">
-        <v>700</v>
+        <v>3500</v>
       </c>
       <c r="L524" t="n">
-        <v>700</v>
+        <v>3800</v>
       </c>
       <c r="M524" t="n">
-        <v>700</v>
+        <v>3626</v>
       </c>
       <c r="N524" t="inlineStr">
         <is>
@@ -38103,11 +38103,11 @@
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P524" t="n">
-        <v>700</v>
+        <v>3626</v>
       </c>
       <c r="Q524" t="n">
         <v>1</v>
@@ -38133,7 +38133,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44278</v>
+        <v>44543</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -38153,20 +38153,20 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J525" t="n">
-        <v>2200</v>
+        <v>9300</v>
       </c>
       <c r="K525" t="n">
-        <v>2300</v>
+        <v>2900</v>
       </c>
       <c r="L525" t="n">
-        <v>2300</v>
+        <v>3200</v>
       </c>
       <c r="M525" t="n">
-        <v>2300</v>
+        <v>3045</v>
       </c>
       <c r="N525" t="inlineStr">
         <is>
@@ -38175,11 +38175,11 @@
       </c>
       <c r="O525" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P525" t="n">
-        <v>2300</v>
+        <v>3045</v>
       </c>
       <c r="Q525" t="n">
         <v>1</v>
@@ -38205,7 +38205,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44278</v>
+        <v>44543</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -38225,20 +38225,20 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J526" t="n">
-        <v>3500</v>
+        <v>4300</v>
       </c>
       <c r="K526" t="n">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="L526" t="n">
-        <v>1900</v>
+        <v>2700</v>
       </c>
       <c r="M526" t="n">
-        <v>1900</v>
+        <v>2505</v>
       </c>
       <c r="N526" t="inlineStr">
         <is>
@@ -38247,11 +38247,11 @@
       </c>
       <c r="O526" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P526" t="n">
-        <v>1900</v>
+        <v>2505</v>
       </c>
       <c r="Q526" t="n">
         <v>1</v>
@@ -38277,7 +38277,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44278</v>
+        <v>44543</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -38297,20 +38297,20 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J527" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="K527" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="L527" t="n">
-        <v>1500</v>
+        <v>4300</v>
       </c>
       <c r="M527" t="n">
-        <v>1500</v>
+        <v>4132</v>
       </c>
       <c r="N527" t="inlineStr">
         <is>
@@ -38319,11 +38319,11 @@
       </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P527" t="n">
-        <v>1500</v>
+        <v>4132</v>
       </c>
       <c r="Q527" t="n">
         <v>1</v>
@@ -38349,7 +38349,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44278</v>
+        <v>44543</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -38373,16 +38373,16 @@
         </is>
       </c>
       <c r="J528" t="n">
-        <v>1900</v>
+        <v>4500</v>
       </c>
       <c r="K528" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="L528" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="M528" t="n">
-        <v>1200</v>
+        <v>1769</v>
       </c>
       <c r="N528" t="inlineStr">
         <is>
@@ -38391,11 +38391,11 @@
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P528" t="n">
-        <v>1200</v>
+        <v>1769</v>
       </c>
       <c r="Q528" t="n">
         <v>1</v>
@@ -38421,7 +38421,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -38441,20 +38441,20 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J529" t="n">
-        <v>2600</v>
+        <v>1300</v>
       </c>
       <c r="K529" t="n">
-        <v>3000</v>
+        <v>700</v>
       </c>
       <c r="L529" t="n">
-        <v>3000</v>
+        <v>700</v>
       </c>
       <c r="M529" t="n">
-        <v>3000</v>
+        <v>700</v>
       </c>
       <c r="N529" t="inlineStr">
         <is>
@@ -38463,11 +38463,11 @@
       </c>
       <c r="O529" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P529" t="n">
-        <v>3000</v>
+        <v>700</v>
       </c>
       <c r="Q529" t="n">
         <v>1</v>
@@ -38493,7 +38493,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -38517,16 +38517,16 @@
         </is>
       </c>
       <c r="J530" t="n">
-        <v>5000</v>
+        <v>2200</v>
       </c>
       <c r="K530" t="n">
-        <v>2900</v>
+        <v>2300</v>
       </c>
       <c r="L530" t="n">
-        <v>3200</v>
+        <v>2300</v>
       </c>
       <c r="M530" t="n">
-        <v>3068</v>
+        <v>2300</v>
       </c>
       <c r="N530" t="inlineStr">
         <is>
@@ -38535,11 +38535,11 @@
       </c>
       <c r="O530" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P530" t="n">
-        <v>3068</v>
+        <v>2300</v>
       </c>
       <c r="Q530" t="n">
         <v>1</v>
@@ -38565,7 +38565,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -38589,16 +38589,16 @@
         </is>
       </c>
       <c r="J531" t="n">
-        <v>4400</v>
+        <v>3500</v>
       </c>
       <c r="K531" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="L531" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="M531" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="N531" t="inlineStr">
         <is>
@@ -38607,11 +38607,11 @@
       </c>
       <c r="O531" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P531" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="Q531" t="n">
         <v>1</v>
@@ -38637,7 +38637,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -38657,20 +38657,20 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J532" t="n">
-        <v>8300</v>
+        <v>2800</v>
       </c>
       <c r="K532" t="n">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="L532" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="M532" t="n">
-        <v>2394</v>
+        <v>1500</v>
       </c>
       <c r="N532" t="inlineStr">
         <is>
@@ -38679,11 +38679,11 @@
       </c>
       <c r="O532" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P532" t="n">
-        <v>2394</v>
+        <v>1500</v>
       </c>
       <c r="Q532" t="n">
         <v>1</v>
@@ -38709,7 +38709,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -38729,20 +38729,20 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J533" t="n">
-        <v>5000</v>
+        <v>1900</v>
       </c>
       <c r="K533" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="L533" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="M533" t="n">
-        <v>1814</v>
+        <v>1200</v>
       </c>
       <c r="N533" t="inlineStr">
         <is>
@@ -38751,11 +38751,11 @@
       </c>
       <c r="O533" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P533" t="n">
-        <v>1814</v>
+        <v>1200</v>
       </c>
       <c r="Q533" t="n">
         <v>1</v>
@@ -38801,20 +38801,20 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J534" t="n">
-        <v>3800</v>
+        <v>2600</v>
       </c>
       <c r="K534" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="L534" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="M534" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="N534" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="Q534" t="n">
         <v>1</v>
@@ -38873,20 +38873,20 @@
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J535" t="n">
-        <v>6300</v>
+        <v>5000</v>
       </c>
       <c r="K535" t="n">
-        <v>3400</v>
+        <v>2900</v>
       </c>
       <c r="L535" t="n">
-        <v>3700</v>
+        <v>3200</v>
       </c>
       <c r="M535" t="n">
-        <v>3571</v>
+        <v>3068</v>
       </c>
       <c r="N535" t="inlineStr">
         <is>
@@ -38899,7 +38899,7 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>3571</v>
+        <v>3068</v>
       </c>
       <c r="Q535" t="n">
         <v>1</v>
@@ -38945,20 +38945,20 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J536" t="n">
-        <v>4900</v>
+        <v>4400</v>
       </c>
       <c r="K536" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="L536" t="n">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="M536" t="n">
-        <v>1153</v>
+        <v>2500</v>
       </c>
       <c r="N536" t="inlineStr">
         <is>
@@ -38967,11 +38967,11 @@
       </c>
       <c r="O536" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P536" t="n">
-        <v>1153</v>
+        <v>2500</v>
       </c>
       <c r="Q536" t="n">
         <v>1</v>
@@ -38997,7 +38997,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -39021,29 +39021,29 @@
         </is>
       </c>
       <c r="J537" t="n">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="K537" t="n">
-        <v>400</v>
+        <v>2300</v>
       </c>
       <c r="L537" t="n">
-        <v>450</v>
+        <v>2500</v>
       </c>
       <c r="M537" t="n">
-        <v>421</v>
+        <v>2394</v>
       </c>
       <c r="N537" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O537" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P537" t="n">
-        <v>421</v>
+        <v>2394</v>
       </c>
       <c r="Q537" t="n">
         <v>1</v>
@@ -39069,7 +39069,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -39089,24 +39089,24 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J538" t="n">
-        <v>12500</v>
+        <v>5000</v>
       </c>
       <c r="K538" t="n">
-        <v>380</v>
+        <v>1700</v>
       </c>
       <c r="L538" t="n">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="M538" t="n">
-        <v>389</v>
+        <v>1814</v>
       </c>
       <c r="N538" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O538" t="inlineStr">
@@ -39115,7 +39115,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>389</v>
+        <v>1814</v>
       </c>
       <c r="Q538" t="n">
         <v>1</v>
@@ -39141,7 +39141,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -39161,20 +39161,20 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J539" t="n">
-        <v>1900</v>
+        <v>3800</v>
       </c>
       <c r="K539" t="n">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="L539" t="n">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="M539" t="n">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="N539" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="Q539" t="n">
         <v>1</v>
@@ -39213,7 +39213,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -39233,20 +39233,20 @@
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J540" t="n">
-        <v>2900</v>
+        <v>6300</v>
       </c>
       <c r="K540" t="n">
-        <v>3800</v>
+        <v>3400</v>
       </c>
       <c r="L540" t="n">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="M540" t="n">
-        <v>3800</v>
+        <v>3571</v>
       </c>
       <c r="N540" t="inlineStr">
         <is>
@@ -39259,7 +39259,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>3800</v>
+        <v>3571</v>
       </c>
       <c r="Q540" t="n">
         <v>1</v>
@@ -39285,7 +39285,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -39305,33 +39305,33 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J541" t="n">
-        <v>2900</v>
+        <v>4900</v>
       </c>
       <c r="K541" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="L541" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="M541" t="n">
-        <v>300</v>
+        <v>1153</v>
       </c>
       <c r="N541" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O541" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P541" t="n">
-        <v>300</v>
+        <v>1153</v>
       </c>
       <c r="Q541" t="n">
         <v>1</v>
@@ -39377,20 +39377,20 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J542" t="n">
-        <v>3300</v>
+        <v>8200</v>
       </c>
       <c r="K542" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L542" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="M542" t="n">
-        <v>350</v>
+        <v>421</v>
       </c>
       <c r="N542" t="inlineStr">
         <is>
@@ -39399,11 +39399,11 @@
       </c>
       <c r="O542" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P542" t="n">
-        <v>350</v>
+        <v>421</v>
       </c>
       <c r="Q542" t="n">
         <v>1</v>
@@ -39449,33 +39449,33 @@
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J543" t="n">
-        <v>2500</v>
+        <v>12500</v>
       </c>
       <c r="K543" t="n">
-        <v>3000</v>
+        <v>380</v>
       </c>
       <c r="L543" t="n">
-        <v>3000</v>
+        <v>400</v>
       </c>
       <c r="M543" t="n">
-        <v>3000</v>
+        <v>389</v>
       </c>
       <c r="N543" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O543" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P543" t="n">
-        <v>3000</v>
+        <v>389</v>
       </c>
       <c r="Q543" t="n">
         <v>1</v>
@@ -39521,20 +39521,20 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J544" t="n">
-        <v>3500</v>
+        <v>1900</v>
       </c>
       <c r="K544" t="n">
-        <v>3000</v>
+        <v>3700</v>
       </c>
       <c r="L544" t="n">
-        <v>3000</v>
+        <v>3700</v>
       </c>
       <c r="M544" t="n">
-        <v>3000</v>
+        <v>3700</v>
       </c>
       <c r="N544" t="inlineStr">
         <is>
@@ -39543,11 +39543,11 @@
       </c>
       <c r="O544" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P544" t="n">
-        <v>3000</v>
+        <v>3700</v>
       </c>
       <c r="Q544" t="n">
         <v>1</v>
@@ -39593,20 +39593,20 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J545" t="n">
-        <v>2000</v>
+        <v>2900</v>
       </c>
       <c r="K545" t="n">
-        <v>2000</v>
+        <v>3800</v>
       </c>
       <c r="L545" t="n">
-        <v>2000</v>
+        <v>3800</v>
       </c>
       <c r="M545" t="n">
-        <v>2000</v>
+        <v>3800</v>
       </c>
       <c r="N545" t="inlineStr">
         <is>
@@ -39615,11 +39615,11 @@
       </c>
       <c r="O545" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P545" t="n">
-        <v>2000</v>
+        <v>3800</v>
       </c>
       <c r="Q545" t="n">
         <v>1</v>
@@ -39665,33 +39665,33 @@
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J546" t="n">
-        <v>3200</v>
+        <v>2900</v>
       </c>
       <c r="K546" t="n">
-        <v>2300</v>
+        <v>300</v>
       </c>
       <c r="L546" t="n">
-        <v>2300</v>
+        <v>300</v>
       </c>
       <c r="M546" t="n">
-        <v>2300</v>
+        <v>300</v>
       </c>
       <c r="N546" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O546" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P546" t="n">
-        <v>2300</v>
+        <v>300</v>
       </c>
       <c r="Q546" t="n">
         <v>1</v>
@@ -39717,7 +39717,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -39737,33 +39737,33 @@
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J547" t="n">
-        <v>2800</v>
+        <v>3300</v>
       </c>
       <c r="K547" t="n">
-        <v>2200</v>
+        <v>350</v>
       </c>
       <c r="L547" t="n">
-        <v>2200</v>
+        <v>350</v>
       </c>
       <c r="M547" t="n">
-        <v>2200</v>
+        <v>350</v>
       </c>
       <c r="N547" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O547" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P547" t="n">
-        <v>2200</v>
+        <v>350</v>
       </c>
       <c r="Q547" t="n">
         <v>1</v>
@@ -39789,7 +39789,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -39809,20 +39809,20 @@
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J548" t="n">
-        <v>5700</v>
+        <v>2500</v>
       </c>
       <c r="K548" t="n">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="L548" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M548" t="n">
-        <v>2346</v>
+        <v>3000</v>
       </c>
       <c r="N548" t="inlineStr">
         <is>
@@ -39831,11 +39831,11 @@
       </c>
       <c r="O548" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P548" t="n">
-        <v>2346</v>
+        <v>3000</v>
       </c>
       <c r="Q548" t="n">
         <v>1</v>
@@ -39861,7 +39861,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -39881,20 +39881,20 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J549" t="n">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="K549" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L549" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="M549" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="N549" t="inlineStr">
         <is>
@@ -39903,11 +39903,11 @@
       </c>
       <c r="O549" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P549" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="Q549" t="n">
         <v>1</v>
@@ -39933,7 +39933,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -39953,20 +39953,20 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J550" t="n">
-        <v>7800</v>
+        <v>2000</v>
       </c>
       <c r="K550" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L550" t="n">
         <v>2000</v>
       </c>
       <c r="M550" t="n">
-        <v>1850</v>
+        <v>2000</v>
       </c>
       <c r="N550" t="inlineStr">
         <is>
@@ -39975,11 +39975,11 @@
       </c>
       <c r="O550" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P550" t="n">
-        <v>1850</v>
+        <v>2000</v>
       </c>
       <c r="Q550" t="n">
         <v>1</v>
@@ -40005,7 +40005,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -40025,20 +40025,20 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J551" t="n">
-        <v>3900</v>
+        <v>3200</v>
       </c>
       <c r="K551" t="n">
-        <v>1300</v>
+        <v>2300</v>
       </c>
       <c r="L551" t="n">
-        <v>1600</v>
+        <v>2300</v>
       </c>
       <c r="M551" t="n">
-        <v>1446</v>
+        <v>2300</v>
       </c>
       <c r="N551" t="inlineStr">
         <is>
@@ -40051,7 +40051,7 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>1446</v>
+        <v>2300</v>
       </c>
       <c r="Q551" t="n">
         <v>1</v>
@@ -40097,20 +40097,20 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J552" t="n">
-        <v>3300</v>
+        <v>2800</v>
       </c>
       <c r="K552" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="L552" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="M552" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="N552" t="inlineStr">
         <is>
@@ -40123,7 +40123,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="Q552" t="n">
         <v>1</v>
@@ -40169,20 +40169,20 @@
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J553" t="n">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="K553" t="n">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="L553" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M553" t="n">
-        <v>2688</v>
+        <v>2346</v>
       </c>
       <c r="N553" t="inlineStr">
         <is>
@@ -40195,7 +40195,7 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>2688</v>
+        <v>2346</v>
       </c>
       <c r="Q553" t="n">
         <v>1</v>
@@ -40241,20 +40241,20 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J554" t="n">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="K554" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L554" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="M554" t="n">
-        <v>1113</v>
+        <v>1800</v>
       </c>
       <c r="N554" t="inlineStr">
         <is>
@@ -40263,11 +40263,11 @@
       </c>
       <c r="O554" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P554" t="n">
-        <v>1113</v>
+        <v>1800</v>
       </c>
       <c r="Q554" t="n">
         <v>1</v>
@@ -40293,7 +40293,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -40313,20 +40313,20 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J555" t="n">
-        <v>4400</v>
+        <v>7800</v>
       </c>
       <c r="K555" t="n">
+        <v>1700</v>
+      </c>
+      <c r="L555" t="n">
         <v>2000</v>
       </c>
-      <c r="L555" t="n">
-        <v>2300</v>
-      </c>
       <c r="M555" t="n">
-        <v>2164</v>
+        <v>1850</v>
       </c>
       <c r="N555" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>2164</v>
+        <v>1850</v>
       </c>
       <c r="Q555" t="n">
         <v>1</v>
@@ -40365,7 +40365,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -40385,20 +40385,20 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J556" t="n">
-        <v>6600</v>
+        <v>3900</v>
       </c>
       <c r="K556" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="L556" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="M556" t="n">
-        <v>1747</v>
+        <v>1446</v>
       </c>
       <c r="N556" t="inlineStr">
         <is>
@@ -40411,7 +40411,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>1747</v>
+        <v>1446</v>
       </c>
       <c r="Q556" t="n">
         <v>1</v>
@@ -40437,7 +40437,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -40457,20 +40457,20 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J557" t="n">
-        <v>4400</v>
+        <v>3300</v>
       </c>
       <c r="K557" t="n">
-        <v>1400</v>
+        <v>2700</v>
       </c>
       <c r="L557" t="n">
-        <v>1600</v>
+        <v>2700</v>
       </c>
       <c r="M557" t="n">
-        <v>1523</v>
+        <v>2700</v>
       </c>
       <c r="N557" t="inlineStr">
         <is>
@@ -40479,11 +40479,11 @@
       </c>
       <c r="O557" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P557" t="n">
-        <v>1523</v>
+        <v>2700</v>
       </c>
       <c r="Q557" t="n">
         <v>1</v>
@@ -40509,7 +40509,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -40533,16 +40533,16 @@
         </is>
       </c>
       <c r="J558" t="n">
-        <v>3200</v>
+        <v>5900</v>
       </c>
       <c r="K558" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="L558" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="M558" t="n">
-        <v>2512</v>
+        <v>2688</v>
       </c>
       <c r="N558" t="inlineStr">
         <is>
@@ -40555,7 +40555,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>2512</v>
+        <v>2688</v>
       </c>
       <c r="Q558" t="n">
         <v>1</v>
@@ -40581,7 +40581,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -40605,7 +40605,7 @@
         </is>
       </c>
       <c r="J559" t="n">
-        <v>3500</v>
+        <v>3900</v>
       </c>
       <c r="K559" t="n">
         <v>1000</v>
@@ -40614,7 +40614,7 @@
         <v>1200</v>
       </c>
       <c r="M559" t="n">
-        <v>1137</v>
+        <v>1113</v>
       </c>
       <c r="N559" t="inlineStr">
         <is>
@@ -40627,7 +40627,7 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>1137</v>
+        <v>1113</v>
       </c>
       <c r="Q559" t="n">
         <v>1</v>
@@ -40653,7 +40653,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -40677,16 +40677,16 @@
         </is>
       </c>
       <c r="J560" t="n">
-        <v>2200</v>
+        <v>4400</v>
       </c>
       <c r="K560" t="n">
-        <v>3200</v>
+        <v>2000</v>
       </c>
       <c r="L560" t="n">
-        <v>3400</v>
+        <v>2300</v>
       </c>
       <c r="M560" t="n">
-        <v>3309</v>
+        <v>2164</v>
       </c>
       <c r="N560" t="inlineStr">
         <is>
@@ -40695,11 +40695,11 @@
       </c>
       <c r="O560" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P560" t="n">
-        <v>3309</v>
+        <v>2164</v>
       </c>
       <c r="Q560" t="n">
         <v>1</v>
@@ -40725,7 +40725,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -40745,20 +40745,20 @@
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J561" t="n">
-        <v>3100</v>
+        <v>6600</v>
       </c>
       <c r="K561" t="n">
-        <v>3300</v>
+        <v>1700</v>
       </c>
       <c r="L561" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="M561" t="n">
-        <v>3390</v>
+        <v>1747</v>
       </c>
       <c r="N561" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>3390</v>
+        <v>1747</v>
       </c>
       <c r="Q561" t="n">
         <v>1</v>
@@ -40797,7 +40797,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -40817,20 +40817,20 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J562" t="n">
-        <v>3800</v>
+        <v>4400</v>
       </c>
       <c r="K562" t="n">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="L562" t="n">
-        <v>2700</v>
+        <v>1600</v>
       </c>
       <c r="M562" t="n">
-        <v>2595</v>
+        <v>1523</v>
       </c>
       <c r="N562" t="inlineStr">
         <is>
@@ -40839,11 +40839,11 @@
       </c>
       <c r="O562" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P562" t="n">
-        <v>2595</v>
+        <v>1523</v>
       </c>
       <c r="Q562" t="n">
         <v>1</v>
@@ -40869,7 +40869,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -40889,20 +40889,20 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J563" t="n">
-        <v>6000</v>
+        <v>3200</v>
       </c>
       <c r="K563" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="L563" t="n">
-        <v>2900</v>
+        <v>2600</v>
       </c>
       <c r="M563" t="n">
-        <v>2810</v>
+        <v>2512</v>
       </c>
       <c r="N563" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>2810</v>
+        <v>2512</v>
       </c>
       <c r="Q563" t="n">
         <v>1</v>
@@ -40941,7 +40941,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -40961,20 +40961,20 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J564" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="K564" t="n">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="L564" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="M564" t="n">
-        <v>2275</v>
+        <v>1137</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40987,7 +40987,7 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>2275</v>
+        <v>1137</v>
       </c>
       <c r="Q564" t="n">
         <v>1</v>
@@ -41033,20 +41033,20 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J565" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="K565" t="n">
-        <v>3800</v>
+        <v>3200</v>
       </c>
       <c r="L565" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="M565" t="n">
-        <v>3922</v>
+        <v>3309</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         </is>
       </c>
       <c r="P565" t="n">
-        <v>3922</v>
+        <v>3309</v>
       </c>
       <c r="Q565" t="n">
         <v>1</v>
@@ -41105,20 +41105,20 @@
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J566" t="n">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="K566" t="n">
-        <v>3900</v>
+        <v>3300</v>
       </c>
       <c r="L566" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M566" t="n">
-        <v>3945</v>
+        <v>3390</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41131,7 +41131,7 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>3945</v>
+        <v>3390</v>
       </c>
       <c r="Q566" t="n">
         <v>1</v>
@@ -41177,20 +41177,20 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J567" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="K567" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="L567" t="n">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="M567" t="n">
-        <v>1673</v>
+        <v>2595</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41199,11 +41199,11 @@
       </c>
       <c r="O567" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P567" t="n">
-        <v>1673</v>
+        <v>2595</v>
       </c>
       <c r="Q567" t="n">
         <v>1</v>
@@ -41229,7 +41229,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -41249,20 +41249,20 @@
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J568" t="n">
-        <v>5300</v>
+        <v>6000</v>
       </c>
       <c r="K568" t="n">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="L568" t="n">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="M568" t="n">
-        <v>2804</v>
+        <v>2810</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         </is>
       </c>
       <c r="P568" t="n">
-        <v>2804</v>
+        <v>2810</v>
       </c>
       <c r="Q568" t="n">
         <v>1</v>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -41321,20 +41321,20 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J569" t="n">
-        <v>7400</v>
+        <v>4000</v>
       </c>
       <c r="K569" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="L569" t="n">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="M569" t="n">
-        <v>2154</v>
+        <v>2275</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41347,7 +41347,7 @@
         </is>
       </c>
       <c r="P569" t="n">
-        <v>2154</v>
+        <v>2275</v>
       </c>
       <c r="Q569" t="n">
         <v>1</v>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -41393,20 +41393,20 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J570" t="n">
-        <v>4100</v>
+        <v>1800</v>
       </c>
       <c r="K570" t="n">
-        <v>1400</v>
+        <v>3800</v>
       </c>
       <c r="L570" t="n">
-        <v>1700</v>
+        <v>4000</v>
       </c>
       <c r="M570" t="n">
-        <v>1576</v>
+        <v>3922</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41415,11 +41415,11 @@
       </c>
       <c r="O570" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P570" t="n">
-        <v>1576</v>
+        <v>3922</v>
       </c>
       <c r="Q570" t="n">
         <v>1</v>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -41469,16 +41469,16 @@
         </is>
       </c>
       <c r="J571" t="n">
-        <v>5800</v>
+        <v>2900</v>
       </c>
       <c r="K571" t="n">
-        <v>3200</v>
+        <v>3900</v>
       </c>
       <c r="L571" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M571" t="n">
-        <v>3381</v>
+        <v>3945</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41491,7 +41491,7 @@
         </is>
       </c>
       <c r="P571" t="n">
-        <v>3381</v>
+        <v>3945</v>
       </c>
       <c r="Q571" t="n">
         <v>1</v>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -41541,16 +41541,16 @@
         </is>
       </c>
       <c r="J572" t="n">
-        <v>3900</v>
+        <v>3000</v>
       </c>
       <c r="K572" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="L572" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="M572" t="n">
-        <v>1097</v>
+        <v>1673</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41563,7 +41563,7 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>1097</v>
+        <v>1673</v>
       </c>
       <c r="Q572" t="n">
         <v>1</v>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -41609,20 +41609,20 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>860</v>
+        <v>5300</v>
       </c>
       <c r="K573" t="n">
-        <v>1000</v>
+        <v>2600</v>
       </c>
       <c r="L573" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="M573" t="n">
-        <v>1000</v>
+        <v>2804</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41631,11 +41631,11 @@
       </c>
       <c r="O573" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P573" t="n">
-        <v>1000</v>
+        <v>2804</v>
       </c>
       <c r="Q573" t="n">
         <v>1</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -41681,20 +41681,20 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>700</v>
+        <v>7400</v>
       </c>
       <c r="K574" t="n">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="L574" t="n">
-        <v>900</v>
+        <v>2300</v>
       </c>
       <c r="M574" t="n">
-        <v>900</v>
+        <v>2154</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41707,7 +41707,7 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>900</v>
+        <v>2154</v>
       </c>
       <c r="Q574" t="n">
         <v>1</v>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -41753,20 +41753,20 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J575" t="n">
-        <v>2570</v>
+        <v>4100</v>
       </c>
       <c r="K575" t="n">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="L575" t="n">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="M575" t="n">
-        <v>2899</v>
+        <v>1576</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41775,11 +41775,11 @@
       </c>
       <c r="O575" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P575" t="n">
-        <v>2899</v>
+        <v>1576</v>
       </c>
       <c r="Q575" t="n">
         <v>1</v>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -41825,20 +41825,20 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J576" t="n">
+        <v>5800</v>
+      </c>
+      <c r="K576" t="n">
         <v>3200</v>
       </c>
-      <c r="K576" t="n">
-        <v>2700</v>
-      </c>
       <c r="L576" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M576" t="n">
-        <v>2844</v>
+        <v>3381</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>2844</v>
+        <v>3381</v>
       </c>
       <c r="Q576" t="n">
         <v>1</v>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -41897,20 +41897,20 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>3050</v>
+        <v>3900</v>
       </c>
       <c r="K577" t="n">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="L577" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="M577" t="n">
-        <v>2405</v>
+        <v>1097</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41919,11 +41919,11 @@
       </c>
       <c r="O577" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P577" t="n">
-        <v>2405</v>
+        <v>1097</v>
       </c>
       <c r="Q577" t="n">
         <v>1</v>
@@ -41969,20 +41969,20 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>2350</v>
+        <v>860</v>
       </c>
       <c r="K578" t="n">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="L578" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M578" t="n">
-        <v>2402</v>
+        <v>1000</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41991,11 +41991,11 @@
       </c>
       <c r="O578" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P578" t="n">
-        <v>2402</v>
+        <v>1000</v>
       </c>
       <c r="Q578" t="n">
         <v>1</v>
@@ -42041,20 +42041,20 @@
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>2870</v>
+        <v>700</v>
       </c>
       <c r="K579" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="L579" t="n">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="M579" t="n">
-        <v>1633</v>
+        <v>900</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42063,11 +42063,11 @@
       </c>
       <c r="O579" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P579" t="n">
-        <v>1633</v>
+        <v>900</v>
       </c>
       <c r="Q579" t="n">
         <v>1</v>
@@ -42113,20 +42113,20 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J580" t="n">
-        <v>2150</v>
+        <v>2570</v>
       </c>
       <c r="K580" t="n">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="L580" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="M580" t="n">
-        <v>1484</v>
+        <v>2899</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42135,11 +42135,11 @@
       </c>
       <c r="O580" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P580" t="n">
-        <v>1484</v>
+        <v>2899</v>
       </c>
       <c r="Q580" t="n">
         <v>1</v>
@@ -42185,20 +42185,20 @@
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J581" t="n">
-        <v>1550</v>
+        <v>3200</v>
       </c>
       <c r="K581" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="L581" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M581" t="n">
-        <v>3500</v>
+        <v>2844</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42207,11 +42207,11 @@
       </c>
       <c r="O581" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P581" t="n">
-        <v>3500</v>
+        <v>2844</v>
       </c>
       <c r="Q581" t="n">
         <v>1</v>
@@ -42257,20 +42257,20 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J582" t="n">
-        <v>1200</v>
+        <v>3050</v>
       </c>
       <c r="K582" t="n">
-        <v>3300</v>
+        <v>2300</v>
       </c>
       <c r="L582" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M582" t="n">
-        <v>3383</v>
+        <v>2405</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42279,11 +42279,11 @@
       </c>
       <c r="O582" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P582" t="n">
-        <v>3383</v>
+        <v>2405</v>
       </c>
       <c r="Q582" t="n">
         <v>1</v>
@@ -42329,20 +42329,20 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J583" t="n">
-        <v>1300</v>
+        <v>2350</v>
       </c>
       <c r="K583" t="n">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="L583" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="M583" t="n">
-        <v>1200</v>
+        <v>2402</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42351,11 +42351,11 @@
       </c>
       <c r="O583" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P583" t="n">
-        <v>1200</v>
+        <v>2402</v>
       </c>
       <c r="Q583" t="n">
         <v>1</v>
@@ -42401,20 +42401,20 @@
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J584" t="n">
-        <v>1000</v>
+        <v>2870</v>
       </c>
       <c r="K584" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="L584" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="M584" t="n">
-        <v>1200</v>
+        <v>1633</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42423,11 +42423,11 @@
       </c>
       <c r="O584" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P584" t="n">
-        <v>1200</v>
+        <v>1633</v>
       </c>
       <c r="Q584" t="n">
         <v>1</v>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44459</v>
+        <v>44200</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -42473,33 +42473,33 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J585" t="n">
-        <v>6200</v>
+        <v>2150</v>
       </c>
       <c r="K585" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="L585" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="M585" t="n">
-        <v>1044</v>
+        <v>1484</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O585" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P585" t="n">
-        <v>1044</v>
+        <v>1484</v>
       </c>
       <c r="Q585" t="n">
         <v>1</v>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -42545,20 +42545,20 @@
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J586" t="n">
-        <v>2900</v>
+        <v>1550</v>
       </c>
       <c r="K586" t="n">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="L586" t="n">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="M586" t="n">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42567,11 +42567,11 @@
       </c>
       <c r="O586" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P586" t="n">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="Q586" t="n">
         <v>1</v>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -42617,20 +42617,20 @@
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J587" t="n">
-        <v>6500</v>
+        <v>1200</v>
       </c>
       <c r="K587" t="n">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="L587" t="n">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="M587" t="n">
-        <v>3162</v>
+        <v>3383</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42643,7 +42643,7 @@
         </is>
       </c>
       <c r="P587" t="n">
-        <v>3162</v>
+        <v>3383</v>
       </c>
       <c r="Q587" t="n">
         <v>1</v>
@@ -42669,7 +42669,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -42689,20 +42689,20 @@
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J588" t="n">
-        <v>9800</v>
+        <v>1300</v>
       </c>
       <c r="K588" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="L588" t="n">
-        <v>2700</v>
+        <v>1200</v>
       </c>
       <c r="M588" t="n">
-        <v>2584</v>
+        <v>1200</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42711,11 +42711,11 @@
       </c>
       <c r="O588" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P588" t="n">
-        <v>2584</v>
+        <v>1200</v>
       </c>
       <c r="Q588" t="n">
         <v>1</v>
@@ -42741,7 +42741,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -42761,20 +42761,20 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J589" t="n">
-        <v>7400</v>
+        <v>1000</v>
       </c>
       <c r="K589" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="L589" t="n">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="M589" t="n">
-        <v>2089</v>
+        <v>1200</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42787,7 +42787,7 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>2089</v>
+        <v>1200</v>
       </c>
       <c r="Q589" t="n">
         <v>1</v>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44188</v>
+        <v>44459</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -42833,33 +42833,33 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J590" t="n">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="K590" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="L590" t="n">
-        <v>3700</v>
+        <v>1100</v>
       </c>
       <c r="M590" t="n">
-        <v>3592</v>
+        <v>1044</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O590" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P590" t="n">
-        <v>3592</v>
+        <v>1044</v>
       </c>
       <c r="Q590" t="n">
         <v>1</v>
@@ -42905,20 +42905,20 @@
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>5700</v>
+        <v>2900</v>
       </c>
       <c r="K591" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="L591" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="M591" t="n">
-        <v>1488</v>
+        <v>1000</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42931,7 +42931,7 @@
         </is>
       </c>
       <c r="P591" t="n">
-        <v>1488</v>
+        <v>1000</v>
       </c>
       <c r="Q591" t="n">
         <v>1</v>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -42981,16 +42981,16 @@
         </is>
       </c>
       <c r="J592" t="n">
-        <v>2200</v>
+        <v>6500</v>
       </c>
       <c r="K592" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L592" t="n">
-        <v>2200</v>
+        <v>3300</v>
       </c>
       <c r="M592" t="n">
-        <v>2200</v>
+        <v>3162</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -42999,11 +42999,11 @@
       </c>
       <c r="O592" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P592" t="n">
-        <v>2200</v>
+        <v>3162</v>
       </c>
       <c r="Q592" t="n">
         <v>1</v>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -43049,20 +43049,20 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J593" t="n">
-        <v>2300</v>
+        <v>9800</v>
       </c>
       <c r="K593" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="L593" t="n">
-        <v>2100</v>
+        <v>2700</v>
       </c>
       <c r="M593" t="n">
-        <v>2100</v>
+        <v>2584</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>2100</v>
+        <v>2584</v>
       </c>
       <c r="Q593" t="n">
         <v>1</v>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -43121,20 +43121,20 @@
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J594" t="n">
-        <v>3000</v>
+        <v>7400</v>
       </c>
       <c r="K594" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L594" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="M594" t="n">
-        <v>1800</v>
+        <v>2089</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
@@ -43143,11 +43143,11 @@
       </c>
       <c r="O594" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P594" t="n">
-        <v>1800</v>
+        <v>2089</v>
       </c>
       <c r="Q594" t="n">
         <v>1</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -43193,20 +43193,20 @@
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>3400</v>
+        <v>6300</v>
       </c>
       <c r="K595" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="L595" t="n">
-        <v>1800</v>
+        <v>3700</v>
       </c>
       <c r="M595" t="n">
-        <v>1800</v>
+        <v>3592</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43219,7 +43219,7 @@
         </is>
       </c>
       <c r="P595" t="n">
-        <v>1800</v>
+        <v>3592</v>
       </c>
       <c r="Q595" t="n">
         <v>1</v>
@@ -43245,7 +43245,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -43265,20 +43265,20 @@
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>1700</v>
+        <v>5700</v>
       </c>
       <c r="K596" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="L596" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M596" t="n">
-        <v>1500</v>
+        <v>1488</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43287,11 +43287,11 @@
       </c>
       <c r="O596" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P596" t="n">
-        <v>1500</v>
+        <v>1488</v>
       </c>
       <c r="Q596" t="n">
         <v>1</v>
@@ -43337,20 +43337,20 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J597" t="n">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="K597" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="L597" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="M597" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
@@ -43359,11 +43359,11 @@
       </c>
       <c r="O597" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P597" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="Q597" t="n">
         <v>1</v>
@@ -43409,20 +43409,20 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J598" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="K598" t="n">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="L598" t="n">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="M598" t="n">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43431,11 +43431,11 @@
       </c>
       <c r="O598" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P598" t="n">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="Q598" t="n">
         <v>1</v>
@@ -43481,20 +43481,20 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J599" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="K599" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L599" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="M599" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43503,11 +43503,11 @@
       </c>
       <c r="O599" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P599" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="Q599" t="n">
         <v>1</v>
@@ -43553,20 +43553,20 @@
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J600" t="n">
-        <v>2100</v>
+        <v>3400</v>
       </c>
       <c r="K600" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L600" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="M600" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
@@ -43575,11 +43575,11 @@
       </c>
       <c r="O600" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P600" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="Q600" t="n">
         <v>1</v>
@@ -43625,20 +43625,20 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>2600</v>
+        <v>1700</v>
       </c>
       <c r="K601" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L601" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M601" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
@@ -43647,11 +43647,11 @@
       </c>
       <c r="O601" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P601" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="Q601" t="n">
         <v>1</v>
@@ -43677,7 +43677,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -43697,20 +43697,20 @@
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J602" t="n">
-        <v>6800</v>
+        <v>2100</v>
       </c>
       <c r="K602" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L602" t="n">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="M602" t="n">
-        <v>2163</v>
+        <v>1500</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43723,7 +43723,7 @@
         </is>
       </c>
       <c r="P602" t="n">
-        <v>2163</v>
+        <v>1500</v>
       </c>
       <c r="Q602" t="n">
         <v>1</v>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -43769,20 +43769,20 @@
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J603" t="n">
-        <v>8100</v>
+        <v>1500</v>
       </c>
       <c r="K603" t="n">
-        <v>1700</v>
+        <v>2600</v>
       </c>
       <c r="L603" t="n">
-        <v>1900</v>
+        <v>2600</v>
       </c>
       <c r="M603" t="n">
-        <v>1796</v>
+        <v>2600</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43791,11 +43791,11 @@
       </c>
       <c r="O603" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P603" t="n">
-        <v>1796</v>
+        <v>2600</v>
       </c>
       <c r="Q603" t="n">
         <v>1</v>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -43841,20 +43841,20 @@
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J604" t="n">
-        <v>4400</v>
+        <v>1500</v>
       </c>
       <c r="K604" t="n">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="L604" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="M604" t="n">
-        <v>1514</v>
+        <v>2500</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43867,7 +43867,7 @@
         </is>
       </c>
       <c r="P604" t="n">
-        <v>1514</v>
+        <v>2500</v>
       </c>
       <c r="Q604" t="n">
         <v>1</v>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -43913,20 +43913,20 @@
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J605" t="n">
-        <v>5800</v>
+        <v>2100</v>
       </c>
       <c r="K605" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="L605" t="n">
-        <v>2700</v>
+        <v>1000</v>
       </c>
       <c r="M605" t="n">
-        <v>2566</v>
+        <v>1000</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
@@ -43935,11 +43935,11 @@
       </c>
       <c r="O605" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P605" t="n">
-        <v>2566</v>
+        <v>1000</v>
       </c>
       <c r="Q605" t="n">
         <v>1</v>
@@ -43965,7 +43965,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -43989,16 +43989,16 @@
         </is>
       </c>
       <c r="J606" t="n">
-        <v>4300</v>
+        <v>2600</v>
       </c>
       <c r="K606" t="n">
         <v>1000</v>
       </c>
       <c r="L606" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="M606" t="n">
-        <v>1130</v>
+        <v>1000</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         </is>
       </c>
       <c r="P606" t="n">
-        <v>1130</v>
+        <v>1000</v>
       </c>
       <c r="Q606" t="n">
         <v>1</v>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44452</v>
+        <v>44224</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -44057,33 +44057,33 @@
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J607" t="n">
-        <v>4500</v>
+        <v>6800</v>
       </c>
       <c r="K607" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="L607" t="n">
-        <v>1150</v>
+        <v>2300</v>
       </c>
       <c r="M607" t="n">
-        <v>1121</v>
+        <v>2163</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O607" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P607" t="n">
-        <v>1121</v>
+        <v>2163</v>
       </c>
       <c r="Q607" t="n">
         <v>1</v>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -44129,20 +44129,20 @@
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J608" t="n">
-        <v>1800</v>
+        <v>8100</v>
       </c>
       <c r="K608" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="L608" t="n">
-        <v>1000</v>
+        <v>1900</v>
       </c>
       <c r="M608" t="n">
-        <v>1000</v>
+        <v>1796</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44151,11 +44151,11 @@
       </c>
       <c r="O608" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P608" t="n">
-        <v>1000</v>
+        <v>1796</v>
       </c>
       <c r="Q608" t="n">
         <v>1</v>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -44201,20 +44201,20 @@
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J609" t="n">
-        <v>2300</v>
+        <v>4400</v>
       </c>
       <c r="K609" t="n">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="L609" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="M609" t="n">
-        <v>2500</v>
+        <v>1514</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
@@ -44223,11 +44223,11 @@
       </c>
       <c r="O609" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P609" t="n">
-        <v>2500</v>
+        <v>1514</v>
       </c>
       <c r="Q609" t="n">
         <v>1</v>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -44273,20 +44273,20 @@
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J610" t="n">
-        <v>3500</v>
+        <v>5800</v>
       </c>
       <c r="K610" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L610" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="M610" t="n">
-        <v>2000</v>
+        <v>2566</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44295,11 +44295,11 @@
       </c>
       <c r="O610" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P610" t="n">
-        <v>2000</v>
+        <v>2566</v>
       </c>
       <c r="Q610" t="n">
         <v>1</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -44345,20 +44345,20 @@
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J611" t="n">
-        <v>3800</v>
+        <v>4300</v>
       </c>
       <c r="K611" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="L611" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="M611" t="n">
-        <v>1700</v>
+        <v>1130</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44367,11 +44367,11 @@
       </c>
       <c r="O611" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P611" t="n">
-        <v>1700</v>
+        <v>1130</v>
       </c>
       <c r="Q611" t="n">
         <v>1</v>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44270</v>
+        <v>44452</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -44417,33 +44417,33 @@
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J612" t="n">
-        <v>2700</v>
+        <v>4500</v>
       </c>
       <c r="K612" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="L612" t="n">
-        <v>1500</v>
+        <v>1150</v>
       </c>
       <c r="M612" t="n">
-        <v>1500</v>
+        <v>1121</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O612" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P612" t="n">
-        <v>1500</v>
+        <v>1121</v>
       </c>
       <c r="Q612" t="n">
         <v>1</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -44489,20 +44489,20 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J613" t="n">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="K613" t="n">
-        <v>2700</v>
+        <v>1000</v>
       </c>
       <c r="L613" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="M613" t="n">
-        <v>2832</v>
+        <v>1000</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44511,11 +44511,11 @@
       </c>
       <c r="O613" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P613" t="n">
-        <v>2832</v>
+        <v>1000</v>
       </c>
       <c r="Q613" t="n">
         <v>1</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -44561,20 +44561,20 @@
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J614" t="n">
-        <v>8300</v>
+        <v>2300</v>
       </c>
       <c r="K614" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L614" t="n">
         <v>2500</v>
       </c>
       <c r="M614" t="n">
-        <v>2392</v>
+        <v>2500</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44583,11 +44583,11 @@
       </c>
       <c r="O614" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P614" t="n">
-        <v>2392</v>
+        <v>2500</v>
       </c>
       <c r="Q614" t="n">
         <v>1</v>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -44633,20 +44633,20 @@
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="K615" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L615" t="n">
         <v>2000</v>
       </c>
       <c r="M615" t="n">
-        <v>1830</v>
+        <v>2000</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44655,11 +44655,11 @@
       </c>
       <c r="O615" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P615" t="n">
-        <v>1830</v>
+        <v>2000</v>
       </c>
       <c r="Q615" t="n">
         <v>1</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -44705,20 +44705,20 @@
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J616" t="n">
-        <v>7700</v>
+        <v>3800</v>
       </c>
       <c r="K616" t="n">
-        <v>3300</v>
+        <v>1700</v>
       </c>
       <c r="L616" t="n">
-        <v>3700</v>
+        <v>1700</v>
       </c>
       <c r="M616" t="n">
-        <v>3487</v>
+        <v>1700</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44727,11 +44727,11 @@
       </c>
       <c r="O616" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P616" t="n">
-        <v>3487</v>
+        <v>1700</v>
       </c>
       <c r="Q616" t="n">
         <v>1</v>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -44781,16 +44781,16 @@
         </is>
       </c>
       <c r="J617" t="n">
-        <v>3200</v>
+        <v>2700</v>
       </c>
       <c r="K617" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L617" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M617" t="n">
-        <v>1225</v>
+        <v>1500</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
@@ -44799,11 +44799,11 @@
       </c>
       <c r="O617" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P617" t="n">
-        <v>1225</v>
+        <v>1500</v>
       </c>
       <c r="Q617" t="n">
         <v>1</v>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44473</v>
+        <v>44195</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -44849,33 +44849,33 @@
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J618" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="K618" t="n">
-        <v>700</v>
+        <v>2700</v>
       </c>
       <c r="L618" t="n">
-        <v>750</v>
+        <v>3000</v>
       </c>
       <c r="M618" t="n">
-        <v>721</v>
+        <v>2832</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O618" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P618" t="n">
-        <v>721</v>
+        <v>2832</v>
       </c>
       <c r="Q618" t="n">
         <v>1</v>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -44921,20 +44921,20 @@
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J619" t="n">
-        <v>2400</v>
+        <v>8300</v>
       </c>
       <c r="K619" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="L619" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M619" t="n">
-        <v>3000</v>
+        <v>2392</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44943,11 +44943,11 @@
       </c>
       <c r="O619" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P619" t="n">
-        <v>3000</v>
+        <v>2392</v>
       </c>
       <c r="Q619" t="n">
         <v>1</v>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -44993,20 +44993,20 @@
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J620" t="n">
-        <v>8300</v>
+        <v>4000</v>
       </c>
       <c r="K620" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="L620" t="n">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="M620" t="n">
-        <v>3137</v>
+        <v>1830</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         </is>
       </c>
       <c r="P620" t="n">
-        <v>3137</v>
+        <v>1830</v>
       </c>
       <c r="Q620" t="n">
         <v>1</v>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -45065,20 +45065,20 @@
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J621" t="n">
-        <v>3500</v>
+        <v>7700</v>
       </c>
       <c r="K621" t="n">
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="L621" t="n">
-        <v>2500</v>
+        <v>3700</v>
       </c>
       <c r="M621" t="n">
-        <v>2500</v>
+        <v>3487</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45087,11 +45087,11 @@
       </c>
       <c r="O621" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P621" t="n">
-        <v>2500</v>
+        <v>3487</v>
       </c>
       <c r="Q621" t="n">
         <v>1</v>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -45137,20 +45137,20 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>7800</v>
+        <v>3200</v>
       </c>
       <c r="K622" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L622" t="n">
-        <v>2300</v>
+        <v>1400</v>
       </c>
       <c r="M622" t="n">
-        <v>2173</v>
+        <v>1225</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
@@ -45163,7 +45163,7 @@
         </is>
       </c>
       <c r="P622" t="n">
-        <v>2173</v>
+        <v>1225</v>
       </c>
       <c r="Q622" t="n">
         <v>1</v>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44536</v>
+        <v>44473</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -45209,33 +45209,33 @@
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J623" t="n">
-        <v>4200</v>
+        <v>7500</v>
       </c>
       <c r="K623" t="n">
-        <v>1800</v>
+        <v>700</v>
       </c>
       <c r="L623" t="n">
-        <v>1800</v>
+        <v>750</v>
       </c>
       <c r="M623" t="n">
-        <v>1800</v>
+        <v>721</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O623" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P623" t="n">
-        <v>1800</v>
+        <v>721</v>
       </c>
       <c r="Q623" t="n">
         <v>1</v>
@@ -45281,20 +45281,20 @@
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>6300</v>
+        <v>2400</v>
       </c>
       <c r="K624" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="L624" t="n">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="M624" t="n">
-        <v>1640</v>
+        <v>3000</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45303,11 +45303,11 @@
       </c>
       <c r="O624" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P624" t="n">
-        <v>1640</v>
+        <v>3000</v>
       </c>
       <c r="Q624" t="n">
         <v>1</v>
@@ -45353,20 +45353,20 @@
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J625" t="n">
+        <v>8300</v>
+      </c>
+      <c r="K625" t="n">
         <v>3000</v>
       </c>
-      <c r="K625" t="n">
-        <v>1200</v>
-      </c>
       <c r="L625" t="n">
-        <v>1200</v>
+        <v>3300</v>
       </c>
       <c r="M625" t="n">
-        <v>1200</v>
+        <v>3137</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45379,7 +45379,7 @@
         </is>
       </c>
       <c r="P625" t="n">
-        <v>1200</v>
+        <v>3137</v>
       </c>
       <c r="Q625" t="n">
         <v>1</v>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44511</v>
+        <v>44536</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -45429,29 +45429,29 @@
         </is>
       </c>
       <c r="J626" t="n">
-        <v>7100</v>
+        <v>3500</v>
       </c>
       <c r="K626" t="n">
-        <v>750</v>
+        <v>2500</v>
       </c>
       <c r="L626" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="M626" t="n">
-        <v>773</v>
+        <v>2500</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O626" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P626" t="n">
-        <v>773</v>
+        <v>2500</v>
       </c>
       <c r="Q626" t="n">
         <v>1</v>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44511</v>
+        <v>44536</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -45497,33 +45497,33 @@
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J627" t="n">
-        <v>1900</v>
+        <v>7800</v>
       </c>
       <c r="K627" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="L627" t="n">
-        <v>600</v>
+        <v>2300</v>
       </c>
       <c r="M627" t="n">
-        <v>600</v>
+        <v>2173</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O627" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P627" t="n">
-        <v>600</v>
+        <v>2173</v>
       </c>
       <c r="Q627" t="n">
         <v>1</v>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44239</v>
+        <v>44536</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -45569,20 +45569,20 @@
       </c>
       <c r="I628" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J628" t="n">
-        <v>2500</v>
+        <v>4200</v>
       </c>
       <c r="K628" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L628" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="M628" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45591,11 +45591,11 @@
       </c>
       <c r="O628" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P628" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="Q628" t="n">
         <v>1</v>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44239</v>
+        <v>44536</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -45641,20 +45641,20 @@
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J629" t="n">
-        <v>3400</v>
+        <v>6300</v>
       </c>
       <c r="K629" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="L629" t="n">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="M629" t="n">
-        <v>2118</v>
+        <v>1640</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45667,7 +45667,7 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>2118</v>
+        <v>1640</v>
       </c>
       <c r="Q629" t="n">
         <v>1</v>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44239</v>
+        <v>44536</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -45713,20 +45713,20 @@
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J630" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="K630" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="L630" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="M630" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
@@ -45735,11 +45735,11 @@
       </c>
       <c r="O630" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P630" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="Q630" t="n">
         <v>1</v>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -45789,29 +45789,29 @@
         </is>
       </c>
       <c r="J631" t="n">
-        <v>5700</v>
+        <v>7100</v>
       </c>
       <c r="K631" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="L631" t="n">
-        <v>1700</v>
+        <v>800</v>
       </c>
       <c r="M631" t="n">
-        <v>1609</v>
+        <v>773</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O631" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P631" t="n">
-        <v>1609</v>
+        <v>773</v>
       </c>
       <c r="Q631" t="n">
         <v>1</v>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -45861,29 +45861,29 @@
         </is>
       </c>
       <c r="J632" t="n">
-        <v>3900</v>
+        <v>1900</v>
       </c>
       <c r="K632" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="L632" t="n">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="M632" t="n">
-        <v>1438</v>
+        <v>600</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O632" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P632" t="n">
-        <v>1438</v>
+        <v>600</v>
       </c>
       <c r="Q632" t="n">
         <v>1</v>
@@ -45929,20 +45929,20 @@
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J633" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="K633" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L633" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M633" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45955,7 +45955,7 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q633" t="n">
         <v>1</v>
@@ -46001,20 +46001,20 @@
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J634" t="n">
-        <v>4100</v>
+        <v>3400</v>
       </c>
       <c r="K634" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="L634" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="M634" t="n">
-        <v>2476</v>
+        <v>2118</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
@@ -46027,7 +46027,7 @@
         </is>
       </c>
       <c r="P634" t="n">
-        <v>2476</v>
+        <v>2118</v>
       </c>
       <c r="Q634" t="n">
         <v>1</v>
@@ -46073,20 +46073,20 @@
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="K635" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="L635" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="M635" t="n">
-        <v>1128</v>
+        <v>1700</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46095,11 +46095,11 @@
       </c>
       <c r="O635" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P635" t="n">
-        <v>1128</v>
+        <v>1700</v>
       </c>
       <c r="Q635" t="n">
         <v>1</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44454</v>
+        <v>44239</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -46149,29 +46149,29 @@
         </is>
       </c>
       <c r="J636" t="n">
-        <v>5200</v>
+        <v>5700</v>
       </c>
       <c r="K636" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L636" t="n">
-        <v>1100</v>
+        <v>1700</v>
       </c>
       <c r="M636" t="n">
-        <v>1044</v>
+        <v>1609</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O636" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P636" t="n">
-        <v>1044</v>
+        <v>1609</v>
       </c>
       <c r="Q636" t="n">
         <v>1</v>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -46217,20 +46217,20 @@
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J637" t="n">
-        <v>2500</v>
+        <v>3900</v>
       </c>
       <c r="K637" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="L637" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="M637" t="n">
-        <v>800</v>
+        <v>1438</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         </is>
       </c>
       <c r="P637" t="n">
-        <v>800</v>
+        <v>1438</v>
       </c>
       <c r="Q637" t="n">
         <v>1</v>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -46289,20 +46289,20 @@
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J638" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="K638" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L638" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M638" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
@@ -46311,11 +46311,11 @@
       </c>
       <c r="O638" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P638" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="Q638" t="n">
         <v>1</v>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -46361,20 +46361,20 @@
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J639" t="n">
-        <v>4900</v>
+        <v>4100</v>
       </c>
       <c r="K639" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="L639" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="M639" t="n">
-        <v>2641</v>
+        <v>2476</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
@@ -46387,7 +46387,7 @@
         </is>
       </c>
       <c r="P639" t="n">
-        <v>2641</v>
+        <v>2476</v>
       </c>
       <c r="Q639" t="n">
         <v>1</v>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -46433,20 +46433,20 @@
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J640" t="n">
-        <v>3300</v>
+        <v>3600</v>
       </c>
       <c r="K640" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="L640" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="M640" t="n">
-        <v>2400</v>
+        <v>1128</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
@@ -46455,11 +46455,11 @@
       </c>
       <c r="O640" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P640" t="n">
-        <v>2400</v>
+        <v>1128</v>
       </c>
       <c r="Q640" t="n">
         <v>1</v>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44194</v>
+        <v>44454</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -46509,29 +46509,29 @@
         </is>
       </c>
       <c r="J641" t="n">
-        <v>8700</v>
+        <v>5200</v>
       </c>
       <c r="K641" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L641" t="n">
-        <v>2300</v>
+        <v>1100</v>
       </c>
       <c r="M641" t="n">
-        <v>2134</v>
+        <v>1044</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O641" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P641" t="n">
-        <v>2134</v>
+        <v>1044</v>
       </c>
       <c r="Q641" t="n">
         <v>1</v>
@@ -46577,20 +46577,20 @@
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J642" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="K642" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="L642" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="M642" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
@@ -46603,7 +46603,7 @@
         </is>
       </c>
       <c r="P642" t="n">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="Q642" t="n">
         <v>1</v>
@@ -46649,20 +46649,20 @@
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J643" t="n">
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="K643" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L643" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M643" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
@@ -46675,7 +46675,7 @@
         </is>
       </c>
       <c r="P643" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="Q643" t="n">
         <v>1</v>
@@ -46721,20 +46721,20 @@
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J644" t="n">
-        <v>8000</v>
+        <v>4900</v>
       </c>
       <c r="K644" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L644" t="n">
-        <v>3300</v>
+        <v>2800</v>
       </c>
       <c r="M644" t="n">
-        <v>3131</v>
+        <v>2641</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
@@ -46747,7 +46747,7 @@
         </is>
       </c>
       <c r="P644" t="n">
-        <v>3131</v>
+        <v>2641</v>
       </c>
       <c r="Q644" t="n">
         <v>1</v>
@@ -46793,20 +46793,20 @@
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J645" t="n">
-        <v>3800</v>
+        <v>3300</v>
       </c>
       <c r="K645" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="L645" t="n">
-        <v>1300</v>
+        <v>2400</v>
       </c>
       <c r="M645" t="n">
-        <v>1174</v>
+        <v>2400</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
@@ -46815,11 +46815,11 @@
       </c>
       <c r="O645" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P645" t="n">
-        <v>1174</v>
+        <v>2400</v>
       </c>
       <c r="Q645" t="n">
         <v>1</v>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -46869,29 +46869,29 @@
         </is>
       </c>
       <c r="J646" t="n">
-        <v>5900</v>
+        <v>8700</v>
       </c>
       <c r="K646" t="n">
-        <v>750</v>
+        <v>2000</v>
       </c>
       <c r="L646" t="n">
-        <v>780</v>
+        <v>2300</v>
       </c>
       <c r="M646" t="n">
-        <v>767</v>
+        <v>2134</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O646" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P646" t="n">
-        <v>767</v>
+        <v>2134</v>
       </c>
       <c r="Q646" t="n">
         <v>1</v>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -46941,29 +46941,29 @@
         </is>
       </c>
       <c r="J647" t="n">
-        <v>2200</v>
+        <v>5000</v>
       </c>
       <c r="K647" t="n">
-        <v>650</v>
+        <v>1800</v>
       </c>
       <c r="L647" t="n">
-        <v>650</v>
+        <v>1800</v>
       </c>
       <c r="M647" t="n">
-        <v>650</v>
+        <v>1800</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O647" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P647" t="n">
-        <v>650</v>
+        <v>1800</v>
       </c>
       <c r="Q647" t="n">
         <v>1</v>
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44272</v>
+        <v>44194</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -47009,20 +47009,20 @@
       </c>
       <c r="I648" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J648" t="n">
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="K648" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L648" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M648" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
@@ -47031,11 +47031,11 @@
       </c>
       <c r="O648" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P648" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q648" t="n">
         <v>1</v>
@@ -47061,7 +47061,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44272</v>
+        <v>44194</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -47081,20 +47081,20 @@
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J649" t="n">
-        <v>2200</v>
+        <v>8000</v>
       </c>
       <c r="K649" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L649" t="n">
-        <v>2000</v>
+        <v>3300</v>
       </c>
       <c r="M649" t="n">
-        <v>2000</v>
+        <v>3131</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
@@ -47107,7 +47107,7 @@
         </is>
       </c>
       <c r="P649" t="n">
-        <v>2000</v>
+        <v>3131</v>
       </c>
       <c r="Q649" t="n">
         <v>1</v>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44272</v>
+        <v>44194</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -47153,20 +47153,20 @@
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J650" t="n">
-        <v>1900</v>
+        <v>3800</v>
       </c>
       <c r="K650" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L650" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="M650" t="n">
-        <v>1500</v>
+        <v>1174</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
@@ -47175,11 +47175,11 @@
       </c>
       <c r="O650" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P650" t="n">
-        <v>1500</v>
+        <v>1174</v>
       </c>
       <c r="Q650" t="n">
         <v>1</v>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44272</v>
+        <v>44518</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -47225,33 +47225,33 @@
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J651" t="n">
-        <v>1700</v>
+        <v>5900</v>
       </c>
       <c r="K651" t="n">
-        <v>1600</v>
+        <v>750</v>
       </c>
       <c r="L651" t="n">
-        <v>1600</v>
+        <v>780</v>
       </c>
       <c r="M651" t="n">
-        <v>1600</v>
+        <v>767</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O651" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P651" t="n">
-        <v>1600</v>
+        <v>767</v>
       </c>
       <c r="Q651" t="n">
         <v>1</v>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44272</v>
+        <v>44518</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -47297,33 +47297,33 @@
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J652" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="K652" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="L652" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="M652" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O652" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P652" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="Q652" t="n">
         <v>1</v>
@@ -47369,38 +47369,398 @@
       </c>
       <c r="I653" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J653" t="n">
+        <v>2400</v>
+      </c>
+      <c r="K653" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L653" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M653" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N653" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O653" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P653" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q653" t="n">
+        <v>1</v>
+      </c>
+      <c r="R653" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>6</v>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D654" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E654" t="n">
+        <v>13</v>
+      </c>
+      <c r="F654" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G654" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I654" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J654" t="n">
+        <v>2200</v>
+      </c>
+      <c r="K654" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L654" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M654" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N654" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O654" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P654" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q654" t="n">
+        <v>1</v>
+      </c>
+      <c r="R654" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>6</v>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D655" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E655" t="n">
+        <v>13</v>
+      </c>
+      <c r="F655" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I655" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J655" t="n">
+        <v>1900</v>
+      </c>
+      <c r="K655" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L655" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M655" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N655" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O655" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P655" t="n">
+        <v>1500</v>
+      </c>
+      <c r="Q655" t="n">
+        <v>1</v>
+      </c>
+      <c r="R655" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>6</v>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D656" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E656" t="n">
+        <v>13</v>
+      </c>
+      <c r="F656" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I656" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J656" t="n">
+        <v>1700</v>
+      </c>
+      <c r="K656" t="n">
+        <v>1600</v>
+      </c>
+      <c r="L656" t="n">
+        <v>1600</v>
+      </c>
+      <c r="M656" t="n">
+        <v>1600</v>
+      </c>
+      <c r="N656" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O656" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P656" t="n">
+        <v>1600</v>
+      </c>
+      <c r="Q656" t="n">
+        <v>1</v>
+      </c>
+      <c r="R656" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>6</v>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D657" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E657" t="n">
+        <v>13</v>
+      </c>
+      <c r="F657" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G657" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I657" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J653" t="n">
+      <c r="J657" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K657" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L657" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M657" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N657" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O657" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P657" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q657" t="n">
+        <v>1</v>
+      </c>
+      <c r="R657" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>6</v>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D658" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E658" t="n">
+        <v>13</v>
+      </c>
+      <c r="F658" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G658" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I658" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J658" t="n">
         <v>1300</v>
       </c>
-      <c r="K653" t="n">
+      <c r="K658" t="n">
         <v>1000</v>
       </c>
-      <c r="L653" t="n">
+      <c r="L658" t="n">
         <v>1000</v>
       </c>
-      <c r="M653" t="n">
+      <c r="M658" t="n">
         <v>1000</v>
       </c>
-      <c r="N653" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O653" t="inlineStr">
+      <c r="N658" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O658" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P653" t="n">
+      <c r="P658" t="n">
         <v>1000</v>
       </c>
-      <c r="Q653" t="n">
-        <v>1</v>
-      </c>
-      <c r="R653" t="inlineStr">
+      <c r="Q658" t="n">
+        <v>1</v>
+      </c>
+      <c r="R658" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R698"/>
+  <dimension ref="A1:R709"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40941,7 +40941,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44543</v>
+        <v>44551</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -40961,20 +40961,20 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J564" t="n">
-        <v>5700</v>
+        <v>2000</v>
       </c>
       <c r="K564" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="L564" t="n">
-        <v>3800</v>
+        <v>800</v>
       </c>
       <c r="M564" t="n">
-        <v>3626</v>
+        <v>800</v>
       </c>
       <c r="N564" t="inlineStr">
         <is>
@@ -40983,11 +40983,11 @@
       </c>
       <c r="O564" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P564" t="n">
-        <v>3626</v>
+        <v>800</v>
       </c>
       <c r="Q564" t="n">
         <v>1</v>
@@ -41013,7 +41013,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44543</v>
+        <v>44551</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -41033,20 +41033,20 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J565" t="n">
-        <v>9300</v>
+        <v>5500</v>
       </c>
       <c r="K565" t="n">
-        <v>2900</v>
+        <v>800</v>
       </c>
       <c r="L565" t="n">
-        <v>3200</v>
+        <v>1000</v>
       </c>
       <c r="M565" t="n">
-        <v>3045</v>
+        <v>891</v>
       </c>
       <c r="N565" t="inlineStr">
         <is>
@@ -41059,7 +41059,7 @@
         </is>
       </c>
       <c r="P565" t="n">
-        <v>3045</v>
+        <v>891</v>
       </c>
       <c r="Q565" t="n">
         <v>1</v>
@@ -41085,7 +41085,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44543</v>
+        <v>44551</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -41105,20 +41105,20 @@
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J566" t="n">
-        <v>4300</v>
+        <v>2300</v>
       </c>
       <c r="K566" t="n">
-        <v>2400</v>
+        <v>3600</v>
       </c>
       <c r="L566" t="n">
-        <v>2700</v>
+        <v>3600</v>
       </c>
       <c r="M566" t="n">
-        <v>2505</v>
+        <v>3600</v>
       </c>
       <c r="N566" t="inlineStr">
         <is>
@@ -41127,11 +41127,11 @@
       </c>
       <c r="O566" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P566" t="n">
-        <v>2505</v>
+        <v>3600</v>
       </c>
       <c r="Q566" t="n">
         <v>1</v>
@@ -41157,7 +41157,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44543</v>
+        <v>44551</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -41177,20 +41177,20 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J567" t="n">
-        <v>3400</v>
+        <v>7100</v>
       </c>
       <c r="K567" t="n">
-        <v>4000</v>
+        <v>3300</v>
       </c>
       <c r="L567" t="n">
-        <v>4300</v>
+        <v>3800</v>
       </c>
       <c r="M567" t="n">
-        <v>4132</v>
+        <v>3525</v>
       </c>
       <c r="N567" t="inlineStr">
         <is>
@@ -41203,7 +41203,7 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>4132</v>
+        <v>3525</v>
       </c>
       <c r="Q567" t="n">
         <v>1</v>
@@ -41229,7 +41229,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44543</v>
+        <v>44551</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -41249,20 +41249,20 @@
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J568" t="n">
-        <v>4500</v>
+        <v>2800</v>
       </c>
       <c r="K568" t="n">
-        <v>1600</v>
+        <v>3000</v>
       </c>
       <c r="L568" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M568" t="n">
-        <v>1769</v>
+        <v>3000</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41271,11 +41271,11 @@
       </c>
       <c r="O568" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P568" t="n">
-        <v>1769</v>
+        <v>3000</v>
       </c>
       <c r="Q568" t="n">
         <v>1</v>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44278</v>
+        <v>44551</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -41321,20 +41321,20 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J569" t="n">
-        <v>1300</v>
+        <v>8400</v>
       </c>
       <c r="K569" t="n">
-        <v>700</v>
+        <v>2700</v>
       </c>
       <c r="L569" t="n">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="M569" t="n">
-        <v>700</v>
+        <v>2800</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41343,11 +41343,11 @@
       </c>
       <c r="O569" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P569" t="n">
-        <v>700</v>
+        <v>2800</v>
       </c>
       <c r="Q569" t="n">
         <v>1</v>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44278</v>
+        <v>44551</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -41393,11 +41393,11 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J570" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="K570" t="n">
         <v>2300</v>
@@ -41415,7 +41415,7 @@
       </c>
       <c r="O570" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P570" t="n">
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44278</v>
+        <v>44551</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -41465,20 +41465,20 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J571" t="n">
-        <v>3500</v>
+        <v>10300</v>
       </c>
       <c r="K571" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="L571" t="n">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="M571" t="n">
-        <v>1900</v>
+        <v>2176</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41487,11 +41487,11 @@
       </c>
       <c r="O571" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P571" t="n">
-        <v>1900</v>
+        <v>2176</v>
       </c>
       <c r="Q571" t="n">
         <v>1</v>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44278</v>
+        <v>44551</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -41537,20 +41537,20 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="K572" t="n">
-        <v>1500</v>
+        <v>4300</v>
       </c>
       <c r="L572" t="n">
-        <v>1500</v>
+        <v>4300</v>
       </c>
       <c r="M572" t="n">
-        <v>1500</v>
+        <v>4300</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41559,11 +41559,11 @@
       </c>
       <c r="O572" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P572" t="n">
-        <v>1500</v>
+        <v>4300</v>
       </c>
       <c r="Q572" t="n">
         <v>1</v>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44278</v>
+        <v>44551</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -41609,20 +41609,20 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>1900</v>
+        <v>5400</v>
       </c>
       <c r="K573" t="n">
-        <v>1200</v>
+        <v>4000</v>
       </c>
       <c r="L573" t="n">
-        <v>1200</v>
+        <v>4400</v>
       </c>
       <c r="M573" t="n">
-        <v>1200</v>
+        <v>4185</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41631,11 +41631,11 @@
       </c>
       <c r="O573" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P573" t="n">
-        <v>1200</v>
+        <v>4185</v>
       </c>
       <c r="Q573" t="n">
         <v>1</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44187</v>
+        <v>44551</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -41681,20 +41681,20 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="K574" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="L574" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="M574" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41707,7 +41707,7 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="Q574" t="n">
         <v>1</v>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44187</v>
+        <v>44543</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -41757,16 +41757,16 @@
         </is>
       </c>
       <c r="J575" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
       <c r="K575" t="n">
-        <v>2900</v>
+        <v>3500</v>
       </c>
       <c r="L575" t="n">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="M575" t="n">
-        <v>3068</v>
+        <v>3626</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41779,7 +41779,7 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>3068</v>
+        <v>3626</v>
       </c>
       <c r="Q575" t="n">
         <v>1</v>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44187</v>
+        <v>44543</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -41829,16 +41829,16 @@
         </is>
       </c>
       <c r="J576" t="n">
-        <v>4400</v>
+        <v>9300</v>
       </c>
       <c r="K576" t="n">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="L576" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="M576" t="n">
-        <v>2500</v>
+        <v>3045</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41847,11 +41847,11 @@
       </c>
       <c r="O576" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P576" t="n">
-        <v>2500</v>
+        <v>3045</v>
       </c>
       <c r="Q576" t="n">
         <v>1</v>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44187</v>
+        <v>44543</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -41897,20 +41897,20 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>8300</v>
+        <v>4300</v>
       </c>
       <c r="K577" t="n">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="L577" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="M577" t="n">
-        <v>2394</v>
+        <v>2505</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41923,7 +41923,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>2394</v>
+        <v>2505</v>
       </c>
       <c r="Q577" t="n">
         <v>1</v>
@@ -41949,7 +41949,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44187</v>
+        <v>44543</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -41969,20 +41969,20 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="K578" t="n">
-        <v>1700</v>
+        <v>4000</v>
       </c>
       <c r="L578" t="n">
-        <v>2000</v>
+        <v>4300</v>
       </c>
       <c r="M578" t="n">
-        <v>1814</v>
+        <v>4132</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41995,7 +41995,7 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>1814</v>
+        <v>4132</v>
       </c>
       <c r="Q578" t="n">
         <v>1</v>
@@ -42021,7 +42021,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44187</v>
+        <v>44543</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -42041,20 +42041,20 @@
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>3800</v>
+        <v>4500</v>
       </c>
       <c r="K579" t="n">
-        <v>3600</v>
+        <v>1600</v>
       </c>
       <c r="L579" t="n">
-        <v>3600</v>
+        <v>2000</v>
       </c>
       <c r="M579" t="n">
-        <v>3600</v>
+        <v>1769</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42063,11 +42063,11 @@
       </c>
       <c r="O579" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P579" t="n">
-        <v>3600</v>
+        <v>1769</v>
       </c>
       <c r="Q579" t="n">
         <v>1</v>
@@ -42093,7 +42093,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -42113,20 +42113,20 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J580" t="n">
-        <v>6300</v>
+        <v>1300</v>
       </c>
       <c r="K580" t="n">
-        <v>3400</v>
+        <v>700</v>
       </c>
       <c r="L580" t="n">
-        <v>3700</v>
+        <v>700</v>
       </c>
       <c r="M580" t="n">
-        <v>3571</v>
+        <v>700</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42135,11 +42135,11 @@
       </c>
       <c r="O580" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P580" t="n">
-        <v>3571</v>
+        <v>700</v>
       </c>
       <c r="Q580" t="n">
         <v>1</v>
@@ -42165,7 +42165,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -42185,20 +42185,20 @@
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J581" t="n">
-        <v>4900</v>
+        <v>2200</v>
       </c>
       <c r="K581" t="n">
-        <v>1000</v>
+        <v>2300</v>
       </c>
       <c r="L581" t="n">
-        <v>1300</v>
+        <v>2300</v>
       </c>
       <c r="M581" t="n">
-        <v>1153</v>
+        <v>2300</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42207,11 +42207,11 @@
       </c>
       <c r="O581" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P581" t="n">
-        <v>1153</v>
+        <v>2300</v>
       </c>
       <c r="Q581" t="n">
         <v>1</v>
@@ -42237,7 +42237,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44529</v>
+        <v>44278</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -42261,29 +42261,29 @@
         </is>
       </c>
       <c r="J582" t="n">
-        <v>8200</v>
+        <v>3500</v>
       </c>
       <c r="K582" t="n">
-        <v>400</v>
+        <v>1900</v>
       </c>
       <c r="L582" t="n">
-        <v>450</v>
+        <v>1900</v>
       </c>
       <c r="M582" t="n">
-        <v>421</v>
+        <v>1900</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O582" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P582" t="n">
-        <v>421</v>
+        <v>1900</v>
       </c>
       <c r="Q582" t="n">
         <v>1</v>
@@ -42309,7 +42309,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44529</v>
+        <v>44278</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -42329,33 +42329,33 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J583" t="n">
-        <v>12500</v>
+        <v>2800</v>
       </c>
       <c r="K583" t="n">
-        <v>380</v>
+        <v>1500</v>
       </c>
       <c r="L583" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="M583" t="n">
-        <v>389</v>
+        <v>1500</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O583" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P583" t="n">
-        <v>389</v>
+        <v>1500</v>
       </c>
       <c r="Q583" t="n">
         <v>1</v>
@@ -42381,7 +42381,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44529</v>
+        <v>44278</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -42401,20 +42401,20 @@
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J584" t="n">
         <v>1900</v>
       </c>
       <c r="K584" t="n">
-        <v>3700</v>
+        <v>1200</v>
       </c>
       <c r="L584" t="n">
-        <v>3700</v>
+        <v>1200</v>
       </c>
       <c r="M584" t="n">
-        <v>3700</v>
+        <v>1200</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42423,11 +42423,11 @@
       </c>
       <c r="O584" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P584" t="n">
-        <v>3700</v>
+        <v>1200</v>
       </c>
       <c r="Q584" t="n">
         <v>1</v>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -42473,20 +42473,20 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J585" t="n">
-        <v>2900</v>
+        <v>2600</v>
       </c>
       <c r="K585" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="L585" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="M585" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42495,11 +42495,11 @@
       </c>
       <c r="O585" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P585" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q585" t="n">
         <v>1</v>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -42545,33 +42545,33 @@
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J586" t="n">
+        <v>5000</v>
+      </c>
+      <c r="K586" t="n">
         <v>2900</v>
       </c>
-      <c r="K586" t="n">
-        <v>300</v>
-      </c>
       <c r="L586" t="n">
-        <v>300</v>
+        <v>3200</v>
       </c>
       <c r="M586" t="n">
-        <v>300</v>
+        <v>3068</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O586" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P586" t="n">
-        <v>300</v>
+        <v>3068</v>
       </c>
       <c r="Q586" t="n">
         <v>1</v>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -42617,33 +42617,33 @@
       </c>
       <c r="I587" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J587" t="n">
-        <v>3300</v>
+        <v>4400</v>
       </c>
       <c r="K587" t="n">
-        <v>350</v>
+        <v>2500</v>
       </c>
       <c r="L587" t="n">
-        <v>350</v>
+        <v>2500</v>
       </c>
       <c r="M587" t="n">
-        <v>350</v>
+        <v>2500</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O587" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P587" t="n">
-        <v>350</v>
+        <v>2500</v>
       </c>
       <c r="Q587" t="n">
         <v>1</v>
@@ -42669,7 +42669,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -42689,20 +42689,20 @@
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J588" t="n">
+        <v>8300</v>
+      </c>
+      <c r="K588" t="n">
+        <v>2300</v>
+      </c>
+      <c r="L588" t="n">
         <v>2500</v>
       </c>
-      <c r="K588" t="n">
-        <v>3000</v>
-      </c>
-      <c r="L588" t="n">
-        <v>3000</v>
-      </c>
       <c r="M588" t="n">
-        <v>3000</v>
+        <v>2394</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
@@ -42711,11 +42711,11 @@
       </c>
       <c r="O588" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P588" t="n">
-        <v>3000</v>
+        <v>2394</v>
       </c>
       <c r="Q588" t="n">
         <v>1</v>
@@ -42741,7 +42741,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -42765,16 +42765,16 @@
         </is>
       </c>
       <c r="J589" t="n">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="K589" t="n">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="L589" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M589" t="n">
-        <v>3000</v>
+        <v>1814</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
@@ -42787,7 +42787,7 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>3000</v>
+        <v>1814</v>
       </c>
       <c r="Q589" t="n">
         <v>1</v>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -42833,20 +42833,20 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J590" t="n">
-        <v>2000</v>
+        <v>3800</v>
       </c>
       <c r="K590" t="n">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="L590" t="n">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="M590" t="n">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
@@ -42859,7 +42859,7 @@
         </is>
       </c>
       <c r="P590" t="n">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="Q590" t="n">
         <v>1</v>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -42905,20 +42905,20 @@
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>3200</v>
+        <v>6300</v>
       </c>
       <c r="K591" t="n">
-        <v>2300</v>
+        <v>3400</v>
       </c>
       <c r="L591" t="n">
-        <v>2300</v>
+        <v>3700</v>
       </c>
       <c r="M591" t="n">
-        <v>2300</v>
+        <v>3571</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42931,7 +42931,7 @@
         </is>
       </c>
       <c r="P591" t="n">
-        <v>2300</v>
+        <v>3571</v>
       </c>
       <c r="Q591" t="n">
         <v>1</v>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44238</v>
+        <v>44187</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -42977,20 +42977,20 @@
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J592" t="n">
-        <v>2800</v>
+        <v>4900</v>
       </c>
       <c r="K592" t="n">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="L592" t="n">
-        <v>2200</v>
+        <v>1300</v>
       </c>
       <c r="M592" t="n">
-        <v>2200</v>
+        <v>1153</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -42999,11 +42999,11 @@
       </c>
       <c r="O592" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P592" t="n">
-        <v>2200</v>
+        <v>1153</v>
       </c>
       <c r="Q592" t="n">
         <v>1</v>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -43049,33 +43049,33 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J593" t="n">
-        <v>5700</v>
+        <v>8200</v>
       </c>
       <c r="K593" t="n">
-        <v>2100</v>
+        <v>400</v>
       </c>
       <c r="L593" t="n">
-        <v>2500</v>
+        <v>450</v>
       </c>
       <c r="M593" t="n">
-        <v>2346</v>
+        <v>421</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O593" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P593" t="n">
-        <v>2346</v>
+        <v>421</v>
       </c>
       <c r="Q593" t="n">
         <v>1</v>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -43125,29 +43125,29 @@
         </is>
       </c>
       <c r="J594" t="n">
-        <v>3700</v>
+        <v>12500</v>
       </c>
       <c r="K594" t="n">
-        <v>1800</v>
+        <v>380</v>
       </c>
       <c r="L594" t="n">
-        <v>1800</v>
+        <v>400</v>
       </c>
       <c r="M594" t="n">
-        <v>1800</v>
+        <v>389</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O594" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P594" t="n">
-        <v>1800</v>
+        <v>389</v>
       </c>
       <c r="Q594" t="n">
         <v>1</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -43197,16 +43197,16 @@
         </is>
       </c>
       <c r="J595" t="n">
-        <v>7800</v>
+        <v>1900</v>
       </c>
       <c r="K595" t="n">
-        <v>1700</v>
+        <v>3700</v>
       </c>
       <c r="L595" t="n">
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="M595" t="n">
-        <v>1850</v>
+        <v>3700</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
@@ -43215,11 +43215,11 @@
       </c>
       <c r="O595" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P595" t="n">
-        <v>1850</v>
+        <v>3700</v>
       </c>
       <c r="Q595" t="n">
         <v>1</v>
@@ -43245,7 +43245,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -43265,20 +43265,20 @@
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>3900</v>
+        <v>2900</v>
       </c>
       <c r="K596" t="n">
-        <v>1300</v>
+        <v>3800</v>
       </c>
       <c r="L596" t="n">
-        <v>1600</v>
+        <v>3800</v>
       </c>
       <c r="M596" t="n">
-        <v>1446</v>
+        <v>3800</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
@@ -43291,7 +43291,7 @@
         </is>
       </c>
       <c r="P596" t="n">
-        <v>1446</v>
+        <v>3800</v>
       </c>
       <c r="Q596" t="n">
         <v>1</v>
@@ -43317,7 +43317,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -43337,33 +43337,33 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J597" t="n">
-        <v>3300</v>
+        <v>2900</v>
       </c>
       <c r="K597" t="n">
-        <v>2700</v>
+        <v>300</v>
       </c>
       <c r="L597" t="n">
-        <v>2700</v>
+        <v>300</v>
       </c>
       <c r="M597" t="n">
-        <v>2700</v>
+        <v>300</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O597" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P597" t="n">
-        <v>2700</v>
+        <v>300</v>
       </c>
       <c r="Q597" t="n">
         <v>1</v>
@@ -43389,7 +43389,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -43409,24 +43409,24 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J598" t="n">
-        <v>5900</v>
+        <v>3300</v>
       </c>
       <c r="K598" t="n">
-        <v>2600</v>
+        <v>350</v>
       </c>
       <c r="L598" t="n">
-        <v>2800</v>
+        <v>350</v>
       </c>
       <c r="M598" t="n">
-        <v>2688</v>
+        <v>350</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O598" t="inlineStr">
@@ -43435,7 +43435,7 @@
         </is>
       </c>
       <c r="P598" t="n">
-        <v>2688</v>
+        <v>350</v>
       </c>
       <c r="Q598" t="n">
         <v>1</v>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -43481,20 +43481,20 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J599" t="n">
-        <v>3900</v>
+        <v>2500</v>
       </c>
       <c r="K599" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="L599" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="M599" t="n">
-        <v>1113</v>
+        <v>3000</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43503,11 +43503,11 @@
       </c>
       <c r="O599" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P599" t="n">
-        <v>1113</v>
+        <v>3000</v>
       </c>
       <c r="Q599" t="n">
         <v>1</v>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44257</v>
+        <v>44529</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -43553,20 +43553,20 @@
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J600" t="n">
-        <v>4400</v>
+        <v>3500</v>
       </c>
       <c r="K600" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L600" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="M600" t="n">
-        <v>2164</v>
+        <v>3000</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
@@ -43579,7 +43579,7 @@
         </is>
       </c>
       <c r="P600" t="n">
-        <v>2164</v>
+        <v>3000</v>
       </c>
       <c r="Q600" t="n">
         <v>1</v>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44257</v>
+        <v>44529</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -43625,20 +43625,20 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>6600</v>
+        <v>2000</v>
       </c>
       <c r="K601" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L601" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M601" t="n">
-        <v>1747</v>
+        <v>2000</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
@@ -43647,11 +43647,11 @@
       </c>
       <c r="O601" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P601" t="n">
-        <v>1747</v>
+        <v>2000</v>
       </c>
       <c r="Q601" t="n">
         <v>1</v>
@@ -43677,7 +43677,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44257</v>
+        <v>44529</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -43697,20 +43697,20 @@
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J602" t="n">
-        <v>4400</v>
+        <v>3200</v>
       </c>
       <c r="K602" t="n">
-        <v>1400</v>
+        <v>2300</v>
       </c>
       <c r="L602" t="n">
-        <v>1600</v>
+        <v>2300</v>
       </c>
       <c r="M602" t="n">
-        <v>1523</v>
+        <v>2300</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43723,7 +43723,7 @@
         </is>
       </c>
       <c r="P602" t="n">
-        <v>1523</v>
+        <v>2300</v>
       </c>
       <c r="Q602" t="n">
         <v>1</v>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -43769,20 +43769,20 @@
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J603" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="K603" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="L603" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="M603" t="n">
-        <v>2512</v>
+        <v>2200</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43791,11 +43791,11 @@
       </c>
       <c r="O603" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P603" t="n">
-        <v>2512</v>
+        <v>2200</v>
       </c>
       <c r="Q603" t="n">
         <v>1</v>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -43841,20 +43841,20 @@
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J604" t="n">
-        <v>3500</v>
+        <v>5700</v>
       </c>
       <c r="K604" t="n">
-        <v>1000</v>
+        <v>2100</v>
       </c>
       <c r="L604" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="M604" t="n">
-        <v>1137</v>
+        <v>2346</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43867,7 +43867,7 @@
         </is>
       </c>
       <c r="P604" t="n">
-        <v>1137</v>
+        <v>2346</v>
       </c>
       <c r="Q604" t="n">
         <v>1</v>
@@ -43893,7 +43893,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44175</v>
+        <v>44238</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -43913,20 +43913,20 @@
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J605" t="n">
-        <v>2200</v>
+        <v>3700</v>
       </c>
       <c r="K605" t="n">
-        <v>3200</v>
+        <v>1800</v>
       </c>
       <c r="L605" t="n">
-        <v>3400</v>
+        <v>1800</v>
       </c>
       <c r="M605" t="n">
-        <v>3309</v>
+        <v>1800</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
@@ -43935,11 +43935,11 @@
       </c>
       <c r="O605" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P605" t="n">
-        <v>3309</v>
+        <v>1800</v>
       </c>
       <c r="Q605" t="n">
         <v>1</v>
@@ -43965,7 +43965,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44175</v>
+        <v>44238</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -43985,20 +43985,20 @@
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J606" t="n">
-        <v>3100</v>
+        <v>7800</v>
       </c>
       <c r="K606" t="n">
-        <v>3300</v>
+        <v>1700</v>
       </c>
       <c r="L606" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M606" t="n">
-        <v>3390</v>
+        <v>1850</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         </is>
       </c>
       <c r="P606" t="n">
-        <v>3390</v>
+        <v>1850</v>
       </c>
       <c r="Q606" t="n">
         <v>1</v>
@@ -44037,7 +44037,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44175</v>
+        <v>44238</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -44057,20 +44057,20 @@
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J607" t="n">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="K607" t="n">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="L607" t="n">
-        <v>2700</v>
+        <v>1600</v>
       </c>
       <c r="M607" t="n">
-        <v>2595</v>
+        <v>1446</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
@@ -44079,11 +44079,11 @@
       </c>
       <c r="O607" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P607" t="n">
-        <v>2595</v>
+        <v>1446</v>
       </c>
       <c r="Q607" t="n">
         <v>1</v>
@@ -44109,7 +44109,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44175</v>
+        <v>44238</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -44129,20 +44129,20 @@
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J608" t="n">
-        <v>6000</v>
+        <v>3300</v>
       </c>
       <c r="K608" t="n">
         <v>2700</v>
       </c>
       <c r="L608" t="n">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="M608" t="n">
-        <v>2810</v>
+        <v>2700</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44151,11 +44151,11 @@
       </c>
       <c r="O608" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P608" t="n">
-        <v>2810</v>
+        <v>2700</v>
       </c>
       <c r="Q608" t="n">
         <v>1</v>
@@ -44181,7 +44181,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44175</v>
+        <v>44238</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -44201,20 +44201,20 @@
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J609" t="n">
-        <v>4000</v>
+        <v>5900</v>
       </c>
       <c r="K609" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="L609" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="M609" t="n">
-        <v>2275</v>
+        <v>2688</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
@@ -44227,7 +44227,7 @@
         </is>
       </c>
       <c r="P609" t="n">
-        <v>2275</v>
+        <v>2688</v>
       </c>
       <c r="Q609" t="n">
         <v>1</v>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44175</v>
+        <v>44238</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -44273,20 +44273,20 @@
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J610" t="n">
-        <v>1800</v>
+        <v>3900</v>
       </c>
       <c r="K610" t="n">
-        <v>3800</v>
+        <v>1000</v>
       </c>
       <c r="L610" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="M610" t="n">
-        <v>3922</v>
+        <v>1113</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44295,11 +44295,11 @@
       </c>
       <c r="O610" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P610" t="n">
-        <v>3922</v>
+        <v>1113</v>
       </c>
       <c r="Q610" t="n">
         <v>1</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -44345,20 +44345,20 @@
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J611" t="n">
-        <v>2900</v>
+        <v>4400</v>
       </c>
       <c r="K611" t="n">
-        <v>3900</v>
+        <v>2000</v>
       </c>
       <c r="L611" t="n">
-        <v>4000</v>
+        <v>2300</v>
       </c>
       <c r="M611" t="n">
-        <v>3945</v>
+        <v>2164</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44371,7 +44371,7 @@
         </is>
       </c>
       <c r="P611" t="n">
-        <v>3945</v>
+        <v>2164</v>
       </c>
       <c r="Q611" t="n">
         <v>1</v>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -44417,20 +44417,20 @@
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J612" t="n">
-        <v>3000</v>
+        <v>6600</v>
       </c>
       <c r="K612" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="L612" t="n">
         <v>1800</v>
       </c>
       <c r="M612" t="n">
-        <v>1673</v>
+        <v>1747</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         </is>
       </c>
       <c r="P612" t="n">
-        <v>1673</v>
+        <v>1747</v>
       </c>
       <c r="Q612" t="n">
         <v>1</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44196</v>
+        <v>44257</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -44489,20 +44489,20 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J613" t="n">
-        <v>5300</v>
+        <v>4400</v>
       </c>
       <c r="K613" t="n">
-        <v>2600</v>
+        <v>1400</v>
       </c>
       <c r="L613" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="M613" t="n">
-        <v>2804</v>
+        <v>1523</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44515,7 +44515,7 @@
         </is>
       </c>
       <c r="P613" t="n">
-        <v>2804</v>
+        <v>1523</v>
       </c>
       <c r="Q613" t="n">
         <v>1</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44196</v>
+        <v>44257</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -44561,20 +44561,20 @@
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J614" t="n">
-        <v>7400</v>
+        <v>3200</v>
       </c>
       <c r="K614" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L614" t="n">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="M614" t="n">
-        <v>2154</v>
+        <v>2512</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44587,7 +44587,7 @@
         </is>
       </c>
       <c r="P614" t="n">
-        <v>2154</v>
+        <v>2512</v>
       </c>
       <c r="Q614" t="n">
         <v>1</v>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44196</v>
+        <v>44257</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -44633,20 +44633,20 @@
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>4100</v>
+        <v>3500</v>
       </c>
       <c r="K615" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="L615" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="M615" t="n">
-        <v>1576</v>
+        <v>1137</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44659,7 +44659,7 @@
         </is>
       </c>
       <c r="P615" t="n">
-        <v>1576</v>
+        <v>1137</v>
       </c>
       <c r="Q615" t="n">
         <v>1</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -44705,20 +44705,20 @@
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J616" t="n">
-        <v>5800</v>
+        <v>2200</v>
       </c>
       <c r="K616" t="n">
         <v>3200</v>
       </c>
       <c r="L616" t="n">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="M616" t="n">
-        <v>3381</v>
+        <v>3309</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44727,11 +44727,11 @@
       </c>
       <c r="O616" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P616" t="n">
-        <v>3381</v>
+        <v>3309</v>
       </c>
       <c r="Q616" t="n">
         <v>1</v>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -44777,20 +44777,20 @@
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J617" t="n">
-        <v>3900</v>
+        <v>3100</v>
       </c>
       <c r="K617" t="n">
-        <v>1000</v>
+        <v>3300</v>
       </c>
       <c r="L617" t="n">
-        <v>1200</v>
+        <v>3500</v>
       </c>
       <c r="M617" t="n">
-        <v>1097</v>
+        <v>3390</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
@@ -44803,7 +44803,7 @@
         </is>
       </c>
       <c r="P617" t="n">
-        <v>1097</v>
+        <v>3390</v>
       </c>
       <c r="Q617" t="n">
         <v>1</v>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -44849,20 +44849,20 @@
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J618" t="n">
-        <v>860</v>
+        <v>3800</v>
       </c>
       <c r="K618" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="L618" t="n">
-        <v>1000</v>
+        <v>2700</v>
       </c>
       <c r="M618" t="n">
-        <v>1000</v>
+        <v>2595</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44871,11 +44871,11 @@
       </c>
       <c r="O618" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P618" t="n">
-        <v>1000</v>
+        <v>2595</v>
       </c>
       <c r="Q618" t="n">
         <v>1</v>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -44921,20 +44921,20 @@
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J619" t="n">
-        <v>700</v>
+        <v>6000</v>
       </c>
       <c r="K619" t="n">
-        <v>900</v>
+        <v>2700</v>
       </c>
       <c r="L619" t="n">
-        <v>900</v>
+        <v>2900</v>
       </c>
       <c r="M619" t="n">
-        <v>900</v>
+        <v>2810</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44947,7 +44947,7 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>900</v>
+        <v>2810</v>
       </c>
       <c r="Q619" t="n">
         <v>1</v>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -44993,20 +44993,20 @@
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J620" t="n">
-        <v>2570</v>
+        <v>4000</v>
       </c>
       <c r="K620" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="L620" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M620" t="n">
-        <v>2899</v>
+        <v>2275</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45015,11 +45015,11 @@
       </c>
       <c r="O620" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P620" t="n">
-        <v>2899</v>
+        <v>2275</v>
       </c>
       <c r="Q620" t="n">
         <v>1</v>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -45065,20 +45065,20 @@
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J621" t="n">
-        <v>3200</v>
+        <v>1800</v>
       </c>
       <c r="K621" t="n">
-        <v>2700</v>
+        <v>3800</v>
       </c>
       <c r="L621" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M621" t="n">
-        <v>2844</v>
+        <v>3922</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45087,11 +45087,11 @@
       </c>
       <c r="O621" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P621" t="n">
-        <v>2844</v>
+        <v>3922</v>
       </c>
       <c r="Q621" t="n">
         <v>1</v>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -45137,20 +45137,20 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>3050</v>
+        <v>2900</v>
       </c>
       <c r="K622" t="n">
-        <v>2300</v>
+        <v>3900</v>
       </c>
       <c r="L622" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M622" t="n">
-        <v>2405</v>
+        <v>3945</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
@@ -45159,11 +45159,11 @@
       </c>
       <c r="O622" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P622" t="n">
-        <v>2405</v>
+        <v>3945</v>
       </c>
       <c r="Q622" t="n">
         <v>1</v>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -45209,20 +45209,20 @@
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J623" t="n">
-        <v>2350</v>
+        <v>3000</v>
       </c>
       <c r="K623" t="n">
-        <v>2300</v>
+        <v>1600</v>
       </c>
       <c r="L623" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="M623" t="n">
-        <v>2402</v>
+        <v>1673</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45235,7 +45235,7 @@
         </is>
       </c>
       <c r="P623" t="n">
-        <v>2402</v>
+        <v>1673</v>
       </c>
       <c r="Q623" t="n">
         <v>1</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -45281,20 +45281,20 @@
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J624" t="n">
-        <v>2870</v>
+        <v>5300</v>
       </c>
       <c r="K624" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="L624" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="M624" t="n">
-        <v>1633</v>
+        <v>2804</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45303,11 +45303,11 @@
       </c>
       <c r="O624" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P624" t="n">
-        <v>1633</v>
+        <v>2804</v>
       </c>
       <c r="Q624" t="n">
         <v>1</v>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -45353,20 +45353,20 @@
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J625" t="n">
-        <v>2150</v>
+        <v>7400</v>
       </c>
       <c r="K625" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="L625" t="n">
-        <v>1600</v>
+        <v>2300</v>
       </c>
       <c r="M625" t="n">
-        <v>1484</v>
+        <v>2154</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45379,7 +45379,7 @@
         </is>
       </c>
       <c r="P625" t="n">
-        <v>1484</v>
+        <v>2154</v>
       </c>
       <c r="Q625" t="n">
         <v>1</v>
@@ -45405,7 +45405,7 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E626" t="n">
         <v>13</v>
@@ -45425,20 +45425,20 @@
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>1550</v>
+        <v>4100</v>
       </c>
       <c r="K626" t="n">
-        <v>3500</v>
+        <v>1400</v>
       </c>
       <c r="L626" t="n">
-        <v>3500</v>
+        <v>1700</v>
       </c>
       <c r="M626" t="n">
-        <v>3500</v>
+        <v>1576</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45447,11 +45447,11 @@
       </c>
       <c r="O626" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P626" t="n">
-        <v>3500</v>
+        <v>1576</v>
       </c>
       <c r="Q626" t="n">
         <v>1</v>
@@ -45477,7 +45477,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -45501,16 +45501,16 @@
         </is>
       </c>
       <c r="J627" t="n">
-        <v>1200</v>
+        <v>5800</v>
       </c>
       <c r="K627" t="n">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="L627" t="n">
         <v>3500</v>
       </c>
       <c r="M627" t="n">
-        <v>3383</v>
+        <v>3381</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
@@ -45523,7 +45523,7 @@
         </is>
       </c>
       <c r="P627" t="n">
-        <v>3383</v>
+        <v>3381</v>
       </c>
       <c r="Q627" t="n">
         <v>1</v>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -45573,16 +45573,16 @@
         </is>
       </c>
       <c r="J628" t="n">
-        <v>1300</v>
+        <v>3900</v>
       </c>
       <c r="K628" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="L628" t="n">
         <v>1200</v>
       </c>
       <c r="M628" t="n">
-        <v>1200</v>
+        <v>1097</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
@@ -45591,11 +45591,11 @@
       </c>
       <c r="O628" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P628" t="n">
-        <v>1200</v>
+        <v>1097</v>
       </c>
       <c r="Q628" t="n">
         <v>1</v>
@@ -45641,20 +45641,20 @@
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J629" t="n">
+        <v>860</v>
+      </c>
+      <c r="K629" t="n">
         <v>1000</v>
       </c>
-      <c r="K629" t="n">
-        <v>1200</v>
-      </c>
       <c r="L629" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="M629" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
@@ -45663,11 +45663,11 @@
       </c>
       <c r="O629" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P629" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q629" t="n">
         <v>1</v>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44459</v>
+        <v>44200</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -45713,33 +45713,33 @@
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J630" t="n">
-        <v>6200</v>
+        <v>700</v>
       </c>
       <c r="K630" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L630" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="M630" t="n">
-        <v>1044</v>
+        <v>900</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O630" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P630" t="n">
-        <v>1044</v>
+        <v>900</v>
       </c>
       <c r="Q630" t="n">
         <v>1</v>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -45785,20 +45785,20 @@
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J631" t="n">
-        <v>2900</v>
+        <v>2570</v>
       </c>
       <c r="K631" t="n">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="L631" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="M631" t="n">
-        <v>1000</v>
+        <v>2899</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
@@ -45807,11 +45807,11 @@
       </c>
       <c r="O631" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P631" t="n">
-        <v>1000</v>
+        <v>2899</v>
       </c>
       <c r="Q631" t="n">
         <v>1</v>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -45861,16 +45861,16 @@
         </is>
       </c>
       <c r="J632" t="n">
-        <v>6500</v>
+        <v>3200</v>
       </c>
       <c r="K632" t="n">
+        <v>2700</v>
+      </c>
+      <c r="L632" t="n">
         <v>3000</v>
       </c>
-      <c r="L632" t="n">
-        <v>3300</v>
-      </c>
       <c r="M632" t="n">
-        <v>3162</v>
+        <v>2844</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
@@ -45883,7 +45883,7 @@
         </is>
       </c>
       <c r="P632" t="n">
-        <v>3162</v>
+        <v>2844</v>
       </c>
       <c r="Q632" t="n">
         <v>1</v>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -45933,16 +45933,16 @@
         </is>
       </c>
       <c r="J633" t="n">
-        <v>9800</v>
+        <v>3050</v>
       </c>
       <c r="K633" t="n">
+        <v>2300</v>
+      </c>
+      <c r="L633" t="n">
         <v>2500</v>
       </c>
-      <c r="L633" t="n">
-        <v>2700</v>
-      </c>
       <c r="M633" t="n">
-        <v>2584</v>
+        <v>2405</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
@@ -45951,11 +45951,11 @@
       </c>
       <c r="O633" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P633" t="n">
-        <v>2584</v>
+        <v>2405</v>
       </c>
       <c r="Q633" t="n">
         <v>1</v>
@@ -45981,7 +45981,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -46001,20 +46001,20 @@
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J634" t="n">
-        <v>7400</v>
+        <v>2350</v>
       </c>
       <c r="K634" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L634" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M634" t="n">
-        <v>2089</v>
+        <v>2402</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
@@ -46027,7 +46027,7 @@
         </is>
       </c>
       <c r="P634" t="n">
-        <v>2089</v>
+        <v>2402</v>
       </c>
       <c r="Q634" t="n">
         <v>1</v>
@@ -46053,7 +46053,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -46073,20 +46073,20 @@
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>6300</v>
+        <v>2870</v>
       </c>
       <c r="K635" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="L635" t="n">
-        <v>3700</v>
+        <v>1800</v>
       </c>
       <c r="M635" t="n">
-        <v>3592</v>
+        <v>1633</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
@@ -46095,11 +46095,11 @@
       </c>
       <c r="O635" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P635" t="n">
-        <v>3592</v>
+        <v>1633</v>
       </c>
       <c r="Q635" t="n">
         <v>1</v>
@@ -46125,7 +46125,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -46145,11 +46145,11 @@
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J636" t="n">
-        <v>5700</v>
+        <v>2150</v>
       </c>
       <c r="K636" t="n">
         <v>1400</v>
@@ -46158,7 +46158,7 @@
         <v>1600</v>
       </c>
       <c r="M636" t="n">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46171,7 +46171,7 @@
         </is>
       </c>
       <c r="P636" t="n">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="Q636" t="n">
         <v>1</v>
@@ -46197,7 +46197,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44258</v>
+        <v>44200</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -46217,20 +46217,20 @@
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J637" t="n">
-        <v>2200</v>
+        <v>1550</v>
       </c>
       <c r="K637" t="n">
-        <v>2200</v>
+        <v>3500</v>
       </c>
       <c r="L637" t="n">
-        <v>2200</v>
+        <v>3500</v>
       </c>
       <c r="M637" t="n">
-        <v>2200</v>
+        <v>3500</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         </is>
       </c>
       <c r="P637" t="n">
-        <v>2200</v>
+        <v>3500</v>
       </c>
       <c r="Q637" t="n">
         <v>1</v>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44258</v>
+        <v>44200</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -46289,20 +46289,20 @@
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J638" t="n">
-        <v>2300</v>
+        <v>1200</v>
       </c>
       <c r="K638" t="n">
-        <v>2100</v>
+        <v>3300</v>
       </c>
       <c r="L638" t="n">
-        <v>2100</v>
+        <v>3500</v>
       </c>
       <c r="M638" t="n">
-        <v>2100</v>
+        <v>3383</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
@@ -46315,7 +46315,7 @@
         </is>
       </c>
       <c r="P638" t="n">
-        <v>2100</v>
+        <v>3383</v>
       </c>
       <c r="Q638" t="n">
         <v>1</v>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44258</v>
+        <v>44200</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -46361,20 +46361,20 @@
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J639" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="K639" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="L639" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="M639" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
@@ -46387,7 +46387,7 @@
         </is>
       </c>
       <c r="P639" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="Q639" t="n">
         <v>1</v>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44258</v>
+        <v>44200</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -46433,20 +46433,20 @@
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J640" t="n">
-        <v>3400</v>
+        <v>1000</v>
       </c>
       <c r="K640" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="L640" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="M640" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
@@ -46459,7 +46459,7 @@
         </is>
       </c>
       <c r="P640" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="Q640" t="n">
         <v>1</v>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44258</v>
+        <v>44459</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -46505,33 +46505,33 @@
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J641" t="n">
-        <v>1700</v>
+        <v>6200</v>
       </c>
       <c r="K641" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L641" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="M641" t="n">
-        <v>1500</v>
+        <v>1044</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O641" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P641" t="n">
-        <v>1500</v>
+        <v>1044</v>
       </c>
       <c r="Q641" t="n">
         <v>1</v>
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -46577,20 +46577,20 @@
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J642" t="n">
-        <v>2100</v>
+        <v>2900</v>
       </c>
       <c r="K642" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L642" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="M642" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
@@ -46603,7 +46603,7 @@
         </is>
       </c>
       <c r="P642" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="Q642" t="n">
         <v>1</v>
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -46649,20 +46649,20 @@
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J643" t="n">
-        <v>1500</v>
+        <v>6500</v>
       </c>
       <c r="K643" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="L643" t="n">
-        <v>2600</v>
+        <v>3300</v>
       </c>
       <c r="M643" t="n">
-        <v>2600</v>
+        <v>3162</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
@@ -46671,11 +46671,11 @@
       </c>
       <c r="O643" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P643" t="n">
-        <v>2600</v>
+        <v>3162</v>
       </c>
       <c r="Q643" t="n">
         <v>1</v>
@@ -46701,7 +46701,7 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E644" t="n">
         <v>13</v>
@@ -46721,20 +46721,20 @@
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J644" t="n">
-        <v>1500</v>
+        <v>9800</v>
       </c>
       <c r="K644" t="n">
         <v>2500</v>
       </c>
       <c r="L644" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="M644" t="n">
-        <v>2500</v>
+        <v>2584</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
@@ -46747,7 +46747,7 @@
         </is>
       </c>
       <c r="P644" t="n">
-        <v>2500</v>
+        <v>2584</v>
       </c>
       <c r="Q644" t="n">
         <v>1</v>
@@ -46773,7 +46773,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -46793,20 +46793,20 @@
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J645" t="n">
-        <v>2100</v>
+        <v>7400</v>
       </c>
       <c r="K645" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L645" t="n">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="M645" t="n">
-        <v>1000</v>
+        <v>2089</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
@@ -46815,11 +46815,11 @@
       </c>
       <c r="O645" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P645" t="n">
-        <v>1000</v>
+        <v>2089</v>
       </c>
       <c r="Q645" t="n">
         <v>1</v>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -46865,20 +46865,20 @@
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J646" t="n">
-        <v>2600</v>
+        <v>6300</v>
       </c>
       <c r="K646" t="n">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="L646" t="n">
-        <v>1000</v>
+        <v>3700</v>
       </c>
       <c r="M646" t="n">
-        <v>1000</v>
+        <v>3592</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46891,7 +46891,7 @@
         </is>
       </c>
       <c r="P646" t="n">
-        <v>1000</v>
+        <v>3592</v>
       </c>
       <c r="Q646" t="n">
         <v>1</v>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44224</v>
+        <v>44188</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -46937,20 +46937,20 @@
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J647" t="n">
-        <v>6800</v>
+        <v>5700</v>
       </c>
       <c r="K647" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="L647" t="n">
-        <v>2300</v>
+        <v>1600</v>
       </c>
       <c r="M647" t="n">
-        <v>2163</v>
+        <v>1488</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         </is>
       </c>
       <c r="P647" t="n">
-        <v>2163</v>
+        <v>1488</v>
       </c>
       <c r="Q647" t="n">
         <v>1</v>
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -47009,20 +47009,20 @@
       </c>
       <c r="I648" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J648" t="n">
-        <v>8100</v>
+        <v>2200</v>
       </c>
       <c r="K648" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="L648" t="n">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="M648" t="n">
-        <v>1796</v>
+        <v>2200</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
@@ -47031,11 +47031,11 @@
       </c>
       <c r="O648" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P648" t="n">
-        <v>1796</v>
+        <v>2200</v>
       </c>
       <c r="Q648" t="n">
         <v>1</v>
@@ -47061,7 +47061,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -47081,20 +47081,20 @@
       </c>
       <c r="I649" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J649" t="n">
-        <v>4400</v>
+        <v>2300</v>
       </c>
       <c r="K649" t="n">
-        <v>1400</v>
+        <v>2100</v>
       </c>
       <c r="L649" t="n">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="M649" t="n">
-        <v>1514</v>
+        <v>2100</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
@@ -47107,7 +47107,7 @@
         </is>
       </c>
       <c r="P649" t="n">
-        <v>1514</v>
+        <v>2100</v>
       </c>
       <c r="Q649" t="n">
         <v>1</v>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -47153,20 +47153,20 @@
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J650" t="n">
-        <v>5800</v>
+        <v>3000</v>
       </c>
       <c r="K650" t="n">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="L650" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="M650" t="n">
-        <v>2566</v>
+        <v>1800</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
@@ -47175,11 +47175,11 @@
       </c>
       <c r="O650" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P650" t="n">
-        <v>2566</v>
+        <v>1800</v>
       </c>
       <c r="Q650" t="n">
         <v>1</v>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -47225,20 +47225,20 @@
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J651" t="n">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K651" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L651" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="M651" t="n">
-        <v>1130</v>
+        <v>1800</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
@@ -47251,7 +47251,7 @@
         </is>
       </c>
       <c r="P651" t="n">
-        <v>1130</v>
+        <v>1800</v>
       </c>
       <c r="Q651" t="n">
         <v>1</v>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44452</v>
+        <v>44258</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -47297,33 +47297,33 @@
       </c>
       <c r="I652" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J652" t="n">
-        <v>4500</v>
+        <v>1700</v>
       </c>
       <c r="K652" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="L652" t="n">
-        <v>1150</v>
+        <v>1500</v>
       </c>
       <c r="M652" t="n">
-        <v>1121</v>
+        <v>1500</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O652" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P652" t="n">
-        <v>1121</v>
+        <v>1500</v>
       </c>
       <c r="Q652" t="n">
         <v>1</v>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44270</v>
+        <v>44258</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -47369,20 +47369,20 @@
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J653" t="n">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="K653" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L653" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M653" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
@@ -47391,11 +47391,11 @@
       </c>
       <c r="O653" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P653" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="Q653" t="n">
         <v>1</v>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44270</v>
+        <v>44258</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -47441,20 +47441,20 @@
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J654" t="n">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="K654" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="L654" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="M654" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
@@ -47467,7 +47467,7 @@
         </is>
       </c>
       <c r="P654" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="Q654" t="n">
         <v>1</v>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44270</v>
+        <v>44258</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -47513,20 +47513,20 @@
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J655" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="K655" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L655" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M655" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
@@ -47535,11 +47535,11 @@
       </c>
       <c r="O655" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P655" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="Q655" t="n">
         <v>1</v>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44270</v>
+        <v>44258</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -47585,20 +47585,20 @@
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J656" t="n">
-        <v>3800</v>
+        <v>2100</v>
       </c>
       <c r="K656" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="L656" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="M656" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47611,7 +47611,7 @@
         </is>
       </c>
       <c r="P656" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="Q656" t="n">
         <v>1</v>
@@ -47637,7 +47637,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44270</v>
+        <v>44258</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -47661,16 +47661,16 @@
         </is>
       </c>
       <c r="J657" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="K657" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L657" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="M657" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
@@ -47679,11 +47679,11 @@
       </c>
       <c r="O657" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P657" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="Q657" t="n">
         <v>1</v>
@@ -47709,7 +47709,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -47733,16 +47733,16 @@
         </is>
       </c>
       <c r="J658" t="n">
-        <v>5000</v>
+        <v>6800</v>
       </c>
       <c r="K658" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="L658" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="M658" t="n">
-        <v>2832</v>
+        <v>2163</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47755,7 +47755,7 @@
         </is>
       </c>
       <c r="P658" t="n">
-        <v>2832</v>
+        <v>2163</v>
       </c>
       <c r="Q658" t="n">
         <v>1</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -47805,16 +47805,16 @@
         </is>
       </c>
       <c r="J659" t="n">
-        <v>8300</v>
+        <v>8100</v>
       </c>
       <c r="K659" t="n">
-        <v>2300</v>
+        <v>1700</v>
       </c>
       <c r="L659" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="M659" t="n">
-        <v>2392</v>
+        <v>1796</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
@@ -47827,7 +47827,7 @@
         </is>
       </c>
       <c r="P659" t="n">
-        <v>2392</v>
+        <v>1796</v>
       </c>
       <c r="Q659" t="n">
         <v>1</v>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -47877,16 +47877,16 @@
         </is>
       </c>
       <c r="J660" t="n">
-        <v>4000</v>
+        <v>4400</v>
       </c>
       <c r="K660" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L660" t="n">
         <v>1600</v>
       </c>
-      <c r="L660" t="n">
-        <v>2000</v>
-      </c>
       <c r="M660" t="n">
-        <v>1830</v>
+        <v>1514</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         </is>
       </c>
       <c r="P660" t="n">
-        <v>1830</v>
+        <v>1514</v>
       </c>
       <c r="Q660" t="n">
         <v>1</v>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -47949,16 +47949,16 @@
         </is>
       </c>
       <c r="J661" t="n">
-        <v>7700</v>
+        <v>5800</v>
       </c>
       <c r="K661" t="n">
-        <v>3300</v>
+        <v>2400</v>
       </c>
       <c r="L661" t="n">
-        <v>3700</v>
+        <v>2700</v>
       </c>
       <c r="M661" t="n">
-        <v>3487</v>
+        <v>2566</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47971,7 +47971,7 @@
         </is>
       </c>
       <c r="P661" t="n">
-        <v>3487</v>
+        <v>2566</v>
       </c>
       <c r="Q661" t="n">
         <v>1</v>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44195</v>
+        <v>44224</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -48021,16 +48021,16 @@
         </is>
       </c>
       <c r="J662" t="n">
-        <v>3200</v>
+        <v>4300</v>
       </c>
       <c r="K662" t="n">
         <v>1000</v>
       </c>
       <c r="L662" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="M662" t="n">
-        <v>1225</v>
+        <v>1130</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
@@ -48043,7 +48043,7 @@
         </is>
       </c>
       <c r="P662" t="n">
-        <v>1225</v>
+        <v>1130</v>
       </c>
       <c r="Q662" t="n">
         <v>1</v>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44473</v>
+        <v>44452</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -48093,16 +48093,16 @@
         </is>
       </c>
       <c r="J663" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="K663" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="L663" t="n">
-        <v>750</v>
+        <v>1150</v>
       </c>
       <c r="M663" t="n">
-        <v>721</v>
+        <v>1121</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48115,7 +48115,7 @@
         </is>
       </c>
       <c r="P663" t="n">
-        <v>721</v>
+        <v>1121</v>
       </c>
       <c r="Q663" t="n">
         <v>1</v>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44536</v>
+        <v>44270</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -48161,20 +48161,20 @@
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J664" t="n">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="K664" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="L664" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="M664" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
@@ -48183,11 +48183,11 @@
       </c>
       <c r="O664" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P664" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="Q664" t="n">
         <v>1</v>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44536</v>
+        <v>44270</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -48237,16 +48237,16 @@
         </is>
       </c>
       <c r="J665" t="n">
-        <v>8300</v>
+        <v>2300</v>
       </c>
       <c r="K665" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L665" t="n">
-        <v>3300</v>
+        <v>2500</v>
       </c>
       <c r="M665" t="n">
-        <v>3137</v>
+        <v>2500</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48255,11 +48255,11 @@
       </c>
       <c r="O665" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P665" t="n">
-        <v>3137</v>
+        <v>2500</v>
       </c>
       <c r="Q665" t="n">
         <v>1</v>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44536</v>
+        <v>44270</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -48312,13 +48312,13 @@
         <v>3500</v>
       </c>
       <c r="K666" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L666" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M666" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48327,11 +48327,11 @@
       </c>
       <c r="O666" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P666" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="Q666" t="n">
         <v>1</v>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44536</v>
+        <v>44270</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -48377,20 +48377,20 @@
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>7800</v>
+        <v>3800</v>
       </c>
       <c r="K667" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="L667" t="n">
-        <v>2300</v>
+        <v>1700</v>
       </c>
       <c r="M667" t="n">
-        <v>2173</v>
+        <v>1700</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48399,11 +48399,11 @@
       </c>
       <c r="O667" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P667" t="n">
-        <v>2173</v>
+        <v>1700</v>
       </c>
       <c r="Q667" t="n">
         <v>1</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44536</v>
+        <v>44270</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -48449,20 +48449,20 @@
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>4200</v>
+        <v>2700</v>
       </c>
       <c r="K668" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="L668" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="M668" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48471,11 +48471,11 @@
       </c>
       <c r="O668" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P668" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="Q668" t="n">
         <v>1</v>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -48521,20 +48521,20 @@
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J669" t="n">
-        <v>6300</v>
+        <v>5000</v>
       </c>
       <c r="K669" t="n">
-        <v>1600</v>
+        <v>2700</v>
       </c>
       <c r="L669" t="n">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="M669" t="n">
-        <v>1640</v>
+        <v>2832</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48547,7 +48547,7 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>1640</v>
+        <v>2832</v>
       </c>
       <c r="Q669" t="n">
         <v>1</v>
@@ -48573,7 +48573,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -48593,20 +48593,20 @@
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J670" t="n">
-        <v>3000</v>
+        <v>8300</v>
       </c>
       <c r="K670" t="n">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="L670" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="M670" t="n">
-        <v>1200</v>
+        <v>2392</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48619,7 +48619,7 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>1200</v>
+        <v>2392</v>
       </c>
       <c r="Q670" t="n">
         <v>1</v>
@@ -48645,7 +48645,7 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44511</v>
+        <v>44195</v>
       </c>
       <c r="E671" t="n">
         <v>13</v>
@@ -48665,33 +48665,33 @@
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J671" t="n">
-        <v>7100</v>
+        <v>4000</v>
       </c>
       <c r="K671" t="n">
-        <v>750</v>
+        <v>1600</v>
       </c>
       <c r="L671" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="M671" t="n">
-        <v>773</v>
+        <v>1830</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O671" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P671" t="n">
-        <v>773</v>
+        <v>1830</v>
       </c>
       <c r="Q671" t="n">
         <v>1</v>
@@ -48717,7 +48717,7 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44511</v>
+        <v>44195</v>
       </c>
       <c r="E672" t="n">
         <v>13</v>
@@ -48737,33 +48737,33 @@
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J672" t="n">
-        <v>1900</v>
+        <v>7700</v>
       </c>
       <c r="K672" t="n">
-        <v>600</v>
+        <v>3300</v>
       </c>
       <c r="L672" t="n">
-        <v>600</v>
+        <v>3700</v>
       </c>
       <c r="M672" t="n">
-        <v>600</v>
+        <v>3487</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O672" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P672" t="n">
-        <v>600</v>
+        <v>3487</v>
       </c>
       <c r="Q672" t="n">
         <v>1</v>
@@ -48789,7 +48789,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44239</v>
+        <v>44195</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -48809,20 +48809,20 @@
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J673" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="K673" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L673" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="M673" t="n">
-        <v>2000</v>
+        <v>1225</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
@@ -48831,11 +48831,11 @@
       </c>
       <c r="O673" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P673" t="n">
-        <v>2000</v>
+        <v>1225</v>
       </c>
       <c r="Q673" t="n">
         <v>1</v>
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44239</v>
+        <v>44473</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -48881,33 +48881,33 @@
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J674" t="n">
-        <v>3400</v>
+        <v>7500</v>
       </c>
       <c r="K674" t="n">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="L674" t="n">
-        <v>2200</v>
+        <v>750</v>
       </c>
       <c r="M674" t="n">
-        <v>2118</v>
+        <v>721</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O674" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P674" t="n">
-        <v>2118</v>
+        <v>721</v>
       </c>
       <c r="Q674" t="n">
         <v>1</v>
@@ -48933,7 +48933,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44239</v>
+        <v>44536</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -48953,20 +48953,20 @@
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J675" t="n">
-        <v>3500</v>
+        <v>2400</v>
       </c>
       <c r="K675" t="n">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="L675" t="n">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="M675" t="n">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
@@ -48975,11 +48975,11 @@
       </c>
       <c r="O675" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P675" t="n">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="Q675" t="n">
         <v>1</v>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44239</v>
+        <v>44536</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -49025,20 +49025,20 @@
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>5700</v>
+        <v>8300</v>
       </c>
       <c r="K676" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="L676" t="n">
-        <v>1700</v>
+        <v>3300</v>
       </c>
       <c r="M676" t="n">
-        <v>1609</v>
+        <v>3137</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
@@ -49051,7 +49051,7 @@
         </is>
       </c>
       <c r="P676" t="n">
-        <v>1609</v>
+        <v>3137</v>
       </c>
       <c r="Q676" t="n">
         <v>1</v>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44239</v>
+        <v>44536</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -49097,20 +49097,20 @@
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J677" t="n">
-        <v>3900</v>
+        <v>3500</v>
       </c>
       <c r="K677" t="n">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="L677" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="M677" t="n">
-        <v>1438</v>
+        <v>2500</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49119,11 +49119,11 @@
       </c>
       <c r="O677" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P677" t="n">
-        <v>1438</v>
+        <v>2500</v>
       </c>
       <c r="Q677" t="n">
         <v>1</v>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44239</v>
+        <v>44536</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -49169,20 +49169,20 @@
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J678" t="n">
-        <v>2800</v>
+        <v>7800</v>
       </c>
       <c r="K678" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L678" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="M678" t="n">
-        <v>2500</v>
+        <v>2173</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
@@ -49191,11 +49191,11 @@
       </c>
       <c r="O678" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P678" t="n">
-        <v>2500</v>
+        <v>2173</v>
       </c>
       <c r="Q678" t="n">
         <v>1</v>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44239</v>
+        <v>44536</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -49241,20 +49241,20 @@
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J679" t="n">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="K679" t="n">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="L679" t="n">
-        <v>2600</v>
+        <v>1800</v>
       </c>
       <c r="M679" t="n">
-        <v>2476</v>
+        <v>1800</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49263,11 +49263,11 @@
       </c>
       <c r="O679" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P679" t="n">
-        <v>2476</v>
+        <v>1800</v>
       </c>
       <c r="Q679" t="n">
         <v>1</v>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44239</v>
+        <v>44536</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -49313,20 +49313,20 @@
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>3600</v>
+        <v>6300</v>
       </c>
       <c r="K680" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="L680" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="M680" t="n">
-        <v>1128</v>
+        <v>1640</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49339,7 +49339,7 @@
         </is>
       </c>
       <c r="P680" t="n">
-        <v>1128</v>
+        <v>1640</v>
       </c>
       <c r="Q680" t="n">
         <v>1</v>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44454</v>
+        <v>44536</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -49385,33 +49385,33 @@
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J681" t="n">
-        <v>5200</v>
+        <v>3000</v>
       </c>
       <c r="K681" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="L681" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M681" t="n">
-        <v>1044</v>
+        <v>1200</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O681" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P681" t="n">
-        <v>1044</v>
+        <v>1200</v>
       </c>
       <c r="Q681" t="n">
         <v>1</v>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44194</v>
+        <v>44511</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -49457,33 +49457,33 @@
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J682" t="n">
-        <v>2500</v>
+        <v>7100</v>
       </c>
       <c r="K682" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="L682" t="n">
         <v>800</v>
       </c>
       <c r="M682" t="n">
-        <v>800</v>
+        <v>773</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O682" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P682" t="n">
-        <v>800</v>
+        <v>773</v>
       </c>
       <c r="Q682" t="n">
         <v>1</v>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44194</v>
+        <v>44511</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -49529,33 +49529,33 @@
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J683" t="n">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="K683" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="L683" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="M683" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O683" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P683" t="n">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="Q683" t="n">
         <v>1</v>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -49605,16 +49605,16 @@
         </is>
       </c>
       <c r="J684" t="n">
-        <v>4900</v>
+        <v>2500</v>
       </c>
       <c r="K684" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L684" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M684" t="n">
-        <v>2641</v>
+        <v>2000</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
@@ -49623,11 +49623,11 @@
       </c>
       <c r="O684" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P684" t="n">
-        <v>2641</v>
+        <v>2000</v>
       </c>
       <c r="Q684" t="n">
         <v>1</v>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -49673,20 +49673,20 @@
       </c>
       <c r="I685" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J685" t="n">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="K685" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="L685" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="M685" t="n">
-        <v>2400</v>
+        <v>2118</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
@@ -49695,11 +49695,11 @@
       </c>
       <c r="O685" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P685" t="n">
-        <v>2400</v>
+        <v>2118</v>
       </c>
       <c r="Q685" t="n">
         <v>1</v>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -49749,16 +49749,16 @@
         </is>
       </c>
       <c r="J686" t="n">
-        <v>8700</v>
+        <v>3500</v>
       </c>
       <c r="K686" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="L686" t="n">
-        <v>2300</v>
+        <v>1700</v>
       </c>
       <c r="M686" t="n">
-        <v>2134</v>
+        <v>1700</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
@@ -49767,11 +49767,11 @@
       </c>
       <c r="O686" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P686" t="n">
-        <v>2134</v>
+        <v>1700</v>
       </c>
       <c r="Q686" t="n">
         <v>1</v>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -49817,20 +49817,20 @@
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J687" t="n">
-        <v>5000</v>
+        <v>5700</v>
       </c>
       <c r="K687" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="L687" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="M687" t="n">
-        <v>1800</v>
+        <v>1609</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
@@ -49843,7 +49843,7 @@
         </is>
       </c>
       <c r="P687" t="n">
-        <v>1800</v>
+        <v>1609</v>
       </c>
       <c r="Q687" t="n">
         <v>1</v>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -49889,20 +49889,20 @@
       </c>
       <c r="I688" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J688" t="n">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="K688" t="n">
-        <v>3500</v>
+        <v>1300</v>
       </c>
       <c r="L688" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="M688" t="n">
-        <v>3500</v>
+        <v>1438</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
@@ -49911,11 +49911,11 @@
       </c>
       <c r="O688" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P688" t="n">
-        <v>3500</v>
+        <v>1438</v>
       </c>
       <c r="Q688" t="n">
         <v>1</v>
@@ -49941,7 +49941,7 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E689" t="n">
         <v>13</v>
@@ -49965,16 +49965,16 @@
         </is>
       </c>
       <c r="J689" t="n">
-        <v>8000</v>
+        <v>2800</v>
       </c>
       <c r="K689" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L689" t="n">
-        <v>3300</v>
+        <v>2500</v>
       </c>
       <c r="M689" t="n">
-        <v>3131</v>
+        <v>2500</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
@@ -49983,11 +49983,11 @@
       </c>
       <c r="O689" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P689" t="n">
-        <v>3131</v>
+        <v>2500</v>
       </c>
       <c r="Q689" t="n">
         <v>1</v>
@@ -50013,7 +50013,7 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
@@ -50033,20 +50033,20 @@
       </c>
       <c r="I690" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J690" t="n">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="K690" t="n">
-        <v>1000</v>
+        <v>2300</v>
       </c>
       <c r="L690" t="n">
-        <v>1300</v>
+        <v>2600</v>
       </c>
       <c r="M690" t="n">
-        <v>1174</v>
+        <v>2476</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
@@ -50059,7 +50059,7 @@
         </is>
       </c>
       <c r="P690" t="n">
-        <v>1174</v>
+        <v>2476</v>
       </c>
       <c r="Q690" t="n">
         <v>1</v>
@@ -50085,7 +50085,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44518</v>
+        <v>44239</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -50105,33 +50105,33 @@
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J691" t="n">
-        <v>5900</v>
+        <v>3600</v>
       </c>
       <c r="K691" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="L691" t="n">
-        <v>780</v>
+        <v>1200</v>
       </c>
       <c r="M691" t="n">
-        <v>767</v>
+        <v>1128</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O691" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P691" t="n">
-        <v>767</v>
+        <v>1128</v>
       </c>
       <c r="Q691" t="n">
         <v>1</v>
@@ -50157,7 +50157,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44518</v>
+        <v>44454</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -50177,20 +50177,20 @@
       </c>
       <c r="I692" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J692" t="n">
-        <v>2200</v>
+        <v>5200</v>
       </c>
       <c r="K692" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="L692" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="M692" t="n">
-        <v>650</v>
+        <v>1044</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
@@ -50203,7 +50203,7 @@
         </is>
       </c>
       <c r="P692" t="n">
-        <v>650</v>
+        <v>1044</v>
       </c>
       <c r="Q692" t="n">
         <v>1</v>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44272</v>
+        <v>44194</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -50249,20 +50249,20 @@
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J693" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K693" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L693" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="M693" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
@@ -50271,11 +50271,11 @@
       </c>
       <c r="O693" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P693" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="Q693" t="n">
         <v>1</v>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44272</v>
+        <v>44194</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -50321,20 +50321,20 @@
       </c>
       <c r="I694" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J694" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K694" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L694" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M694" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
@@ -50343,11 +50343,11 @@
       </c>
       <c r="O694" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P694" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q694" t="n">
         <v>1</v>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44272</v>
+        <v>44194</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -50393,20 +50393,20 @@
       </c>
       <c r="I695" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J695" t="n">
-        <v>1900</v>
+        <v>4900</v>
       </c>
       <c r="K695" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="L695" t="n">
-        <v>1500</v>
+        <v>2800</v>
       </c>
       <c r="M695" t="n">
-        <v>1500</v>
+        <v>2641</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
@@ -50415,11 +50415,11 @@
       </c>
       <c r="O695" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P695" t="n">
-        <v>1500</v>
+        <v>2641</v>
       </c>
       <c r="Q695" t="n">
         <v>1</v>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44272</v>
+        <v>44194</v>
       </c>
       <c r="E696" t="n">
         <v>13</v>
@@ -50465,20 +50465,20 @@
       </c>
       <c r="I696" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J696" t="n">
-        <v>1700</v>
+        <v>3300</v>
       </c>
       <c r="K696" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="L696" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="M696" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
@@ -50487,11 +50487,11 @@
       </c>
       <c r="O696" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P696" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="Q696" t="n">
         <v>1</v>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44272</v>
+        <v>44194</v>
       </c>
       <c r="E697" t="n">
         <v>13</v>
@@ -50537,20 +50537,20 @@
       </c>
       <c r="I697" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J697" t="n">
-        <v>1500</v>
+        <v>8700</v>
       </c>
       <c r="K697" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L697" t="n">
-        <v>1000</v>
+        <v>2300</v>
       </c>
       <c r="M697" t="n">
-        <v>1000</v>
+        <v>2134</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
@@ -50559,11 +50559,11 @@
       </c>
       <c r="O697" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P697" t="n">
-        <v>1000</v>
+        <v>2134</v>
       </c>
       <c r="Q697" t="n">
         <v>1</v>
@@ -50589,58 +50589,850 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E698" t="n">
+        <v>13</v>
+      </c>
+      <c r="F698" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G698" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H698" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I698" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J698" t="n">
+        <v>5000</v>
+      </c>
+      <c r="K698" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L698" t="n">
+        <v>1800</v>
+      </c>
+      <c r="M698" t="n">
+        <v>1800</v>
+      </c>
+      <c r="N698" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O698" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P698" t="n">
+        <v>1800</v>
+      </c>
+      <c r="Q698" t="n">
+        <v>1</v>
+      </c>
+      <c r="R698" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>6</v>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D699" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E699" t="n">
+        <v>13</v>
+      </c>
+      <c r="F699" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G699" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H699" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I699" t="inlineStr">
+        <is>
+          <t>Super</t>
+        </is>
+      </c>
+      <c r="J699" t="n">
+        <v>3600</v>
+      </c>
+      <c r="K699" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L699" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M699" t="n">
+        <v>3500</v>
+      </c>
+      <c r="N699" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O699" t="inlineStr">
+        <is>
+          <t>Paine</t>
+        </is>
+      </c>
+      <c r="P699" t="n">
+        <v>3500</v>
+      </c>
+      <c r="Q699" t="n">
+        <v>1</v>
+      </c>
+      <c r="R699" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>6</v>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D700" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E700" t="n">
+        <v>13</v>
+      </c>
+      <c r="F700" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G700" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H700" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I700" t="inlineStr">
+        <is>
+          <t>Super</t>
+        </is>
+      </c>
+      <c r="J700" t="n">
+        <v>8000</v>
+      </c>
+      <c r="K700" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L700" t="n">
+        <v>3300</v>
+      </c>
+      <c r="M700" t="n">
+        <v>3131</v>
+      </c>
+      <c r="N700" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O700" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P700" t="n">
+        <v>3131</v>
+      </c>
+      <c r="Q700" t="n">
+        <v>1</v>
+      </c>
+      <c r="R700" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>6</v>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D701" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E701" t="n">
+        <v>13</v>
+      </c>
+      <c r="F701" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G701" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H701" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I701" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J701" t="n">
+        <v>3800</v>
+      </c>
+      <c r="K701" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L701" t="n">
+        <v>1300</v>
+      </c>
+      <c r="M701" t="n">
+        <v>1174</v>
+      </c>
+      <c r="N701" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O701" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P701" t="n">
+        <v>1174</v>
+      </c>
+      <c r="Q701" t="n">
+        <v>1</v>
+      </c>
+      <c r="R701" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>6</v>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D702" s="2" t="n">
+        <v>44518</v>
+      </c>
+      <c r="E702" t="n">
+        <v>13</v>
+      </c>
+      <c r="F702" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G702" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H702" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I702" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J702" t="n">
+        <v>5900</v>
+      </c>
+      <c r="K702" t="n">
+        <v>750</v>
+      </c>
+      <c r="L702" t="n">
+        <v>780</v>
+      </c>
+      <c r="M702" t="n">
+        <v>767</v>
+      </c>
+      <c r="N702" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O702" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P702" t="n">
+        <v>767</v>
+      </c>
+      <c r="Q702" t="n">
+        <v>1</v>
+      </c>
+      <c r="R702" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>6</v>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D703" s="2" t="n">
+        <v>44518</v>
+      </c>
+      <c r="E703" t="n">
+        <v>13</v>
+      </c>
+      <c r="F703" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G703" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H703" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I703" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J703" t="n">
+        <v>2200</v>
+      </c>
+      <c r="K703" t="n">
+        <v>650</v>
+      </c>
+      <c r="L703" t="n">
+        <v>650</v>
+      </c>
+      <c r="M703" t="n">
+        <v>650</v>
+      </c>
+      <c r="N703" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O703" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P703" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q703" t="n">
+        <v>1</v>
+      </c>
+      <c r="R703" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>6</v>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D704" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E698" t="n">
-        <v>13</v>
-      </c>
-      <c r="F698" t="n">
-        <v>100112028</v>
-      </c>
-      <c r="G698" t="inlineStr">
-        <is>
-          <t>Sandia</t>
-        </is>
-      </c>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I698" t="inlineStr">
+      <c r="E704" t="n">
+        <v>13</v>
+      </c>
+      <c r="F704" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G704" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H704" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I704" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J704" t="n">
+        <v>2400</v>
+      </c>
+      <c r="K704" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L704" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M704" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N704" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O704" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P704" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q704" t="n">
+        <v>1</v>
+      </c>
+      <c r="R704" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>6</v>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D705" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E705" t="n">
+        <v>13</v>
+      </c>
+      <c r="F705" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G705" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H705" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I705" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J705" t="n">
+        <v>2200</v>
+      </c>
+      <c r="K705" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L705" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M705" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N705" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O705" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P705" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q705" t="n">
+        <v>1</v>
+      </c>
+      <c r="R705" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>6</v>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D706" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E706" t="n">
+        <v>13</v>
+      </c>
+      <c r="F706" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G706" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H706" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I706" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J706" t="n">
+        <v>1900</v>
+      </c>
+      <c r="K706" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L706" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M706" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N706" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O706" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P706" t="n">
+        <v>1500</v>
+      </c>
+      <c r="Q706" t="n">
+        <v>1</v>
+      </c>
+      <c r="R706" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>6</v>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D707" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E707" t="n">
+        <v>13</v>
+      </c>
+      <c r="F707" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G707" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H707" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I707" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J707" t="n">
+        <v>1700</v>
+      </c>
+      <c r="K707" t="n">
+        <v>1600</v>
+      </c>
+      <c r="L707" t="n">
+        <v>1600</v>
+      </c>
+      <c r="M707" t="n">
+        <v>1600</v>
+      </c>
+      <c r="N707" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O707" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P707" t="n">
+        <v>1600</v>
+      </c>
+      <c r="Q707" t="n">
+        <v>1</v>
+      </c>
+      <c r="R707" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>6</v>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D708" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E708" t="n">
+        <v>13</v>
+      </c>
+      <c r="F708" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G708" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H708" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I708" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J698" t="n">
+      <c r="J708" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K708" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L708" t="n">
+        <v>1000</v>
+      </c>
+      <c r="M708" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N708" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O708" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P708" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q708" t="n">
+        <v>1</v>
+      </c>
+      <c r="R708" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>6</v>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D709" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E709" t="n">
+        <v>13</v>
+      </c>
+      <c r="F709" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G709" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H709" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I709" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J709" t="n">
         <v>1300</v>
       </c>
-      <c r="K698" t="n">
+      <c r="K709" t="n">
         <v>1000</v>
       </c>
-      <c r="L698" t="n">
+      <c r="L709" t="n">
         <v>1000</v>
       </c>
-      <c r="M698" t="n">
+      <c r="M709" t="n">
         <v>1000</v>
       </c>
-      <c r="N698" t="inlineStr">
-        <is>
-          <t>$/unidad</t>
-        </is>
-      </c>
-      <c r="O698" t="inlineStr">
+      <c r="N709" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O709" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="P698" t="n">
+      <c r="P709" t="n">
         <v>1000</v>
       </c>
-      <c r="Q698" t="n">
-        <v>1</v>
-      </c>
-      <c r="R698" t="inlineStr">
+      <c r="Q709" t="n">
+        <v>1</v>
+      </c>
+      <c r="R709" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Sandia.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R744"/>
+  <dimension ref="A1:R750"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41229,7 +41229,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44279</v>
+        <v>44559</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -41253,16 +41253,16 @@
         </is>
       </c>
       <c r="J568" t="n">
-        <v>1200</v>
+        <v>3800</v>
       </c>
       <c r="K568" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L568" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M568" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N568" t="inlineStr">
         <is>
@@ -41271,11 +41271,11 @@
       </c>
       <c r="O568" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P568" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q568" t="n">
         <v>1</v>
@@ -41301,7 +41301,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44279</v>
+        <v>44559</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -41325,16 +41325,16 @@
         </is>
       </c>
       <c r="J569" t="n">
-        <v>1300</v>
+        <v>8400</v>
       </c>
       <c r="K569" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L569" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="M569" t="n">
-        <v>2200</v>
+        <v>2661</v>
       </c>
       <c r="N569" t="inlineStr">
         <is>
@@ -41343,11 +41343,11 @@
       </c>
       <c r="O569" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P569" t="n">
-        <v>2200</v>
+        <v>2661</v>
       </c>
       <c r="Q569" t="n">
         <v>1</v>
@@ -41373,7 +41373,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44279</v>
+        <v>44559</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -41397,16 +41397,16 @@
         </is>
       </c>
       <c r="J570" t="n">
-        <v>2400</v>
+        <v>10600</v>
       </c>
       <c r="K570" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="L570" t="n">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="M570" t="n">
-        <v>1700</v>
+        <v>1925</v>
       </c>
       <c r="N570" t="inlineStr">
         <is>
@@ -41415,11 +41415,11 @@
       </c>
       <c r="O570" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P570" t="n">
-        <v>1700</v>
+        <v>1925</v>
       </c>
       <c r="Q570" t="n">
         <v>1</v>
@@ -41445,7 +41445,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44279</v>
+        <v>44559</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -41469,16 +41469,16 @@
         </is>
       </c>
       <c r="J571" t="n">
-        <v>2000</v>
+        <v>9600</v>
       </c>
       <c r="K571" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="L571" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M571" t="n">
-        <v>1300</v>
+        <v>1316</v>
       </c>
       <c r="N571" t="inlineStr">
         <is>
@@ -41487,11 +41487,11 @@
       </c>
       <c r="O571" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P571" t="n">
-        <v>1300</v>
+        <v>1316</v>
       </c>
       <c r="Q571" t="n">
         <v>1</v>
@@ -41517,7 +41517,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44279</v>
+        <v>44559</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -41537,20 +41537,20 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J572" t="n">
-        <v>1700</v>
+        <v>5800</v>
       </c>
       <c r="K572" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="L572" t="n">
-        <v>1000</v>
+        <v>3300</v>
       </c>
       <c r="M572" t="n">
-        <v>1000</v>
+        <v>3140</v>
       </c>
       <c r="N572" t="inlineStr">
         <is>
@@ -41559,11 +41559,11 @@
       </c>
       <c r="O572" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P572" t="n">
-        <v>1000</v>
+        <v>3140</v>
       </c>
       <c r="Q572" t="n">
         <v>1</v>
@@ -41589,7 +41589,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -41609,20 +41609,20 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J573" t="n">
-        <v>4300</v>
+        <v>7300</v>
       </c>
       <c r="K573" t="n">
         <v>700</v>
       </c>
       <c r="L573" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M573" t="n">
-        <v>784</v>
+        <v>819</v>
       </c>
       <c r="N573" t="inlineStr">
         <is>
@@ -41635,7 +41635,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>784</v>
+        <v>819</v>
       </c>
       <c r="Q573" t="n">
         <v>1</v>
@@ -41661,7 +41661,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44208</v>
+        <v>44279</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -41681,20 +41681,20 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J574" t="n">
-        <v>6700</v>
+        <v>1200</v>
       </c>
       <c r="K574" t="n">
-        <v>2400</v>
+        <v>500</v>
       </c>
       <c r="L574" t="n">
-        <v>2700</v>
+        <v>500</v>
       </c>
       <c r="M574" t="n">
-        <v>2557</v>
+        <v>500</v>
       </c>
       <c r="N574" t="inlineStr">
         <is>
@@ -41703,11 +41703,11 @@
       </c>
       <c r="O574" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P574" t="n">
-        <v>2557</v>
+        <v>500</v>
       </c>
       <c r="Q574" t="n">
         <v>1</v>
@@ -41733,7 +41733,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44208</v>
+        <v>44279</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -41757,16 +41757,16 @@
         </is>
       </c>
       <c r="J575" t="n">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="K575" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="L575" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="M575" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="N575" t="inlineStr">
         <is>
@@ -41775,11 +41775,11 @@
       </c>
       <c r="O575" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P575" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="Q575" t="n">
         <v>1</v>
@@ -41805,7 +41805,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44208</v>
+        <v>44279</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -41829,16 +41829,16 @@
         </is>
       </c>
       <c r="J576" t="n">
-        <v>8800</v>
+        <v>2400</v>
       </c>
       <c r="K576" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="L576" t="n">
-        <v>2300</v>
+        <v>1700</v>
       </c>
       <c r="M576" t="n">
-        <v>2160</v>
+        <v>1700</v>
       </c>
       <c r="N576" t="inlineStr">
         <is>
@@ -41847,11 +41847,11 @@
       </c>
       <c r="O576" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P576" t="n">
-        <v>2160</v>
+        <v>1700</v>
       </c>
       <c r="Q576" t="n">
         <v>1</v>
@@ -41877,7 +41877,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44208</v>
+        <v>44279</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -41897,20 +41897,20 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J577" t="n">
-        <v>3900</v>
+        <v>2000</v>
       </c>
       <c r="K577" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="L577" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="M577" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="N577" t="inlineStr">
         <is>
@@ -41919,11 +41919,11 @@
       </c>
       <c r="O577" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P577" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="Q577" t="n">
         <v>1</v>
@@ -41949,7 +41949,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44208</v>
+        <v>44279</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -41969,20 +41969,20 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J578" t="n">
-        <v>6900</v>
+        <v>1700</v>
       </c>
       <c r="K578" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L578" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="M578" t="n">
-        <v>1617</v>
+        <v>1000</v>
       </c>
       <c r="N578" t="inlineStr">
         <is>
@@ -41991,11 +41991,11 @@
       </c>
       <c r="O578" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P578" t="n">
-        <v>1617</v>
+        <v>1000</v>
       </c>
       <c r="Q578" t="n">
         <v>1</v>
@@ -42041,20 +42041,20 @@
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J579" t="n">
-        <v>8300</v>
+        <v>4300</v>
       </c>
       <c r="K579" t="n">
-        <v>2800</v>
+        <v>700</v>
       </c>
       <c r="L579" t="n">
-        <v>3200</v>
+        <v>900</v>
       </c>
       <c r="M579" t="n">
-        <v>3012</v>
+        <v>784</v>
       </c>
       <c r="N579" t="inlineStr">
         <is>
@@ -42067,7 +42067,7 @@
         </is>
       </c>
       <c r="P579" t="n">
-        <v>3012</v>
+        <v>784</v>
       </c>
       <c r="Q579" t="n">
         <v>1</v>
@@ -42113,20 +42113,20 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J580" t="n">
-        <v>3500</v>
+        <v>6700</v>
       </c>
       <c r="K580" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L580" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="M580" t="n">
-        <v>3000</v>
+        <v>2557</v>
       </c>
       <c r="N580" t="inlineStr">
         <is>
@@ -42135,11 +42135,11 @@
       </c>
       <c r="O580" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P580" t="n">
-        <v>3000</v>
+        <v>2557</v>
       </c>
       <c r="Q580" t="n">
         <v>1</v>
@@ -42185,20 +42185,20 @@
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J581" t="n">
-        <v>6100</v>
+        <v>2500</v>
       </c>
       <c r="K581" t="n">
-        <v>1100</v>
+        <v>2500</v>
       </c>
       <c r="L581" t="n">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="M581" t="n">
-        <v>1223</v>
+        <v>2500</v>
       </c>
       <c r="N581" t="inlineStr">
         <is>
@@ -42207,11 +42207,11 @@
       </c>
       <c r="O581" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P581" t="n">
-        <v>1223</v>
+        <v>2500</v>
       </c>
       <c r="Q581" t="n">
         <v>1</v>
@@ -42237,7 +42237,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44264</v>
+        <v>44208</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -42257,20 +42257,20 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J582" t="n">
-        <v>2200</v>
+        <v>8800</v>
       </c>
       <c r="K582" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L582" t="n">
-        <v>1000</v>
+        <v>2300</v>
       </c>
       <c r="M582" t="n">
-        <v>1000</v>
+        <v>2160</v>
       </c>
       <c r="N582" t="inlineStr">
         <is>
@@ -42279,11 +42279,11 @@
       </c>
       <c r="O582" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P582" t="n">
-        <v>1000</v>
+        <v>2160</v>
       </c>
       <c r="Q582" t="n">
         <v>1</v>
@@ -42309,7 +42309,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44264</v>
+        <v>44208</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -42329,20 +42329,20 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J583" t="n">
-        <v>1600</v>
+        <v>3900</v>
       </c>
       <c r="K583" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="L583" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="M583" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="N583" t="inlineStr">
         <is>
@@ -42351,11 +42351,11 @@
       </c>
       <c r="O583" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P583" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="Q583" t="n">
         <v>1</v>
@@ -42381,7 +42381,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44264</v>
+        <v>44208</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -42401,20 +42401,20 @@
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J584" t="n">
-        <v>2400</v>
+        <v>6900</v>
       </c>
       <c r="K584" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L584" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="M584" t="n">
-        <v>2000</v>
+        <v>1617</v>
       </c>
       <c r="N584" t="inlineStr">
         <is>
@@ -42423,11 +42423,11 @@
       </c>
       <c r="O584" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P584" t="n">
-        <v>2000</v>
+        <v>1617</v>
       </c>
       <c r="Q584" t="n">
         <v>1</v>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44264</v>
+        <v>44208</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -42473,20 +42473,20 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J585" t="n">
-        <v>2400</v>
+        <v>8300</v>
       </c>
       <c r="K585" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="L585" t="n">
-        <v>1800</v>
+        <v>3200</v>
       </c>
       <c r="M585" t="n">
-        <v>1800</v>
+        <v>3012</v>
       </c>
       <c r="N585" t="inlineStr">
         <is>
@@ -42495,11 +42495,11 @@
       </c>
       <c r="O585" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P585" t="n">
-        <v>1800</v>
+        <v>3012</v>
       </c>
       <c r="Q585" t="n">
         <v>1</v>
@@ -42525,7 +42525,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44264</v>
+        <v>44208</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -42549,16 +42549,16 @@
         </is>
       </c>
       <c r="J586" t="n">
-        <v>1100</v>
+        <v>3500</v>
       </c>
       <c r="K586" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="L586" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M586" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="N586" t="inlineStr">
         <is>
@@ -42567,11 +42567,11 @@
       </c>
       <c r="O586" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P586" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="Q586" t="n">
         <v>1</v>
@@ -42597,7 +42597,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44264</v>
+        <v>44208</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -42621,16 +42621,16 @@
         </is>
       </c>
       <c r="J587" t="n">
-        <v>2700</v>
+        <v>6100</v>
       </c>
       <c r="K587" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="L587" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="M587" t="n">
-        <v>1500</v>
+        <v>1223</v>
       </c>
       <c r="N587" t="inlineStr">
         <is>
@@ -42639,11 +42639,11 @@
       </c>
       <c r="O587" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P587" t="n">
-        <v>1500</v>
+        <v>1223</v>
       </c>
       <c r="Q587" t="n">
         <v>1</v>
@@ -42669,7 +42669,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44491</v>
+        <v>44264</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -42689,33 +42689,33 @@
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J588" t="n">
-        <v>8100</v>
+        <v>2200</v>
       </c>
       <c r="K588" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="L588" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="M588" t="n">
-        <v>572</v>
+        <v>1000</v>
       </c>
       <c r="N588" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O588" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P588" t="n">
-        <v>572</v>
+        <v>1000</v>
       </c>
       <c r="Q588" t="n">
         <v>1</v>
@@ -42741,7 +42741,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44510</v>
+        <v>44264</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -42761,33 +42761,33 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J589" t="n">
-        <v>6200</v>
+        <v>1600</v>
       </c>
       <c r="K589" t="n">
-        <v>750</v>
+        <v>2400</v>
       </c>
       <c r="L589" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="M589" t="n">
-        <v>772</v>
+        <v>2400</v>
       </c>
       <c r="N589" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O589" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P589" t="n">
-        <v>772</v>
+        <v>2400</v>
       </c>
       <c r="Q589" t="n">
         <v>1</v>
@@ -42813,7 +42813,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44510</v>
+        <v>44264</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -42833,33 +42833,33 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J590" t="n">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="K590" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="L590" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="M590" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="N590" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O590" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P590" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="Q590" t="n">
         <v>1</v>
@@ -42885,7 +42885,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -42905,20 +42905,20 @@
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J591" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="K591" t="n">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="L591" t="n">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="M591" t="n">
-        <v>2025</v>
+        <v>1800</v>
       </c>
       <c r="N591" t="inlineStr">
         <is>
@@ -42931,7 +42931,7 @@
         </is>
       </c>
       <c r="P591" t="n">
-        <v>2025</v>
+        <v>1800</v>
       </c>
       <c r="Q591" t="n">
         <v>1</v>
@@ -42957,7 +42957,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -42977,20 +42977,20 @@
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J592" t="n">
-        <v>3700</v>
+        <v>1100</v>
       </c>
       <c r="K592" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="L592" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="M592" t="n">
-        <v>2092</v>
+        <v>2700</v>
       </c>
       <c r="N592" t="inlineStr">
         <is>
@@ -42999,11 +42999,11 @@
       </c>
       <c r="O592" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P592" t="n">
-        <v>2092</v>
+        <v>2700</v>
       </c>
       <c r="Q592" t="n">
         <v>1</v>
@@ -43029,7 +43029,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -43049,20 +43049,20 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J593" t="n">
-        <v>6500</v>
+        <v>2700</v>
       </c>
       <c r="K593" t="n">
         <v>1500</v>
       </c>
       <c r="L593" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="M593" t="n">
-        <v>1608</v>
+        <v>1500</v>
       </c>
       <c r="N593" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>1608</v>
+        <v>1500</v>
       </c>
       <c r="Q593" t="n">
         <v>1</v>
@@ -43101,7 +43101,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44232</v>
+        <v>44491</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -43125,29 +43125,29 @@
         </is>
       </c>
       <c r="J594" t="n">
-        <v>6400</v>
+        <v>8100</v>
       </c>
       <c r="K594" t="n">
-        <v>1600</v>
+        <v>550</v>
       </c>
       <c r="L594" t="n">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="M594" t="n">
-        <v>1691</v>
+        <v>572</v>
       </c>
       <c r="N594" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O594" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P594" t="n">
-        <v>1691</v>
+        <v>572</v>
       </c>
       <c r="Q594" t="n">
         <v>1</v>
@@ -43173,7 +43173,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44232</v>
+        <v>44510</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -43193,33 +43193,33 @@
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J595" t="n">
-        <v>4400</v>
+        <v>6200</v>
       </c>
       <c r="K595" t="n">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="L595" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="M595" t="n">
-        <v>1286</v>
+        <v>772</v>
       </c>
       <c r="N595" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O595" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P595" t="n">
-        <v>1286</v>
+        <v>772</v>
       </c>
       <c r="Q595" t="n">
         <v>1</v>
@@ -43245,7 +43245,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44232</v>
+        <v>44510</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -43265,33 +43265,33 @@
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J596" t="n">
-        <v>6000</v>
+        <v>2600</v>
       </c>
       <c r="K596" t="n">
-        <v>2300</v>
+        <v>600</v>
       </c>
       <c r="L596" t="n">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="M596" t="n">
-        <v>2410</v>
+        <v>600</v>
       </c>
       <c r="N596" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O596" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P596" t="n">
-        <v>2410</v>
+        <v>600</v>
       </c>
       <c r="Q596" t="n">
         <v>1</v>
@@ -43337,20 +43337,20 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J597" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="K597" t="n">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="L597" t="n">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="M597" t="n">
-        <v>2487</v>
+        <v>2025</v>
       </c>
       <c r="N597" t="inlineStr">
         <is>
@@ -43359,11 +43359,11 @@
       </c>
       <c r="O597" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P597" t="n">
-        <v>2487</v>
+        <v>2025</v>
       </c>
       <c r="Q597" t="n">
         <v>1</v>
@@ -43409,20 +43409,20 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J598" t="n">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="K598" t="n">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="L598" t="n">
-        <v>1100</v>
+        <v>2200</v>
       </c>
       <c r="M598" t="n">
-        <v>1010</v>
+        <v>2092</v>
       </c>
       <c r="N598" t="inlineStr">
         <is>
@@ -43435,7 +43435,7 @@
         </is>
       </c>
       <c r="P598" t="n">
-        <v>1010</v>
+        <v>2092</v>
       </c>
       <c r="Q598" t="n">
         <v>1</v>
@@ -43461,7 +43461,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44551</v>
+        <v>44232</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -43481,20 +43481,20 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J599" t="n">
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="K599" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="L599" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="M599" t="n">
-        <v>800</v>
+        <v>1608</v>
       </c>
       <c r="N599" t="inlineStr">
         <is>
@@ -43503,11 +43503,11 @@
       </c>
       <c r="O599" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P599" t="n">
-        <v>800</v>
+        <v>1608</v>
       </c>
       <c r="Q599" t="n">
         <v>1</v>
@@ -43533,7 +43533,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44551</v>
+        <v>44232</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -43553,20 +43553,20 @@
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J600" t="n">
-        <v>5500</v>
+        <v>6400</v>
       </c>
       <c r="K600" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="L600" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="M600" t="n">
-        <v>891</v>
+        <v>1691</v>
       </c>
       <c r="N600" t="inlineStr">
         <is>
@@ -43579,7 +43579,7 @@
         </is>
       </c>
       <c r="P600" t="n">
-        <v>891</v>
+        <v>1691</v>
       </c>
       <c r="Q600" t="n">
         <v>1</v>
@@ -43605,7 +43605,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44551</v>
+        <v>44232</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -43625,20 +43625,20 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J601" t="n">
-        <v>2300</v>
+        <v>4400</v>
       </c>
       <c r="K601" t="n">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="L601" t="n">
-        <v>3600</v>
+        <v>1400</v>
       </c>
       <c r="M601" t="n">
-        <v>3600</v>
+        <v>1286</v>
       </c>
       <c r="N601" t="inlineStr">
         <is>
@@ -43647,11 +43647,11 @@
       </c>
       <c r="O601" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P601" t="n">
-        <v>3600</v>
+        <v>1286</v>
       </c>
       <c r="Q601" t="n">
         <v>1</v>
@@ -43677,7 +43677,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44551</v>
+        <v>44232</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -43697,20 +43697,20 @@
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J602" t="n">
-        <v>7100</v>
+        <v>6000</v>
       </c>
       <c r="K602" t="n">
-        <v>3300</v>
+        <v>2300</v>
       </c>
       <c r="L602" t="n">
-        <v>3800</v>
+        <v>2500</v>
       </c>
       <c r="M602" t="n">
-        <v>3525</v>
+        <v>2410</v>
       </c>
       <c r="N602" t="inlineStr">
         <is>
@@ -43719,11 +43719,11 @@
       </c>
       <c r="O602" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P602" t="n">
-        <v>3525</v>
+        <v>2410</v>
       </c>
       <c r="Q602" t="n">
         <v>1</v>
@@ -43749,7 +43749,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44551</v>
+        <v>44232</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -43769,20 +43769,20 @@
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J603" t="n">
-        <v>2800</v>
+        <v>5500</v>
       </c>
       <c r="K603" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L603" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="M603" t="n">
-        <v>3000</v>
+        <v>2487</v>
       </c>
       <c r="N603" t="inlineStr">
         <is>
@@ -43791,11 +43791,11 @@
       </c>
       <c r="O603" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P603" t="n">
-        <v>3000</v>
+        <v>2487</v>
       </c>
       <c r="Q603" t="n">
         <v>1</v>
@@ -43821,7 +43821,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44551</v>
+        <v>44232</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -43841,20 +43841,20 @@
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J604" t="n">
-        <v>8400</v>
+        <v>4000</v>
       </c>
       <c r="K604" t="n">
-        <v>2700</v>
+        <v>900</v>
       </c>
       <c r="L604" t="n">
-        <v>3000</v>
+        <v>1100</v>
       </c>
       <c r="M604" t="n">
-        <v>2800</v>
+        <v>1010</v>
       </c>
       <c r="N604" t="inlineStr">
         <is>
@@ -43867,7 +43867,7 @@
         </is>
       </c>
       <c r="P604" t="n">
-        <v>2800</v>
+        <v>1010</v>
       </c>
       <c r="Q604" t="n">
         <v>1</v>
@@ -43913,20 +43913,20 @@
       </c>
       <c r="I605" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J605" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="K605" t="n">
-        <v>2300</v>
+        <v>800</v>
       </c>
       <c r="L605" t="n">
-        <v>2300</v>
+        <v>800</v>
       </c>
       <c r="M605" t="n">
-        <v>2300</v>
+        <v>800</v>
       </c>
       <c r="N605" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         </is>
       </c>
       <c r="P605" t="n">
-        <v>2300</v>
+        <v>800</v>
       </c>
       <c r="Q605" t="n">
         <v>1</v>
@@ -43985,20 +43985,20 @@
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J606" t="n">
-        <v>10300</v>
+        <v>5500</v>
       </c>
       <c r="K606" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="L606" t="n">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="M606" t="n">
-        <v>2176</v>
+        <v>891</v>
       </c>
       <c r="N606" t="inlineStr">
         <is>
@@ -44011,7 +44011,7 @@
         </is>
       </c>
       <c r="P606" t="n">
-        <v>2176</v>
+        <v>891</v>
       </c>
       <c r="Q606" t="n">
         <v>1</v>
@@ -44057,20 +44057,20 @@
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J607" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="K607" t="n">
-        <v>4300</v>
+        <v>3600</v>
       </c>
       <c r="L607" t="n">
-        <v>4300</v>
+        <v>3600</v>
       </c>
       <c r="M607" t="n">
-        <v>4300</v>
+        <v>3600</v>
       </c>
       <c r="N607" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         </is>
       </c>
       <c r="P607" t="n">
-        <v>4300</v>
+        <v>3600</v>
       </c>
       <c r="Q607" t="n">
         <v>1</v>
@@ -44129,20 +44129,20 @@
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J608" t="n">
-        <v>5400</v>
+        <v>7100</v>
       </c>
       <c r="K608" t="n">
-        <v>4000</v>
+        <v>3300</v>
       </c>
       <c r="L608" t="n">
-        <v>4400</v>
+        <v>3800</v>
       </c>
       <c r="M608" t="n">
-        <v>4185</v>
+        <v>3525</v>
       </c>
       <c r="N608" t="inlineStr">
         <is>
@@ -44155,7 +44155,7 @@
         </is>
       </c>
       <c r="P608" t="n">
-        <v>4185</v>
+        <v>3525</v>
       </c>
       <c r="Q608" t="n">
         <v>1</v>
@@ -44201,20 +44201,20 @@
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J609" t="n">
         <v>2800</v>
       </c>
       <c r="K609" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="L609" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="M609" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="N609" t="inlineStr">
         <is>
@@ -44227,7 +44227,7 @@
         </is>
       </c>
       <c r="P609" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="Q609" t="n">
         <v>1</v>
@@ -44253,7 +44253,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44543</v>
+        <v>44551</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -44273,20 +44273,20 @@
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J610" t="n">
-        <v>5700</v>
+        <v>8400</v>
       </c>
       <c r="K610" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="L610" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="M610" t="n">
-        <v>3626</v>
+        <v>2800</v>
       </c>
       <c r="N610" t="inlineStr">
         <is>
@@ -44299,7 +44299,7 @@
         </is>
       </c>
       <c r="P610" t="n">
-        <v>3626</v>
+        <v>2800</v>
       </c>
       <c r="Q610" t="n">
         <v>1</v>
@@ -44325,7 +44325,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44543</v>
+        <v>44551</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -44345,20 +44345,20 @@
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J611" t="n">
-        <v>9300</v>
+        <v>2500</v>
       </c>
       <c r="K611" t="n">
-        <v>2900</v>
+        <v>2300</v>
       </c>
       <c r="L611" t="n">
-        <v>3200</v>
+        <v>2300</v>
       </c>
       <c r="M611" t="n">
-        <v>3045</v>
+        <v>2300</v>
       </c>
       <c r="N611" t="inlineStr">
         <is>
@@ -44367,11 +44367,11 @@
       </c>
       <c r="O611" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P611" t="n">
-        <v>3045</v>
+        <v>2300</v>
       </c>
       <c r="Q611" t="n">
         <v>1</v>
@@ -44397,7 +44397,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44543</v>
+        <v>44551</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -44421,16 +44421,16 @@
         </is>
       </c>
       <c r="J612" t="n">
-        <v>4300</v>
+        <v>10300</v>
       </c>
       <c r="K612" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="L612" t="n">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="M612" t="n">
-        <v>2505</v>
+        <v>2176</v>
       </c>
       <c r="N612" t="inlineStr">
         <is>
@@ -44443,7 +44443,7 @@
         </is>
       </c>
       <c r="P612" t="n">
-        <v>2505</v>
+        <v>2176</v>
       </c>
       <c r="Q612" t="n">
         <v>1</v>
@@ -44469,7 +44469,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44543</v>
+        <v>44551</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -44493,16 +44493,16 @@
         </is>
       </c>
       <c r="J613" t="n">
-        <v>3400</v>
+        <v>1500</v>
       </c>
       <c r="K613" t="n">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="L613" t="n">
         <v>4300</v>
       </c>
       <c r="M613" t="n">
-        <v>4132</v>
+        <v>4300</v>
       </c>
       <c r="N613" t="inlineStr">
         <is>
@@ -44511,11 +44511,11 @@
       </c>
       <c r="O613" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P613" t="n">
-        <v>4132</v>
+        <v>4300</v>
       </c>
       <c r="Q613" t="n">
         <v>1</v>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44543</v>
+        <v>44551</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -44561,20 +44561,20 @@
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J614" t="n">
-        <v>4500</v>
+        <v>5400</v>
       </c>
       <c r="K614" t="n">
-        <v>1600</v>
+        <v>4000</v>
       </c>
       <c r="L614" t="n">
-        <v>2000</v>
+        <v>4400</v>
       </c>
       <c r="M614" t="n">
-        <v>1769</v>
+        <v>4185</v>
       </c>
       <c r="N614" t="inlineStr">
         <is>
@@ -44587,7 +44587,7 @@
         </is>
       </c>
       <c r="P614" t="n">
-        <v>1769</v>
+        <v>4185</v>
       </c>
       <c r="Q614" t="n">
         <v>1</v>
@@ -44613,7 +44613,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44278</v>
+        <v>44551</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -44633,20 +44633,20 @@
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J615" t="n">
-        <v>1300</v>
+        <v>2800</v>
       </c>
       <c r="K615" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="L615" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="M615" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="N615" t="inlineStr">
         <is>
@@ -44655,11 +44655,11 @@
       </c>
       <c r="O615" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P615" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="Q615" t="n">
         <v>1</v>
@@ -44685,7 +44685,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44278</v>
+        <v>44543</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -44709,16 +44709,16 @@
         </is>
       </c>
       <c r="J616" t="n">
-        <v>2200</v>
+        <v>5700</v>
       </c>
       <c r="K616" t="n">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="L616" t="n">
-        <v>2300</v>
+        <v>3800</v>
       </c>
       <c r="M616" t="n">
-        <v>2300</v>
+        <v>3626</v>
       </c>
       <c r="N616" t="inlineStr">
         <is>
@@ -44727,11 +44727,11 @@
       </c>
       <c r="O616" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P616" t="n">
-        <v>2300</v>
+        <v>3626</v>
       </c>
       <c r="Q616" t="n">
         <v>1</v>
@@ -44757,7 +44757,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44278</v>
+        <v>44543</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -44781,16 +44781,16 @@
         </is>
       </c>
       <c r="J617" t="n">
-        <v>3500</v>
+        <v>9300</v>
       </c>
       <c r="K617" t="n">
-        <v>1900</v>
+        <v>2900</v>
       </c>
       <c r="L617" t="n">
-        <v>1900</v>
+        <v>3200</v>
       </c>
       <c r="M617" t="n">
-        <v>1900</v>
+        <v>3045</v>
       </c>
       <c r="N617" t="inlineStr">
         <is>
@@ -44799,11 +44799,11 @@
       </c>
       <c r="O617" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P617" t="n">
-        <v>1900</v>
+        <v>3045</v>
       </c>
       <c r="Q617" t="n">
         <v>1</v>
@@ -44829,7 +44829,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44278</v>
+        <v>44543</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -44853,16 +44853,16 @@
         </is>
       </c>
       <c r="J618" t="n">
-        <v>2800</v>
+        <v>4300</v>
       </c>
       <c r="K618" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="L618" t="n">
-        <v>1500</v>
+        <v>2700</v>
       </c>
       <c r="M618" t="n">
-        <v>1500</v>
+        <v>2505</v>
       </c>
       <c r="N618" t="inlineStr">
         <is>
@@ -44871,11 +44871,11 @@
       </c>
       <c r="O618" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P618" t="n">
-        <v>1500</v>
+        <v>2505</v>
       </c>
       <c r="Q618" t="n">
         <v>1</v>
@@ -44901,7 +44901,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44278</v>
+        <v>44543</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -44921,20 +44921,20 @@
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J619" t="n">
-        <v>1900</v>
+        <v>3400</v>
       </c>
       <c r="K619" t="n">
-        <v>1200</v>
+        <v>4000</v>
       </c>
       <c r="L619" t="n">
-        <v>1200</v>
+        <v>4300</v>
       </c>
       <c r="M619" t="n">
-        <v>1200</v>
+        <v>4132</v>
       </c>
       <c r="N619" t="inlineStr">
         <is>
@@ -44943,11 +44943,11 @@
       </c>
       <c r="O619" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P619" t="n">
-        <v>1200</v>
+        <v>4132</v>
       </c>
       <c r="Q619" t="n">
         <v>1</v>
@@ -44973,7 +44973,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44187</v>
+        <v>44543</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -44993,20 +44993,20 @@
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J620" t="n">
-        <v>2600</v>
+        <v>4500</v>
       </c>
       <c r="K620" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="L620" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M620" t="n">
-        <v>3000</v>
+        <v>1769</v>
       </c>
       <c r="N620" t="inlineStr">
         <is>
@@ -45015,11 +45015,11 @@
       </c>
       <c r="O620" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P620" t="n">
-        <v>3000</v>
+        <v>1769</v>
       </c>
       <c r="Q620" t="n">
         <v>1</v>
@@ -45045,7 +45045,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -45065,20 +45065,20 @@
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J621" t="n">
-        <v>5000</v>
+        <v>1300</v>
       </c>
       <c r="K621" t="n">
-        <v>2900</v>
+        <v>700</v>
       </c>
       <c r="L621" t="n">
-        <v>3200</v>
+        <v>700</v>
       </c>
       <c r="M621" t="n">
-        <v>3068</v>
+        <v>700</v>
       </c>
       <c r="N621" t="inlineStr">
         <is>
@@ -45087,11 +45087,11 @@
       </c>
       <c r="O621" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P621" t="n">
-        <v>3068</v>
+        <v>700</v>
       </c>
       <c r="Q621" t="n">
         <v>1</v>
@@ -45117,7 +45117,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -45137,20 +45137,20 @@
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J622" t="n">
-        <v>4400</v>
+        <v>2200</v>
       </c>
       <c r="K622" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="L622" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="M622" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="N622" t="inlineStr">
         <is>
@@ -45159,11 +45159,11 @@
       </c>
       <c r="O622" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P622" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="Q622" t="n">
         <v>1</v>
@@ -45189,7 +45189,7 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E623" t="n">
         <v>13</v>
@@ -45213,16 +45213,16 @@
         </is>
       </c>
       <c r="J623" t="n">
-        <v>8300</v>
+        <v>3500</v>
       </c>
       <c r="K623" t="n">
-        <v>2300</v>
+        <v>1900</v>
       </c>
       <c r="L623" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="M623" t="n">
-        <v>2394</v>
+        <v>1900</v>
       </c>
       <c r="N623" t="inlineStr">
         <is>
@@ -45231,11 +45231,11 @@
       </c>
       <c r="O623" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P623" t="n">
-        <v>2394</v>
+        <v>1900</v>
       </c>
       <c r="Q623" t="n">
         <v>1</v>
@@ -45261,7 +45261,7 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E624" t="n">
         <v>13</v>
@@ -45285,16 +45285,16 @@
         </is>
       </c>
       <c r="J624" t="n">
-        <v>5000</v>
+        <v>2800</v>
       </c>
       <c r="K624" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="L624" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M624" t="n">
-        <v>1814</v>
+        <v>1500</v>
       </c>
       <c r="N624" t="inlineStr">
         <is>
@@ -45303,11 +45303,11 @@
       </c>
       <c r="O624" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P624" t="n">
-        <v>1814</v>
+        <v>1500</v>
       </c>
       <c r="Q624" t="n">
         <v>1</v>
@@ -45333,7 +45333,7 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44187</v>
+        <v>44278</v>
       </c>
       <c r="E625" t="n">
         <v>13</v>
@@ -45353,20 +45353,20 @@
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J625" t="n">
-        <v>3800</v>
+        <v>1900</v>
       </c>
       <c r="K625" t="n">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="L625" t="n">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="M625" t="n">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="N625" t="inlineStr">
         <is>
@@ -45375,11 +45375,11 @@
       </c>
       <c r="O625" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P625" t="n">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="Q625" t="n">
         <v>1</v>
@@ -45425,20 +45425,20 @@
       </c>
       <c r="I626" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J626" t="n">
-        <v>6300</v>
+        <v>2600</v>
       </c>
       <c r="K626" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="L626" t="n">
-        <v>3700</v>
+        <v>3000</v>
       </c>
       <c r="M626" t="n">
-        <v>3571</v>
+        <v>3000</v>
       </c>
       <c r="N626" t="inlineStr">
         <is>
@@ -45447,11 +45447,11 @@
       </c>
       <c r="O626" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P626" t="n">
-        <v>3571</v>
+        <v>3000</v>
       </c>
       <c r="Q626" t="n">
         <v>1</v>
@@ -45497,20 +45497,20 @@
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J627" t="n">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="K627" t="n">
-        <v>1000</v>
+        <v>2900</v>
       </c>
       <c r="L627" t="n">
-        <v>1300</v>
+        <v>3200</v>
       </c>
       <c r="M627" t="n">
-        <v>1153</v>
+        <v>3068</v>
       </c>
       <c r="N627" t="inlineStr">
         <is>
@@ -45523,7 +45523,7 @@
         </is>
       </c>
       <c r="P627" t="n">
-        <v>1153</v>
+        <v>3068</v>
       </c>
       <c r="Q627" t="n">
         <v>1</v>
@@ -45549,7 +45549,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -45573,29 +45573,29 @@
         </is>
       </c>
       <c r="J628" t="n">
-        <v>8200</v>
+        <v>4400</v>
       </c>
       <c r="K628" t="n">
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="L628" t="n">
-        <v>450</v>
+        <v>2500</v>
       </c>
       <c r="M628" t="n">
-        <v>421</v>
+        <v>2500</v>
       </c>
       <c r="N628" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O628" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P628" t="n">
-        <v>421</v>
+        <v>2500</v>
       </c>
       <c r="Q628" t="n">
         <v>1</v>
@@ -45621,7 +45621,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -45645,20 +45645,20 @@
         </is>
       </c>
       <c r="J629" t="n">
-        <v>12500</v>
+        <v>8300</v>
       </c>
       <c r="K629" t="n">
-        <v>380</v>
+        <v>2300</v>
       </c>
       <c r="L629" t="n">
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="M629" t="n">
-        <v>389</v>
+        <v>2394</v>
       </c>
       <c r="N629" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O629" t="inlineStr">
@@ -45667,7 +45667,7 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>389</v>
+        <v>2394</v>
       </c>
       <c r="Q629" t="n">
         <v>1</v>
@@ -45693,7 +45693,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -45713,20 +45713,20 @@
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J630" t="n">
-        <v>1900</v>
+        <v>5000</v>
       </c>
       <c r="K630" t="n">
-        <v>3700</v>
+        <v>1700</v>
       </c>
       <c r="L630" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="M630" t="n">
-        <v>3700</v>
+        <v>1814</v>
       </c>
       <c r="N630" t="inlineStr">
         <is>
@@ -45735,11 +45735,11 @@
       </c>
       <c r="O630" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P630" t="n">
-        <v>3700</v>
+        <v>1814</v>
       </c>
       <c r="Q630" t="n">
         <v>1</v>
@@ -45765,7 +45765,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -45785,20 +45785,20 @@
       </c>
       <c r="I631" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J631" t="n">
-        <v>2900</v>
+        <v>3800</v>
       </c>
       <c r="K631" t="n">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="L631" t="n">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="M631" t="n">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="N631" t="inlineStr">
         <is>
@@ -45807,11 +45807,11 @@
       </c>
       <c r="O631" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P631" t="n">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="Q631" t="n">
         <v>1</v>
@@ -45837,7 +45837,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -45857,33 +45857,33 @@
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J632" t="n">
-        <v>2900</v>
+        <v>6300</v>
       </c>
       <c r="K632" t="n">
-        <v>300</v>
+        <v>3400</v>
       </c>
       <c r="L632" t="n">
-        <v>300</v>
+        <v>3700</v>
       </c>
       <c r="M632" t="n">
-        <v>300</v>
+        <v>3571</v>
       </c>
       <c r="N632" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O632" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P632" t="n">
-        <v>300</v>
+        <v>3571</v>
       </c>
       <c r="Q632" t="n">
         <v>1</v>
@@ -45909,7 +45909,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44529</v>
+        <v>44187</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -45929,24 +45929,24 @@
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J633" t="n">
-        <v>3300</v>
+        <v>4900</v>
       </c>
       <c r="K633" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="L633" t="n">
-        <v>350</v>
+        <v>1300</v>
       </c>
       <c r="M633" t="n">
-        <v>350</v>
+        <v>1153</v>
       </c>
       <c r="N633" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O633" t="inlineStr">
@@ -45955,7 +45955,7 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>350</v>
+        <v>1153</v>
       </c>
       <c r="Q633" t="n">
         <v>1</v>
@@ -46001,33 +46001,33 @@
       </c>
       <c r="I634" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J634" t="n">
-        <v>2500</v>
+        <v>8200</v>
       </c>
       <c r="K634" t="n">
-        <v>3000</v>
+        <v>400</v>
       </c>
       <c r="L634" t="n">
-        <v>3000</v>
+        <v>450</v>
       </c>
       <c r="M634" t="n">
-        <v>3000</v>
+        <v>421</v>
       </c>
       <c r="N634" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O634" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P634" t="n">
-        <v>3000</v>
+        <v>421</v>
       </c>
       <c r="Q634" t="n">
         <v>1</v>
@@ -46073,24 +46073,24 @@
       </c>
       <c r="I635" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J635" t="n">
-        <v>3500</v>
+        <v>12500</v>
       </c>
       <c r="K635" t="n">
-        <v>3000</v>
+        <v>380</v>
       </c>
       <c r="L635" t="n">
-        <v>3000</v>
+        <v>400</v>
       </c>
       <c r="M635" t="n">
-        <v>3000</v>
+        <v>389</v>
       </c>
       <c r="N635" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O635" t="inlineStr">
@@ -46099,7 +46099,7 @@
         </is>
       </c>
       <c r="P635" t="n">
-        <v>3000</v>
+        <v>389</v>
       </c>
       <c r="Q635" t="n">
         <v>1</v>
@@ -46145,20 +46145,20 @@
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J636" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K636" t="n">
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="L636" t="n">
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="M636" t="n">
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="N636" t="inlineStr">
         <is>
@@ -46171,7 +46171,7 @@
         </is>
       </c>
       <c r="P636" t="n">
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="Q636" t="n">
         <v>1</v>
@@ -46217,20 +46217,20 @@
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J637" t="n">
-        <v>3200</v>
+        <v>2900</v>
       </c>
       <c r="K637" t="n">
-        <v>2300</v>
+        <v>3800</v>
       </c>
       <c r="L637" t="n">
-        <v>2300</v>
+        <v>3800</v>
       </c>
       <c r="M637" t="n">
-        <v>2300</v>
+        <v>3800</v>
       </c>
       <c r="N637" t="inlineStr">
         <is>
@@ -46243,7 +46243,7 @@
         </is>
       </c>
       <c r="P637" t="n">
-        <v>2300</v>
+        <v>3800</v>
       </c>
       <c r="Q637" t="n">
         <v>1</v>
@@ -46269,7 +46269,7 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E638" t="n">
         <v>13</v>
@@ -46289,33 +46289,33 @@
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J638" t="n">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="K638" t="n">
-        <v>2200</v>
+        <v>300</v>
       </c>
       <c r="L638" t="n">
-        <v>2200</v>
+        <v>300</v>
       </c>
       <c r="M638" t="n">
-        <v>2200</v>
+        <v>300</v>
       </c>
       <c r="N638" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O638" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P638" t="n">
-        <v>2200</v>
+        <v>300</v>
       </c>
       <c r="Q638" t="n">
         <v>1</v>
@@ -46341,7 +46341,7 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E639" t="n">
         <v>13</v>
@@ -46361,24 +46361,24 @@
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J639" t="n">
-        <v>5700</v>
+        <v>3300</v>
       </c>
       <c r="K639" t="n">
-        <v>2100</v>
+        <v>350</v>
       </c>
       <c r="L639" t="n">
-        <v>2500</v>
+        <v>350</v>
       </c>
       <c r="M639" t="n">
-        <v>2346</v>
+        <v>350</v>
       </c>
       <c r="N639" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O639" t="inlineStr">
@@ -46387,7 +46387,7 @@
         </is>
       </c>
       <c r="P639" t="n">
-        <v>2346</v>
+        <v>350</v>
       </c>
       <c r="Q639" t="n">
         <v>1</v>
@@ -46413,7 +46413,7 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E640" t="n">
         <v>13</v>
@@ -46433,20 +46433,20 @@
       </c>
       <c r="I640" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J640" t="n">
-        <v>3700</v>
+        <v>2500</v>
       </c>
       <c r="K640" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L640" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="M640" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="N640" t="inlineStr">
         <is>
@@ -46455,11 +46455,11 @@
       </c>
       <c r="O640" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P640" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="Q640" t="n">
         <v>1</v>
@@ -46485,7 +46485,7 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E641" t="n">
         <v>13</v>
@@ -46505,20 +46505,20 @@
       </c>
       <c r="I641" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J641" t="n">
-        <v>7800</v>
+        <v>3500</v>
       </c>
       <c r="K641" t="n">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="L641" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M641" t="n">
-        <v>1850</v>
+        <v>3000</v>
       </c>
       <c r="N641" t="inlineStr">
         <is>
@@ -46531,7 +46531,7 @@
         </is>
       </c>
       <c r="P641" t="n">
-        <v>1850</v>
+        <v>3000</v>
       </c>
       <c r="Q641" t="n">
         <v>1</v>
@@ -46557,7 +46557,7 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E642" t="n">
         <v>13</v>
@@ -46577,20 +46577,20 @@
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J642" t="n">
-        <v>3900</v>
+        <v>2000</v>
       </c>
       <c r="K642" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="L642" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M642" t="n">
-        <v>1446</v>
+        <v>2000</v>
       </c>
       <c r="N642" t="inlineStr">
         <is>
@@ -46599,11 +46599,11 @@
       </c>
       <c r="O642" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P642" t="n">
-        <v>1446</v>
+        <v>2000</v>
       </c>
       <c r="Q642" t="n">
         <v>1</v>
@@ -46629,7 +46629,7 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E643" t="n">
         <v>13</v>
@@ -46649,20 +46649,20 @@
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J643" t="n">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="K643" t="n">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="L643" t="n">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="M643" t="n">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="N643" t="inlineStr">
         <is>
@@ -46671,11 +46671,11 @@
       </c>
       <c r="O643" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P643" t="n">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="Q643" t="n">
         <v>1</v>
@@ -46721,20 +46721,20 @@
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J644" t="n">
-        <v>5900</v>
+        <v>2800</v>
       </c>
       <c r="K644" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="L644" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="M644" t="n">
-        <v>2688</v>
+        <v>2200</v>
       </c>
       <c r="N644" t="inlineStr">
         <is>
@@ -46743,11 +46743,11 @@
       </c>
       <c r="O644" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P644" t="n">
-        <v>2688</v>
+        <v>2200</v>
       </c>
       <c r="Q644" t="n">
         <v>1</v>
@@ -46793,20 +46793,20 @@
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J645" t="n">
-        <v>3900</v>
+        <v>5700</v>
       </c>
       <c r="K645" t="n">
-        <v>1000</v>
+        <v>2100</v>
       </c>
       <c r="L645" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="M645" t="n">
-        <v>1113</v>
+        <v>2346</v>
       </c>
       <c r="N645" t="inlineStr">
         <is>
@@ -46819,7 +46819,7 @@
         </is>
       </c>
       <c r="P645" t="n">
-        <v>1113</v>
+        <v>2346</v>
       </c>
       <c r="Q645" t="n">
         <v>1</v>
@@ -46845,7 +46845,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -46865,20 +46865,20 @@
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J646" t="n">
-        <v>4400</v>
+        <v>3700</v>
       </c>
       <c r="K646" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L646" t="n">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="M646" t="n">
-        <v>2164</v>
+        <v>1800</v>
       </c>
       <c r="N646" t="inlineStr">
         <is>
@@ -46887,11 +46887,11 @@
       </c>
       <c r="O646" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P646" t="n">
-        <v>2164</v>
+        <v>1800</v>
       </c>
       <c r="Q646" t="n">
         <v>1</v>
@@ -46917,7 +46917,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -46941,16 +46941,16 @@
         </is>
       </c>
       <c r="J647" t="n">
-        <v>6600</v>
+        <v>7800</v>
       </c>
       <c r="K647" t="n">
         <v>1700</v>
       </c>
       <c r="L647" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M647" t="n">
-        <v>1747</v>
+        <v>1850</v>
       </c>
       <c r="N647" t="inlineStr">
         <is>
@@ -46963,7 +46963,7 @@
         </is>
       </c>
       <c r="P647" t="n">
-        <v>1747</v>
+        <v>1850</v>
       </c>
       <c r="Q647" t="n">
         <v>1</v>
@@ -46989,7 +46989,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -47013,16 +47013,16 @@
         </is>
       </c>
       <c r="J648" t="n">
-        <v>4400</v>
+        <v>3900</v>
       </c>
       <c r="K648" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="L648" t="n">
         <v>1600</v>
       </c>
       <c r="M648" t="n">
-        <v>1523</v>
+        <v>1446</v>
       </c>
       <c r="N648" t="inlineStr">
         <is>
@@ -47035,7 +47035,7 @@
         </is>
       </c>
       <c r="P648" t="n">
-        <v>1523</v>
+        <v>1446</v>
       </c>
       <c r="Q648" t="n">
         <v>1</v>
@@ -47061,7 +47061,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -47085,16 +47085,16 @@
         </is>
       </c>
       <c r="J649" t="n">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="K649" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="L649" t="n">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="M649" t="n">
-        <v>2512</v>
+        <v>2700</v>
       </c>
       <c r="N649" t="inlineStr">
         <is>
@@ -47103,11 +47103,11 @@
       </c>
       <c r="O649" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P649" t="n">
-        <v>2512</v>
+        <v>2700</v>
       </c>
       <c r="Q649" t="n">
         <v>1</v>
@@ -47133,7 +47133,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -47153,20 +47153,20 @@
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J650" t="n">
-        <v>3500</v>
+        <v>5900</v>
       </c>
       <c r="K650" t="n">
-        <v>1000</v>
+        <v>2600</v>
       </c>
       <c r="L650" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="M650" t="n">
-        <v>1137</v>
+        <v>2688</v>
       </c>
       <c r="N650" t="inlineStr">
         <is>
@@ -47179,7 +47179,7 @@
         </is>
       </c>
       <c r="P650" t="n">
-        <v>1137</v>
+        <v>2688</v>
       </c>
       <c r="Q650" t="n">
         <v>1</v>
@@ -47205,7 +47205,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44175</v>
+        <v>44238</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -47225,20 +47225,20 @@
       </c>
       <c r="I651" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J651" t="n">
-        <v>2200</v>
+        <v>3900</v>
       </c>
       <c r="K651" t="n">
-        <v>3200</v>
+        <v>1000</v>
       </c>
       <c r="L651" t="n">
-        <v>3400</v>
+        <v>1200</v>
       </c>
       <c r="M651" t="n">
-        <v>3309</v>
+        <v>1113</v>
       </c>
       <c r="N651" t="inlineStr">
         <is>
@@ -47247,11 +47247,11 @@
       </c>
       <c r="O651" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P651" t="n">
-        <v>3309</v>
+        <v>1113</v>
       </c>
       <c r="Q651" t="n">
         <v>1</v>
@@ -47277,7 +47277,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -47301,16 +47301,16 @@
         </is>
       </c>
       <c r="J652" t="n">
-        <v>3100</v>
+        <v>4400</v>
       </c>
       <c r="K652" t="n">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="L652" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="M652" t="n">
-        <v>3390</v>
+        <v>2164</v>
       </c>
       <c r="N652" t="inlineStr">
         <is>
@@ -47323,7 +47323,7 @@
         </is>
       </c>
       <c r="P652" t="n">
-        <v>3390</v>
+        <v>2164</v>
       </c>
       <c r="Q652" t="n">
         <v>1</v>
@@ -47349,7 +47349,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -47373,16 +47373,16 @@
         </is>
       </c>
       <c r="J653" t="n">
-        <v>3800</v>
+        <v>6600</v>
       </c>
       <c r="K653" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="L653" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="M653" t="n">
-        <v>2595</v>
+        <v>1747</v>
       </c>
       <c r="N653" t="inlineStr">
         <is>
@@ -47391,11 +47391,11 @@
       </c>
       <c r="O653" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P653" t="n">
-        <v>2595</v>
+        <v>1747</v>
       </c>
       <c r="Q653" t="n">
         <v>1</v>
@@ -47421,7 +47421,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -47441,20 +47441,20 @@
       </c>
       <c r="I654" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J654" t="n">
-        <v>6000</v>
+        <v>4400</v>
       </c>
       <c r="K654" t="n">
-        <v>2700</v>
+        <v>1400</v>
       </c>
       <c r="L654" t="n">
-        <v>2900</v>
+        <v>1600</v>
       </c>
       <c r="M654" t="n">
-        <v>2810</v>
+        <v>1523</v>
       </c>
       <c r="N654" t="inlineStr">
         <is>
@@ -47467,7 +47467,7 @@
         </is>
       </c>
       <c r="P654" t="n">
-        <v>2810</v>
+        <v>1523</v>
       </c>
       <c r="Q654" t="n">
         <v>1</v>
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -47513,20 +47513,20 @@
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J655" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="K655" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="L655" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="M655" t="n">
-        <v>2275</v>
+        <v>2512</v>
       </c>
       <c r="N655" t="inlineStr">
         <is>
@@ -47539,7 +47539,7 @@
         </is>
       </c>
       <c r="P655" t="n">
-        <v>2275</v>
+        <v>2512</v>
       </c>
       <c r="Q655" t="n">
         <v>1</v>
@@ -47565,7 +47565,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44175</v>
+        <v>44257</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -47585,20 +47585,20 @@
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J656" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="K656" t="n">
-        <v>3800</v>
+        <v>1000</v>
       </c>
       <c r="L656" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="M656" t="n">
-        <v>3922</v>
+        <v>1137</v>
       </c>
       <c r="N656" t="inlineStr">
         <is>
@@ -47607,11 +47607,11 @@
       </c>
       <c r="O656" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P656" t="n">
-        <v>3922</v>
+        <v>1137</v>
       </c>
       <c r="Q656" t="n">
         <v>1</v>
@@ -47657,20 +47657,20 @@
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J657" t="n">
-        <v>2900</v>
+        <v>2200</v>
       </c>
       <c r="K657" t="n">
-        <v>3900</v>
+        <v>3200</v>
       </c>
       <c r="L657" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="M657" t="n">
-        <v>3945</v>
+        <v>3309</v>
       </c>
       <c r="N657" t="inlineStr">
         <is>
@@ -47679,11 +47679,11 @@
       </c>
       <c r="O657" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P657" t="n">
-        <v>3945</v>
+        <v>3309</v>
       </c>
       <c r="Q657" t="n">
         <v>1</v>
@@ -47729,20 +47729,20 @@
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J658" t="n">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="K658" t="n">
-        <v>1600</v>
+        <v>3300</v>
       </c>
       <c r="L658" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="M658" t="n">
-        <v>1673</v>
+        <v>3390</v>
       </c>
       <c r="N658" t="inlineStr">
         <is>
@@ -47755,7 +47755,7 @@
         </is>
       </c>
       <c r="P658" t="n">
-        <v>1673</v>
+        <v>3390</v>
       </c>
       <c r="Q658" t="n">
         <v>1</v>
@@ -47781,7 +47781,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -47801,20 +47801,20 @@
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J659" t="n">
-        <v>5300</v>
+        <v>3800</v>
       </c>
       <c r="K659" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="L659" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="M659" t="n">
-        <v>2804</v>
+        <v>2595</v>
       </c>
       <c r="N659" t="inlineStr">
         <is>
@@ -47823,11 +47823,11 @@
       </c>
       <c r="O659" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P659" t="n">
-        <v>2804</v>
+        <v>2595</v>
       </c>
       <c r="Q659" t="n">
         <v>1</v>
@@ -47853,7 +47853,7 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E660" t="n">
         <v>13</v>
@@ -47877,16 +47877,16 @@
         </is>
       </c>
       <c r="J660" t="n">
-        <v>7400</v>
+        <v>6000</v>
       </c>
       <c r="K660" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="L660" t="n">
-        <v>2300</v>
+        <v>2900</v>
       </c>
       <c r="M660" t="n">
-        <v>2154</v>
+        <v>2810</v>
       </c>
       <c r="N660" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         </is>
       </c>
       <c r="P660" t="n">
-        <v>2154</v>
+        <v>2810</v>
       </c>
       <c r="Q660" t="n">
         <v>1</v>
@@ -47925,7 +47925,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -47949,16 +47949,16 @@
         </is>
       </c>
       <c r="J661" t="n">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="K661" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="L661" t="n">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="M661" t="n">
-        <v>1576</v>
+        <v>2275</v>
       </c>
       <c r="N661" t="inlineStr">
         <is>
@@ -47971,7 +47971,7 @@
         </is>
       </c>
       <c r="P661" t="n">
-        <v>1576</v>
+        <v>2275</v>
       </c>
       <c r="Q661" t="n">
         <v>1</v>
@@ -47997,7 +47997,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -48021,16 +48021,16 @@
         </is>
       </c>
       <c r="J662" t="n">
-        <v>5800</v>
+        <v>1800</v>
       </c>
       <c r="K662" t="n">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="L662" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M662" t="n">
-        <v>3381</v>
+        <v>3922</v>
       </c>
       <c r="N662" t="inlineStr">
         <is>
@@ -48039,11 +48039,11 @@
       </c>
       <c r="O662" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P662" t="n">
-        <v>3381</v>
+        <v>3922</v>
       </c>
       <c r="Q662" t="n">
         <v>1</v>
@@ -48069,7 +48069,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -48089,20 +48089,20 @@
       </c>
       <c r="I663" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J663" t="n">
+        <v>2900</v>
+      </c>
+      <c r="K663" t="n">
         <v>3900</v>
       </c>
-      <c r="K663" t="n">
-        <v>1000</v>
-      </c>
       <c r="L663" t="n">
-        <v>1200</v>
+        <v>4000</v>
       </c>
       <c r="M663" t="n">
-        <v>1097</v>
+        <v>3945</v>
       </c>
       <c r="N663" t="inlineStr">
         <is>
@@ -48115,7 +48115,7 @@
         </is>
       </c>
       <c r="P663" t="n">
-        <v>1097</v>
+        <v>3945</v>
       </c>
       <c r="Q663" t="n">
         <v>1</v>
@@ -48141,7 +48141,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -48161,20 +48161,20 @@
       </c>
       <c r="I664" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J664" t="n">
-        <v>860</v>
+        <v>3000</v>
       </c>
       <c r="K664" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="L664" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="M664" t="n">
-        <v>1000</v>
+        <v>1673</v>
       </c>
       <c r="N664" t="inlineStr">
         <is>
@@ -48183,11 +48183,11 @@
       </c>
       <c r="O664" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P664" t="n">
-        <v>1000</v>
+        <v>1673</v>
       </c>
       <c r="Q664" t="n">
         <v>1</v>
@@ -48213,7 +48213,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -48233,20 +48233,20 @@
       </c>
       <c r="I665" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J665" t="n">
-        <v>700</v>
+        <v>5300</v>
       </c>
       <c r="K665" t="n">
-        <v>900</v>
+        <v>2600</v>
       </c>
       <c r="L665" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="M665" t="n">
-        <v>900</v>
+        <v>2804</v>
       </c>
       <c r="N665" t="inlineStr">
         <is>
@@ -48259,7 +48259,7 @@
         </is>
       </c>
       <c r="P665" t="n">
-        <v>900</v>
+        <v>2804</v>
       </c>
       <c r="Q665" t="n">
         <v>1</v>
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -48305,20 +48305,20 @@
       </c>
       <c r="I666" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J666" t="n">
-        <v>2570</v>
+        <v>7400</v>
       </c>
       <c r="K666" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L666" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="M666" t="n">
-        <v>2899</v>
+        <v>2154</v>
       </c>
       <c r="N666" t="inlineStr">
         <is>
@@ -48327,11 +48327,11 @@
       </c>
       <c r="O666" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P666" t="n">
-        <v>2899</v>
+        <v>2154</v>
       </c>
       <c r="Q666" t="n">
         <v>1</v>
@@ -48357,7 +48357,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -48377,20 +48377,20 @@
       </c>
       <c r="I667" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J667" t="n">
-        <v>3200</v>
+        <v>4100</v>
       </c>
       <c r="K667" t="n">
-        <v>2700</v>
+        <v>1400</v>
       </c>
       <c r="L667" t="n">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="M667" t="n">
-        <v>2844</v>
+        <v>1576</v>
       </c>
       <c r="N667" t="inlineStr">
         <is>
@@ -48403,7 +48403,7 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>2844</v>
+        <v>1576</v>
       </c>
       <c r="Q667" t="n">
         <v>1</v>
@@ -48429,7 +48429,7 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -48449,20 +48449,20 @@
       </c>
       <c r="I668" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J668" t="n">
-        <v>3050</v>
+        <v>5800</v>
       </c>
       <c r="K668" t="n">
-        <v>2300</v>
+        <v>3200</v>
       </c>
       <c r="L668" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M668" t="n">
-        <v>2405</v>
+        <v>3381</v>
       </c>
       <c r="N668" t="inlineStr">
         <is>
@@ -48471,11 +48471,11 @@
       </c>
       <c r="O668" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P668" t="n">
-        <v>2405</v>
+        <v>3381</v>
       </c>
       <c r="Q668" t="n">
         <v>1</v>
@@ -48501,7 +48501,7 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E669" t="n">
         <v>13</v>
@@ -48521,20 +48521,20 @@
       </c>
       <c r="I669" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J669" t="n">
-        <v>2350</v>
+        <v>3900</v>
       </c>
       <c r="K669" t="n">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="L669" t="n">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="M669" t="n">
-        <v>2402</v>
+        <v>1097</v>
       </c>
       <c r="N669" t="inlineStr">
         <is>
@@ -48547,7 +48547,7 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>2402</v>
+        <v>1097</v>
       </c>
       <c r="Q669" t="n">
         <v>1</v>
@@ -48593,20 +48593,20 @@
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J670" t="n">
-        <v>2870</v>
+        <v>860</v>
       </c>
       <c r="K670" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L670" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="M670" t="n">
-        <v>1633</v>
+        <v>1000</v>
       </c>
       <c r="N670" t="inlineStr">
         <is>
@@ -48619,7 +48619,7 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>1633</v>
+        <v>1000</v>
       </c>
       <c r="Q670" t="n">
         <v>1</v>
@@ -48665,20 +48665,20 @@
       </c>
       <c r="I671" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J671" t="n">
-        <v>2150</v>
+        <v>700</v>
       </c>
       <c r="K671" t="n">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="L671" t="n">
-        <v>1600</v>
+        <v>900</v>
       </c>
       <c r="M671" t="n">
-        <v>1484</v>
+        <v>900</v>
       </c>
       <c r="N671" t="inlineStr">
         <is>
@@ -48691,7 +48691,7 @@
         </is>
       </c>
       <c r="P671" t="n">
-        <v>1484</v>
+        <v>900</v>
       </c>
       <c r="Q671" t="n">
         <v>1</v>
@@ -48737,20 +48737,20 @@
       </c>
       <c r="I672" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J672" t="n">
-        <v>1550</v>
+        <v>2570</v>
       </c>
       <c r="K672" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="L672" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M672" t="n">
-        <v>3500</v>
+        <v>2899</v>
       </c>
       <c r="N672" t="inlineStr">
         <is>
@@ -48763,7 +48763,7 @@
         </is>
       </c>
       <c r="P672" t="n">
-        <v>3500</v>
+        <v>2899</v>
       </c>
       <c r="Q672" t="n">
         <v>1</v>
@@ -48809,20 +48809,20 @@
       </c>
       <c r="I673" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J673" t="n">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="K673" t="n">
-        <v>3300</v>
+        <v>2700</v>
       </c>
       <c r="L673" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M673" t="n">
-        <v>3383</v>
+        <v>2844</v>
       </c>
       <c r="N673" t="inlineStr">
         <is>
@@ -48835,7 +48835,7 @@
         </is>
       </c>
       <c r="P673" t="n">
-        <v>3383</v>
+        <v>2844</v>
       </c>
       <c r="Q673" t="n">
         <v>1</v>
@@ -48881,20 +48881,20 @@
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J674" t="n">
-        <v>1300</v>
+        <v>3050</v>
       </c>
       <c r="K674" t="n">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="L674" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="M674" t="n">
-        <v>1200</v>
+        <v>2405</v>
       </c>
       <c r="N674" t="inlineStr">
         <is>
@@ -48907,7 +48907,7 @@
         </is>
       </c>
       <c r="P674" t="n">
-        <v>1200</v>
+        <v>2405</v>
       </c>
       <c r="Q674" t="n">
         <v>1</v>
@@ -48953,20 +48953,20 @@
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J675" t="n">
-        <v>1000</v>
+        <v>2350</v>
       </c>
       <c r="K675" t="n">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="L675" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="M675" t="n">
-        <v>1200</v>
+        <v>2402</v>
       </c>
       <c r="N675" t="inlineStr">
         <is>
@@ -48979,7 +48979,7 @@
         </is>
       </c>
       <c r="P675" t="n">
-        <v>1200</v>
+        <v>2402</v>
       </c>
       <c r="Q675" t="n">
         <v>1</v>
@@ -49005,7 +49005,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44459</v>
+        <v>44200</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -49025,33 +49025,33 @@
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J676" t="n">
-        <v>6200</v>
+        <v>2870</v>
       </c>
       <c r="K676" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L676" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="M676" t="n">
-        <v>1044</v>
+        <v>1633</v>
       </c>
       <c r="N676" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O676" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P676" t="n">
-        <v>1044</v>
+        <v>1633</v>
       </c>
       <c r="Q676" t="n">
         <v>1</v>
@@ -49077,7 +49077,7 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E677" t="n">
         <v>13</v>
@@ -49097,20 +49097,20 @@
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J677" t="n">
-        <v>2900</v>
+        <v>2150</v>
       </c>
       <c r="K677" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="L677" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="M677" t="n">
-        <v>1000</v>
+        <v>1484</v>
       </c>
       <c r="N677" t="inlineStr">
         <is>
@@ -49123,7 +49123,7 @@
         </is>
       </c>
       <c r="P677" t="n">
-        <v>1000</v>
+        <v>1484</v>
       </c>
       <c r="Q677" t="n">
         <v>1</v>
@@ -49149,7 +49149,7 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E678" t="n">
         <v>13</v>
@@ -49169,20 +49169,20 @@
       </c>
       <c r="I678" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J678" t="n">
-        <v>6500</v>
+        <v>1550</v>
       </c>
       <c r="K678" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L678" t="n">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="M678" t="n">
-        <v>3162</v>
+        <v>3500</v>
       </c>
       <c r="N678" t="inlineStr">
         <is>
@@ -49191,11 +49191,11 @@
       </c>
       <c r="O678" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P678" t="n">
-        <v>3162</v>
+        <v>3500</v>
       </c>
       <c r="Q678" t="n">
         <v>1</v>
@@ -49221,7 +49221,7 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E679" t="n">
         <v>13</v>
@@ -49241,20 +49241,20 @@
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J679" t="n">
-        <v>9800</v>
+        <v>1200</v>
       </c>
       <c r="K679" t="n">
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="L679" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="M679" t="n">
-        <v>2584</v>
+        <v>3383</v>
       </c>
       <c r="N679" t="inlineStr">
         <is>
@@ -49267,7 +49267,7 @@
         </is>
       </c>
       <c r="P679" t="n">
-        <v>2584</v>
+        <v>3383</v>
       </c>
       <c r="Q679" t="n">
         <v>1</v>
@@ -49293,7 +49293,7 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E680" t="n">
         <v>13</v>
@@ -49313,20 +49313,20 @@
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J680" t="n">
-        <v>7400</v>
+        <v>1300</v>
       </c>
       <c r="K680" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="L680" t="n">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="M680" t="n">
-        <v>2089</v>
+        <v>1200</v>
       </c>
       <c r="N680" t="inlineStr">
         <is>
@@ -49335,11 +49335,11 @@
       </c>
       <c r="O680" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P680" t="n">
-        <v>2089</v>
+        <v>1200</v>
       </c>
       <c r="Q680" t="n">
         <v>1</v>
@@ -49365,7 +49365,7 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
@@ -49385,20 +49385,20 @@
       </c>
       <c r="I681" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J681" t="n">
-        <v>6300</v>
+        <v>1000</v>
       </c>
       <c r="K681" t="n">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="L681" t="n">
-        <v>3700</v>
+        <v>1200</v>
       </c>
       <c r="M681" t="n">
-        <v>3592</v>
+        <v>1200</v>
       </c>
       <c r="N681" t="inlineStr">
         <is>
@@ -49411,7 +49411,7 @@
         </is>
       </c>
       <c r="P681" t="n">
-        <v>3592</v>
+        <v>1200</v>
       </c>
       <c r="Q681" t="n">
         <v>1</v>
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44188</v>
+        <v>44459</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -49457,33 +49457,33 @@
       </c>
       <c r="I682" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J682" t="n">
-        <v>5700</v>
+        <v>6200</v>
       </c>
       <c r="K682" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="L682" t="n">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="M682" t="n">
-        <v>1488</v>
+        <v>1044</v>
       </c>
       <c r="N682" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O682" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P682" t="n">
-        <v>1488</v>
+        <v>1044</v>
       </c>
       <c r="Q682" t="n">
         <v>1</v>
@@ -49509,7 +49509,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -49529,20 +49529,20 @@
       </c>
       <c r="I683" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J683" t="n">
-        <v>2200</v>
+        <v>2900</v>
       </c>
       <c r="K683" t="n">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="L683" t="n">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="M683" t="n">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="N683" t="inlineStr">
         <is>
@@ -49551,11 +49551,11 @@
       </c>
       <c r="O683" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P683" t="n">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="Q683" t="n">
         <v>1</v>
@@ -49581,7 +49581,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -49605,16 +49605,16 @@
         </is>
       </c>
       <c r="J684" t="n">
-        <v>2300</v>
+        <v>6500</v>
       </c>
       <c r="K684" t="n">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="L684" t="n">
-        <v>2100</v>
+        <v>3300</v>
       </c>
       <c r="M684" t="n">
-        <v>2100</v>
+        <v>3162</v>
       </c>
       <c r="N684" t="inlineStr">
         <is>
@@ -49627,7 +49627,7 @@
         </is>
       </c>
       <c r="P684" t="n">
-        <v>2100</v>
+        <v>3162</v>
       </c>
       <c r="Q684" t="n">
         <v>1</v>
@@ -49653,7 +49653,7 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E685" t="n">
         <v>13</v>
@@ -49677,16 +49677,16 @@
         </is>
       </c>
       <c r="J685" t="n">
-        <v>3000</v>
+        <v>9800</v>
       </c>
       <c r="K685" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L685" t="n">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="M685" t="n">
-        <v>1800</v>
+        <v>2584</v>
       </c>
       <c r="N685" t="inlineStr">
         <is>
@@ -49695,11 +49695,11 @@
       </c>
       <c r="O685" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P685" t="n">
-        <v>1800</v>
+        <v>2584</v>
       </c>
       <c r="Q685" t="n">
         <v>1</v>
@@ -49725,7 +49725,7 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E686" t="n">
         <v>13</v>
@@ -49745,20 +49745,20 @@
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J686" t="n">
-        <v>3400</v>
+        <v>7400</v>
       </c>
       <c r="K686" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L686" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="M686" t="n">
-        <v>1800</v>
+        <v>2089</v>
       </c>
       <c r="N686" t="inlineStr">
         <is>
@@ -49771,7 +49771,7 @@
         </is>
       </c>
       <c r="P686" t="n">
-        <v>1800</v>
+        <v>2089</v>
       </c>
       <c r="Q686" t="n">
         <v>1</v>
@@ -49797,7 +49797,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -49817,20 +49817,20 @@
       </c>
       <c r="I687" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J687" t="n">
-        <v>1700</v>
+        <v>6300</v>
       </c>
       <c r="K687" t="n">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="L687" t="n">
-        <v>1500</v>
+        <v>3700</v>
       </c>
       <c r="M687" t="n">
-        <v>1500</v>
+        <v>3592</v>
       </c>
       <c r="N687" t="inlineStr">
         <is>
@@ -49839,11 +49839,11 @@
       </c>
       <c r="O687" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P687" t="n">
-        <v>1500</v>
+        <v>3592</v>
       </c>
       <c r="Q687" t="n">
         <v>1</v>
@@ -49869,7 +49869,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -49889,20 +49889,20 @@
       </c>
       <c r="I688" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J688" t="n">
-        <v>2100</v>
+        <v>5700</v>
       </c>
       <c r="K688" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="L688" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M688" t="n">
-        <v>1500</v>
+        <v>1488</v>
       </c>
       <c r="N688" t="inlineStr">
         <is>
@@ -49915,7 +49915,7 @@
         </is>
       </c>
       <c r="P688" t="n">
-        <v>1500</v>
+        <v>1488</v>
       </c>
       <c r="Q688" t="n">
         <v>1</v>
@@ -49961,20 +49961,20 @@
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J689" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="K689" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="L689" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="M689" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="N689" t="inlineStr">
         <is>
@@ -49987,7 +49987,7 @@
         </is>
       </c>
       <c r="P689" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="Q689" t="n">
         <v>1</v>
@@ -50033,20 +50033,20 @@
       </c>
       <c r="I690" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J690" t="n">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="K690" t="n">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="L690" t="n">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="M690" t="n">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="N690" t="inlineStr">
         <is>
@@ -50059,7 +50059,7 @@
         </is>
       </c>
       <c r="P690" t="n">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="Q690" t="n">
         <v>1</v>
@@ -50105,20 +50105,20 @@
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J691" t="n">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="K691" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L691" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="M691" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="N691" t="inlineStr">
         <is>
@@ -50131,7 +50131,7 @@
         </is>
       </c>
       <c r="P691" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="Q691" t="n">
         <v>1</v>
@@ -50177,20 +50177,20 @@
       </c>
       <c r="I692" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J692" t="n">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="K692" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L692" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="M692" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="N692" t="inlineStr">
         <is>
@@ -50203,7 +50203,7 @@
         </is>
       </c>
       <c r="P692" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="Q692" t="n">
         <v>1</v>
@@ -50229,7 +50229,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -50249,20 +50249,20 @@
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J693" t="n">
-        <v>6800</v>
+        <v>1700</v>
       </c>
       <c r="K693" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L693" t="n">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="M693" t="n">
-        <v>2163</v>
+        <v>1500</v>
       </c>
       <c r="N693" t="inlineStr">
         <is>
@@ -50271,11 +50271,11 @@
       </c>
       <c r="O693" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P693" t="n">
-        <v>2163</v>
+        <v>1500</v>
       </c>
       <c r="Q693" t="n">
         <v>1</v>
@@ -50301,7 +50301,7 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E694" t="n">
         <v>13</v>
@@ -50321,20 +50321,20 @@
       </c>
       <c r="I694" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J694" t="n">
-        <v>8100</v>
+        <v>2100</v>
       </c>
       <c r="K694" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="L694" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="M694" t="n">
-        <v>1796</v>
+        <v>1500</v>
       </c>
       <c r="N694" t="inlineStr">
         <is>
@@ -50347,7 +50347,7 @@
         </is>
       </c>
       <c r="P694" t="n">
-        <v>1796</v>
+        <v>1500</v>
       </c>
       <c r="Q694" t="n">
         <v>1</v>
@@ -50373,7 +50373,7 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E695" t="n">
         <v>13</v>
@@ -50393,20 +50393,20 @@
       </c>
       <c r="I695" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J695" t="n">
-        <v>4400</v>
+        <v>1500</v>
       </c>
       <c r="K695" t="n">
-        <v>1400</v>
+        <v>2600</v>
       </c>
       <c r="L695" t="n">
-        <v>1600</v>
+        <v>2600</v>
       </c>
       <c r="M695" t="n">
-        <v>1514</v>
+        <v>2600</v>
       </c>
       <c r="N695" t="inlineStr">
         <is>
@@ -50415,11 +50415,11 @@
       </c>
       <c r="O695" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P695" t="n">
-        <v>1514</v>
+        <v>2600</v>
       </c>
       <c r="Q695" t="n">
         <v>1</v>
@@ -50445,7 +50445,7 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E696" t="n">
         <v>13</v>
@@ -50469,16 +50469,16 @@
         </is>
       </c>
       <c r="J696" t="n">
-        <v>5800</v>
+        <v>1500</v>
       </c>
       <c r="K696" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="L696" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="M696" t="n">
-        <v>2566</v>
+        <v>2500</v>
       </c>
       <c r="N696" t="inlineStr">
         <is>
@@ -50491,7 +50491,7 @@
         </is>
       </c>
       <c r="P696" t="n">
-        <v>2566</v>
+        <v>2500</v>
       </c>
       <c r="Q696" t="n">
         <v>1</v>
@@ -50517,7 +50517,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44224</v>
+        <v>44258</v>
       </c>
       <c r="E697" t="n">
         <v>13</v>
@@ -50541,16 +50541,16 @@
         </is>
       </c>
       <c r="J697" t="n">
-        <v>4300</v>
+        <v>2100</v>
       </c>
       <c r="K697" t="n">
         <v>1000</v>
       </c>
       <c r="L697" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="M697" t="n">
-        <v>1130</v>
+        <v>1000</v>
       </c>
       <c r="N697" t="inlineStr">
         <is>
@@ -50559,11 +50559,11 @@
       </c>
       <c r="O697" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P697" t="n">
-        <v>1130</v>
+        <v>1000</v>
       </c>
       <c r="Q697" t="n">
         <v>1</v>
@@ -50589,7 +50589,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44452</v>
+        <v>44258</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -50609,33 +50609,33 @@
       </c>
       <c r="I698" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J698" t="n">
-        <v>4500</v>
+        <v>2600</v>
       </c>
       <c r="K698" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="L698" t="n">
-        <v>1150</v>
+        <v>1000</v>
       </c>
       <c r="M698" t="n">
-        <v>1121</v>
+        <v>1000</v>
       </c>
       <c r="N698" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O698" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P698" t="n">
-        <v>1121</v>
+        <v>1000</v>
       </c>
       <c r="Q698" t="n">
         <v>1</v>
@@ -50661,7 +50661,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -50681,20 +50681,20 @@
       </c>
       <c r="I699" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J699" t="n">
-        <v>1800</v>
+        <v>6800</v>
       </c>
       <c r="K699" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L699" t="n">
-        <v>1000</v>
+        <v>2300</v>
       </c>
       <c r="M699" t="n">
-        <v>1000</v>
+        <v>2163</v>
       </c>
       <c r="N699" t="inlineStr">
         <is>
@@ -50703,11 +50703,11 @@
       </c>
       <c r="O699" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P699" t="n">
-        <v>1000</v>
+        <v>2163</v>
       </c>
       <c r="Q699" t="n">
         <v>1</v>
@@ -50733,7 +50733,7 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E700" t="n">
         <v>13</v>
@@ -50753,20 +50753,20 @@
       </c>
       <c r="I700" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J700" t="n">
-        <v>2300</v>
+        <v>8100</v>
       </c>
       <c r="K700" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="L700" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="M700" t="n">
-        <v>2500</v>
+        <v>1796</v>
       </c>
       <c r="N700" t="inlineStr">
         <is>
@@ -50775,11 +50775,11 @@
       </c>
       <c r="O700" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P700" t="n">
-        <v>2500</v>
+        <v>1796</v>
       </c>
       <c r="Q700" t="n">
         <v>1</v>
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E701" t="n">
         <v>13</v>
@@ -50825,20 +50825,20 @@
       </c>
       <c r="I701" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J701" t="n">
-        <v>3500</v>
+        <v>4400</v>
       </c>
       <c r="K701" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="L701" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M701" t="n">
-        <v>2000</v>
+        <v>1514</v>
       </c>
       <c r="N701" t="inlineStr">
         <is>
@@ -50847,11 +50847,11 @@
       </c>
       <c r="O701" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P701" t="n">
-        <v>2000</v>
+        <v>1514</v>
       </c>
       <c r="Q701" t="n">
         <v>1</v>
@@ -50877,7 +50877,7 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E702" t="n">
         <v>13</v>
@@ -50897,20 +50897,20 @@
       </c>
       <c r="I702" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J702" t="n">
-        <v>3800</v>
+        <v>5800</v>
       </c>
       <c r="K702" t="n">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="L702" t="n">
-        <v>1700</v>
+        <v>2700</v>
       </c>
       <c r="M702" t="n">
-        <v>1700</v>
+        <v>2566</v>
       </c>
       <c r="N702" t="inlineStr">
         <is>
@@ -50919,11 +50919,11 @@
       </c>
       <c r="O702" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P702" t="n">
-        <v>1700</v>
+        <v>2566</v>
       </c>
       <c r="Q702" t="n">
         <v>1</v>
@@ -50949,7 +50949,7 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44270</v>
+        <v>44224</v>
       </c>
       <c r="E703" t="n">
         <v>13</v>
@@ -50973,16 +50973,16 @@
         </is>
       </c>
       <c r="J703" t="n">
-        <v>2700</v>
+        <v>4300</v>
       </c>
       <c r="K703" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L703" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="M703" t="n">
-        <v>1500</v>
+        <v>1130</v>
       </c>
       <c r="N703" t="inlineStr">
         <is>
@@ -50991,11 +50991,11 @@
       </c>
       <c r="O703" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P703" t="n">
-        <v>1500</v>
+        <v>1130</v>
       </c>
       <c r="Q703" t="n">
         <v>1</v>
@@ -51021,7 +51021,7 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44195</v>
+        <v>44452</v>
       </c>
       <c r="E704" t="n">
         <v>13</v>
@@ -51041,33 +51041,33 @@
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J704" t="n">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="K704" t="n">
-        <v>2700</v>
+        <v>1100</v>
       </c>
       <c r="L704" t="n">
-        <v>3000</v>
+        <v>1150</v>
       </c>
       <c r="M704" t="n">
-        <v>2832</v>
+        <v>1121</v>
       </c>
       <c r="N704" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O704" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P704" t="n">
-        <v>2832</v>
+        <v>1121</v>
       </c>
       <c r="Q704" t="n">
         <v>1</v>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E705" t="n">
         <v>13</v>
@@ -51113,20 +51113,20 @@
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J705" t="n">
-        <v>8300</v>
+        <v>1800</v>
       </c>
       <c r="K705" t="n">
-        <v>2300</v>
+        <v>1000</v>
       </c>
       <c r="L705" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="M705" t="n">
-        <v>2392</v>
+        <v>1000</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
@@ -51135,11 +51135,11 @@
       </c>
       <c r="O705" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P705" t="n">
-        <v>2392</v>
+        <v>1000</v>
       </c>
       <c r="Q705" t="n">
         <v>1</v>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -51185,20 +51185,20 @@
       </c>
       <c r="I706" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J706" t="n">
-        <v>4000</v>
+        <v>2300</v>
       </c>
       <c r="K706" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="L706" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M706" t="n">
-        <v>1830</v>
+        <v>2500</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
@@ -51207,11 +51207,11 @@
       </c>
       <c r="O706" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P706" t="n">
-        <v>1830</v>
+        <v>2500</v>
       </c>
       <c r="Q706" t="n">
         <v>1</v>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -51257,20 +51257,20 @@
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J707" t="n">
-        <v>7700</v>
+        <v>3500</v>
       </c>
       <c r="K707" t="n">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="L707" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="M707" t="n">
-        <v>3487</v>
+        <v>2000</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
@@ -51279,11 +51279,11 @@
       </c>
       <c r="O707" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P707" t="n">
-        <v>3487</v>
+        <v>2000</v>
       </c>
       <c r="Q707" t="n">
         <v>1</v>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -51329,20 +51329,20 @@
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J708" t="n">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="K708" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="L708" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="M708" t="n">
-        <v>1225</v>
+        <v>1700</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
@@ -51351,11 +51351,11 @@
       </c>
       <c r="O708" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P708" t="n">
-        <v>1225</v>
+        <v>1700</v>
       </c>
       <c r="Q708" t="n">
         <v>1</v>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44473</v>
+        <v>44270</v>
       </c>
       <c r="E709" t="n">
         <v>13</v>
@@ -51401,33 +51401,33 @@
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J709" t="n">
-        <v>7500</v>
+        <v>2700</v>
       </c>
       <c r="K709" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="L709" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="M709" t="n">
-        <v>721</v>
+        <v>1500</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O709" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P709" t="n">
-        <v>721</v>
+        <v>1500</v>
       </c>
       <c r="Q709" t="n">
         <v>1</v>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E710" t="n">
         <v>13</v>
@@ -51477,16 +51477,16 @@
         </is>
       </c>
       <c r="J710" t="n">
-        <v>2400</v>
+        <v>5000</v>
       </c>
       <c r="K710" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="L710" t="n">
         <v>3000</v>
       </c>
       <c r="M710" t="n">
-        <v>3000</v>
+        <v>2832</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
@@ -51495,11 +51495,11 @@
       </c>
       <c r="O710" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P710" t="n">
-        <v>3000</v>
+        <v>2832</v>
       </c>
       <c r="Q710" t="n">
         <v>1</v>
@@ -51525,7 +51525,7 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E711" t="n">
         <v>13</v>
@@ -51545,20 +51545,20 @@
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J711" t="n">
         <v>8300</v>
       </c>
       <c r="K711" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="L711" t="n">
-        <v>3300</v>
+        <v>2500</v>
       </c>
       <c r="M711" t="n">
-        <v>3137</v>
+        <v>2392</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
@@ -51571,7 +51571,7 @@
         </is>
       </c>
       <c r="P711" t="n">
-        <v>3137</v>
+        <v>2392</v>
       </c>
       <c r="Q711" t="n">
         <v>1</v>
@@ -51597,7 +51597,7 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E712" t="n">
         <v>13</v>
@@ -51617,20 +51617,20 @@
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J712" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="K712" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="L712" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M712" t="n">
-        <v>2500</v>
+        <v>1830</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
@@ -51639,11 +51639,11 @@
       </c>
       <c r="O712" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P712" t="n">
-        <v>2500</v>
+        <v>1830</v>
       </c>
       <c r="Q712" t="n">
         <v>1</v>
@@ -51669,7 +51669,7 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E713" t="n">
         <v>13</v>
@@ -51689,20 +51689,20 @@
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J713" t="n">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="K713" t="n">
-        <v>2000</v>
+        <v>3300</v>
       </c>
       <c r="L713" t="n">
-        <v>2300</v>
+        <v>3700</v>
       </c>
       <c r="M713" t="n">
-        <v>2173</v>
+        <v>3487</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
@@ -51715,7 +51715,7 @@
         </is>
       </c>
       <c r="P713" t="n">
-        <v>2173</v>
+        <v>3487</v>
       </c>
       <c r="Q713" t="n">
         <v>1</v>
@@ -51741,7 +51741,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -51761,20 +51761,20 @@
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J714" t="n">
-        <v>4200</v>
+        <v>3200</v>
       </c>
       <c r="K714" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="L714" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="M714" t="n">
-        <v>1800</v>
+        <v>1225</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
@@ -51783,11 +51783,11 @@
       </c>
       <c r="O714" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P714" t="n">
-        <v>1800</v>
+        <v>1225</v>
       </c>
       <c r="Q714" t="n">
         <v>1</v>
@@ -51813,7 +51813,7 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44536</v>
+        <v>44473</v>
       </c>
       <c r="E715" t="n">
         <v>13</v>
@@ -51833,33 +51833,33 @@
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J715" t="n">
-        <v>6300</v>
+        <v>7500</v>
       </c>
       <c r="K715" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="L715" t="n">
-        <v>1700</v>
+        <v>750</v>
       </c>
       <c r="M715" t="n">
-        <v>1640</v>
+        <v>721</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O715" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P715" t="n">
-        <v>1640</v>
+        <v>721</v>
       </c>
       <c r="Q715" t="n">
         <v>1</v>
@@ -51905,20 +51905,20 @@
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J716" t="n">
+        <v>2400</v>
+      </c>
+      <c r="K716" t="n">
         <v>3000</v>
       </c>
-      <c r="K716" t="n">
-        <v>1200</v>
-      </c>
       <c r="L716" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="M716" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="N716" t="inlineStr">
         <is>
@@ -51927,11 +51927,11 @@
       </c>
       <c r="O716" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P716" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="Q716" t="n">
         <v>1</v>
@@ -51957,7 +51957,7 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44511</v>
+        <v>44536</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -51977,33 +51977,33 @@
       </c>
       <c r="I717" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J717" t="n">
-        <v>7100</v>
+        <v>8300</v>
       </c>
       <c r="K717" t="n">
-        <v>750</v>
+        <v>3000</v>
       </c>
       <c r="L717" t="n">
-        <v>800</v>
+        <v>3300</v>
       </c>
       <c r="M717" t="n">
-        <v>773</v>
+        <v>3137</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O717" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P717" t="n">
-        <v>773</v>
+        <v>3137</v>
       </c>
       <c r="Q717" t="n">
         <v>1</v>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44511</v>
+        <v>44536</v>
       </c>
       <c r="E718" t="n">
         <v>13</v>
@@ -52049,33 +52049,33 @@
       </c>
       <c r="I718" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J718" t="n">
-        <v>1900</v>
+        <v>3500</v>
       </c>
       <c r="K718" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="L718" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="M718" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O718" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P718" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="Q718" t="n">
         <v>1</v>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44239</v>
+        <v>44536</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -52121,20 +52121,20 @@
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J719" t="n">
-        <v>2500</v>
+        <v>7800</v>
       </c>
       <c r="K719" t="n">
         <v>2000</v>
       </c>
       <c r="L719" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="M719" t="n">
-        <v>2000</v>
+        <v>2173</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
@@ -52143,11 +52143,11 @@
       </c>
       <c r="O719" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P719" t="n">
-        <v>2000</v>
+        <v>2173</v>
       </c>
       <c r="Q719" t="n">
         <v>1</v>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44239</v>
+        <v>44536</v>
       </c>
       <c r="E720" t="n">
         <v>13</v>
@@ -52193,20 +52193,20 @@
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J720" t="n">
-        <v>3400</v>
+        <v>4200</v>
       </c>
       <c r="K720" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L720" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="M720" t="n">
-        <v>2118</v>
+        <v>1800</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
@@ -52215,11 +52215,11 @@
       </c>
       <c r="O720" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P720" t="n">
-        <v>2118</v>
+        <v>1800</v>
       </c>
       <c r="Q720" t="n">
         <v>1</v>
@@ -52245,7 +52245,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44239</v>
+        <v>44536</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -52265,20 +52265,20 @@
       </c>
       <c r="I721" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J721" t="n">
-        <v>3500</v>
+        <v>6300</v>
       </c>
       <c r="K721" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="L721" t="n">
         <v>1700</v>
       </c>
       <c r="M721" t="n">
-        <v>1700</v>
+        <v>1640</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
@@ -52287,11 +52287,11 @@
       </c>
       <c r="O721" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P721" t="n">
-        <v>1700</v>
+        <v>1640</v>
       </c>
       <c r="Q721" t="n">
         <v>1</v>
@@ -52317,7 +52317,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44239</v>
+        <v>44536</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -52337,20 +52337,20 @@
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J722" t="n">
-        <v>5700</v>
+        <v>3000</v>
       </c>
       <c r="K722" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L722" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="M722" t="n">
-        <v>1609</v>
+        <v>1200</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
@@ -52363,7 +52363,7 @@
         </is>
       </c>
       <c r="P722" t="n">
-        <v>1609</v>
+        <v>1200</v>
       </c>
       <c r="Q722" t="n">
         <v>1</v>
@@ -52389,7 +52389,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -52409,33 +52409,33 @@
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J723" t="n">
-        <v>3900</v>
+        <v>7100</v>
       </c>
       <c r="K723" t="n">
-        <v>1300</v>
+        <v>750</v>
       </c>
       <c r="L723" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="M723" t="n">
-        <v>1438</v>
+        <v>773</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O723" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P723" t="n">
-        <v>1438</v>
+        <v>773</v>
       </c>
       <c r="Q723" t="n">
         <v>1</v>
@@ -52461,7 +52461,7 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44239</v>
+        <v>44511</v>
       </c>
       <c r="E724" t="n">
         <v>13</v>
@@ -52481,33 +52481,33 @@
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J724" t="n">
-        <v>2800</v>
+        <v>1900</v>
       </c>
       <c r="K724" t="n">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="L724" t="n">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="M724" t="n">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O724" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P724" t="n">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="Q724" t="n">
         <v>1</v>
@@ -52553,20 +52553,20 @@
       </c>
       <c r="I725" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J725" t="n">
-        <v>4100</v>
+        <v>2500</v>
       </c>
       <c r="K725" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="L725" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="M725" t="n">
-        <v>2476</v>
+        <v>2000</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
@@ -52575,11 +52575,11 @@
       </c>
       <c r="O725" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P725" t="n">
-        <v>2476</v>
+        <v>2000</v>
       </c>
       <c r="Q725" t="n">
         <v>1</v>
@@ -52625,20 +52625,20 @@
       </c>
       <c r="I726" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J726" t="n">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="K726" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L726" t="n">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="M726" t="n">
-        <v>1128</v>
+        <v>2118</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
@@ -52651,7 +52651,7 @@
         </is>
       </c>
       <c r="P726" t="n">
-        <v>1128</v>
+        <v>2118</v>
       </c>
       <c r="Q726" t="n">
         <v>1</v>
@@ -52677,7 +52677,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44454</v>
+        <v>44239</v>
       </c>
       <c r="E727" t="n">
         <v>13</v>
@@ -52701,29 +52701,29 @@
         </is>
       </c>
       <c r="J727" t="n">
-        <v>5200</v>
+        <v>3500</v>
       </c>
       <c r="K727" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="L727" t="n">
-        <v>1100</v>
+        <v>1700</v>
       </c>
       <c r="M727" t="n">
-        <v>1044</v>
+        <v>1700</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O727" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P727" t="n">
-        <v>1044</v>
+        <v>1700</v>
       </c>
       <c r="Q727" t="n">
         <v>1</v>
@@ -52749,7 +52749,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E728" t="n">
         <v>13</v>
@@ -52769,20 +52769,20 @@
       </c>
       <c r="I728" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J728" t="n">
-        <v>2500</v>
+        <v>5700</v>
       </c>
       <c r="K728" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="L728" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="M728" t="n">
-        <v>800</v>
+        <v>1609</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
@@ -52795,7 +52795,7 @@
         </is>
       </c>
       <c r="P728" t="n">
-        <v>800</v>
+        <v>1609</v>
       </c>
       <c r="Q728" t="n">
         <v>1</v>
@@ -52821,7 +52821,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -52841,20 +52841,20 @@
       </c>
       <c r="I729" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J729" t="n">
-        <v>2400</v>
+        <v>3900</v>
       </c>
       <c r="K729" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="L729" t="n">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="M729" t="n">
-        <v>3000</v>
+        <v>1438</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
@@ -52863,11 +52863,11 @@
       </c>
       <c r="O729" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P729" t="n">
-        <v>3000</v>
+        <v>1438</v>
       </c>
       <c r="Q729" t="n">
         <v>1</v>
@@ -52893,7 +52893,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -52913,20 +52913,20 @@
       </c>
       <c r="I730" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J730" t="n">
-        <v>4900</v>
+        <v>2800</v>
       </c>
       <c r="K730" t="n">
         <v>2500</v>
       </c>
       <c r="L730" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M730" t="n">
-        <v>2641</v>
+        <v>2500</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
@@ -52935,11 +52935,11 @@
       </c>
       <c r="O730" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P730" t="n">
-        <v>2641</v>
+        <v>2500</v>
       </c>
       <c r="Q730" t="n">
         <v>1</v>
@@ -52965,7 +52965,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E731" t="n">
         <v>13</v>
@@ -52985,20 +52985,20 @@
       </c>
       <c r="I731" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J731" t="n">
-        <v>3300</v>
+        <v>4100</v>
       </c>
       <c r="K731" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="L731" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="M731" t="n">
-        <v>2400</v>
+        <v>2476</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
@@ -53007,11 +53007,11 @@
       </c>
       <c r="O731" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P731" t="n">
-        <v>2400</v>
+        <v>2476</v>
       </c>
       <c r="Q731" t="n">
         <v>1</v>
@@ -53037,7 +53037,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E732" t="n">
         <v>13</v>
@@ -53057,20 +53057,20 @@
       </c>
       <c r="I732" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J732" t="n">
-        <v>8700</v>
+        <v>3600</v>
       </c>
       <c r="K732" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L732" t="n">
-        <v>2300</v>
+        <v>1200</v>
       </c>
       <c r="M732" t="n">
-        <v>2134</v>
+        <v>1128</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
@@ -53083,7 +53083,7 @@
         </is>
       </c>
       <c r="P732" t="n">
-        <v>2134</v>
+        <v>1128</v>
       </c>
       <c r="Q732" t="n">
         <v>1</v>
@@ -53109,7 +53109,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44194</v>
+        <v>44454</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -53129,33 +53129,33 @@
       </c>
       <c r="I733" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J733" t="n">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="K733" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="L733" t="n">
-        <v>1800</v>
+        <v>1100</v>
       </c>
       <c r="M733" t="n">
-        <v>1800</v>
+        <v>1044</v>
       </c>
       <c r="N733" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O733" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P733" t="n">
-        <v>1800</v>
+        <v>1044</v>
       </c>
       <c r="Q733" t="n">
         <v>1</v>
@@ -53201,20 +53201,20 @@
       </c>
       <c r="I734" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="J734" t="n">
-        <v>3600</v>
+        <v>2500</v>
       </c>
       <c r="K734" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="L734" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="M734" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
@@ -53223,11 +53223,11 @@
       </c>
       <c r="O734" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P734" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="Q734" t="n">
         <v>1</v>
@@ -53273,20 +53273,20 @@
       </c>
       <c r="I735" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J735" t="n">
-        <v>8000</v>
+        <v>2400</v>
       </c>
       <c r="K735" t="n">
         <v>3000</v>
       </c>
       <c r="L735" t="n">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="M735" t="n">
-        <v>3131</v>
+        <v>3000</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
@@ -53295,11 +53295,11 @@
       </c>
       <c r="O735" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P735" t="n">
-        <v>3131</v>
+        <v>3000</v>
       </c>
       <c r="Q735" t="n">
         <v>1</v>
@@ -53345,20 +53345,20 @@
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J736" t="n">
-        <v>3800</v>
+        <v>4900</v>
       </c>
       <c r="K736" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="L736" t="n">
-        <v>1300</v>
+        <v>2800</v>
       </c>
       <c r="M736" t="n">
-        <v>1174</v>
+        <v>2641</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
@@ -53371,7 +53371,7 @@
         </is>
       </c>
       <c r="P736" t="n">
-        <v>1174</v>
+        <v>2641</v>
       </c>
       <c r="Q736" t="n">
         <v>1</v>
@@ -53397,7 +53397,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E737" t="n">
         <v>13</v>
@@ -53421,29 +53421,29 @@
         </is>
       </c>
       <c r="J737" t="n">
-        <v>5900</v>
+        <v>3300</v>
       </c>
       <c r="K737" t="n">
-        <v>750</v>
+        <v>2400</v>
       </c>
       <c r="L737" t="n">
-        <v>780</v>
+        <v>2400</v>
       </c>
       <c r="M737" t="n">
-        <v>767</v>
+        <v>2400</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O737" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P737" t="n">
-        <v>767</v>
+        <v>2400</v>
       </c>
       <c r="Q737" t="n">
         <v>1</v>
@@ -53469,7 +53469,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -53489,33 +53489,33 @@
       </c>
       <c r="I738" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J738" t="n">
-        <v>2200</v>
+        <v>8700</v>
       </c>
       <c r="K738" t="n">
-        <v>650</v>
+        <v>2000</v>
       </c>
       <c r="L738" t="n">
-        <v>650</v>
+        <v>2300</v>
       </c>
       <c r="M738" t="n">
-        <v>650</v>
+        <v>2134</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
-          <t>$/kilo (volumen en unidades)</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O738" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P738" t="n">
-        <v>650</v>
+        <v>2134</v>
       </c>
       <c r="Q738" t="n">
         <v>1</v>
@@ -53541,7 +53541,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44272</v>
+        <v>44194</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -53561,20 +53561,20 @@
       </c>
       <c r="I739" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J739" t="n">
-        <v>2400</v>
+        <v>5000</v>
       </c>
       <c r="K739" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L739" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="M739" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
@@ -53583,11 +53583,11 @@
       </c>
       <c r="O739" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P739" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="Q739" t="n">
         <v>1</v>
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44272</v>
+        <v>44194</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -53633,20 +53633,20 @@
       </c>
       <c r="I740" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J740" t="n">
-        <v>2200</v>
+        <v>3600</v>
       </c>
       <c r="K740" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L740" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M740" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
@@ -53655,11 +53655,11 @@
       </c>
       <c r="O740" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="P740" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="Q740" t="n">
         <v>1</v>
@@ -53685,7 +53685,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44272</v>
+        <v>44194</v>
       </c>
       <c r="E741" t="n">
         <v>13</v>
@@ -53705,20 +53705,20 @@
       </c>
       <c r="I741" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="J741" t="n">
-        <v>1900</v>
+        <v>8000</v>
       </c>
       <c r="K741" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="L741" t="n">
-        <v>1500</v>
+        <v>3300</v>
       </c>
       <c r="M741" t="n">
-        <v>1500</v>
+        <v>3131</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
@@ -53727,11 +53727,11 @@
       </c>
       <c r="O741" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P741" t="n">
-        <v>1500</v>
+        <v>3131</v>
       </c>
       <c r="Q741" t="n">
         <v>1</v>
@@ -53757,7 +53757,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44272</v>
+        <v>44194</v>
       </c>
       <c r="E742" t="n">
         <v>13</v>
@@ -53777,20 +53777,20 @@
       </c>
       <c r="I742" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J742" t="n">
-        <v>1700</v>
+        <v>3800</v>
       </c>
       <c r="K742" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="L742" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="M742" t="n">
-        <v>1600</v>
+        <v>1174</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
@@ -53803,7 +53803,7 @@
         </is>
       </c>
       <c r="P742" t="n">
-        <v>1600</v>
+        <v>1174</v>
       </c>
       <c r="Q742" t="n">
         <v>1</v>
@@ -53829,7 +53829,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44272</v>
+        <v>44518</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -53849,33 +53849,33 @@
       </c>
       <c r="I743" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J743" t="n">
-        <v>1500</v>
+        <v>5900</v>
       </c>
       <c r="K743" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="L743" t="n">
-        <v>1000</v>
+        <v>780</v>
       </c>
       <c r="M743" t="n">
-        <v>1000</v>
+        <v>767</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/kilo (volumen en unidades)</t>
         </is>
       </c>
       <c r="O743" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P743" t="n">
-        <v>1000</v>
+        <v>767</v>
       </c>
       <c r="Q743" t="n">
         <v>1</v>
@@ -53901,58 +53901,490 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
+        <v>44518</v>
+      </c>
+      <c r="E744" t="n">
+        <v>13</v>
+      </c>
+      <c r="F744" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G744" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H744" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I744" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J744" t="n">
+        <v>2200</v>
+      </c>
+      <c r="K744" t="n">
+        <v>650</v>
+      </c>
+      <c r="L744" t="n">
+        <v>650</v>
+      </c>
+      <c r="M744" t="n">
+        <v>650</v>
+      </c>
+      <c r="N744" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O744" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P744" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q744" t="n">
+        <v>1</v>
+      </c>
+      <c r="R744" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>6</v>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D745" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E744" t="n">
-        <v>13</v>
-      </c>
-      <c r="F744" t="n">
-        <v>100112028</v>
-      </c>
-      <c r="G744" t="inlineStr">
-        <is>
-          <t>Sandia</t>
-        </is>
-      </c>
-      <c r="H744" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I744" t="inlineStr">
+      <c r="E745" t="n">
+        <v>13</v>
+      </c>
+      <c r="F745" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G745" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H745" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I745" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J745" t="n">
+        <v>2400</v>
+      </c>
+      <c r="K745" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L745" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M745" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N745" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O745" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P745" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q745" t="n">
+        <v>1</v>
+      </c>
+      <c r="R745" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>6</v>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D746" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E746" t="n">
+        <v>13</v>
+      </c>
+      <c r="F746" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G746" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H746" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I746" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J746" t="n">
+        <v>2200</v>
+      </c>
+      <c r="K746" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L746" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M746" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N746" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O746" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P746" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q746" t="n">
+        <v>1</v>
+      </c>
+      <c r="R746" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>6</v>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D747" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E747" t="n">
+        <v>13</v>
+      </c>
+      <c r="F747" t="n">
+        <v>100112028</v>
+      </c>
+      <c r="G747" t="inlineStr">
+        <is>
+          <t>Sandia</t>
+        </is>
+      </c>
+      <c r="H747" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I747" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J747" t="n">
+        <v>1900</v>
+      </c>
+      <c r="K747" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L747" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M747" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N747" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O747" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P747" t="n">
+        <v>1500</v>
+      </c>
+      <c r="Q747" t="n">
+        <v>1</v>
+